--- a/demos/demo-SpOTy/sparnatural-config.xlsx
+++ b/demos/demo-SpOTy/sparnatural-config.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="508">
   <si>
     <t>PREFIX</t>
   </si>
@@ -455,6 +455,9 @@
     <t>Centre</t>
   </si>
   <si>
+    <t>TRUE</t>
+  </si>
+  <si>
     <t>this:Transcription</t>
   </si>
   <si>
@@ -534,6 +537,18 @@
   </si>
   <si>
     <t xml:space="preserve">ISO 639-3</t>
+  </si>
+  <si>
+    <t>this:Longitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>this:Latitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;--- Don't touch this cell</t>
@@ -794,7 +809,7 @@
     <t xml:space="preserve">has orthography</t>
   </si>
   <si>
-    <t xml:space="preserve">a pour orthography</t>
+    <t xml:space="preserve">a pour orthographe</t>
   </si>
   <si>
     <t>rdf:langString</t>
@@ -1251,6 +1266,9 @@
   </si>
   <si>
     <t xml:space="preserve">a pour longitude</t>
+  </si>
+  <si>
+    <t>xsd:decimal</t>
   </si>
   <si>
     <t>this:Center_latitude</t>
@@ -2646,6 +2664,15 @@
       <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="54" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="54" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="54" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2737,13 +2764,10 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="36" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="58" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="58" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="56" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="56" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
@@ -2757,9 +2781,6 @@
       <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="54" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="32" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2780,10 +2801,6 @@
     </xf>
     <xf fontId="32" fillId="51" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="32" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right"/>
@@ -3784,7 +3801,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A1" zoomScale="95" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A6" zoomScale="95" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
@@ -4240,19 +4257,22 @@
       </c>
       <c r="I21" s="12"/>
       <c r="O21" s="34"/>
+      <c r="Q21" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="22" ht="12.75">
       <c r="I22" s="12"/>
     </row>
     <row r="23" s="35" customFormat="1" ht="13.5">
       <c r="A23" s="35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -4261,7 +4281,7 @@
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I23" s="35">
         <v>90</v>
@@ -4269,7 +4289,7 @@
       <c r="J23" s="35"/>
       <c r="L23" s="35"/>
       <c r="O23" s="35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AMA23" s="35"/>
       <c r="AMB23" s="35"/>
@@ -4279,13 +4299,13 @@
     </row>
     <row r="24" s="35" customFormat="1" ht="13.5">
       <c r="A24" s="35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
@@ -4294,7 +4314,7 @@
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I24" s="35">
         <v>90</v>
@@ -4302,7 +4322,7 @@
       <c r="J24" s="35"/>
       <c r="L24" s="35"/>
       <c r="O24" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AMA24" s="35"/>
       <c r="AMB24" s="35"/>
@@ -4312,13 +4332,13 @@
     </row>
     <row r="25" s="35" customFormat="1" ht="13.5">
       <c r="A25" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -4327,7 +4347,7 @@
       </c>
       <c r="G25" s="35"/>
       <c r="H25" s="36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I25" s="35">
         <v>90</v>
@@ -4335,7 +4355,7 @@
       <c r="J25" s="35"/>
       <c r="L25" s="35"/>
       <c r="O25" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AMA25" s="35"/>
       <c r="AMB25" s="35"/>
@@ -4345,13 +4365,13 @@
     </row>
     <row r="26" s="35" customFormat="1" ht="12.75">
       <c r="A26" s="35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -4360,7 +4380,7 @@
       </c>
       <c r="G26" s="35"/>
       <c r="H26" s="36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I26" s="35">
         <v>91</v>
@@ -4368,7 +4388,7 @@
       <c r="J26" s="35"/>
       <c r="L26" s="35"/>
       <c r="O26" s="35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AMA26" s="35"/>
       <c r="AMB26" s="35"/>
@@ -4378,13 +4398,13 @@
     </row>
     <row r="27" s="35" customFormat="1" ht="12.5">
       <c r="A27" s="35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -4393,7 +4413,7 @@
       </c>
       <c r="G27" s="35"/>
       <c r="H27" s="36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I27" s="35">
         <v>91</v>
@@ -4401,7 +4421,7 @@
       <c r="J27" s="35"/>
       <c r="L27" s="35"/>
       <c r="O27" s="35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AMA27" s="35"/>
       <c r="AMB27" s="35"/>
@@ -4411,13 +4431,13 @@
     </row>
     <row r="28" s="35" customFormat="1" ht="12.5">
       <c r="A28" s="35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -4426,7 +4446,7 @@
       </c>
       <c r="G28" s="35"/>
       <c r="H28" s="36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I28" s="35">
         <v>91</v>
@@ -4434,7 +4454,7 @@
       <c r="J28" s="35"/>
       <c r="L28" s="35"/>
       <c r="O28" s="35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AMA28" s="35"/>
       <c r="AMB28" s="35"/>
@@ -4444,13 +4464,13 @@
     </row>
     <row r="29" s="35" customFormat="1" ht="12.75">
       <c r="A29" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -4459,7 +4479,7 @@
       </c>
       <c r="G29" s="35"/>
       <c r="H29" s="36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I29" s="37">
         <v>92</v>
@@ -4477,13 +4497,13 @@
     </row>
     <row r="30" s="35" customFormat="1" ht="12.75">
       <c r="A30" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -4492,7 +4512,7 @@
       </c>
       <c r="G30" s="35"/>
       <c r="H30" s="36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I30" s="37">
         <v>93</v>
@@ -4509,14 +4529,14 @@
       <c r="AME30" s="35"/>
     </row>
     <row r="31" s="35" customFormat="1" ht="12.5">
-      <c r="A31" s="35" t="s">
-        <v>156</v>
+      <c r="A31" s="38" t="s">
+        <v>157</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -4525,7 +4545,7 @@
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I31" s="35">
         <v>90</v>
@@ -4533,13 +4553,56 @@
       <c r="J31" s="35"/>
       <c r="L31" s="35"/>
       <c r="O31" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AMA31" s="35"/>
       <c r="AMB31" s="35"/>
       <c r="AMC31" s="35"/>
       <c r="AMD31" s="35"/>
       <c r="AME31" s="35"/>
+    </row>
+    <row r="32" ht="12.75">
+      <c r="A32" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" s="12">
+        <v>94</v>
+      </c>
+      <c r="O32" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75">
+      <c r="A33" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="12">
+        <v>95</v>
+      </c>
+      <c r="O33" s="35" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4583,17 +4646,17 @@
     <col customWidth="1" min="2" max="2" style="12" width="17.00390625"/>
     <col customWidth="1" min="3" max="3" style="0" width="74.57421875"/>
     <col customWidth="1" min="4" max="4" style="0" width="9.57421875"/>
-    <col customWidth="1" min="5" max="6" style="38" width="24.8515625"/>
-    <col customWidth="1" hidden="1" min="7" max="8" style="12" width="32.00390625"/>
-    <col customWidth="1" hidden="1" min="9" max="9" style="39" width="32.00390625"/>
-    <col customWidth="1" hidden="1" min="10" max="10" style="40" width="28.8515625"/>
-    <col customWidth="1" hidden="1" min="11" max="11" style="41" width="28.8515625"/>
+    <col customWidth="1" min="5" max="6" style="41" width="24.8515625"/>
+    <col customWidth="1" min="7" max="8" style="12" width="32.00390625"/>
+    <col customWidth="1" min="9" max="9" style="42" width="32.00390625"/>
+    <col customWidth="1" min="10" max="10" style="43" width="28.8515625"/>
+    <col customWidth="1" min="11" max="11" style="44" width="28.8515625"/>
     <col customWidth="1" min="12" max="12" style="0" width="17.28125"/>
     <col customWidth="1" min="13" max="13" style="0" width="20.00390625"/>
     <col customWidth="1" min="14" max="14" style="0" width="22.28125"/>
-    <col customWidth="1" min="15" max="20" style="0" width="19.28125"/>
-    <col customWidth="1" min="21" max="21" width="19.28125"/>
-    <col customWidth="1" min="22" max="23" style="12" width="19.28125"/>
+    <col customWidth="1" min="15" max="20" style="0" width="29.421875"/>
+    <col customWidth="1" min="21" max="21" width="29.421875"/>
+    <col customWidth="1" min="22" max="23" style="12" width="29.421875"/>
     <col customWidth="1" min="24" max="25" width="27.00390625"/>
     <col customWidth="1" min="26" max="26" width="31.00390625"/>
     <col customWidth="1" min="27" max="34" width="27.00390625"/>
@@ -4601,48 +4664,48 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="46" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D1" s="16"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="39"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="47"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50"/>
       <c r="R1" s="12"/>
       <c r="U1" s="12"/>
     </row>
     <row r="2" ht="12.75"/>
     <row r="3" s="21" customFormat="1" ht="12.800000000000001">
       <c r="A3" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="48"/>
+        <v>164</v>
+      </c>
+      <c r="B3" s="51"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="49"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="23"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
@@ -4663,296 +4726,296 @@
       <c r="AML3" s="21"/>
     </row>
     <row r="4" ht="12.5">
-      <c r="E4" s="52"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="12"/>
-      <c r="J4" s="53"/>
+      <c r="J4" s="56"/>
       <c r="S4" s="12"/>
     </row>
     <row r="5" s="26" customFormat="1" ht="153">
       <c r="A5" s="26" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>169</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>175</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="26" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="R5" s="26" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="S5" s="26" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="V5" s="26" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="W5" s="26" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="X5" s="27" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Y5" s="27" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Z5" s="27" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AA5" s="27" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AB5" s="27" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AC5" s="27" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AD5" s="27" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AE5" s="27" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AF5" s="27" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AG5" s="27" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AH5" s="27"/>
     </row>
-    <row r="6" s="56" customFormat="1" ht="25.5">
-      <c r="A6" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>195</v>
+    <row r="6" s="59" customFormat="1" ht="25.5">
+      <c r="A6" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>200</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="56"/>
+        <v>201</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
     </row>
     <row r="7" ht="25.5">
       <c r="A7" s="30" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="63" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="J7" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>213</v>
       </c>
       <c r="L7" s="31" t="s">
         <v>93</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="R7" s="31" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="S7" s="30" t="s">
         <v>96</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="V7" s="31" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="W7" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="X7" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y7" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z7" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="AA7" s="60" t="s">
+      <c r="X7" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y7" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z7" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA7" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="AB7" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC7" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD7" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE7" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF7" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG7" s="60" t="s">
+      <c r="AB7" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="AH7" s="60" t="s">
+      <c r="AC7" s="63" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="8" s="62" customFormat="1" ht="12.75">
-      <c r="A8" s="62" t="s">
+      <c r="AD7" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE7" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF7" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG7" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH7" s="63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" s="65" customFormat="1" ht="12.75">
+      <c r="A8" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="AMH8" s="62"/>
-      <c r="AMI8" s="62"/>
-      <c r="AMJ8" s="62"/>
-      <c r="AMK8" s="62"/>
-      <c r="AML8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="AMH8" s="65"/>
+      <c r="AMI8" s="65"/>
+      <c r="AMJ8" s="65"/>
+      <c r="AMK8" s="65"/>
+      <c r="AML8" s="65"/>
     </row>
     <row r="9" ht="12.75">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
         <v>103</v>
@@ -4961,18 +5024,18 @@
         <v>55</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>229</v>
+        <v>234</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>234</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40">
+      <c r="I9" s="42"/>
+      <c r="J9" s="43">
         <v>1</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="44">
         <v>1</v>
       </c>
       <c r="L9" t="s">
@@ -4980,34 +5043,37 @@
       </c>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
-      <c r="X9" s="64"/>
+      <c r="X9" s="67"/>
+      <c r="AA9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="10" s="0" customFormat="1" ht="13.5">
       <c r="A10" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="65" t="s">
-        <v>231</v>
+      <c r="C10" s="68" t="s">
+        <v>236</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="35" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -5016,9 +5082,12 @@
       <c r="T10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="66" t="s">
-        <v>235</v>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>131</v>
       </c>
       <c r="AMH10" s="3"/>
       <c r="AMI10" s="3"/>
@@ -5028,30 +5097,30 @@
     </row>
     <row r="11" s="0" customFormat="1" ht="12.75">
       <c r="A11" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B11" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="65" t="s">
-        <v>237</v>
+      <c r="C11" s="68" t="s">
+        <v>242</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="35" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M11" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -5060,7 +5129,10 @@
       <c r="T11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="64"/>
+      <c r="X11" s="67"/>
+      <c r="AA11" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH11" s="3"/>
       <c r="AMI11" s="3"/>
       <c r="AMJ11" s="3"/>
@@ -5069,20 +5141,20 @@
     </row>
     <row r="12" s="0" customFormat="1" ht="12.75">
       <c r="A12" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="65" t="s">
-        <v>241</v>
+      <c r="C12" s="68" t="s">
+        <v>246</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>243</v>
+        <v>247</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>248</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -5092,10 +5164,10 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M12" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -5104,7 +5176,10 @@
       <c r="T12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="64"/>
+      <c r="X12" s="67"/>
+      <c r="AA12" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH12" s="3"/>
       <c r="AMI12" s="3"/>
       <c r="AMJ12" s="3"/>
@@ -5113,20 +5188,20 @@
     </row>
     <row r="13" s="0" customFormat="1" ht="12.75">
       <c r="A13" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="65" t="s">
-        <v>246</v>
+      <c r="C13" s="68" t="s">
+        <v>251</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="35" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -5136,10 +5211,10 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -5148,7 +5223,10 @@
       <c r="T13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="64"/>
+      <c r="X13" s="67"/>
+      <c r="AA13" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH13" s="3"/>
       <c r="AMI13" s="3"/>
       <c r="AMJ13" s="3"/>
@@ -5157,20 +5235,20 @@
     </row>
     <row r="14" s="0" customFormat="1" ht="12.75">
       <c r="A14" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="65" t="s">
-        <v>250</v>
+      <c r="C14" s="68" t="s">
+        <v>255</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="35" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -5180,10 +5258,10 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -5192,7 +5270,10 @@
       <c r="T14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="64"/>
+      <c r="X14" s="67"/>
+      <c r="AA14" s="70" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH14" s="3"/>
       <c r="AMI14" s="3"/>
       <c r="AMJ14" s="3"/>
@@ -5201,20 +5282,20 @@
     </row>
     <row r="15" s="0" customFormat="1" ht="12.75">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B15" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="65" t="s">
-        <v>255</v>
+      <c r="C15" s="68" t="s">
+        <v>260</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="35" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -5233,7 +5314,10 @@
       <c r="T15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="64"/>
+      <c r="X15" s="67"/>
+      <c r="AA15" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH15" s="3"/>
       <c r="AMI15" s="3"/>
       <c r="AMJ15" s="3"/>
@@ -5242,24 +5326,24 @@
     </row>
     <row r="16" ht="13.5">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="67" t="s">
-        <v>259</v>
+      <c r="C16" s="71" t="s">
+        <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F16" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
       <c r="L16" t="s">
         <v>108</v>
       </c>
@@ -5268,8 +5352,8 @@
       </c>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
-      <c r="X16" s="64" t="s">
-        <v>262</v>
+      <c r="X16" s="67" t="s">
+        <v>267</v>
       </c>
       <c r="AB16" t="b">
         <v>1</v>
@@ -5277,24 +5361,24 @@
     </row>
     <row r="17" ht="13.5">
       <c r="A17" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B17" t="s">
         <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E17" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
       <c r="L17" t="s">
         <v>108</v>
       </c>
@@ -5303,11 +5387,11 @@
       </c>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="64" t="s">
-        <v>267</v>
+      <c r="X17" s="67" t="s">
+        <v>272</v>
       </c>
       <c r="Z17" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AB17" t="b">
         <v>1</v>
@@ -5315,34 +5399,34 @@
     </row>
     <row r="18" ht="13.5">
       <c r="A18" s="35" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B18" t="s">
         <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E18" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F18" t="s">
-        <v>261</v>
-      </c>
-      <c r="K18" s="41">
+        <v>266</v>
+      </c>
+      <c r="K18" s="44">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M18" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N18" t="s">
-        <v>131</v>
-      </c>
-      <c r="X18" s="64" t="s">
-        <v>271</v>
+        <v>132</v>
+      </c>
+      <c r="X18" s="67" t="s">
+        <v>276</v>
       </c>
       <c r="AB18" t="b">
         <v>1</v>
@@ -5350,34 +5434,34 @@
     </row>
     <row r="19" ht="13.5">
       <c r="A19" s="35" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="68" t="s">
-        <v>273</v>
+      <c r="C19" s="71" t="s">
+        <v>278</v>
       </c>
       <c r="E19" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F19" t="s">
-        <v>261</v>
-      </c>
-      <c r="K19" s="41">
+        <v>266</v>
+      </c>
+      <c r="K19" s="44">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M19" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="N19" t="s">
-        <v>139</v>
-      </c>
-      <c r="X19" s="64" t="s">
-        <v>271</v>
+        <v>140</v>
+      </c>
+      <c r="X19" s="67" t="s">
+        <v>276</v>
       </c>
       <c r="AB19" t="b">
         <v>1</v>
@@ -5385,19 +5469,19 @@
     </row>
     <row r="20" ht="13.5">
       <c r="A20" s="35" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B20" t="s">
         <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F20" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L20" t="s">
         <v>108</v>
@@ -5405,8 +5489,8 @@
       <c r="N20" t="s">
         <v>110</v>
       </c>
-      <c r="X20" s="64" t="s">
-        <v>262</v>
+      <c r="X20" s="67" t="s">
+        <v>267</v>
       </c>
       <c r="AB20" t="b">
         <v>1</v>
@@ -5414,44 +5498,44 @@
     </row>
     <row r="21" ht="12.75">
       <c r="B21" s="12"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-    </row>
-    <row r="22" s="62" customFormat="1" ht="12.75">
-      <c r="A22" s="69" t="s">
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+    </row>
+    <row r="22" s="65" customFormat="1" ht="12.75">
+      <c r="A22" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="AMH22" s="62"/>
-      <c r="AMI22" s="62"/>
-      <c r="AMJ22" s="62"/>
-      <c r="AMK22" s="62"/>
-      <c r="AML22" s="62"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="AMH22" s="65"/>
+      <c r="AMI22" s="65"/>
+      <c r="AMJ22" s="65"/>
+      <c r="AMK22" s="65"/>
+      <c r="AML22" s="65"/>
     </row>
     <row r="23" ht="12.75">
       <c r="A23" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B23" t="s">
         <v>110</v>
@@ -5460,40 +5544,43 @@
         <v>55</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23" s="63" t="s">
-        <v>229</v>
+        <v>234</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>234</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40">
+      <c r="I23" s="42"/>
+      <c r="J23" s="43">
         <v>1</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="44">
         <v>1</v>
       </c>
       <c r="L23" t="s">
         <v>108</v>
       </c>
+      <c r="AA23" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="24" s="0" customFormat="1" ht="12.75">
       <c r="A24" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B24" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="65" t="s">
-        <v>280</v>
+      <c r="C24" s="68" t="s">
+        <v>285</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="35" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -5503,10 +5590,10 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M24" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -5515,7 +5602,10 @@
       <c r="T24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="64"/>
+      <c r="X24" s="67"/>
+      <c r="AA24" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH24" s="3"/>
       <c r="AMI24" s="3"/>
       <c r="AMJ24" s="3"/>
@@ -5524,20 +5614,20 @@
     </row>
     <row r="25" s="0" customFormat="1" ht="12.75">
       <c r="A25" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s">
         <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="35" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -5553,7 +5643,10 @@
       <c r="T25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="64"/>
+      <c r="X25" s="67"/>
+      <c r="AA25" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH25" s="3"/>
       <c r="AMI25" s="3"/>
       <c r="AMJ25" s="3"/>
@@ -5562,24 +5655,24 @@
     </row>
     <row r="26" ht="13.5">
       <c r="A26" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B26" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="67" t="s">
-        <v>285</v>
+      <c r="C26" s="71" t="s">
+        <v>290</v>
       </c>
       <c r="E26" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F26" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
       <c r="L26" t="s">
         <v>108</v>
       </c>
@@ -5588,73 +5681,73 @@
       </c>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
-      <c r="X26" s="64" t="s">
-        <v>287</v>
+      <c r="X26" s="67" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="27" ht="13.5">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s">
         <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
       <c r="L27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M27" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
-      <c r="X27" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y27" s="66" t="s">
-        <v>235</v>
+      <c r="X27" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y27" s="69" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="28" ht="13.5">
       <c r="A28" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s">
         <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F28" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="41">
+      <c r="I28" s="42"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44">
         <v>1</v>
       </c>
       <c r="L28" t="s">
@@ -5665,8 +5758,8 @@
       </c>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
-      <c r="X28" s="64" t="s">
-        <v>262</v>
+      <c r="X28" s="67" t="s">
+        <v>267</v>
       </c>
       <c r="AB28" t="b">
         <v>1</v>
@@ -5674,27 +5767,27 @@
     </row>
     <row r="29" ht="13.5">
       <c r="A29" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="68" t="s">
-        <v>295</v>
+      <c r="C29" s="71" t="s">
+        <v>300</v>
       </c>
       <c r="D29" s="3">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F29" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="43"/>
       <c r="L29" t="s">
         <v>108</v>
       </c>
@@ -5703,8 +5796,8 @@
       </c>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
-      <c r="X29" s="64" t="s">
-        <v>262</v>
+      <c r="X29" s="67" t="s">
+        <v>267</v>
       </c>
       <c r="AB29" t="b">
         <v>1</v>
@@ -5712,27 +5805,27 @@
     </row>
     <row r="30" ht="13.5">
       <c r="A30" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="68" t="s">
-        <v>299</v>
+      <c r="C30" s="71" t="s">
+        <v>304</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F30" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
       <c r="L30" t="s">
         <v>108</v>
       </c>
@@ -5741,8 +5834,8 @@
       </c>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
-      <c r="X30" s="64" t="s">
-        <v>262</v>
+      <c r="X30" s="67" t="s">
+        <v>267</v>
       </c>
       <c r="AB30" t="b">
         <v>1</v>
@@ -5750,22 +5843,22 @@
     </row>
     <row r="31" ht="13.5">
       <c r="A31" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="68" t="s">
-        <v>303</v>
+      <c r="C31" s="71" t="s">
+        <v>308</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F31" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L31" t="s">
         <v>108</v>
@@ -5773,8 +5866,8 @@
       <c r="N31" t="s">
         <v>110</v>
       </c>
-      <c r="X31" s="64" t="s">
-        <v>262</v>
+      <c r="X31" s="67" t="s">
+        <v>267</v>
       </c>
       <c r="AB31" t="b">
         <v>1</v>
@@ -5782,24 +5875,24 @@
     </row>
     <row r="32" ht="13.5">
       <c r="A32" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s">
         <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F32" t="s">
-        <v>309</v>
-      </c>
-      <c r="K32" s="41">
+        <v>314</v>
+      </c>
+      <c r="K32" s="44">
         <v>1</v>
       </c>
       <c r="L32" t="s">
@@ -5808,8 +5901,8 @@
       <c r="N32" t="s">
         <v>110</v>
       </c>
-      <c r="X32" s="64" t="s">
-        <v>262</v>
+      <c r="X32" s="67" t="s">
+        <v>267</v>
       </c>
       <c r="AB32" t="b">
         <v>1</v>
@@ -5817,22 +5910,22 @@
     </row>
     <row r="33" ht="13.5">
       <c r="A33" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="68" t="s">
-        <v>311</v>
+      <c r="C33" s="71" t="s">
+        <v>316</v>
       </c>
       <c r="D33" s="3">
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s">
         <v>108</v>
@@ -5840,8 +5933,8 @@
       <c r="N33" t="s">
         <v>110</v>
       </c>
-      <c r="X33" s="64" t="s">
-        <v>262</v>
+      <c r="X33" s="67" t="s">
+        <v>267</v>
       </c>
       <c r="AB33" t="b">
         <v>1</v>
@@ -5849,19 +5942,19 @@
     </row>
     <row r="34" ht="13.5">
       <c r="A34" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s">
         <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E34" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F34" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s">
         <v>108</v>
@@ -5869,34 +5962,34 @@
       <c r="N34" t="s">
         <v>114</v>
       </c>
-      <c r="X34" s="64" t="s">
-        <v>318</v>
+      <c r="X34" s="67" t="s">
+        <v>323</v>
       </c>
       <c r="AB34" t="b">
         <v>1</v>
       </c>
       <c r="AD34" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AE34" s="12" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" ht="13.5">
       <c r="A35" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="68" t="s">
-        <v>322</v>
+      <c r="C35" s="71" t="s">
+        <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F35" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s">
         <v>108</v>
@@ -5904,34 +5997,34 @@
       <c r="N35" t="s">
         <v>114</v>
       </c>
-      <c r="X35" s="64" t="s">
-        <v>318</v>
+      <c r="X35" s="67" t="s">
+        <v>323</v>
       </c>
       <c r="AB35" t="b">
         <v>1</v>
       </c>
       <c r="AD35" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AE35" s="12" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" ht="13.5">
       <c r="A36" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s">
         <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E36" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F36" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s">
         <v>108</v>
@@ -5939,8 +6032,8 @@
       <c r="N36" t="s">
         <v>119</v>
       </c>
-      <c r="X36" s="64" t="s">
-        <v>287</v>
+      <c r="X36" s="67" t="s">
+        <v>292</v>
       </c>
       <c r="AB36" t="b">
         <v>1</v>
@@ -5948,19 +6041,19 @@
     </row>
     <row r="37" ht="13.5">
       <c r="A37" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="68" t="s">
-        <v>326</v>
+      <c r="C37" s="71" t="s">
+        <v>331</v>
       </c>
       <c r="E37" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s">
         <v>108</v>
@@ -5968,11 +6061,11 @@
       <c r="N37" t="s">
         <v>119</v>
       </c>
-      <c r="X37" s="64" t="s">
-        <v>287</v>
+      <c r="X37" s="67" t="s">
+        <v>292</v>
       </c>
       <c r="Z37" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AB37" t="b">
         <v>1</v>
@@ -5980,34 +6073,34 @@
     </row>
     <row r="38" ht="13.5">
       <c r="A38" s="35" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s">
         <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E38" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F38" t="s">
-        <v>261</v>
-      </c>
-      <c r="K38" s="41">
+        <v>266</v>
+      </c>
+      <c r="K38" s="44">
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M38" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="N38" t="s">
-        <v>135</v>
-      </c>
-      <c r="X38" s="64" t="s">
-        <v>271</v>
+        <v>136</v>
+      </c>
+      <c r="X38" s="67" t="s">
+        <v>276</v>
       </c>
       <c r="AB38" t="b">
         <v>1</v>
@@ -6015,32 +6108,32 @@
     </row>
     <row r="39" ht="13.5">
       <c r="A39" s="35" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s">
         <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E39" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F39" t="s">
-        <v>333</v>
-      </c>
-      <c r="J39" s="40"/>
+        <v>338</v>
+      </c>
+      <c r="J39" s="43"/>
       <c r="L39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M39" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N39" t="s">
-        <v>145</v>
-      </c>
-      <c r="X39" s="64" t="s">
-        <v>271</v>
+        <v>146</v>
+      </c>
+      <c r="X39" s="67" t="s">
+        <v>276</v>
       </c>
       <c r="AB39" t="b">
         <v>1</v>
@@ -6048,58 +6141,58 @@
     </row>
     <row r="40" ht="12.75">
       <c r="B40" s="12"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-    </row>
-    <row r="41" s="62" customFormat="1" ht="12.75">
-      <c r="A41" s="62" t="s">
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+    </row>
+    <row r="41" s="65" customFormat="1" ht="12.75">
+      <c r="A41" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="62"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="AB41" s="62"/>
-      <c r="AMH41" s="62"/>
-      <c r="AMI41" s="62"/>
-      <c r="AMJ41" s="62"/>
-      <c r="AMK41" s="62"/>
-      <c r="AML41" s="62"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65"/>
+      <c r="AB41" s="65"/>
+      <c r="AMH41" s="65"/>
+      <c r="AMI41" s="65"/>
+      <c r="AMJ41" s="65"/>
+      <c r="AMK41" s="65"/>
+      <c r="AML41" s="65"/>
     </row>
     <row r="42" s="0" customFormat="1" ht="12.75">
       <c r="A42" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s">
         <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="35" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -6118,7 +6211,10 @@
       <c r="T42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="64"/>
+      <c r="X42" s="67"/>
+      <c r="AA42" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH42" s="3"/>
       <c r="AMI42" s="3"/>
       <c r="AMJ42" s="3"/>
@@ -6127,20 +6223,20 @@
     </row>
     <row r="43" s="0" customFormat="1" ht="12.75">
       <c r="A43" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s">
         <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="35" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -6159,7 +6255,10 @@
       <c r="T43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-      <c r="X43" s="64"/>
+      <c r="X43" s="67"/>
+      <c r="AA43" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH43" s="3"/>
       <c r="AMI43" s="3"/>
       <c r="AMJ43" s="3"/>
@@ -6168,20 +6267,20 @@
     </row>
     <row r="44" s="0" customFormat="1" ht="12.75">
       <c r="A44" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s">
         <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="35" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -6191,10 +6290,10 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M44" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
@@ -6203,7 +6302,10 @@
       <c r="T44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-      <c r="X44" s="64"/>
+      <c r="X44" s="67"/>
+      <c r="AA44" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH44" s="3"/>
       <c r="AMI44" s="3"/>
       <c r="AMJ44" s="3"/>
@@ -6212,20 +6314,20 @@
     </row>
     <row r="45" s="0" customFormat="1" ht="12.75">
       <c r="A45" s="3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s">
         <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="35" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -6235,10 +6337,10 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M45" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
@@ -6247,9 +6349,12 @@
       <c r="T45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-      <c r="X45" s="64"/>
-      <c r="Y45" s="66" t="s">
-        <v>235</v>
+      <c r="X45" s="67"/>
+      <c r="Y45" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>131</v>
       </c>
       <c r="AMH45" s="3"/>
       <c r="AMI45" s="3"/>
@@ -6259,20 +6364,20 @@
     </row>
     <row r="46" s="0" customFormat="1" ht="12.75">
       <c r="A46" s="3" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s">
         <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="35" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -6282,10 +6387,10 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M46" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -6294,7 +6399,10 @@
       <c r="T46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-      <c r="X46" s="64"/>
+      <c r="X46" s="67"/>
+      <c r="AA46" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH46" s="3"/>
       <c r="AMI46" s="3"/>
       <c r="AMJ46" s="3"/>
@@ -6303,34 +6411,34 @@
     </row>
     <row r="47" ht="13.5">
       <c r="A47" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="68" t="s">
-        <v>343</v>
+      <c r="C47" s="71" t="s">
+        <v>348</v>
       </c>
       <c r="E47" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F47" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
       <c r="L47" t="s">
         <v>108</v>
       </c>
       <c r="N47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
-      <c r="X47" s="64" t="s">
-        <v>271</v>
+      <c r="X47" s="67" t="s">
+        <v>276</v>
       </c>
       <c r="AB47" t="b">
         <v>1</v>
@@ -6338,65 +6446,65 @@
     </row>
     <row r="48" ht="12.75">
       <c r="B48" s="12"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="41"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="44"/>
       <c r="V48" s="12"/>
       <c r="W48" s="12"/>
     </row>
-    <row r="49" s="62" customFormat="1" ht="12.75">
-      <c r="A49" s="62" t="s">
+    <row r="49" s="65" customFormat="1" ht="12.75">
+      <c r="A49" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="62"/>
-      <c r="T49" s="62"/>
-      <c r="V49" s="62"/>
-      <c r="W49" s="62"/>
-      <c r="X49" s="62"/>
-      <c r="AB49" s="62"/>
-      <c r="AMH49" s="62"/>
-      <c r="AMI49" s="62"/>
-      <c r="AMJ49" s="62"/>
-      <c r="AMK49" s="62"/>
-      <c r="AML49" s="62"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
+      <c r="T49" s="65"/>
+      <c r="V49" s="65"/>
+      <c r="W49" s="65"/>
+      <c r="X49" s="65"/>
+      <c r="AB49" s="65"/>
+      <c r="AMH49" s="65"/>
+      <c r="AMI49" s="65"/>
+      <c r="AMJ49" s="65"/>
+      <c r="AMK49" s="65"/>
+      <c r="AML49" s="65"/>
     </row>
     <row r="50" s="0" customFormat="1" ht="12.75">
       <c r="A50" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s">
         <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="35" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -6416,7 +6524,10 @@
       <c r="T50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-      <c r="X50" s="64"/>
+      <c r="X50" s="67"/>
+      <c r="AA50" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH50" s="3"/>
       <c r="AMI50" s="3"/>
       <c r="AMJ50" s="3"/>
@@ -6425,20 +6536,20 @@
     </row>
     <row r="51" s="0" customFormat="1" ht="12.75">
       <c r="A51" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B51" t="s">
         <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="35" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -6459,7 +6570,10 @@
       <c r="T51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-      <c r="X51" s="64"/>
+      <c r="X51" s="67"/>
+      <c r="AA51" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH51" s="3"/>
       <c r="AMI51" s="3"/>
       <c r="AMJ51" s="3"/>
@@ -6468,20 +6582,20 @@
     </row>
     <row r="52" s="0" customFormat="1" ht="12.75">
       <c r="A52" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s">
         <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="35" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -6489,10 +6603,10 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M52" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -6502,7 +6616,10 @@
       <c r="T52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-      <c r="X52" s="64"/>
+      <c r="X52" s="67"/>
+      <c r="AA52" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH52" s="3"/>
       <c r="AMI52" s="3"/>
       <c r="AMJ52" s="3"/>
@@ -6511,20 +6628,20 @@
     </row>
     <row r="53" s="0" customFormat="1" ht="12.75">
       <c r="A53" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B53" t="s">
         <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="35" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -6532,10 +6649,10 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M53" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
@@ -6545,9 +6662,12 @@
       <c r="T53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-      <c r="X53" s="64"/>
-      <c r="Y53" s="66" t="s">
-        <v>235</v>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>131</v>
       </c>
       <c r="AMH53" s="3"/>
       <c r="AMI53" s="3"/>
@@ -6557,20 +6677,20 @@
     </row>
     <row r="54" s="0" customFormat="1" ht="12.75">
       <c r="A54" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B54" t="s">
         <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="35" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -6578,10 +6698,10 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M54" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
@@ -6591,7 +6711,10 @@
       <c r="T54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-      <c r="X54" s="64"/>
+      <c r="X54" s="67"/>
+      <c r="AA54" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH54" s="3"/>
       <c r="AMI54" s="3"/>
       <c r="AMJ54" s="3"/>
@@ -6600,35 +6723,35 @@
     </row>
     <row r="55" ht="13.5">
       <c r="A55" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B55" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="68" t="s">
-        <v>343</v>
+      <c r="C55" s="71" t="s">
+        <v>348</v>
       </c>
       <c r="E55" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F55" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="41"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="44"/>
       <c r="L55" t="s">
         <v>108</v>
       </c>
       <c r="N55" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
-      <c r="X55" s="64" t="s">
-        <v>271</v>
+      <c r="X55" s="67" t="s">
+        <v>276</v>
       </c>
       <c r="AB55" t="b">
         <v>1</v>
@@ -6636,51 +6759,51 @@
     </row>
     <row r="56" ht="12.75">
       <c r="B56" s="12"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="41"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="44"/>
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
     </row>
-    <row r="57" s="62" customFormat="1" ht="12.75">
-      <c r="A57" s="62" t="s">
+    <row r="57" s="65" customFormat="1" ht="12.75">
+      <c r="A57" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="62"/>
-      <c r="Q57" s="62"/>
-      <c r="R57" s="62"/>
-      <c r="S57" s="62"/>
-      <c r="T57" s="62"/>
-      <c r="V57" s="62"/>
-      <c r="W57" s="62"/>
-      <c r="X57" s="62"/>
-      <c r="AMH57" s="62"/>
-      <c r="AMI57" s="62"/>
-      <c r="AMJ57" s="62"/>
-      <c r="AMK57" s="62"/>
-      <c r="AML57" s="62"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="V57" s="65"/>
+      <c r="W57" s="65"/>
+      <c r="X57" s="65"/>
+      <c r="AMH57" s="65"/>
+      <c r="AMI57" s="65"/>
+      <c r="AMJ57" s="65"/>
+      <c r="AMK57" s="65"/>
+      <c r="AML57" s="65"/>
     </row>
     <row r="58" ht="12.75">
       <c r="A58" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B58" t="s">
         <v>123</v>
@@ -6689,50 +6812,53 @@
         <v>55</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" s="63" t="s">
-        <v>229</v>
+        <v>234</v>
+      </c>
+      <c r="F58" s="66" t="s">
+        <v>234</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="40">
+      <c r="I58" s="42"/>
+      <c r="J58" s="43">
         <v>1</v>
       </c>
-      <c r="K58" s="41">
+      <c r="K58" s="44">
         <v>1</v>
       </c>
       <c r="L58" t="s">
         <v>108</v>
       </c>
+      <c r="AA58" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="59" s="0" customFormat="1" ht="12.75">
       <c r="A59" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B59" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="65" t="s">
-        <v>347</v>
+      <c r="C59" s="68" t="s">
+        <v>352</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="35" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="L59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M59" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
@@ -6741,9 +6867,12 @@
       <c r="T59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-      <c r="X59" s="64"/>
-      <c r="Y59" s="66" t="s">
-        <v>235</v>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>131</v>
       </c>
       <c r="AMH59" s="3"/>
       <c r="AMI59" s="3"/>
@@ -6753,20 +6882,20 @@
     </row>
     <row r="60" s="0" customFormat="1" ht="12.75">
       <c r="A60" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B60" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="65" t="s">
-        <v>364</v>
+      <c r="C60" s="68" t="s">
+        <v>369</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="35" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -6785,7 +6914,10 @@
       <c r="T60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-      <c r="X60" s="64"/>
+      <c r="X60" s="67"/>
+      <c r="AA60" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH60" s="3"/>
       <c r="AMI60" s="3"/>
       <c r="AMJ60" s="3"/>
@@ -6794,20 +6926,20 @@
     </row>
     <row r="61" s="0" customFormat="1" ht="12.75">
       <c r="A61" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B61" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="65" t="s">
-        <v>368</v>
+      <c r="C61" s="68" t="s">
+        <v>373</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="35" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F61" s="35" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -6817,10 +6949,10 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M61" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
@@ -6829,7 +6961,10 @@
       <c r="T61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-      <c r="X61" s="64"/>
+      <c r="X61" s="67"/>
+      <c r="AA61" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH61" s="3"/>
       <c r="AMI61" s="3"/>
       <c r="AMJ61" s="3"/>
@@ -6838,20 +6973,20 @@
     </row>
     <row r="62" s="0" customFormat="1" ht="12.75">
       <c r="A62" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="65" t="s">
-        <v>372</v>
+      <c r="C62" s="68" t="s">
+        <v>377</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="35" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -6861,10 +6996,10 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M62" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
@@ -6873,7 +7008,10 @@
       <c r="T62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-      <c r="X62" s="64"/>
+      <c r="X62" s="67"/>
+      <c r="AA62" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH62" s="3"/>
       <c r="AMI62" s="3"/>
       <c r="AMJ62" s="3"/>
@@ -6882,20 +7020,20 @@
     </row>
     <row r="63" s="0" customFormat="1" ht="12.75">
       <c r="A63" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B63" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="65" t="s">
-        <v>376</v>
+      <c r="C63" s="68" t="s">
+        <v>381</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="35" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -6905,10 +7043,10 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M63" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
@@ -6917,7 +7055,10 @@
       <c r="T63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-      <c r="X63" s="64"/>
+      <c r="X63" s="67"/>
+      <c r="AA63" t="s">
+        <v>131</v>
+      </c>
       <c r="AMH63" s="3"/>
       <c r="AMI63" s="3"/>
       <c r="AMJ63" s="3"/>
@@ -6926,1239 +7067,1239 @@
     </row>
     <row r="64" ht="13.5">
       <c r="A64" s="35" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B64" t="s">
         <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E64" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F64" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="41">
+      <c r="I64" s="42"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="44">
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M64" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
-      <c r="X64" s="64" t="s">
-        <v>287</v>
+      <c r="X64" s="67" t="s">
+        <v>292</v>
       </c>
       <c r="Z64" s="12" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="65" ht="13.5">
       <c r="A65" s="35" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B65" t="s">
         <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E65" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F65" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="41">
+      <c r="I65" s="42"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="44">
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M65" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
-      <c r="X65" s="64" t="s">
-        <v>287</v>
+      <c r="X65" s="67" t="s">
+        <v>292</v>
       </c>
       <c r="Z65" s="12" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" ht="13.5">
       <c r="A66" s="35" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B66" t="s">
         <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F66" t="s">
-        <v>261</v>
-      </c>
-      <c r="K66" s="41">
+        <v>266</v>
+      </c>
+      <c r="K66" s="44">
         <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M66" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N66" t="s">
-        <v>154</v>
-      </c>
-      <c r="X66" s="64" t="s">
-        <v>287</v>
+        <v>155</v>
+      </c>
+      <c r="X66" s="67" t="s">
+        <v>292</v>
       </c>
       <c r="Z66" s="12" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67" ht="13.5">
       <c r="A67" s="35" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B67" t="s">
         <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E67" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F67" t="s">
-        <v>390</v>
-      </c>
-      <c r="J67" s="40">
+        <v>395</v>
+      </c>
+      <c r="J67" s="43">
         <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M67" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N67" t="s">
-        <v>156</v>
-      </c>
-      <c r="X67" s="64" t="s">
-        <v>391</v>
+        <v>157</v>
+      </c>
+      <c r="X67" s="67" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="68" ht="12.75"/>
     <row r="69" ht="12.75">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="B69" s="70"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="70"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="62"/>
-      <c r="M69" s="62"/>
-      <c r="N69" s="62"/>
-      <c r="O69" s="62"/>
-      <c r="P69" s="62"/>
-      <c r="Q69" s="62"/>
-      <c r="R69" s="62"/>
-      <c r="S69" s="62"/>
-      <c r="T69" s="62"/>
-      <c r="U69" s="62"/>
-      <c r="V69" s="70"/>
-      <c r="W69" s="70"/>
-      <c r="X69" s="62"/>
-      <c r="Y69" s="62"/>
-      <c r="Z69" s="62"/>
-      <c r="AA69" s="62"/>
-      <c r="AB69" s="62"/>
-      <c r="AC69" s="62"/>
-      <c r="AD69" s="62"/>
-      <c r="AE69" s="62"/>
-      <c r="AF69" s="62"/>
-      <c r="AG69" s="62"/>
-      <c r="AH69" s="62"/>
-      <c r="AI69" s="62"/>
-      <c r="AJ69" s="62"/>
-      <c r="AK69" s="62"/>
-      <c r="AL69" s="62"/>
-      <c r="AM69" s="62"/>
-      <c r="AN69" s="62"/>
-      <c r="AO69" s="62"/>
-      <c r="AP69" s="62"/>
-      <c r="AQ69" s="62"/>
-      <c r="AR69" s="62"/>
-      <c r="AS69" s="62"/>
-      <c r="AT69" s="62"/>
-      <c r="AU69" s="62"/>
-      <c r="AV69" s="62"/>
-      <c r="AW69" s="62"/>
-      <c r="AX69" s="62"/>
-      <c r="AY69" s="62"/>
-      <c r="AZ69" s="62"/>
-      <c r="BA69" s="62"/>
-      <c r="BB69" s="62"/>
-      <c r="BC69" s="62"/>
-      <c r="BD69" s="62"/>
-      <c r="BE69" s="62"/>
-      <c r="BF69" s="62"/>
-      <c r="BG69" s="62"/>
-      <c r="BH69" s="62"/>
-      <c r="BI69" s="62"/>
-      <c r="BJ69" s="62"/>
-      <c r="BK69" s="62"/>
-      <c r="BL69" s="62"/>
-      <c r="BM69" s="62"/>
-      <c r="BN69" s="62"/>
-      <c r="BO69" s="62"/>
-      <c r="BP69" s="62"/>
-      <c r="BQ69" s="62"/>
-      <c r="BR69" s="62"/>
-      <c r="BS69" s="62"/>
-      <c r="BT69" s="62"/>
-      <c r="BU69" s="62"/>
-      <c r="BV69" s="62"/>
-      <c r="BW69" s="62"/>
-      <c r="BX69" s="62"/>
-      <c r="BY69" s="62"/>
-      <c r="BZ69" s="62"/>
-      <c r="CA69" s="62"/>
-      <c r="CB69" s="62"/>
-      <c r="CC69" s="62"/>
-      <c r="CD69" s="62"/>
-      <c r="CE69" s="62"/>
-      <c r="CF69" s="62"/>
-      <c r="CG69" s="62"/>
-      <c r="CH69" s="62"/>
-      <c r="CI69" s="62"/>
-      <c r="CJ69" s="62"/>
-      <c r="CK69" s="62"/>
-      <c r="CL69" s="62"/>
-      <c r="CM69" s="62"/>
-      <c r="CN69" s="62"/>
-      <c r="CO69" s="62"/>
-      <c r="CP69" s="62"/>
-      <c r="CQ69" s="62"/>
-      <c r="CR69" s="62"/>
-      <c r="CS69" s="62"/>
-      <c r="CT69" s="62"/>
-      <c r="CU69" s="62"/>
-      <c r="CV69" s="62"/>
-      <c r="CW69" s="62"/>
-      <c r="CX69" s="62"/>
-      <c r="CY69" s="62"/>
-      <c r="CZ69" s="62"/>
-      <c r="DA69" s="62"/>
-      <c r="DB69" s="62"/>
-      <c r="DC69" s="62"/>
-      <c r="DD69" s="62"/>
-      <c r="DE69" s="62"/>
-      <c r="DF69" s="62"/>
-      <c r="DG69" s="62"/>
-      <c r="DH69" s="62"/>
-      <c r="DI69" s="62"/>
-      <c r="DJ69" s="62"/>
-      <c r="DK69" s="62"/>
-      <c r="DL69" s="62"/>
-      <c r="DM69" s="62"/>
-      <c r="DN69" s="62"/>
-      <c r="DO69" s="62"/>
-      <c r="DP69" s="62"/>
-      <c r="DQ69" s="62"/>
-      <c r="DR69" s="62"/>
-      <c r="DS69" s="62"/>
-      <c r="DT69" s="62"/>
-      <c r="DU69" s="62"/>
-      <c r="DV69" s="62"/>
-      <c r="DW69" s="62"/>
-      <c r="DX69" s="62"/>
-      <c r="DY69" s="62"/>
-      <c r="DZ69" s="62"/>
-      <c r="EA69" s="62"/>
-      <c r="EB69" s="62"/>
-      <c r="EC69" s="62"/>
-      <c r="ED69" s="62"/>
-      <c r="EE69" s="62"/>
-      <c r="EF69" s="62"/>
-      <c r="EG69" s="62"/>
-      <c r="EH69" s="62"/>
-      <c r="EI69" s="62"/>
-      <c r="EJ69" s="62"/>
-      <c r="EK69" s="62"/>
-      <c r="EL69" s="62"/>
-      <c r="EM69" s="62"/>
-      <c r="EN69" s="62"/>
-      <c r="EO69" s="62"/>
-      <c r="EP69" s="62"/>
-      <c r="EQ69" s="62"/>
-      <c r="ER69" s="62"/>
-      <c r="ES69" s="62"/>
-      <c r="ET69" s="62"/>
-      <c r="EU69" s="62"/>
-      <c r="EV69" s="62"/>
-      <c r="EW69" s="62"/>
-      <c r="EX69" s="62"/>
-      <c r="EY69" s="62"/>
-      <c r="EZ69" s="62"/>
-      <c r="FA69" s="62"/>
-      <c r="FB69" s="62"/>
-      <c r="FC69" s="62"/>
-      <c r="FD69" s="62"/>
-      <c r="FE69" s="62"/>
-      <c r="FF69" s="62"/>
-      <c r="FG69" s="62"/>
-      <c r="FH69" s="62"/>
-      <c r="FI69" s="62"/>
-      <c r="FJ69" s="62"/>
-      <c r="FK69" s="62"/>
-      <c r="FL69" s="62"/>
-      <c r="FM69" s="62"/>
-      <c r="FN69" s="62"/>
-      <c r="FO69" s="62"/>
-      <c r="FP69" s="62"/>
-      <c r="FQ69" s="62"/>
-      <c r="FR69" s="62"/>
-      <c r="FS69" s="62"/>
-      <c r="FT69" s="62"/>
-      <c r="FU69" s="62"/>
-      <c r="FV69" s="62"/>
-      <c r="FW69" s="62"/>
-      <c r="FX69" s="62"/>
-      <c r="FY69" s="62"/>
-      <c r="FZ69" s="62"/>
-      <c r="GA69" s="62"/>
-      <c r="GB69" s="62"/>
-      <c r="GC69" s="62"/>
-      <c r="GD69" s="62"/>
-      <c r="GE69" s="62"/>
-      <c r="GF69" s="62"/>
-      <c r="GG69" s="62"/>
-      <c r="GH69" s="62"/>
-      <c r="GI69" s="62"/>
-      <c r="GJ69" s="62"/>
-      <c r="GK69" s="62"/>
-      <c r="GL69" s="62"/>
-      <c r="GM69" s="62"/>
-      <c r="GN69" s="62"/>
-      <c r="GO69" s="62"/>
-      <c r="GP69" s="62"/>
-      <c r="GQ69" s="62"/>
-      <c r="GR69" s="62"/>
-      <c r="GS69" s="62"/>
-      <c r="GT69" s="62"/>
-      <c r="GU69" s="62"/>
-      <c r="GV69" s="62"/>
-      <c r="GW69" s="62"/>
-      <c r="GX69" s="62"/>
-      <c r="GY69" s="62"/>
-      <c r="GZ69" s="62"/>
-      <c r="HA69" s="62"/>
-      <c r="HB69" s="62"/>
-      <c r="HC69" s="62"/>
-      <c r="HD69" s="62"/>
-      <c r="HE69" s="62"/>
-      <c r="HF69" s="62"/>
-      <c r="HG69" s="62"/>
-      <c r="HH69" s="62"/>
-      <c r="HI69" s="62"/>
-      <c r="HJ69" s="62"/>
-      <c r="HK69" s="62"/>
-      <c r="HL69" s="62"/>
-      <c r="HM69" s="62"/>
-      <c r="HN69" s="62"/>
-      <c r="HO69" s="62"/>
-      <c r="HP69" s="62"/>
-      <c r="HQ69" s="62"/>
-      <c r="HR69" s="62"/>
-      <c r="HS69" s="62"/>
-      <c r="HT69" s="62"/>
-      <c r="HU69" s="62"/>
-      <c r="HV69" s="62"/>
-      <c r="HW69" s="62"/>
-      <c r="HX69" s="62"/>
-      <c r="HY69" s="62"/>
-      <c r="HZ69" s="62"/>
-      <c r="IA69" s="62"/>
-      <c r="IB69" s="62"/>
-      <c r="IC69" s="62"/>
-      <c r="ID69" s="62"/>
-      <c r="IE69" s="62"/>
-      <c r="IF69" s="62"/>
-      <c r="IG69" s="62"/>
-      <c r="IH69" s="62"/>
-      <c r="II69" s="62"/>
-      <c r="IJ69" s="62"/>
-      <c r="IK69" s="62"/>
-      <c r="IL69" s="62"/>
-      <c r="IM69" s="62"/>
-      <c r="IN69" s="62"/>
-      <c r="IO69" s="62"/>
-      <c r="IP69" s="62"/>
-      <c r="IQ69" s="62"/>
-      <c r="IR69" s="62"/>
-      <c r="IS69" s="62"/>
-      <c r="IT69" s="62"/>
-      <c r="IU69" s="62"/>
-      <c r="IV69" s="62"/>
-      <c r="IW69" s="62"/>
-      <c r="IX69" s="62"/>
-      <c r="IY69" s="62"/>
-      <c r="IZ69" s="62"/>
-      <c r="JA69" s="62"/>
-      <c r="JB69" s="62"/>
-      <c r="JC69" s="62"/>
-      <c r="JD69" s="62"/>
-      <c r="JE69" s="62"/>
-      <c r="JF69" s="62"/>
-      <c r="JG69" s="62"/>
-      <c r="JH69" s="62"/>
-      <c r="JI69" s="62"/>
-      <c r="JJ69" s="62"/>
-      <c r="JK69" s="62"/>
-      <c r="JL69" s="62"/>
-      <c r="JM69" s="62"/>
-      <c r="JN69" s="62"/>
-      <c r="JO69" s="62"/>
-      <c r="JP69" s="62"/>
-      <c r="JQ69" s="62"/>
-      <c r="JR69" s="62"/>
-      <c r="JS69" s="62"/>
-      <c r="JT69" s="62"/>
-      <c r="JU69" s="62"/>
-      <c r="JV69" s="62"/>
-      <c r="JW69" s="62"/>
-      <c r="JX69" s="62"/>
-      <c r="JY69" s="62"/>
-      <c r="JZ69" s="62"/>
-      <c r="KA69" s="62"/>
-      <c r="KB69" s="62"/>
-      <c r="KC69" s="62"/>
-      <c r="KD69" s="62"/>
-      <c r="KE69" s="62"/>
-      <c r="KF69" s="62"/>
-      <c r="KG69" s="62"/>
-      <c r="KH69" s="62"/>
-      <c r="KI69" s="62"/>
-      <c r="KJ69" s="62"/>
-      <c r="KK69" s="62"/>
-      <c r="KL69" s="62"/>
-      <c r="KM69" s="62"/>
-      <c r="KN69" s="62"/>
-      <c r="KO69" s="62"/>
-      <c r="KP69" s="62"/>
-      <c r="KQ69" s="62"/>
-      <c r="KR69" s="62"/>
-      <c r="KS69" s="62"/>
-      <c r="KT69" s="62"/>
-      <c r="KU69" s="62"/>
-      <c r="KV69" s="62"/>
-      <c r="KW69" s="62"/>
-      <c r="KX69" s="62"/>
-      <c r="KY69" s="62"/>
-      <c r="KZ69" s="62"/>
-      <c r="LA69" s="62"/>
-      <c r="LB69" s="62"/>
-      <c r="LC69" s="62"/>
-      <c r="LD69" s="62"/>
-      <c r="LE69" s="62"/>
-      <c r="LF69" s="62"/>
-      <c r="LG69" s="62"/>
-      <c r="LH69" s="62"/>
-      <c r="LI69" s="62"/>
-      <c r="LJ69" s="62"/>
-      <c r="LK69" s="62"/>
-      <c r="LL69" s="62"/>
-      <c r="LM69" s="62"/>
-      <c r="LN69" s="62"/>
-      <c r="LO69" s="62"/>
-      <c r="LP69" s="62"/>
-      <c r="LQ69" s="62"/>
-      <c r="LR69" s="62"/>
-      <c r="LS69" s="62"/>
-      <c r="LT69" s="62"/>
-      <c r="LU69" s="62"/>
-      <c r="LV69" s="62"/>
-      <c r="LW69" s="62"/>
-      <c r="LX69" s="62"/>
-      <c r="LY69" s="62"/>
-      <c r="LZ69" s="62"/>
-      <c r="MA69" s="62"/>
-      <c r="MB69" s="62"/>
-      <c r="MC69" s="62"/>
-      <c r="MD69" s="62"/>
-      <c r="ME69" s="62"/>
-      <c r="MF69" s="62"/>
-      <c r="MG69" s="62"/>
-      <c r="MH69" s="62"/>
-      <c r="MI69" s="62"/>
-      <c r="MJ69" s="62"/>
-      <c r="MK69" s="62"/>
-      <c r="ML69" s="62"/>
-      <c r="MM69" s="62"/>
-      <c r="MN69" s="62"/>
-      <c r="MO69" s="62"/>
-      <c r="MP69" s="62"/>
-      <c r="MQ69" s="62"/>
-      <c r="MR69" s="62"/>
-      <c r="MS69" s="62"/>
-      <c r="MT69" s="62"/>
-      <c r="MU69" s="62"/>
-      <c r="MV69" s="62"/>
-      <c r="MW69" s="62"/>
-      <c r="MX69" s="62"/>
-      <c r="MY69" s="62"/>
-      <c r="MZ69" s="62"/>
-      <c r="NA69" s="62"/>
-      <c r="NB69" s="62"/>
-      <c r="NC69" s="62"/>
-      <c r="ND69" s="62"/>
-      <c r="NE69" s="62"/>
-      <c r="NF69" s="62"/>
-      <c r="NG69" s="62"/>
-      <c r="NH69" s="62"/>
-      <c r="NI69" s="62"/>
-      <c r="NJ69" s="62"/>
-      <c r="NK69" s="62"/>
-      <c r="NL69" s="62"/>
-      <c r="NM69" s="62"/>
-      <c r="NN69" s="62"/>
-      <c r="NO69" s="62"/>
-      <c r="NP69" s="62"/>
-      <c r="NQ69" s="62"/>
-      <c r="NR69" s="62"/>
-      <c r="NS69" s="62"/>
-      <c r="NT69" s="62"/>
-      <c r="NU69" s="62"/>
-      <c r="NV69" s="62"/>
-      <c r="NW69" s="62"/>
-      <c r="NX69" s="62"/>
-      <c r="NY69" s="62"/>
-      <c r="NZ69" s="62"/>
-      <c r="OA69" s="62"/>
-      <c r="OB69" s="62"/>
-      <c r="OC69" s="62"/>
-      <c r="OD69" s="62"/>
-      <c r="OE69" s="62"/>
-      <c r="OF69" s="62"/>
-      <c r="OG69" s="62"/>
-      <c r="OH69" s="62"/>
-      <c r="OI69" s="62"/>
-      <c r="OJ69" s="62"/>
-      <c r="OK69" s="62"/>
-      <c r="OL69" s="62"/>
-      <c r="OM69" s="62"/>
-      <c r="ON69" s="62"/>
-      <c r="OO69" s="62"/>
-      <c r="OP69" s="62"/>
-      <c r="OQ69" s="62"/>
-      <c r="OR69" s="62"/>
-      <c r="OS69" s="62"/>
-      <c r="OT69" s="62"/>
-      <c r="OU69" s="62"/>
-      <c r="OV69" s="62"/>
-      <c r="OW69" s="62"/>
-      <c r="OX69" s="62"/>
-      <c r="OY69" s="62"/>
-      <c r="OZ69" s="62"/>
-      <c r="PA69" s="62"/>
-      <c r="PB69" s="62"/>
-      <c r="PC69" s="62"/>
-      <c r="PD69" s="62"/>
-      <c r="PE69" s="62"/>
-      <c r="PF69" s="62"/>
-      <c r="PG69" s="62"/>
-      <c r="PH69" s="62"/>
-      <c r="PI69" s="62"/>
-      <c r="PJ69" s="62"/>
-      <c r="PK69" s="62"/>
-      <c r="PL69" s="62"/>
-      <c r="PM69" s="62"/>
-      <c r="PN69" s="62"/>
-      <c r="PO69" s="62"/>
-      <c r="PP69" s="62"/>
-      <c r="PQ69" s="62"/>
-      <c r="PR69" s="62"/>
-      <c r="PS69" s="62"/>
-      <c r="PT69" s="62"/>
-      <c r="PU69" s="62"/>
-      <c r="PV69" s="62"/>
-      <c r="PW69" s="62"/>
-      <c r="PX69" s="62"/>
-      <c r="PY69" s="62"/>
-      <c r="PZ69" s="62"/>
-      <c r="QA69" s="62"/>
-      <c r="QB69" s="62"/>
-      <c r="QC69" s="62"/>
-      <c r="QD69" s="62"/>
-      <c r="QE69" s="62"/>
-      <c r="QF69" s="62"/>
-      <c r="QG69" s="62"/>
-      <c r="QH69" s="62"/>
-      <c r="QI69" s="62"/>
-      <c r="QJ69" s="62"/>
-      <c r="QK69" s="62"/>
-      <c r="QL69" s="62"/>
-      <c r="QM69" s="62"/>
-      <c r="QN69" s="62"/>
-      <c r="QO69" s="62"/>
-      <c r="QP69" s="62"/>
-      <c r="QQ69" s="62"/>
-      <c r="QR69" s="62"/>
-      <c r="QS69" s="62"/>
-      <c r="QT69" s="62"/>
-      <c r="QU69" s="62"/>
-      <c r="QV69" s="62"/>
-      <c r="QW69" s="62"/>
-      <c r="QX69" s="62"/>
-      <c r="QY69" s="62"/>
-      <c r="QZ69" s="62"/>
-      <c r="RA69" s="62"/>
-      <c r="RB69" s="62"/>
-      <c r="RC69" s="62"/>
-      <c r="RD69" s="62"/>
-      <c r="RE69" s="62"/>
-      <c r="RF69" s="62"/>
-      <c r="RG69" s="62"/>
-      <c r="RH69" s="62"/>
-      <c r="RI69" s="62"/>
-      <c r="RJ69" s="62"/>
-      <c r="RK69" s="62"/>
-      <c r="RL69" s="62"/>
-      <c r="RM69" s="62"/>
-      <c r="RN69" s="62"/>
-      <c r="RO69" s="62"/>
-      <c r="RP69" s="62"/>
-      <c r="RQ69" s="62"/>
-      <c r="RR69" s="62"/>
-      <c r="RS69" s="62"/>
-      <c r="RT69" s="62"/>
-      <c r="RU69" s="62"/>
-      <c r="RV69" s="62"/>
-      <c r="RW69" s="62"/>
-      <c r="RX69" s="62"/>
-      <c r="RY69" s="62"/>
-      <c r="RZ69" s="62"/>
-      <c r="SA69" s="62"/>
-      <c r="SB69" s="62"/>
-      <c r="SC69" s="62"/>
-      <c r="SD69" s="62"/>
-      <c r="SE69" s="62"/>
-      <c r="SF69" s="62"/>
-      <c r="SG69" s="62"/>
-      <c r="SH69" s="62"/>
-      <c r="SI69" s="62"/>
-      <c r="SJ69" s="62"/>
-      <c r="SK69" s="62"/>
-      <c r="SL69" s="62"/>
-      <c r="SM69" s="62"/>
-      <c r="SN69" s="62"/>
-      <c r="SO69" s="62"/>
-      <c r="SP69" s="62"/>
-      <c r="SQ69" s="62"/>
-      <c r="SR69" s="62"/>
-      <c r="SS69" s="62"/>
-      <c r="ST69" s="62"/>
-      <c r="SU69" s="62"/>
-      <c r="SV69" s="62"/>
-      <c r="SW69" s="62"/>
-      <c r="SX69" s="62"/>
-      <c r="SY69" s="62"/>
-      <c r="SZ69" s="62"/>
-      <c r="TA69" s="62"/>
-      <c r="TB69" s="62"/>
-      <c r="TC69" s="62"/>
-      <c r="TD69" s="62"/>
-      <c r="TE69" s="62"/>
-      <c r="TF69" s="62"/>
-      <c r="TG69" s="62"/>
-      <c r="TH69" s="62"/>
-      <c r="TI69" s="62"/>
-      <c r="TJ69" s="62"/>
-      <c r="TK69" s="62"/>
-      <c r="TL69" s="62"/>
-      <c r="TM69" s="62"/>
-      <c r="TN69" s="62"/>
-      <c r="TO69" s="62"/>
-      <c r="TP69" s="62"/>
-      <c r="TQ69" s="62"/>
-      <c r="TR69" s="62"/>
-      <c r="TS69" s="62"/>
-      <c r="TT69" s="62"/>
-      <c r="TU69" s="62"/>
-      <c r="TV69" s="62"/>
-      <c r="TW69" s="62"/>
-      <c r="TX69" s="62"/>
-      <c r="TY69" s="62"/>
-      <c r="TZ69" s="62"/>
-      <c r="UA69" s="62"/>
-      <c r="UB69" s="62"/>
-      <c r="UC69" s="62"/>
-      <c r="UD69" s="62"/>
-      <c r="UE69" s="62"/>
-      <c r="UF69" s="62"/>
-      <c r="UG69" s="62"/>
-      <c r="UH69" s="62"/>
-      <c r="UI69" s="62"/>
-      <c r="UJ69" s="62"/>
-      <c r="UK69" s="62"/>
-      <c r="UL69" s="62"/>
-      <c r="UM69" s="62"/>
-      <c r="UN69" s="62"/>
-      <c r="UO69" s="62"/>
-      <c r="UP69" s="62"/>
-      <c r="UQ69" s="62"/>
-      <c r="UR69" s="62"/>
-      <c r="US69" s="62"/>
-      <c r="UT69" s="62"/>
-      <c r="UU69" s="62"/>
-      <c r="UV69" s="62"/>
-      <c r="UW69" s="62"/>
-      <c r="UX69" s="62"/>
-      <c r="UY69" s="62"/>
-      <c r="UZ69" s="62"/>
-      <c r="VA69" s="62"/>
-      <c r="VB69" s="62"/>
-      <c r="VC69" s="62"/>
-      <c r="VD69" s="62"/>
-      <c r="VE69" s="62"/>
-      <c r="VF69" s="62"/>
-      <c r="VG69" s="62"/>
-      <c r="VH69" s="62"/>
-      <c r="VI69" s="62"/>
-      <c r="VJ69" s="62"/>
-      <c r="VK69" s="62"/>
-      <c r="VL69" s="62"/>
-      <c r="VM69" s="62"/>
-      <c r="VN69" s="62"/>
-      <c r="VO69" s="62"/>
-      <c r="VP69" s="62"/>
-      <c r="VQ69" s="62"/>
-      <c r="VR69" s="62"/>
-      <c r="VS69" s="62"/>
-      <c r="VT69" s="62"/>
-      <c r="VU69" s="62"/>
-      <c r="VV69" s="62"/>
-      <c r="VW69" s="62"/>
-      <c r="VX69" s="62"/>
-      <c r="VY69" s="62"/>
-      <c r="VZ69" s="62"/>
-      <c r="WA69" s="62"/>
-      <c r="WB69" s="62"/>
-      <c r="WC69" s="62"/>
-      <c r="WD69" s="62"/>
-      <c r="WE69" s="62"/>
-      <c r="WF69" s="62"/>
-      <c r="WG69" s="62"/>
-      <c r="WH69" s="62"/>
-      <c r="WI69" s="62"/>
-      <c r="WJ69" s="62"/>
-      <c r="WK69" s="62"/>
-      <c r="WL69" s="62"/>
-      <c r="WM69" s="62"/>
-      <c r="WN69" s="62"/>
-      <c r="WO69" s="62"/>
-      <c r="WP69" s="62"/>
-      <c r="WQ69" s="62"/>
-      <c r="WR69" s="62"/>
-      <c r="WS69" s="62"/>
-      <c r="WT69" s="62"/>
-      <c r="WU69" s="62"/>
-      <c r="WV69" s="62"/>
-      <c r="WW69" s="62"/>
-      <c r="WX69" s="62"/>
-      <c r="WY69" s="62"/>
-      <c r="WZ69" s="62"/>
-      <c r="XA69" s="62"/>
-      <c r="XB69" s="62"/>
-      <c r="XC69" s="62"/>
-      <c r="XD69" s="62"/>
-      <c r="XE69" s="62"/>
-      <c r="XF69" s="62"/>
-      <c r="XG69" s="62"/>
-      <c r="XH69" s="62"/>
-      <c r="XI69" s="62"/>
-      <c r="XJ69" s="62"/>
-      <c r="XK69" s="62"/>
-      <c r="XL69" s="62"/>
-      <c r="XM69" s="62"/>
-      <c r="XN69" s="62"/>
-      <c r="XO69" s="62"/>
-      <c r="XP69" s="62"/>
-      <c r="XQ69" s="62"/>
-      <c r="XR69" s="62"/>
-      <c r="XS69" s="62"/>
-      <c r="XT69" s="62"/>
-      <c r="XU69" s="62"/>
-      <c r="XV69" s="62"/>
-      <c r="XW69" s="62"/>
-      <c r="XX69" s="62"/>
-      <c r="XY69" s="62"/>
-      <c r="XZ69" s="62"/>
-      <c r="YA69" s="62"/>
-      <c r="YB69" s="62"/>
-      <c r="YC69" s="62"/>
-      <c r="YD69" s="62"/>
-      <c r="YE69" s="62"/>
-      <c r="YF69" s="62"/>
-      <c r="YG69" s="62"/>
-      <c r="YH69" s="62"/>
-      <c r="YI69" s="62"/>
-      <c r="YJ69" s="62"/>
-      <c r="YK69" s="62"/>
-      <c r="YL69" s="62"/>
-      <c r="YM69" s="62"/>
-      <c r="YN69" s="62"/>
-      <c r="YO69" s="62"/>
-      <c r="YP69" s="62"/>
-      <c r="YQ69" s="62"/>
-      <c r="YR69" s="62"/>
-      <c r="YS69" s="62"/>
-      <c r="YT69" s="62"/>
-      <c r="YU69" s="62"/>
-      <c r="YV69" s="62"/>
-      <c r="YW69" s="62"/>
-      <c r="YX69" s="62"/>
-      <c r="YY69" s="62"/>
-      <c r="YZ69" s="62"/>
-      <c r="ZA69" s="62"/>
-      <c r="ZB69" s="62"/>
-      <c r="ZC69" s="62"/>
-      <c r="ZD69" s="62"/>
-      <c r="ZE69" s="62"/>
-      <c r="ZF69" s="62"/>
-      <c r="ZG69" s="62"/>
-      <c r="ZH69" s="62"/>
-      <c r="ZI69" s="62"/>
-      <c r="ZJ69" s="62"/>
-      <c r="ZK69" s="62"/>
-      <c r="ZL69" s="62"/>
-      <c r="ZM69" s="62"/>
-      <c r="ZN69" s="62"/>
-      <c r="ZO69" s="62"/>
-      <c r="ZP69" s="62"/>
-      <c r="ZQ69" s="62"/>
-      <c r="ZR69" s="62"/>
-      <c r="ZS69" s="62"/>
-      <c r="ZT69" s="62"/>
-      <c r="ZU69" s="62"/>
-      <c r="ZV69" s="62"/>
-      <c r="ZW69" s="62"/>
-      <c r="ZX69" s="62"/>
-      <c r="ZY69" s="62"/>
-      <c r="ZZ69" s="62"/>
-      <c r="AAA69" s="62"/>
-      <c r="AAB69" s="62"/>
-      <c r="AAC69" s="62"/>
-      <c r="AAD69" s="62"/>
-      <c r="AAE69" s="62"/>
-      <c r="AAF69" s="62"/>
-      <c r="AAG69" s="62"/>
-      <c r="AAH69" s="62"/>
-      <c r="AAI69" s="62"/>
-      <c r="AAJ69" s="62"/>
-      <c r="AAK69" s="62"/>
-      <c r="AAL69" s="62"/>
-      <c r="AAM69" s="62"/>
-      <c r="AAN69" s="62"/>
-      <c r="AAO69" s="62"/>
-      <c r="AAP69" s="62"/>
-      <c r="AAQ69" s="62"/>
-      <c r="AAR69" s="62"/>
-      <c r="AAS69" s="62"/>
-      <c r="AAT69" s="62"/>
-      <c r="AAU69" s="62"/>
-      <c r="AAV69" s="62"/>
-      <c r="AAW69" s="62"/>
-      <c r="AAX69" s="62"/>
-      <c r="AAY69" s="62"/>
-      <c r="AAZ69" s="62"/>
-      <c r="ABA69" s="62"/>
-      <c r="ABB69" s="62"/>
-      <c r="ABC69" s="62"/>
-      <c r="ABD69" s="62"/>
-      <c r="ABE69" s="62"/>
-      <c r="ABF69" s="62"/>
-      <c r="ABG69" s="62"/>
-      <c r="ABH69" s="62"/>
-      <c r="ABI69" s="62"/>
-      <c r="ABJ69" s="62"/>
-      <c r="ABK69" s="62"/>
-      <c r="ABL69" s="62"/>
-      <c r="ABM69" s="62"/>
-      <c r="ABN69" s="62"/>
-      <c r="ABO69" s="62"/>
-      <c r="ABP69" s="62"/>
-      <c r="ABQ69" s="62"/>
-      <c r="ABR69" s="62"/>
-      <c r="ABS69" s="62"/>
-      <c r="ABT69" s="62"/>
-      <c r="ABU69" s="62"/>
-      <c r="ABV69" s="62"/>
-      <c r="ABW69" s="62"/>
-      <c r="ABX69" s="62"/>
-      <c r="ABY69" s="62"/>
-      <c r="ABZ69" s="62"/>
-      <c r="ACA69" s="62"/>
-      <c r="ACB69" s="62"/>
-      <c r="ACC69" s="62"/>
-      <c r="ACD69" s="62"/>
-      <c r="ACE69" s="62"/>
-      <c r="ACF69" s="62"/>
-      <c r="ACG69" s="62"/>
-      <c r="ACH69" s="62"/>
-      <c r="ACI69" s="62"/>
-      <c r="ACJ69" s="62"/>
-      <c r="ACK69" s="62"/>
-      <c r="ACL69" s="62"/>
-      <c r="ACM69" s="62"/>
-      <c r="ACN69" s="62"/>
-      <c r="ACO69" s="62"/>
-      <c r="ACP69" s="62"/>
-      <c r="ACQ69" s="62"/>
-      <c r="ACR69" s="62"/>
-      <c r="ACS69" s="62"/>
-      <c r="ACT69" s="62"/>
-      <c r="ACU69" s="62"/>
-      <c r="ACV69" s="62"/>
-      <c r="ACW69" s="62"/>
-      <c r="ACX69" s="62"/>
-      <c r="ACY69" s="62"/>
-      <c r="ACZ69" s="62"/>
-      <c r="ADA69" s="62"/>
-      <c r="ADB69" s="62"/>
-      <c r="ADC69" s="62"/>
-      <c r="ADD69" s="62"/>
-      <c r="ADE69" s="62"/>
-      <c r="ADF69" s="62"/>
-      <c r="ADG69" s="62"/>
-      <c r="ADH69" s="62"/>
-      <c r="ADI69" s="62"/>
-      <c r="ADJ69" s="62"/>
-      <c r="ADK69" s="62"/>
-      <c r="ADL69" s="62"/>
-      <c r="ADM69" s="62"/>
-      <c r="ADN69" s="62"/>
-      <c r="ADO69" s="62"/>
-      <c r="ADP69" s="62"/>
-      <c r="ADQ69" s="62"/>
-      <c r="ADR69" s="62"/>
-      <c r="ADS69" s="62"/>
-      <c r="ADT69" s="62"/>
-      <c r="ADU69" s="62"/>
-      <c r="ADV69" s="62"/>
-      <c r="ADW69" s="62"/>
-      <c r="ADX69" s="62"/>
-      <c r="ADY69" s="62"/>
-      <c r="ADZ69" s="62"/>
-      <c r="AEA69" s="62"/>
-      <c r="AEB69" s="62"/>
-      <c r="AEC69" s="62"/>
-      <c r="AED69" s="62"/>
-      <c r="AEE69" s="62"/>
-      <c r="AEF69" s="62"/>
-      <c r="AEG69" s="62"/>
-      <c r="AEH69" s="62"/>
-      <c r="AEI69" s="62"/>
-      <c r="AEJ69" s="62"/>
-      <c r="AEK69" s="62"/>
-      <c r="AEL69" s="62"/>
-      <c r="AEM69" s="62"/>
-      <c r="AEN69" s="62"/>
-      <c r="AEO69" s="62"/>
-      <c r="AEP69" s="62"/>
-      <c r="AEQ69" s="62"/>
-      <c r="AER69" s="62"/>
-      <c r="AES69" s="62"/>
-      <c r="AET69" s="62"/>
-      <c r="AEU69" s="62"/>
-      <c r="AEV69" s="62"/>
-      <c r="AEW69" s="62"/>
-      <c r="AEX69" s="62"/>
-      <c r="AEY69" s="62"/>
-      <c r="AEZ69" s="62"/>
-      <c r="AFA69" s="62"/>
-      <c r="AFB69" s="62"/>
-      <c r="AFC69" s="62"/>
-      <c r="AFD69" s="62"/>
-      <c r="AFE69" s="62"/>
-      <c r="AFF69" s="62"/>
-      <c r="AFG69" s="62"/>
-      <c r="AFH69" s="62"/>
-      <c r="AFI69" s="62"/>
-      <c r="AFJ69" s="62"/>
-      <c r="AFK69" s="62"/>
-      <c r="AFL69" s="62"/>
-      <c r="AFM69" s="62"/>
-      <c r="AFN69" s="62"/>
-      <c r="AFO69" s="62"/>
-      <c r="AFP69" s="62"/>
-      <c r="AFQ69" s="62"/>
-      <c r="AFR69" s="62"/>
-      <c r="AFS69" s="62"/>
-      <c r="AFT69" s="62"/>
-      <c r="AFU69" s="62"/>
-      <c r="AFV69" s="62"/>
-      <c r="AFW69" s="62"/>
-      <c r="AFX69" s="62"/>
-      <c r="AFY69" s="62"/>
-      <c r="AFZ69" s="62"/>
-      <c r="AGA69" s="62"/>
-      <c r="AGB69" s="62"/>
-      <c r="AGC69" s="62"/>
-      <c r="AGD69" s="62"/>
-      <c r="AGE69" s="62"/>
-      <c r="AGF69" s="62"/>
-      <c r="AGG69" s="62"/>
-      <c r="AGH69" s="62"/>
-      <c r="AGI69" s="62"/>
-      <c r="AGJ69" s="62"/>
-      <c r="AGK69" s="62"/>
-      <c r="AGL69" s="62"/>
-      <c r="AGM69" s="62"/>
-      <c r="AGN69" s="62"/>
-      <c r="AGO69" s="62"/>
-      <c r="AGP69" s="62"/>
-      <c r="AGQ69" s="62"/>
-      <c r="AGR69" s="62"/>
-      <c r="AGS69" s="62"/>
-      <c r="AGT69" s="62"/>
-      <c r="AGU69" s="62"/>
-      <c r="AGV69" s="62"/>
-      <c r="AGW69" s="62"/>
-      <c r="AGX69" s="62"/>
-      <c r="AGY69" s="62"/>
-      <c r="AGZ69" s="62"/>
-      <c r="AHA69" s="62"/>
-      <c r="AHB69" s="62"/>
-      <c r="AHC69" s="62"/>
-      <c r="AHD69" s="62"/>
-      <c r="AHE69" s="62"/>
-      <c r="AHF69" s="62"/>
-      <c r="AHG69" s="62"/>
-      <c r="AHH69" s="62"/>
-      <c r="AHI69" s="62"/>
-      <c r="AHJ69" s="62"/>
-      <c r="AHK69" s="62"/>
-      <c r="AHL69" s="62"/>
-      <c r="AHM69" s="62"/>
-      <c r="AHN69" s="62"/>
-      <c r="AHO69" s="62"/>
-      <c r="AHP69" s="62"/>
-      <c r="AHQ69" s="62"/>
-      <c r="AHR69" s="62"/>
-      <c r="AHS69" s="62"/>
-      <c r="AHT69" s="62"/>
-      <c r="AHU69" s="62"/>
-      <c r="AHV69" s="62"/>
-      <c r="AHW69" s="62"/>
-      <c r="AHX69" s="62"/>
-      <c r="AHY69" s="62"/>
-      <c r="AHZ69" s="62"/>
-      <c r="AIA69" s="62"/>
-      <c r="AIB69" s="62"/>
-      <c r="AIC69" s="62"/>
-      <c r="AID69" s="62"/>
-      <c r="AIE69" s="62"/>
-      <c r="AIF69" s="62"/>
-      <c r="AIG69" s="62"/>
-      <c r="AIH69" s="62"/>
-      <c r="AII69" s="62"/>
-      <c r="AIJ69" s="62"/>
-      <c r="AIK69" s="62"/>
-      <c r="AIL69" s="62"/>
-      <c r="AIM69" s="62"/>
-      <c r="AIN69" s="62"/>
-      <c r="AIO69" s="62"/>
-      <c r="AIP69" s="62"/>
-      <c r="AIQ69" s="62"/>
-      <c r="AIR69" s="62"/>
-      <c r="AIS69" s="62"/>
-      <c r="AIT69" s="62"/>
-      <c r="AIU69" s="62"/>
-      <c r="AIV69" s="62"/>
-      <c r="AIW69" s="62"/>
-      <c r="AIX69" s="62"/>
-      <c r="AIY69" s="62"/>
-      <c r="AIZ69" s="62"/>
-      <c r="AJA69" s="62"/>
-      <c r="AJB69" s="62"/>
-      <c r="AJC69" s="62"/>
-      <c r="AJD69" s="62"/>
-      <c r="AJE69" s="62"/>
-      <c r="AJF69" s="62"/>
-      <c r="AJG69" s="62"/>
-      <c r="AJH69" s="62"/>
-      <c r="AJI69" s="62"/>
-      <c r="AJJ69" s="62"/>
-      <c r="AJK69" s="62"/>
-      <c r="AJL69" s="62"/>
-      <c r="AJM69" s="62"/>
-      <c r="AJN69" s="62"/>
-      <c r="AJO69" s="62"/>
-      <c r="AJP69" s="62"/>
-      <c r="AJQ69" s="62"/>
-      <c r="AJR69" s="62"/>
-      <c r="AJS69" s="62"/>
-      <c r="AJT69" s="62"/>
-      <c r="AJU69" s="62"/>
-      <c r="AJV69" s="62"/>
-      <c r="AJW69" s="62"/>
-      <c r="AJX69" s="62"/>
-      <c r="AJY69" s="62"/>
-      <c r="AJZ69" s="62"/>
-      <c r="AKA69" s="62"/>
-      <c r="AKB69" s="62"/>
-      <c r="AKC69" s="62"/>
-      <c r="AKD69" s="62"/>
-      <c r="AKE69" s="62"/>
-      <c r="AKF69" s="62"/>
-      <c r="AKG69" s="62"/>
-      <c r="AKH69" s="62"/>
-      <c r="AKI69" s="62"/>
-      <c r="AKJ69" s="62"/>
-      <c r="AKK69" s="62"/>
-      <c r="AKL69" s="62"/>
-      <c r="AKM69" s="62"/>
-      <c r="AKN69" s="62"/>
-      <c r="AKO69" s="62"/>
-      <c r="AKP69" s="62"/>
-      <c r="AKQ69" s="62"/>
-      <c r="AKR69" s="62"/>
-      <c r="AKS69" s="62"/>
-      <c r="AKT69" s="62"/>
-      <c r="AKU69" s="62"/>
-      <c r="AKV69" s="62"/>
-      <c r="AKW69" s="62"/>
-      <c r="AKX69" s="62"/>
-      <c r="AKY69" s="62"/>
-      <c r="AKZ69" s="62"/>
-      <c r="ALA69" s="62"/>
-      <c r="ALB69" s="62"/>
-      <c r="ALC69" s="62"/>
-      <c r="ALD69" s="62"/>
-      <c r="ALE69" s="62"/>
-      <c r="ALF69" s="62"/>
-      <c r="ALG69" s="62"/>
-      <c r="ALH69" s="62"/>
-      <c r="ALI69" s="62"/>
-      <c r="ALJ69" s="62"/>
-      <c r="ALK69" s="62"/>
-      <c r="ALL69" s="62"/>
-      <c r="ALM69" s="62"/>
-      <c r="ALN69" s="62"/>
-      <c r="ALO69" s="62"/>
-      <c r="ALP69" s="62"/>
-      <c r="ALQ69" s="62"/>
-      <c r="ALR69" s="62"/>
-      <c r="ALS69" s="62"/>
-      <c r="ALT69" s="62"/>
-      <c r="ALU69" s="62"/>
-      <c r="ALV69" s="62"/>
-      <c r="ALW69" s="62"/>
-      <c r="ALX69" s="62"/>
-      <c r="ALY69" s="62"/>
-      <c r="ALZ69" s="62"/>
-      <c r="AMA69" s="62"/>
-      <c r="AMB69" s="62"/>
-      <c r="AMC69" s="62"/>
-      <c r="AMD69" s="62"/>
-      <c r="AME69" s="62"/>
-      <c r="AMF69" s="62"/>
-      <c r="AMG69" s="62"/>
-      <c r="AMH69" s="62"/>
-      <c r="AMI69" s="62"/>
-      <c r="AMJ69" s="62"/>
-      <c r="AMK69" s="62"/>
-      <c r="AML69" s="62"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="72"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="65"/>
+      <c r="N69" s="65"/>
+      <c r="O69" s="65"/>
+      <c r="P69" s="65"/>
+      <c r="Q69" s="65"/>
+      <c r="R69" s="65"/>
+      <c r="S69" s="65"/>
+      <c r="T69" s="65"/>
+      <c r="U69" s="65"/>
+      <c r="V69" s="72"/>
+      <c r="W69" s="72"/>
+      <c r="X69" s="65"/>
+      <c r="Y69" s="65"/>
+      <c r="Z69" s="65"/>
+      <c r="AA69" s="65"/>
+      <c r="AB69" s="65"/>
+      <c r="AC69" s="65"/>
+      <c r="AD69" s="65"/>
+      <c r="AE69" s="65"/>
+      <c r="AF69" s="65"/>
+      <c r="AG69" s="65"/>
+      <c r="AH69" s="65"/>
+      <c r="AI69" s="65"/>
+      <c r="AJ69" s="65"/>
+      <c r="AK69" s="65"/>
+      <c r="AL69" s="65"/>
+      <c r="AM69" s="65"/>
+      <c r="AN69" s="65"/>
+      <c r="AO69" s="65"/>
+      <c r="AP69" s="65"/>
+      <c r="AQ69" s="65"/>
+      <c r="AR69" s="65"/>
+      <c r="AS69" s="65"/>
+      <c r="AT69" s="65"/>
+      <c r="AU69" s="65"/>
+      <c r="AV69" s="65"/>
+      <c r="AW69" s="65"/>
+      <c r="AX69" s="65"/>
+      <c r="AY69" s="65"/>
+      <c r="AZ69" s="65"/>
+      <c r="BA69" s="65"/>
+      <c r="BB69" s="65"/>
+      <c r="BC69" s="65"/>
+      <c r="BD69" s="65"/>
+      <c r="BE69" s="65"/>
+      <c r="BF69" s="65"/>
+      <c r="BG69" s="65"/>
+      <c r="BH69" s="65"/>
+      <c r="BI69" s="65"/>
+      <c r="BJ69" s="65"/>
+      <c r="BK69" s="65"/>
+      <c r="BL69" s="65"/>
+      <c r="BM69" s="65"/>
+      <c r="BN69" s="65"/>
+      <c r="BO69" s="65"/>
+      <c r="BP69" s="65"/>
+      <c r="BQ69" s="65"/>
+      <c r="BR69" s="65"/>
+      <c r="BS69" s="65"/>
+      <c r="BT69" s="65"/>
+      <c r="BU69" s="65"/>
+      <c r="BV69" s="65"/>
+      <c r="BW69" s="65"/>
+      <c r="BX69" s="65"/>
+      <c r="BY69" s="65"/>
+      <c r="BZ69" s="65"/>
+      <c r="CA69" s="65"/>
+      <c r="CB69" s="65"/>
+      <c r="CC69" s="65"/>
+      <c r="CD69" s="65"/>
+      <c r="CE69" s="65"/>
+      <c r="CF69" s="65"/>
+      <c r="CG69" s="65"/>
+      <c r="CH69" s="65"/>
+      <c r="CI69" s="65"/>
+      <c r="CJ69" s="65"/>
+      <c r="CK69" s="65"/>
+      <c r="CL69" s="65"/>
+      <c r="CM69" s="65"/>
+      <c r="CN69" s="65"/>
+      <c r="CO69" s="65"/>
+      <c r="CP69" s="65"/>
+      <c r="CQ69" s="65"/>
+      <c r="CR69" s="65"/>
+      <c r="CS69" s="65"/>
+      <c r="CT69" s="65"/>
+      <c r="CU69" s="65"/>
+      <c r="CV69" s="65"/>
+      <c r="CW69" s="65"/>
+      <c r="CX69" s="65"/>
+      <c r="CY69" s="65"/>
+      <c r="CZ69" s="65"/>
+      <c r="DA69" s="65"/>
+      <c r="DB69" s="65"/>
+      <c r="DC69" s="65"/>
+      <c r="DD69" s="65"/>
+      <c r="DE69" s="65"/>
+      <c r="DF69" s="65"/>
+      <c r="DG69" s="65"/>
+      <c r="DH69" s="65"/>
+      <c r="DI69" s="65"/>
+      <c r="DJ69" s="65"/>
+      <c r="DK69" s="65"/>
+      <c r="DL69" s="65"/>
+      <c r="DM69" s="65"/>
+      <c r="DN69" s="65"/>
+      <c r="DO69" s="65"/>
+      <c r="DP69" s="65"/>
+      <c r="DQ69" s="65"/>
+      <c r="DR69" s="65"/>
+      <c r="DS69" s="65"/>
+      <c r="DT69" s="65"/>
+      <c r="DU69" s="65"/>
+      <c r="DV69" s="65"/>
+      <c r="DW69" s="65"/>
+      <c r="DX69" s="65"/>
+      <c r="DY69" s="65"/>
+      <c r="DZ69" s="65"/>
+      <c r="EA69" s="65"/>
+      <c r="EB69" s="65"/>
+      <c r="EC69" s="65"/>
+      <c r="ED69" s="65"/>
+      <c r="EE69" s="65"/>
+      <c r="EF69" s="65"/>
+      <c r="EG69" s="65"/>
+      <c r="EH69" s="65"/>
+      <c r="EI69" s="65"/>
+      <c r="EJ69" s="65"/>
+      <c r="EK69" s="65"/>
+      <c r="EL69" s="65"/>
+      <c r="EM69" s="65"/>
+      <c r="EN69" s="65"/>
+      <c r="EO69" s="65"/>
+      <c r="EP69" s="65"/>
+      <c r="EQ69" s="65"/>
+      <c r="ER69" s="65"/>
+      <c r="ES69" s="65"/>
+      <c r="ET69" s="65"/>
+      <c r="EU69" s="65"/>
+      <c r="EV69" s="65"/>
+      <c r="EW69" s="65"/>
+      <c r="EX69" s="65"/>
+      <c r="EY69" s="65"/>
+      <c r="EZ69" s="65"/>
+      <c r="FA69" s="65"/>
+      <c r="FB69" s="65"/>
+      <c r="FC69" s="65"/>
+      <c r="FD69" s="65"/>
+      <c r="FE69" s="65"/>
+      <c r="FF69" s="65"/>
+      <c r="FG69" s="65"/>
+      <c r="FH69" s="65"/>
+      <c r="FI69" s="65"/>
+      <c r="FJ69" s="65"/>
+      <c r="FK69" s="65"/>
+      <c r="FL69" s="65"/>
+      <c r="FM69" s="65"/>
+      <c r="FN69" s="65"/>
+      <c r="FO69" s="65"/>
+      <c r="FP69" s="65"/>
+      <c r="FQ69" s="65"/>
+      <c r="FR69" s="65"/>
+      <c r="FS69" s="65"/>
+      <c r="FT69" s="65"/>
+      <c r="FU69" s="65"/>
+      <c r="FV69" s="65"/>
+      <c r="FW69" s="65"/>
+      <c r="FX69" s="65"/>
+      <c r="FY69" s="65"/>
+      <c r="FZ69" s="65"/>
+      <c r="GA69" s="65"/>
+      <c r="GB69" s="65"/>
+      <c r="GC69" s="65"/>
+      <c r="GD69" s="65"/>
+      <c r="GE69" s="65"/>
+      <c r="GF69" s="65"/>
+      <c r="GG69" s="65"/>
+      <c r="GH69" s="65"/>
+      <c r="GI69" s="65"/>
+      <c r="GJ69" s="65"/>
+      <c r="GK69" s="65"/>
+      <c r="GL69" s="65"/>
+      <c r="GM69" s="65"/>
+      <c r="GN69" s="65"/>
+      <c r="GO69" s="65"/>
+      <c r="GP69" s="65"/>
+      <c r="GQ69" s="65"/>
+      <c r="GR69" s="65"/>
+      <c r="GS69" s="65"/>
+      <c r="GT69" s="65"/>
+      <c r="GU69" s="65"/>
+      <c r="GV69" s="65"/>
+      <c r="GW69" s="65"/>
+      <c r="GX69" s="65"/>
+      <c r="GY69" s="65"/>
+      <c r="GZ69" s="65"/>
+      <c r="HA69" s="65"/>
+      <c r="HB69" s="65"/>
+      <c r="HC69" s="65"/>
+      <c r="HD69" s="65"/>
+      <c r="HE69" s="65"/>
+      <c r="HF69" s="65"/>
+      <c r="HG69" s="65"/>
+      <c r="HH69" s="65"/>
+      <c r="HI69" s="65"/>
+      <c r="HJ69" s="65"/>
+      <c r="HK69" s="65"/>
+      <c r="HL69" s="65"/>
+      <c r="HM69" s="65"/>
+      <c r="HN69" s="65"/>
+      <c r="HO69" s="65"/>
+      <c r="HP69" s="65"/>
+      <c r="HQ69" s="65"/>
+      <c r="HR69" s="65"/>
+      <c r="HS69" s="65"/>
+      <c r="HT69" s="65"/>
+      <c r="HU69" s="65"/>
+      <c r="HV69" s="65"/>
+      <c r="HW69" s="65"/>
+      <c r="HX69" s="65"/>
+      <c r="HY69" s="65"/>
+      <c r="HZ69" s="65"/>
+      <c r="IA69" s="65"/>
+      <c r="IB69" s="65"/>
+      <c r="IC69" s="65"/>
+      <c r="ID69" s="65"/>
+      <c r="IE69" s="65"/>
+      <c r="IF69" s="65"/>
+      <c r="IG69" s="65"/>
+      <c r="IH69" s="65"/>
+      <c r="II69" s="65"/>
+      <c r="IJ69" s="65"/>
+      <c r="IK69" s="65"/>
+      <c r="IL69" s="65"/>
+      <c r="IM69" s="65"/>
+      <c r="IN69" s="65"/>
+      <c r="IO69" s="65"/>
+      <c r="IP69" s="65"/>
+      <c r="IQ69" s="65"/>
+      <c r="IR69" s="65"/>
+      <c r="IS69" s="65"/>
+      <c r="IT69" s="65"/>
+      <c r="IU69" s="65"/>
+      <c r="IV69" s="65"/>
+      <c r="IW69" s="65"/>
+      <c r="IX69" s="65"/>
+      <c r="IY69" s="65"/>
+      <c r="IZ69" s="65"/>
+      <c r="JA69" s="65"/>
+      <c r="JB69" s="65"/>
+      <c r="JC69" s="65"/>
+      <c r="JD69" s="65"/>
+      <c r="JE69" s="65"/>
+      <c r="JF69" s="65"/>
+      <c r="JG69" s="65"/>
+      <c r="JH69" s="65"/>
+      <c r="JI69" s="65"/>
+      <c r="JJ69" s="65"/>
+      <c r="JK69" s="65"/>
+      <c r="JL69" s="65"/>
+      <c r="JM69" s="65"/>
+      <c r="JN69" s="65"/>
+      <c r="JO69" s="65"/>
+      <c r="JP69" s="65"/>
+      <c r="JQ69" s="65"/>
+      <c r="JR69" s="65"/>
+      <c r="JS69" s="65"/>
+      <c r="JT69" s="65"/>
+      <c r="JU69" s="65"/>
+      <c r="JV69" s="65"/>
+      <c r="JW69" s="65"/>
+      <c r="JX69" s="65"/>
+      <c r="JY69" s="65"/>
+      <c r="JZ69" s="65"/>
+      <c r="KA69" s="65"/>
+      <c r="KB69" s="65"/>
+      <c r="KC69" s="65"/>
+      <c r="KD69" s="65"/>
+      <c r="KE69" s="65"/>
+      <c r="KF69" s="65"/>
+      <c r="KG69" s="65"/>
+      <c r="KH69" s="65"/>
+      <c r="KI69" s="65"/>
+      <c r="KJ69" s="65"/>
+      <c r="KK69" s="65"/>
+      <c r="KL69" s="65"/>
+      <c r="KM69" s="65"/>
+      <c r="KN69" s="65"/>
+      <c r="KO69" s="65"/>
+      <c r="KP69" s="65"/>
+      <c r="KQ69" s="65"/>
+      <c r="KR69" s="65"/>
+      <c r="KS69" s="65"/>
+      <c r="KT69" s="65"/>
+      <c r="KU69" s="65"/>
+      <c r="KV69" s="65"/>
+      <c r="KW69" s="65"/>
+      <c r="KX69" s="65"/>
+      <c r="KY69" s="65"/>
+      <c r="KZ69" s="65"/>
+      <c r="LA69" s="65"/>
+      <c r="LB69" s="65"/>
+      <c r="LC69" s="65"/>
+      <c r="LD69" s="65"/>
+      <c r="LE69" s="65"/>
+      <c r="LF69" s="65"/>
+      <c r="LG69" s="65"/>
+      <c r="LH69" s="65"/>
+      <c r="LI69" s="65"/>
+      <c r="LJ69" s="65"/>
+      <c r="LK69" s="65"/>
+      <c r="LL69" s="65"/>
+      <c r="LM69" s="65"/>
+      <c r="LN69" s="65"/>
+      <c r="LO69" s="65"/>
+      <c r="LP69" s="65"/>
+      <c r="LQ69" s="65"/>
+      <c r="LR69" s="65"/>
+      <c r="LS69" s="65"/>
+      <c r="LT69" s="65"/>
+      <c r="LU69" s="65"/>
+      <c r="LV69" s="65"/>
+      <c r="LW69" s="65"/>
+      <c r="LX69" s="65"/>
+      <c r="LY69" s="65"/>
+      <c r="LZ69" s="65"/>
+      <c r="MA69" s="65"/>
+      <c r="MB69" s="65"/>
+      <c r="MC69" s="65"/>
+      <c r="MD69" s="65"/>
+      <c r="ME69" s="65"/>
+      <c r="MF69" s="65"/>
+      <c r="MG69" s="65"/>
+      <c r="MH69" s="65"/>
+      <c r="MI69" s="65"/>
+      <c r="MJ69" s="65"/>
+      <c r="MK69" s="65"/>
+      <c r="ML69" s="65"/>
+      <c r="MM69" s="65"/>
+      <c r="MN69" s="65"/>
+      <c r="MO69" s="65"/>
+      <c r="MP69" s="65"/>
+      <c r="MQ69" s="65"/>
+      <c r="MR69" s="65"/>
+      <c r="MS69" s="65"/>
+      <c r="MT69" s="65"/>
+      <c r="MU69" s="65"/>
+      <c r="MV69" s="65"/>
+      <c r="MW69" s="65"/>
+      <c r="MX69" s="65"/>
+      <c r="MY69" s="65"/>
+      <c r="MZ69" s="65"/>
+      <c r="NA69" s="65"/>
+      <c r="NB69" s="65"/>
+      <c r="NC69" s="65"/>
+      <c r="ND69" s="65"/>
+      <c r="NE69" s="65"/>
+      <c r="NF69" s="65"/>
+      <c r="NG69" s="65"/>
+      <c r="NH69" s="65"/>
+      <c r="NI69" s="65"/>
+      <c r="NJ69" s="65"/>
+      <c r="NK69" s="65"/>
+      <c r="NL69" s="65"/>
+      <c r="NM69" s="65"/>
+      <c r="NN69" s="65"/>
+      <c r="NO69" s="65"/>
+      <c r="NP69" s="65"/>
+      <c r="NQ69" s="65"/>
+      <c r="NR69" s="65"/>
+      <c r="NS69" s="65"/>
+      <c r="NT69" s="65"/>
+      <c r="NU69" s="65"/>
+      <c r="NV69" s="65"/>
+      <c r="NW69" s="65"/>
+      <c r="NX69" s="65"/>
+      <c r="NY69" s="65"/>
+      <c r="NZ69" s="65"/>
+      <c r="OA69" s="65"/>
+      <c r="OB69" s="65"/>
+      <c r="OC69" s="65"/>
+      <c r="OD69" s="65"/>
+      <c r="OE69" s="65"/>
+      <c r="OF69" s="65"/>
+      <c r="OG69" s="65"/>
+      <c r="OH69" s="65"/>
+      <c r="OI69" s="65"/>
+      <c r="OJ69" s="65"/>
+      <c r="OK69" s="65"/>
+      <c r="OL69" s="65"/>
+      <c r="OM69" s="65"/>
+      <c r="ON69" s="65"/>
+      <c r="OO69" s="65"/>
+      <c r="OP69" s="65"/>
+      <c r="OQ69" s="65"/>
+      <c r="OR69" s="65"/>
+      <c r="OS69" s="65"/>
+      <c r="OT69" s="65"/>
+      <c r="OU69" s="65"/>
+      <c r="OV69" s="65"/>
+      <c r="OW69" s="65"/>
+      <c r="OX69" s="65"/>
+      <c r="OY69" s="65"/>
+      <c r="OZ69" s="65"/>
+      <c r="PA69" s="65"/>
+      <c r="PB69" s="65"/>
+      <c r="PC69" s="65"/>
+      <c r="PD69" s="65"/>
+      <c r="PE69" s="65"/>
+      <c r="PF69" s="65"/>
+      <c r="PG69" s="65"/>
+      <c r="PH69" s="65"/>
+      <c r="PI69" s="65"/>
+      <c r="PJ69" s="65"/>
+      <c r="PK69" s="65"/>
+      <c r="PL69" s="65"/>
+      <c r="PM69" s="65"/>
+      <c r="PN69" s="65"/>
+      <c r="PO69" s="65"/>
+      <c r="PP69" s="65"/>
+      <c r="PQ69" s="65"/>
+      <c r="PR69" s="65"/>
+      <c r="PS69" s="65"/>
+      <c r="PT69" s="65"/>
+      <c r="PU69" s="65"/>
+      <c r="PV69" s="65"/>
+      <c r="PW69" s="65"/>
+      <c r="PX69" s="65"/>
+      <c r="PY69" s="65"/>
+      <c r="PZ69" s="65"/>
+      <c r="QA69" s="65"/>
+      <c r="QB69" s="65"/>
+      <c r="QC69" s="65"/>
+      <c r="QD69" s="65"/>
+      <c r="QE69" s="65"/>
+      <c r="QF69" s="65"/>
+      <c r="QG69" s="65"/>
+      <c r="QH69" s="65"/>
+      <c r="QI69" s="65"/>
+      <c r="QJ69" s="65"/>
+      <c r="QK69" s="65"/>
+      <c r="QL69" s="65"/>
+      <c r="QM69" s="65"/>
+      <c r="QN69" s="65"/>
+      <c r="QO69" s="65"/>
+      <c r="QP69" s="65"/>
+      <c r="QQ69" s="65"/>
+      <c r="QR69" s="65"/>
+      <c r="QS69" s="65"/>
+      <c r="QT69" s="65"/>
+      <c r="QU69" s="65"/>
+      <c r="QV69" s="65"/>
+      <c r="QW69" s="65"/>
+      <c r="QX69" s="65"/>
+      <c r="QY69" s="65"/>
+      <c r="QZ69" s="65"/>
+      <c r="RA69" s="65"/>
+      <c r="RB69" s="65"/>
+      <c r="RC69" s="65"/>
+      <c r="RD69" s="65"/>
+      <c r="RE69" s="65"/>
+      <c r="RF69" s="65"/>
+      <c r="RG69" s="65"/>
+      <c r="RH69" s="65"/>
+      <c r="RI69" s="65"/>
+      <c r="RJ69" s="65"/>
+      <c r="RK69" s="65"/>
+      <c r="RL69" s="65"/>
+      <c r="RM69" s="65"/>
+      <c r="RN69" s="65"/>
+      <c r="RO69" s="65"/>
+      <c r="RP69" s="65"/>
+      <c r="RQ69" s="65"/>
+      <c r="RR69" s="65"/>
+      <c r="RS69" s="65"/>
+      <c r="RT69" s="65"/>
+      <c r="RU69" s="65"/>
+      <c r="RV69" s="65"/>
+      <c r="RW69" s="65"/>
+      <c r="RX69" s="65"/>
+      <c r="RY69" s="65"/>
+      <c r="RZ69" s="65"/>
+      <c r="SA69" s="65"/>
+      <c r="SB69" s="65"/>
+      <c r="SC69" s="65"/>
+      <c r="SD69" s="65"/>
+      <c r="SE69" s="65"/>
+      <c r="SF69" s="65"/>
+      <c r="SG69" s="65"/>
+      <c r="SH69" s="65"/>
+      <c r="SI69" s="65"/>
+      <c r="SJ69" s="65"/>
+      <c r="SK69" s="65"/>
+      <c r="SL69" s="65"/>
+      <c r="SM69" s="65"/>
+      <c r="SN69" s="65"/>
+      <c r="SO69" s="65"/>
+      <c r="SP69" s="65"/>
+      <c r="SQ69" s="65"/>
+      <c r="SR69" s="65"/>
+      <c r="SS69" s="65"/>
+      <c r="ST69" s="65"/>
+      <c r="SU69" s="65"/>
+      <c r="SV69" s="65"/>
+      <c r="SW69" s="65"/>
+      <c r="SX69" s="65"/>
+      <c r="SY69" s="65"/>
+      <c r="SZ69" s="65"/>
+      <c r="TA69" s="65"/>
+      <c r="TB69" s="65"/>
+      <c r="TC69" s="65"/>
+      <c r="TD69" s="65"/>
+      <c r="TE69" s="65"/>
+      <c r="TF69" s="65"/>
+      <c r="TG69" s="65"/>
+      <c r="TH69" s="65"/>
+      <c r="TI69" s="65"/>
+      <c r="TJ69" s="65"/>
+      <c r="TK69" s="65"/>
+      <c r="TL69" s="65"/>
+      <c r="TM69" s="65"/>
+      <c r="TN69" s="65"/>
+      <c r="TO69" s="65"/>
+      <c r="TP69" s="65"/>
+      <c r="TQ69" s="65"/>
+      <c r="TR69" s="65"/>
+      <c r="TS69" s="65"/>
+      <c r="TT69" s="65"/>
+      <c r="TU69" s="65"/>
+      <c r="TV69" s="65"/>
+      <c r="TW69" s="65"/>
+      <c r="TX69" s="65"/>
+      <c r="TY69" s="65"/>
+      <c r="TZ69" s="65"/>
+      <c r="UA69" s="65"/>
+      <c r="UB69" s="65"/>
+      <c r="UC69" s="65"/>
+      <c r="UD69" s="65"/>
+      <c r="UE69" s="65"/>
+      <c r="UF69" s="65"/>
+      <c r="UG69" s="65"/>
+      <c r="UH69" s="65"/>
+      <c r="UI69" s="65"/>
+      <c r="UJ69" s="65"/>
+      <c r="UK69" s="65"/>
+      <c r="UL69" s="65"/>
+      <c r="UM69" s="65"/>
+      <c r="UN69" s="65"/>
+      <c r="UO69" s="65"/>
+      <c r="UP69" s="65"/>
+      <c r="UQ69" s="65"/>
+      <c r="UR69" s="65"/>
+      <c r="US69" s="65"/>
+      <c r="UT69" s="65"/>
+      <c r="UU69" s="65"/>
+      <c r="UV69" s="65"/>
+      <c r="UW69" s="65"/>
+      <c r="UX69" s="65"/>
+      <c r="UY69" s="65"/>
+      <c r="UZ69" s="65"/>
+      <c r="VA69" s="65"/>
+      <c r="VB69" s="65"/>
+      <c r="VC69" s="65"/>
+      <c r="VD69" s="65"/>
+      <c r="VE69" s="65"/>
+      <c r="VF69" s="65"/>
+      <c r="VG69" s="65"/>
+      <c r="VH69" s="65"/>
+      <c r="VI69" s="65"/>
+      <c r="VJ69" s="65"/>
+      <c r="VK69" s="65"/>
+      <c r="VL69" s="65"/>
+      <c r="VM69" s="65"/>
+      <c r="VN69" s="65"/>
+      <c r="VO69" s="65"/>
+      <c r="VP69" s="65"/>
+      <c r="VQ69" s="65"/>
+      <c r="VR69" s="65"/>
+      <c r="VS69" s="65"/>
+      <c r="VT69" s="65"/>
+      <c r="VU69" s="65"/>
+      <c r="VV69" s="65"/>
+      <c r="VW69" s="65"/>
+      <c r="VX69" s="65"/>
+      <c r="VY69" s="65"/>
+      <c r="VZ69" s="65"/>
+      <c r="WA69" s="65"/>
+      <c r="WB69" s="65"/>
+      <c r="WC69" s="65"/>
+      <c r="WD69" s="65"/>
+      <c r="WE69" s="65"/>
+      <c r="WF69" s="65"/>
+      <c r="WG69" s="65"/>
+      <c r="WH69" s="65"/>
+      <c r="WI69" s="65"/>
+      <c r="WJ69" s="65"/>
+      <c r="WK69" s="65"/>
+      <c r="WL69" s="65"/>
+      <c r="WM69" s="65"/>
+      <c r="WN69" s="65"/>
+      <c r="WO69" s="65"/>
+      <c r="WP69" s="65"/>
+      <c r="WQ69" s="65"/>
+      <c r="WR69" s="65"/>
+      <c r="WS69" s="65"/>
+      <c r="WT69" s="65"/>
+      <c r="WU69" s="65"/>
+      <c r="WV69" s="65"/>
+      <c r="WW69" s="65"/>
+      <c r="WX69" s="65"/>
+      <c r="WY69" s="65"/>
+      <c r="WZ69" s="65"/>
+      <c r="XA69" s="65"/>
+      <c r="XB69" s="65"/>
+      <c r="XC69" s="65"/>
+      <c r="XD69" s="65"/>
+      <c r="XE69" s="65"/>
+      <c r="XF69" s="65"/>
+      <c r="XG69" s="65"/>
+      <c r="XH69" s="65"/>
+      <c r="XI69" s="65"/>
+      <c r="XJ69" s="65"/>
+      <c r="XK69" s="65"/>
+      <c r="XL69" s="65"/>
+      <c r="XM69" s="65"/>
+      <c r="XN69" s="65"/>
+      <c r="XO69" s="65"/>
+      <c r="XP69" s="65"/>
+      <c r="XQ69" s="65"/>
+      <c r="XR69" s="65"/>
+      <c r="XS69" s="65"/>
+      <c r="XT69" s="65"/>
+      <c r="XU69" s="65"/>
+      <c r="XV69" s="65"/>
+      <c r="XW69" s="65"/>
+      <c r="XX69" s="65"/>
+      <c r="XY69" s="65"/>
+      <c r="XZ69" s="65"/>
+      <c r="YA69" s="65"/>
+      <c r="YB69" s="65"/>
+      <c r="YC69" s="65"/>
+      <c r="YD69" s="65"/>
+      <c r="YE69" s="65"/>
+      <c r="YF69" s="65"/>
+      <c r="YG69" s="65"/>
+      <c r="YH69" s="65"/>
+      <c r="YI69" s="65"/>
+      <c r="YJ69" s="65"/>
+      <c r="YK69" s="65"/>
+      <c r="YL69" s="65"/>
+      <c r="YM69" s="65"/>
+      <c r="YN69" s="65"/>
+      <c r="YO69" s="65"/>
+      <c r="YP69" s="65"/>
+      <c r="YQ69" s="65"/>
+      <c r="YR69" s="65"/>
+      <c r="YS69" s="65"/>
+      <c r="YT69" s="65"/>
+      <c r="YU69" s="65"/>
+      <c r="YV69" s="65"/>
+      <c r="YW69" s="65"/>
+      <c r="YX69" s="65"/>
+      <c r="YY69" s="65"/>
+      <c r="YZ69" s="65"/>
+      <c r="ZA69" s="65"/>
+      <c r="ZB69" s="65"/>
+      <c r="ZC69" s="65"/>
+      <c r="ZD69" s="65"/>
+      <c r="ZE69" s="65"/>
+      <c r="ZF69" s="65"/>
+      <c r="ZG69" s="65"/>
+      <c r="ZH69" s="65"/>
+      <c r="ZI69" s="65"/>
+      <c r="ZJ69" s="65"/>
+      <c r="ZK69" s="65"/>
+      <c r="ZL69" s="65"/>
+      <c r="ZM69" s="65"/>
+      <c r="ZN69" s="65"/>
+      <c r="ZO69" s="65"/>
+      <c r="ZP69" s="65"/>
+      <c r="ZQ69" s="65"/>
+      <c r="ZR69" s="65"/>
+      <c r="ZS69" s="65"/>
+      <c r="ZT69" s="65"/>
+      <c r="ZU69" s="65"/>
+      <c r="ZV69" s="65"/>
+      <c r="ZW69" s="65"/>
+      <c r="ZX69" s="65"/>
+      <c r="ZY69" s="65"/>
+      <c r="ZZ69" s="65"/>
+      <c r="AAA69" s="65"/>
+      <c r="AAB69" s="65"/>
+      <c r="AAC69" s="65"/>
+      <c r="AAD69" s="65"/>
+      <c r="AAE69" s="65"/>
+      <c r="AAF69" s="65"/>
+      <c r="AAG69" s="65"/>
+      <c r="AAH69" s="65"/>
+      <c r="AAI69" s="65"/>
+      <c r="AAJ69" s="65"/>
+      <c r="AAK69" s="65"/>
+      <c r="AAL69" s="65"/>
+      <c r="AAM69" s="65"/>
+      <c r="AAN69" s="65"/>
+      <c r="AAO69" s="65"/>
+      <c r="AAP69" s="65"/>
+      <c r="AAQ69" s="65"/>
+      <c r="AAR69" s="65"/>
+      <c r="AAS69" s="65"/>
+      <c r="AAT69" s="65"/>
+      <c r="AAU69" s="65"/>
+      <c r="AAV69" s="65"/>
+      <c r="AAW69" s="65"/>
+      <c r="AAX69" s="65"/>
+      <c r="AAY69" s="65"/>
+      <c r="AAZ69" s="65"/>
+      <c r="ABA69" s="65"/>
+      <c r="ABB69" s="65"/>
+      <c r="ABC69" s="65"/>
+      <c r="ABD69" s="65"/>
+      <c r="ABE69" s="65"/>
+      <c r="ABF69" s="65"/>
+      <c r="ABG69" s="65"/>
+      <c r="ABH69" s="65"/>
+      <c r="ABI69" s="65"/>
+      <c r="ABJ69" s="65"/>
+      <c r="ABK69" s="65"/>
+      <c r="ABL69" s="65"/>
+      <c r="ABM69" s="65"/>
+      <c r="ABN69" s="65"/>
+      <c r="ABO69" s="65"/>
+      <c r="ABP69" s="65"/>
+      <c r="ABQ69" s="65"/>
+      <c r="ABR69" s="65"/>
+      <c r="ABS69" s="65"/>
+      <c r="ABT69" s="65"/>
+      <c r="ABU69" s="65"/>
+      <c r="ABV69" s="65"/>
+      <c r="ABW69" s="65"/>
+      <c r="ABX69" s="65"/>
+      <c r="ABY69" s="65"/>
+      <c r="ABZ69" s="65"/>
+      <c r="ACA69" s="65"/>
+      <c r="ACB69" s="65"/>
+      <c r="ACC69" s="65"/>
+      <c r="ACD69" s="65"/>
+      <c r="ACE69" s="65"/>
+      <c r="ACF69" s="65"/>
+      <c r="ACG69" s="65"/>
+      <c r="ACH69" s="65"/>
+      <c r="ACI69" s="65"/>
+      <c r="ACJ69" s="65"/>
+      <c r="ACK69" s="65"/>
+      <c r="ACL69" s="65"/>
+      <c r="ACM69" s="65"/>
+      <c r="ACN69" s="65"/>
+      <c r="ACO69" s="65"/>
+      <c r="ACP69" s="65"/>
+      <c r="ACQ69" s="65"/>
+      <c r="ACR69" s="65"/>
+      <c r="ACS69" s="65"/>
+      <c r="ACT69" s="65"/>
+      <c r="ACU69" s="65"/>
+      <c r="ACV69" s="65"/>
+      <c r="ACW69" s="65"/>
+      <c r="ACX69" s="65"/>
+      <c r="ACY69" s="65"/>
+      <c r="ACZ69" s="65"/>
+      <c r="ADA69" s="65"/>
+      <c r="ADB69" s="65"/>
+      <c r="ADC69" s="65"/>
+      <c r="ADD69" s="65"/>
+      <c r="ADE69" s="65"/>
+      <c r="ADF69" s="65"/>
+      <c r="ADG69" s="65"/>
+      <c r="ADH69" s="65"/>
+      <c r="ADI69" s="65"/>
+      <c r="ADJ69" s="65"/>
+      <c r="ADK69" s="65"/>
+      <c r="ADL69" s="65"/>
+      <c r="ADM69" s="65"/>
+      <c r="ADN69" s="65"/>
+      <c r="ADO69" s="65"/>
+      <c r="ADP69" s="65"/>
+      <c r="ADQ69" s="65"/>
+      <c r="ADR69" s="65"/>
+      <c r="ADS69" s="65"/>
+      <c r="ADT69" s="65"/>
+      <c r="ADU69" s="65"/>
+      <c r="ADV69" s="65"/>
+      <c r="ADW69" s="65"/>
+      <c r="ADX69" s="65"/>
+      <c r="ADY69" s="65"/>
+      <c r="ADZ69" s="65"/>
+      <c r="AEA69" s="65"/>
+      <c r="AEB69" s="65"/>
+      <c r="AEC69" s="65"/>
+      <c r="AED69" s="65"/>
+      <c r="AEE69" s="65"/>
+      <c r="AEF69" s="65"/>
+      <c r="AEG69" s="65"/>
+      <c r="AEH69" s="65"/>
+      <c r="AEI69" s="65"/>
+      <c r="AEJ69" s="65"/>
+      <c r="AEK69" s="65"/>
+      <c r="AEL69" s="65"/>
+      <c r="AEM69" s="65"/>
+      <c r="AEN69" s="65"/>
+      <c r="AEO69" s="65"/>
+      <c r="AEP69" s="65"/>
+      <c r="AEQ69" s="65"/>
+      <c r="AER69" s="65"/>
+      <c r="AES69" s="65"/>
+      <c r="AET69" s="65"/>
+      <c r="AEU69" s="65"/>
+      <c r="AEV69" s="65"/>
+      <c r="AEW69" s="65"/>
+      <c r="AEX69" s="65"/>
+      <c r="AEY69" s="65"/>
+      <c r="AEZ69" s="65"/>
+      <c r="AFA69" s="65"/>
+      <c r="AFB69" s="65"/>
+      <c r="AFC69" s="65"/>
+      <c r="AFD69" s="65"/>
+      <c r="AFE69" s="65"/>
+      <c r="AFF69" s="65"/>
+      <c r="AFG69" s="65"/>
+      <c r="AFH69" s="65"/>
+      <c r="AFI69" s="65"/>
+      <c r="AFJ69" s="65"/>
+      <c r="AFK69" s="65"/>
+      <c r="AFL69" s="65"/>
+      <c r="AFM69" s="65"/>
+      <c r="AFN69" s="65"/>
+      <c r="AFO69" s="65"/>
+      <c r="AFP69" s="65"/>
+      <c r="AFQ69" s="65"/>
+      <c r="AFR69" s="65"/>
+      <c r="AFS69" s="65"/>
+      <c r="AFT69" s="65"/>
+      <c r="AFU69" s="65"/>
+      <c r="AFV69" s="65"/>
+      <c r="AFW69" s="65"/>
+      <c r="AFX69" s="65"/>
+      <c r="AFY69" s="65"/>
+      <c r="AFZ69" s="65"/>
+      <c r="AGA69" s="65"/>
+      <c r="AGB69" s="65"/>
+      <c r="AGC69" s="65"/>
+      <c r="AGD69" s="65"/>
+      <c r="AGE69" s="65"/>
+      <c r="AGF69" s="65"/>
+      <c r="AGG69" s="65"/>
+      <c r="AGH69" s="65"/>
+      <c r="AGI69" s="65"/>
+      <c r="AGJ69" s="65"/>
+      <c r="AGK69" s="65"/>
+      <c r="AGL69" s="65"/>
+      <c r="AGM69" s="65"/>
+      <c r="AGN69" s="65"/>
+      <c r="AGO69" s="65"/>
+      <c r="AGP69" s="65"/>
+      <c r="AGQ69" s="65"/>
+      <c r="AGR69" s="65"/>
+      <c r="AGS69" s="65"/>
+      <c r="AGT69" s="65"/>
+      <c r="AGU69" s="65"/>
+      <c r="AGV69" s="65"/>
+      <c r="AGW69" s="65"/>
+      <c r="AGX69" s="65"/>
+      <c r="AGY69" s="65"/>
+      <c r="AGZ69" s="65"/>
+      <c r="AHA69" s="65"/>
+      <c r="AHB69" s="65"/>
+      <c r="AHC69" s="65"/>
+      <c r="AHD69" s="65"/>
+      <c r="AHE69" s="65"/>
+      <c r="AHF69" s="65"/>
+      <c r="AHG69" s="65"/>
+      <c r="AHH69" s="65"/>
+      <c r="AHI69" s="65"/>
+      <c r="AHJ69" s="65"/>
+      <c r="AHK69" s="65"/>
+      <c r="AHL69" s="65"/>
+      <c r="AHM69" s="65"/>
+      <c r="AHN69" s="65"/>
+      <c r="AHO69" s="65"/>
+      <c r="AHP69" s="65"/>
+      <c r="AHQ69" s="65"/>
+      <c r="AHR69" s="65"/>
+      <c r="AHS69" s="65"/>
+      <c r="AHT69" s="65"/>
+      <c r="AHU69" s="65"/>
+      <c r="AHV69" s="65"/>
+      <c r="AHW69" s="65"/>
+      <c r="AHX69" s="65"/>
+      <c r="AHY69" s="65"/>
+      <c r="AHZ69" s="65"/>
+      <c r="AIA69" s="65"/>
+      <c r="AIB69" s="65"/>
+      <c r="AIC69" s="65"/>
+      <c r="AID69" s="65"/>
+      <c r="AIE69" s="65"/>
+      <c r="AIF69" s="65"/>
+      <c r="AIG69" s="65"/>
+      <c r="AIH69" s="65"/>
+      <c r="AII69" s="65"/>
+      <c r="AIJ69" s="65"/>
+      <c r="AIK69" s="65"/>
+      <c r="AIL69" s="65"/>
+      <c r="AIM69" s="65"/>
+      <c r="AIN69" s="65"/>
+      <c r="AIO69" s="65"/>
+      <c r="AIP69" s="65"/>
+      <c r="AIQ69" s="65"/>
+      <c r="AIR69" s="65"/>
+      <c r="AIS69" s="65"/>
+      <c r="AIT69" s="65"/>
+      <c r="AIU69" s="65"/>
+      <c r="AIV69" s="65"/>
+      <c r="AIW69" s="65"/>
+      <c r="AIX69" s="65"/>
+      <c r="AIY69" s="65"/>
+      <c r="AIZ69" s="65"/>
+      <c r="AJA69" s="65"/>
+      <c r="AJB69" s="65"/>
+      <c r="AJC69" s="65"/>
+      <c r="AJD69" s="65"/>
+      <c r="AJE69" s="65"/>
+      <c r="AJF69" s="65"/>
+      <c r="AJG69" s="65"/>
+      <c r="AJH69" s="65"/>
+      <c r="AJI69" s="65"/>
+      <c r="AJJ69" s="65"/>
+      <c r="AJK69" s="65"/>
+      <c r="AJL69" s="65"/>
+      <c r="AJM69" s="65"/>
+      <c r="AJN69" s="65"/>
+      <c r="AJO69" s="65"/>
+      <c r="AJP69" s="65"/>
+      <c r="AJQ69" s="65"/>
+      <c r="AJR69" s="65"/>
+      <c r="AJS69" s="65"/>
+      <c r="AJT69" s="65"/>
+      <c r="AJU69" s="65"/>
+      <c r="AJV69" s="65"/>
+      <c r="AJW69" s="65"/>
+      <c r="AJX69" s="65"/>
+      <c r="AJY69" s="65"/>
+      <c r="AJZ69" s="65"/>
+      <c r="AKA69" s="65"/>
+      <c r="AKB69" s="65"/>
+      <c r="AKC69" s="65"/>
+      <c r="AKD69" s="65"/>
+      <c r="AKE69" s="65"/>
+      <c r="AKF69" s="65"/>
+      <c r="AKG69" s="65"/>
+      <c r="AKH69" s="65"/>
+      <c r="AKI69" s="65"/>
+      <c r="AKJ69" s="65"/>
+      <c r="AKK69" s="65"/>
+      <c r="AKL69" s="65"/>
+      <c r="AKM69" s="65"/>
+      <c r="AKN69" s="65"/>
+      <c r="AKO69" s="65"/>
+      <c r="AKP69" s="65"/>
+      <c r="AKQ69" s="65"/>
+      <c r="AKR69" s="65"/>
+      <c r="AKS69" s="65"/>
+      <c r="AKT69" s="65"/>
+      <c r="AKU69" s="65"/>
+      <c r="AKV69" s="65"/>
+      <c r="AKW69" s="65"/>
+      <c r="AKX69" s="65"/>
+      <c r="AKY69" s="65"/>
+      <c r="AKZ69" s="65"/>
+      <c r="ALA69" s="65"/>
+      <c r="ALB69" s="65"/>
+      <c r="ALC69" s="65"/>
+      <c r="ALD69" s="65"/>
+      <c r="ALE69" s="65"/>
+      <c r="ALF69" s="65"/>
+      <c r="ALG69" s="65"/>
+      <c r="ALH69" s="65"/>
+      <c r="ALI69" s="65"/>
+      <c r="ALJ69" s="65"/>
+      <c r="ALK69" s="65"/>
+      <c r="ALL69" s="65"/>
+      <c r="ALM69" s="65"/>
+      <c r="ALN69" s="65"/>
+      <c r="ALO69" s="65"/>
+      <c r="ALP69" s="65"/>
+      <c r="ALQ69" s="65"/>
+      <c r="ALR69" s="65"/>
+      <c r="ALS69" s="65"/>
+      <c r="ALT69" s="65"/>
+      <c r="ALU69" s="65"/>
+      <c r="ALV69" s="65"/>
+      <c r="ALW69" s="65"/>
+      <c r="ALX69" s="65"/>
+      <c r="ALY69" s="65"/>
+      <c r="ALZ69" s="65"/>
+      <c r="AMA69" s="65"/>
+      <c r="AMB69" s="65"/>
+      <c r="AMC69" s="65"/>
+      <c r="AMD69" s="65"/>
+      <c r="AME69" s="65"/>
+      <c r="AMF69" s="65"/>
+      <c r="AMG69" s="65"/>
+      <c r="AMH69" s="65"/>
+      <c r="AMI69" s="65"/>
+      <c r="AMJ69" s="65"/>
+      <c r="AMK69" s="65"/>
+      <c r="AML69" s="65"/>
     </row>
     <row r="70" ht="12.75">
       <c r="A70" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="65" t="s">
-        <v>393</v>
-      </c>
-      <c r="E70" s="73" t="s">
-        <v>394</v>
-      </c>
-      <c r="F70" s="73" t="s">
-        <v>395</v>
+      <c r="C70" s="68" t="s">
+        <v>398</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>400</v>
       </c>
       <c r="L70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M70" t="s">
-        <v>234</v>
-      </c>
-      <c r="X70" s="64"/>
+        <v>401</v>
+      </c>
+      <c r="X70" s="67"/>
     </row>
     <row r="71" ht="12.75">
       <c r="A71" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="65" t="s">
-        <v>397</v>
-      </c>
-      <c r="E71" s="73" t="s">
-        <v>398</v>
-      </c>
-      <c r="F71" s="73" t="s">
-        <v>399</v>
+      <c r="C71" s="68" t="s">
+        <v>403</v>
+      </c>
+      <c r="E71" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="F71" s="40" t="s">
+        <v>405</v>
       </c>
       <c r="L71" t="s">
-        <v>133</v>
-      </c>
-      <c r="M71" t="s">
-        <v>234</v>
-      </c>
-      <c r="X71" s="64"/>
+        <v>134</v>
+      </c>
+      <c r="M71" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="X71" s="67"/>
     </row>
     <row r="72" ht="12.75">
-      <c r="E72" s="38"/>
+      <c r="E72" s="41"/>
     </row>
     <row r="73" ht="12.75"/>
     <row r="74" ht="12.75">
       <c r="B74" s="12"/>
-      <c r="E74" s="38"/>
+      <c r="E74" s="41"/>
     </row>
     <row r="75" ht="12.75">
       <c r="B75" s="12"/>
@@ -8171,121 +8312,121 @@
     </row>
     <row r="78" ht="12.75">
       <c r="B78" s="12"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="41"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="44"/>
       <c r="V78" s="12"/>
       <c r="W78" s="12"/>
     </row>
     <row r="79" ht="12.75">
       <c r="B79" s="12"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="41"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="44"/>
       <c r="V79" s="12"/>
       <c r="W79" s="12"/>
     </row>
     <row r="80" ht="12.75">
       <c r="B80" s="12"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="41"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="44"/>
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
     </row>
     <row r="81" ht="12.75">
       <c r="B81" s="12"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="41"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="44"/>
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
     </row>
     <row r="82" ht="12.75">
       <c r="B82" s="12"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="41"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="44"/>
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
     </row>
     <row r="83" ht="12.75">
       <c r="B83" s="12"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="41"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="44"/>
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
     </row>
     <row r="84" ht="12.75">
       <c r="B84" s="12"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="41"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="44"/>
       <c r="V84" s="12"/>
       <c r="W84" s="12"/>
     </row>
     <row r="85" ht="12.75">
       <c r="B85" s="12"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="40"/>
-      <c r="K85" s="41"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="44"/>
       <c r="V85" s="12"/>
       <c r="W85" s="12"/>
     </row>
     <row r="86" ht="12.75">
       <c r="B86" s="12"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="41"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="44"/>
       <c r="V86" s="12"/>
       <c r="W86" s="12"/>
     </row>
     <row r="87" ht="12.75">
       <c r="B87" s="12"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="41"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="44"/>
       <c r="V87" s="12"/>
       <c r="W87" s="12"/>
     </row>
@@ -8403,139 +8544,139 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="75" t="str">
+      <c r="B1" s="76" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="C1" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="78"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="3" ht="89.25">
-      <c r="A3" s="78" t="s">
-        <v>400</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>401</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>403</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>404</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>405</v>
-      </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
+      <c r="A3" s="79" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>408</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>409</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>406</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>407</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>408</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>409</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>406</v>
-      </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
+      <c r="C4" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>415</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" ht="409.5" customHeight="1">
-      <c r="A5" s="81" t="s">
-        <v>319</v>
+      <c r="A5" s="12" t="s">
+        <v>324</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>411</v>
-      </c>
-      <c r="D5" s="81"/>
+        <v>416</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" ht="178.5">
       <c r="A6" s="12" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" ht="266.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" ht="114.75">
       <c r="A8" s="12" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" ht="114.75">
       <c r="A9" s="12" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D9" s="12"/>
     </row>
@@ -8571,42 +8712,42 @@
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="46"/>
+        <v>163</v>
+      </c>
+      <c r="D1" s="49"/>
       <c r="E1" s="84"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>416</v>
+      <c r="B2" s="49" t="s">
+        <v>422</v>
       </c>
       <c r="C2" s="85" t="s">
-        <v>417</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+        <v>423</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
@@ -8616,7 +8757,7 @@
         <v>55</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="86"/>
@@ -8650,62 +8791,62 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="75" t="str">
+      <c r="B1" s="76" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77"/>
+      <c r="C1" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" ht="63.75">
-      <c r="A4" s="78" t="s">
-        <v>419</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>420</v>
-      </c>
-      <c r="C4" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>421</v>
-      </c>
-      <c r="E4" s="77"/>
+      <c r="A4" s="79" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>408</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="78"/>
     </row>
     <row r="5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>406</v>
-      </c>
-      <c r="D5" s="60" t="s">
+      <c r="C5" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="D5" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="80"/>
+      <c r="E5" s="81"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8732,405 +8873,405 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="88" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C1" s="88" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>433</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="67" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="67" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="67" t="s">
+        <v>443</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>444</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>427</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="64" t="s">
-        <v>429</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>430</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="64" t="s">
-        <v>432</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>435</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="64" t="s">
-        <v>437</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>438</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="64" t="s">
-        <v>262</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>440</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>441</v>
+      <c r="B8" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="64" t="s">
-        <v>442</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>443</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>444</v>
+      <c r="A9" s="67" t="s">
+        <v>448</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="64" t="s">
-        <v>445</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>446</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>447</v>
+      <c r="A10" s="67" t="s">
+        <v>451</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>452</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="64" t="s">
-        <v>391</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>448</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>449</v>
+      <c r="A11" s="67" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>454</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="64" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>450</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>451</v>
+      <c r="A12" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>456</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>453</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>454</v>
+      <c r="A13" s="67" t="s">
+        <v>458</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="64" t="s">
-        <v>455</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>456</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>457</v>
+      <c r="A14" s="67" t="s">
+        <v>461</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64" t="s">
-        <v>458</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>459</v>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64" t="s">
-        <v>460</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>461</v>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67" t="s">
+        <v>466</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64" t="s">
-        <v>462</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>463</v>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67" t="s">
+        <v>468</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64" t="s">
-        <v>464</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>465</v>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67" t="s">
+        <v>470</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64" t="s">
-        <v>466</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>467</v>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67" t="s">
+        <v>472</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64" t="s">
-        <v>468</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>469</v>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64" t="s">
-        <v>470</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>471</v>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64" t="s">
-        <v>472</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>473</v>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67" t="s">
+        <v>478</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64" t="s">
-        <v>474</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>475</v>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67" t="s">
+        <v>480</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64" t="s">
-        <v>476</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>477</v>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64" t="s">
-        <v>478</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>479</v>
+      <c r="A25" s="67"/>
+      <c r="B25" s="67" t="s">
+        <v>484</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64" t="s">
-        <v>480</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>481</v>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67" t="s">
+        <v>486</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64" t="s">
-        <v>482</v>
-      </c>
-      <c r="C27" s="64"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="67" t="s">
+        <v>488</v>
+      </c>
+      <c r="C27" s="67"/>
     </row>
     <row r="28">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64" t="s">
-        <v>483</v>
-      </c>
-      <c r="C28" s="64"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="67" t="s">
+        <v>489</v>
+      </c>
+      <c r="C28" s="67"/>
     </row>
     <row r="29">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64" t="s">
-        <v>484</v>
-      </c>
-      <c r="C29" s="64"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="67" t="s">
+        <v>490</v>
+      </c>
+      <c r="C29" s="67"/>
     </row>
     <row r="30">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64" t="s">
-        <v>485</v>
-      </c>
-      <c r="C30" s="64"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="C30" s="67"/>
     </row>
     <row r="31">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64" t="s">
-        <v>486</v>
-      </c>
-      <c r="C31" s="64"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="67" t="s">
+        <v>492</v>
+      </c>
+      <c r="C31" s="67"/>
     </row>
     <row r="32">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64" t="s">
-        <v>487</v>
-      </c>
-      <c r="C32" s="64"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="C32" s="67"/>
     </row>
     <row r="33">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64" t="s">
-        <v>488</v>
-      </c>
-      <c r="C33" s="64"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="67" t="s">
+        <v>494</v>
+      </c>
+      <c r="C33" s="67"/>
     </row>
     <row r="34">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64" t="s">
-        <v>489</v>
-      </c>
-      <c r="C34" s="64"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="67" t="s">
+        <v>495</v>
+      </c>
+      <c r="C34" s="67"/>
     </row>
     <row r="35">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64" t="s">
-        <v>490</v>
-      </c>
-      <c r="C35" s="64"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="67" t="s">
+        <v>496</v>
+      </c>
+      <c r="C35" s="67"/>
     </row>
     <row r="36">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64" t="s">
-        <v>491</v>
-      </c>
-      <c r="C36" s="64"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="C36" s="67"/>
     </row>
     <row r="37">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64" t="s">
-        <v>492</v>
-      </c>
-      <c r="C37" s="64"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="67" t="s">
+        <v>498</v>
+      </c>
+      <c r="C37" s="67"/>
     </row>
     <row r="38">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64" t="s">
-        <v>493</v>
-      </c>
-      <c r="C38" s="64"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="67" t="s">
+        <v>499</v>
+      </c>
+      <c r="C38" s="67"/>
     </row>
     <row r="39">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64" t="s">
-        <v>494</v>
-      </c>
-      <c r="C39" s="64"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="67" t="s">
+        <v>500</v>
+      </c>
+      <c r="C39" s="67"/>
     </row>
     <row r="40">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="C40" s="64"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="C40" s="67"/>
     </row>
     <row r="41">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64" t="s">
-        <v>496</v>
-      </c>
-      <c r="C41" s="64"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="67" t="s">
+        <v>502</v>
+      </c>
+      <c r="C41" s="67"/>
     </row>
     <row r="42">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="C42" s="64"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="C42" s="67"/>
     </row>
     <row r="43">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64" t="s">
-        <v>498</v>
-      </c>
-      <c r="C43" s="64"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="67" t="s">
+        <v>504</v>
+      </c>
+      <c r="C43" s="67"/>
     </row>
     <row r="44">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64" t="s">
-        <v>499</v>
-      </c>
-      <c r="C44" s="64"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="67" t="s">
+        <v>505</v>
+      </c>
+      <c r="C44" s="67"/>
     </row>
     <row r="45">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64" t="s">
-        <v>500</v>
-      </c>
-      <c r="C45" s="64"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="67" t="s">
+        <v>506</v>
+      </c>
+      <c r="C45" s="67"/>
     </row>
     <row r="46">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64" t="s">
-        <v>501</v>
-      </c>
-      <c r="C46" s="64"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="C46" s="67"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/demos/demo-SpOTy/sparnatural-config.xlsx
+++ b/demos/demo-SpOTy/sparnatural-config.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId1"/>
@@ -539,16 +539,16 @@
     <t xml:space="preserve">ISO 639-3</t>
   </si>
   <si>
+    <t>this:Latitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
     <t>this:Longitude</t>
   </si>
   <si>
     <t>Longitude</t>
-  </si>
-  <si>
-    <t>this:Latitude</t>
-  </si>
-  <si>
-    <t>Latitude</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;--- Don't touch this cell</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">has orthography</t>
   </si>
   <si>
-    <t xml:space="preserve">a pour orthographe</t>
+    <t xml:space="preserve">a pour orthography</t>
   </si>
   <si>
     <t>rdf:langString</t>
@@ -2548,7 +2548,7 @@
     </xf>
     <xf fontId="13" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2664,13 +2664,7 @@
       <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="54" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="54" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="54" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyProtection="0">
@@ -2764,9 +2758,6 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="36" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="58" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2779,6 +2770,9 @@
     </xf>
     <xf fontId="0" fillId="56" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="54" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="32" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
@@ -3801,7 +3795,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A6" zoomScale="95" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A1" zoomScale="95" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
@@ -4529,7 +4523,7 @@
       <c r="AME30" s="35"/>
     </row>
     <row r="31" s="35" customFormat="1" ht="12.5">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="35" t="s">
         <v>157</v>
       </c>
       <c r="B31" s="35" t="s">
@@ -4562,13 +4556,13 @@
       <c r="AME31" s="35"/>
     </row>
     <row r="32" ht="12.75">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" t="s">
         <v>160</v>
       </c>
       <c r="F32" s="35" t="s">
@@ -4578,24 +4572,27 @@
         <v>134</v>
       </c>
       <c r="I32" s="12">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="35" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="33" ht="12.75">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" t="s">
         <v>162</v>
       </c>
       <c r="F33" s="35" t="s">
         <v>106</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>134</v>
       </c>
       <c r="I33" s="12">
         <v>95</v>
@@ -4635,7 +4632,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A1" zoomScale="95" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A5" zoomScale="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
@@ -4646,17 +4643,17 @@
     <col customWidth="1" min="2" max="2" style="12" width="17.00390625"/>
     <col customWidth="1" min="3" max="3" style="0" width="74.57421875"/>
     <col customWidth="1" min="4" max="4" style="0" width="9.57421875"/>
-    <col customWidth="1" min="5" max="6" style="41" width="24.8515625"/>
+    <col customWidth="1" min="5" max="6" style="39" width="24.8515625"/>
     <col customWidth="1" min="7" max="8" style="12" width="32.00390625"/>
-    <col customWidth="1" min="9" max="9" style="42" width="32.00390625"/>
-    <col customWidth="1" min="10" max="10" style="43" width="28.8515625"/>
-    <col customWidth="1" min="11" max="11" style="44" width="28.8515625"/>
+    <col customWidth="1" min="9" max="9" style="40" width="32.00390625"/>
+    <col customWidth="1" min="10" max="10" style="41" width="28.8515625"/>
+    <col customWidth="1" min="11" max="11" style="42" width="28.8515625"/>
     <col customWidth="1" min="12" max="12" style="0" width="17.28125"/>
     <col customWidth="1" min="13" max="13" style="0" width="20.00390625"/>
     <col customWidth="1" min="14" max="14" style="0" width="22.28125"/>
-    <col customWidth="1" min="15" max="20" style="0" width="29.421875"/>
-    <col customWidth="1" min="21" max="21" width="29.421875"/>
-    <col customWidth="1" min="22" max="23" style="12" width="29.421875"/>
+    <col customWidth="1" min="15" max="20" style="0" width="19.28125"/>
+    <col customWidth="1" min="21" max="21" width="19.28125"/>
+    <col customWidth="1" min="22" max="23" style="12" width="19.28125"/>
     <col customWidth="1" min="24" max="25" width="27.00390625"/>
     <col customWidth="1" min="26" max="26" width="31.00390625"/>
     <col customWidth="1" min="27" max="34" width="27.00390625"/>
@@ -4664,10 +4661,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="44" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
@@ -4675,19 +4672,19 @@
         <v>163</v>
       </c>
       <c r="D1" s="16"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="42"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="48"/>
       <c r="R1" s="12"/>
       <c r="U1" s="12"/>
     </row>
@@ -4696,16 +4693,16 @@
       <c r="A3" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="52"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="23"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
@@ -4726,9 +4723,9 @@
       <c r="AML3" s="21"/>
     </row>
     <row r="4" ht="12.5">
-      <c r="E4" s="55"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="12"/>
-      <c r="J4" s="56"/>
+      <c r="J4" s="54"/>
       <c r="S4" s="12"/>
     </row>
     <row r="5" s="26" customFormat="1" ht="153">
@@ -4744,7 +4741,7 @@
       <c r="D5" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="55" t="s">
         <v>169</v>
       </c>
       <c r="F5" s="27" t="s">
@@ -4759,10 +4756,10 @@
       <c r="I5" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="56" t="s">
         <v>175</v>
       </c>
       <c r="L5" s="26" t="s">
@@ -4833,50 +4830,50 @@
       </c>
       <c r="AH5" s="27"/>
     </row>
-    <row r="6" s="59" customFormat="1" ht="25.5">
-      <c r="A6" s="59" t="s">
+    <row r="6" s="57" customFormat="1" ht="25.5">
+      <c r="A6" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="57" t="s">
         <v>200</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57"/>
     </row>
     <row r="7" ht="25.5">
       <c r="A7" s="30" t="s">
@@ -4900,16 +4897,16 @@
       <c r="G7" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="61" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="K7" s="64" t="s">
+      <c r="K7" s="62" t="s">
         <v>213</v>
       </c>
       <c r="L7" s="31" t="s">
@@ -4948,70 +4945,70 @@
       <c r="W7" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="X7" s="63" t="s">
+      <c r="X7" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="Y7" s="63" t="s">
+      <c r="Y7" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="Z7" s="63" t="s">
+      <c r="Z7" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="AA7" s="63" t="s">
+      <c r="AA7" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="AB7" s="63" t="s">
+      <c r="AB7" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="AC7" s="63" t="s">
+      <c r="AC7" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="AD7" s="63" t="s">
+      <c r="AD7" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="AE7" s="63" t="s">
+      <c r="AE7" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="AF7" s="63" t="s">
+      <c r="AF7" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="AG7" s="63" t="s">
+      <c r="AG7" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="AH7" s="63" t="s">
+      <c r="AH7" s="61" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="8" s="65" customFormat="1" ht="12.75">
-      <c r="A8" s="65" t="s">
+    <row r="8" s="63" customFormat="1" ht="12.75">
+      <c r="A8" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="AMH8" s="65"/>
-      <c r="AMI8" s="65"/>
-      <c r="AMJ8" s="65"/>
-      <c r="AMK8" s="65"/>
-      <c r="AML8" s="65"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="AMH8" s="63"/>
+      <c r="AMI8" s="63"/>
+      <c r="AMJ8" s="63"/>
+      <c r="AMK8" s="63"/>
+      <c r="AML8" s="63"/>
     </row>
     <row r="9" ht="12.75">
       <c r="A9" t="s">
@@ -5026,16 +5023,16 @@
       <c r="E9" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="64" t="s">
         <v>234</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43">
+      <c r="I9" s="40"/>
+      <c r="J9" s="41">
         <v>1</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="42">
         <v>1</v>
       </c>
       <c r="L9" t="s">
@@ -5043,7 +5040,7 @@
       </c>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
-      <c r="X9" s="67"/>
+      <c r="X9" s="65"/>
       <c r="AA9" t="s">
         <v>131</v>
       </c>
@@ -5055,7 +5052,7 @@
       <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="66" t="s">
         <v>236</v>
       </c>
       <c r="D10" s="3"/>
@@ -5082,8 +5079,8 @@
       <c r="T10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="69" t="s">
+      <c r="X10" s="65"/>
+      <c r="Y10" s="67" t="s">
         <v>240</v>
       </c>
       <c r="AA10" t="s">
@@ -5102,7 +5099,7 @@
       <c r="B11" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="66" t="s">
         <v>242</v>
       </c>
       <c r="D11" s="3"/>
@@ -5129,7 +5126,7 @@
       <c r="T11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="67"/>
+      <c r="X11" s="65"/>
       <c r="AA11" t="s">
         <v>131</v>
       </c>
@@ -5146,14 +5143,14 @@
       <c r="B12" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="66" t="s">
         <v>246</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="35" t="s">
         <v>248</v>
       </c>
       <c r="G12" s="3"/>
@@ -5176,7 +5173,7 @@
       <c r="T12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="67"/>
+      <c r="X12" s="65"/>
       <c r="AA12" t="s">
         <v>131</v>
       </c>
@@ -5193,7 +5190,7 @@
       <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="66" t="s">
         <v>251</v>
       </c>
       <c r="D13" s="3"/>
@@ -5223,7 +5220,7 @@
       <c r="T13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="67"/>
+      <c r="X13" s="65"/>
       <c r="AA13" t="s">
         <v>131</v>
       </c>
@@ -5240,7 +5237,7 @@
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="66" t="s">
         <v>255</v>
       </c>
       <c r="D14" s="3"/>
@@ -5270,8 +5267,8 @@
       <c r="T14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="67"/>
-      <c r="AA14" s="70" t="s">
+      <c r="X14" s="65"/>
+      <c r="AA14" t="s">
         <v>131</v>
       </c>
       <c r="AMH14" s="3"/>
@@ -5287,7 +5284,7 @@
       <c r="B15" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="66" t="s">
         <v>260</v>
       </c>
       <c r="D15" s="3"/>
@@ -5314,7 +5311,7 @@
       <c r="T15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="67"/>
+      <c r="X15" s="65"/>
       <c r="AA15" t="s">
         <v>131</v>
       </c>
@@ -5331,7 +5328,7 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="68" t="s">
         <v>264</v>
       </c>
       <c r="E16" t="s">
@@ -5342,8 +5339,8 @@
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
       <c r="L16" t="s">
         <v>108</v>
       </c>
@@ -5352,7 +5349,7 @@
       </c>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
-      <c r="X16" s="67" t="s">
+      <c r="X16" s="65" t="s">
         <v>267</v>
       </c>
       <c r="AB16" t="b">
@@ -5377,8 +5374,8 @@
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="L17" t="s">
         <v>108</v>
       </c>
@@ -5387,7 +5384,7 @@
       </c>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="67" t="s">
+      <c r="X17" s="65" t="s">
         <v>272</v>
       </c>
       <c r="Z17" t="s">
@@ -5413,7 +5410,7 @@
       <c r="F18" t="s">
         <v>266</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="42">
         <v>1</v>
       </c>
       <c r="L18" t="s">
@@ -5425,7 +5422,7 @@
       <c r="N18" t="s">
         <v>132</v>
       </c>
-      <c r="X18" s="67" t="s">
+      <c r="X18" s="65" t="s">
         <v>276</v>
       </c>
       <c r="AB18" t="b">
@@ -5439,7 +5436,7 @@
       <c r="B19" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="68" t="s">
         <v>278</v>
       </c>
       <c r="E19" t="s">
@@ -5448,7 +5445,7 @@
       <c r="F19" t="s">
         <v>266</v>
       </c>
-      <c r="K19" s="44">
+      <c r="K19" s="42">
         <v>1</v>
       </c>
       <c r="L19" t="s">
@@ -5460,7 +5457,7 @@
       <c r="N19" t="s">
         <v>140</v>
       </c>
-      <c r="X19" s="67" t="s">
+      <c r="X19" s="65" t="s">
         <v>276</v>
       </c>
       <c r="AB19" t="b">
@@ -5489,7 +5486,7 @@
       <c r="N20" t="s">
         <v>110</v>
       </c>
-      <c r="X20" s="67" t="s">
+      <c r="X20" s="65" t="s">
         <v>267</v>
       </c>
       <c r="AB20" t="b">
@@ -5498,40 +5495,40 @@
     </row>
     <row r="21" ht="12.75">
       <c r="B21" s="12"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-    </row>
-    <row r="22" s="65" customFormat="1" ht="12.75">
-      <c r="A22" s="65" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" s="63" customFormat="1" ht="12.75">
+      <c r="A22" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="AMH22" s="65"/>
-      <c r="AMI22" s="65"/>
-      <c r="AMJ22" s="65"/>
-      <c r="AMK22" s="65"/>
-      <c r="AML22" s="65"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="AMH22" s="63"/>
+      <c r="AMI22" s="63"/>
+      <c r="AMJ22" s="63"/>
+      <c r="AMK22" s="63"/>
+      <c r="AML22" s="63"/>
     </row>
     <row r="23" ht="12.75">
       <c r="A23" t="s">
@@ -5546,16 +5543,16 @@
       <c r="E23" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="64" t="s">
         <v>234</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43">
+      <c r="I23" s="40"/>
+      <c r="J23" s="41">
         <v>1</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="42">
         <v>1</v>
       </c>
       <c r="L23" t="s">
@@ -5572,7 +5569,7 @@
       <c r="B24" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="66" t="s">
         <v>285</v>
       </c>
       <c r="D24" s="3"/>
@@ -5602,7 +5599,7 @@
       <c r="T24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="67"/>
+      <c r="X24" s="65"/>
       <c r="AA24" t="s">
         <v>131</v>
       </c>
@@ -5643,7 +5640,7 @@
       <c r="T25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="67"/>
+      <c r="X25" s="65"/>
       <c r="AA25" t="s">
         <v>131</v>
       </c>
@@ -5660,7 +5657,7 @@
       <c r="B26" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="68" t="s">
         <v>290</v>
       </c>
       <c r="E26" t="s">
@@ -5671,8 +5668,8 @@
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
       <c r="L26" t="s">
         <v>108</v>
       </c>
@@ -5681,7 +5678,7 @@
       </c>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
-      <c r="X26" s="67" t="s">
+      <c r="X26" s="65" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5703,9 +5700,9 @@
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="44"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="42"/>
       <c r="L27" t="s">
         <v>134</v>
       </c>
@@ -5717,10 +5714,10 @@
       </c>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
-      <c r="X27" s="67" t="s">
+      <c r="X27" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="Y27" s="69" t="s">
+      <c r="Y27" s="67" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5745,9 +5742,9 @@
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="44">
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="42">
         <v>1</v>
       </c>
       <c r="L28" t="s">
@@ -5758,7 +5755,7 @@
       </c>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
-      <c r="X28" s="67" t="s">
+      <c r="X28" s="65" t="s">
         <v>267</v>
       </c>
       <c r="AB28" t="b">
@@ -5772,7 +5769,7 @@
       <c r="B29" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="68" t="s">
         <v>300</v>
       </c>
       <c r="D29" s="3">
@@ -5786,8 +5783,8 @@
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
       <c r="L29" t="s">
         <v>108</v>
       </c>
@@ -5796,7 +5793,7 @@
       </c>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
-      <c r="X29" s="67" t="s">
+      <c r="X29" s="65" t="s">
         <v>267</v>
       </c>
       <c r="AB29" t="b">
@@ -5810,7 +5807,7 @@
       <c r="B30" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="68" t="s">
         <v>304</v>
       </c>
       <c r="D30" s="3">
@@ -5824,8 +5821,8 @@
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="41"/>
       <c r="L30" t="s">
         <v>108</v>
       </c>
@@ -5834,7 +5831,7 @@
       </c>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
-      <c r="X30" s="67" t="s">
+      <c r="X30" s="65" t="s">
         <v>267</v>
       </c>
       <c r="AB30" t="b">
@@ -5848,7 +5845,7 @@
       <c r="B31" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="68" t="s">
         <v>308</v>
       </c>
       <c r="D31" s="3">
@@ -5866,7 +5863,7 @@
       <c r="N31" t="s">
         <v>110</v>
       </c>
-      <c r="X31" s="67" t="s">
+      <c r="X31" s="65" t="s">
         <v>267</v>
       </c>
       <c r="AB31" t="b">
@@ -5892,7 +5889,7 @@
       <c r="F32" t="s">
         <v>314</v>
       </c>
-      <c r="K32" s="44">
+      <c r="K32" s="42">
         <v>1</v>
       </c>
       <c r="L32" t="s">
@@ -5901,7 +5898,7 @@
       <c r="N32" t="s">
         <v>110</v>
       </c>
-      <c r="X32" s="67" t="s">
+      <c r="X32" s="65" t="s">
         <v>267</v>
       </c>
       <c r="AB32" t="b">
@@ -5915,7 +5912,7 @@
       <c r="B33" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="68" t="s">
         <v>316</v>
       </c>
       <c r="D33" s="3">
@@ -5933,7 +5930,7 @@
       <c r="N33" t="s">
         <v>110</v>
       </c>
-      <c r="X33" s="67" t="s">
+      <c r="X33" s="65" t="s">
         <v>267</v>
       </c>
       <c r="AB33" t="b">
@@ -5962,7 +5959,7 @@
       <c r="N34" t="s">
         <v>114</v>
       </c>
-      <c r="X34" s="67" t="s">
+      <c r="X34" s="65" t="s">
         <v>323</v>
       </c>
       <c r="AB34" t="b">
@@ -5982,7 +5979,7 @@
       <c r="B35" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="68" t="s">
         <v>327</v>
       </c>
       <c r="E35" t="s">
@@ -5997,7 +5994,7 @@
       <c r="N35" t="s">
         <v>114</v>
       </c>
-      <c r="X35" s="67" t="s">
+      <c r="X35" s="65" t="s">
         <v>323</v>
       </c>
       <c r="AB35" t="b">
@@ -6032,7 +6029,7 @@
       <c r="N36" t="s">
         <v>119</v>
       </c>
-      <c r="X36" s="67" t="s">
+      <c r="X36" s="65" t="s">
         <v>292</v>
       </c>
       <c r="AB36" t="b">
@@ -6046,7 +6043,7 @@
       <c r="B37" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="68" t="s">
         <v>331</v>
       </c>
       <c r="E37" t="s">
@@ -6061,7 +6058,7 @@
       <c r="N37" t="s">
         <v>119</v>
       </c>
-      <c r="X37" s="67" t="s">
+      <c r="X37" s="65" t="s">
         <v>292</v>
       </c>
       <c r="Z37" t="s">
@@ -6087,7 +6084,7 @@
       <c r="F38" t="s">
         <v>266</v>
       </c>
-      <c r="K38" s="44">
+      <c r="K38" s="42">
         <v>1</v>
       </c>
       <c r="L38" t="s">
@@ -6099,7 +6096,7 @@
       <c r="N38" t="s">
         <v>136</v>
       </c>
-      <c r="X38" s="67" t="s">
+      <c r="X38" s="65" t="s">
         <v>276</v>
       </c>
       <c r="AB38" t="b">
@@ -6122,7 +6119,7 @@
       <c r="F39" t="s">
         <v>338</v>
       </c>
-      <c r="J39" s="43"/>
+      <c r="J39" s="41"/>
       <c r="L39" t="s">
         <v>134</v>
       </c>
@@ -6132,7 +6129,7 @@
       <c r="N39" t="s">
         <v>146</v>
       </c>
-      <c r="X39" s="67" t="s">
+      <c r="X39" s="65" t="s">
         <v>276</v>
       </c>
       <c r="AB39" t="b">
@@ -6141,41 +6138,41 @@
     </row>
     <row r="40" ht="12.75">
       <c r="B40" s="12"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-    </row>
-    <row r="41" s="65" customFormat="1" ht="12.75">
-      <c r="A41" s="65" t="s">
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+    </row>
+    <row r="41" s="63" customFormat="1" ht="12.75">
+      <c r="A41" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="65"/>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="65"/>
-      <c r="S41" s="65"/>
-      <c r="T41" s="65"/>
-      <c r="V41" s="65"/>
-      <c r="W41" s="65"/>
-      <c r="X41" s="65"/>
-      <c r="AB41" s="65"/>
-      <c r="AMH41" s="65"/>
-      <c r="AMI41" s="65"/>
-      <c r="AMJ41" s="65"/>
-      <c r="AMK41" s="65"/>
-      <c r="AML41" s="65"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="AB41" s="63"/>
+      <c r="AMH41" s="63"/>
+      <c r="AMI41" s="63"/>
+      <c r="AMJ41" s="63"/>
+      <c r="AMK41" s="63"/>
+      <c r="AML41" s="63"/>
     </row>
     <row r="42" s="0" customFormat="1" ht="12.75">
       <c r="A42" s="3" t="s">
@@ -6211,7 +6208,7 @@
       <c r="T42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="67"/>
+      <c r="X42" s="65"/>
       <c r="AA42" t="s">
         <v>131</v>
       </c>
@@ -6255,7 +6252,7 @@
       <c r="T43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-      <c r="X43" s="67"/>
+      <c r="X43" s="65"/>
       <c r="AA43" t="s">
         <v>131</v>
       </c>
@@ -6302,7 +6299,7 @@
       <c r="T44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-      <c r="X44" s="67"/>
+      <c r="X44" s="65"/>
       <c r="AA44" t="s">
         <v>131</v>
       </c>
@@ -6349,8 +6346,8 @@
       <c r="T45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-      <c r="X45" s="67"/>
-      <c r="Y45" s="69" t="s">
+      <c r="X45" s="65"/>
+      <c r="Y45" s="67" t="s">
         <v>240</v>
       </c>
       <c r="AA45" t="s">
@@ -6399,7 +6396,7 @@
       <c r="T46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-      <c r="X46" s="67"/>
+      <c r="X46" s="65"/>
       <c r="AA46" t="s">
         <v>131</v>
       </c>
@@ -6416,7 +6413,7 @@
       <c r="B47" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="71" t="s">
+      <c r="C47" s="68" t="s">
         <v>348</v>
       </c>
       <c r="E47" t="s">
@@ -6427,8 +6424,8 @@
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="43"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="41"/>
       <c r="L47" t="s">
         <v>108</v>
       </c>
@@ -6437,7 +6434,7 @@
       </c>
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
-      <c r="X47" s="67" t="s">
+      <c r="X47" s="65" t="s">
         <v>276</v>
       </c>
       <c r="AB47" t="b">
@@ -6446,48 +6443,48 @@
     </row>
     <row r="48" ht="12.75">
       <c r="B48" s="12"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="44"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="42"/>
       <c r="V48" s="12"/>
       <c r="W48" s="12"/>
     </row>
-    <row r="49" s="65" customFormat="1" ht="12.75">
-      <c r="A49" s="65" t="s">
+    <row r="49" s="63" customFormat="1" ht="12.75">
+      <c r="A49" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
-      <c r="T49" s="65"/>
-      <c r="V49" s="65"/>
-      <c r="W49" s="65"/>
-      <c r="X49" s="65"/>
-      <c r="AB49" s="65"/>
-      <c r="AMH49" s="65"/>
-      <c r="AMI49" s="65"/>
-      <c r="AMJ49" s="65"/>
-      <c r="AMK49" s="65"/>
-      <c r="AML49" s="65"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="63"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="63"/>
+      <c r="AB49" s="63"/>
+      <c r="AMH49" s="63"/>
+      <c r="AMI49" s="63"/>
+      <c r="AMJ49" s="63"/>
+      <c r="AMK49" s="63"/>
+      <c r="AML49" s="63"/>
     </row>
     <row r="50" s="0" customFormat="1" ht="12.75">
       <c r="A50" t="s">
@@ -6524,7 +6521,7 @@
       <c r="T50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-      <c r="X50" s="67"/>
+      <c r="X50" s="65"/>
       <c r="AA50" t="s">
         <v>131</v>
       </c>
@@ -6570,7 +6567,7 @@
       <c r="T51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-      <c r="X51" s="67"/>
+      <c r="X51" s="65"/>
       <c r="AA51" t="s">
         <v>131</v>
       </c>
@@ -6616,7 +6613,7 @@
       <c r="T52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-      <c r="X52" s="67"/>
+      <c r="X52" s="65"/>
       <c r="AA52" t="s">
         <v>131</v>
       </c>
@@ -6662,8 +6659,8 @@
       <c r="T53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-      <c r="X53" s="67"/>
-      <c r="Y53" s="69" t="s">
+      <c r="X53" s="65"/>
+      <c r="Y53" s="67" t="s">
         <v>240</v>
       </c>
       <c r="AA53" t="s">
@@ -6711,7 +6708,7 @@
       <c r="T54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-      <c r="X54" s="67"/>
+      <c r="X54" s="65"/>
       <c r="AA54" t="s">
         <v>131</v>
       </c>
@@ -6728,7 +6725,7 @@
       <c r="B55" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="71" t="s">
+      <c r="C55" s="68" t="s">
         <v>348</v>
       </c>
       <c r="E55" t="s">
@@ -6739,9 +6736,9 @@
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="44"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="42"/>
       <c r="L55" t="s">
         <v>108</v>
       </c>
@@ -6750,7 +6747,7 @@
       </c>
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
-      <c r="X55" s="67" t="s">
+      <c r="X55" s="65" t="s">
         <v>276</v>
       </c>
       <c r="AB55" t="b">
@@ -6759,47 +6756,47 @@
     </row>
     <row r="56" ht="12.75">
       <c r="B56" s="12"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="44"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="42"/>
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
     </row>
-    <row r="57" s="65" customFormat="1" ht="12.75">
-      <c r="A57" s="65" t="s">
+    <row r="57" s="63" customFormat="1" ht="12.75">
+      <c r="A57" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="65"/>
-      <c r="O57" s="65"/>
-      <c r="P57" s="65"/>
-      <c r="Q57" s="65"/>
-      <c r="R57" s="65"/>
-      <c r="S57" s="65"/>
-      <c r="T57" s="65"/>
-      <c r="V57" s="65"/>
-      <c r="W57" s="65"/>
-      <c r="X57" s="65"/>
-      <c r="AMH57" s="65"/>
-      <c r="AMI57" s="65"/>
-      <c r="AMJ57" s="65"/>
-      <c r="AMK57" s="65"/>
-      <c r="AML57" s="65"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="63"/>
+      <c r="Q57" s="63"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="63"/>
+      <c r="T57" s="63"/>
+      <c r="V57" s="63"/>
+      <c r="W57" s="63"/>
+      <c r="X57" s="63"/>
+      <c r="AMH57" s="63"/>
+      <c r="AMI57" s="63"/>
+      <c r="AMJ57" s="63"/>
+      <c r="AMK57" s="63"/>
+      <c r="AML57" s="63"/>
     </row>
     <row r="58" ht="12.75">
       <c r="A58" t="s">
@@ -6814,16 +6811,16 @@
       <c r="E58" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F58" s="66" t="s">
+      <c r="F58" s="64" t="s">
         <v>234</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="43">
+      <c r="I58" s="40"/>
+      <c r="J58" s="41">
         <v>1</v>
       </c>
-      <c r="K58" s="44">
+      <c r="K58" s="42">
         <v>1</v>
       </c>
       <c r="L58" t="s">
@@ -6840,7 +6837,7 @@
       <c r="B59" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="68" t="s">
+      <c r="C59" s="66" t="s">
         <v>352</v>
       </c>
       <c r="D59" s="3"/>
@@ -6867,8 +6864,8 @@
       <c r="T59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-      <c r="X59" s="67"/>
-      <c r="Y59" s="69" t="s">
+      <c r="X59" s="65"/>
+      <c r="Y59" s="67" t="s">
         <v>240</v>
       </c>
       <c r="AA59" t="s">
@@ -6887,7 +6884,7 @@
       <c r="B60" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="66" t="s">
         <v>369</v>
       </c>
       <c r="D60" s="3"/>
@@ -6914,7 +6911,7 @@
       <c r="T60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-      <c r="X60" s="67"/>
+      <c r="X60" s="65"/>
       <c r="AA60" t="s">
         <v>131</v>
       </c>
@@ -6931,7 +6928,7 @@
       <c r="B61" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="68" t="s">
+      <c r="C61" s="66" t="s">
         <v>373</v>
       </c>
       <c r="D61" s="3"/>
@@ -6961,7 +6958,7 @@
       <c r="T61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-      <c r="X61" s="67"/>
+      <c r="X61" s="65"/>
       <c r="AA61" t="s">
         <v>131</v>
       </c>
@@ -6978,7 +6975,7 @@
       <c r="B62" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="68" t="s">
+      <c r="C62" s="66" t="s">
         <v>377</v>
       </c>
       <c r="D62" s="3"/>
@@ -7008,7 +7005,7 @@
       <c r="T62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-      <c r="X62" s="67"/>
+      <c r="X62" s="65"/>
       <c r="AA62" t="s">
         <v>131</v>
       </c>
@@ -7025,7 +7022,7 @@
       <c r="B63" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="68" t="s">
+      <c r="C63" s="66" t="s">
         <v>381</v>
       </c>
       <c r="D63" s="3"/>
@@ -7055,7 +7052,7 @@
       <c r="T63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-      <c r="X63" s="67"/>
+      <c r="X63" s="65"/>
       <c r="AA63" t="s">
         <v>131</v>
       </c>
@@ -7083,9 +7080,9 @@
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="44">
+      <c r="I64" s="40"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="42">
         <v>1</v>
       </c>
       <c r="L64" t="s">
@@ -7099,7 +7096,7 @@
       </c>
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
-      <c r="X64" s="67" t="s">
+      <c r="X64" s="65" t="s">
         <v>292</v>
       </c>
       <c r="Z64" s="12" t="s">
@@ -7124,9 +7121,9 @@
       </c>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="44">
+      <c r="I65" s="40"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="42">
         <v>1</v>
       </c>
       <c r="L65" t="s">
@@ -7140,7 +7137,7 @@
       </c>
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
-      <c r="X65" s="67" t="s">
+      <c r="X65" s="65" t="s">
         <v>292</v>
       </c>
       <c r="Z65" s="12" t="s">
@@ -7163,7 +7160,7 @@
       <c r="F66" t="s">
         <v>266</v>
       </c>
-      <c r="K66" s="44">
+      <c r="K66" s="42">
         <v>1</v>
       </c>
       <c r="L66" t="s">
@@ -7175,7 +7172,7 @@
       <c r="N66" t="s">
         <v>155</v>
       </c>
-      <c r="X66" s="67" t="s">
+      <c r="X66" s="65" t="s">
         <v>292</v>
       </c>
       <c r="Z66" s="12" t="s">
@@ -7198,7 +7195,7 @@
       <c r="F67" t="s">
         <v>395</v>
       </c>
-      <c r="J67" s="43">
+      <c r="J67" s="41">
         <v>1</v>
       </c>
       <c r="L67" t="s">
@@ -7210,1040 +7207,1040 @@
       <c r="N67" t="s">
         <v>157</v>
       </c>
-      <c r="X67" s="67" t="s">
+      <c r="X67" s="65" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="68" ht="12.75"/>
     <row r="69" ht="12.75">
-      <c r="A69" s="65" t="s">
+      <c r="A69" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="B69" s="72"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="74"/>
-      <c r="J69" s="72"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="65"/>
-      <c r="M69" s="65"/>
-      <c r="N69" s="65"/>
-      <c r="O69" s="65"/>
-      <c r="P69" s="65"/>
-      <c r="Q69" s="65"/>
-      <c r="R69" s="65"/>
-      <c r="S69" s="65"/>
-      <c r="T69" s="65"/>
-      <c r="U69" s="65"/>
-      <c r="V69" s="72"/>
-      <c r="W69" s="72"/>
-      <c r="X69" s="65"/>
-      <c r="Y69" s="65"/>
-      <c r="Z69" s="65"/>
-      <c r="AA69" s="65"/>
-      <c r="AB69" s="65"/>
-      <c r="AC69" s="65"/>
-      <c r="AD69" s="65"/>
-      <c r="AE69" s="65"/>
-      <c r="AF69" s="65"/>
-      <c r="AG69" s="65"/>
-      <c r="AH69" s="65"/>
-      <c r="AI69" s="65"/>
-      <c r="AJ69" s="65"/>
-      <c r="AK69" s="65"/>
-      <c r="AL69" s="65"/>
-      <c r="AM69" s="65"/>
-      <c r="AN69" s="65"/>
-      <c r="AO69" s="65"/>
-      <c r="AP69" s="65"/>
-      <c r="AQ69" s="65"/>
-      <c r="AR69" s="65"/>
-      <c r="AS69" s="65"/>
-      <c r="AT69" s="65"/>
-      <c r="AU69" s="65"/>
-      <c r="AV69" s="65"/>
-      <c r="AW69" s="65"/>
-      <c r="AX69" s="65"/>
-      <c r="AY69" s="65"/>
-      <c r="AZ69" s="65"/>
-      <c r="BA69" s="65"/>
-      <c r="BB69" s="65"/>
-      <c r="BC69" s="65"/>
-      <c r="BD69" s="65"/>
-      <c r="BE69" s="65"/>
-      <c r="BF69" s="65"/>
-      <c r="BG69" s="65"/>
-      <c r="BH69" s="65"/>
-      <c r="BI69" s="65"/>
-      <c r="BJ69" s="65"/>
-      <c r="BK69" s="65"/>
-      <c r="BL69" s="65"/>
-      <c r="BM69" s="65"/>
-      <c r="BN69" s="65"/>
-      <c r="BO69" s="65"/>
-      <c r="BP69" s="65"/>
-      <c r="BQ69" s="65"/>
-      <c r="BR69" s="65"/>
-      <c r="BS69" s="65"/>
-      <c r="BT69" s="65"/>
-      <c r="BU69" s="65"/>
-      <c r="BV69" s="65"/>
-      <c r="BW69" s="65"/>
-      <c r="BX69" s="65"/>
-      <c r="BY69" s="65"/>
-      <c r="BZ69" s="65"/>
-      <c r="CA69" s="65"/>
-      <c r="CB69" s="65"/>
-      <c r="CC69" s="65"/>
-      <c r="CD69" s="65"/>
-      <c r="CE69" s="65"/>
-      <c r="CF69" s="65"/>
-      <c r="CG69" s="65"/>
-      <c r="CH69" s="65"/>
-      <c r="CI69" s="65"/>
-      <c r="CJ69" s="65"/>
-      <c r="CK69" s="65"/>
-      <c r="CL69" s="65"/>
-      <c r="CM69" s="65"/>
-      <c r="CN69" s="65"/>
-      <c r="CO69" s="65"/>
-      <c r="CP69" s="65"/>
-      <c r="CQ69" s="65"/>
-      <c r="CR69" s="65"/>
-      <c r="CS69" s="65"/>
-      <c r="CT69" s="65"/>
-      <c r="CU69" s="65"/>
-      <c r="CV69" s="65"/>
-      <c r="CW69" s="65"/>
-      <c r="CX69" s="65"/>
-      <c r="CY69" s="65"/>
-      <c r="CZ69" s="65"/>
-      <c r="DA69" s="65"/>
-      <c r="DB69" s="65"/>
-      <c r="DC69" s="65"/>
-      <c r="DD69" s="65"/>
-      <c r="DE69" s="65"/>
-      <c r="DF69" s="65"/>
-      <c r="DG69" s="65"/>
-      <c r="DH69" s="65"/>
-      <c r="DI69" s="65"/>
-      <c r="DJ69" s="65"/>
-      <c r="DK69" s="65"/>
-      <c r="DL69" s="65"/>
-      <c r="DM69" s="65"/>
-      <c r="DN69" s="65"/>
-      <c r="DO69" s="65"/>
-      <c r="DP69" s="65"/>
-      <c r="DQ69" s="65"/>
-      <c r="DR69" s="65"/>
-      <c r="DS69" s="65"/>
-      <c r="DT69" s="65"/>
-      <c r="DU69" s="65"/>
-      <c r="DV69" s="65"/>
-      <c r="DW69" s="65"/>
-      <c r="DX69" s="65"/>
-      <c r="DY69" s="65"/>
-      <c r="DZ69" s="65"/>
-      <c r="EA69" s="65"/>
-      <c r="EB69" s="65"/>
-      <c r="EC69" s="65"/>
-      <c r="ED69" s="65"/>
-      <c r="EE69" s="65"/>
-      <c r="EF69" s="65"/>
-      <c r="EG69" s="65"/>
-      <c r="EH69" s="65"/>
-      <c r="EI69" s="65"/>
-      <c r="EJ69" s="65"/>
-      <c r="EK69" s="65"/>
-      <c r="EL69" s="65"/>
-      <c r="EM69" s="65"/>
-      <c r="EN69" s="65"/>
-      <c r="EO69" s="65"/>
-      <c r="EP69" s="65"/>
-      <c r="EQ69" s="65"/>
-      <c r="ER69" s="65"/>
-      <c r="ES69" s="65"/>
-      <c r="ET69" s="65"/>
-      <c r="EU69" s="65"/>
-      <c r="EV69" s="65"/>
-      <c r="EW69" s="65"/>
-      <c r="EX69" s="65"/>
-      <c r="EY69" s="65"/>
-      <c r="EZ69" s="65"/>
-      <c r="FA69" s="65"/>
-      <c r="FB69" s="65"/>
-      <c r="FC69" s="65"/>
-      <c r="FD69" s="65"/>
-      <c r="FE69" s="65"/>
-      <c r="FF69" s="65"/>
-      <c r="FG69" s="65"/>
-      <c r="FH69" s="65"/>
-      <c r="FI69" s="65"/>
-      <c r="FJ69" s="65"/>
-      <c r="FK69" s="65"/>
-      <c r="FL69" s="65"/>
-      <c r="FM69" s="65"/>
-      <c r="FN69" s="65"/>
-      <c r="FO69" s="65"/>
-      <c r="FP69" s="65"/>
-      <c r="FQ69" s="65"/>
-      <c r="FR69" s="65"/>
-      <c r="FS69" s="65"/>
-      <c r="FT69" s="65"/>
-      <c r="FU69" s="65"/>
-      <c r="FV69" s="65"/>
-      <c r="FW69" s="65"/>
-      <c r="FX69" s="65"/>
-      <c r="FY69" s="65"/>
-      <c r="FZ69" s="65"/>
-      <c r="GA69" s="65"/>
-      <c r="GB69" s="65"/>
-      <c r="GC69" s="65"/>
-      <c r="GD69" s="65"/>
-      <c r="GE69" s="65"/>
-      <c r="GF69" s="65"/>
-      <c r="GG69" s="65"/>
-      <c r="GH69" s="65"/>
-      <c r="GI69" s="65"/>
-      <c r="GJ69" s="65"/>
-      <c r="GK69" s="65"/>
-      <c r="GL69" s="65"/>
-      <c r="GM69" s="65"/>
-      <c r="GN69" s="65"/>
-      <c r="GO69" s="65"/>
-      <c r="GP69" s="65"/>
-      <c r="GQ69" s="65"/>
-      <c r="GR69" s="65"/>
-      <c r="GS69" s="65"/>
-      <c r="GT69" s="65"/>
-      <c r="GU69" s="65"/>
-      <c r="GV69" s="65"/>
-      <c r="GW69" s="65"/>
-      <c r="GX69" s="65"/>
-      <c r="GY69" s="65"/>
-      <c r="GZ69" s="65"/>
-      <c r="HA69" s="65"/>
-      <c r="HB69" s="65"/>
-      <c r="HC69" s="65"/>
-      <c r="HD69" s="65"/>
-      <c r="HE69" s="65"/>
-      <c r="HF69" s="65"/>
-      <c r="HG69" s="65"/>
-      <c r="HH69" s="65"/>
-      <c r="HI69" s="65"/>
-      <c r="HJ69" s="65"/>
-      <c r="HK69" s="65"/>
-      <c r="HL69" s="65"/>
-      <c r="HM69" s="65"/>
-      <c r="HN69" s="65"/>
-      <c r="HO69" s="65"/>
-      <c r="HP69" s="65"/>
-      <c r="HQ69" s="65"/>
-      <c r="HR69" s="65"/>
-      <c r="HS69" s="65"/>
-      <c r="HT69" s="65"/>
-      <c r="HU69" s="65"/>
-      <c r="HV69" s="65"/>
-      <c r="HW69" s="65"/>
-      <c r="HX69" s="65"/>
-      <c r="HY69" s="65"/>
-      <c r="HZ69" s="65"/>
-      <c r="IA69" s="65"/>
-      <c r="IB69" s="65"/>
-      <c r="IC69" s="65"/>
-      <c r="ID69" s="65"/>
-      <c r="IE69" s="65"/>
-      <c r="IF69" s="65"/>
-      <c r="IG69" s="65"/>
-      <c r="IH69" s="65"/>
-      <c r="II69" s="65"/>
-      <c r="IJ69" s="65"/>
-      <c r="IK69" s="65"/>
-      <c r="IL69" s="65"/>
-      <c r="IM69" s="65"/>
-      <c r="IN69" s="65"/>
-      <c r="IO69" s="65"/>
-      <c r="IP69" s="65"/>
-      <c r="IQ69" s="65"/>
-      <c r="IR69" s="65"/>
-      <c r="IS69" s="65"/>
-      <c r="IT69" s="65"/>
-      <c r="IU69" s="65"/>
-      <c r="IV69" s="65"/>
-      <c r="IW69" s="65"/>
-      <c r="IX69" s="65"/>
-      <c r="IY69" s="65"/>
-      <c r="IZ69" s="65"/>
-      <c r="JA69" s="65"/>
-      <c r="JB69" s="65"/>
-      <c r="JC69" s="65"/>
-      <c r="JD69" s="65"/>
-      <c r="JE69" s="65"/>
-      <c r="JF69" s="65"/>
-      <c r="JG69" s="65"/>
-      <c r="JH69" s="65"/>
-      <c r="JI69" s="65"/>
-      <c r="JJ69" s="65"/>
-      <c r="JK69" s="65"/>
-      <c r="JL69" s="65"/>
-      <c r="JM69" s="65"/>
-      <c r="JN69" s="65"/>
-      <c r="JO69" s="65"/>
-      <c r="JP69" s="65"/>
-      <c r="JQ69" s="65"/>
-      <c r="JR69" s="65"/>
-      <c r="JS69" s="65"/>
-      <c r="JT69" s="65"/>
-      <c r="JU69" s="65"/>
-      <c r="JV69" s="65"/>
-      <c r="JW69" s="65"/>
-      <c r="JX69" s="65"/>
-      <c r="JY69" s="65"/>
-      <c r="JZ69" s="65"/>
-      <c r="KA69" s="65"/>
-      <c r="KB69" s="65"/>
-      <c r="KC69" s="65"/>
-      <c r="KD69" s="65"/>
-      <c r="KE69" s="65"/>
-      <c r="KF69" s="65"/>
-      <c r="KG69" s="65"/>
-      <c r="KH69" s="65"/>
-      <c r="KI69" s="65"/>
-      <c r="KJ69" s="65"/>
-      <c r="KK69" s="65"/>
-      <c r="KL69" s="65"/>
-      <c r="KM69" s="65"/>
-      <c r="KN69" s="65"/>
-      <c r="KO69" s="65"/>
-      <c r="KP69" s="65"/>
-      <c r="KQ69" s="65"/>
-      <c r="KR69" s="65"/>
-      <c r="KS69" s="65"/>
-      <c r="KT69" s="65"/>
-      <c r="KU69" s="65"/>
-      <c r="KV69" s="65"/>
-      <c r="KW69" s="65"/>
-      <c r="KX69" s="65"/>
-      <c r="KY69" s="65"/>
-      <c r="KZ69" s="65"/>
-      <c r="LA69" s="65"/>
-      <c r="LB69" s="65"/>
-      <c r="LC69" s="65"/>
-      <c r="LD69" s="65"/>
-      <c r="LE69" s="65"/>
-      <c r="LF69" s="65"/>
-      <c r="LG69" s="65"/>
-      <c r="LH69" s="65"/>
-      <c r="LI69" s="65"/>
-      <c r="LJ69" s="65"/>
-      <c r="LK69" s="65"/>
-      <c r="LL69" s="65"/>
-      <c r="LM69" s="65"/>
-      <c r="LN69" s="65"/>
-      <c r="LO69" s="65"/>
-      <c r="LP69" s="65"/>
-      <c r="LQ69" s="65"/>
-      <c r="LR69" s="65"/>
-      <c r="LS69" s="65"/>
-      <c r="LT69" s="65"/>
-      <c r="LU69" s="65"/>
-      <c r="LV69" s="65"/>
-      <c r="LW69" s="65"/>
-      <c r="LX69" s="65"/>
-      <c r="LY69" s="65"/>
-      <c r="LZ69" s="65"/>
-      <c r="MA69" s="65"/>
-      <c r="MB69" s="65"/>
-      <c r="MC69" s="65"/>
-      <c r="MD69" s="65"/>
-      <c r="ME69" s="65"/>
-      <c r="MF69" s="65"/>
-      <c r="MG69" s="65"/>
-      <c r="MH69" s="65"/>
-      <c r="MI69" s="65"/>
-      <c r="MJ69" s="65"/>
-      <c r="MK69" s="65"/>
-      <c r="ML69" s="65"/>
-      <c r="MM69" s="65"/>
-      <c r="MN69" s="65"/>
-      <c r="MO69" s="65"/>
-      <c r="MP69" s="65"/>
-      <c r="MQ69" s="65"/>
-      <c r="MR69" s="65"/>
-      <c r="MS69" s="65"/>
-      <c r="MT69" s="65"/>
-      <c r="MU69" s="65"/>
-      <c r="MV69" s="65"/>
-      <c r="MW69" s="65"/>
-      <c r="MX69" s="65"/>
-      <c r="MY69" s="65"/>
-      <c r="MZ69" s="65"/>
-      <c r="NA69" s="65"/>
-      <c r="NB69" s="65"/>
-      <c r="NC69" s="65"/>
-      <c r="ND69" s="65"/>
-      <c r="NE69" s="65"/>
-      <c r="NF69" s="65"/>
-      <c r="NG69" s="65"/>
-      <c r="NH69" s="65"/>
-      <c r="NI69" s="65"/>
-      <c r="NJ69" s="65"/>
-      <c r="NK69" s="65"/>
-      <c r="NL69" s="65"/>
-      <c r="NM69" s="65"/>
-      <c r="NN69" s="65"/>
-      <c r="NO69" s="65"/>
-      <c r="NP69" s="65"/>
-      <c r="NQ69" s="65"/>
-      <c r="NR69" s="65"/>
-      <c r="NS69" s="65"/>
-      <c r="NT69" s="65"/>
-      <c r="NU69" s="65"/>
-      <c r="NV69" s="65"/>
-      <c r="NW69" s="65"/>
-      <c r="NX69" s="65"/>
-      <c r="NY69" s="65"/>
-      <c r="NZ69" s="65"/>
-      <c r="OA69" s="65"/>
-      <c r="OB69" s="65"/>
-      <c r="OC69" s="65"/>
-      <c r="OD69" s="65"/>
-      <c r="OE69" s="65"/>
-      <c r="OF69" s="65"/>
-      <c r="OG69" s="65"/>
-      <c r="OH69" s="65"/>
-      <c r="OI69" s="65"/>
-      <c r="OJ69" s="65"/>
-      <c r="OK69" s="65"/>
-      <c r="OL69" s="65"/>
-      <c r="OM69" s="65"/>
-      <c r="ON69" s="65"/>
-      <c r="OO69" s="65"/>
-      <c r="OP69" s="65"/>
-      <c r="OQ69" s="65"/>
-      <c r="OR69" s="65"/>
-      <c r="OS69" s="65"/>
-      <c r="OT69" s="65"/>
-      <c r="OU69" s="65"/>
-      <c r="OV69" s="65"/>
-      <c r="OW69" s="65"/>
-      <c r="OX69" s="65"/>
-      <c r="OY69" s="65"/>
-      <c r="OZ69" s="65"/>
-      <c r="PA69" s="65"/>
-      <c r="PB69" s="65"/>
-      <c r="PC69" s="65"/>
-      <c r="PD69" s="65"/>
-      <c r="PE69" s="65"/>
-      <c r="PF69" s="65"/>
-      <c r="PG69" s="65"/>
-      <c r="PH69" s="65"/>
-      <c r="PI69" s="65"/>
-      <c r="PJ69" s="65"/>
-      <c r="PK69" s="65"/>
-      <c r="PL69" s="65"/>
-      <c r="PM69" s="65"/>
-      <c r="PN69" s="65"/>
-      <c r="PO69" s="65"/>
-      <c r="PP69" s="65"/>
-      <c r="PQ69" s="65"/>
-      <c r="PR69" s="65"/>
-      <c r="PS69" s="65"/>
-      <c r="PT69" s="65"/>
-      <c r="PU69" s="65"/>
-      <c r="PV69" s="65"/>
-      <c r="PW69" s="65"/>
-      <c r="PX69" s="65"/>
-      <c r="PY69" s="65"/>
-      <c r="PZ69" s="65"/>
-      <c r="QA69" s="65"/>
-      <c r="QB69" s="65"/>
-      <c r="QC69" s="65"/>
-      <c r="QD69" s="65"/>
-      <c r="QE69" s="65"/>
-      <c r="QF69" s="65"/>
-      <c r="QG69" s="65"/>
-      <c r="QH69" s="65"/>
-      <c r="QI69" s="65"/>
-      <c r="QJ69" s="65"/>
-      <c r="QK69" s="65"/>
-      <c r="QL69" s="65"/>
-      <c r="QM69" s="65"/>
-      <c r="QN69" s="65"/>
-      <c r="QO69" s="65"/>
-      <c r="QP69" s="65"/>
-      <c r="QQ69" s="65"/>
-      <c r="QR69" s="65"/>
-      <c r="QS69" s="65"/>
-      <c r="QT69" s="65"/>
-      <c r="QU69" s="65"/>
-      <c r="QV69" s="65"/>
-      <c r="QW69" s="65"/>
-      <c r="QX69" s="65"/>
-      <c r="QY69" s="65"/>
-      <c r="QZ69" s="65"/>
-      <c r="RA69" s="65"/>
-      <c r="RB69" s="65"/>
-      <c r="RC69" s="65"/>
-      <c r="RD69" s="65"/>
-      <c r="RE69" s="65"/>
-      <c r="RF69" s="65"/>
-      <c r="RG69" s="65"/>
-      <c r="RH69" s="65"/>
-      <c r="RI69" s="65"/>
-      <c r="RJ69" s="65"/>
-      <c r="RK69" s="65"/>
-      <c r="RL69" s="65"/>
-      <c r="RM69" s="65"/>
-      <c r="RN69" s="65"/>
-      <c r="RO69" s="65"/>
-      <c r="RP69" s="65"/>
-      <c r="RQ69" s="65"/>
-      <c r="RR69" s="65"/>
-      <c r="RS69" s="65"/>
-      <c r="RT69" s="65"/>
-      <c r="RU69" s="65"/>
-      <c r="RV69" s="65"/>
-      <c r="RW69" s="65"/>
-      <c r="RX69" s="65"/>
-      <c r="RY69" s="65"/>
-      <c r="RZ69" s="65"/>
-      <c r="SA69" s="65"/>
-      <c r="SB69" s="65"/>
-      <c r="SC69" s="65"/>
-      <c r="SD69" s="65"/>
-      <c r="SE69" s="65"/>
-      <c r="SF69" s="65"/>
-      <c r="SG69" s="65"/>
-      <c r="SH69" s="65"/>
-      <c r="SI69" s="65"/>
-      <c r="SJ69" s="65"/>
-      <c r="SK69" s="65"/>
-      <c r="SL69" s="65"/>
-      <c r="SM69" s="65"/>
-      <c r="SN69" s="65"/>
-      <c r="SO69" s="65"/>
-      <c r="SP69" s="65"/>
-      <c r="SQ69" s="65"/>
-      <c r="SR69" s="65"/>
-      <c r="SS69" s="65"/>
-      <c r="ST69" s="65"/>
-      <c r="SU69" s="65"/>
-      <c r="SV69" s="65"/>
-      <c r="SW69" s="65"/>
-      <c r="SX69" s="65"/>
-      <c r="SY69" s="65"/>
-      <c r="SZ69" s="65"/>
-      <c r="TA69" s="65"/>
-      <c r="TB69" s="65"/>
-      <c r="TC69" s="65"/>
-      <c r="TD69" s="65"/>
-      <c r="TE69" s="65"/>
-      <c r="TF69" s="65"/>
-      <c r="TG69" s="65"/>
-      <c r="TH69" s="65"/>
-      <c r="TI69" s="65"/>
-      <c r="TJ69" s="65"/>
-      <c r="TK69" s="65"/>
-      <c r="TL69" s="65"/>
-      <c r="TM69" s="65"/>
-      <c r="TN69" s="65"/>
-      <c r="TO69" s="65"/>
-      <c r="TP69" s="65"/>
-      <c r="TQ69" s="65"/>
-      <c r="TR69" s="65"/>
-      <c r="TS69" s="65"/>
-      <c r="TT69" s="65"/>
-      <c r="TU69" s="65"/>
-      <c r="TV69" s="65"/>
-      <c r="TW69" s="65"/>
-      <c r="TX69" s="65"/>
-      <c r="TY69" s="65"/>
-      <c r="TZ69" s="65"/>
-      <c r="UA69" s="65"/>
-      <c r="UB69" s="65"/>
-      <c r="UC69" s="65"/>
-      <c r="UD69" s="65"/>
-      <c r="UE69" s="65"/>
-      <c r="UF69" s="65"/>
-      <c r="UG69" s="65"/>
-      <c r="UH69" s="65"/>
-      <c r="UI69" s="65"/>
-      <c r="UJ69" s="65"/>
-      <c r="UK69" s="65"/>
-      <c r="UL69" s="65"/>
-      <c r="UM69" s="65"/>
-      <c r="UN69" s="65"/>
-      <c r="UO69" s="65"/>
-      <c r="UP69" s="65"/>
-      <c r="UQ69" s="65"/>
-      <c r="UR69" s="65"/>
-      <c r="US69" s="65"/>
-      <c r="UT69" s="65"/>
-      <c r="UU69" s="65"/>
-      <c r="UV69" s="65"/>
-      <c r="UW69" s="65"/>
-      <c r="UX69" s="65"/>
-      <c r="UY69" s="65"/>
-      <c r="UZ69" s="65"/>
-      <c r="VA69" s="65"/>
-      <c r="VB69" s="65"/>
-      <c r="VC69" s="65"/>
-      <c r="VD69" s="65"/>
-      <c r="VE69" s="65"/>
-      <c r="VF69" s="65"/>
-      <c r="VG69" s="65"/>
-      <c r="VH69" s="65"/>
-      <c r="VI69" s="65"/>
-      <c r="VJ69" s="65"/>
-      <c r="VK69" s="65"/>
-      <c r="VL69" s="65"/>
-      <c r="VM69" s="65"/>
-      <c r="VN69" s="65"/>
-      <c r="VO69" s="65"/>
-      <c r="VP69" s="65"/>
-      <c r="VQ69" s="65"/>
-      <c r="VR69" s="65"/>
-      <c r="VS69" s="65"/>
-      <c r="VT69" s="65"/>
-      <c r="VU69" s="65"/>
-      <c r="VV69" s="65"/>
-      <c r="VW69" s="65"/>
-      <c r="VX69" s="65"/>
-      <c r="VY69" s="65"/>
-      <c r="VZ69" s="65"/>
-      <c r="WA69" s="65"/>
-      <c r="WB69" s="65"/>
-      <c r="WC69" s="65"/>
-      <c r="WD69" s="65"/>
-      <c r="WE69" s="65"/>
-      <c r="WF69" s="65"/>
-      <c r="WG69" s="65"/>
-      <c r="WH69" s="65"/>
-      <c r="WI69" s="65"/>
-      <c r="WJ69" s="65"/>
-      <c r="WK69" s="65"/>
-      <c r="WL69" s="65"/>
-      <c r="WM69" s="65"/>
-      <c r="WN69" s="65"/>
-      <c r="WO69" s="65"/>
-      <c r="WP69" s="65"/>
-      <c r="WQ69" s="65"/>
-      <c r="WR69" s="65"/>
-      <c r="WS69" s="65"/>
-      <c r="WT69" s="65"/>
-      <c r="WU69" s="65"/>
-      <c r="WV69" s="65"/>
-      <c r="WW69" s="65"/>
-      <c r="WX69" s="65"/>
-      <c r="WY69" s="65"/>
-      <c r="WZ69" s="65"/>
-      <c r="XA69" s="65"/>
-      <c r="XB69" s="65"/>
-      <c r="XC69" s="65"/>
-      <c r="XD69" s="65"/>
-      <c r="XE69" s="65"/>
-      <c r="XF69" s="65"/>
-      <c r="XG69" s="65"/>
-      <c r="XH69" s="65"/>
-      <c r="XI69" s="65"/>
-      <c r="XJ69" s="65"/>
-      <c r="XK69" s="65"/>
-      <c r="XL69" s="65"/>
-      <c r="XM69" s="65"/>
-      <c r="XN69" s="65"/>
-      <c r="XO69" s="65"/>
-      <c r="XP69" s="65"/>
-      <c r="XQ69" s="65"/>
-      <c r="XR69" s="65"/>
-      <c r="XS69" s="65"/>
-      <c r="XT69" s="65"/>
-      <c r="XU69" s="65"/>
-      <c r="XV69" s="65"/>
-      <c r="XW69" s="65"/>
-      <c r="XX69" s="65"/>
-      <c r="XY69" s="65"/>
-      <c r="XZ69" s="65"/>
-      <c r="YA69" s="65"/>
-      <c r="YB69" s="65"/>
-      <c r="YC69" s="65"/>
-      <c r="YD69" s="65"/>
-      <c r="YE69" s="65"/>
-      <c r="YF69" s="65"/>
-      <c r="YG69" s="65"/>
-      <c r="YH69" s="65"/>
-      <c r="YI69" s="65"/>
-      <c r="YJ69" s="65"/>
-      <c r="YK69" s="65"/>
-      <c r="YL69" s="65"/>
-      <c r="YM69" s="65"/>
-      <c r="YN69" s="65"/>
-      <c r="YO69" s="65"/>
-      <c r="YP69" s="65"/>
-      <c r="YQ69" s="65"/>
-      <c r="YR69" s="65"/>
-      <c r="YS69" s="65"/>
-      <c r="YT69" s="65"/>
-      <c r="YU69" s="65"/>
-      <c r="YV69" s="65"/>
-      <c r="YW69" s="65"/>
-      <c r="YX69" s="65"/>
-      <c r="YY69" s="65"/>
-      <c r="YZ69" s="65"/>
-      <c r="ZA69" s="65"/>
-      <c r="ZB69" s="65"/>
-      <c r="ZC69" s="65"/>
-      <c r="ZD69" s="65"/>
-      <c r="ZE69" s="65"/>
-      <c r="ZF69" s="65"/>
-      <c r="ZG69" s="65"/>
-      <c r="ZH69" s="65"/>
-      <c r="ZI69" s="65"/>
-      <c r="ZJ69" s="65"/>
-      <c r="ZK69" s="65"/>
-      <c r="ZL69" s="65"/>
-      <c r="ZM69" s="65"/>
-      <c r="ZN69" s="65"/>
-      <c r="ZO69" s="65"/>
-      <c r="ZP69" s="65"/>
-      <c r="ZQ69" s="65"/>
-      <c r="ZR69" s="65"/>
-      <c r="ZS69" s="65"/>
-      <c r="ZT69" s="65"/>
-      <c r="ZU69" s="65"/>
-      <c r="ZV69" s="65"/>
-      <c r="ZW69" s="65"/>
-      <c r="ZX69" s="65"/>
-      <c r="ZY69" s="65"/>
-      <c r="ZZ69" s="65"/>
-      <c r="AAA69" s="65"/>
-      <c r="AAB69" s="65"/>
-      <c r="AAC69" s="65"/>
-      <c r="AAD69" s="65"/>
-      <c r="AAE69" s="65"/>
-      <c r="AAF69" s="65"/>
-      <c r="AAG69" s="65"/>
-      <c r="AAH69" s="65"/>
-      <c r="AAI69" s="65"/>
-      <c r="AAJ69" s="65"/>
-      <c r="AAK69" s="65"/>
-      <c r="AAL69" s="65"/>
-      <c r="AAM69" s="65"/>
-      <c r="AAN69" s="65"/>
-      <c r="AAO69" s="65"/>
-      <c r="AAP69" s="65"/>
-      <c r="AAQ69" s="65"/>
-      <c r="AAR69" s="65"/>
-      <c r="AAS69" s="65"/>
-      <c r="AAT69" s="65"/>
-      <c r="AAU69" s="65"/>
-      <c r="AAV69" s="65"/>
-      <c r="AAW69" s="65"/>
-      <c r="AAX69" s="65"/>
-      <c r="AAY69" s="65"/>
-      <c r="AAZ69" s="65"/>
-      <c r="ABA69" s="65"/>
-      <c r="ABB69" s="65"/>
-      <c r="ABC69" s="65"/>
-      <c r="ABD69" s="65"/>
-      <c r="ABE69" s="65"/>
-      <c r="ABF69" s="65"/>
-      <c r="ABG69" s="65"/>
-      <c r="ABH69" s="65"/>
-      <c r="ABI69" s="65"/>
-      <c r="ABJ69" s="65"/>
-      <c r="ABK69" s="65"/>
-      <c r="ABL69" s="65"/>
-      <c r="ABM69" s="65"/>
-      <c r="ABN69" s="65"/>
-      <c r="ABO69" s="65"/>
-      <c r="ABP69" s="65"/>
-      <c r="ABQ69" s="65"/>
-      <c r="ABR69" s="65"/>
-      <c r="ABS69" s="65"/>
-      <c r="ABT69" s="65"/>
-      <c r="ABU69" s="65"/>
-      <c r="ABV69" s="65"/>
-      <c r="ABW69" s="65"/>
-      <c r="ABX69" s="65"/>
-      <c r="ABY69" s="65"/>
-      <c r="ABZ69" s="65"/>
-      <c r="ACA69" s="65"/>
-      <c r="ACB69" s="65"/>
-      <c r="ACC69" s="65"/>
-      <c r="ACD69" s="65"/>
-      <c r="ACE69" s="65"/>
-      <c r="ACF69" s="65"/>
-      <c r="ACG69" s="65"/>
-      <c r="ACH69" s="65"/>
-      <c r="ACI69" s="65"/>
-      <c r="ACJ69" s="65"/>
-      <c r="ACK69" s="65"/>
-      <c r="ACL69" s="65"/>
-      <c r="ACM69" s="65"/>
-      <c r="ACN69" s="65"/>
-      <c r="ACO69" s="65"/>
-      <c r="ACP69" s="65"/>
-      <c r="ACQ69" s="65"/>
-      <c r="ACR69" s="65"/>
-      <c r="ACS69" s="65"/>
-      <c r="ACT69" s="65"/>
-      <c r="ACU69" s="65"/>
-      <c r="ACV69" s="65"/>
-      <c r="ACW69" s="65"/>
-      <c r="ACX69" s="65"/>
-      <c r="ACY69" s="65"/>
-      <c r="ACZ69" s="65"/>
-      <c r="ADA69" s="65"/>
-      <c r="ADB69" s="65"/>
-      <c r="ADC69" s="65"/>
-      <c r="ADD69" s="65"/>
-      <c r="ADE69" s="65"/>
-      <c r="ADF69" s="65"/>
-      <c r="ADG69" s="65"/>
-      <c r="ADH69" s="65"/>
-      <c r="ADI69" s="65"/>
-      <c r="ADJ69" s="65"/>
-      <c r="ADK69" s="65"/>
-      <c r="ADL69" s="65"/>
-      <c r="ADM69" s="65"/>
-      <c r="ADN69" s="65"/>
-      <c r="ADO69" s="65"/>
-      <c r="ADP69" s="65"/>
-      <c r="ADQ69" s="65"/>
-      <c r="ADR69" s="65"/>
-      <c r="ADS69" s="65"/>
-      <c r="ADT69" s="65"/>
-      <c r="ADU69" s="65"/>
-      <c r="ADV69" s="65"/>
-      <c r="ADW69" s="65"/>
-      <c r="ADX69" s="65"/>
-      <c r="ADY69" s="65"/>
-      <c r="ADZ69" s="65"/>
-      <c r="AEA69" s="65"/>
-      <c r="AEB69" s="65"/>
-      <c r="AEC69" s="65"/>
-      <c r="AED69" s="65"/>
-      <c r="AEE69" s="65"/>
-      <c r="AEF69" s="65"/>
-      <c r="AEG69" s="65"/>
-      <c r="AEH69" s="65"/>
-      <c r="AEI69" s="65"/>
-      <c r="AEJ69" s="65"/>
-      <c r="AEK69" s="65"/>
-      <c r="AEL69" s="65"/>
-      <c r="AEM69" s="65"/>
-      <c r="AEN69" s="65"/>
-      <c r="AEO69" s="65"/>
-      <c r="AEP69" s="65"/>
-      <c r="AEQ69" s="65"/>
-      <c r="AER69" s="65"/>
-      <c r="AES69" s="65"/>
-      <c r="AET69" s="65"/>
-      <c r="AEU69" s="65"/>
-      <c r="AEV69" s="65"/>
-      <c r="AEW69" s="65"/>
-      <c r="AEX69" s="65"/>
-      <c r="AEY69" s="65"/>
-      <c r="AEZ69" s="65"/>
-      <c r="AFA69" s="65"/>
-      <c r="AFB69" s="65"/>
-      <c r="AFC69" s="65"/>
-      <c r="AFD69" s="65"/>
-      <c r="AFE69" s="65"/>
-      <c r="AFF69" s="65"/>
-      <c r="AFG69" s="65"/>
-      <c r="AFH69" s="65"/>
-      <c r="AFI69" s="65"/>
-      <c r="AFJ69" s="65"/>
-      <c r="AFK69" s="65"/>
-      <c r="AFL69" s="65"/>
-      <c r="AFM69" s="65"/>
-      <c r="AFN69" s="65"/>
-      <c r="AFO69" s="65"/>
-      <c r="AFP69" s="65"/>
-      <c r="AFQ69" s="65"/>
-      <c r="AFR69" s="65"/>
-      <c r="AFS69" s="65"/>
-      <c r="AFT69" s="65"/>
-      <c r="AFU69" s="65"/>
-      <c r="AFV69" s="65"/>
-      <c r="AFW69" s="65"/>
-      <c r="AFX69" s="65"/>
-      <c r="AFY69" s="65"/>
-      <c r="AFZ69" s="65"/>
-      <c r="AGA69" s="65"/>
-      <c r="AGB69" s="65"/>
-      <c r="AGC69" s="65"/>
-      <c r="AGD69" s="65"/>
-      <c r="AGE69" s="65"/>
-      <c r="AGF69" s="65"/>
-      <c r="AGG69" s="65"/>
-      <c r="AGH69" s="65"/>
-      <c r="AGI69" s="65"/>
-      <c r="AGJ69" s="65"/>
-      <c r="AGK69" s="65"/>
-      <c r="AGL69" s="65"/>
-      <c r="AGM69" s="65"/>
-      <c r="AGN69" s="65"/>
-      <c r="AGO69" s="65"/>
-      <c r="AGP69" s="65"/>
-      <c r="AGQ69" s="65"/>
-      <c r="AGR69" s="65"/>
-      <c r="AGS69" s="65"/>
-      <c r="AGT69" s="65"/>
-      <c r="AGU69" s="65"/>
-      <c r="AGV69" s="65"/>
-      <c r="AGW69" s="65"/>
-      <c r="AGX69" s="65"/>
-      <c r="AGY69" s="65"/>
-      <c r="AGZ69" s="65"/>
-      <c r="AHA69" s="65"/>
-      <c r="AHB69" s="65"/>
-      <c r="AHC69" s="65"/>
-      <c r="AHD69" s="65"/>
-      <c r="AHE69" s="65"/>
-      <c r="AHF69" s="65"/>
-      <c r="AHG69" s="65"/>
-      <c r="AHH69" s="65"/>
-      <c r="AHI69" s="65"/>
-      <c r="AHJ69" s="65"/>
-      <c r="AHK69" s="65"/>
-      <c r="AHL69" s="65"/>
-      <c r="AHM69" s="65"/>
-      <c r="AHN69" s="65"/>
-      <c r="AHO69" s="65"/>
-      <c r="AHP69" s="65"/>
-      <c r="AHQ69" s="65"/>
-      <c r="AHR69" s="65"/>
-      <c r="AHS69" s="65"/>
-      <c r="AHT69" s="65"/>
-      <c r="AHU69" s="65"/>
-      <c r="AHV69" s="65"/>
-      <c r="AHW69" s="65"/>
-      <c r="AHX69" s="65"/>
-      <c r="AHY69" s="65"/>
-      <c r="AHZ69" s="65"/>
-      <c r="AIA69" s="65"/>
-      <c r="AIB69" s="65"/>
-      <c r="AIC69" s="65"/>
-      <c r="AID69" s="65"/>
-      <c r="AIE69" s="65"/>
-      <c r="AIF69" s="65"/>
-      <c r="AIG69" s="65"/>
-      <c r="AIH69" s="65"/>
-      <c r="AII69" s="65"/>
-      <c r="AIJ69" s="65"/>
-      <c r="AIK69" s="65"/>
-      <c r="AIL69" s="65"/>
-      <c r="AIM69" s="65"/>
-      <c r="AIN69" s="65"/>
-      <c r="AIO69" s="65"/>
-      <c r="AIP69" s="65"/>
-      <c r="AIQ69" s="65"/>
-      <c r="AIR69" s="65"/>
-      <c r="AIS69" s="65"/>
-      <c r="AIT69" s="65"/>
-      <c r="AIU69" s="65"/>
-      <c r="AIV69" s="65"/>
-      <c r="AIW69" s="65"/>
-      <c r="AIX69" s="65"/>
-      <c r="AIY69" s="65"/>
-      <c r="AIZ69" s="65"/>
-      <c r="AJA69" s="65"/>
-      <c r="AJB69" s="65"/>
-      <c r="AJC69" s="65"/>
-      <c r="AJD69" s="65"/>
-      <c r="AJE69" s="65"/>
-      <c r="AJF69" s="65"/>
-      <c r="AJG69" s="65"/>
-      <c r="AJH69" s="65"/>
-      <c r="AJI69" s="65"/>
-      <c r="AJJ69" s="65"/>
-      <c r="AJK69" s="65"/>
-      <c r="AJL69" s="65"/>
-      <c r="AJM69" s="65"/>
-      <c r="AJN69" s="65"/>
-      <c r="AJO69" s="65"/>
-      <c r="AJP69" s="65"/>
-      <c r="AJQ69" s="65"/>
-      <c r="AJR69" s="65"/>
-      <c r="AJS69" s="65"/>
-      <c r="AJT69" s="65"/>
-      <c r="AJU69" s="65"/>
-      <c r="AJV69" s="65"/>
-      <c r="AJW69" s="65"/>
-      <c r="AJX69" s="65"/>
-      <c r="AJY69" s="65"/>
-      <c r="AJZ69" s="65"/>
-      <c r="AKA69" s="65"/>
-      <c r="AKB69" s="65"/>
-      <c r="AKC69" s="65"/>
-      <c r="AKD69" s="65"/>
-      <c r="AKE69" s="65"/>
-      <c r="AKF69" s="65"/>
-      <c r="AKG69" s="65"/>
-      <c r="AKH69" s="65"/>
-      <c r="AKI69" s="65"/>
-      <c r="AKJ69" s="65"/>
-      <c r="AKK69" s="65"/>
-      <c r="AKL69" s="65"/>
-      <c r="AKM69" s="65"/>
-      <c r="AKN69" s="65"/>
-      <c r="AKO69" s="65"/>
-      <c r="AKP69" s="65"/>
-      <c r="AKQ69" s="65"/>
-      <c r="AKR69" s="65"/>
-      <c r="AKS69" s="65"/>
-      <c r="AKT69" s="65"/>
-      <c r="AKU69" s="65"/>
-      <c r="AKV69" s="65"/>
-      <c r="AKW69" s="65"/>
-      <c r="AKX69" s="65"/>
-      <c r="AKY69" s="65"/>
-      <c r="AKZ69" s="65"/>
-      <c r="ALA69" s="65"/>
-      <c r="ALB69" s="65"/>
-      <c r="ALC69" s="65"/>
-      <c r="ALD69" s="65"/>
-      <c r="ALE69" s="65"/>
-      <c r="ALF69" s="65"/>
-      <c r="ALG69" s="65"/>
-      <c r="ALH69" s="65"/>
-      <c r="ALI69" s="65"/>
-      <c r="ALJ69" s="65"/>
-      <c r="ALK69" s="65"/>
-      <c r="ALL69" s="65"/>
-      <c r="ALM69" s="65"/>
-      <c r="ALN69" s="65"/>
-      <c r="ALO69" s="65"/>
-      <c r="ALP69" s="65"/>
-      <c r="ALQ69" s="65"/>
-      <c r="ALR69" s="65"/>
-      <c r="ALS69" s="65"/>
-      <c r="ALT69" s="65"/>
-      <c r="ALU69" s="65"/>
-      <c r="ALV69" s="65"/>
-      <c r="ALW69" s="65"/>
-      <c r="ALX69" s="65"/>
-      <c r="ALY69" s="65"/>
-      <c r="ALZ69" s="65"/>
-      <c r="AMA69" s="65"/>
-      <c r="AMB69" s="65"/>
-      <c r="AMC69" s="65"/>
-      <c r="AMD69" s="65"/>
-      <c r="AME69" s="65"/>
-      <c r="AMF69" s="65"/>
-      <c r="AMG69" s="65"/>
-      <c r="AMH69" s="65"/>
-      <c r="AMI69" s="65"/>
-      <c r="AMJ69" s="65"/>
-      <c r="AMK69" s="65"/>
-      <c r="AML69" s="65"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="71"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="63"/>
+      <c r="L69" s="63"/>
+      <c r="M69" s="63"/>
+      <c r="N69" s="63"/>
+      <c r="O69" s="63"/>
+      <c r="P69" s="63"/>
+      <c r="Q69" s="63"/>
+      <c r="R69" s="63"/>
+      <c r="S69" s="63"/>
+      <c r="T69" s="63"/>
+      <c r="U69" s="63"/>
+      <c r="V69" s="69"/>
+      <c r="W69" s="69"/>
+      <c r="X69" s="63"/>
+      <c r="Y69" s="63"/>
+      <c r="Z69" s="63"/>
+      <c r="AA69" s="63"/>
+      <c r="AB69" s="63"/>
+      <c r="AC69" s="63"/>
+      <c r="AD69" s="63"/>
+      <c r="AE69" s="63"/>
+      <c r="AF69" s="63"/>
+      <c r="AG69" s="63"/>
+      <c r="AH69" s="63"/>
+      <c r="AI69" s="63"/>
+      <c r="AJ69" s="63"/>
+      <c r="AK69" s="63"/>
+      <c r="AL69" s="63"/>
+      <c r="AM69" s="63"/>
+      <c r="AN69" s="63"/>
+      <c r="AO69" s="63"/>
+      <c r="AP69" s="63"/>
+      <c r="AQ69" s="63"/>
+      <c r="AR69" s="63"/>
+      <c r="AS69" s="63"/>
+      <c r="AT69" s="63"/>
+      <c r="AU69" s="63"/>
+      <c r="AV69" s="63"/>
+      <c r="AW69" s="63"/>
+      <c r="AX69" s="63"/>
+      <c r="AY69" s="63"/>
+      <c r="AZ69" s="63"/>
+      <c r="BA69" s="63"/>
+      <c r="BB69" s="63"/>
+      <c r="BC69" s="63"/>
+      <c r="BD69" s="63"/>
+      <c r="BE69" s="63"/>
+      <c r="BF69" s="63"/>
+      <c r="BG69" s="63"/>
+      <c r="BH69" s="63"/>
+      <c r="BI69" s="63"/>
+      <c r="BJ69" s="63"/>
+      <c r="BK69" s="63"/>
+      <c r="BL69" s="63"/>
+      <c r="BM69" s="63"/>
+      <c r="BN69" s="63"/>
+      <c r="BO69" s="63"/>
+      <c r="BP69" s="63"/>
+      <c r="BQ69" s="63"/>
+      <c r="BR69" s="63"/>
+      <c r="BS69" s="63"/>
+      <c r="BT69" s="63"/>
+      <c r="BU69" s="63"/>
+      <c r="BV69" s="63"/>
+      <c r="BW69" s="63"/>
+      <c r="BX69" s="63"/>
+      <c r="BY69" s="63"/>
+      <c r="BZ69" s="63"/>
+      <c r="CA69" s="63"/>
+      <c r="CB69" s="63"/>
+      <c r="CC69" s="63"/>
+      <c r="CD69" s="63"/>
+      <c r="CE69" s="63"/>
+      <c r="CF69" s="63"/>
+      <c r="CG69" s="63"/>
+      <c r="CH69" s="63"/>
+      <c r="CI69" s="63"/>
+      <c r="CJ69" s="63"/>
+      <c r="CK69" s="63"/>
+      <c r="CL69" s="63"/>
+      <c r="CM69" s="63"/>
+      <c r="CN69" s="63"/>
+      <c r="CO69" s="63"/>
+      <c r="CP69" s="63"/>
+      <c r="CQ69" s="63"/>
+      <c r="CR69" s="63"/>
+      <c r="CS69" s="63"/>
+      <c r="CT69" s="63"/>
+      <c r="CU69" s="63"/>
+      <c r="CV69" s="63"/>
+      <c r="CW69" s="63"/>
+      <c r="CX69" s="63"/>
+      <c r="CY69" s="63"/>
+      <c r="CZ69" s="63"/>
+      <c r="DA69" s="63"/>
+      <c r="DB69" s="63"/>
+      <c r="DC69" s="63"/>
+      <c r="DD69" s="63"/>
+      <c r="DE69" s="63"/>
+      <c r="DF69" s="63"/>
+      <c r="DG69" s="63"/>
+      <c r="DH69" s="63"/>
+      <c r="DI69" s="63"/>
+      <c r="DJ69" s="63"/>
+      <c r="DK69" s="63"/>
+      <c r="DL69" s="63"/>
+      <c r="DM69" s="63"/>
+      <c r="DN69" s="63"/>
+      <c r="DO69" s="63"/>
+      <c r="DP69" s="63"/>
+      <c r="DQ69" s="63"/>
+      <c r="DR69" s="63"/>
+      <c r="DS69" s="63"/>
+      <c r="DT69" s="63"/>
+      <c r="DU69" s="63"/>
+      <c r="DV69" s="63"/>
+      <c r="DW69" s="63"/>
+      <c r="DX69" s="63"/>
+      <c r="DY69" s="63"/>
+      <c r="DZ69" s="63"/>
+      <c r="EA69" s="63"/>
+      <c r="EB69" s="63"/>
+      <c r="EC69" s="63"/>
+      <c r="ED69" s="63"/>
+      <c r="EE69" s="63"/>
+      <c r="EF69" s="63"/>
+      <c r="EG69" s="63"/>
+      <c r="EH69" s="63"/>
+      <c r="EI69" s="63"/>
+      <c r="EJ69" s="63"/>
+      <c r="EK69" s="63"/>
+      <c r="EL69" s="63"/>
+      <c r="EM69" s="63"/>
+      <c r="EN69" s="63"/>
+      <c r="EO69" s="63"/>
+      <c r="EP69" s="63"/>
+      <c r="EQ69" s="63"/>
+      <c r="ER69" s="63"/>
+      <c r="ES69" s="63"/>
+      <c r="ET69" s="63"/>
+      <c r="EU69" s="63"/>
+      <c r="EV69" s="63"/>
+      <c r="EW69" s="63"/>
+      <c r="EX69" s="63"/>
+      <c r="EY69" s="63"/>
+      <c r="EZ69" s="63"/>
+      <c r="FA69" s="63"/>
+      <c r="FB69" s="63"/>
+      <c r="FC69" s="63"/>
+      <c r="FD69" s="63"/>
+      <c r="FE69" s="63"/>
+      <c r="FF69" s="63"/>
+      <c r="FG69" s="63"/>
+      <c r="FH69" s="63"/>
+      <c r="FI69" s="63"/>
+      <c r="FJ69" s="63"/>
+      <c r="FK69" s="63"/>
+      <c r="FL69" s="63"/>
+      <c r="FM69" s="63"/>
+      <c r="FN69" s="63"/>
+      <c r="FO69" s="63"/>
+      <c r="FP69" s="63"/>
+      <c r="FQ69" s="63"/>
+      <c r="FR69" s="63"/>
+      <c r="FS69" s="63"/>
+      <c r="FT69" s="63"/>
+      <c r="FU69" s="63"/>
+      <c r="FV69" s="63"/>
+      <c r="FW69" s="63"/>
+      <c r="FX69" s="63"/>
+      <c r="FY69" s="63"/>
+      <c r="FZ69" s="63"/>
+      <c r="GA69" s="63"/>
+      <c r="GB69" s="63"/>
+      <c r="GC69" s="63"/>
+      <c r="GD69" s="63"/>
+      <c r="GE69" s="63"/>
+      <c r="GF69" s="63"/>
+      <c r="GG69" s="63"/>
+      <c r="GH69" s="63"/>
+      <c r="GI69" s="63"/>
+      <c r="GJ69" s="63"/>
+      <c r="GK69" s="63"/>
+      <c r="GL69" s="63"/>
+      <c r="GM69" s="63"/>
+      <c r="GN69" s="63"/>
+      <c r="GO69" s="63"/>
+      <c r="GP69" s="63"/>
+      <c r="GQ69" s="63"/>
+      <c r="GR69" s="63"/>
+      <c r="GS69" s="63"/>
+      <c r="GT69" s="63"/>
+      <c r="GU69" s="63"/>
+      <c r="GV69" s="63"/>
+      <c r="GW69" s="63"/>
+      <c r="GX69" s="63"/>
+      <c r="GY69" s="63"/>
+      <c r="GZ69" s="63"/>
+      <c r="HA69" s="63"/>
+      <c r="HB69" s="63"/>
+      <c r="HC69" s="63"/>
+      <c r="HD69" s="63"/>
+      <c r="HE69" s="63"/>
+      <c r="HF69" s="63"/>
+      <c r="HG69" s="63"/>
+      <c r="HH69" s="63"/>
+      <c r="HI69" s="63"/>
+      <c r="HJ69" s="63"/>
+      <c r="HK69" s="63"/>
+      <c r="HL69" s="63"/>
+      <c r="HM69" s="63"/>
+      <c r="HN69" s="63"/>
+      <c r="HO69" s="63"/>
+      <c r="HP69" s="63"/>
+      <c r="HQ69" s="63"/>
+      <c r="HR69" s="63"/>
+      <c r="HS69" s="63"/>
+      <c r="HT69" s="63"/>
+      <c r="HU69" s="63"/>
+      <c r="HV69" s="63"/>
+      <c r="HW69" s="63"/>
+      <c r="HX69" s="63"/>
+      <c r="HY69" s="63"/>
+      <c r="HZ69" s="63"/>
+      <c r="IA69" s="63"/>
+      <c r="IB69" s="63"/>
+      <c r="IC69" s="63"/>
+      <c r="ID69" s="63"/>
+      <c r="IE69" s="63"/>
+      <c r="IF69" s="63"/>
+      <c r="IG69" s="63"/>
+      <c r="IH69" s="63"/>
+      <c r="II69" s="63"/>
+      <c r="IJ69" s="63"/>
+      <c r="IK69" s="63"/>
+      <c r="IL69" s="63"/>
+      <c r="IM69" s="63"/>
+      <c r="IN69" s="63"/>
+      <c r="IO69" s="63"/>
+      <c r="IP69" s="63"/>
+      <c r="IQ69" s="63"/>
+      <c r="IR69" s="63"/>
+      <c r="IS69" s="63"/>
+      <c r="IT69" s="63"/>
+      <c r="IU69" s="63"/>
+      <c r="IV69" s="63"/>
+      <c r="IW69" s="63"/>
+      <c r="IX69" s="63"/>
+      <c r="IY69" s="63"/>
+      <c r="IZ69" s="63"/>
+      <c r="JA69" s="63"/>
+      <c r="JB69" s="63"/>
+      <c r="JC69" s="63"/>
+      <c r="JD69" s="63"/>
+      <c r="JE69" s="63"/>
+      <c r="JF69" s="63"/>
+      <c r="JG69" s="63"/>
+      <c r="JH69" s="63"/>
+      <c r="JI69" s="63"/>
+      <c r="JJ69" s="63"/>
+      <c r="JK69" s="63"/>
+      <c r="JL69" s="63"/>
+      <c r="JM69" s="63"/>
+      <c r="JN69" s="63"/>
+      <c r="JO69" s="63"/>
+      <c r="JP69" s="63"/>
+      <c r="JQ69" s="63"/>
+      <c r="JR69" s="63"/>
+      <c r="JS69" s="63"/>
+      <c r="JT69" s="63"/>
+      <c r="JU69" s="63"/>
+      <c r="JV69" s="63"/>
+      <c r="JW69" s="63"/>
+      <c r="JX69" s="63"/>
+      <c r="JY69" s="63"/>
+      <c r="JZ69" s="63"/>
+      <c r="KA69" s="63"/>
+      <c r="KB69" s="63"/>
+      <c r="KC69" s="63"/>
+      <c r="KD69" s="63"/>
+      <c r="KE69" s="63"/>
+      <c r="KF69" s="63"/>
+      <c r="KG69" s="63"/>
+      <c r="KH69" s="63"/>
+      <c r="KI69" s="63"/>
+      <c r="KJ69" s="63"/>
+      <c r="KK69" s="63"/>
+      <c r="KL69" s="63"/>
+      <c r="KM69" s="63"/>
+      <c r="KN69" s="63"/>
+      <c r="KO69" s="63"/>
+      <c r="KP69" s="63"/>
+      <c r="KQ69" s="63"/>
+      <c r="KR69" s="63"/>
+      <c r="KS69" s="63"/>
+      <c r="KT69" s="63"/>
+      <c r="KU69" s="63"/>
+      <c r="KV69" s="63"/>
+      <c r="KW69" s="63"/>
+      <c r="KX69" s="63"/>
+      <c r="KY69" s="63"/>
+      <c r="KZ69" s="63"/>
+      <c r="LA69" s="63"/>
+      <c r="LB69" s="63"/>
+      <c r="LC69" s="63"/>
+      <c r="LD69" s="63"/>
+      <c r="LE69" s="63"/>
+      <c r="LF69" s="63"/>
+      <c r="LG69" s="63"/>
+      <c r="LH69" s="63"/>
+      <c r="LI69" s="63"/>
+      <c r="LJ69" s="63"/>
+      <c r="LK69" s="63"/>
+      <c r="LL69" s="63"/>
+      <c r="LM69" s="63"/>
+      <c r="LN69" s="63"/>
+      <c r="LO69" s="63"/>
+      <c r="LP69" s="63"/>
+      <c r="LQ69" s="63"/>
+      <c r="LR69" s="63"/>
+      <c r="LS69" s="63"/>
+      <c r="LT69" s="63"/>
+      <c r="LU69" s="63"/>
+      <c r="LV69" s="63"/>
+      <c r="LW69" s="63"/>
+      <c r="LX69" s="63"/>
+      <c r="LY69" s="63"/>
+      <c r="LZ69" s="63"/>
+      <c r="MA69" s="63"/>
+      <c r="MB69" s="63"/>
+      <c r="MC69" s="63"/>
+      <c r="MD69" s="63"/>
+      <c r="ME69" s="63"/>
+      <c r="MF69" s="63"/>
+      <c r="MG69" s="63"/>
+      <c r="MH69" s="63"/>
+      <c r="MI69" s="63"/>
+      <c r="MJ69" s="63"/>
+      <c r="MK69" s="63"/>
+      <c r="ML69" s="63"/>
+      <c r="MM69" s="63"/>
+      <c r="MN69" s="63"/>
+      <c r="MO69" s="63"/>
+      <c r="MP69" s="63"/>
+      <c r="MQ69" s="63"/>
+      <c r="MR69" s="63"/>
+      <c r="MS69" s="63"/>
+      <c r="MT69" s="63"/>
+      <c r="MU69" s="63"/>
+      <c r="MV69" s="63"/>
+      <c r="MW69" s="63"/>
+      <c r="MX69" s="63"/>
+      <c r="MY69" s="63"/>
+      <c r="MZ69" s="63"/>
+      <c r="NA69" s="63"/>
+      <c r="NB69" s="63"/>
+      <c r="NC69" s="63"/>
+      <c r="ND69" s="63"/>
+      <c r="NE69" s="63"/>
+      <c r="NF69" s="63"/>
+      <c r="NG69" s="63"/>
+      <c r="NH69" s="63"/>
+      <c r="NI69" s="63"/>
+      <c r="NJ69" s="63"/>
+      <c r="NK69" s="63"/>
+      <c r="NL69" s="63"/>
+      <c r="NM69" s="63"/>
+      <c r="NN69" s="63"/>
+      <c r="NO69" s="63"/>
+      <c r="NP69" s="63"/>
+      <c r="NQ69" s="63"/>
+      <c r="NR69" s="63"/>
+      <c r="NS69" s="63"/>
+      <c r="NT69" s="63"/>
+      <c r="NU69" s="63"/>
+      <c r="NV69" s="63"/>
+      <c r="NW69" s="63"/>
+      <c r="NX69" s="63"/>
+      <c r="NY69" s="63"/>
+      <c r="NZ69" s="63"/>
+      <c r="OA69" s="63"/>
+      <c r="OB69" s="63"/>
+      <c r="OC69" s="63"/>
+      <c r="OD69" s="63"/>
+      <c r="OE69" s="63"/>
+      <c r="OF69" s="63"/>
+      <c r="OG69" s="63"/>
+      <c r="OH69" s="63"/>
+      <c r="OI69" s="63"/>
+      <c r="OJ69" s="63"/>
+      <c r="OK69" s="63"/>
+      <c r="OL69" s="63"/>
+      <c r="OM69" s="63"/>
+      <c r="ON69" s="63"/>
+      <c r="OO69" s="63"/>
+      <c r="OP69" s="63"/>
+      <c r="OQ69" s="63"/>
+      <c r="OR69" s="63"/>
+      <c r="OS69" s="63"/>
+      <c r="OT69" s="63"/>
+      <c r="OU69" s="63"/>
+      <c r="OV69" s="63"/>
+      <c r="OW69" s="63"/>
+      <c r="OX69" s="63"/>
+      <c r="OY69" s="63"/>
+      <c r="OZ69" s="63"/>
+      <c r="PA69" s="63"/>
+      <c r="PB69" s="63"/>
+      <c r="PC69" s="63"/>
+      <c r="PD69" s="63"/>
+      <c r="PE69" s="63"/>
+      <c r="PF69" s="63"/>
+      <c r="PG69" s="63"/>
+      <c r="PH69" s="63"/>
+      <c r="PI69" s="63"/>
+      <c r="PJ69" s="63"/>
+      <c r="PK69" s="63"/>
+      <c r="PL69" s="63"/>
+      <c r="PM69" s="63"/>
+      <c r="PN69" s="63"/>
+      <c r="PO69" s="63"/>
+      <c r="PP69" s="63"/>
+      <c r="PQ69" s="63"/>
+      <c r="PR69" s="63"/>
+      <c r="PS69" s="63"/>
+      <c r="PT69" s="63"/>
+      <c r="PU69" s="63"/>
+      <c r="PV69" s="63"/>
+      <c r="PW69" s="63"/>
+      <c r="PX69" s="63"/>
+      <c r="PY69" s="63"/>
+      <c r="PZ69" s="63"/>
+      <c r="QA69" s="63"/>
+      <c r="QB69" s="63"/>
+      <c r="QC69" s="63"/>
+      <c r="QD69" s="63"/>
+      <c r="QE69" s="63"/>
+      <c r="QF69" s="63"/>
+      <c r="QG69" s="63"/>
+      <c r="QH69" s="63"/>
+      <c r="QI69" s="63"/>
+      <c r="QJ69" s="63"/>
+      <c r="QK69" s="63"/>
+      <c r="QL69" s="63"/>
+      <c r="QM69" s="63"/>
+      <c r="QN69" s="63"/>
+      <c r="QO69" s="63"/>
+      <c r="QP69" s="63"/>
+      <c r="QQ69" s="63"/>
+      <c r="QR69" s="63"/>
+      <c r="QS69" s="63"/>
+      <c r="QT69" s="63"/>
+      <c r="QU69" s="63"/>
+      <c r="QV69" s="63"/>
+      <c r="QW69" s="63"/>
+      <c r="QX69" s="63"/>
+      <c r="QY69" s="63"/>
+      <c r="QZ69" s="63"/>
+      <c r="RA69" s="63"/>
+      <c r="RB69" s="63"/>
+      <c r="RC69" s="63"/>
+      <c r="RD69" s="63"/>
+      <c r="RE69" s="63"/>
+      <c r="RF69" s="63"/>
+      <c r="RG69" s="63"/>
+      <c r="RH69" s="63"/>
+      <c r="RI69" s="63"/>
+      <c r="RJ69" s="63"/>
+      <c r="RK69" s="63"/>
+      <c r="RL69" s="63"/>
+      <c r="RM69" s="63"/>
+      <c r="RN69" s="63"/>
+      <c r="RO69" s="63"/>
+      <c r="RP69" s="63"/>
+      <c r="RQ69" s="63"/>
+      <c r="RR69" s="63"/>
+      <c r="RS69" s="63"/>
+      <c r="RT69" s="63"/>
+      <c r="RU69" s="63"/>
+      <c r="RV69" s="63"/>
+      <c r="RW69" s="63"/>
+      <c r="RX69" s="63"/>
+      <c r="RY69" s="63"/>
+      <c r="RZ69" s="63"/>
+      <c r="SA69" s="63"/>
+      <c r="SB69" s="63"/>
+      <c r="SC69" s="63"/>
+      <c r="SD69" s="63"/>
+      <c r="SE69" s="63"/>
+      <c r="SF69" s="63"/>
+      <c r="SG69" s="63"/>
+      <c r="SH69" s="63"/>
+      <c r="SI69" s="63"/>
+      <c r="SJ69" s="63"/>
+      <c r="SK69" s="63"/>
+      <c r="SL69" s="63"/>
+      <c r="SM69" s="63"/>
+      <c r="SN69" s="63"/>
+      <c r="SO69" s="63"/>
+      <c r="SP69" s="63"/>
+      <c r="SQ69" s="63"/>
+      <c r="SR69" s="63"/>
+      <c r="SS69" s="63"/>
+      <c r="ST69" s="63"/>
+      <c r="SU69" s="63"/>
+      <c r="SV69" s="63"/>
+      <c r="SW69" s="63"/>
+      <c r="SX69" s="63"/>
+      <c r="SY69" s="63"/>
+      <c r="SZ69" s="63"/>
+      <c r="TA69" s="63"/>
+      <c r="TB69" s="63"/>
+      <c r="TC69" s="63"/>
+      <c r="TD69" s="63"/>
+      <c r="TE69" s="63"/>
+      <c r="TF69" s="63"/>
+      <c r="TG69" s="63"/>
+      <c r="TH69" s="63"/>
+      <c r="TI69" s="63"/>
+      <c r="TJ69" s="63"/>
+      <c r="TK69" s="63"/>
+      <c r="TL69" s="63"/>
+      <c r="TM69" s="63"/>
+      <c r="TN69" s="63"/>
+      <c r="TO69" s="63"/>
+      <c r="TP69" s="63"/>
+      <c r="TQ69" s="63"/>
+      <c r="TR69" s="63"/>
+      <c r="TS69" s="63"/>
+      <c r="TT69" s="63"/>
+      <c r="TU69" s="63"/>
+      <c r="TV69" s="63"/>
+      <c r="TW69" s="63"/>
+      <c r="TX69" s="63"/>
+      <c r="TY69" s="63"/>
+      <c r="TZ69" s="63"/>
+      <c r="UA69" s="63"/>
+      <c r="UB69" s="63"/>
+      <c r="UC69" s="63"/>
+      <c r="UD69" s="63"/>
+      <c r="UE69" s="63"/>
+      <c r="UF69" s="63"/>
+      <c r="UG69" s="63"/>
+      <c r="UH69" s="63"/>
+      <c r="UI69" s="63"/>
+      <c r="UJ69" s="63"/>
+      <c r="UK69" s="63"/>
+      <c r="UL69" s="63"/>
+      <c r="UM69" s="63"/>
+      <c r="UN69" s="63"/>
+      <c r="UO69" s="63"/>
+      <c r="UP69" s="63"/>
+      <c r="UQ69" s="63"/>
+      <c r="UR69" s="63"/>
+      <c r="US69" s="63"/>
+      <c r="UT69" s="63"/>
+      <c r="UU69" s="63"/>
+      <c r="UV69" s="63"/>
+      <c r="UW69" s="63"/>
+      <c r="UX69" s="63"/>
+      <c r="UY69" s="63"/>
+      <c r="UZ69" s="63"/>
+      <c r="VA69" s="63"/>
+      <c r="VB69" s="63"/>
+      <c r="VC69" s="63"/>
+      <c r="VD69" s="63"/>
+      <c r="VE69" s="63"/>
+      <c r="VF69" s="63"/>
+      <c r="VG69" s="63"/>
+      <c r="VH69" s="63"/>
+      <c r="VI69" s="63"/>
+      <c r="VJ69" s="63"/>
+      <c r="VK69" s="63"/>
+      <c r="VL69" s="63"/>
+      <c r="VM69" s="63"/>
+      <c r="VN69" s="63"/>
+      <c r="VO69" s="63"/>
+      <c r="VP69" s="63"/>
+      <c r="VQ69" s="63"/>
+      <c r="VR69" s="63"/>
+      <c r="VS69" s="63"/>
+      <c r="VT69" s="63"/>
+      <c r="VU69" s="63"/>
+      <c r="VV69" s="63"/>
+      <c r="VW69" s="63"/>
+      <c r="VX69" s="63"/>
+      <c r="VY69" s="63"/>
+      <c r="VZ69" s="63"/>
+      <c r="WA69" s="63"/>
+      <c r="WB69" s="63"/>
+      <c r="WC69" s="63"/>
+      <c r="WD69" s="63"/>
+      <c r="WE69" s="63"/>
+      <c r="WF69" s="63"/>
+      <c r="WG69" s="63"/>
+      <c r="WH69" s="63"/>
+      <c r="WI69" s="63"/>
+      <c r="WJ69" s="63"/>
+      <c r="WK69" s="63"/>
+      <c r="WL69" s="63"/>
+      <c r="WM69" s="63"/>
+      <c r="WN69" s="63"/>
+      <c r="WO69" s="63"/>
+      <c r="WP69" s="63"/>
+      <c r="WQ69" s="63"/>
+      <c r="WR69" s="63"/>
+      <c r="WS69" s="63"/>
+      <c r="WT69" s="63"/>
+      <c r="WU69" s="63"/>
+      <c r="WV69" s="63"/>
+      <c r="WW69" s="63"/>
+      <c r="WX69" s="63"/>
+      <c r="WY69" s="63"/>
+      <c r="WZ69" s="63"/>
+      <c r="XA69" s="63"/>
+      <c r="XB69" s="63"/>
+      <c r="XC69" s="63"/>
+      <c r="XD69" s="63"/>
+      <c r="XE69" s="63"/>
+      <c r="XF69" s="63"/>
+      <c r="XG69" s="63"/>
+      <c r="XH69" s="63"/>
+      <c r="XI69" s="63"/>
+      <c r="XJ69" s="63"/>
+      <c r="XK69" s="63"/>
+      <c r="XL69" s="63"/>
+      <c r="XM69" s="63"/>
+      <c r="XN69" s="63"/>
+      <c r="XO69" s="63"/>
+      <c r="XP69" s="63"/>
+      <c r="XQ69" s="63"/>
+      <c r="XR69" s="63"/>
+      <c r="XS69" s="63"/>
+      <c r="XT69" s="63"/>
+      <c r="XU69" s="63"/>
+      <c r="XV69" s="63"/>
+      <c r="XW69" s="63"/>
+      <c r="XX69" s="63"/>
+      <c r="XY69" s="63"/>
+      <c r="XZ69" s="63"/>
+      <c r="YA69" s="63"/>
+      <c r="YB69" s="63"/>
+      <c r="YC69" s="63"/>
+      <c r="YD69" s="63"/>
+      <c r="YE69" s="63"/>
+      <c r="YF69" s="63"/>
+      <c r="YG69" s="63"/>
+      <c r="YH69" s="63"/>
+      <c r="YI69" s="63"/>
+      <c r="YJ69" s="63"/>
+      <c r="YK69" s="63"/>
+      <c r="YL69" s="63"/>
+      <c r="YM69" s="63"/>
+      <c r="YN69" s="63"/>
+      <c r="YO69" s="63"/>
+      <c r="YP69" s="63"/>
+      <c r="YQ69" s="63"/>
+      <c r="YR69" s="63"/>
+      <c r="YS69" s="63"/>
+      <c r="YT69" s="63"/>
+      <c r="YU69" s="63"/>
+      <c r="YV69" s="63"/>
+      <c r="YW69" s="63"/>
+      <c r="YX69" s="63"/>
+      <c r="YY69" s="63"/>
+      <c r="YZ69" s="63"/>
+      <c r="ZA69" s="63"/>
+      <c r="ZB69" s="63"/>
+      <c r="ZC69" s="63"/>
+      <c r="ZD69" s="63"/>
+      <c r="ZE69" s="63"/>
+      <c r="ZF69" s="63"/>
+      <c r="ZG69" s="63"/>
+      <c r="ZH69" s="63"/>
+      <c r="ZI69" s="63"/>
+      <c r="ZJ69" s="63"/>
+      <c r="ZK69" s="63"/>
+      <c r="ZL69" s="63"/>
+      <c r="ZM69" s="63"/>
+      <c r="ZN69" s="63"/>
+      <c r="ZO69" s="63"/>
+      <c r="ZP69" s="63"/>
+      <c r="ZQ69" s="63"/>
+      <c r="ZR69" s="63"/>
+      <c r="ZS69" s="63"/>
+      <c r="ZT69" s="63"/>
+      <c r="ZU69" s="63"/>
+      <c r="ZV69" s="63"/>
+      <c r="ZW69" s="63"/>
+      <c r="ZX69" s="63"/>
+      <c r="ZY69" s="63"/>
+      <c r="ZZ69" s="63"/>
+      <c r="AAA69" s="63"/>
+      <c r="AAB69" s="63"/>
+      <c r="AAC69" s="63"/>
+      <c r="AAD69" s="63"/>
+      <c r="AAE69" s="63"/>
+      <c r="AAF69" s="63"/>
+      <c r="AAG69" s="63"/>
+      <c r="AAH69" s="63"/>
+      <c r="AAI69" s="63"/>
+      <c r="AAJ69" s="63"/>
+      <c r="AAK69" s="63"/>
+      <c r="AAL69" s="63"/>
+      <c r="AAM69" s="63"/>
+      <c r="AAN69" s="63"/>
+      <c r="AAO69" s="63"/>
+      <c r="AAP69" s="63"/>
+      <c r="AAQ69" s="63"/>
+      <c r="AAR69" s="63"/>
+      <c r="AAS69" s="63"/>
+      <c r="AAT69" s="63"/>
+      <c r="AAU69" s="63"/>
+      <c r="AAV69" s="63"/>
+      <c r="AAW69" s="63"/>
+      <c r="AAX69" s="63"/>
+      <c r="AAY69" s="63"/>
+      <c r="AAZ69" s="63"/>
+      <c r="ABA69" s="63"/>
+      <c r="ABB69" s="63"/>
+      <c r="ABC69" s="63"/>
+      <c r="ABD69" s="63"/>
+      <c r="ABE69" s="63"/>
+      <c r="ABF69" s="63"/>
+      <c r="ABG69" s="63"/>
+      <c r="ABH69" s="63"/>
+      <c r="ABI69" s="63"/>
+      <c r="ABJ69" s="63"/>
+      <c r="ABK69" s="63"/>
+      <c r="ABL69" s="63"/>
+      <c r="ABM69" s="63"/>
+      <c r="ABN69" s="63"/>
+      <c r="ABO69" s="63"/>
+      <c r="ABP69" s="63"/>
+      <c r="ABQ69" s="63"/>
+      <c r="ABR69" s="63"/>
+      <c r="ABS69" s="63"/>
+      <c r="ABT69" s="63"/>
+      <c r="ABU69" s="63"/>
+      <c r="ABV69" s="63"/>
+      <c r="ABW69" s="63"/>
+      <c r="ABX69" s="63"/>
+      <c r="ABY69" s="63"/>
+      <c r="ABZ69" s="63"/>
+      <c r="ACA69" s="63"/>
+      <c r="ACB69" s="63"/>
+      <c r="ACC69" s="63"/>
+      <c r="ACD69" s="63"/>
+      <c r="ACE69" s="63"/>
+      <c r="ACF69" s="63"/>
+      <c r="ACG69" s="63"/>
+      <c r="ACH69" s="63"/>
+      <c r="ACI69" s="63"/>
+      <c r="ACJ69" s="63"/>
+      <c r="ACK69" s="63"/>
+      <c r="ACL69" s="63"/>
+      <c r="ACM69" s="63"/>
+      <c r="ACN69" s="63"/>
+      <c r="ACO69" s="63"/>
+      <c r="ACP69" s="63"/>
+      <c r="ACQ69" s="63"/>
+      <c r="ACR69" s="63"/>
+      <c r="ACS69" s="63"/>
+      <c r="ACT69" s="63"/>
+      <c r="ACU69" s="63"/>
+      <c r="ACV69" s="63"/>
+      <c r="ACW69" s="63"/>
+      <c r="ACX69" s="63"/>
+      <c r="ACY69" s="63"/>
+      <c r="ACZ69" s="63"/>
+      <c r="ADA69" s="63"/>
+      <c r="ADB69" s="63"/>
+      <c r="ADC69" s="63"/>
+      <c r="ADD69" s="63"/>
+      <c r="ADE69" s="63"/>
+      <c r="ADF69" s="63"/>
+      <c r="ADG69" s="63"/>
+      <c r="ADH69" s="63"/>
+      <c r="ADI69" s="63"/>
+      <c r="ADJ69" s="63"/>
+      <c r="ADK69" s="63"/>
+      <c r="ADL69" s="63"/>
+      <c r="ADM69" s="63"/>
+      <c r="ADN69" s="63"/>
+      <c r="ADO69" s="63"/>
+      <c r="ADP69" s="63"/>
+      <c r="ADQ69" s="63"/>
+      <c r="ADR69" s="63"/>
+      <c r="ADS69" s="63"/>
+      <c r="ADT69" s="63"/>
+      <c r="ADU69" s="63"/>
+      <c r="ADV69" s="63"/>
+      <c r="ADW69" s="63"/>
+      <c r="ADX69" s="63"/>
+      <c r="ADY69" s="63"/>
+      <c r="ADZ69" s="63"/>
+      <c r="AEA69" s="63"/>
+      <c r="AEB69" s="63"/>
+      <c r="AEC69" s="63"/>
+      <c r="AED69" s="63"/>
+      <c r="AEE69" s="63"/>
+      <c r="AEF69" s="63"/>
+      <c r="AEG69" s="63"/>
+      <c r="AEH69" s="63"/>
+      <c r="AEI69" s="63"/>
+      <c r="AEJ69" s="63"/>
+      <c r="AEK69" s="63"/>
+      <c r="AEL69" s="63"/>
+      <c r="AEM69" s="63"/>
+      <c r="AEN69" s="63"/>
+      <c r="AEO69" s="63"/>
+      <c r="AEP69" s="63"/>
+      <c r="AEQ69" s="63"/>
+      <c r="AER69" s="63"/>
+      <c r="AES69" s="63"/>
+      <c r="AET69" s="63"/>
+      <c r="AEU69" s="63"/>
+      <c r="AEV69" s="63"/>
+      <c r="AEW69" s="63"/>
+      <c r="AEX69" s="63"/>
+      <c r="AEY69" s="63"/>
+      <c r="AEZ69" s="63"/>
+      <c r="AFA69" s="63"/>
+      <c r="AFB69" s="63"/>
+      <c r="AFC69" s="63"/>
+      <c r="AFD69" s="63"/>
+      <c r="AFE69" s="63"/>
+      <c r="AFF69" s="63"/>
+      <c r="AFG69" s="63"/>
+      <c r="AFH69" s="63"/>
+      <c r="AFI69" s="63"/>
+      <c r="AFJ69" s="63"/>
+      <c r="AFK69" s="63"/>
+      <c r="AFL69" s="63"/>
+      <c r="AFM69" s="63"/>
+      <c r="AFN69" s="63"/>
+      <c r="AFO69" s="63"/>
+      <c r="AFP69" s="63"/>
+      <c r="AFQ69" s="63"/>
+      <c r="AFR69" s="63"/>
+      <c r="AFS69" s="63"/>
+      <c r="AFT69" s="63"/>
+      <c r="AFU69" s="63"/>
+      <c r="AFV69" s="63"/>
+      <c r="AFW69" s="63"/>
+      <c r="AFX69" s="63"/>
+      <c r="AFY69" s="63"/>
+      <c r="AFZ69" s="63"/>
+      <c r="AGA69" s="63"/>
+      <c r="AGB69" s="63"/>
+      <c r="AGC69" s="63"/>
+      <c r="AGD69" s="63"/>
+      <c r="AGE69" s="63"/>
+      <c r="AGF69" s="63"/>
+      <c r="AGG69" s="63"/>
+      <c r="AGH69" s="63"/>
+      <c r="AGI69" s="63"/>
+      <c r="AGJ69" s="63"/>
+      <c r="AGK69" s="63"/>
+      <c r="AGL69" s="63"/>
+      <c r="AGM69" s="63"/>
+      <c r="AGN69" s="63"/>
+      <c r="AGO69" s="63"/>
+      <c r="AGP69" s="63"/>
+      <c r="AGQ69" s="63"/>
+      <c r="AGR69" s="63"/>
+      <c r="AGS69" s="63"/>
+      <c r="AGT69" s="63"/>
+      <c r="AGU69" s="63"/>
+      <c r="AGV69" s="63"/>
+      <c r="AGW69" s="63"/>
+      <c r="AGX69" s="63"/>
+      <c r="AGY69" s="63"/>
+      <c r="AGZ69" s="63"/>
+      <c r="AHA69" s="63"/>
+      <c r="AHB69" s="63"/>
+      <c r="AHC69" s="63"/>
+      <c r="AHD69" s="63"/>
+      <c r="AHE69" s="63"/>
+      <c r="AHF69" s="63"/>
+      <c r="AHG69" s="63"/>
+      <c r="AHH69" s="63"/>
+      <c r="AHI69" s="63"/>
+      <c r="AHJ69" s="63"/>
+      <c r="AHK69" s="63"/>
+      <c r="AHL69" s="63"/>
+      <c r="AHM69" s="63"/>
+      <c r="AHN69" s="63"/>
+      <c r="AHO69" s="63"/>
+      <c r="AHP69" s="63"/>
+      <c r="AHQ69" s="63"/>
+      <c r="AHR69" s="63"/>
+      <c r="AHS69" s="63"/>
+      <c r="AHT69" s="63"/>
+      <c r="AHU69" s="63"/>
+      <c r="AHV69" s="63"/>
+      <c r="AHW69" s="63"/>
+      <c r="AHX69" s="63"/>
+      <c r="AHY69" s="63"/>
+      <c r="AHZ69" s="63"/>
+      <c r="AIA69" s="63"/>
+      <c r="AIB69" s="63"/>
+      <c r="AIC69" s="63"/>
+      <c r="AID69" s="63"/>
+      <c r="AIE69" s="63"/>
+      <c r="AIF69" s="63"/>
+      <c r="AIG69" s="63"/>
+      <c r="AIH69" s="63"/>
+      <c r="AII69" s="63"/>
+      <c r="AIJ69" s="63"/>
+      <c r="AIK69" s="63"/>
+      <c r="AIL69" s="63"/>
+      <c r="AIM69" s="63"/>
+      <c r="AIN69" s="63"/>
+      <c r="AIO69" s="63"/>
+      <c r="AIP69" s="63"/>
+      <c r="AIQ69" s="63"/>
+      <c r="AIR69" s="63"/>
+      <c r="AIS69" s="63"/>
+      <c r="AIT69" s="63"/>
+      <c r="AIU69" s="63"/>
+      <c r="AIV69" s="63"/>
+      <c r="AIW69" s="63"/>
+      <c r="AIX69" s="63"/>
+      <c r="AIY69" s="63"/>
+      <c r="AIZ69" s="63"/>
+      <c r="AJA69" s="63"/>
+      <c r="AJB69" s="63"/>
+      <c r="AJC69" s="63"/>
+      <c r="AJD69" s="63"/>
+      <c r="AJE69" s="63"/>
+      <c r="AJF69" s="63"/>
+      <c r="AJG69" s="63"/>
+      <c r="AJH69" s="63"/>
+      <c r="AJI69" s="63"/>
+      <c r="AJJ69" s="63"/>
+      <c r="AJK69" s="63"/>
+      <c r="AJL69" s="63"/>
+      <c r="AJM69" s="63"/>
+      <c r="AJN69" s="63"/>
+      <c r="AJO69" s="63"/>
+      <c r="AJP69" s="63"/>
+      <c r="AJQ69" s="63"/>
+      <c r="AJR69" s="63"/>
+      <c r="AJS69" s="63"/>
+      <c r="AJT69" s="63"/>
+      <c r="AJU69" s="63"/>
+      <c r="AJV69" s="63"/>
+      <c r="AJW69" s="63"/>
+      <c r="AJX69" s="63"/>
+      <c r="AJY69" s="63"/>
+      <c r="AJZ69" s="63"/>
+      <c r="AKA69" s="63"/>
+      <c r="AKB69" s="63"/>
+      <c r="AKC69" s="63"/>
+      <c r="AKD69" s="63"/>
+      <c r="AKE69" s="63"/>
+      <c r="AKF69" s="63"/>
+      <c r="AKG69" s="63"/>
+      <c r="AKH69" s="63"/>
+      <c r="AKI69" s="63"/>
+      <c r="AKJ69" s="63"/>
+      <c r="AKK69" s="63"/>
+      <c r="AKL69" s="63"/>
+      <c r="AKM69" s="63"/>
+      <c r="AKN69" s="63"/>
+      <c r="AKO69" s="63"/>
+      <c r="AKP69" s="63"/>
+      <c r="AKQ69" s="63"/>
+      <c r="AKR69" s="63"/>
+      <c r="AKS69" s="63"/>
+      <c r="AKT69" s="63"/>
+      <c r="AKU69" s="63"/>
+      <c r="AKV69" s="63"/>
+      <c r="AKW69" s="63"/>
+      <c r="AKX69" s="63"/>
+      <c r="AKY69" s="63"/>
+      <c r="AKZ69" s="63"/>
+      <c r="ALA69" s="63"/>
+      <c r="ALB69" s="63"/>
+      <c r="ALC69" s="63"/>
+      <c r="ALD69" s="63"/>
+      <c r="ALE69" s="63"/>
+      <c r="ALF69" s="63"/>
+      <c r="ALG69" s="63"/>
+      <c r="ALH69" s="63"/>
+      <c r="ALI69" s="63"/>
+      <c r="ALJ69" s="63"/>
+      <c r="ALK69" s="63"/>
+      <c r="ALL69" s="63"/>
+      <c r="ALM69" s="63"/>
+      <c r="ALN69" s="63"/>
+      <c r="ALO69" s="63"/>
+      <c r="ALP69" s="63"/>
+      <c r="ALQ69" s="63"/>
+      <c r="ALR69" s="63"/>
+      <c r="ALS69" s="63"/>
+      <c r="ALT69" s="63"/>
+      <c r="ALU69" s="63"/>
+      <c r="ALV69" s="63"/>
+      <c r="ALW69" s="63"/>
+      <c r="ALX69" s="63"/>
+      <c r="ALY69" s="63"/>
+      <c r="ALZ69" s="63"/>
+      <c r="AMA69" s="63"/>
+      <c r="AMB69" s="63"/>
+      <c r="AMC69" s="63"/>
+      <c r="AMD69" s="63"/>
+      <c r="AME69" s="63"/>
+      <c r="AMF69" s="63"/>
+      <c r="AMG69" s="63"/>
+      <c r="AMH69" s="63"/>
+      <c r="AMI69" s="63"/>
+      <c r="AMJ69" s="63"/>
+      <c r="AMK69" s="63"/>
+      <c r="AML69" s="63"/>
     </row>
     <row r="70" ht="12.75">
       <c r="A70" t="s">
@@ -8252,13 +8249,13 @@
       <c r="B70" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="68" t="s">
+      <c r="C70" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="E70" s="40" t="s">
+      <c r="E70" s="72" t="s">
         <v>399</v>
       </c>
-      <c r="F70" s="40" t="s">
+      <c r="F70" s="72" t="s">
         <v>400</v>
       </c>
       <c r="L70" t="s">
@@ -8267,7 +8264,7 @@
       <c r="M70" t="s">
         <v>401</v>
       </c>
-      <c r="X70" s="67"/>
+      <c r="X70" s="65"/>
     </row>
     <row r="71" ht="12.75">
       <c r="A71" t="s">
@@ -8276,30 +8273,30 @@
       <c r="B71" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="68" t="s">
+      <c r="C71" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="E71" s="40" t="s">
+      <c r="E71" s="72" t="s">
         <v>404</v>
       </c>
-      <c r="F71" s="40" t="s">
+      <c r="F71" s="72" t="s">
         <v>405</v>
       </c>
       <c r="L71" t="s">
         <v>134</v>
       </c>
-      <c r="M71" s="70" t="s">
+      <c r="M71" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="X71" s="67"/>
+      <c r="X71" s="65"/>
     </row>
     <row r="72" ht="12.75">
-      <c r="E72" s="41"/>
+      <c r="E72" s="39"/>
     </row>
     <row r="73" ht="12.75"/>
     <row r="74" ht="12.75">
       <c r="B74" s="12"/>
-      <c r="E74" s="41"/>
+      <c r="E74" s="39"/>
     </row>
     <row r="75" ht="12.75">
       <c r="B75" s="12"/>
@@ -8312,121 +8309,121 @@
     </row>
     <row r="78" ht="12.75">
       <c r="B78" s="12"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="44"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="42"/>
       <c r="V78" s="12"/>
       <c r="W78" s="12"/>
     </row>
     <row r="79" ht="12.75">
       <c r="B79" s="12"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="41"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="44"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="42"/>
       <c r="V79" s="12"/>
       <c r="W79" s="12"/>
     </row>
     <row r="80" ht="12.75">
       <c r="B80" s="12"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="44"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="42"/>
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
     </row>
     <row r="81" ht="12.75">
       <c r="B81" s="12"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="41"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="44"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="42"/>
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
     </row>
     <row r="82" ht="12.75">
       <c r="B82" s="12"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="44"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="42"/>
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
     </row>
     <row r="83" ht="12.75">
       <c r="B83" s="12"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="44"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="42"/>
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
     </row>
     <row r="84" ht="12.75">
       <c r="B84" s="12"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="43"/>
-      <c r="K84" s="44"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="42"/>
       <c r="V84" s="12"/>
       <c r="W84" s="12"/>
     </row>
     <row r="85" ht="12.75">
       <c r="B85" s="12"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="44"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="42"/>
       <c r="V85" s="12"/>
       <c r="W85" s="12"/>
     </row>
     <row r="86" ht="12.75">
       <c r="B86" s="12"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="44"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="42"/>
       <c r="V86" s="12"/>
       <c r="W86" s="12"/>
     </row>
     <row r="87" ht="12.75">
       <c r="B87" s="12"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="41"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="43"/>
-      <c r="K87" s="44"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="42"/>
       <c r="V87" s="12"/>
       <c r="W87" s="12"/>
     </row>
@@ -8544,81 +8541,81 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="76" t="str">
+      <c r="B1" s="74" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="2">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" ht="89.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="78" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="77" t="s">
         <v>410</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="61" t="s">
         <v>412</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="61" t="s">
         <v>413</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="61" t="s">
         <v>414</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="61" t="s">
         <v>415</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="61" t="s">
         <v>412</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" ht="409.5" customHeight="1">
       <c r="A5" s="12" t="s">
@@ -8704,67 +8701,67 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="83" t="str">
+      <c r="B1" s="81" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="83" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="84" t="s">
         <v>424</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8791,62 +8788,62 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="76" t="str">
+      <c r="B1" s="74" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
     </row>
     <row r="2">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
     </row>
     <row r="4" ht="63.75">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="77" t="s">
         <v>425</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="77" t="s">
         <v>426</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="78" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E4" s="78"/>
+      <c r="E4" s="76"/>
     </row>
     <row r="5">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="61" t="s">
         <v>412</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="81"/>
+      <c r="E5" s="79"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8872,406 +8869,406 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="86" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="86" t="s">
         <v>429</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="86" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="65" t="s">
         <v>431</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="65" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="65" t="s">
         <v>433</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="65" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="65" t="s">
         <v>435</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="65" t="s">
         <v>436</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="65" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="65" t="s">
         <v>438</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="65" t="s">
         <v>439</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="65" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="65" t="s">
         <v>441</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="65" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="65" t="s">
         <v>443</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="65" t="s">
         <v>444</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="65" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="65" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="65" t="s">
         <v>448</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="65" t="s">
         <v>449</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="65" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="65" t="s">
         <v>451</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="65" t="s">
         <v>452</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="65" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="65" t="s">
         <v>454</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="65" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="65" t="s">
         <v>456</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="65" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="65" t="s">
         <v>458</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="65" t="s">
         <v>459</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="65" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="65" t="s">
         <v>461</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="65" t="s">
         <v>462</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="65" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65" t="s">
         <v>464</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="65" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65" t="s">
         <v>466</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="65" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65" t="s">
         <v>468</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="65" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65" t="s">
         <v>470</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="65" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65" t="s">
         <v>472</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="65" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="65" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65" t="s">
         <v>476</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="65" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65" t="s">
         <v>478</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="65" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65" t="s">
         <v>480</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="65" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65" t="s">
         <v>482</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="65" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67" t="s">
+      <c r="A25" s="65"/>
+      <c r="B25" s="65" t="s">
         <v>484</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="65" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67" t="s">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65" t="s">
         <v>486</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="65" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65" t="s">
         <v>488</v>
       </c>
-      <c r="C27" s="67"/>
+      <c r="C27" s="65"/>
     </row>
     <row r="28">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67" t="s">
+      <c r="A28" s="65"/>
+      <c r="B28" s="65" t="s">
         <v>489</v>
       </c>
-      <c r="C28" s="67"/>
+      <c r="C28" s="65"/>
     </row>
     <row r="29">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67" t="s">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65" t="s">
         <v>490</v>
       </c>
-      <c r="C29" s="67"/>
+      <c r="C29" s="65"/>
     </row>
     <row r="30">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67" t="s">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65" t="s">
         <v>491</v>
       </c>
-      <c r="C30" s="67"/>
+      <c r="C30" s="65"/>
     </row>
     <row r="31">
-      <c r="A31" s="67"/>
-      <c r="B31" s="67" t="s">
+      <c r="A31" s="65"/>
+      <c r="B31" s="65" t="s">
         <v>492</v>
       </c>
-      <c r="C31" s="67"/>
+      <c r="C31" s="65"/>
     </row>
     <row r="32">
-      <c r="A32" s="67"/>
-      <c r="B32" s="67" t="s">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65" t="s">
         <v>493</v>
       </c>
-      <c r="C32" s="67"/>
+      <c r="C32" s="65"/>
     </row>
     <row r="33">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67" t="s">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65" t="s">
         <v>494</v>
       </c>
-      <c r="C33" s="67"/>
+      <c r="C33" s="65"/>
     </row>
     <row r="34">
-      <c r="A34" s="67"/>
-      <c r="B34" s="67" t="s">
+      <c r="A34" s="65"/>
+      <c r="B34" s="65" t="s">
         <v>495</v>
       </c>
-      <c r="C34" s="67"/>
+      <c r="C34" s="65"/>
     </row>
     <row r="35">
-      <c r="A35" s="67"/>
-      <c r="B35" s="67" t="s">
+      <c r="A35" s="65"/>
+      <c r="B35" s="65" t="s">
         <v>496</v>
       </c>
-      <c r="C35" s="67"/>
+      <c r="C35" s="65"/>
     </row>
     <row r="36">
-      <c r="A36" s="67"/>
-      <c r="B36" s="67" t="s">
+      <c r="A36" s="65"/>
+      <c r="B36" s="65" t="s">
         <v>497</v>
       </c>
-      <c r="C36" s="67"/>
+      <c r="C36" s="65"/>
     </row>
     <row r="37">
-      <c r="A37" s="67"/>
-      <c r="B37" s="67" t="s">
+      <c r="A37" s="65"/>
+      <c r="B37" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="C37" s="67"/>
+      <c r="C37" s="65"/>
     </row>
     <row r="38">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67" t="s">
+      <c r="A38" s="65"/>
+      <c r="B38" s="65" t="s">
         <v>499</v>
       </c>
-      <c r="C38" s="67"/>
+      <c r="C38" s="65"/>
     </row>
     <row r="39">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67" t="s">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65" t="s">
         <v>500</v>
       </c>
-      <c r="C39" s="67"/>
+      <c r="C39" s="65"/>
     </row>
     <row r="40">
-      <c r="A40" s="67"/>
-      <c r="B40" s="67" t="s">
+      <c r="A40" s="65"/>
+      <c r="B40" s="65" t="s">
         <v>501</v>
       </c>
-      <c r="C40" s="67"/>
+      <c r="C40" s="65"/>
     </row>
     <row r="41">
-      <c r="A41" s="67"/>
-      <c r="B41" s="67" t="s">
+      <c r="A41" s="65"/>
+      <c r="B41" s="65" t="s">
         <v>502</v>
       </c>
-      <c r="C41" s="67"/>
+      <c r="C41" s="65"/>
     </row>
     <row r="42">
-      <c r="A42" s="67"/>
-      <c r="B42" s="67" t="s">
+      <c r="A42" s="65"/>
+      <c r="B42" s="65" t="s">
         <v>503</v>
       </c>
-      <c r="C42" s="67"/>
+      <c r="C42" s="65"/>
     </row>
     <row r="43">
-      <c r="A43" s="67"/>
-      <c r="B43" s="67" t="s">
+      <c r="A43" s="65"/>
+      <c r="B43" s="65" t="s">
         <v>504</v>
       </c>
-      <c r="C43" s="67"/>
+      <c r="C43" s="65"/>
     </row>
     <row r="44">
-      <c r="A44" s="67"/>
-      <c r="B44" s="67" t="s">
+      <c r="A44" s="65"/>
+      <c r="B44" s="65" t="s">
         <v>505</v>
       </c>
-      <c r="C44" s="67"/>
+      <c r="C44" s="65"/>
     </row>
     <row r="45">
-      <c r="A45" s="67"/>
-      <c r="B45" s="67" t="s">
+      <c r="A45" s="65"/>
+      <c r="B45" s="65" t="s">
         <v>506</v>
       </c>
-      <c r="C45" s="67"/>
+      <c r="C45" s="65"/>
     </row>
     <row r="46">
-      <c r="A46" s="67"/>
-      <c r="B46" s="67" t="s">
+      <c r="A46" s="65"/>
+      <c r="B46" s="65" t="s">
         <v>507</v>
       </c>
-      <c r="C46" s="67"/>
+      <c r="C46" s="65"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/demos/demo-SpOTy/sparnatural-config.xlsx
+++ b/demos/demo-SpOTy/sparnatural-config.xlsx
@@ -809,7 +809,7 @@
     <t xml:space="preserve">has orthography</t>
   </si>
   <si>
-    <t xml:space="preserve">a pour orthography</t>
+    <t xml:space="preserve">a pour orthographe</t>
   </si>
   <si>
     <t>rdf:langString</t>
@@ -881,7 +881,7 @@
     <t>en</t>
   </si>
   <si>
-    <t>core:AutocompleteProperty</t>
+    <t>core:ListProperty</t>
   </si>
   <si>
     <t>this:search_language</t>
@@ -939,9 +939,6 @@
   </si>
   <si>
     <t>dans</t>
-  </si>
-  <si>
-    <t>core:ListProperty</t>
   </si>
   <si>
     <t>this:Token_ttranscription</t>
@@ -1440,6 +1437,9 @@
   </si>
   <si>
     <t xml:space="preserve">List of preconfigured queries</t>
+  </si>
+  <si>
+    <t>core:AutocompleteProperty</t>
   </si>
   <si>
     <t>datasources:list_dctermstitle_alpha</t>
@@ -2664,9 +2664,6 @@
       <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2758,6 +2755,9 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="36" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0"/>
+    <xf fontId="0" fillId="54" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="58" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -4556,10 +4556,10 @@
       <c r="AME31" s="35"/>
     </row>
     <row r="32" ht="12.75">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C32" t="s">
@@ -4579,10 +4579,10 @@
       </c>
     </row>
     <row r="33" ht="12.75">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C33" t="s">
@@ -4632,7 +4632,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A5" zoomScale="95" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A1" zoomScale="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
@@ -4643,11 +4643,11 @@
     <col customWidth="1" min="2" max="2" style="12" width="17.00390625"/>
     <col customWidth="1" min="3" max="3" style="0" width="74.57421875"/>
     <col customWidth="1" min="4" max="4" style="0" width="9.57421875"/>
-    <col customWidth="1" min="5" max="6" style="39" width="24.8515625"/>
+    <col customWidth="1" min="5" max="6" style="38" width="24.8515625"/>
     <col customWidth="1" min="7" max="8" style="12" width="32.00390625"/>
-    <col customWidth="1" min="9" max="9" style="40" width="32.00390625"/>
-    <col customWidth="1" min="10" max="10" style="41" width="28.8515625"/>
-    <col customWidth="1" min="11" max="11" style="42" width="28.8515625"/>
+    <col customWidth="1" min="9" max="9" style="39" width="32.00390625"/>
+    <col customWidth="1" min="10" max="10" style="40" width="28.8515625"/>
+    <col customWidth="1" min="11" max="11" style="41" width="28.8515625"/>
     <col customWidth="1" min="12" max="12" style="0" width="17.28125"/>
     <col customWidth="1" min="13" max="13" style="0" width="20.00390625"/>
     <col customWidth="1" min="14" max="14" style="0" width="22.28125"/>
@@ -4661,10 +4661,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="44" t="str">
+      <c r="B1" s="43" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
@@ -4672,19 +4672,19 @@
         <v>163</v>
       </c>
       <c r="D1" s="16"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="40"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="48"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
       <c r="R1" s="12"/>
       <c r="U1" s="12"/>
     </row>
@@ -4693,16 +4693,16 @@
       <c r="A3" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="50"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="23"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
@@ -4723,9 +4723,9 @@
       <c r="AML3" s="21"/>
     </row>
     <row r="4" ht="12.5">
-      <c r="E4" s="53"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="12"/>
-      <c r="J4" s="54"/>
+      <c r="J4" s="53"/>
       <c r="S4" s="12"/>
     </row>
     <row r="5" s="26" customFormat="1" ht="153">
@@ -4741,7 +4741,7 @@
       <c r="D5" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>169</v>
       </c>
       <c r="F5" s="27" t="s">
@@ -4756,10 +4756,10 @@
       <c r="I5" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="55" t="s">
         <v>175</v>
       </c>
       <c r="L5" s="26" t="s">
@@ -4830,50 +4830,50 @@
       </c>
       <c r="AH5" s="27"/>
     </row>
-    <row r="6" s="57" customFormat="1" ht="25.5">
-      <c r="A6" s="57" t="s">
+    <row r="6" s="56" customFormat="1" ht="25.5">
+      <c r="A6" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>200</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="57"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
     </row>
     <row r="7" ht="25.5">
       <c r="A7" s="30" t="s">
@@ -4897,16 +4897,16 @@
       <c r="G7" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="60" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="61" t="s">
         <v>213</v>
       </c>
       <c r="L7" s="31" t="s">
@@ -4945,70 +4945,70 @@
       <c r="W7" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="X7" s="61" t="s">
+      <c r="X7" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="Y7" s="61" t="s">
+      <c r="Y7" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="Z7" s="61" t="s">
+      <c r="Z7" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="AA7" s="61" t="s">
+      <c r="AA7" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="AB7" s="61" t="s">
+      <c r="AB7" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="AC7" s="61" t="s">
+      <c r="AC7" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="AD7" s="61" t="s">
+      <c r="AD7" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="AE7" s="61" t="s">
+      <c r="AE7" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="AF7" s="61" t="s">
+      <c r="AF7" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="AG7" s="61" t="s">
+      <c r="AG7" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="AH7" s="61" t="s">
+      <c r="AH7" s="60" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="8" s="63" customFormat="1" ht="12.75">
-      <c r="A8" s="63" t="s">
+    <row r="8" s="62" customFormat="1" ht="12.75">
+      <c r="A8" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="AMH8" s="63"/>
-      <c r="AMI8" s="63"/>
-      <c r="AMJ8" s="63"/>
-      <c r="AMK8" s="63"/>
-      <c r="AML8" s="63"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="AMH8" s="62"/>
+      <c r="AMI8" s="62"/>
+      <c r="AMJ8" s="62"/>
+      <c r="AMK8" s="62"/>
+      <c r="AML8" s="62"/>
     </row>
     <row r="9" ht="12.75">
       <c r="A9" t="s">
@@ -5023,16 +5023,16 @@
       <c r="E9" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="63" t="s">
         <v>234</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41">
+      <c r="I9" s="39"/>
+      <c r="J9" s="40">
         <v>1</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="41">
         <v>1</v>
       </c>
       <c r="L9" t="s">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
-      <c r="X9" s="65"/>
+      <c r="X9" s="64"/>
       <c r="AA9" t="s">
         <v>131</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="65" t="s">
         <v>236</v>
       </c>
       <c r="D10" s="3"/>
@@ -5079,8 +5079,8 @@
       <c r="T10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="67" t="s">
+      <c r="X10" s="64"/>
+      <c r="Y10" s="66" t="s">
         <v>240</v>
       </c>
       <c r="AA10" t="s">
@@ -5099,7 +5099,7 @@
       <c r="B11" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="65" t="s">
         <v>242</v>
       </c>
       <c r="D11" s="3"/>
@@ -5126,7 +5126,7 @@
       <c r="T11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="65"/>
+      <c r="X11" s="64"/>
       <c r="AA11" t="s">
         <v>131</v>
       </c>
@@ -5143,14 +5143,14 @@
       <c r="B12" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="65" t="s">
         <v>246</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="67" t="s">
         <v>248</v>
       </c>
       <c r="G12" s="3"/>
@@ -5173,7 +5173,7 @@
       <c r="T12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="65"/>
+      <c r="X12" s="64"/>
       <c r="AA12" t="s">
         <v>131</v>
       </c>
@@ -5190,7 +5190,7 @@
       <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="65" t="s">
         <v>251</v>
       </c>
       <c r="D13" s="3"/>
@@ -5220,7 +5220,7 @@
       <c r="T13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="65"/>
+      <c r="X13" s="64"/>
       <c r="AA13" t="s">
         <v>131</v>
       </c>
@@ -5237,7 +5237,7 @@
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="65" t="s">
         <v>255</v>
       </c>
       <c r="D14" s="3"/>
@@ -5267,7 +5267,7 @@
       <c r="T14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="65"/>
+      <c r="X14" s="64"/>
       <c r="AA14" t="s">
         <v>131</v>
       </c>
@@ -5284,7 +5284,7 @@
       <c r="B15" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="65" t="s">
         <v>260</v>
       </c>
       <c r="D15" s="3"/>
@@ -5311,7 +5311,7 @@
       <c r="T15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="65"/>
+      <c r="X15" s="64"/>
       <c r="AA15" t="s">
         <v>131</v>
       </c>
@@ -5339,8 +5339,8 @@
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
       <c r="L16" t="s">
         <v>108</v>
       </c>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
-      <c r="X16" s="65" t="s">
+      <c r="X16" s="64" t="s">
         <v>267</v>
       </c>
       <c r="AB16" t="b">
@@ -5374,8 +5374,8 @@
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
       <c r="L17" t="s">
         <v>108</v>
       </c>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="65" t="s">
+      <c r="X17" s="64" t="s">
         <v>272</v>
       </c>
       <c r="Z17" t="s">
@@ -5410,7 +5410,7 @@
       <c r="F18" t="s">
         <v>266</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="41">
         <v>1</v>
       </c>
       <c r="L18" t="s">
@@ -5422,7 +5422,7 @@
       <c r="N18" t="s">
         <v>132</v>
       </c>
-      <c r="X18" s="65" t="s">
+      <c r="X18" s="64" t="s">
         <v>276</v>
       </c>
       <c r="AB18" t="b">
@@ -5445,7 +5445,7 @@
       <c r="F19" t="s">
         <v>266</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="41">
         <v>1</v>
       </c>
       <c r="L19" t="s">
@@ -5457,7 +5457,7 @@
       <c r="N19" t="s">
         <v>140</v>
       </c>
-      <c r="X19" s="65" t="s">
+      <c r="X19" s="64" t="s">
         <v>276</v>
       </c>
       <c r="AB19" t="b">
@@ -5486,7 +5486,7 @@
       <c r="N20" t="s">
         <v>110</v>
       </c>
-      <c r="X20" s="65" t="s">
+      <c r="X20" s="64" t="s">
         <v>267</v>
       </c>
       <c r="AB20" t="b">
@@ -5495,40 +5495,40 @@
     </row>
     <row r="21" ht="12.75">
       <c r="B21" s="12"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="22" s="63" customFormat="1" ht="12.75">
-      <c r="A22" s="63" t="s">
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" s="62" customFormat="1" ht="12.75">
+      <c r="A22" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="AMH22" s="63"/>
-      <c r="AMI22" s="63"/>
-      <c r="AMJ22" s="63"/>
-      <c r="AMK22" s="63"/>
-      <c r="AML22" s="63"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="AMH22" s="62"/>
+      <c r="AMI22" s="62"/>
+      <c r="AMJ22" s="62"/>
+      <c r="AMK22" s="62"/>
+      <c r="AML22" s="62"/>
     </row>
     <row r="23" ht="12.75">
       <c r="A23" t="s">
@@ -5543,16 +5543,16 @@
       <c r="E23" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="63" t="s">
         <v>234</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41">
+      <c r="I23" s="39"/>
+      <c r="J23" s="40">
         <v>1</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="41">
         <v>1</v>
       </c>
       <c r="L23" t="s">
@@ -5569,7 +5569,7 @@
       <c r="B24" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="65" t="s">
         <v>285</v>
       </c>
       <c r="D24" s="3"/>
@@ -5599,7 +5599,7 @@
       <c r="T24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="65"/>
+      <c r="X24" s="64"/>
       <c r="AA24" t="s">
         <v>131</v>
       </c>
@@ -5640,7 +5640,7 @@
       <c r="T25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="65"/>
+      <c r="X25" s="64"/>
       <c r="AA25" t="s">
         <v>131</v>
       </c>
@@ -5668,8 +5668,8 @@
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
       <c r="L26" t="s">
         <v>108</v>
       </c>
@@ -5678,19 +5678,19 @@
       </c>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
-      <c r="X26" s="65" t="s">
-        <v>292</v>
+      <c r="X26" s="64" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="27" ht="13.5">
       <c r="A27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
         <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E27" t="s">
         <v>265</v>
@@ -5700,9 +5700,9 @@
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="42"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
       <c r="L27" t="s">
         <v>134</v>
       </c>
@@ -5714,37 +5714,37 @@
       </c>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
-      <c r="X27" s="65" t="s">
+      <c r="X27" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="Y27" s="67" t="s">
+      <c r="Y27" s="66" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="28" ht="13.5">
       <c r="A28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
         <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
+        <v>296</v>
+      </c>
+      <c r="F28" t="s">
         <v>297</v>
-      </c>
-      <c r="F28" t="s">
-        <v>298</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="42">
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="41">
         <v>1</v>
       </c>
       <c r="L28" t="s">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
-      <c r="X28" s="65" t="s">
+      <c r="X28" s="64" t="s">
         <v>267</v>
       </c>
       <c r="AB28" t="b">
@@ -5764,27 +5764,27 @@
     </row>
     <row r="29" ht="13.5">
       <c r="A29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s">
         <v>110</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D29" s="3">
         <v>4</v>
       </c>
       <c r="E29" t="s">
+        <v>300</v>
+      </c>
+      <c r="F29" t="s">
         <v>301</v>
-      </c>
-      <c r="F29" t="s">
-        <v>302</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
       <c r="L29" t="s">
         <v>108</v>
       </c>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
-      <c r="X29" s="65" t="s">
+      <c r="X29" s="64" t="s">
         <v>267</v>
       </c>
       <c r="AB29" t="b">
@@ -5802,27 +5802,27 @@
     </row>
     <row r="30" ht="13.5">
       <c r="A30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s">
         <v>110</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" t="s">
+        <v>304</v>
+      </c>
+      <c r="F30" t="s">
         <v>305</v>
-      </c>
-      <c r="F30" t="s">
-        <v>306</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
       <c r="L30" t="s">
         <v>108</v>
       </c>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
-      <c r="X30" s="65" t="s">
+      <c r="X30" s="64" t="s">
         <v>267</v>
       </c>
       <c r="AB30" t="b">
@@ -5840,22 +5840,22 @@
     </row>
     <row r="31" ht="13.5">
       <c r="A31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s">
         <v>110</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
       </c>
       <c r="E31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F31" t="s">
         <v>309</v>
-      </c>
-      <c r="F31" t="s">
-        <v>310</v>
       </c>
       <c r="L31" t="s">
         <v>108</v>
@@ -5863,7 +5863,7 @@
       <c r="N31" t="s">
         <v>110</v>
       </c>
-      <c r="X31" s="65" t="s">
+      <c r="X31" s="64" t="s">
         <v>267</v>
       </c>
       <c r="AB31" t="b">
@@ -5872,24 +5872,24 @@
     </row>
     <row r="32" ht="13.5">
       <c r="A32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B32" t="s">
         <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
       </c>
       <c r="E32" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32" t="s">
         <v>313</v>
       </c>
-      <c r="F32" t="s">
-        <v>314</v>
-      </c>
-      <c r="K32" s="42">
+      <c r="K32" s="41">
         <v>1</v>
       </c>
       <c r="L32" t="s">
@@ -5898,7 +5898,7 @@
       <c r="N32" t="s">
         <v>110</v>
       </c>
-      <c r="X32" s="65" t="s">
+      <c r="X32" s="64" t="s">
         <v>267</v>
       </c>
       <c r="AB32" t="b">
@@ -5907,22 +5907,22 @@
     </row>
     <row r="33" ht="13.5">
       <c r="A33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s">
         <v>110</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D33" s="3">
         <v>5</v>
       </c>
       <c r="E33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F33" t="s">
         <v>317</v>
-      </c>
-      <c r="F33" t="s">
-        <v>318</v>
       </c>
       <c r="L33" t="s">
         <v>108</v>
@@ -5930,7 +5930,7 @@
       <c r="N33" t="s">
         <v>110</v>
       </c>
-      <c r="X33" s="65" t="s">
+      <c r="X33" s="64" t="s">
         <v>267</v>
       </c>
       <c r="AB33" t="b">
@@ -5939,19 +5939,19 @@
     </row>
     <row r="34" ht="13.5">
       <c r="A34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s">
         <v>110</v>
       </c>
       <c r="C34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E34" t="s">
         <v>320</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>321</v>
-      </c>
-      <c r="F34" t="s">
-        <v>322</v>
       </c>
       <c r="L34" t="s">
         <v>108</v>
@@ -5959,28 +5959,28 @@
       <c r="N34" t="s">
         <v>114</v>
       </c>
-      <c r="X34" s="65" t="s">
-        <v>323</v>
+      <c r="X34" s="64" t="s">
+        <v>322</v>
       </c>
       <c r="AB34" t="b">
         <v>1</v>
       </c>
       <c r="AD34" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE34" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="AE34" s="12" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="35" ht="13.5">
       <c r="A35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E35" t="s">
         <v>265</v>
@@ -5994,34 +5994,34 @@
       <c r="N35" t="s">
         <v>114</v>
       </c>
-      <c r="X35" s="65" t="s">
-        <v>323</v>
+      <c r="X35" s="64" t="s">
+        <v>322</v>
       </c>
       <c r="AB35" t="b">
         <v>1</v>
       </c>
       <c r="AD35" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE35" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="AE35" s="12" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="36" ht="13.5">
       <c r="A36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s">
         <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E36" t="s">
+        <v>320</v>
+      </c>
+      <c r="F36" t="s">
         <v>321</v>
-      </c>
-      <c r="F36" t="s">
-        <v>322</v>
       </c>
       <c r="L36" t="s">
         <v>108</v>
@@ -6029,8 +6029,8 @@
       <c r="N36" t="s">
         <v>119</v>
       </c>
-      <c r="X36" s="65" t="s">
-        <v>292</v>
+      <c r="X36" s="64" t="s">
+        <v>272</v>
       </c>
       <c r="AB36" t="b">
         <v>1</v>
@@ -6038,13 +6038,13 @@
     </row>
     <row r="37" ht="13.5">
       <c r="A37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s">
         <v>110</v>
       </c>
       <c r="C37" s="68" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E37" t="s">
         <v>265</v>
@@ -6058,11 +6058,11 @@
       <c r="N37" t="s">
         <v>119</v>
       </c>
-      <c r="X37" s="65" t="s">
-        <v>292</v>
+      <c r="X37" s="64" t="s">
+        <v>272</v>
       </c>
       <c r="Z37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AB37" t="b">
         <v>1</v>
@@ -6070,13 +6070,13 @@
     </row>
     <row r="38" ht="13.5">
       <c r="A38" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s">
         <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E38" t="s">
         <v>265</v>
@@ -6084,7 +6084,7 @@
       <c r="F38" t="s">
         <v>266</v>
       </c>
-      <c r="K38" s="42">
+      <c r="K38" s="41">
         <v>1</v>
       </c>
       <c r="L38" t="s">
@@ -6096,7 +6096,7 @@
       <c r="N38" t="s">
         <v>136</v>
       </c>
-      <c r="X38" s="65" t="s">
+      <c r="X38" s="64" t="s">
         <v>276</v>
       </c>
       <c r="AB38" t="b">
@@ -6105,21 +6105,21 @@
     </row>
     <row r="39" ht="13.5">
       <c r="A39" s="35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s">
         <v>110</v>
       </c>
       <c r="C39" t="s">
+        <v>335</v>
+      </c>
+      <c r="E39" t="s">
         <v>336</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>337</v>
       </c>
-      <c r="F39" t="s">
-        <v>338</v>
-      </c>
-      <c r="J39" s="41"/>
+      <c r="J39" s="40"/>
       <c r="L39" t="s">
         <v>134</v>
       </c>
@@ -6129,7 +6129,7 @@
       <c r="N39" t="s">
         <v>146</v>
       </c>
-      <c r="X39" s="65" t="s">
+      <c r="X39" s="64" t="s">
         <v>276</v>
       </c>
       <c r="AB39" t="b">
@@ -6138,58 +6138,58 @@
     </row>
     <row r="40" ht="12.75">
       <c r="B40" s="12"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-    </row>
-    <row r="41" s="63" customFormat="1" ht="12.75">
-      <c r="A41" s="63" t="s">
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+    </row>
+    <row r="41" s="62" customFormat="1" ht="12.75">
+      <c r="A41" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63"/>
-      <c r="V41" s="63"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="63"/>
-      <c r="AB41" s="63"/>
-      <c r="AMH41" s="63"/>
-      <c r="AMI41" s="63"/>
-      <c r="AMJ41" s="63"/>
-      <c r="AMK41" s="63"/>
-      <c r="AML41" s="63"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="62"/>
+      <c r="X41" s="62"/>
+      <c r="AB41" s="62"/>
+      <c r="AMH41" s="62"/>
+      <c r="AMI41" s="62"/>
+      <c r="AMJ41" s="62"/>
+      <c r="AMK41" s="62"/>
+      <c r="AML41" s="62"/>
     </row>
     <row r="42" s="0" customFormat="1" ht="12.75">
       <c r="A42" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s">
         <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="F42" s="35" t="s">
         <v>341</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>342</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -6208,7 +6208,7 @@
       <c r="T42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="65"/>
+      <c r="X42" s="64"/>
       <c r="AA42" t="s">
         <v>131</v>
       </c>
@@ -6220,20 +6220,20 @@
     </row>
     <row r="43" s="0" customFormat="1" ht="12.75">
       <c r="A43" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s">
         <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="F43" s="35" t="s">
         <v>345</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>346</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -6252,7 +6252,7 @@
       <c r="T43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-      <c r="X43" s="65"/>
+      <c r="X43" s="64"/>
       <c r="AA43" t="s">
         <v>131</v>
       </c>
@@ -6264,20 +6264,20 @@
     </row>
     <row r="44" s="0" customFormat="1" ht="12.75">
       <c r="A44" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" t="s">
         <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="F44" s="35" t="s">
         <v>349</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>350</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -6299,7 +6299,7 @@
       <c r="T44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-      <c r="X44" s="65"/>
+      <c r="X44" s="64"/>
       <c r="AA44" t="s">
         <v>131</v>
       </c>
@@ -6311,20 +6311,20 @@
     </row>
     <row r="45" s="0" customFormat="1" ht="12.75">
       <c r="A45" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s">
         <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="F45" s="35" t="s">
         <v>353</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>354</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -6346,8 +6346,8 @@
       <c r="T45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-      <c r="X45" s="65"/>
-      <c r="Y45" s="67" t="s">
+      <c r="X45" s="64"/>
+      <c r="Y45" s="66" t="s">
         <v>240</v>
       </c>
       <c r="AA45" t="s">
@@ -6361,20 +6361,20 @@
     </row>
     <row r="46" s="0" customFormat="1" ht="12.75">
       <c r="A46" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s">
         <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="F46" s="35" t="s">
         <v>357</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>358</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -6396,7 +6396,7 @@
       <c r="T46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-      <c r="X46" s="65"/>
+      <c r="X46" s="64"/>
       <c r="AA46" t="s">
         <v>131</v>
       </c>
@@ -6408,24 +6408,24 @@
     </row>
     <row r="47" ht="13.5">
       <c r="A47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
       </c>
       <c r="C47" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E47" t="s">
         <v>348</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>349</v>
-      </c>
-      <c r="F47" t="s">
-        <v>350</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="40"/>
       <c r="L47" t="s">
         <v>108</v>
       </c>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
-      <c r="X47" s="65" t="s">
+      <c r="X47" s="64" t="s">
         <v>276</v>
       </c>
       <c r="AB47" t="b">
@@ -6443,65 +6443,65 @@
     </row>
     <row r="48" ht="12.75">
       <c r="B48" s="12"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="42"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="41"/>
       <c r="V48" s="12"/>
       <c r="W48" s="12"/>
     </row>
-    <row r="49" s="63" customFormat="1" ht="12.75">
-      <c r="A49" s="63" t="s">
+    <row r="49" s="62" customFormat="1" ht="12.75">
+      <c r="A49" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="63"/>
-      <c r="T49" s="63"/>
-      <c r="V49" s="63"/>
-      <c r="W49" s="63"/>
-      <c r="X49" s="63"/>
-      <c r="AB49" s="63"/>
-      <c r="AMH49" s="63"/>
-      <c r="AMI49" s="63"/>
-      <c r="AMJ49" s="63"/>
-      <c r="AMK49" s="63"/>
-      <c r="AML49" s="63"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="62"/>
+      <c r="X49" s="62"/>
+      <c r="AB49" s="62"/>
+      <c r="AMH49" s="62"/>
+      <c r="AMI49" s="62"/>
+      <c r="AMJ49" s="62"/>
+      <c r="AMK49" s="62"/>
+      <c r="AML49" s="62"/>
     </row>
     <row r="50" s="0" customFormat="1" ht="12.75">
       <c r="A50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B50" t="s">
         <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="F50" s="35" t="s">
         <v>341</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>342</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -6521,7 +6521,7 @@
       <c r="T50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-      <c r="X50" s="65"/>
+      <c r="X50" s="64"/>
       <c r="AA50" t="s">
         <v>131</v>
       </c>
@@ -6533,20 +6533,20 @@
     </row>
     <row r="51" s="0" customFormat="1" ht="12.75">
       <c r="A51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s">
         <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="F51" s="35" t="s">
         <v>345</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>346</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -6567,7 +6567,7 @@
       <c r="T51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-      <c r="X51" s="65"/>
+      <c r="X51" s="64"/>
       <c r="AA51" t="s">
         <v>131</v>
       </c>
@@ -6579,20 +6579,20 @@
     </row>
     <row r="52" s="0" customFormat="1" ht="12.75">
       <c r="A52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s">
         <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="F52" s="35" t="s">
         <v>349</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>350</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -6613,7 +6613,7 @@
       <c r="T52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-      <c r="X52" s="65"/>
+      <c r="X52" s="64"/>
       <c r="AA52" t="s">
         <v>131</v>
       </c>
@@ -6625,20 +6625,20 @@
     </row>
     <row r="53" s="0" customFormat="1" ht="12.75">
       <c r="A53" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B53" t="s">
         <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="F53" s="35" t="s">
         <v>353</v>
-      </c>
-      <c r="F53" s="35" t="s">
-        <v>354</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -6659,8 +6659,8 @@
       <c r="T53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-      <c r="X53" s="65"/>
-      <c r="Y53" s="67" t="s">
+      <c r="X53" s="64"/>
+      <c r="Y53" s="66" t="s">
         <v>240</v>
       </c>
       <c r="AA53" t="s">
@@ -6674,20 +6674,20 @@
     </row>
     <row r="54" s="0" customFormat="1" ht="12.75">
       <c r="A54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B54" t="s">
         <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="F54" s="35" t="s">
         <v>357</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>358</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -6708,7 +6708,7 @@
       <c r="T54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-      <c r="X54" s="65"/>
+      <c r="X54" s="64"/>
       <c r="AA54" t="s">
         <v>131</v>
       </c>
@@ -6720,25 +6720,25 @@
     </row>
     <row r="55" ht="13.5">
       <c r="A55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B55" t="s">
         <v>119</v>
       </c>
       <c r="C55" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E55" t="s">
         <v>348</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>349</v>
-      </c>
-      <c r="F55" t="s">
-        <v>350</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="42"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="41"/>
       <c r="L55" t="s">
         <v>108</v>
       </c>
@@ -6747,7 +6747,7 @@
       </c>
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
-      <c r="X55" s="65" t="s">
+      <c r="X55" s="64" t="s">
         <v>276</v>
       </c>
       <c r="AB55" t="b">
@@ -6756,51 +6756,51 @@
     </row>
     <row r="56" ht="12.75">
       <c r="B56" s="12"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="42"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="41"/>
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
     </row>
-    <row r="57" s="63" customFormat="1" ht="12.75">
-      <c r="A57" s="63" t="s">
+    <row r="57" s="62" customFormat="1" ht="12.75">
+      <c r="A57" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="63"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="63"/>
-      <c r="S57" s="63"/>
-      <c r="T57" s="63"/>
-      <c r="V57" s="63"/>
-      <c r="W57" s="63"/>
-      <c r="X57" s="63"/>
-      <c r="AMH57" s="63"/>
-      <c r="AMI57" s="63"/>
-      <c r="AMJ57" s="63"/>
-      <c r="AMK57" s="63"/>
-      <c r="AML57" s="63"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="62"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="62"/>
+      <c r="V57" s="62"/>
+      <c r="W57" s="62"/>
+      <c r="X57" s="62"/>
+      <c r="AMH57" s="62"/>
+      <c r="AMI57" s="62"/>
+      <c r="AMJ57" s="62"/>
+      <c r="AMK57" s="62"/>
+      <c r="AML57" s="62"/>
     </row>
     <row r="58" ht="12.75">
       <c r="A58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B58" t="s">
         <v>123</v>
@@ -6811,16 +6811,16 @@
       <c r="E58" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F58" s="64" t="s">
+      <c r="F58" s="63" t="s">
         <v>234</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="41">
+      <c r="I58" s="39"/>
+      <c r="J58" s="40">
         <v>1</v>
       </c>
-      <c r="K58" s="42">
+      <c r="K58" s="41">
         <v>1</v>
       </c>
       <c r="L58" t="s">
@@ -6832,20 +6832,20 @@
     </row>
     <row r="59" s="0" customFormat="1" ht="12.75">
       <c r="A59" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B59" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="66" t="s">
-        <v>352</v>
+      <c r="C59" s="65" t="s">
+        <v>351</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="F59" s="35" t="s">
         <v>353</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>354</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -6864,8 +6864,8 @@
       <c r="T59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-      <c r="X59" s="65"/>
-      <c r="Y59" s="67" t="s">
+      <c r="X59" s="64"/>
+      <c r="Y59" s="66" t="s">
         <v>240</v>
       </c>
       <c r="AA59" t="s">
@@ -6879,20 +6879,20 @@
     </row>
     <row r="60" s="0" customFormat="1" ht="12.75">
       <c r="A60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B60" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="66" t="s">
-        <v>369</v>
+      <c r="C60" s="65" t="s">
+        <v>368</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="F60" s="35" t="s">
         <v>370</v>
-      </c>
-      <c r="F60" s="35" t="s">
-        <v>371</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -6911,10 +6911,7 @@
       <c r="T60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-      <c r="X60" s="65"/>
-      <c r="AA60" t="s">
-        <v>131</v>
-      </c>
+      <c r="X60" s="64"/>
       <c r="AMH60" s="3"/>
       <c r="AMI60" s="3"/>
       <c r="AMJ60" s="3"/>
@@ -6923,20 +6920,20 @@
     </row>
     <row r="61" s="0" customFormat="1" ht="12.75">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B61" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="66" t="s">
-        <v>373</v>
+      <c r="C61" s="65" t="s">
+        <v>372</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="F61" s="35" t="s">
         <v>374</v>
-      </c>
-      <c r="F61" s="35" t="s">
-        <v>375</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -6958,7 +6955,7 @@
       <c r="T61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-      <c r="X61" s="65"/>
+      <c r="X61" s="64"/>
       <c r="AA61" t="s">
         <v>131</v>
       </c>
@@ -6970,20 +6967,20 @@
     </row>
     <row r="62" s="0" customFormat="1" ht="12.75">
       <c r="A62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="66" t="s">
-        <v>377</v>
+      <c r="C62" s="65" t="s">
+        <v>376</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="F62" s="35" t="s">
         <v>378</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>379</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -7005,7 +7002,7 @@
       <c r="T62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-      <c r="X62" s="65"/>
+      <c r="X62" s="64"/>
       <c r="AA62" t="s">
         <v>131</v>
       </c>
@@ -7017,20 +7014,20 @@
     </row>
     <row r="63" s="0" customFormat="1" ht="12.75">
       <c r="A63" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B63" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="66" t="s">
-        <v>381</v>
+      <c r="C63" s="65" t="s">
+        <v>380</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="F63" s="35" t="s">
         <v>382</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>383</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -7052,7 +7049,7 @@
       <c r="T63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-      <c r="X63" s="65"/>
+      <c r="X63" s="64"/>
       <c r="AA63" t="s">
         <v>131</v>
       </c>
@@ -7064,25 +7061,25 @@
     </row>
     <row r="64" ht="13.5">
       <c r="A64" s="35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B64" t="s">
         <v>123</v>
       </c>
       <c r="C64" t="s">
+        <v>384</v>
+      </c>
+      <c r="E64" t="s">
         <v>385</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>386</v>
-      </c>
-      <c r="F64" t="s">
-        <v>387</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="42">
+      <c r="I64" s="39"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="41">
         <v>1</v>
       </c>
       <c r="L64" t="s">
@@ -7096,22 +7093,22 @@
       </c>
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
-      <c r="X64" s="65" t="s">
-        <v>292</v>
+      <c r="X64" s="64" t="s">
+        <v>272</v>
       </c>
       <c r="Z64" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" ht="13.5">
       <c r="A65" s="35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B65" t="s">
         <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E65" t="s">
         <v>265</v>
@@ -7121,9 +7118,9 @@
       </c>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="42">
+      <c r="I65" s="39"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="41">
         <v>1</v>
       </c>
       <c r="L65" t="s">
@@ -7137,22 +7134,22 @@
       </c>
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
-      <c r="X65" s="65" t="s">
-        <v>292</v>
+      <c r="X65" s="64" t="s">
+        <v>272</v>
       </c>
       <c r="Z65" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="66" ht="13.5">
       <c r="A66" s="35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B66" t="s">
         <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E66" t="s">
         <v>265</v>
@@ -7160,7 +7157,7 @@
       <c r="F66" t="s">
         <v>266</v>
       </c>
-      <c r="K66" s="42">
+      <c r="K66" s="41">
         <v>1</v>
       </c>
       <c r="L66" t="s">
@@ -7172,30 +7169,30 @@
       <c r="N66" t="s">
         <v>155</v>
       </c>
-      <c r="X66" s="65" t="s">
-        <v>292</v>
+      <c r="X66" s="64" t="s">
+        <v>272</v>
       </c>
       <c r="Z66" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67" ht="13.5">
       <c r="A67" s="35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B67" t="s">
         <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E67" t="s">
         <v>266</v>
       </c>
       <c r="F67" t="s">
-        <v>395</v>
-      </c>
-      <c r="J67" s="41">
+        <v>394</v>
+      </c>
+      <c r="J67" s="40">
         <v>1</v>
       </c>
       <c r="L67" t="s">
@@ -7207,1096 +7204,1096 @@
       <c r="N67" t="s">
         <v>157</v>
       </c>
-      <c r="X67" s="65" t="s">
-        <v>396</v>
+      <c r="X67" s="64" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="68" ht="12.75"/>
     <row r="69" ht="12.75">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="62" t="s">
         <v>129</v>
       </c>
       <c r="B69" s="69"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
       <c r="E69" s="70"/>
       <c r="F69" s="70"/>
       <c r="G69" s="69"/>
       <c r="H69" s="69"/>
       <c r="I69" s="71"/>
       <c r="J69" s="69"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="63"/>
-      <c r="O69" s="63"/>
-      <c r="P69" s="63"/>
-      <c r="Q69" s="63"/>
-      <c r="R69" s="63"/>
-      <c r="S69" s="63"/>
-      <c r="T69" s="63"/>
-      <c r="U69" s="63"/>
+      <c r="K69" s="62"/>
+      <c r="L69" s="62"/>
+      <c r="M69" s="62"/>
+      <c r="N69" s="62"/>
+      <c r="O69" s="62"/>
+      <c r="P69" s="62"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="62"/>
+      <c r="S69" s="62"/>
+      <c r="T69" s="62"/>
+      <c r="U69" s="62"/>
       <c r="V69" s="69"/>
       <c r="W69" s="69"/>
-      <c r="X69" s="63"/>
-      <c r="Y69" s="63"/>
-      <c r="Z69" s="63"/>
-      <c r="AA69" s="63"/>
-      <c r="AB69" s="63"/>
-      <c r="AC69" s="63"/>
-      <c r="AD69" s="63"/>
-      <c r="AE69" s="63"/>
-      <c r="AF69" s="63"/>
-      <c r="AG69" s="63"/>
-      <c r="AH69" s="63"/>
-      <c r="AI69" s="63"/>
-      <c r="AJ69" s="63"/>
-      <c r="AK69" s="63"/>
-      <c r="AL69" s="63"/>
-      <c r="AM69" s="63"/>
-      <c r="AN69" s="63"/>
-      <c r="AO69" s="63"/>
-      <c r="AP69" s="63"/>
-      <c r="AQ69" s="63"/>
-      <c r="AR69" s="63"/>
-      <c r="AS69" s="63"/>
-      <c r="AT69" s="63"/>
-      <c r="AU69" s="63"/>
-      <c r="AV69" s="63"/>
-      <c r="AW69" s="63"/>
-      <c r="AX69" s="63"/>
-      <c r="AY69" s="63"/>
-      <c r="AZ69" s="63"/>
-      <c r="BA69" s="63"/>
-      <c r="BB69" s="63"/>
-      <c r="BC69" s="63"/>
-      <c r="BD69" s="63"/>
-      <c r="BE69" s="63"/>
-      <c r="BF69" s="63"/>
-      <c r="BG69" s="63"/>
-      <c r="BH69" s="63"/>
-      <c r="BI69" s="63"/>
-      <c r="BJ69" s="63"/>
-      <c r="BK69" s="63"/>
-      <c r="BL69" s="63"/>
-      <c r="BM69" s="63"/>
-      <c r="BN69" s="63"/>
-      <c r="BO69" s="63"/>
-      <c r="BP69" s="63"/>
-      <c r="BQ69" s="63"/>
-      <c r="BR69" s="63"/>
-      <c r="BS69" s="63"/>
-      <c r="BT69" s="63"/>
-      <c r="BU69" s="63"/>
-      <c r="BV69" s="63"/>
-      <c r="BW69" s="63"/>
-      <c r="BX69" s="63"/>
-      <c r="BY69" s="63"/>
-      <c r="BZ69" s="63"/>
-      <c r="CA69" s="63"/>
-      <c r="CB69" s="63"/>
-      <c r="CC69" s="63"/>
-      <c r="CD69" s="63"/>
-      <c r="CE69" s="63"/>
-      <c r="CF69" s="63"/>
-      <c r="CG69" s="63"/>
-      <c r="CH69" s="63"/>
-      <c r="CI69" s="63"/>
-      <c r="CJ69" s="63"/>
-      <c r="CK69" s="63"/>
-      <c r="CL69" s="63"/>
-      <c r="CM69" s="63"/>
-      <c r="CN69" s="63"/>
-      <c r="CO69" s="63"/>
-      <c r="CP69" s="63"/>
-      <c r="CQ69" s="63"/>
-      <c r="CR69" s="63"/>
-      <c r="CS69" s="63"/>
-      <c r="CT69" s="63"/>
-      <c r="CU69" s="63"/>
-      <c r="CV69" s="63"/>
-      <c r="CW69" s="63"/>
-      <c r="CX69" s="63"/>
-      <c r="CY69" s="63"/>
-      <c r="CZ69" s="63"/>
-      <c r="DA69" s="63"/>
-      <c r="DB69" s="63"/>
-      <c r="DC69" s="63"/>
-      <c r="DD69" s="63"/>
-      <c r="DE69" s="63"/>
-      <c r="DF69" s="63"/>
-      <c r="DG69" s="63"/>
-      <c r="DH69" s="63"/>
-      <c r="DI69" s="63"/>
-      <c r="DJ69" s="63"/>
-      <c r="DK69" s="63"/>
-      <c r="DL69" s="63"/>
-      <c r="DM69" s="63"/>
-      <c r="DN69" s="63"/>
-      <c r="DO69" s="63"/>
-      <c r="DP69" s="63"/>
-      <c r="DQ69" s="63"/>
-      <c r="DR69" s="63"/>
-      <c r="DS69" s="63"/>
-      <c r="DT69" s="63"/>
-      <c r="DU69" s="63"/>
-      <c r="DV69" s="63"/>
-      <c r="DW69" s="63"/>
-      <c r="DX69" s="63"/>
-      <c r="DY69" s="63"/>
-      <c r="DZ69" s="63"/>
-      <c r="EA69" s="63"/>
-      <c r="EB69" s="63"/>
-      <c r="EC69" s="63"/>
-      <c r="ED69" s="63"/>
-      <c r="EE69" s="63"/>
-      <c r="EF69" s="63"/>
-      <c r="EG69" s="63"/>
-      <c r="EH69" s="63"/>
-      <c r="EI69" s="63"/>
-      <c r="EJ69" s="63"/>
-      <c r="EK69" s="63"/>
-      <c r="EL69" s="63"/>
-      <c r="EM69" s="63"/>
-      <c r="EN69" s="63"/>
-      <c r="EO69" s="63"/>
-      <c r="EP69" s="63"/>
-      <c r="EQ69" s="63"/>
-      <c r="ER69" s="63"/>
-      <c r="ES69" s="63"/>
-      <c r="ET69" s="63"/>
-      <c r="EU69" s="63"/>
-      <c r="EV69" s="63"/>
-      <c r="EW69" s="63"/>
-      <c r="EX69" s="63"/>
-      <c r="EY69" s="63"/>
-      <c r="EZ69" s="63"/>
-      <c r="FA69" s="63"/>
-      <c r="FB69" s="63"/>
-      <c r="FC69" s="63"/>
-      <c r="FD69" s="63"/>
-      <c r="FE69" s="63"/>
-      <c r="FF69" s="63"/>
-      <c r="FG69" s="63"/>
-      <c r="FH69" s="63"/>
-      <c r="FI69" s="63"/>
-      <c r="FJ69" s="63"/>
-      <c r="FK69" s="63"/>
-      <c r="FL69" s="63"/>
-      <c r="FM69" s="63"/>
-      <c r="FN69" s="63"/>
-      <c r="FO69" s="63"/>
-      <c r="FP69" s="63"/>
-      <c r="FQ69" s="63"/>
-      <c r="FR69" s="63"/>
-      <c r="FS69" s="63"/>
-      <c r="FT69" s="63"/>
-      <c r="FU69" s="63"/>
-      <c r="FV69" s="63"/>
-      <c r="FW69" s="63"/>
-      <c r="FX69" s="63"/>
-      <c r="FY69" s="63"/>
-      <c r="FZ69" s="63"/>
-      <c r="GA69" s="63"/>
-      <c r="GB69" s="63"/>
-      <c r="GC69" s="63"/>
-      <c r="GD69" s="63"/>
-      <c r="GE69" s="63"/>
-      <c r="GF69" s="63"/>
-      <c r="GG69" s="63"/>
-      <c r="GH69" s="63"/>
-      <c r="GI69" s="63"/>
-      <c r="GJ69" s="63"/>
-      <c r="GK69" s="63"/>
-      <c r="GL69" s="63"/>
-      <c r="GM69" s="63"/>
-      <c r="GN69" s="63"/>
-      <c r="GO69" s="63"/>
-      <c r="GP69" s="63"/>
-      <c r="GQ69" s="63"/>
-      <c r="GR69" s="63"/>
-      <c r="GS69" s="63"/>
-      <c r="GT69" s="63"/>
-      <c r="GU69" s="63"/>
-      <c r="GV69" s="63"/>
-      <c r="GW69" s="63"/>
-      <c r="GX69" s="63"/>
-      <c r="GY69" s="63"/>
-      <c r="GZ69" s="63"/>
-      <c r="HA69" s="63"/>
-      <c r="HB69" s="63"/>
-      <c r="HC69" s="63"/>
-      <c r="HD69" s="63"/>
-      <c r="HE69" s="63"/>
-      <c r="HF69" s="63"/>
-      <c r="HG69" s="63"/>
-      <c r="HH69" s="63"/>
-      <c r="HI69" s="63"/>
-      <c r="HJ69" s="63"/>
-      <c r="HK69" s="63"/>
-      <c r="HL69" s="63"/>
-      <c r="HM69" s="63"/>
-      <c r="HN69" s="63"/>
-      <c r="HO69" s="63"/>
-      <c r="HP69" s="63"/>
-      <c r="HQ69" s="63"/>
-      <c r="HR69" s="63"/>
-      <c r="HS69" s="63"/>
-      <c r="HT69" s="63"/>
-      <c r="HU69" s="63"/>
-      <c r="HV69" s="63"/>
-      <c r="HW69" s="63"/>
-      <c r="HX69" s="63"/>
-      <c r="HY69" s="63"/>
-      <c r="HZ69" s="63"/>
-      <c r="IA69" s="63"/>
-      <c r="IB69" s="63"/>
-      <c r="IC69" s="63"/>
-      <c r="ID69" s="63"/>
-      <c r="IE69" s="63"/>
-      <c r="IF69" s="63"/>
-      <c r="IG69" s="63"/>
-      <c r="IH69" s="63"/>
-      <c r="II69" s="63"/>
-      <c r="IJ69" s="63"/>
-      <c r="IK69" s="63"/>
-      <c r="IL69" s="63"/>
-      <c r="IM69" s="63"/>
-      <c r="IN69" s="63"/>
-      <c r="IO69" s="63"/>
-      <c r="IP69" s="63"/>
-      <c r="IQ69" s="63"/>
-      <c r="IR69" s="63"/>
-      <c r="IS69" s="63"/>
-      <c r="IT69" s="63"/>
-      <c r="IU69" s="63"/>
-      <c r="IV69" s="63"/>
-      <c r="IW69" s="63"/>
-      <c r="IX69" s="63"/>
-      <c r="IY69" s="63"/>
-      <c r="IZ69" s="63"/>
-      <c r="JA69" s="63"/>
-      <c r="JB69" s="63"/>
-      <c r="JC69" s="63"/>
-      <c r="JD69" s="63"/>
-      <c r="JE69" s="63"/>
-      <c r="JF69" s="63"/>
-      <c r="JG69" s="63"/>
-      <c r="JH69" s="63"/>
-      <c r="JI69" s="63"/>
-      <c r="JJ69" s="63"/>
-      <c r="JK69" s="63"/>
-      <c r="JL69" s="63"/>
-      <c r="JM69" s="63"/>
-      <c r="JN69" s="63"/>
-      <c r="JO69" s="63"/>
-      <c r="JP69" s="63"/>
-      <c r="JQ69" s="63"/>
-      <c r="JR69" s="63"/>
-      <c r="JS69" s="63"/>
-      <c r="JT69" s="63"/>
-      <c r="JU69" s="63"/>
-      <c r="JV69" s="63"/>
-      <c r="JW69" s="63"/>
-      <c r="JX69" s="63"/>
-      <c r="JY69" s="63"/>
-      <c r="JZ69" s="63"/>
-      <c r="KA69" s="63"/>
-      <c r="KB69" s="63"/>
-      <c r="KC69" s="63"/>
-      <c r="KD69" s="63"/>
-      <c r="KE69" s="63"/>
-      <c r="KF69" s="63"/>
-      <c r="KG69" s="63"/>
-      <c r="KH69" s="63"/>
-      <c r="KI69" s="63"/>
-      <c r="KJ69" s="63"/>
-      <c r="KK69" s="63"/>
-      <c r="KL69" s="63"/>
-      <c r="KM69" s="63"/>
-      <c r="KN69" s="63"/>
-      <c r="KO69" s="63"/>
-      <c r="KP69" s="63"/>
-      <c r="KQ69" s="63"/>
-      <c r="KR69" s="63"/>
-      <c r="KS69" s="63"/>
-      <c r="KT69" s="63"/>
-      <c r="KU69" s="63"/>
-      <c r="KV69" s="63"/>
-      <c r="KW69" s="63"/>
-      <c r="KX69" s="63"/>
-      <c r="KY69" s="63"/>
-      <c r="KZ69" s="63"/>
-      <c r="LA69" s="63"/>
-      <c r="LB69" s="63"/>
-      <c r="LC69" s="63"/>
-      <c r="LD69" s="63"/>
-      <c r="LE69" s="63"/>
-      <c r="LF69" s="63"/>
-      <c r="LG69" s="63"/>
-      <c r="LH69" s="63"/>
-      <c r="LI69" s="63"/>
-      <c r="LJ69" s="63"/>
-      <c r="LK69" s="63"/>
-      <c r="LL69" s="63"/>
-      <c r="LM69" s="63"/>
-      <c r="LN69" s="63"/>
-      <c r="LO69" s="63"/>
-      <c r="LP69" s="63"/>
-      <c r="LQ69" s="63"/>
-      <c r="LR69" s="63"/>
-      <c r="LS69" s="63"/>
-      <c r="LT69" s="63"/>
-      <c r="LU69" s="63"/>
-      <c r="LV69" s="63"/>
-      <c r="LW69" s="63"/>
-      <c r="LX69" s="63"/>
-      <c r="LY69" s="63"/>
-      <c r="LZ69" s="63"/>
-      <c r="MA69" s="63"/>
-      <c r="MB69" s="63"/>
-      <c r="MC69" s="63"/>
-      <c r="MD69" s="63"/>
-      <c r="ME69" s="63"/>
-      <c r="MF69" s="63"/>
-      <c r="MG69" s="63"/>
-      <c r="MH69" s="63"/>
-      <c r="MI69" s="63"/>
-      <c r="MJ69" s="63"/>
-      <c r="MK69" s="63"/>
-      <c r="ML69" s="63"/>
-      <c r="MM69" s="63"/>
-      <c r="MN69" s="63"/>
-      <c r="MO69" s="63"/>
-      <c r="MP69" s="63"/>
-      <c r="MQ69" s="63"/>
-      <c r="MR69" s="63"/>
-      <c r="MS69" s="63"/>
-      <c r="MT69" s="63"/>
-      <c r="MU69" s="63"/>
-      <c r="MV69" s="63"/>
-      <c r="MW69" s="63"/>
-      <c r="MX69" s="63"/>
-      <c r="MY69" s="63"/>
-      <c r="MZ69" s="63"/>
-      <c r="NA69" s="63"/>
-      <c r="NB69" s="63"/>
-      <c r="NC69" s="63"/>
-      <c r="ND69" s="63"/>
-      <c r="NE69" s="63"/>
-      <c r="NF69" s="63"/>
-      <c r="NG69" s="63"/>
-      <c r="NH69" s="63"/>
-      <c r="NI69" s="63"/>
-      <c r="NJ69" s="63"/>
-      <c r="NK69" s="63"/>
-      <c r="NL69" s="63"/>
-      <c r="NM69" s="63"/>
-      <c r="NN69" s="63"/>
-      <c r="NO69" s="63"/>
-      <c r="NP69" s="63"/>
-      <c r="NQ69" s="63"/>
-      <c r="NR69" s="63"/>
-      <c r="NS69" s="63"/>
-      <c r="NT69" s="63"/>
-      <c r="NU69" s="63"/>
-      <c r="NV69" s="63"/>
-      <c r="NW69" s="63"/>
-      <c r="NX69" s="63"/>
-      <c r="NY69" s="63"/>
-      <c r="NZ69" s="63"/>
-      <c r="OA69" s="63"/>
-      <c r="OB69" s="63"/>
-      <c r="OC69" s="63"/>
-      <c r="OD69" s="63"/>
-      <c r="OE69" s="63"/>
-      <c r="OF69" s="63"/>
-      <c r="OG69" s="63"/>
-      <c r="OH69" s="63"/>
-      <c r="OI69" s="63"/>
-      <c r="OJ69" s="63"/>
-      <c r="OK69" s="63"/>
-      <c r="OL69" s="63"/>
-      <c r="OM69" s="63"/>
-      <c r="ON69" s="63"/>
-      <c r="OO69" s="63"/>
-      <c r="OP69" s="63"/>
-      <c r="OQ69" s="63"/>
-      <c r="OR69" s="63"/>
-      <c r="OS69" s="63"/>
-      <c r="OT69" s="63"/>
-      <c r="OU69" s="63"/>
-      <c r="OV69" s="63"/>
-      <c r="OW69" s="63"/>
-      <c r="OX69" s="63"/>
-      <c r="OY69" s="63"/>
-      <c r="OZ69" s="63"/>
-      <c r="PA69" s="63"/>
-      <c r="PB69" s="63"/>
-      <c r="PC69" s="63"/>
-      <c r="PD69" s="63"/>
-      <c r="PE69" s="63"/>
-      <c r="PF69" s="63"/>
-      <c r="PG69" s="63"/>
-      <c r="PH69" s="63"/>
-      <c r="PI69" s="63"/>
-      <c r="PJ69" s="63"/>
-      <c r="PK69" s="63"/>
-      <c r="PL69" s="63"/>
-      <c r="PM69" s="63"/>
-      <c r="PN69" s="63"/>
-      <c r="PO69" s="63"/>
-      <c r="PP69" s="63"/>
-      <c r="PQ69" s="63"/>
-      <c r="PR69" s="63"/>
-      <c r="PS69" s="63"/>
-      <c r="PT69" s="63"/>
-      <c r="PU69" s="63"/>
-      <c r="PV69" s="63"/>
-      <c r="PW69" s="63"/>
-      <c r="PX69" s="63"/>
-      <c r="PY69" s="63"/>
-      <c r="PZ69" s="63"/>
-      <c r="QA69" s="63"/>
-      <c r="QB69" s="63"/>
-      <c r="QC69" s="63"/>
-      <c r="QD69" s="63"/>
-      <c r="QE69" s="63"/>
-      <c r="QF69" s="63"/>
-      <c r="QG69" s="63"/>
-      <c r="QH69" s="63"/>
-      <c r="QI69" s="63"/>
-      <c r="QJ69" s="63"/>
-      <c r="QK69" s="63"/>
-      <c r="QL69" s="63"/>
-      <c r="QM69" s="63"/>
-      <c r="QN69" s="63"/>
-      <c r="QO69" s="63"/>
-      <c r="QP69" s="63"/>
-      <c r="QQ69" s="63"/>
-      <c r="QR69" s="63"/>
-      <c r="QS69" s="63"/>
-      <c r="QT69" s="63"/>
-      <c r="QU69" s="63"/>
-      <c r="QV69" s="63"/>
-      <c r="QW69" s="63"/>
-      <c r="QX69" s="63"/>
-      <c r="QY69" s="63"/>
-      <c r="QZ69" s="63"/>
-      <c r="RA69" s="63"/>
-      <c r="RB69" s="63"/>
-      <c r="RC69" s="63"/>
-      <c r="RD69" s="63"/>
-      <c r="RE69" s="63"/>
-      <c r="RF69" s="63"/>
-      <c r="RG69" s="63"/>
-      <c r="RH69" s="63"/>
-      <c r="RI69" s="63"/>
-      <c r="RJ69" s="63"/>
-      <c r="RK69" s="63"/>
-      <c r="RL69" s="63"/>
-      <c r="RM69" s="63"/>
-      <c r="RN69" s="63"/>
-      <c r="RO69" s="63"/>
-      <c r="RP69" s="63"/>
-      <c r="RQ69" s="63"/>
-      <c r="RR69" s="63"/>
-      <c r="RS69" s="63"/>
-      <c r="RT69" s="63"/>
-      <c r="RU69" s="63"/>
-      <c r="RV69" s="63"/>
-      <c r="RW69" s="63"/>
-      <c r="RX69" s="63"/>
-      <c r="RY69" s="63"/>
-      <c r="RZ69" s="63"/>
-      <c r="SA69" s="63"/>
-      <c r="SB69" s="63"/>
-      <c r="SC69" s="63"/>
-      <c r="SD69" s="63"/>
-      <c r="SE69" s="63"/>
-      <c r="SF69" s="63"/>
-      <c r="SG69" s="63"/>
-      <c r="SH69" s="63"/>
-      <c r="SI69" s="63"/>
-      <c r="SJ69" s="63"/>
-      <c r="SK69" s="63"/>
-      <c r="SL69" s="63"/>
-      <c r="SM69" s="63"/>
-      <c r="SN69" s="63"/>
-      <c r="SO69" s="63"/>
-      <c r="SP69" s="63"/>
-      <c r="SQ69" s="63"/>
-      <c r="SR69" s="63"/>
-      <c r="SS69" s="63"/>
-      <c r="ST69" s="63"/>
-      <c r="SU69" s="63"/>
-      <c r="SV69" s="63"/>
-      <c r="SW69" s="63"/>
-      <c r="SX69" s="63"/>
-      <c r="SY69" s="63"/>
-      <c r="SZ69" s="63"/>
-      <c r="TA69" s="63"/>
-      <c r="TB69" s="63"/>
-      <c r="TC69" s="63"/>
-      <c r="TD69" s="63"/>
-      <c r="TE69" s="63"/>
-      <c r="TF69" s="63"/>
-      <c r="TG69" s="63"/>
-      <c r="TH69" s="63"/>
-      <c r="TI69" s="63"/>
-      <c r="TJ69" s="63"/>
-      <c r="TK69" s="63"/>
-      <c r="TL69" s="63"/>
-      <c r="TM69" s="63"/>
-      <c r="TN69" s="63"/>
-      <c r="TO69" s="63"/>
-      <c r="TP69" s="63"/>
-      <c r="TQ69" s="63"/>
-      <c r="TR69" s="63"/>
-      <c r="TS69" s="63"/>
-      <c r="TT69" s="63"/>
-      <c r="TU69" s="63"/>
-      <c r="TV69" s="63"/>
-      <c r="TW69" s="63"/>
-      <c r="TX69" s="63"/>
-      <c r="TY69" s="63"/>
-      <c r="TZ69" s="63"/>
-      <c r="UA69" s="63"/>
-      <c r="UB69" s="63"/>
-      <c r="UC69" s="63"/>
-      <c r="UD69" s="63"/>
-      <c r="UE69" s="63"/>
-      <c r="UF69" s="63"/>
-      <c r="UG69" s="63"/>
-      <c r="UH69" s="63"/>
-      <c r="UI69" s="63"/>
-      <c r="UJ69" s="63"/>
-      <c r="UK69" s="63"/>
-      <c r="UL69" s="63"/>
-      <c r="UM69" s="63"/>
-      <c r="UN69" s="63"/>
-      <c r="UO69" s="63"/>
-      <c r="UP69" s="63"/>
-      <c r="UQ69" s="63"/>
-      <c r="UR69" s="63"/>
-      <c r="US69" s="63"/>
-      <c r="UT69" s="63"/>
-      <c r="UU69" s="63"/>
-      <c r="UV69" s="63"/>
-      <c r="UW69" s="63"/>
-      <c r="UX69" s="63"/>
-      <c r="UY69" s="63"/>
-      <c r="UZ69" s="63"/>
-      <c r="VA69" s="63"/>
-      <c r="VB69" s="63"/>
-      <c r="VC69" s="63"/>
-      <c r="VD69" s="63"/>
-      <c r="VE69" s="63"/>
-      <c r="VF69" s="63"/>
-      <c r="VG69" s="63"/>
-      <c r="VH69" s="63"/>
-      <c r="VI69" s="63"/>
-      <c r="VJ69" s="63"/>
-      <c r="VK69" s="63"/>
-      <c r="VL69" s="63"/>
-      <c r="VM69" s="63"/>
-      <c r="VN69" s="63"/>
-      <c r="VO69" s="63"/>
-      <c r="VP69" s="63"/>
-      <c r="VQ69" s="63"/>
-      <c r="VR69" s="63"/>
-      <c r="VS69" s="63"/>
-      <c r="VT69" s="63"/>
-      <c r="VU69" s="63"/>
-      <c r="VV69" s="63"/>
-      <c r="VW69" s="63"/>
-      <c r="VX69" s="63"/>
-      <c r="VY69" s="63"/>
-      <c r="VZ69" s="63"/>
-      <c r="WA69" s="63"/>
-      <c r="WB69" s="63"/>
-      <c r="WC69" s="63"/>
-      <c r="WD69" s="63"/>
-      <c r="WE69" s="63"/>
-      <c r="WF69" s="63"/>
-      <c r="WG69" s="63"/>
-      <c r="WH69" s="63"/>
-      <c r="WI69" s="63"/>
-      <c r="WJ69" s="63"/>
-      <c r="WK69" s="63"/>
-      <c r="WL69" s="63"/>
-      <c r="WM69" s="63"/>
-      <c r="WN69" s="63"/>
-      <c r="WO69" s="63"/>
-      <c r="WP69" s="63"/>
-      <c r="WQ69" s="63"/>
-      <c r="WR69" s="63"/>
-      <c r="WS69" s="63"/>
-      <c r="WT69" s="63"/>
-      <c r="WU69" s="63"/>
-      <c r="WV69" s="63"/>
-      <c r="WW69" s="63"/>
-      <c r="WX69" s="63"/>
-      <c r="WY69" s="63"/>
-      <c r="WZ69" s="63"/>
-      <c r="XA69" s="63"/>
-      <c r="XB69" s="63"/>
-      <c r="XC69" s="63"/>
-      <c r="XD69" s="63"/>
-      <c r="XE69" s="63"/>
-      <c r="XF69" s="63"/>
-      <c r="XG69" s="63"/>
-      <c r="XH69" s="63"/>
-      <c r="XI69" s="63"/>
-      <c r="XJ69" s="63"/>
-      <c r="XK69" s="63"/>
-      <c r="XL69" s="63"/>
-      <c r="XM69" s="63"/>
-      <c r="XN69" s="63"/>
-      <c r="XO69" s="63"/>
-      <c r="XP69" s="63"/>
-      <c r="XQ69" s="63"/>
-      <c r="XR69" s="63"/>
-      <c r="XS69" s="63"/>
-      <c r="XT69" s="63"/>
-      <c r="XU69" s="63"/>
-      <c r="XV69" s="63"/>
-      <c r="XW69" s="63"/>
-      <c r="XX69" s="63"/>
-      <c r="XY69" s="63"/>
-      <c r="XZ69" s="63"/>
-      <c r="YA69" s="63"/>
-      <c r="YB69" s="63"/>
-      <c r="YC69" s="63"/>
-      <c r="YD69" s="63"/>
-      <c r="YE69" s="63"/>
-      <c r="YF69" s="63"/>
-      <c r="YG69" s="63"/>
-      <c r="YH69" s="63"/>
-      <c r="YI69" s="63"/>
-      <c r="YJ69" s="63"/>
-      <c r="YK69" s="63"/>
-      <c r="YL69" s="63"/>
-      <c r="YM69" s="63"/>
-      <c r="YN69" s="63"/>
-      <c r="YO69" s="63"/>
-      <c r="YP69" s="63"/>
-      <c r="YQ69" s="63"/>
-      <c r="YR69" s="63"/>
-      <c r="YS69" s="63"/>
-      <c r="YT69" s="63"/>
-      <c r="YU69" s="63"/>
-      <c r="YV69" s="63"/>
-      <c r="YW69" s="63"/>
-      <c r="YX69" s="63"/>
-      <c r="YY69" s="63"/>
-      <c r="YZ69" s="63"/>
-      <c r="ZA69" s="63"/>
-      <c r="ZB69" s="63"/>
-      <c r="ZC69" s="63"/>
-      <c r="ZD69" s="63"/>
-      <c r="ZE69" s="63"/>
-      <c r="ZF69" s="63"/>
-      <c r="ZG69" s="63"/>
-      <c r="ZH69" s="63"/>
-      <c r="ZI69" s="63"/>
-      <c r="ZJ69" s="63"/>
-      <c r="ZK69" s="63"/>
-      <c r="ZL69" s="63"/>
-      <c r="ZM69" s="63"/>
-      <c r="ZN69" s="63"/>
-      <c r="ZO69" s="63"/>
-      <c r="ZP69" s="63"/>
-      <c r="ZQ69" s="63"/>
-      <c r="ZR69" s="63"/>
-      <c r="ZS69" s="63"/>
-      <c r="ZT69" s="63"/>
-      <c r="ZU69" s="63"/>
-      <c r="ZV69" s="63"/>
-      <c r="ZW69" s="63"/>
-      <c r="ZX69" s="63"/>
-      <c r="ZY69" s="63"/>
-      <c r="ZZ69" s="63"/>
-      <c r="AAA69" s="63"/>
-      <c r="AAB69" s="63"/>
-      <c r="AAC69" s="63"/>
-      <c r="AAD69" s="63"/>
-      <c r="AAE69" s="63"/>
-      <c r="AAF69" s="63"/>
-      <c r="AAG69" s="63"/>
-      <c r="AAH69" s="63"/>
-      <c r="AAI69" s="63"/>
-      <c r="AAJ69" s="63"/>
-      <c r="AAK69" s="63"/>
-      <c r="AAL69" s="63"/>
-      <c r="AAM69" s="63"/>
-      <c r="AAN69" s="63"/>
-      <c r="AAO69" s="63"/>
-      <c r="AAP69" s="63"/>
-      <c r="AAQ69" s="63"/>
-      <c r="AAR69" s="63"/>
-      <c r="AAS69" s="63"/>
-      <c r="AAT69" s="63"/>
-      <c r="AAU69" s="63"/>
-      <c r="AAV69" s="63"/>
-      <c r="AAW69" s="63"/>
-      <c r="AAX69" s="63"/>
-      <c r="AAY69" s="63"/>
-      <c r="AAZ69" s="63"/>
-      <c r="ABA69" s="63"/>
-      <c r="ABB69" s="63"/>
-      <c r="ABC69" s="63"/>
-      <c r="ABD69" s="63"/>
-      <c r="ABE69" s="63"/>
-      <c r="ABF69" s="63"/>
-      <c r="ABG69" s="63"/>
-      <c r="ABH69" s="63"/>
-      <c r="ABI69" s="63"/>
-      <c r="ABJ69" s="63"/>
-      <c r="ABK69" s="63"/>
-      <c r="ABL69" s="63"/>
-      <c r="ABM69" s="63"/>
-      <c r="ABN69" s="63"/>
-      <c r="ABO69" s="63"/>
-      <c r="ABP69" s="63"/>
-      <c r="ABQ69" s="63"/>
-      <c r="ABR69" s="63"/>
-      <c r="ABS69" s="63"/>
-      <c r="ABT69" s="63"/>
-      <c r="ABU69" s="63"/>
-      <c r="ABV69" s="63"/>
-      <c r="ABW69" s="63"/>
-      <c r="ABX69" s="63"/>
-      <c r="ABY69" s="63"/>
-      <c r="ABZ69" s="63"/>
-      <c r="ACA69" s="63"/>
-      <c r="ACB69" s="63"/>
-      <c r="ACC69" s="63"/>
-      <c r="ACD69" s="63"/>
-      <c r="ACE69" s="63"/>
-      <c r="ACF69" s="63"/>
-      <c r="ACG69" s="63"/>
-      <c r="ACH69" s="63"/>
-      <c r="ACI69" s="63"/>
-      <c r="ACJ69" s="63"/>
-      <c r="ACK69" s="63"/>
-      <c r="ACL69" s="63"/>
-      <c r="ACM69" s="63"/>
-      <c r="ACN69" s="63"/>
-      <c r="ACO69" s="63"/>
-      <c r="ACP69" s="63"/>
-      <c r="ACQ69" s="63"/>
-      <c r="ACR69" s="63"/>
-      <c r="ACS69" s="63"/>
-      <c r="ACT69" s="63"/>
-      <c r="ACU69" s="63"/>
-      <c r="ACV69" s="63"/>
-      <c r="ACW69" s="63"/>
-      <c r="ACX69" s="63"/>
-      <c r="ACY69" s="63"/>
-      <c r="ACZ69" s="63"/>
-      <c r="ADA69" s="63"/>
-      <c r="ADB69" s="63"/>
-      <c r="ADC69" s="63"/>
-      <c r="ADD69" s="63"/>
-      <c r="ADE69" s="63"/>
-      <c r="ADF69" s="63"/>
-      <c r="ADG69" s="63"/>
-      <c r="ADH69" s="63"/>
-      <c r="ADI69" s="63"/>
-      <c r="ADJ69" s="63"/>
-      <c r="ADK69" s="63"/>
-      <c r="ADL69" s="63"/>
-      <c r="ADM69" s="63"/>
-      <c r="ADN69" s="63"/>
-      <c r="ADO69" s="63"/>
-      <c r="ADP69" s="63"/>
-      <c r="ADQ69" s="63"/>
-      <c r="ADR69" s="63"/>
-      <c r="ADS69" s="63"/>
-      <c r="ADT69" s="63"/>
-      <c r="ADU69" s="63"/>
-      <c r="ADV69" s="63"/>
-      <c r="ADW69" s="63"/>
-      <c r="ADX69" s="63"/>
-      <c r="ADY69" s="63"/>
-      <c r="ADZ69" s="63"/>
-      <c r="AEA69" s="63"/>
-      <c r="AEB69" s="63"/>
-      <c r="AEC69" s="63"/>
-      <c r="AED69" s="63"/>
-      <c r="AEE69" s="63"/>
-      <c r="AEF69" s="63"/>
-      <c r="AEG69" s="63"/>
-      <c r="AEH69" s="63"/>
-      <c r="AEI69" s="63"/>
-      <c r="AEJ69" s="63"/>
-      <c r="AEK69" s="63"/>
-      <c r="AEL69" s="63"/>
-      <c r="AEM69" s="63"/>
-      <c r="AEN69" s="63"/>
-      <c r="AEO69" s="63"/>
-      <c r="AEP69" s="63"/>
-      <c r="AEQ69" s="63"/>
-      <c r="AER69" s="63"/>
-      <c r="AES69" s="63"/>
-      <c r="AET69" s="63"/>
-      <c r="AEU69" s="63"/>
-      <c r="AEV69" s="63"/>
-      <c r="AEW69" s="63"/>
-      <c r="AEX69" s="63"/>
-      <c r="AEY69" s="63"/>
-      <c r="AEZ69" s="63"/>
-      <c r="AFA69" s="63"/>
-      <c r="AFB69" s="63"/>
-      <c r="AFC69" s="63"/>
-      <c r="AFD69" s="63"/>
-      <c r="AFE69" s="63"/>
-      <c r="AFF69" s="63"/>
-      <c r="AFG69" s="63"/>
-      <c r="AFH69" s="63"/>
-      <c r="AFI69" s="63"/>
-      <c r="AFJ69" s="63"/>
-      <c r="AFK69" s="63"/>
-      <c r="AFL69" s="63"/>
-      <c r="AFM69" s="63"/>
-      <c r="AFN69" s="63"/>
-      <c r="AFO69" s="63"/>
-      <c r="AFP69" s="63"/>
-      <c r="AFQ69" s="63"/>
-      <c r="AFR69" s="63"/>
-      <c r="AFS69" s="63"/>
-      <c r="AFT69" s="63"/>
-      <c r="AFU69" s="63"/>
-      <c r="AFV69" s="63"/>
-      <c r="AFW69" s="63"/>
-      <c r="AFX69" s="63"/>
-      <c r="AFY69" s="63"/>
-      <c r="AFZ69" s="63"/>
-      <c r="AGA69" s="63"/>
-      <c r="AGB69" s="63"/>
-      <c r="AGC69" s="63"/>
-      <c r="AGD69" s="63"/>
-      <c r="AGE69" s="63"/>
-      <c r="AGF69" s="63"/>
-      <c r="AGG69" s="63"/>
-      <c r="AGH69" s="63"/>
-      <c r="AGI69" s="63"/>
-      <c r="AGJ69" s="63"/>
-      <c r="AGK69" s="63"/>
-      <c r="AGL69" s="63"/>
-      <c r="AGM69" s="63"/>
-      <c r="AGN69" s="63"/>
-      <c r="AGO69" s="63"/>
-      <c r="AGP69" s="63"/>
-      <c r="AGQ69" s="63"/>
-      <c r="AGR69" s="63"/>
-      <c r="AGS69" s="63"/>
-      <c r="AGT69" s="63"/>
-      <c r="AGU69" s="63"/>
-      <c r="AGV69" s="63"/>
-      <c r="AGW69" s="63"/>
-      <c r="AGX69" s="63"/>
-      <c r="AGY69" s="63"/>
-      <c r="AGZ69" s="63"/>
-      <c r="AHA69" s="63"/>
-      <c r="AHB69" s="63"/>
-      <c r="AHC69" s="63"/>
-      <c r="AHD69" s="63"/>
-      <c r="AHE69" s="63"/>
-      <c r="AHF69" s="63"/>
-      <c r="AHG69" s="63"/>
-      <c r="AHH69" s="63"/>
-      <c r="AHI69" s="63"/>
-      <c r="AHJ69" s="63"/>
-      <c r="AHK69" s="63"/>
-      <c r="AHL69" s="63"/>
-      <c r="AHM69" s="63"/>
-      <c r="AHN69" s="63"/>
-      <c r="AHO69" s="63"/>
-      <c r="AHP69" s="63"/>
-      <c r="AHQ69" s="63"/>
-      <c r="AHR69" s="63"/>
-      <c r="AHS69" s="63"/>
-      <c r="AHT69" s="63"/>
-      <c r="AHU69" s="63"/>
-      <c r="AHV69" s="63"/>
-      <c r="AHW69" s="63"/>
-      <c r="AHX69" s="63"/>
-      <c r="AHY69" s="63"/>
-      <c r="AHZ69" s="63"/>
-      <c r="AIA69" s="63"/>
-      <c r="AIB69" s="63"/>
-      <c r="AIC69" s="63"/>
-      <c r="AID69" s="63"/>
-      <c r="AIE69" s="63"/>
-      <c r="AIF69" s="63"/>
-      <c r="AIG69" s="63"/>
-      <c r="AIH69" s="63"/>
-      <c r="AII69" s="63"/>
-      <c r="AIJ69" s="63"/>
-      <c r="AIK69" s="63"/>
-      <c r="AIL69" s="63"/>
-      <c r="AIM69" s="63"/>
-      <c r="AIN69" s="63"/>
-      <c r="AIO69" s="63"/>
-      <c r="AIP69" s="63"/>
-      <c r="AIQ69" s="63"/>
-      <c r="AIR69" s="63"/>
-      <c r="AIS69" s="63"/>
-      <c r="AIT69" s="63"/>
-      <c r="AIU69" s="63"/>
-      <c r="AIV69" s="63"/>
-      <c r="AIW69" s="63"/>
-      <c r="AIX69" s="63"/>
-      <c r="AIY69" s="63"/>
-      <c r="AIZ69" s="63"/>
-      <c r="AJA69" s="63"/>
-      <c r="AJB69" s="63"/>
-      <c r="AJC69" s="63"/>
-      <c r="AJD69" s="63"/>
-      <c r="AJE69" s="63"/>
-      <c r="AJF69" s="63"/>
-      <c r="AJG69" s="63"/>
-      <c r="AJH69" s="63"/>
-      <c r="AJI69" s="63"/>
-      <c r="AJJ69" s="63"/>
-      <c r="AJK69" s="63"/>
-      <c r="AJL69" s="63"/>
-      <c r="AJM69" s="63"/>
-      <c r="AJN69" s="63"/>
-      <c r="AJO69" s="63"/>
-      <c r="AJP69" s="63"/>
-      <c r="AJQ69" s="63"/>
-      <c r="AJR69" s="63"/>
-      <c r="AJS69" s="63"/>
-      <c r="AJT69" s="63"/>
-      <c r="AJU69" s="63"/>
-      <c r="AJV69" s="63"/>
-      <c r="AJW69" s="63"/>
-      <c r="AJX69" s="63"/>
-      <c r="AJY69" s="63"/>
-      <c r="AJZ69" s="63"/>
-      <c r="AKA69" s="63"/>
-      <c r="AKB69" s="63"/>
-      <c r="AKC69" s="63"/>
-      <c r="AKD69" s="63"/>
-      <c r="AKE69" s="63"/>
-      <c r="AKF69" s="63"/>
-      <c r="AKG69" s="63"/>
-      <c r="AKH69" s="63"/>
-      <c r="AKI69" s="63"/>
-      <c r="AKJ69" s="63"/>
-      <c r="AKK69" s="63"/>
-      <c r="AKL69" s="63"/>
-      <c r="AKM69" s="63"/>
-      <c r="AKN69" s="63"/>
-      <c r="AKO69" s="63"/>
-      <c r="AKP69" s="63"/>
-      <c r="AKQ69" s="63"/>
-      <c r="AKR69" s="63"/>
-      <c r="AKS69" s="63"/>
-      <c r="AKT69" s="63"/>
-      <c r="AKU69" s="63"/>
-      <c r="AKV69" s="63"/>
-      <c r="AKW69" s="63"/>
-      <c r="AKX69" s="63"/>
-      <c r="AKY69" s="63"/>
-      <c r="AKZ69" s="63"/>
-      <c r="ALA69" s="63"/>
-      <c r="ALB69" s="63"/>
-      <c r="ALC69" s="63"/>
-      <c r="ALD69" s="63"/>
-      <c r="ALE69" s="63"/>
-      <c r="ALF69" s="63"/>
-      <c r="ALG69" s="63"/>
-      <c r="ALH69" s="63"/>
-      <c r="ALI69" s="63"/>
-      <c r="ALJ69" s="63"/>
-      <c r="ALK69" s="63"/>
-      <c r="ALL69" s="63"/>
-      <c r="ALM69" s="63"/>
-      <c r="ALN69" s="63"/>
-      <c r="ALO69" s="63"/>
-      <c r="ALP69" s="63"/>
-      <c r="ALQ69" s="63"/>
-      <c r="ALR69" s="63"/>
-      <c r="ALS69" s="63"/>
-      <c r="ALT69" s="63"/>
-      <c r="ALU69" s="63"/>
-      <c r="ALV69" s="63"/>
-      <c r="ALW69" s="63"/>
-      <c r="ALX69" s="63"/>
-      <c r="ALY69" s="63"/>
-      <c r="ALZ69" s="63"/>
-      <c r="AMA69" s="63"/>
-      <c r="AMB69" s="63"/>
-      <c r="AMC69" s="63"/>
-      <c r="AMD69" s="63"/>
-      <c r="AME69" s="63"/>
-      <c r="AMF69" s="63"/>
-      <c r="AMG69" s="63"/>
-      <c r="AMH69" s="63"/>
-      <c r="AMI69" s="63"/>
-      <c r="AMJ69" s="63"/>
-      <c r="AMK69" s="63"/>
-      <c r="AML69" s="63"/>
+      <c r="X69" s="62"/>
+      <c r="Y69" s="62"/>
+      <c r="Z69" s="62"/>
+      <c r="AA69" s="62"/>
+      <c r="AB69" s="62"/>
+      <c r="AC69" s="62"/>
+      <c r="AD69" s="62"/>
+      <c r="AE69" s="62"/>
+      <c r="AF69" s="62"/>
+      <c r="AG69" s="62"/>
+      <c r="AH69" s="62"/>
+      <c r="AI69" s="62"/>
+      <c r="AJ69" s="62"/>
+      <c r="AK69" s="62"/>
+      <c r="AL69" s="62"/>
+      <c r="AM69" s="62"/>
+      <c r="AN69" s="62"/>
+      <c r="AO69" s="62"/>
+      <c r="AP69" s="62"/>
+      <c r="AQ69" s="62"/>
+      <c r="AR69" s="62"/>
+      <c r="AS69" s="62"/>
+      <c r="AT69" s="62"/>
+      <c r="AU69" s="62"/>
+      <c r="AV69" s="62"/>
+      <c r="AW69" s="62"/>
+      <c r="AX69" s="62"/>
+      <c r="AY69" s="62"/>
+      <c r="AZ69" s="62"/>
+      <c r="BA69" s="62"/>
+      <c r="BB69" s="62"/>
+      <c r="BC69" s="62"/>
+      <c r="BD69" s="62"/>
+      <c r="BE69" s="62"/>
+      <c r="BF69" s="62"/>
+      <c r="BG69" s="62"/>
+      <c r="BH69" s="62"/>
+      <c r="BI69" s="62"/>
+      <c r="BJ69" s="62"/>
+      <c r="BK69" s="62"/>
+      <c r="BL69" s="62"/>
+      <c r="BM69" s="62"/>
+      <c r="BN69" s="62"/>
+      <c r="BO69" s="62"/>
+      <c r="BP69" s="62"/>
+      <c r="BQ69" s="62"/>
+      <c r="BR69" s="62"/>
+      <c r="BS69" s="62"/>
+      <c r="BT69" s="62"/>
+      <c r="BU69" s="62"/>
+      <c r="BV69" s="62"/>
+      <c r="BW69" s="62"/>
+      <c r="BX69" s="62"/>
+      <c r="BY69" s="62"/>
+      <c r="BZ69" s="62"/>
+      <c r="CA69" s="62"/>
+      <c r="CB69" s="62"/>
+      <c r="CC69" s="62"/>
+      <c r="CD69" s="62"/>
+      <c r="CE69" s="62"/>
+      <c r="CF69" s="62"/>
+      <c r="CG69" s="62"/>
+      <c r="CH69" s="62"/>
+      <c r="CI69" s="62"/>
+      <c r="CJ69" s="62"/>
+      <c r="CK69" s="62"/>
+      <c r="CL69" s="62"/>
+      <c r="CM69" s="62"/>
+      <c r="CN69" s="62"/>
+      <c r="CO69" s="62"/>
+      <c r="CP69" s="62"/>
+      <c r="CQ69" s="62"/>
+      <c r="CR69" s="62"/>
+      <c r="CS69" s="62"/>
+      <c r="CT69" s="62"/>
+      <c r="CU69" s="62"/>
+      <c r="CV69" s="62"/>
+      <c r="CW69" s="62"/>
+      <c r="CX69" s="62"/>
+      <c r="CY69" s="62"/>
+      <c r="CZ69" s="62"/>
+      <c r="DA69" s="62"/>
+      <c r="DB69" s="62"/>
+      <c r="DC69" s="62"/>
+      <c r="DD69" s="62"/>
+      <c r="DE69" s="62"/>
+      <c r="DF69" s="62"/>
+      <c r="DG69" s="62"/>
+      <c r="DH69" s="62"/>
+      <c r="DI69" s="62"/>
+      <c r="DJ69" s="62"/>
+      <c r="DK69" s="62"/>
+      <c r="DL69" s="62"/>
+      <c r="DM69" s="62"/>
+      <c r="DN69" s="62"/>
+      <c r="DO69" s="62"/>
+      <c r="DP69" s="62"/>
+      <c r="DQ69" s="62"/>
+      <c r="DR69" s="62"/>
+      <c r="DS69" s="62"/>
+      <c r="DT69" s="62"/>
+      <c r="DU69" s="62"/>
+      <c r="DV69" s="62"/>
+      <c r="DW69" s="62"/>
+      <c r="DX69" s="62"/>
+      <c r="DY69" s="62"/>
+      <c r="DZ69" s="62"/>
+      <c r="EA69" s="62"/>
+      <c r="EB69" s="62"/>
+      <c r="EC69" s="62"/>
+      <c r="ED69" s="62"/>
+      <c r="EE69" s="62"/>
+      <c r="EF69" s="62"/>
+      <c r="EG69" s="62"/>
+      <c r="EH69" s="62"/>
+      <c r="EI69" s="62"/>
+      <c r="EJ69" s="62"/>
+      <c r="EK69" s="62"/>
+      <c r="EL69" s="62"/>
+      <c r="EM69" s="62"/>
+      <c r="EN69" s="62"/>
+      <c r="EO69" s="62"/>
+      <c r="EP69" s="62"/>
+      <c r="EQ69" s="62"/>
+      <c r="ER69" s="62"/>
+      <c r="ES69" s="62"/>
+      <c r="ET69" s="62"/>
+      <c r="EU69" s="62"/>
+      <c r="EV69" s="62"/>
+      <c r="EW69" s="62"/>
+      <c r="EX69" s="62"/>
+      <c r="EY69" s="62"/>
+      <c r="EZ69" s="62"/>
+      <c r="FA69" s="62"/>
+      <c r="FB69" s="62"/>
+      <c r="FC69" s="62"/>
+      <c r="FD69" s="62"/>
+      <c r="FE69" s="62"/>
+      <c r="FF69" s="62"/>
+      <c r="FG69" s="62"/>
+      <c r="FH69" s="62"/>
+      <c r="FI69" s="62"/>
+      <c r="FJ69" s="62"/>
+      <c r="FK69" s="62"/>
+      <c r="FL69" s="62"/>
+      <c r="FM69" s="62"/>
+      <c r="FN69" s="62"/>
+      <c r="FO69" s="62"/>
+      <c r="FP69" s="62"/>
+      <c r="FQ69" s="62"/>
+      <c r="FR69" s="62"/>
+      <c r="FS69" s="62"/>
+      <c r="FT69" s="62"/>
+      <c r="FU69" s="62"/>
+      <c r="FV69" s="62"/>
+      <c r="FW69" s="62"/>
+      <c r="FX69" s="62"/>
+      <c r="FY69" s="62"/>
+      <c r="FZ69" s="62"/>
+      <c r="GA69" s="62"/>
+      <c r="GB69" s="62"/>
+      <c r="GC69" s="62"/>
+      <c r="GD69" s="62"/>
+      <c r="GE69" s="62"/>
+      <c r="GF69" s="62"/>
+      <c r="GG69" s="62"/>
+      <c r="GH69" s="62"/>
+      <c r="GI69" s="62"/>
+      <c r="GJ69" s="62"/>
+      <c r="GK69" s="62"/>
+      <c r="GL69" s="62"/>
+      <c r="GM69" s="62"/>
+      <c r="GN69" s="62"/>
+      <c r="GO69" s="62"/>
+      <c r="GP69" s="62"/>
+      <c r="GQ69" s="62"/>
+      <c r="GR69" s="62"/>
+      <c r="GS69" s="62"/>
+      <c r="GT69" s="62"/>
+      <c r="GU69" s="62"/>
+      <c r="GV69" s="62"/>
+      <c r="GW69" s="62"/>
+      <c r="GX69" s="62"/>
+      <c r="GY69" s="62"/>
+      <c r="GZ69" s="62"/>
+      <c r="HA69" s="62"/>
+      <c r="HB69" s="62"/>
+      <c r="HC69" s="62"/>
+      <c r="HD69" s="62"/>
+      <c r="HE69" s="62"/>
+      <c r="HF69" s="62"/>
+      <c r="HG69" s="62"/>
+      <c r="HH69" s="62"/>
+      <c r="HI69" s="62"/>
+      <c r="HJ69" s="62"/>
+      <c r="HK69" s="62"/>
+      <c r="HL69" s="62"/>
+      <c r="HM69" s="62"/>
+      <c r="HN69" s="62"/>
+      <c r="HO69" s="62"/>
+      <c r="HP69" s="62"/>
+      <c r="HQ69" s="62"/>
+      <c r="HR69" s="62"/>
+      <c r="HS69" s="62"/>
+      <c r="HT69" s="62"/>
+      <c r="HU69" s="62"/>
+      <c r="HV69" s="62"/>
+      <c r="HW69" s="62"/>
+      <c r="HX69" s="62"/>
+      <c r="HY69" s="62"/>
+      <c r="HZ69" s="62"/>
+      <c r="IA69" s="62"/>
+      <c r="IB69" s="62"/>
+      <c r="IC69" s="62"/>
+      <c r="ID69" s="62"/>
+      <c r="IE69" s="62"/>
+      <c r="IF69" s="62"/>
+      <c r="IG69" s="62"/>
+      <c r="IH69" s="62"/>
+      <c r="II69" s="62"/>
+      <c r="IJ69" s="62"/>
+      <c r="IK69" s="62"/>
+      <c r="IL69" s="62"/>
+      <c r="IM69" s="62"/>
+      <c r="IN69" s="62"/>
+      <c r="IO69" s="62"/>
+      <c r="IP69" s="62"/>
+      <c r="IQ69" s="62"/>
+      <c r="IR69" s="62"/>
+      <c r="IS69" s="62"/>
+      <c r="IT69" s="62"/>
+      <c r="IU69" s="62"/>
+      <c r="IV69" s="62"/>
+      <c r="IW69" s="62"/>
+      <c r="IX69" s="62"/>
+      <c r="IY69" s="62"/>
+      <c r="IZ69" s="62"/>
+      <c r="JA69" s="62"/>
+      <c r="JB69" s="62"/>
+      <c r="JC69" s="62"/>
+      <c r="JD69" s="62"/>
+      <c r="JE69" s="62"/>
+      <c r="JF69" s="62"/>
+      <c r="JG69" s="62"/>
+      <c r="JH69" s="62"/>
+      <c r="JI69" s="62"/>
+      <c r="JJ69" s="62"/>
+      <c r="JK69" s="62"/>
+      <c r="JL69" s="62"/>
+      <c r="JM69" s="62"/>
+      <c r="JN69" s="62"/>
+      <c r="JO69" s="62"/>
+      <c r="JP69" s="62"/>
+      <c r="JQ69" s="62"/>
+      <c r="JR69" s="62"/>
+      <c r="JS69" s="62"/>
+      <c r="JT69" s="62"/>
+      <c r="JU69" s="62"/>
+      <c r="JV69" s="62"/>
+      <c r="JW69" s="62"/>
+      <c r="JX69" s="62"/>
+      <c r="JY69" s="62"/>
+      <c r="JZ69" s="62"/>
+      <c r="KA69" s="62"/>
+      <c r="KB69" s="62"/>
+      <c r="KC69" s="62"/>
+      <c r="KD69" s="62"/>
+      <c r="KE69" s="62"/>
+      <c r="KF69" s="62"/>
+      <c r="KG69" s="62"/>
+      <c r="KH69" s="62"/>
+      <c r="KI69" s="62"/>
+      <c r="KJ69" s="62"/>
+      <c r="KK69" s="62"/>
+      <c r="KL69" s="62"/>
+      <c r="KM69" s="62"/>
+      <c r="KN69" s="62"/>
+      <c r="KO69" s="62"/>
+      <c r="KP69" s="62"/>
+      <c r="KQ69" s="62"/>
+      <c r="KR69" s="62"/>
+      <c r="KS69" s="62"/>
+      <c r="KT69" s="62"/>
+      <c r="KU69" s="62"/>
+      <c r="KV69" s="62"/>
+      <c r="KW69" s="62"/>
+      <c r="KX69" s="62"/>
+      <c r="KY69" s="62"/>
+      <c r="KZ69" s="62"/>
+      <c r="LA69" s="62"/>
+      <c r="LB69" s="62"/>
+      <c r="LC69" s="62"/>
+      <c r="LD69" s="62"/>
+      <c r="LE69" s="62"/>
+      <c r="LF69" s="62"/>
+      <c r="LG69" s="62"/>
+      <c r="LH69" s="62"/>
+      <c r="LI69" s="62"/>
+      <c r="LJ69" s="62"/>
+      <c r="LK69" s="62"/>
+      <c r="LL69" s="62"/>
+      <c r="LM69" s="62"/>
+      <c r="LN69" s="62"/>
+      <c r="LO69" s="62"/>
+      <c r="LP69" s="62"/>
+      <c r="LQ69" s="62"/>
+      <c r="LR69" s="62"/>
+      <c r="LS69" s="62"/>
+      <c r="LT69" s="62"/>
+      <c r="LU69" s="62"/>
+      <c r="LV69" s="62"/>
+      <c r="LW69" s="62"/>
+      <c r="LX69" s="62"/>
+      <c r="LY69" s="62"/>
+      <c r="LZ69" s="62"/>
+      <c r="MA69" s="62"/>
+      <c r="MB69" s="62"/>
+      <c r="MC69" s="62"/>
+      <c r="MD69" s="62"/>
+      <c r="ME69" s="62"/>
+      <c r="MF69" s="62"/>
+      <c r="MG69" s="62"/>
+      <c r="MH69" s="62"/>
+      <c r="MI69" s="62"/>
+      <c r="MJ69" s="62"/>
+      <c r="MK69" s="62"/>
+      <c r="ML69" s="62"/>
+      <c r="MM69" s="62"/>
+      <c r="MN69" s="62"/>
+      <c r="MO69" s="62"/>
+      <c r="MP69" s="62"/>
+      <c r="MQ69" s="62"/>
+      <c r="MR69" s="62"/>
+      <c r="MS69" s="62"/>
+      <c r="MT69" s="62"/>
+      <c r="MU69" s="62"/>
+      <c r="MV69" s="62"/>
+      <c r="MW69" s="62"/>
+      <c r="MX69" s="62"/>
+      <c r="MY69" s="62"/>
+      <c r="MZ69" s="62"/>
+      <c r="NA69" s="62"/>
+      <c r="NB69" s="62"/>
+      <c r="NC69" s="62"/>
+      <c r="ND69" s="62"/>
+      <c r="NE69" s="62"/>
+      <c r="NF69" s="62"/>
+      <c r="NG69" s="62"/>
+      <c r="NH69" s="62"/>
+      <c r="NI69" s="62"/>
+      <c r="NJ69" s="62"/>
+      <c r="NK69" s="62"/>
+      <c r="NL69" s="62"/>
+      <c r="NM69" s="62"/>
+      <c r="NN69" s="62"/>
+      <c r="NO69" s="62"/>
+      <c r="NP69" s="62"/>
+      <c r="NQ69" s="62"/>
+      <c r="NR69" s="62"/>
+      <c r="NS69" s="62"/>
+      <c r="NT69" s="62"/>
+      <c r="NU69" s="62"/>
+      <c r="NV69" s="62"/>
+      <c r="NW69" s="62"/>
+      <c r="NX69" s="62"/>
+      <c r="NY69" s="62"/>
+      <c r="NZ69" s="62"/>
+      <c r="OA69" s="62"/>
+      <c r="OB69" s="62"/>
+      <c r="OC69" s="62"/>
+      <c r="OD69" s="62"/>
+      <c r="OE69" s="62"/>
+      <c r="OF69" s="62"/>
+      <c r="OG69" s="62"/>
+      <c r="OH69" s="62"/>
+      <c r="OI69" s="62"/>
+      <c r="OJ69" s="62"/>
+      <c r="OK69" s="62"/>
+      <c r="OL69" s="62"/>
+      <c r="OM69" s="62"/>
+      <c r="ON69" s="62"/>
+      <c r="OO69" s="62"/>
+      <c r="OP69" s="62"/>
+      <c r="OQ69" s="62"/>
+      <c r="OR69" s="62"/>
+      <c r="OS69" s="62"/>
+      <c r="OT69" s="62"/>
+      <c r="OU69" s="62"/>
+      <c r="OV69" s="62"/>
+      <c r="OW69" s="62"/>
+      <c r="OX69" s="62"/>
+      <c r="OY69" s="62"/>
+      <c r="OZ69" s="62"/>
+      <c r="PA69" s="62"/>
+      <c r="PB69" s="62"/>
+      <c r="PC69" s="62"/>
+      <c r="PD69" s="62"/>
+      <c r="PE69" s="62"/>
+      <c r="PF69" s="62"/>
+      <c r="PG69" s="62"/>
+      <c r="PH69" s="62"/>
+      <c r="PI69" s="62"/>
+      <c r="PJ69" s="62"/>
+      <c r="PK69" s="62"/>
+      <c r="PL69" s="62"/>
+      <c r="PM69" s="62"/>
+      <c r="PN69" s="62"/>
+      <c r="PO69" s="62"/>
+      <c r="PP69" s="62"/>
+      <c r="PQ69" s="62"/>
+      <c r="PR69" s="62"/>
+      <c r="PS69" s="62"/>
+      <c r="PT69" s="62"/>
+      <c r="PU69" s="62"/>
+      <c r="PV69" s="62"/>
+      <c r="PW69" s="62"/>
+      <c r="PX69" s="62"/>
+      <c r="PY69" s="62"/>
+      <c r="PZ69" s="62"/>
+      <c r="QA69" s="62"/>
+      <c r="QB69" s="62"/>
+      <c r="QC69" s="62"/>
+      <c r="QD69" s="62"/>
+      <c r="QE69" s="62"/>
+      <c r="QF69" s="62"/>
+      <c r="QG69" s="62"/>
+      <c r="QH69" s="62"/>
+      <c r="QI69" s="62"/>
+      <c r="QJ69" s="62"/>
+      <c r="QK69" s="62"/>
+      <c r="QL69" s="62"/>
+      <c r="QM69" s="62"/>
+      <c r="QN69" s="62"/>
+      <c r="QO69" s="62"/>
+      <c r="QP69" s="62"/>
+      <c r="QQ69" s="62"/>
+      <c r="QR69" s="62"/>
+      <c r="QS69" s="62"/>
+      <c r="QT69" s="62"/>
+      <c r="QU69" s="62"/>
+      <c r="QV69" s="62"/>
+      <c r="QW69" s="62"/>
+      <c r="QX69" s="62"/>
+      <c r="QY69" s="62"/>
+      <c r="QZ69" s="62"/>
+      <c r="RA69" s="62"/>
+      <c r="RB69" s="62"/>
+      <c r="RC69" s="62"/>
+      <c r="RD69" s="62"/>
+      <c r="RE69" s="62"/>
+      <c r="RF69" s="62"/>
+      <c r="RG69" s="62"/>
+      <c r="RH69" s="62"/>
+      <c r="RI69" s="62"/>
+      <c r="RJ69" s="62"/>
+      <c r="RK69" s="62"/>
+      <c r="RL69" s="62"/>
+      <c r="RM69" s="62"/>
+      <c r="RN69" s="62"/>
+      <c r="RO69" s="62"/>
+      <c r="RP69" s="62"/>
+      <c r="RQ69" s="62"/>
+      <c r="RR69" s="62"/>
+      <c r="RS69" s="62"/>
+      <c r="RT69" s="62"/>
+      <c r="RU69" s="62"/>
+      <c r="RV69" s="62"/>
+      <c r="RW69" s="62"/>
+      <c r="RX69" s="62"/>
+      <c r="RY69" s="62"/>
+      <c r="RZ69" s="62"/>
+      <c r="SA69" s="62"/>
+      <c r="SB69" s="62"/>
+      <c r="SC69" s="62"/>
+      <c r="SD69" s="62"/>
+      <c r="SE69" s="62"/>
+      <c r="SF69" s="62"/>
+      <c r="SG69" s="62"/>
+      <c r="SH69" s="62"/>
+      <c r="SI69" s="62"/>
+      <c r="SJ69" s="62"/>
+      <c r="SK69" s="62"/>
+      <c r="SL69" s="62"/>
+      <c r="SM69" s="62"/>
+      <c r="SN69" s="62"/>
+      <c r="SO69" s="62"/>
+      <c r="SP69" s="62"/>
+      <c r="SQ69" s="62"/>
+      <c r="SR69" s="62"/>
+      <c r="SS69" s="62"/>
+      <c r="ST69" s="62"/>
+      <c r="SU69" s="62"/>
+      <c r="SV69" s="62"/>
+      <c r="SW69" s="62"/>
+      <c r="SX69" s="62"/>
+      <c r="SY69" s="62"/>
+      <c r="SZ69" s="62"/>
+      <c r="TA69" s="62"/>
+      <c r="TB69" s="62"/>
+      <c r="TC69" s="62"/>
+      <c r="TD69" s="62"/>
+      <c r="TE69" s="62"/>
+      <c r="TF69" s="62"/>
+      <c r="TG69" s="62"/>
+      <c r="TH69" s="62"/>
+      <c r="TI69" s="62"/>
+      <c r="TJ69" s="62"/>
+      <c r="TK69" s="62"/>
+      <c r="TL69" s="62"/>
+      <c r="TM69" s="62"/>
+      <c r="TN69" s="62"/>
+      <c r="TO69" s="62"/>
+      <c r="TP69" s="62"/>
+      <c r="TQ69" s="62"/>
+      <c r="TR69" s="62"/>
+      <c r="TS69" s="62"/>
+      <c r="TT69" s="62"/>
+      <c r="TU69" s="62"/>
+      <c r="TV69" s="62"/>
+      <c r="TW69" s="62"/>
+      <c r="TX69" s="62"/>
+      <c r="TY69" s="62"/>
+      <c r="TZ69" s="62"/>
+      <c r="UA69" s="62"/>
+      <c r="UB69" s="62"/>
+      <c r="UC69" s="62"/>
+      <c r="UD69" s="62"/>
+      <c r="UE69" s="62"/>
+      <c r="UF69" s="62"/>
+      <c r="UG69" s="62"/>
+      <c r="UH69" s="62"/>
+      <c r="UI69" s="62"/>
+      <c r="UJ69" s="62"/>
+      <c r="UK69" s="62"/>
+      <c r="UL69" s="62"/>
+      <c r="UM69" s="62"/>
+      <c r="UN69" s="62"/>
+      <c r="UO69" s="62"/>
+      <c r="UP69" s="62"/>
+      <c r="UQ69" s="62"/>
+      <c r="UR69" s="62"/>
+      <c r="US69" s="62"/>
+      <c r="UT69" s="62"/>
+      <c r="UU69" s="62"/>
+      <c r="UV69" s="62"/>
+      <c r="UW69" s="62"/>
+      <c r="UX69" s="62"/>
+      <c r="UY69" s="62"/>
+      <c r="UZ69" s="62"/>
+      <c r="VA69" s="62"/>
+      <c r="VB69" s="62"/>
+      <c r="VC69" s="62"/>
+      <c r="VD69" s="62"/>
+      <c r="VE69" s="62"/>
+      <c r="VF69" s="62"/>
+      <c r="VG69" s="62"/>
+      <c r="VH69" s="62"/>
+      <c r="VI69" s="62"/>
+      <c r="VJ69" s="62"/>
+      <c r="VK69" s="62"/>
+      <c r="VL69" s="62"/>
+      <c r="VM69" s="62"/>
+      <c r="VN69" s="62"/>
+      <c r="VO69" s="62"/>
+      <c r="VP69" s="62"/>
+      <c r="VQ69" s="62"/>
+      <c r="VR69" s="62"/>
+      <c r="VS69" s="62"/>
+      <c r="VT69" s="62"/>
+      <c r="VU69" s="62"/>
+      <c r="VV69" s="62"/>
+      <c r="VW69" s="62"/>
+      <c r="VX69" s="62"/>
+      <c r="VY69" s="62"/>
+      <c r="VZ69" s="62"/>
+      <c r="WA69" s="62"/>
+      <c r="WB69" s="62"/>
+      <c r="WC69" s="62"/>
+      <c r="WD69" s="62"/>
+      <c r="WE69" s="62"/>
+      <c r="WF69" s="62"/>
+      <c r="WG69" s="62"/>
+      <c r="WH69" s="62"/>
+      <c r="WI69" s="62"/>
+      <c r="WJ69" s="62"/>
+      <c r="WK69" s="62"/>
+      <c r="WL69" s="62"/>
+      <c r="WM69" s="62"/>
+      <c r="WN69" s="62"/>
+      <c r="WO69" s="62"/>
+      <c r="WP69" s="62"/>
+      <c r="WQ69" s="62"/>
+      <c r="WR69" s="62"/>
+      <c r="WS69" s="62"/>
+      <c r="WT69" s="62"/>
+      <c r="WU69" s="62"/>
+      <c r="WV69" s="62"/>
+      <c r="WW69" s="62"/>
+      <c r="WX69" s="62"/>
+      <c r="WY69" s="62"/>
+      <c r="WZ69" s="62"/>
+      <c r="XA69" s="62"/>
+      <c r="XB69" s="62"/>
+      <c r="XC69" s="62"/>
+      <c r="XD69" s="62"/>
+      <c r="XE69" s="62"/>
+      <c r="XF69" s="62"/>
+      <c r="XG69" s="62"/>
+      <c r="XH69" s="62"/>
+      <c r="XI69" s="62"/>
+      <c r="XJ69" s="62"/>
+      <c r="XK69" s="62"/>
+      <c r="XL69" s="62"/>
+      <c r="XM69" s="62"/>
+      <c r="XN69" s="62"/>
+      <c r="XO69" s="62"/>
+      <c r="XP69" s="62"/>
+      <c r="XQ69" s="62"/>
+      <c r="XR69" s="62"/>
+      <c r="XS69" s="62"/>
+      <c r="XT69" s="62"/>
+      <c r="XU69" s="62"/>
+      <c r="XV69" s="62"/>
+      <c r="XW69" s="62"/>
+      <c r="XX69" s="62"/>
+      <c r="XY69" s="62"/>
+      <c r="XZ69" s="62"/>
+      <c r="YA69" s="62"/>
+      <c r="YB69" s="62"/>
+      <c r="YC69" s="62"/>
+      <c r="YD69" s="62"/>
+      <c r="YE69" s="62"/>
+      <c r="YF69" s="62"/>
+      <c r="YG69" s="62"/>
+      <c r="YH69" s="62"/>
+      <c r="YI69" s="62"/>
+      <c r="YJ69" s="62"/>
+      <c r="YK69" s="62"/>
+      <c r="YL69" s="62"/>
+      <c r="YM69" s="62"/>
+      <c r="YN69" s="62"/>
+      <c r="YO69" s="62"/>
+      <c r="YP69" s="62"/>
+      <c r="YQ69" s="62"/>
+      <c r="YR69" s="62"/>
+      <c r="YS69" s="62"/>
+      <c r="YT69" s="62"/>
+      <c r="YU69" s="62"/>
+      <c r="YV69" s="62"/>
+      <c r="YW69" s="62"/>
+      <c r="YX69" s="62"/>
+      <c r="YY69" s="62"/>
+      <c r="YZ69" s="62"/>
+      <c r="ZA69" s="62"/>
+      <c r="ZB69" s="62"/>
+      <c r="ZC69" s="62"/>
+      <c r="ZD69" s="62"/>
+      <c r="ZE69" s="62"/>
+      <c r="ZF69" s="62"/>
+      <c r="ZG69" s="62"/>
+      <c r="ZH69" s="62"/>
+      <c r="ZI69" s="62"/>
+      <c r="ZJ69" s="62"/>
+      <c r="ZK69" s="62"/>
+      <c r="ZL69" s="62"/>
+      <c r="ZM69" s="62"/>
+      <c r="ZN69" s="62"/>
+      <c r="ZO69" s="62"/>
+      <c r="ZP69" s="62"/>
+      <c r="ZQ69" s="62"/>
+      <c r="ZR69" s="62"/>
+      <c r="ZS69" s="62"/>
+      <c r="ZT69" s="62"/>
+      <c r="ZU69" s="62"/>
+      <c r="ZV69" s="62"/>
+      <c r="ZW69" s="62"/>
+      <c r="ZX69" s="62"/>
+      <c r="ZY69" s="62"/>
+      <c r="ZZ69" s="62"/>
+      <c r="AAA69" s="62"/>
+      <c r="AAB69" s="62"/>
+      <c r="AAC69" s="62"/>
+      <c r="AAD69" s="62"/>
+      <c r="AAE69" s="62"/>
+      <c r="AAF69" s="62"/>
+      <c r="AAG69" s="62"/>
+      <c r="AAH69" s="62"/>
+      <c r="AAI69" s="62"/>
+      <c r="AAJ69" s="62"/>
+      <c r="AAK69" s="62"/>
+      <c r="AAL69" s="62"/>
+      <c r="AAM69" s="62"/>
+      <c r="AAN69" s="62"/>
+      <c r="AAO69" s="62"/>
+      <c r="AAP69" s="62"/>
+      <c r="AAQ69" s="62"/>
+      <c r="AAR69" s="62"/>
+      <c r="AAS69" s="62"/>
+      <c r="AAT69" s="62"/>
+      <c r="AAU69" s="62"/>
+      <c r="AAV69" s="62"/>
+      <c r="AAW69" s="62"/>
+      <c r="AAX69" s="62"/>
+      <c r="AAY69" s="62"/>
+      <c r="AAZ69" s="62"/>
+      <c r="ABA69" s="62"/>
+      <c r="ABB69" s="62"/>
+      <c r="ABC69" s="62"/>
+      <c r="ABD69" s="62"/>
+      <c r="ABE69" s="62"/>
+      <c r="ABF69" s="62"/>
+      <c r="ABG69" s="62"/>
+      <c r="ABH69" s="62"/>
+      <c r="ABI69" s="62"/>
+      <c r="ABJ69" s="62"/>
+      <c r="ABK69" s="62"/>
+      <c r="ABL69" s="62"/>
+      <c r="ABM69" s="62"/>
+      <c r="ABN69" s="62"/>
+      <c r="ABO69" s="62"/>
+      <c r="ABP69" s="62"/>
+      <c r="ABQ69" s="62"/>
+      <c r="ABR69" s="62"/>
+      <c r="ABS69" s="62"/>
+      <c r="ABT69" s="62"/>
+      <c r="ABU69" s="62"/>
+      <c r="ABV69" s="62"/>
+      <c r="ABW69" s="62"/>
+      <c r="ABX69" s="62"/>
+      <c r="ABY69" s="62"/>
+      <c r="ABZ69" s="62"/>
+      <c r="ACA69" s="62"/>
+      <c r="ACB69" s="62"/>
+      <c r="ACC69" s="62"/>
+      <c r="ACD69" s="62"/>
+      <c r="ACE69" s="62"/>
+      <c r="ACF69" s="62"/>
+      <c r="ACG69" s="62"/>
+      <c r="ACH69" s="62"/>
+      <c r="ACI69" s="62"/>
+      <c r="ACJ69" s="62"/>
+      <c r="ACK69" s="62"/>
+      <c r="ACL69" s="62"/>
+      <c r="ACM69" s="62"/>
+      <c r="ACN69" s="62"/>
+      <c r="ACO69" s="62"/>
+      <c r="ACP69" s="62"/>
+      <c r="ACQ69" s="62"/>
+      <c r="ACR69" s="62"/>
+      <c r="ACS69" s="62"/>
+      <c r="ACT69" s="62"/>
+      <c r="ACU69" s="62"/>
+      <c r="ACV69" s="62"/>
+      <c r="ACW69" s="62"/>
+      <c r="ACX69" s="62"/>
+      <c r="ACY69" s="62"/>
+      <c r="ACZ69" s="62"/>
+      <c r="ADA69" s="62"/>
+      <c r="ADB69" s="62"/>
+      <c r="ADC69" s="62"/>
+      <c r="ADD69" s="62"/>
+      <c r="ADE69" s="62"/>
+      <c r="ADF69" s="62"/>
+      <c r="ADG69" s="62"/>
+      <c r="ADH69" s="62"/>
+      <c r="ADI69" s="62"/>
+      <c r="ADJ69" s="62"/>
+      <c r="ADK69" s="62"/>
+      <c r="ADL69" s="62"/>
+      <c r="ADM69" s="62"/>
+      <c r="ADN69" s="62"/>
+      <c r="ADO69" s="62"/>
+      <c r="ADP69" s="62"/>
+      <c r="ADQ69" s="62"/>
+      <c r="ADR69" s="62"/>
+      <c r="ADS69" s="62"/>
+      <c r="ADT69" s="62"/>
+      <c r="ADU69" s="62"/>
+      <c r="ADV69" s="62"/>
+      <c r="ADW69" s="62"/>
+      <c r="ADX69" s="62"/>
+      <c r="ADY69" s="62"/>
+      <c r="ADZ69" s="62"/>
+      <c r="AEA69" s="62"/>
+      <c r="AEB69" s="62"/>
+      <c r="AEC69" s="62"/>
+      <c r="AED69" s="62"/>
+      <c r="AEE69" s="62"/>
+      <c r="AEF69" s="62"/>
+      <c r="AEG69" s="62"/>
+      <c r="AEH69" s="62"/>
+      <c r="AEI69" s="62"/>
+      <c r="AEJ69" s="62"/>
+      <c r="AEK69" s="62"/>
+      <c r="AEL69" s="62"/>
+      <c r="AEM69" s="62"/>
+      <c r="AEN69" s="62"/>
+      <c r="AEO69" s="62"/>
+      <c r="AEP69" s="62"/>
+      <c r="AEQ69" s="62"/>
+      <c r="AER69" s="62"/>
+      <c r="AES69" s="62"/>
+      <c r="AET69" s="62"/>
+      <c r="AEU69" s="62"/>
+      <c r="AEV69" s="62"/>
+      <c r="AEW69" s="62"/>
+      <c r="AEX69" s="62"/>
+      <c r="AEY69" s="62"/>
+      <c r="AEZ69" s="62"/>
+      <c r="AFA69" s="62"/>
+      <c r="AFB69" s="62"/>
+      <c r="AFC69" s="62"/>
+      <c r="AFD69" s="62"/>
+      <c r="AFE69" s="62"/>
+      <c r="AFF69" s="62"/>
+      <c r="AFG69" s="62"/>
+      <c r="AFH69" s="62"/>
+      <c r="AFI69" s="62"/>
+      <c r="AFJ69" s="62"/>
+      <c r="AFK69" s="62"/>
+      <c r="AFL69" s="62"/>
+      <c r="AFM69" s="62"/>
+      <c r="AFN69" s="62"/>
+      <c r="AFO69" s="62"/>
+      <c r="AFP69" s="62"/>
+      <c r="AFQ69" s="62"/>
+      <c r="AFR69" s="62"/>
+      <c r="AFS69" s="62"/>
+      <c r="AFT69" s="62"/>
+      <c r="AFU69" s="62"/>
+      <c r="AFV69" s="62"/>
+      <c r="AFW69" s="62"/>
+      <c r="AFX69" s="62"/>
+      <c r="AFY69" s="62"/>
+      <c r="AFZ69" s="62"/>
+      <c r="AGA69" s="62"/>
+      <c r="AGB69" s="62"/>
+      <c r="AGC69" s="62"/>
+      <c r="AGD69" s="62"/>
+      <c r="AGE69" s="62"/>
+      <c r="AGF69" s="62"/>
+      <c r="AGG69" s="62"/>
+      <c r="AGH69" s="62"/>
+      <c r="AGI69" s="62"/>
+      <c r="AGJ69" s="62"/>
+      <c r="AGK69" s="62"/>
+      <c r="AGL69" s="62"/>
+      <c r="AGM69" s="62"/>
+      <c r="AGN69" s="62"/>
+      <c r="AGO69" s="62"/>
+      <c r="AGP69" s="62"/>
+      <c r="AGQ69" s="62"/>
+      <c r="AGR69" s="62"/>
+      <c r="AGS69" s="62"/>
+      <c r="AGT69" s="62"/>
+      <c r="AGU69" s="62"/>
+      <c r="AGV69" s="62"/>
+      <c r="AGW69" s="62"/>
+      <c r="AGX69" s="62"/>
+      <c r="AGY69" s="62"/>
+      <c r="AGZ69" s="62"/>
+      <c r="AHA69" s="62"/>
+      <c r="AHB69" s="62"/>
+      <c r="AHC69" s="62"/>
+      <c r="AHD69" s="62"/>
+      <c r="AHE69" s="62"/>
+      <c r="AHF69" s="62"/>
+      <c r="AHG69" s="62"/>
+      <c r="AHH69" s="62"/>
+      <c r="AHI69" s="62"/>
+      <c r="AHJ69" s="62"/>
+      <c r="AHK69" s="62"/>
+      <c r="AHL69" s="62"/>
+      <c r="AHM69" s="62"/>
+      <c r="AHN69" s="62"/>
+      <c r="AHO69" s="62"/>
+      <c r="AHP69" s="62"/>
+      <c r="AHQ69" s="62"/>
+      <c r="AHR69" s="62"/>
+      <c r="AHS69" s="62"/>
+      <c r="AHT69" s="62"/>
+      <c r="AHU69" s="62"/>
+      <c r="AHV69" s="62"/>
+      <c r="AHW69" s="62"/>
+      <c r="AHX69" s="62"/>
+      <c r="AHY69" s="62"/>
+      <c r="AHZ69" s="62"/>
+      <c r="AIA69" s="62"/>
+      <c r="AIB69" s="62"/>
+      <c r="AIC69" s="62"/>
+      <c r="AID69" s="62"/>
+      <c r="AIE69" s="62"/>
+      <c r="AIF69" s="62"/>
+      <c r="AIG69" s="62"/>
+      <c r="AIH69" s="62"/>
+      <c r="AII69" s="62"/>
+      <c r="AIJ69" s="62"/>
+      <c r="AIK69" s="62"/>
+      <c r="AIL69" s="62"/>
+      <c r="AIM69" s="62"/>
+      <c r="AIN69" s="62"/>
+      <c r="AIO69" s="62"/>
+      <c r="AIP69" s="62"/>
+      <c r="AIQ69" s="62"/>
+      <c r="AIR69" s="62"/>
+      <c r="AIS69" s="62"/>
+      <c r="AIT69" s="62"/>
+      <c r="AIU69" s="62"/>
+      <c r="AIV69" s="62"/>
+      <c r="AIW69" s="62"/>
+      <c r="AIX69" s="62"/>
+      <c r="AIY69" s="62"/>
+      <c r="AIZ69" s="62"/>
+      <c r="AJA69" s="62"/>
+      <c r="AJB69" s="62"/>
+      <c r="AJC69" s="62"/>
+      <c r="AJD69" s="62"/>
+      <c r="AJE69" s="62"/>
+      <c r="AJF69" s="62"/>
+      <c r="AJG69" s="62"/>
+      <c r="AJH69" s="62"/>
+      <c r="AJI69" s="62"/>
+      <c r="AJJ69" s="62"/>
+      <c r="AJK69" s="62"/>
+      <c r="AJL69" s="62"/>
+      <c r="AJM69" s="62"/>
+      <c r="AJN69" s="62"/>
+      <c r="AJO69" s="62"/>
+      <c r="AJP69" s="62"/>
+      <c r="AJQ69" s="62"/>
+      <c r="AJR69" s="62"/>
+      <c r="AJS69" s="62"/>
+      <c r="AJT69" s="62"/>
+      <c r="AJU69" s="62"/>
+      <c r="AJV69" s="62"/>
+      <c r="AJW69" s="62"/>
+      <c r="AJX69" s="62"/>
+      <c r="AJY69" s="62"/>
+      <c r="AJZ69" s="62"/>
+      <c r="AKA69" s="62"/>
+      <c r="AKB69" s="62"/>
+      <c r="AKC69" s="62"/>
+      <c r="AKD69" s="62"/>
+      <c r="AKE69" s="62"/>
+      <c r="AKF69" s="62"/>
+      <c r="AKG69" s="62"/>
+      <c r="AKH69" s="62"/>
+      <c r="AKI69" s="62"/>
+      <c r="AKJ69" s="62"/>
+      <c r="AKK69" s="62"/>
+      <c r="AKL69" s="62"/>
+      <c r="AKM69" s="62"/>
+      <c r="AKN69" s="62"/>
+      <c r="AKO69" s="62"/>
+      <c r="AKP69" s="62"/>
+      <c r="AKQ69" s="62"/>
+      <c r="AKR69" s="62"/>
+      <c r="AKS69" s="62"/>
+      <c r="AKT69" s="62"/>
+      <c r="AKU69" s="62"/>
+      <c r="AKV69" s="62"/>
+      <c r="AKW69" s="62"/>
+      <c r="AKX69" s="62"/>
+      <c r="AKY69" s="62"/>
+      <c r="AKZ69" s="62"/>
+      <c r="ALA69" s="62"/>
+      <c r="ALB69" s="62"/>
+      <c r="ALC69" s="62"/>
+      <c r="ALD69" s="62"/>
+      <c r="ALE69" s="62"/>
+      <c r="ALF69" s="62"/>
+      <c r="ALG69" s="62"/>
+      <c r="ALH69" s="62"/>
+      <c r="ALI69" s="62"/>
+      <c r="ALJ69" s="62"/>
+      <c r="ALK69" s="62"/>
+      <c r="ALL69" s="62"/>
+      <c r="ALM69" s="62"/>
+      <c r="ALN69" s="62"/>
+      <c r="ALO69" s="62"/>
+      <c r="ALP69" s="62"/>
+      <c r="ALQ69" s="62"/>
+      <c r="ALR69" s="62"/>
+      <c r="ALS69" s="62"/>
+      <c r="ALT69" s="62"/>
+      <c r="ALU69" s="62"/>
+      <c r="ALV69" s="62"/>
+      <c r="ALW69" s="62"/>
+      <c r="ALX69" s="62"/>
+      <c r="ALY69" s="62"/>
+      <c r="ALZ69" s="62"/>
+      <c r="AMA69" s="62"/>
+      <c r="AMB69" s="62"/>
+      <c r="AMC69" s="62"/>
+      <c r="AMD69" s="62"/>
+      <c r="AME69" s="62"/>
+      <c r="AMF69" s="62"/>
+      <c r="AMG69" s="62"/>
+      <c r="AMH69" s="62"/>
+      <c r="AMI69" s="62"/>
+      <c r="AMJ69" s="62"/>
+      <c r="AMK69" s="62"/>
+      <c r="AML69" s="62"/>
     </row>
     <row r="70" ht="12.75">
       <c r="A70" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="66" t="s">
+      <c r="C70" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="E70" s="72" t="s">
         <v>398</v>
       </c>
-      <c r="E70" s="72" t="s">
+      <c r="F70" s="72" t="s">
         <v>399</v>
-      </c>
-      <c r="F70" s="72" t="s">
-        <v>400</v>
       </c>
       <c r="L70" t="s">
         <v>134</v>
       </c>
       <c r="M70" t="s">
-        <v>401</v>
-      </c>
-      <c r="X70" s="65"/>
+        <v>400</v>
+      </c>
+      <c r="X70" s="64"/>
     </row>
     <row r="71" ht="12.75">
       <c r="A71" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="66" t="s">
+      <c r="C71" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="E71" s="72" t="s">
         <v>403</v>
       </c>
-      <c r="E71" s="72" t="s">
+      <c r="F71" s="72" t="s">
         <v>404</v>
-      </c>
-      <c r="F71" s="72" t="s">
-        <v>405</v>
       </c>
       <c r="L71" t="s">
         <v>134</v>
       </c>
-      <c r="M71" s="38" t="s">
-        <v>401</v>
-      </c>
-      <c r="X71" s="65"/>
+      <c r="M71" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="X71" s="64"/>
     </row>
     <row r="72" ht="12.75">
-      <c r="E72" s="39"/>
+      <c r="E72" s="38"/>
     </row>
     <row r="73" ht="12.75"/>
     <row r="74" ht="12.75">
       <c r="B74" s="12"/>
-      <c r="E74" s="39"/>
+      <c r="E74" s="38"/>
     </row>
     <row r="75" ht="12.75">
       <c r="B75" s="12"/>
@@ -8309,121 +8306,121 @@
     </row>
     <row r="78" ht="12.75">
       <c r="B78" s="12"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="42"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="41"/>
       <c r="V78" s="12"/>
       <c r="W78" s="12"/>
     </row>
     <row r="79" ht="12.75">
       <c r="B79" s="12"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="41"/>
-      <c r="K79" s="42"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="41"/>
       <c r="V79" s="12"/>
       <c r="W79" s="12"/>
     </row>
     <row r="80" ht="12.75">
       <c r="B80" s="12"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="41"/>
-      <c r="K80" s="42"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="41"/>
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
     </row>
     <row r="81" ht="12.75">
       <c r="B81" s="12"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="41"/>
-      <c r="K81" s="42"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="41"/>
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
     </row>
     <row r="82" ht="12.75">
       <c r="B82" s="12"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="42"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="41"/>
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
     </row>
     <row r="83" ht="12.75">
       <c r="B83" s="12"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="41"/>
-      <c r="K83" s="42"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="41"/>
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
     </row>
     <row r="84" ht="12.75">
       <c r="B84" s="12"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="41"/>
-      <c r="K84" s="42"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="41"/>
       <c r="V84" s="12"/>
       <c r="W84" s="12"/>
     </row>
     <row r="85" ht="12.75">
       <c r="B85" s="12"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="41"/>
-      <c r="K85" s="42"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="41"/>
       <c r="V85" s="12"/>
       <c r="W85" s="12"/>
     </row>
     <row r="86" ht="12.75">
       <c r="B86" s="12"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
-      <c r="K86" s="42"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="41"/>
       <c r="V86" s="12"/>
       <c r="W86" s="12"/>
     </row>
     <row r="87" ht="12.75">
       <c r="B87" s="12"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="41"/>
-      <c r="K87" s="42"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="41"/>
       <c r="V87" s="12"/>
       <c r="W87" s="12"/>
     </row>
@@ -8571,85 +8568,85 @@
     </row>
     <row r="3" ht="89.25">
       <c r="A3" s="77" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="C3" s="78" t="s">
         <v>407</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="E3" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="F3" s="77" t="s">
         <v>410</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>411</v>
       </c>
       <c r="G3" s="76"/>
       <c r="H3" s="76"/>
       <c r="I3" s="76"/>
     </row>
     <row r="4">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="60" t="s">
+        <v>411</v>
+      </c>
+      <c r="D4" s="60" t="s">
         <v>412</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="E4" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="F4" s="60" t="s">
         <v>414</v>
       </c>
-      <c r="F4" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>412</v>
+      <c r="G4" s="60" t="s">
+        <v>411</v>
       </c>
       <c r="H4" s="79"/>
       <c r="I4" s="79"/>
     </row>
     <row r="5" ht="409.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>416</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>417</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" ht="178.5">
       <c r="A6" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" ht="266.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D7" s="12"/>
     </row>
@@ -8658,22 +8655,22 @@
         <v>273</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" ht="114.75">
       <c r="A9" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D9" s="12"/>
     </row>
@@ -8711,40 +8708,40 @@
       <c r="C1" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="47"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="82"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" s="83" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="83" t="s">
-        <v>423</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4">
       <c r="A4" s="84" t="s">
@@ -8754,7 +8751,7 @@
         <v>55</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D4" s="84"/>
       <c r="E4" s="84"/>
@@ -8817,30 +8814,30 @@
     </row>
     <row r="4" ht="63.75">
       <c r="A4" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>425</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="C4" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" s="77" t="s">
         <v>426</v>
       </c>
-      <c r="C4" s="78" t="s">
-        <v>408</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>427</v>
-      </c>
       <c r="E4" s="76"/>
     </row>
     <row r="5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="61" t="s">
-        <v>412</v>
-      </c>
-      <c r="D5" s="61" t="s">
+      <c r="C5" s="60" t="s">
+        <v>411</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="79"/>
@@ -8870,405 +8867,405 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="86" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" s="86" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="C1" s="86" t="s">
         <v>429</v>
       </c>
-      <c r="C1" s="86" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="64" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="65" t="s">
+      <c r="B2" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>431</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>436</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="64" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>438</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="64" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="64" t="s">
         <v>441</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="64" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="64" t="s">
         <v>444</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="64" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>446</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>449</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="64" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="64" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="65" t="s">
-        <v>396</v>
-      </c>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="64" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="B12" s="65" t="s">
+      <c r="A12" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="64" t="s">
         <v>459</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="64" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="64" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="64" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="64" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="64" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="64" t="s">
         <v>470</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="64" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="64" t="s">
         <v>472</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="64" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="64" t="s">
         <v>474</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="64" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="64" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64" t="s">
         <v>478</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="64" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65" t="s">
+      <c r="A23" s="64"/>
+      <c r="B23" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="64" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="64" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="64"/>
+      <c r="B25" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="64" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="64"/>
+      <c r="B26" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="64" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64" t="s">
         <v>488</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="64"/>
     </row>
     <row r="28">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65" t="s">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64" t="s">
         <v>489</v>
       </c>
-      <c r="C28" s="65"/>
+      <c r="C28" s="64"/>
     </row>
     <row r="29">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="64" t="s">
         <v>490</v>
       </c>
-      <c r="C29" s="65"/>
+      <c r="C29" s="64"/>
     </row>
     <row r="30">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65" t="s">
+      <c r="A30" s="64"/>
+      <c r="B30" s="64" t="s">
         <v>491</v>
       </c>
-      <c r="C30" s="65"/>
+      <c r="C30" s="64"/>
     </row>
     <row r="31">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="C31" s="65"/>
+      <c r="C31" s="64"/>
     </row>
     <row r="32">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65" t="s">
+      <c r="A32" s="64"/>
+      <c r="B32" s="64" t="s">
         <v>493</v>
       </c>
-      <c r="C32" s="65"/>
+      <c r="C32" s="64"/>
     </row>
     <row r="33">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65" t="s">
+      <c r="A33" s="64"/>
+      <c r="B33" s="64" t="s">
         <v>494</v>
       </c>
-      <c r="C33" s="65"/>
+      <c r="C33" s="64"/>
     </row>
     <row r="34">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65" t="s">
+      <c r="A34" s="64"/>
+      <c r="B34" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="C34" s="65"/>
+      <c r="C34" s="64"/>
     </row>
     <row r="35">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65" t="s">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="C35" s="65"/>
+      <c r="C35" s="64"/>
     </row>
     <row r="36">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65" t="s">
+      <c r="A36" s="64"/>
+      <c r="B36" s="64" t="s">
         <v>497</v>
       </c>
-      <c r="C36" s="65"/>
+      <c r="C36" s="64"/>
     </row>
     <row r="37">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="64" t="s">
         <v>498</v>
       </c>
-      <c r="C37" s="65"/>
+      <c r="C37" s="64"/>
     </row>
     <row r="38">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65" t="s">
+      <c r="A38" s="64"/>
+      <c r="B38" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="C38" s="65"/>
+      <c r="C38" s="64"/>
     </row>
     <row r="39">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="64" t="s">
         <v>500</v>
       </c>
-      <c r="C39" s="65"/>
+      <c r="C39" s="64"/>
     </row>
     <row r="40">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="64" t="s">
         <v>501</v>
       </c>
-      <c r="C40" s="65"/>
+      <c r="C40" s="64"/>
     </row>
     <row r="41">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="64" t="s">
         <v>502</v>
       </c>
-      <c r="C41" s="65"/>
+      <c r="C41" s="64"/>
     </row>
     <row r="42">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65" t="s">
+      <c r="A42" s="64"/>
+      <c r="B42" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="C42" s="65"/>
+      <c r="C42" s="64"/>
     </row>
     <row r="43">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65" t="s">
+      <c r="A43" s="64"/>
+      <c r="B43" s="64" t="s">
         <v>504</v>
       </c>
-      <c r="C43" s="65"/>
+      <c r="C43" s="64"/>
     </row>
     <row r="44">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65" t="s">
+      <c r="A44" s="64"/>
+      <c r="B44" s="64" t="s">
         <v>505</v>
       </c>
-      <c r="C44" s="65"/>
+      <c r="C44" s="64"/>
     </row>
     <row r="45">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65" t="s">
+      <c r="A45" s="64"/>
+      <c r="B45" s="64" t="s">
         <v>506</v>
       </c>
-      <c r="C45" s="65"/>
+      <c r="C45" s="64"/>
     </row>
     <row r="46">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65" t="s">
+      <c r="A46" s="64"/>
+      <c r="B46" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="C46" s="65"/>
+      <c r="C46" s="64"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/demos/demo-SpOTy/sparnatural-config.xlsx
+++ b/demos/demo-SpOTy/sparnatural-config.xlsx
@@ -4632,7 +4632,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A1" zoomScale="95" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A31" zoomScale="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
@@ -8261,6 +8261,9 @@
       <c r="M70" t="s">
         <v>400</v>
       </c>
+      <c r="N70" t="s">
+        <v>128</v>
+      </c>
       <c r="X70" s="64"/>
     </row>
     <row r="71" ht="12.75">
@@ -8284,6 +8287,9 @@
       </c>
       <c r="M71" s="3" t="s">
         <v>400</v>
+      </c>
+      <c r="N71" t="s">
+        <v>128</v>
       </c>
       <c r="X71" s="64"/>
     </row>

--- a/demos/demo-SpOTy/sparnatural-config.xlsx
+++ b/demos/demo-SpOTy/sparnatural-config.xlsx
@@ -4632,7 +4632,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A31" zoomScale="95" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A21" zoomScale="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
@@ -8262,7 +8262,7 @@
         <v>400</v>
       </c>
       <c r="N70" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="X70" s="64"/>
     </row>
@@ -8289,7 +8289,7 @@
         <v>400</v>
       </c>
       <c r="N71" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="X71" s="64"/>
     </row>
@@ -8436,6 +8436,9 @@
     <row r="91" ht="12.75"/>
     <row r="92" ht="12.75"/>
     <row r="93" ht="12.75"/>
+    <row r="101" ht="12.75">
+      <c r="A101"/>
+    </row>
   </sheetData>
   <dataValidations count="25" disablePrompts="0">
     <dataValidation sqref="X9 X10 X11 X12 X13 X14 X15 X16 X17 X18 X19 X20" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">

--- a/demos/demo-SpOTy/sparnatural-config.xlsx
+++ b/demos/demo-SpOTy/sparnatural-config.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="509">
   <si>
     <t>PREFIX</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa-solid fa-location-dot</t>
   </si>
   <si>
     <t>TRUE</t>
@@ -2548,7 +2551,7 @@
     </xf>
     <xf fontId="13" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2649,6 +2652,9 @@
     </xf>
     <xf fontId="4" fillId="6" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="53" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="53" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
@@ -4250,355 +4256,357 @@
         <v>108</v>
       </c>
       <c r="I21" s="12"/>
-      <c r="O21" s="34"/>
+      <c r="O21" s="35" t="s">
+        <v>131</v>
+      </c>
       <c r="Q21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" ht="12.75">
       <c r="I22" s="12"/>
     </row>
-    <row r="23" s="35" customFormat="1" ht="13.5">
-      <c r="A23" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="35" t="s">
+    <row r="23" s="36" customFormat="1" ht="13.5">
+      <c r="A23" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35" t="s">
+      <c r="B23" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="35">
+      <c r="G23" s="36"/>
+      <c r="H23" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="36">
         <v>90</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="O23" s="35" t="s">
+      <c r="J23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="O23" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="AMA23" s="36"/>
+      <c r="AMB23" s="36"/>
+      <c r="AMC23" s="36"/>
+      <c r="AMD23" s="36"/>
+      <c r="AME23" s="36"/>
+    </row>
+    <row r="24" s="36" customFormat="1" ht="13.5">
+      <c r="A24" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="AMA23" s="35"/>
-      <c r="AMB23" s="35"/>
-      <c r="AMC23" s="35"/>
-      <c r="AMD23" s="35"/>
-      <c r="AME23" s="35"/>
-    </row>
-    <row r="24" s="35" customFormat="1" ht="13.5">
-      <c r="A24" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35" t="s">
+      <c r="I24" s="36">
+        <v>90</v>
+      </c>
+      <c r="J24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="O24" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AMA24" s="36"/>
+      <c r="AMB24" s="36"/>
+      <c r="AMC24" s="36"/>
+      <c r="AMD24" s="36"/>
+      <c r="AME24" s="36"/>
+    </row>
+    <row r="25" s="36" customFormat="1" ht="13.5">
+      <c r="A25" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" s="35">
+      <c r="G25" s="36"/>
+      <c r="H25" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="36">
         <v>90</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="O24" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="AMA24" s="35"/>
-      <c r="AMB24" s="35"/>
-      <c r="AMC24" s="35"/>
-      <c r="AMD24" s="35"/>
-      <c r="AME24" s="35"/>
-    </row>
-    <row r="25" s="35" customFormat="1" ht="13.5">
-      <c r="A25" s="35" t="s">
+      <c r="J25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="O25" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35" t="s">
+      <c r="AMA25" s="36"/>
+      <c r="AMB25" s="36"/>
+      <c r="AMC25" s="36"/>
+      <c r="AMD25" s="36"/>
+      <c r="AME25" s="36"/>
+    </row>
+    <row r="26" s="36" customFormat="1" ht="12.75">
+      <c r="A26" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="35">
+      <c r="G26" s="36"/>
+      <c r="H26" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="36">
+        <v>91</v>
+      </c>
+      <c r="J26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="O26" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="AMA26" s="36"/>
+      <c r="AMB26" s="36"/>
+      <c r="AMC26" s="36"/>
+      <c r="AMD26" s="36"/>
+      <c r="AME26" s="36"/>
+    </row>
+    <row r="27" s="36" customFormat="1" ht="12.5">
+      <c r="A27" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="36">
+        <v>91</v>
+      </c>
+      <c r="J27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="O27" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="AMA27" s="36"/>
+      <c r="AMB27" s="36"/>
+      <c r="AMC27" s="36"/>
+      <c r="AMD27" s="36"/>
+      <c r="AME27" s="36"/>
+    </row>
+    <row r="28" s="36" customFormat="1" ht="12.5">
+      <c r="A28" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="36">
+        <v>91</v>
+      </c>
+      <c r="J28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="O28" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="AMA28" s="36"/>
+      <c r="AMB28" s="36"/>
+      <c r="AMC28" s="36"/>
+      <c r="AMD28" s="36"/>
+      <c r="AME28" s="36"/>
+    </row>
+    <row r="29" s="36" customFormat="1" ht="12.75">
+      <c r="A29" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" s="38">
+        <v>92</v>
+      </c>
+      <c r="J29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="O29" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="AMA29" s="36"/>
+      <c r="AMB29" s="36"/>
+      <c r="AMC29" s="36"/>
+      <c r="AMD29" s="36"/>
+      <c r="AME29" s="36"/>
+    </row>
+    <row r="30" s="36" customFormat="1" ht="12.75">
+      <c r="A30" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="38">
+        <v>93</v>
+      </c>
+      <c r="J30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="O30" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="AMA30" s="36"/>
+      <c r="AMB30" s="36"/>
+      <c r="AMC30" s="36"/>
+      <c r="AMD30" s="36"/>
+      <c r="AME30" s="36"/>
+    </row>
+    <row r="31" s="36" customFormat="1" ht="12.5">
+      <c r="A31" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="36">
         <v>90</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="O25" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="AMA25" s="35"/>
-      <c r="AMB25" s="35"/>
-      <c r="AMC25" s="35"/>
-      <c r="AMD25" s="35"/>
-      <c r="AME25" s="35"/>
-    </row>
-    <row r="26" s="35" customFormat="1" ht="12.75">
-      <c r="A26" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" s="35">
-        <v>91</v>
-      </c>
-      <c r="J26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="O26" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="AMA26" s="35"/>
-      <c r="AMB26" s="35"/>
-      <c r="AMC26" s="35"/>
-      <c r="AMD26" s="35"/>
-      <c r="AME26" s="35"/>
-    </row>
-    <row r="27" s="35" customFormat="1" ht="12.5">
-      <c r="A27" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" s="35">
-        <v>91</v>
-      </c>
-      <c r="J27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="O27" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="AMA27" s="35"/>
-      <c r="AMB27" s="35"/>
-      <c r="AMC27" s="35"/>
-      <c r="AMD27" s="35"/>
-      <c r="AME27" s="35"/>
-    </row>
-    <row r="28" s="35" customFormat="1" ht="12.5">
-      <c r="A28" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I28" s="35">
-        <v>91</v>
-      </c>
-      <c r="J28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="O28" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="AMA28" s="35"/>
-      <c r="AMB28" s="35"/>
-      <c r="AMC28" s="35"/>
-      <c r="AMD28" s="35"/>
-      <c r="AME28" s="35"/>
-    </row>
-    <row r="29" s="35" customFormat="1" ht="12.75">
-      <c r="A29" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" s="37">
-        <v>92</v>
-      </c>
-      <c r="J29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="O29" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="AMA29" s="35"/>
-      <c r="AMB29" s="35"/>
-      <c r="AMC29" s="35"/>
-      <c r="AMD29" s="35"/>
-      <c r="AME29" s="35"/>
-    </row>
-    <row r="30" s="35" customFormat="1" ht="12.75">
-      <c r="A30" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="37">
-        <v>93</v>
-      </c>
-      <c r="J30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="O30" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="AMA30" s="35"/>
-      <c r="AMB30" s="35"/>
-      <c r="AMC30" s="35"/>
-      <c r="AMD30" s="35"/>
-      <c r="AME30" s="35"/>
-    </row>
-    <row r="31" s="35" customFormat="1" ht="12.5">
-      <c r="A31" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" s="35">
-        <v>90</v>
-      </c>
-      <c r="J31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="O31" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="AMA31" s="35"/>
-      <c r="AMB31" s="35"/>
-      <c r="AMC31" s="35"/>
-      <c r="AMD31" s="35"/>
-      <c r="AME31" s="35"/>
+      <c r="J31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="O31" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AMA31" s="36"/>
+      <c r="AMB31" s="36"/>
+      <c r="AMC31" s="36"/>
+      <c r="AMD31" s="36"/>
+      <c r="AME31" s="36"/>
     </row>
     <row r="32" ht="12.75">
       <c r="A32" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="36" t="s">
-        <v>134</v>
+      <c r="H32" s="37" t="s">
+        <v>135</v>
       </c>
       <c r="I32" s="12">
         <v>95</v>
       </c>
-      <c r="O32" s="35" t="s">
-        <v>152</v>
+      <c r="O32" s="36" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="33" ht="12.75">
       <c r="A33" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="36" t="s">
-        <v>134</v>
+      <c r="H33" s="37" t="s">
+        <v>135</v>
       </c>
       <c r="I33" s="12">
         <v>95</v>
       </c>
-      <c r="O33" s="35" t="s">
-        <v>152</v>
+      <c r="O33" s="36" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4643,11 +4651,11 @@
     <col customWidth="1" min="2" max="2" style="12" width="17.00390625"/>
     <col customWidth="1" min="3" max="3" style="0" width="74.57421875"/>
     <col customWidth="1" min="4" max="4" style="0" width="9.57421875"/>
-    <col customWidth="1" min="5" max="6" style="38" width="24.8515625"/>
+    <col customWidth="1" min="5" max="6" style="39" width="24.8515625"/>
     <col customWidth="1" min="7" max="8" style="12" width="32.00390625"/>
-    <col customWidth="1" min="9" max="9" style="39" width="32.00390625"/>
-    <col customWidth="1" min="10" max="10" style="40" width="28.8515625"/>
-    <col customWidth="1" min="11" max="11" style="41" width="28.8515625"/>
+    <col customWidth="1" min="9" max="9" style="40" width="32.00390625"/>
+    <col customWidth="1" min="10" max="10" style="41" width="28.8515625"/>
+    <col customWidth="1" min="11" max="11" style="42" width="28.8515625"/>
     <col customWidth="1" min="12" max="12" style="0" width="17.28125"/>
     <col customWidth="1" min="13" max="13" style="0" width="20.00390625"/>
     <col customWidth="1" min="14" max="14" style="0" width="22.28125"/>
@@ -4661,48 +4669,48 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="44" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>163</v>
+      <c r="C1" s="37" t="s">
+        <v>164</v>
       </c>
       <c r="D1" s="16"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="39"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="48"/>
       <c r="R1" s="12"/>
       <c r="U1" s="12"/>
     </row>
     <row r="2" ht="12.75"/>
     <row r="3" s="21" customFormat="1" ht="12.800000000000001">
       <c r="A3" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="48"/>
+        <v>165</v>
+      </c>
+      <c r="B3" s="49"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="49"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="23"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
@@ -4723,296 +4731,296 @@
       <c r="AML3" s="21"/>
     </row>
     <row r="4" ht="12.5">
-      <c r="E4" s="52"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="12"/>
-      <c r="J4" s="53"/>
+      <c r="J4" s="54"/>
       <c r="S4" s="12"/>
     </row>
     <row r="5" s="26" customFormat="1" ht="153">
       <c r="A5" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="54" t="s">
         <v>169</v>
       </c>
+      <c r="E5" s="55" t="s">
+        <v>170</v>
+      </c>
       <c r="F5" s="27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="J5" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="J5" s="56" t="s">
         <v>175</v>
       </c>
+      <c r="K5" s="56" t="s">
+        <v>176</v>
+      </c>
       <c r="L5" s="26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R5" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S5" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V5" s="26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W5" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X5" s="27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y5" s="27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z5" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA5" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AB5" s="27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AC5" s="27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD5" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AE5" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF5" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG5" s="27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AH5" s="27"/>
     </row>
-    <row r="6" s="56" customFormat="1" ht="25.5">
-      <c r="A6" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="56" t="s">
+    <row r="6" s="57" customFormat="1" ht="25.5">
+      <c r="A6" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>200</v>
       </c>
+      <c r="C6" s="57" t="s">
+        <v>201</v>
+      </c>
       <c r="D6" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" s="56" t="s">
+      <c r="E6" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="F6" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="G6" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="56"/>
+      <c r="H6" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57"/>
     </row>
     <row r="7" ht="25.5">
       <c r="A7" s="30" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="H7" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="61" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="J7" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="K7" s="61" t="s">
+      <c r="J7" s="62" t="s">
         <v>213</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>214</v>
       </c>
       <c r="L7" s="31" t="s">
         <v>93</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R7" s="31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S7" s="30" t="s">
         <v>96</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="U7" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="V7" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="W7" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="V7" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="W7" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="X7" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y7" s="60" t="s">
+      <c r="X7" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="Z7" s="60" t="s">
+      <c r="Y7" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="AA7" s="60" t="s">
+      <c r="Z7" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA7" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="AB7" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC7" s="60" t="s">
+      <c r="AB7" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="AD7" s="60" t="s">
+      <c r="AC7" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="AE7" s="60" t="s">
+      <c r="AD7" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="AF7" s="60" t="s">
+      <c r="AE7" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="AG7" s="60" t="s">
+      <c r="AF7" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="AH7" s="60" t="s">
+      <c r="AG7" s="61" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="8" s="62" customFormat="1" ht="12.75">
-      <c r="A8" s="62" t="s">
+      <c r="AH7" s="61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" s="63" customFormat="1" ht="12.75">
+      <c r="A8" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="AMH8" s="62"/>
-      <c r="AMI8" s="62"/>
-      <c r="AMJ8" s="62"/>
-      <c r="AMK8" s="62"/>
-      <c r="AML8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="AMH8" s="63"/>
+      <c r="AMI8" s="63"/>
+      <c r="AMJ8" s="63"/>
+      <c r="AMK8" s="63"/>
+      <c r="AML8" s="63"/>
     </row>
     <row r="9" ht="12.75">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B9" t="s">
         <v>103</v>
@@ -5020,19 +5028,19 @@
       <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>234</v>
+      <c r="E9" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>235</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40">
+      <c r="I9" s="40"/>
+      <c r="J9" s="41">
         <v>1</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="42">
         <v>1</v>
       </c>
       <c r="L9" t="s">
@@ -5040,37 +5048,37 @@
       </c>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
-      <c r="X9" s="64"/>
+      <c r="X9" s="65"/>
       <c r="AA9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" s="0" customFormat="1" ht="13.5">
       <c r="A10" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="65" t="s">
-        <v>236</v>
+      <c r="C10" s="66" t="s">
+        <v>237</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="F10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>238</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>239</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -5079,12 +5087,12 @@
       <c r="T10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="66" t="s">
-        <v>240</v>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="67" t="s">
+        <v>241</v>
       </c>
       <c r="AA10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH10" s="3"/>
       <c r="AMI10" s="3"/>
@@ -5094,30 +5102,30 @@
     </row>
     <row r="11" s="0" customFormat="1" ht="12.75">
       <c r="A11" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="65" t="s">
-        <v>242</v>
+      <c r="C11" s="66" t="s">
+        <v>243</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="F11" s="35" t="s">
+      <c r="E11" s="36" t="s">
         <v>244</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -5126,9 +5134,9 @@
       <c r="T11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="64"/>
+      <c r="X11" s="65"/>
       <c r="AA11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH11" s="3"/>
       <c r="AMI11" s="3"/>
@@ -5138,20 +5146,20 @@
     </row>
     <row r="12" s="0" customFormat="1" ht="12.75">
       <c r="A12" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="65" t="s">
-        <v>246</v>
+      <c r="C12" s="66" t="s">
+        <v>247</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="F12" s="67" t="s">
+      <c r="E12" s="36" t="s">
         <v>248</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>249</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -5161,10 +5169,10 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -5173,9 +5181,9 @@
       <c r="T12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="64"/>
+      <c r="X12" s="65"/>
       <c r="AA12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH12" s="3"/>
       <c r="AMI12" s="3"/>
@@ -5185,20 +5193,20 @@
     </row>
     <row r="13" s="0" customFormat="1" ht="12.75">
       <c r="A13" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="65" t="s">
-        <v>251</v>
+      <c r="C13" s="66" t="s">
+        <v>252</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="F13" s="35" t="s">
+      <c r="E13" s="36" t="s">
         <v>253</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>254</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -5208,10 +5216,10 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -5220,9 +5228,9 @@
       <c r="T13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="64"/>
+      <c r="X13" s="65"/>
       <c r="AA13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH13" s="3"/>
       <c r="AMI13" s="3"/>
@@ -5232,20 +5240,20 @@
     </row>
     <row r="14" s="0" customFormat="1" ht="12.75">
       <c r="A14" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="65" t="s">
-        <v>255</v>
+      <c r="C14" s="66" t="s">
+        <v>256</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="36" t="s">
         <v>257</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>258</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -5255,10 +5263,10 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -5267,9 +5275,9 @@
       <c r="T14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="64"/>
+      <c r="X14" s="65"/>
       <c r="AA14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH14" s="3"/>
       <c r="AMI14" s="3"/>
@@ -5279,20 +5287,20 @@
     </row>
     <row r="15" s="0" customFormat="1" ht="12.75">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="65" t="s">
-        <v>260</v>
+      <c r="C15" s="66" t="s">
+        <v>261</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>262</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>263</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -5311,9 +5319,9 @@
       <c r="T15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="64"/>
+      <c r="X15" s="65"/>
       <c r="AA15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH15" s="3"/>
       <c r="AMI15" s="3"/>
@@ -5323,24 +5331,24 @@
     </row>
     <row r="16" ht="13.5">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="68" t="s">
-        <v>264</v>
+      <c r="C16" s="69" t="s">
+        <v>265</v>
       </c>
       <c r="E16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
       <c r="L16" t="s">
         <v>108</v>
       </c>
@@ -5349,8 +5357,8 @@
       </c>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
-      <c r="X16" s="64" t="s">
-        <v>267</v>
+      <c r="X16" s="65" t="s">
+        <v>268</v>
       </c>
       <c r="AB16" t="b">
         <v>1</v>
@@ -5358,24 +5366,24 @@
     </row>
     <row r="17" ht="13.5">
       <c r="A17" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B17" t="s">
         <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="L17" t="s">
         <v>108</v>
       </c>
@@ -5384,101 +5392,101 @@
       </c>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="64" t="s">
-        <v>272</v>
+      <c r="X17" s="65" t="s">
+        <v>273</v>
       </c>
       <c r="Z17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="13.5">
-      <c r="A18" s="35" t="s">
-        <v>274</v>
+      <c r="A18" s="36" t="s">
+        <v>275</v>
       </c>
       <c r="B18" t="s">
         <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F18" t="s">
-        <v>266</v>
-      </c>
-      <c r="K18" s="41">
+        <v>267</v>
+      </c>
+      <c r="K18" s="42">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N18" t="s">
-        <v>132</v>
-      </c>
-      <c r="X18" s="64" t="s">
-        <v>276</v>
+        <v>133</v>
+      </c>
+      <c r="X18" s="65" t="s">
+        <v>277</v>
       </c>
       <c r="AB18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="13.5">
-      <c r="A19" s="35" t="s">
-        <v>277</v>
+      <c r="A19" s="36" t="s">
+        <v>278</v>
       </c>
       <c r="B19" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="68" t="s">
-        <v>278</v>
+      <c r="C19" s="69" t="s">
+        <v>279</v>
       </c>
       <c r="E19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
-      </c>
-      <c r="K19" s="41">
+        <v>267</v>
+      </c>
+      <c r="K19" s="42">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N19" t="s">
-        <v>140</v>
-      </c>
-      <c r="X19" s="64" t="s">
-        <v>276</v>
+        <v>141</v>
+      </c>
+      <c r="X19" s="65" t="s">
+        <v>277</v>
       </c>
       <c r="AB19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" ht="13.5">
-      <c r="A20" s="35" t="s">
-        <v>279</v>
+      <c r="A20" s="36" t="s">
+        <v>280</v>
       </c>
       <c r="B20" t="s">
         <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L20" t="s">
         <v>108</v>
@@ -5486,8 +5494,8 @@
       <c r="N20" t="s">
         <v>110</v>
       </c>
-      <c r="X20" s="64" t="s">
-        <v>267</v>
+      <c r="X20" s="65" t="s">
+        <v>268</v>
       </c>
       <c r="AB20" t="b">
         <v>1</v>
@@ -5495,44 +5503,44 @@
     </row>
     <row r="21" ht="12.75">
       <c r="B21" s="12"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-    </row>
-    <row r="22" s="62" customFormat="1" ht="12.75">
-      <c r="A22" s="62" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" s="63" customFormat="1" ht="12.75">
+      <c r="A22" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="AMH22" s="62"/>
-      <c r="AMI22" s="62"/>
-      <c r="AMJ22" s="62"/>
-      <c r="AMK22" s="62"/>
-      <c r="AML22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="AMH22" s="63"/>
+      <c r="AMI22" s="63"/>
+      <c r="AMJ22" s="63"/>
+      <c r="AMK22" s="63"/>
+      <c r="AML22" s="63"/>
     </row>
     <row r="23" ht="12.75">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B23" t="s">
         <v>110</v>
@@ -5540,44 +5548,44 @@
       <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="F23" s="63" t="s">
-        <v>234</v>
+      <c r="E23" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="F23" s="64" t="s">
+        <v>235</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40">
+      <c r="I23" s="40"/>
+      <c r="J23" s="41">
         <v>1</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="42">
         <v>1</v>
       </c>
       <c r="L23" t="s">
         <v>108</v>
       </c>
       <c r="AA23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" s="0" customFormat="1" ht="12.75">
       <c r="A24" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B24" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="65" t="s">
-        <v>285</v>
+      <c r="C24" s="66" t="s">
+        <v>286</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="F24" s="35" t="s">
+      <c r="E24" s="36" t="s">
         <v>287</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -5587,10 +5595,10 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -5599,9 +5607,9 @@
       <c r="T24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="64"/>
+      <c r="X24" s="65"/>
       <c r="AA24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH24" s="3"/>
       <c r="AMI24" s="3"/>
@@ -5611,20 +5619,20 @@
     </row>
     <row r="25" s="0" customFormat="1" ht="12.75">
       <c r="A25" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B25" t="s">
         <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F25" s="35" t="s">
+      <c r="E25" s="36" t="s">
         <v>262</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>263</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -5640,9 +5648,9 @@
       <c r="T25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="64"/>
+      <c r="X25" s="65"/>
       <c r="AA25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH25" s="3"/>
       <c r="AMI25" s="3"/>
@@ -5652,24 +5660,24 @@
     </row>
     <row r="26" ht="13.5">
       <c r="A26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B26" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="68" t="s">
-        <v>290</v>
+      <c r="C26" s="69" t="s">
+        <v>291</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
       <c r="L26" t="s">
         <v>108</v>
       </c>
@@ -5678,73 +5686,73 @@
       </c>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
-      <c r="X26" s="64" t="s">
-        <v>272</v>
+      <c r="X26" s="65" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="27" ht="13.5">
       <c r="A27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s">
         <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E27" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="42"/>
       <c r="L27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
-      <c r="X27" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y27" s="66" t="s">
-        <v>240</v>
+      <c r="X27" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y27" s="67" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="28" ht="13.5">
       <c r="A28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s">
         <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="41">
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="42">
         <v>1</v>
       </c>
       <c r="L28" t="s">
@@ -5755,8 +5763,8 @@
       </c>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
-      <c r="X28" s="64" t="s">
-        <v>267</v>
+      <c r="X28" s="65" t="s">
+        <v>268</v>
       </c>
       <c r="AB28" t="b">
         <v>1</v>
@@ -5764,27 +5772,27 @@
     </row>
     <row r="29" ht="13.5">
       <c r="A29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="68" t="s">
-        <v>299</v>
+      <c r="C29" s="69" t="s">
+        <v>300</v>
       </c>
       <c r="D29" s="3">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
       <c r="L29" t="s">
         <v>108</v>
       </c>
@@ -5793,8 +5801,8 @@
       </c>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
-      <c r="X29" s="64" t="s">
-        <v>267</v>
+      <c r="X29" s="65" t="s">
+        <v>268</v>
       </c>
       <c r="AB29" t="b">
         <v>1</v>
@@ -5802,27 +5810,27 @@
     </row>
     <row r="30" ht="13.5">
       <c r="A30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="68" t="s">
-        <v>303</v>
+      <c r="C30" s="69" t="s">
+        <v>304</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="41"/>
       <c r="L30" t="s">
         <v>108</v>
       </c>
@@ -5831,8 +5839,8 @@
       </c>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
-      <c r="X30" s="64" t="s">
-        <v>267</v>
+      <c r="X30" s="65" t="s">
+        <v>268</v>
       </c>
       <c r="AB30" t="b">
         <v>1</v>
@@ -5840,22 +5848,22 @@
     </row>
     <row r="31" ht="13.5">
       <c r="A31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="68" t="s">
-        <v>307</v>
+      <c r="C31" s="69" t="s">
+        <v>308</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L31" t="s">
         <v>108</v>
@@ -5863,8 +5871,8 @@
       <c r="N31" t="s">
         <v>110</v>
       </c>
-      <c r="X31" s="64" t="s">
-        <v>267</v>
+      <c r="X31" s="65" t="s">
+        <v>268</v>
       </c>
       <c r="AB31" t="b">
         <v>1</v>
@@ -5872,24 +5880,24 @@
     </row>
     <row r="32" ht="13.5">
       <c r="A32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s">
         <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F32" t="s">
-        <v>313</v>
-      </c>
-      <c r="K32" s="41">
+        <v>314</v>
+      </c>
+      <c r="K32" s="42">
         <v>1</v>
       </c>
       <c r="L32" t="s">
@@ -5898,8 +5906,8 @@
       <c r="N32" t="s">
         <v>110</v>
       </c>
-      <c r="X32" s="64" t="s">
-        <v>267</v>
+      <c r="X32" s="65" t="s">
+        <v>268</v>
       </c>
       <c r="AB32" t="b">
         <v>1</v>
@@ -5907,22 +5915,22 @@
     </row>
     <row r="33" ht="13.5">
       <c r="A33" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="68" t="s">
-        <v>315</v>
+      <c r="C33" s="69" t="s">
+        <v>316</v>
       </c>
       <c r="D33" s="3">
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F33" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s">
         <v>108</v>
@@ -5930,8 +5938,8 @@
       <c r="N33" t="s">
         <v>110</v>
       </c>
-      <c r="X33" s="64" t="s">
-        <v>267</v>
+      <c r="X33" s="65" t="s">
+        <v>268</v>
       </c>
       <c r="AB33" t="b">
         <v>1</v>
@@ -5939,19 +5947,19 @@
     </row>
     <row r="34" ht="13.5">
       <c r="A34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s">
         <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s">
         <v>108</v>
@@ -5959,34 +5967,34 @@
       <c r="N34" t="s">
         <v>114</v>
       </c>
-      <c r="X34" s="64" t="s">
-        <v>322</v>
+      <c r="X34" s="65" t="s">
+        <v>323</v>
       </c>
       <c r="AB34" t="b">
         <v>1</v>
       </c>
       <c r="AD34" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AE34" s="12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" ht="13.5">
       <c r="A35" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="68" t="s">
-        <v>326</v>
+      <c r="C35" s="69" t="s">
+        <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L35" t="s">
         <v>108</v>
@@ -5994,34 +6002,34 @@
       <c r="N35" t="s">
         <v>114</v>
       </c>
-      <c r="X35" s="64" t="s">
-        <v>322</v>
+      <c r="X35" s="65" t="s">
+        <v>323</v>
       </c>
       <c r="AB35" t="b">
         <v>1</v>
       </c>
       <c r="AD35" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AE35" s="12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" ht="13.5">
       <c r="A36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s">
         <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s">
         <v>108</v>
@@ -6029,8 +6037,8 @@
       <c r="N36" t="s">
         <v>119</v>
       </c>
-      <c r="X36" s="64" t="s">
-        <v>272</v>
+      <c r="X36" s="65" t="s">
+        <v>273</v>
       </c>
       <c r="AB36" t="b">
         <v>1</v>
@@ -6038,19 +6046,19 @@
     </row>
     <row r="37" ht="13.5">
       <c r="A37" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="68" t="s">
-        <v>330</v>
+      <c r="C37" s="69" t="s">
+        <v>331</v>
       </c>
       <c r="E37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F37" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s">
         <v>108</v>
@@ -6058,79 +6066,79 @@
       <c r="N37" t="s">
         <v>119</v>
       </c>
-      <c r="X37" s="64" t="s">
-        <v>272</v>
+      <c r="X37" s="65" t="s">
+        <v>273</v>
       </c>
       <c r="Z37" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AB37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="38" ht="13.5">
-      <c r="A38" s="35" t="s">
-        <v>332</v>
+      <c r="A38" s="36" t="s">
+        <v>333</v>
       </c>
       <c r="B38" t="s">
         <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
-      </c>
-      <c r="K38" s="41">
+        <v>267</v>
+      </c>
+      <c r="K38" s="42">
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N38" t="s">
-        <v>136</v>
-      </c>
-      <c r="X38" s="64" t="s">
-        <v>276</v>
+        <v>137</v>
+      </c>
+      <c r="X38" s="65" t="s">
+        <v>277</v>
       </c>
       <c r="AB38" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39" ht="13.5">
-      <c r="A39" s="35" t="s">
-        <v>334</v>
+      <c r="A39" s="36" t="s">
+        <v>335</v>
       </c>
       <c r="B39" t="s">
         <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E39" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F39" t="s">
-        <v>337</v>
-      </c>
-      <c r="J39" s="40"/>
+        <v>338</v>
+      </c>
+      <c r="J39" s="41"/>
       <c r="L39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M39" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N39" t="s">
-        <v>146</v>
-      </c>
-      <c r="X39" s="64" t="s">
-        <v>276</v>
+        <v>147</v>
+      </c>
+      <c r="X39" s="65" t="s">
+        <v>277</v>
       </c>
       <c r="AB39" t="b">
         <v>1</v>
@@ -6138,58 +6146,58 @@
     </row>
     <row r="40" ht="12.75">
       <c r="B40" s="12"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-    </row>
-    <row r="41" s="62" customFormat="1" ht="12.75">
-      <c r="A41" s="62" t="s">
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+    </row>
+    <row r="41" s="63" customFormat="1" ht="12.75">
+      <c r="A41" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="62"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="AB41" s="62"/>
-      <c r="AMH41" s="62"/>
-      <c r="AMI41" s="62"/>
-      <c r="AMJ41" s="62"/>
-      <c r="AMK41" s="62"/>
-      <c r="AML41" s="62"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="AB41" s="63"/>
+      <c r="AMH41" s="63"/>
+      <c r="AMI41" s="63"/>
+      <c r="AMJ41" s="63"/>
+      <c r="AMK41" s="63"/>
+      <c r="AML41" s="63"/>
     </row>
     <row r="42" s="0" customFormat="1" ht="12.75">
       <c r="A42" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s">
         <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="F42" s="35" t="s">
+      <c r="E42" s="36" t="s">
         <v>341</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>342</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -6208,9 +6216,9 @@
       <c r="T42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="64"/>
+      <c r="X42" s="65"/>
       <c r="AA42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH42" s="3"/>
       <c r="AMI42" s="3"/>
@@ -6220,20 +6228,20 @@
     </row>
     <row r="43" s="0" customFormat="1" ht="12.75">
       <c r="A43" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s">
         <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="F43" s="35" t="s">
+      <c r="E43" s="36" t="s">
         <v>345</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>346</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -6252,9 +6260,9 @@
       <c r="T43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-      <c r="X43" s="64"/>
+      <c r="X43" s="65"/>
       <c r="AA43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH43" s="3"/>
       <c r="AMI43" s="3"/>
@@ -6264,20 +6272,20 @@
     </row>
     <row r="44" s="0" customFormat="1" ht="12.75">
       <c r="A44" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s">
         <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="F44" s="35" t="s">
+      <c r="E44" s="36" t="s">
         <v>349</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>350</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -6287,10 +6295,10 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
@@ -6299,9 +6307,9 @@
       <c r="T44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-      <c r="X44" s="64"/>
+      <c r="X44" s="65"/>
       <c r="AA44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH44" s="3"/>
       <c r="AMI44" s="3"/>
@@ -6311,20 +6319,20 @@
     </row>
     <row r="45" s="0" customFormat="1" ht="12.75">
       <c r="A45" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s">
         <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="F45" s="35" t="s">
+      <c r="E45" s="36" t="s">
         <v>353</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>354</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -6334,10 +6342,10 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
@@ -6346,12 +6354,12 @@
       <c r="T45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-      <c r="X45" s="64"/>
-      <c r="Y45" s="66" t="s">
-        <v>240</v>
+      <c r="X45" s="65"/>
+      <c r="Y45" s="67" t="s">
+        <v>241</v>
       </c>
       <c r="AA45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH45" s="3"/>
       <c r="AMI45" s="3"/>
@@ -6361,20 +6369,20 @@
     </row>
     <row r="46" s="0" customFormat="1" ht="12.75">
       <c r="A46" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s">
         <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="F46" s="35" t="s">
+      <c r="E46" s="36" t="s">
         <v>357</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>358</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -6384,10 +6392,10 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -6396,9 +6404,9 @@
       <c r="T46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-      <c r="X46" s="64"/>
+      <c r="X46" s="65"/>
       <c r="AA46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH46" s="3"/>
       <c r="AMI46" s="3"/>
@@ -6408,34 +6416,34 @@
     </row>
     <row r="47" ht="13.5">
       <c r="A47" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="68" t="s">
-        <v>347</v>
+      <c r="C47" s="69" t="s">
+        <v>348</v>
       </c>
       <c r="E47" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F47" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="41"/>
       <c r="L47" t="s">
         <v>108</v>
       </c>
       <c r="N47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
-      <c r="X47" s="64" t="s">
-        <v>276</v>
+      <c r="X47" s="65" t="s">
+        <v>277</v>
       </c>
       <c r="AB47" t="b">
         <v>1</v>
@@ -6443,65 +6451,65 @@
     </row>
     <row r="48" ht="12.75">
       <c r="B48" s="12"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="41"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="42"/>
       <c r="V48" s="12"/>
       <c r="W48" s="12"/>
     </row>
-    <row r="49" s="62" customFormat="1" ht="12.75">
-      <c r="A49" s="62" t="s">
+    <row r="49" s="63" customFormat="1" ht="12.75">
+      <c r="A49" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="62"/>
-      <c r="T49" s="62"/>
-      <c r="V49" s="62"/>
-      <c r="W49" s="62"/>
-      <c r="X49" s="62"/>
-      <c r="AB49" s="62"/>
-      <c r="AMH49" s="62"/>
-      <c r="AMI49" s="62"/>
-      <c r="AMJ49" s="62"/>
-      <c r="AMK49" s="62"/>
-      <c r="AML49" s="62"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="63"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="63"/>
+      <c r="AB49" s="63"/>
+      <c r="AMH49" s="63"/>
+      <c r="AMI49" s="63"/>
+      <c r="AMJ49" s="63"/>
+      <c r="AMK49" s="63"/>
+      <c r="AML49" s="63"/>
     </row>
     <row r="50" s="0" customFormat="1" ht="12.75">
       <c r="A50" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s">
         <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D50" s="3"/>
-      <c r="E50" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="F50" s="35" t="s">
+      <c r="E50" s="36" t="s">
         <v>341</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>342</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -6521,9 +6529,9 @@
       <c r="T50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-      <c r="X50" s="64"/>
+      <c r="X50" s="65"/>
       <c r="AA50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH50" s="3"/>
       <c r="AMI50" s="3"/>
@@ -6533,20 +6541,20 @@
     </row>
     <row r="51" s="0" customFormat="1" ht="12.75">
       <c r="A51" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B51" t="s">
         <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="F51" s="35" t="s">
+      <c r="E51" s="36" t="s">
         <v>345</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>346</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -6567,9 +6575,9 @@
       <c r="T51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-      <c r="X51" s="64"/>
+      <c r="X51" s="65"/>
       <c r="AA51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH51" s="3"/>
       <c r="AMI51" s="3"/>
@@ -6579,20 +6587,20 @@
     </row>
     <row r="52" s="0" customFormat="1" ht="12.75">
       <c r="A52" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s">
         <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="F52" s="35" t="s">
+      <c r="E52" s="36" t="s">
         <v>349</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>350</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -6600,10 +6608,10 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -6613,9 +6621,9 @@
       <c r="T52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-      <c r="X52" s="64"/>
+      <c r="X52" s="65"/>
       <c r="AA52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH52" s="3"/>
       <c r="AMI52" s="3"/>
@@ -6625,20 +6633,20 @@
     </row>
     <row r="53" s="0" customFormat="1" ht="12.75">
       <c r="A53" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B53" t="s">
         <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="F53" s="35" t="s">
+      <c r="E53" s="36" t="s">
         <v>353</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>354</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -6646,10 +6654,10 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M53" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
@@ -6659,12 +6667,12 @@
       <c r="T53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-      <c r="X53" s="64"/>
-      <c r="Y53" s="66" t="s">
-        <v>240</v>
+      <c r="X53" s="65"/>
+      <c r="Y53" s="67" t="s">
+        <v>241</v>
       </c>
       <c r="AA53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH53" s="3"/>
       <c r="AMI53" s="3"/>
@@ -6674,20 +6682,20 @@
     </row>
     <row r="54" s="0" customFormat="1" ht="12.75">
       <c r="A54" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B54" t="s">
         <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D54" s="3"/>
-      <c r="E54" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="F54" s="35" t="s">
+      <c r="E54" s="36" t="s">
         <v>357</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>358</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -6695,10 +6703,10 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
@@ -6708,9 +6716,9 @@
       <c r="T54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-      <c r="X54" s="64"/>
+      <c r="X54" s="65"/>
       <c r="AA54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH54" s="3"/>
       <c r="AMI54" s="3"/>
@@ -6720,35 +6728,35 @@
     </row>
     <row r="55" ht="13.5">
       <c r="A55" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B55" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="68" t="s">
-        <v>347</v>
+      <c r="C55" s="69" t="s">
+        <v>348</v>
       </c>
       <c r="E55" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F55" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="41"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="42"/>
       <c r="L55" t="s">
         <v>108</v>
       </c>
       <c r="N55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
-      <c r="X55" s="64" t="s">
-        <v>276</v>
+      <c r="X55" s="65" t="s">
+        <v>277</v>
       </c>
       <c r="AB55" t="b">
         <v>1</v>
@@ -6756,51 +6764,51 @@
     </row>
     <row r="56" ht="12.75">
       <c r="B56" s="12"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="41"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="42"/>
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
     </row>
-    <row r="57" s="62" customFormat="1" ht="12.75">
-      <c r="A57" s="62" t="s">
+    <row r="57" s="63" customFormat="1" ht="12.75">
+      <c r="A57" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="62"/>
-      <c r="Q57" s="62"/>
-      <c r="R57" s="62"/>
-      <c r="S57" s="62"/>
-      <c r="T57" s="62"/>
-      <c r="V57" s="62"/>
-      <c r="W57" s="62"/>
-      <c r="X57" s="62"/>
-      <c r="AMH57" s="62"/>
-      <c r="AMI57" s="62"/>
-      <c r="AMJ57" s="62"/>
-      <c r="AMK57" s="62"/>
-      <c r="AML57" s="62"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="63"/>
+      <c r="Q57" s="63"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="63"/>
+      <c r="T57" s="63"/>
+      <c r="V57" s="63"/>
+      <c r="W57" s="63"/>
+      <c r="X57" s="63"/>
+      <c r="AMH57" s="63"/>
+      <c r="AMI57" s="63"/>
+      <c r="AMJ57" s="63"/>
+      <c r="AMK57" s="63"/>
+      <c r="AML57" s="63"/>
     </row>
     <row r="58" ht="12.75">
       <c r="A58" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B58" t="s">
         <v>123</v>
@@ -6808,54 +6816,54 @@
       <c r="C58" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="F58" s="63" t="s">
-        <v>234</v>
+      <c r="E58" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="F58" s="64" t="s">
+        <v>235</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="40">
+      <c r="I58" s="40"/>
+      <c r="J58" s="41">
         <v>1</v>
       </c>
-      <c r="K58" s="41">
+      <c r="K58" s="42">
         <v>1</v>
       </c>
       <c r="L58" t="s">
         <v>108</v>
       </c>
       <c r="AA58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" s="0" customFormat="1" ht="12.75">
       <c r="A59" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B59" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="65" t="s">
-        <v>351</v>
+      <c r="C59" s="66" t="s">
+        <v>352</v>
       </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="F59" s="35" t="s">
+      <c r="E59" s="36" t="s">
         <v>353</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>354</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="L59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M59" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
@@ -6864,12 +6872,12 @@
       <c r="T59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-      <c r="X59" s="64"/>
-      <c r="Y59" s="66" t="s">
-        <v>240</v>
+      <c r="X59" s="65"/>
+      <c r="Y59" s="67" t="s">
+        <v>241</v>
       </c>
       <c r="AA59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH59" s="3"/>
       <c r="AMI59" s="3"/>
@@ -6879,20 +6887,20 @@
     </row>
     <row r="60" s="0" customFormat="1" ht="12.75">
       <c r="A60" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B60" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="65" t="s">
-        <v>368</v>
+      <c r="C60" s="66" t="s">
+        <v>369</v>
       </c>
       <c r="D60" s="3"/>
-      <c r="E60" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="F60" s="35" t="s">
+      <c r="E60" s="36" t="s">
         <v>370</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>371</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -6911,7 +6919,7 @@
       <c r="T60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-      <c r="X60" s="64"/>
+      <c r="X60" s="65"/>
       <c r="AMH60" s="3"/>
       <c r="AMI60" s="3"/>
       <c r="AMJ60" s="3"/>
@@ -6920,20 +6928,20 @@
     </row>
     <row r="61" s="0" customFormat="1" ht="12.75">
       <c r="A61" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B61" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="65" t="s">
-        <v>372</v>
+      <c r="C61" s="66" t="s">
+        <v>373</v>
       </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="F61" s="35" t="s">
+      <c r="E61" s="36" t="s">
         <v>374</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>375</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -6943,10 +6951,10 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
@@ -6955,9 +6963,9 @@
       <c r="T61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-      <c r="X61" s="64"/>
+      <c r="X61" s="65"/>
       <c r="AA61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH61" s="3"/>
       <c r="AMI61" s="3"/>
@@ -6967,20 +6975,20 @@
     </row>
     <row r="62" s="0" customFormat="1" ht="12.75">
       <c r="A62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="65" t="s">
-        <v>376</v>
+      <c r="C62" s="66" t="s">
+        <v>377</v>
       </c>
       <c r="D62" s="3"/>
-      <c r="E62" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="F62" s="35" t="s">
+      <c r="E62" s="36" t="s">
         <v>378</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>379</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -6990,10 +6998,10 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
@@ -7002,9 +7010,9 @@
       <c r="T62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-      <c r="X62" s="64"/>
+      <c r="X62" s="65"/>
       <c r="AA62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH62" s="3"/>
       <c r="AMI62" s="3"/>
@@ -7014,20 +7022,20 @@
     </row>
     <row r="63" s="0" customFormat="1" ht="12.75">
       <c r="A63" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B63" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="65" t="s">
-        <v>380</v>
+      <c r="C63" s="66" t="s">
+        <v>381</v>
       </c>
       <c r="D63" s="3"/>
-      <c r="E63" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="F63" s="35" t="s">
+      <c r="E63" s="36" t="s">
         <v>382</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>383</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -7037,10 +7045,10 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M63" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
@@ -7049,9 +7057,9 @@
       <c r="T63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-      <c r="X63" s="64"/>
+      <c r="X63" s="65"/>
       <c r="AA63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH63" s="3"/>
       <c r="AMI63" s="3"/>
@@ -7060,1246 +7068,1246 @@
       <c r="AML63" s="3"/>
     </row>
     <row r="64" ht="13.5">
-      <c r="A64" s="35" t="s">
-        <v>383</v>
+      <c r="A64" s="36" t="s">
+        <v>384</v>
       </c>
       <c r="B64" t="s">
         <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E64" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="41">
+      <c r="I64" s="40"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="42">
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M64" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
-      <c r="X64" s="64" t="s">
-        <v>272</v>
+      <c r="X64" s="65" t="s">
+        <v>273</v>
       </c>
       <c r="Z64" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="65" ht="13.5">
-      <c r="A65" s="35" t="s">
-        <v>388</v>
+      <c r="A65" s="36" t="s">
+        <v>389</v>
       </c>
       <c r="B65" t="s">
         <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E65" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F65" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="41">
+      <c r="I65" s="40"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="42">
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M65" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
-      <c r="X65" s="64" t="s">
-        <v>272</v>
+      <c r="X65" s="65" t="s">
+        <v>273</v>
       </c>
       <c r="Z65" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" ht="13.5">
-      <c r="A66" s="35" t="s">
-        <v>390</v>
+      <c r="A66" s="36" t="s">
+        <v>391</v>
       </c>
       <c r="B66" t="s">
         <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E66" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F66" t="s">
-        <v>266</v>
-      </c>
-      <c r="K66" s="41">
+        <v>267</v>
+      </c>
+      <c r="K66" s="42">
         <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N66" t="s">
-        <v>155</v>
-      </c>
-      <c r="X66" s="64" t="s">
-        <v>272</v>
+        <v>156</v>
+      </c>
+      <c r="X66" s="65" t="s">
+        <v>273</v>
       </c>
       <c r="Z66" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67" ht="13.5">
-      <c r="A67" s="35" t="s">
-        <v>392</v>
+      <c r="A67" s="36" t="s">
+        <v>393</v>
       </c>
       <c r="B67" t="s">
         <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F67" t="s">
-        <v>394</v>
-      </c>
-      <c r="J67" s="40">
+        <v>395</v>
+      </c>
+      <c r="J67" s="41">
         <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M67" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N67" t="s">
-        <v>157</v>
-      </c>
-      <c r="X67" s="64" t="s">
-        <v>395</v>
+        <v>158</v>
+      </c>
+      <c r="X67" s="65" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="68" ht="12.75"/>
     <row r="69" ht="12.75">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="B69" s="69"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="71"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="62"/>
-      <c r="M69" s="62"/>
-      <c r="N69" s="62"/>
-      <c r="O69" s="62"/>
-      <c r="P69" s="62"/>
-      <c r="Q69" s="62"/>
-      <c r="R69" s="62"/>
-      <c r="S69" s="62"/>
-      <c r="T69" s="62"/>
-      <c r="U69" s="62"/>
-      <c r="V69" s="69"/>
-      <c r="W69" s="69"/>
-      <c r="X69" s="62"/>
-      <c r="Y69" s="62"/>
-      <c r="Z69" s="62"/>
-      <c r="AA69" s="62"/>
-      <c r="AB69" s="62"/>
-      <c r="AC69" s="62"/>
-      <c r="AD69" s="62"/>
-      <c r="AE69" s="62"/>
-      <c r="AF69" s="62"/>
-      <c r="AG69" s="62"/>
-      <c r="AH69" s="62"/>
-      <c r="AI69" s="62"/>
-      <c r="AJ69" s="62"/>
-      <c r="AK69" s="62"/>
-      <c r="AL69" s="62"/>
-      <c r="AM69" s="62"/>
-      <c r="AN69" s="62"/>
-      <c r="AO69" s="62"/>
-      <c r="AP69" s="62"/>
-      <c r="AQ69" s="62"/>
-      <c r="AR69" s="62"/>
-      <c r="AS69" s="62"/>
-      <c r="AT69" s="62"/>
-      <c r="AU69" s="62"/>
-      <c r="AV69" s="62"/>
-      <c r="AW69" s="62"/>
-      <c r="AX69" s="62"/>
-      <c r="AY69" s="62"/>
-      <c r="AZ69" s="62"/>
-      <c r="BA69" s="62"/>
-      <c r="BB69" s="62"/>
-      <c r="BC69" s="62"/>
-      <c r="BD69" s="62"/>
-      <c r="BE69" s="62"/>
-      <c r="BF69" s="62"/>
-      <c r="BG69" s="62"/>
-      <c r="BH69" s="62"/>
-      <c r="BI69" s="62"/>
-      <c r="BJ69" s="62"/>
-      <c r="BK69" s="62"/>
-      <c r="BL69" s="62"/>
-      <c r="BM69" s="62"/>
-      <c r="BN69" s="62"/>
-      <c r="BO69" s="62"/>
-      <c r="BP69" s="62"/>
-      <c r="BQ69" s="62"/>
-      <c r="BR69" s="62"/>
-      <c r="BS69" s="62"/>
-      <c r="BT69" s="62"/>
-      <c r="BU69" s="62"/>
-      <c r="BV69" s="62"/>
-      <c r="BW69" s="62"/>
-      <c r="BX69" s="62"/>
-      <c r="BY69" s="62"/>
-      <c r="BZ69" s="62"/>
-      <c r="CA69" s="62"/>
-      <c r="CB69" s="62"/>
-      <c r="CC69" s="62"/>
-      <c r="CD69" s="62"/>
-      <c r="CE69" s="62"/>
-      <c r="CF69" s="62"/>
-      <c r="CG69" s="62"/>
-      <c r="CH69" s="62"/>
-      <c r="CI69" s="62"/>
-      <c r="CJ69" s="62"/>
-      <c r="CK69" s="62"/>
-      <c r="CL69" s="62"/>
-      <c r="CM69" s="62"/>
-      <c r="CN69" s="62"/>
-      <c r="CO69" s="62"/>
-      <c r="CP69" s="62"/>
-      <c r="CQ69" s="62"/>
-      <c r="CR69" s="62"/>
-      <c r="CS69" s="62"/>
-      <c r="CT69" s="62"/>
-      <c r="CU69" s="62"/>
-      <c r="CV69" s="62"/>
-      <c r="CW69" s="62"/>
-      <c r="CX69" s="62"/>
-      <c r="CY69" s="62"/>
-      <c r="CZ69" s="62"/>
-      <c r="DA69" s="62"/>
-      <c r="DB69" s="62"/>
-      <c r="DC69" s="62"/>
-      <c r="DD69" s="62"/>
-      <c r="DE69" s="62"/>
-      <c r="DF69" s="62"/>
-      <c r="DG69" s="62"/>
-      <c r="DH69" s="62"/>
-      <c r="DI69" s="62"/>
-      <c r="DJ69" s="62"/>
-      <c r="DK69" s="62"/>
-      <c r="DL69" s="62"/>
-      <c r="DM69" s="62"/>
-      <c r="DN69" s="62"/>
-      <c r="DO69" s="62"/>
-      <c r="DP69" s="62"/>
-      <c r="DQ69" s="62"/>
-      <c r="DR69" s="62"/>
-      <c r="DS69" s="62"/>
-      <c r="DT69" s="62"/>
-      <c r="DU69" s="62"/>
-      <c r="DV69" s="62"/>
-      <c r="DW69" s="62"/>
-      <c r="DX69" s="62"/>
-      <c r="DY69" s="62"/>
-      <c r="DZ69" s="62"/>
-      <c r="EA69" s="62"/>
-      <c r="EB69" s="62"/>
-      <c r="EC69" s="62"/>
-      <c r="ED69" s="62"/>
-      <c r="EE69" s="62"/>
-      <c r="EF69" s="62"/>
-      <c r="EG69" s="62"/>
-      <c r="EH69" s="62"/>
-      <c r="EI69" s="62"/>
-      <c r="EJ69" s="62"/>
-      <c r="EK69" s="62"/>
-      <c r="EL69" s="62"/>
-      <c r="EM69" s="62"/>
-      <c r="EN69" s="62"/>
-      <c r="EO69" s="62"/>
-      <c r="EP69" s="62"/>
-      <c r="EQ69" s="62"/>
-      <c r="ER69" s="62"/>
-      <c r="ES69" s="62"/>
-      <c r="ET69" s="62"/>
-      <c r="EU69" s="62"/>
-      <c r="EV69" s="62"/>
-      <c r="EW69" s="62"/>
-      <c r="EX69" s="62"/>
-      <c r="EY69" s="62"/>
-      <c r="EZ69" s="62"/>
-      <c r="FA69" s="62"/>
-      <c r="FB69" s="62"/>
-      <c r="FC69" s="62"/>
-      <c r="FD69" s="62"/>
-      <c r="FE69" s="62"/>
-      <c r="FF69" s="62"/>
-      <c r="FG69" s="62"/>
-      <c r="FH69" s="62"/>
-      <c r="FI69" s="62"/>
-      <c r="FJ69" s="62"/>
-      <c r="FK69" s="62"/>
-      <c r="FL69" s="62"/>
-      <c r="FM69" s="62"/>
-      <c r="FN69" s="62"/>
-      <c r="FO69" s="62"/>
-      <c r="FP69" s="62"/>
-      <c r="FQ69" s="62"/>
-      <c r="FR69" s="62"/>
-      <c r="FS69" s="62"/>
-      <c r="FT69" s="62"/>
-      <c r="FU69" s="62"/>
-      <c r="FV69" s="62"/>
-      <c r="FW69" s="62"/>
-      <c r="FX69" s="62"/>
-      <c r="FY69" s="62"/>
-      <c r="FZ69" s="62"/>
-      <c r="GA69" s="62"/>
-      <c r="GB69" s="62"/>
-      <c r="GC69" s="62"/>
-      <c r="GD69" s="62"/>
-      <c r="GE69" s="62"/>
-      <c r="GF69" s="62"/>
-      <c r="GG69" s="62"/>
-      <c r="GH69" s="62"/>
-      <c r="GI69" s="62"/>
-      <c r="GJ69" s="62"/>
-      <c r="GK69" s="62"/>
-      <c r="GL69" s="62"/>
-      <c r="GM69" s="62"/>
-      <c r="GN69" s="62"/>
-      <c r="GO69" s="62"/>
-      <c r="GP69" s="62"/>
-      <c r="GQ69" s="62"/>
-      <c r="GR69" s="62"/>
-      <c r="GS69" s="62"/>
-      <c r="GT69" s="62"/>
-      <c r="GU69" s="62"/>
-      <c r="GV69" s="62"/>
-      <c r="GW69" s="62"/>
-      <c r="GX69" s="62"/>
-      <c r="GY69" s="62"/>
-      <c r="GZ69" s="62"/>
-      <c r="HA69" s="62"/>
-      <c r="HB69" s="62"/>
-      <c r="HC69" s="62"/>
-      <c r="HD69" s="62"/>
-      <c r="HE69" s="62"/>
-      <c r="HF69" s="62"/>
-      <c r="HG69" s="62"/>
-      <c r="HH69" s="62"/>
-      <c r="HI69" s="62"/>
-      <c r="HJ69" s="62"/>
-      <c r="HK69" s="62"/>
-      <c r="HL69" s="62"/>
-      <c r="HM69" s="62"/>
-      <c r="HN69" s="62"/>
-      <c r="HO69" s="62"/>
-      <c r="HP69" s="62"/>
-      <c r="HQ69" s="62"/>
-      <c r="HR69" s="62"/>
-      <c r="HS69" s="62"/>
-      <c r="HT69" s="62"/>
-      <c r="HU69" s="62"/>
-      <c r="HV69" s="62"/>
-      <c r="HW69" s="62"/>
-      <c r="HX69" s="62"/>
-      <c r="HY69" s="62"/>
-      <c r="HZ69" s="62"/>
-      <c r="IA69" s="62"/>
-      <c r="IB69" s="62"/>
-      <c r="IC69" s="62"/>
-      <c r="ID69" s="62"/>
-      <c r="IE69" s="62"/>
-      <c r="IF69" s="62"/>
-      <c r="IG69" s="62"/>
-      <c r="IH69" s="62"/>
-      <c r="II69" s="62"/>
-      <c r="IJ69" s="62"/>
-      <c r="IK69" s="62"/>
-      <c r="IL69" s="62"/>
-      <c r="IM69" s="62"/>
-      <c r="IN69" s="62"/>
-      <c r="IO69" s="62"/>
-      <c r="IP69" s="62"/>
-      <c r="IQ69" s="62"/>
-      <c r="IR69" s="62"/>
-      <c r="IS69" s="62"/>
-      <c r="IT69" s="62"/>
-      <c r="IU69" s="62"/>
-      <c r="IV69" s="62"/>
-      <c r="IW69" s="62"/>
-      <c r="IX69" s="62"/>
-      <c r="IY69" s="62"/>
-      <c r="IZ69" s="62"/>
-      <c r="JA69" s="62"/>
-      <c r="JB69" s="62"/>
-      <c r="JC69" s="62"/>
-      <c r="JD69" s="62"/>
-      <c r="JE69" s="62"/>
-      <c r="JF69" s="62"/>
-      <c r="JG69" s="62"/>
-      <c r="JH69" s="62"/>
-      <c r="JI69" s="62"/>
-      <c r="JJ69" s="62"/>
-      <c r="JK69" s="62"/>
-      <c r="JL69" s="62"/>
-      <c r="JM69" s="62"/>
-      <c r="JN69" s="62"/>
-      <c r="JO69" s="62"/>
-      <c r="JP69" s="62"/>
-      <c r="JQ69" s="62"/>
-      <c r="JR69" s="62"/>
-      <c r="JS69" s="62"/>
-      <c r="JT69" s="62"/>
-      <c r="JU69" s="62"/>
-      <c r="JV69" s="62"/>
-      <c r="JW69" s="62"/>
-      <c r="JX69" s="62"/>
-      <c r="JY69" s="62"/>
-      <c r="JZ69" s="62"/>
-      <c r="KA69" s="62"/>
-      <c r="KB69" s="62"/>
-      <c r="KC69" s="62"/>
-      <c r="KD69" s="62"/>
-      <c r="KE69" s="62"/>
-      <c r="KF69" s="62"/>
-      <c r="KG69" s="62"/>
-      <c r="KH69" s="62"/>
-      <c r="KI69" s="62"/>
-      <c r="KJ69" s="62"/>
-      <c r="KK69" s="62"/>
-      <c r="KL69" s="62"/>
-      <c r="KM69" s="62"/>
-      <c r="KN69" s="62"/>
-      <c r="KO69" s="62"/>
-      <c r="KP69" s="62"/>
-      <c r="KQ69" s="62"/>
-      <c r="KR69" s="62"/>
-      <c r="KS69" s="62"/>
-      <c r="KT69" s="62"/>
-      <c r="KU69" s="62"/>
-      <c r="KV69" s="62"/>
-      <c r="KW69" s="62"/>
-      <c r="KX69" s="62"/>
-      <c r="KY69" s="62"/>
-      <c r="KZ69" s="62"/>
-      <c r="LA69" s="62"/>
-      <c r="LB69" s="62"/>
-      <c r="LC69" s="62"/>
-      <c r="LD69" s="62"/>
-      <c r="LE69" s="62"/>
-      <c r="LF69" s="62"/>
-      <c r="LG69" s="62"/>
-      <c r="LH69" s="62"/>
-      <c r="LI69" s="62"/>
-      <c r="LJ69" s="62"/>
-      <c r="LK69" s="62"/>
-      <c r="LL69" s="62"/>
-      <c r="LM69" s="62"/>
-      <c r="LN69" s="62"/>
-      <c r="LO69" s="62"/>
-      <c r="LP69" s="62"/>
-      <c r="LQ69" s="62"/>
-      <c r="LR69" s="62"/>
-      <c r="LS69" s="62"/>
-      <c r="LT69" s="62"/>
-      <c r="LU69" s="62"/>
-      <c r="LV69" s="62"/>
-      <c r="LW69" s="62"/>
-      <c r="LX69" s="62"/>
-      <c r="LY69" s="62"/>
-      <c r="LZ69" s="62"/>
-      <c r="MA69" s="62"/>
-      <c r="MB69" s="62"/>
-      <c r="MC69" s="62"/>
-      <c r="MD69" s="62"/>
-      <c r="ME69" s="62"/>
-      <c r="MF69" s="62"/>
-      <c r="MG69" s="62"/>
-      <c r="MH69" s="62"/>
-      <c r="MI69" s="62"/>
-      <c r="MJ69" s="62"/>
-      <c r="MK69" s="62"/>
-      <c r="ML69" s="62"/>
-      <c r="MM69" s="62"/>
-      <c r="MN69" s="62"/>
-      <c r="MO69" s="62"/>
-      <c r="MP69" s="62"/>
-      <c r="MQ69" s="62"/>
-      <c r="MR69" s="62"/>
-      <c r="MS69" s="62"/>
-      <c r="MT69" s="62"/>
-      <c r="MU69" s="62"/>
-      <c r="MV69" s="62"/>
-      <c r="MW69" s="62"/>
-      <c r="MX69" s="62"/>
-      <c r="MY69" s="62"/>
-      <c r="MZ69" s="62"/>
-      <c r="NA69" s="62"/>
-      <c r="NB69" s="62"/>
-      <c r="NC69" s="62"/>
-      <c r="ND69" s="62"/>
-      <c r="NE69" s="62"/>
-      <c r="NF69" s="62"/>
-      <c r="NG69" s="62"/>
-      <c r="NH69" s="62"/>
-      <c r="NI69" s="62"/>
-      <c r="NJ69" s="62"/>
-      <c r="NK69" s="62"/>
-      <c r="NL69" s="62"/>
-      <c r="NM69" s="62"/>
-      <c r="NN69" s="62"/>
-      <c r="NO69" s="62"/>
-      <c r="NP69" s="62"/>
-      <c r="NQ69" s="62"/>
-      <c r="NR69" s="62"/>
-      <c r="NS69" s="62"/>
-      <c r="NT69" s="62"/>
-      <c r="NU69" s="62"/>
-      <c r="NV69" s="62"/>
-      <c r="NW69" s="62"/>
-      <c r="NX69" s="62"/>
-      <c r="NY69" s="62"/>
-      <c r="NZ69" s="62"/>
-      <c r="OA69" s="62"/>
-      <c r="OB69" s="62"/>
-      <c r="OC69" s="62"/>
-      <c r="OD69" s="62"/>
-      <c r="OE69" s="62"/>
-      <c r="OF69" s="62"/>
-      <c r="OG69" s="62"/>
-      <c r="OH69" s="62"/>
-      <c r="OI69" s="62"/>
-      <c r="OJ69" s="62"/>
-      <c r="OK69" s="62"/>
-      <c r="OL69" s="62"/>
-      <c r="OM69" s="62"/>
-      <c r="ON69" s="62"/>
-      <c r="OO69" s="62"/>
-      <c r="OP69" s="62"/>
-      <c r="OQ69" s="62"/>
-      <c r="OR69" s="62"/>
-      <c r="OS69" s="62"/>
-      <c r="OT69" s="62"/>
-      <c r="OU69" s="62"/>
-      <c r="OV69" s="62"/>
-      <c r="OW69" s="62"/>
-      <c r="OX69" s="62"/>
-      <c r="OY69" s="62"/>
-      <c r="OZ69" s="62"/>
-      <c r="PA69" s="62"/>
-      <c r="PB69" s="62"/>
-      <c r="PC69" s="62"/>
-      <c r="PD69" s="62"/>
-      <c r="PE69" s="62"/>
-      <c r="PF69" s="62"/>
-      <c r="PG69" s="62"/>
-      <c r="PH69" s="62"/>
-      <c r="PI69" s="62"/>
-      <c r="PJ69" s="62"/>
-      <c r="PK69" s="62"/>
-      <c r="PL69" s="62"/>
-      <c r="PM69" s="62"/>
-      <c r="PN69" s="62"/>
-      <c r="PO69" s="62"/>
-      <c r="PP69" s="62"/>
-      <c r="PQ69" s="62"/>
-      <c r="PR69" s="62"/>
-      <c r="PS69" s="62"/>
-      <c r="PT69" s="62"/>
-      <c r="PU69" s="62"/>
-      <c r="PV69" s="62"/>
-      <c r="PW69" s="62"/>
-      <c r="PX69" s="62"/>
-      <c r="PY69" s="62"/>
-      <c r="PZ69" s="62"/>
-      <c r="QA69" s="62"/>
-      <c r="QB69" s="62"/>
-      <c r="QC69" s="62"/>
-      <c r="QD69" s="62"/>
-      <c r="QE69" s="62"/>
-      <c r="QF69" s="62"/>
-      <c r="QG69" s="62"/>
-      <c r="QH69" s="62"/>
-      <c r="QI69" s="62"/>
-      <c r="QJ69" s="62"/>
-      <c r="QK69" s="62"/>
-      <c r="QL69" s="62"/>
-      <c r="QM69" s="62"/>
-      <c r="QN69" s="62"/>
-      <c r="QO69" s="62"/>
-      <c r="QP69" s="62"/>
-      <c r="QQ69" s="62"/>
-      <c r="QR69" s="62"/>
-      <c r="QS69" s="62"/>
-      <c r="QT69" s="62"/>
-      <c r="QU69" s="62"/>
-      <c r="QV69" s="62"/>
-      <c r="QW69" s="62"/>
-      <c r="QX69" s="62"/>
-      <c r="QY69" s="62"/>
-      <c r="QZ69" s="62"/>
-      <c r="RA69" s="62"/>
-      <c r="RB69" s="62"/>
-      <c r="RC69" s="62"/>
-      <c r="RD69" s="62"/>
-      <c r="RE69" s="62"/>
-      <c r="RF69" s="62"/>
-      <c r="RG69" s="62"/>
-      <c r="RH69" s="62"/>
-      <c r="RI69" s="62"/>
-      <c r="RJ69" s="62"/>
-      <c r="RK69" s="62"/>
-      <c r="RL69" s="62"/>
-      <c r="RM69" s="62"/>
-      <c r="RN69" s="62"/>
-      <c r="RO69" s="62"/>
-      <c r="RP69" s="62"/>
-      <c r="RQ69" s="62"/>
-      <c r="RR69" s="62"/>
-      <c r="RS69" s="62"/>
-      <c r="RT69" s="62"/>
-      <c r="RU69" s="62"/>
-      <c r="RV69" s="62"/>
-      <c r="RW69" s="62"/>
-      <c r="RX69" s="62"/>
-      <c r="RY69" s="62"/>
-      <c r="RZ69" s="62"/>
-      <c r="SA69" s="62"/>
-      <c r="SB69" s="62"/>
-      <c r="SC69" s="62"/>
-      <c r="SD69" s="62"/>
-      <c r="SE69" s="62"/>
-      <c r="SF69" s="62"/>
-      <c r="SG69" s="62"/>
-      <c r="SH69" s="62"/>
-      <c r="SI69" s="62"/>
-      <c r="SJ69" s="62"/>
-      <c r="SK69" s="62"/>
-      <c r="SL69" s="62"/>
-      <c r="SM69" s="62"/>
-      <c r="SN69" s="62"/>
-      <c r="SO69" s="62"/>
-      <c r="SP69" s="62"/>
-      <c r="SQ69" s="62"/>
-      <c r="SR69" s="62"/>
-      <c r="SS69" s="62"/>
-      <c r="ST69" s="62"/>
-      <c r="SU69" s="62"/>
-      <c r="SV69" s="62"/>
-      <c r="SW69" s="62"/>
-      <c r="SX69" s="62"/>
-      <c r="SY69" s="62"/>
-      <c r="SZ69" s="62"/>
-      <c r="TA69" s="62"/>
-      <c r="TB69" s="62"/>
-      <c r="TC69" s="62"/>
-      <c r="TD69" s="62"/>
-      <c r="TE69" s="62"/>
-      <c r="TF69" s="62"/>
-      <c r="TG69" s="62"/>
-      <c r="TH69" s="62"/>
-      <c r="TI69" s="62"/>
-      <c r="TJ69" s="62"/>
-      <c r="TK69" s="62"/>
-      <c r="TL69" s="62"/>
-      <c r="TM69" s="62"/>
-      <c r="TN69" s="62"/>
-      <c r="TO69" s="62"/>
-      <c r="TP69" s="62"/>
-      <c r="TQ69" s="62"/>
-      <c r="TR69" s="62"/>
-      <c r="TS69" s="62"/>
-      <c r="TT69" s="62"/>
-      <c r="TU69" s="62"/>
-      <c r="TV69" s="62"/>
-      <c r="TW69" s="62"/>
-      <c r="TX69" s="62"/>
-      <c r="TY69" s="62"/>
-      <c r="TZ69" s="62"/>
-      <c r="UA69" s="62"/>
-      <c r="UB69" s="62"/>
-      <c r="UC69" s="62"/>
-      <c r="UD69" s="62"/>
-      <c r="UE69" s="62"/>
-      <c r="UF69" s="62"/>
-      <c r="UG69" s="62"/>
-      <c r="UH69" s="62"/>
-      <c r="UI69" s="62"/>
-      <c r="UJ69" s="62"/>
-      <c r="UK69" s="62"/>
-      <c r="UL69" s="62"/>
-      <c r="UM69" s="62"/>
-      <c r="UN69" s="62"/>
-      <c r="UO69" s="62"/>
-      <c r="UP69" s="62"/>
-      <c r="UQ69" s="62"/>
-      <c r="UR69" s="62"/>
-      <c r="US69" s="62"/>
-      <c r="UT69" s="62"/>
-      <c r="UU69" s="62"/>
-      <c r="UV69" s="62"/>
-      <c r="UW69" s="62"/>
-      <c r="UX69" s="62"/>
-      <c r="UY69" s="62"/>
-      <c r="UZ69" s="62"/>
-      <c r="VA69" s="62"/>
-      <c r="VB69" s="62"/>
-      <c r="VC69" s="62"/>
-      <c r="VD69" s="62"/>
-      <c r="VE69" s="62"/>
-      <c r="VF69" s="62"/>
-      <c r="VG69" s="62"/>
-      <c r="VH69" s="62"/>
-      <c r="VI69" s="62"/>
-      <c r="VJ69" s="62"/>
-      <c r="VK69" s="62"/>
-      <c r="VL69" s="62"/>
-      <c r="VM69" s="62"/>
-      <c r="VN69" s="62"/>
-      <c r="VO69" s="62"/>
-      <c r="VP69" s="62"/>
-      <c r="VQ69" s="62"/>
-      <c r="VR69" s="62"/>
-      <c r="VS69" s="62"/>
-      <c r="VT69" s="62"/>
-      <c r="VU69" s="62"/>
-      <c r="VV69" s="62"/>
-      <c r="VW69" s="62"/>
-      <c r="VX69" s="62"/>
-      <c r="VY69" s="62"/>
-      <c r="VZ69" s="62"/>
-      <c r="WA69" s="62"/>
-      <c r="WB69" s="62"/>
-      <c r="WC69" s="62"/>
-      <c r="WD69" s="62"/>
-      <c r="WE69" s="62"/>
-      <c r="WF69" s="62"/>
-      <c r="WG69" s="62"/>
-      <c r="WH69" s="62"/>
-      <c r="WI69" s="62"/>
-      <c r="WJ69" s="62"/>
-      <c r="WK69" s="62"/>
-      <c r="WL69" s="62"/>
-      <c r="WM69" s="62"/>
-      <c r="WN69" s="62"/>
-      <c r="WO69" s="62"/>
-      <c r="WP69" s="62"/>
-      <c r="WQ69" s="62"/>
-      <c r="WR69" s="62"/>
-      <c r="WS69" s="62"/>
-      <c r="WT69" s="62"/>
-      <c r="WU69" s="62"/>
-      <c r="WV69" s="62"/>
-      <c r="WW69" s="62"/>
-      <c r="WX69" s="62"/>
-      <c r="WY69" s="62"/>
-      <c r="WZ69" s="62"/>
-      <c r="XA69" s="62"/>
-      <c r="XB69" s="62"/>
-      <c r="XC69" s="62"/>
-      <c r="XD69" s="62"/>
-      <c r="XE69" s="62"/>
-      <c r="XF69" s="62"/>
-      <c r="XG69" s="62"/>
-      <c r="XH69" s="62"/>
-      <c r="XI69" s="62"/>
-      <c r="XJ69" s="62"/>
-      <c r="XK69" s="62"/>
-      <c r="XL69" s="62"/>
-      <c r="XM69" s="62"/>
-      <c r="XN69" s="62"/>
-      <c r="XO69" s="62"/>
-      <c r="XP69" s="62"/>
-      <c r="XQ69" s="62"/>
-      <c r="XR69" s="62"/>
-      <c r="XS69" s="62"/>
-      <c r="XT69" s="62"/>
-      <c r="XU69" s="62"/>
-      <c r="XV69" s="62"/>
-      <c r="XW69" s="62"/>
-      <c r="XX69" s="62"/>
-      <c r="XY69" s="62"/>
-      <c r="XZ69" s="62"/>
-      <c r="YA69" s="62"/>
-      <c r="YB69" s="62"/>
-      <c r="YC69" s="62"/>
-      <c r="YD69" s="62"/>
-      <c r="YE69" s="62"/>
-      <c r="YF69" s="62"/>
-      <c r="YG69" s="62"/>
-      <c r="YH69" s="62"/>
-      <c r="YI69" s="62"/>
-      <c r="YJ69" s="62"/>
-      <c r="YK69" s="62"/>
-      <c r="YL69" s="62"/>
-      <c r="YM69" s="62"/>
-      <c r="YN69" s="62"/>
-      <c r="YO69" s="62"/>
-      <c r="YP69" s="62"/>
-      <c r="YQ69" s="62"/>
-      <c r="YR69" s="62"/>
-      <c r="YS69" s="62"/>
-      <c r="YT69" s="62"/>
-      <c r="YU69" s="62"/>
-      <c r="YV69" s="62"/>
-      <c r="YW69" s="62"/>
-      <c r="YX69" s="62"/>
-      <c r="YY69" s="62"/>
-      <c r="YZ69" s="62"/>
-      <c r="ZA69" s="62"/>
-      <c r="ZB69" s="62"/>
-      <c r="ZC69" s="62"/>
-      <c r="ZD69" s="62"/>
-      <c r="ZE69" s="62"/>
-      <c r="ZF69" s="62"/>
-      <c r="ZG69" s="62"/>
-      <c r="ZH69" s="62"/>
-      <c r="ZI69" s="62"/>
-      <c r="ZJ69" s="62"/>
-      <c r="ZK69" s="62"/>
-      <c r="ZL69" s="62"/>
-      <c r="ZM69" s="62"/>
-      <c r="ZN69" s="62"/>
-      <c r="ZO69" s="62"/>
-      <c r="ZP69" s="62"/>
-      <c r="ZQ69" s="62"/>
-      <c r="ZR69" s="62"/>
-      <c r="ZS69" s="62"/>
-      <c r="ZT69" s="62"/>
-      <c r="ZU69" s="62"/>
-      <c r="ZV69" s="62"/>
-      <c r="ZW69" s="62"/>
-      <c r="ZX69" s="62"/>
-      <c r="ZY69" s="62"/>
-      <c r="ZZ69" s="62"/>
-      <c r="AAA69" s="62"/>
-      <c r="AAB69" s="62"/>
-      <c r="AAC69" s="62"/>
-      <c r="AAD69" s="62"/>
-      <c r="AAE69" s="62"/>
-      <c r="AAF69" s="62"/>
-      <c r="AAG69" s="62"/>
-      <c r="AAH69" s="62"/>
-      <c r="AAI69" s="62"/>
-      <c r="AAJ69" s="62"/>
-      <c r="AAK69" s="62"/>
-      <c r="AAL69" s="62"/>
-      <c r="AAM69" s="62"/>
-      <c r="AAN69" s="62"/>
-      <c r="AAO69" s="62"/>
-      <c r="AAP69" s="62"/>
-      <c r="AAQ69" s="62"/>
-      <c r="AAR69" s="62"/>
-      <c r="AAS69" s="62"/>
-      <c r="AAT69" s="62"/>
-      <c r="AAU69" s="62"/>
-      <c r="AAV69" s="62"/>
-      <c r="AAW69" s="62"/>
-      <c r="AAX69" s="62"/>
-      <c r="AAY69" s="62"/>
-      <c r="AAZ69" s="62"/>
-      <c r="ABA69" s="62"/>
-      <c r="ABB69" s="62"/>
-      <c r="ABC69" s="62"/>
-      <c r="ABD69" s="62"/>
-      <c r="ABE69" s="62"/>
-      <c r="ABF69" s="62"/>
-      <c r="ABG69" s="62"/>
-      <c r="ABH69" s="62"/>
-      <c r="ABI69" s="62"/>
-      <c r="ABJ69" s="62"/>
-      <c r="ABK69" s="62"/>
-      <c r="ABL69" s="62"/>
-      <c r="ABM69" s="62"/>
-      <c r="ABN69" s="62"/>
-      <c r="ABO69" s="62"/>
-      <c r="ABP69" s="62"/>
-      <c r="ABQ69" s="62"/>
-      <c r="ABR69" s="62"/>
-      <c r="ABS69" s="62"/>
-      <c r="ABT69" s="62"/>
-      <c r="ABU69" s="62"/>
-      <c r="ABV69" s="62"/>
-      <c r="ABW69" s="62"/>
-      <c r="ABX69" s="62"/>
-      <c r="ABY69" s="62"/>
-      <c r="ABZ69" s="62"/>
-      <c r="ACA69" s="62"/>
-      <c r="ACB69" s="62"/>
-      <c r="ACC69" s="62"/>
-      <c r="ACD69" s="62"/>
-      <c r="ACE69" s="62"/>
-      <c r="ACF69" s="62"/>
-      <c r="ACG69" s="62"/>
-      <c r="ACH69" s="62"/>
-      <c r="ACI69" s="62"/>
-      <c r="ACJ69" s="62"/>
-      <c r="ACK69" s="62"/>
-      <c r="ACL69" s="62"/>
-      <c r="ACM69" s="62"/>
-      <c r="ACN69" s="62"/>
-      <c r="ACO69" s="62"/>
-      <c r="ACP69" s="62"/>
-      <c r="ACQ69" s="62"/>
-      <c r="ACR69" s="62"/>
-      <c r="ACS69" s="62"/>
-      <c r="ACT69" s="62"/>
-      <c r="ACU69" s="62"/>
-      <c r="ACV69" s="62"/>
-      <c r="ACW69" s="62"/>
-      <c r="ACX69" s="62"/>
-      <c r="ACY69" s="62"/>
-      <c r="ACZ69" s="62"/>
-      <c r="ADA69" s="62"/>
-      <c r="ADB69" s="62"/>
-      <c r="ADC69" s="62"/>
-      <c r="ADD69" s="62"/>
-      <c r="ADE69" s="62"/>
-      <c r="ADF69" s="62"/>
-      <c r="ADG69" s="62"/>
-      <c r="ADH69" s="62"/>
-      <c r="ADI69" s="62"/>
-      <c r="ADJ69" s="62"/>
-      <c r="ADK69" s="62"/>
-      <c r="ADL69" s="62"/>
-      <c r="ADM69" s="62"/>
-      <c r="ADN69" s="62"/>
-      <c r="ADO69" s="62"/>
-      <c r="ADP69" s="62"/>
-      <c r="ADQ69" s="62"/>
-      <c r="ADR69" s="62"/>
-      <c r="ADS69" s="62"/>
-      <c r="ADT69" s="62"/>
-      <c r="ADU69" s="62"/>
-      <c r="ADV69" s="62"/>
-      <c r="ADW69" s="62"/>
-      <c r="ADX69" s="62"/>
-      <c r="ADY69" s="62"/>
-      <c r="ADZ69" s="62"/>
-      <c r="AEA69" s="62"/>
-      <c r="AEB69" s="62"/>
-      <c r="AEC69" s="62"/>
-      <c r="AED69" s="62"/>
-      <c r="AEE69" s="62"/>
-      <c r="AEF69" s="62"/>
-      <c r="AEG69" s="62"/>
-      <c r="AEH69" s="62"/>
-      <c r="AEI69" s="62"/>
-      <c r="AEJ69" s="62"/>
-      <c r="AEK69" s="62"/>
-      <c r="AEL69" s="62"/>
-      <c r="AEM69" s="62"/>
-      <c r="AEN69" s="62"/>
-      <c r="AEO69" s="62"/>
-      <c r="AEP69" s="62"/>
-      <c r="AEQ69" s="62"/>
-      <c r="AER69" s="62"/>
-      <c r="AES69" s="62"/>
-      <c r="AET69" s="62"/>
-      <c r="AEU69" s="62"/>
-      <c r="AEV69" s="62"/>
-      <c r="AEW69" s="62"/>
-      <c r="AEX69" s="62"/>
-      <c r="AEY69" s="62"/>
-      <c r="AEZ69" s="62"/>
-      <c r="AFA69" s="62"/>
-      <c r="AFB69" s="62"/>
-      <c r="AFC69" s="62"/>
-      <c r="AFD69" s="62"/>
-      <c r="AFE69" s="62"/>
-      <c r="AFF69" s="62"/>
-      <c r="AFG69" s="62"/>
-      <c r="AFH69" s="62"/>
-      <c r="AFI69" s="62"/>
-      <c r="AFJ69" s="62"/>
-      <c r="AFK69" s="62"/>
-      <c r="AFL69" s="62"/>
-      <c r="AFM69" s="62"/>
-      <c r="AFN69" s="62"/>
-      <c r="AFO69" s="62"/>
-      <c r="AFP69" s="62"/>
-      <c r="AFQ69" s="62"/>
-      <c r="AFR69" s="62"/>
-      <c r="AFS69" s="62"/>
-      <c r="AFT69" s="62"/>
-      <c r="AFU69" s="62"/>
-      <c r="AFV69" s="62"/>
-      <c r="AFW69" s="62"/>
-      <c r="AFX69" s="62"/>
-      <c r="AFY69" s="62"/>
-      <c r="AFZ69" s="62"/>
-      <c r="AGA69" s="62"/>
-      <c r="AGB69" s="62"/>
-      <c r="AGC69" s="62"/>
-      <c r="AGD69" s="62"/>
-      <c r="AGE69" s="62"/>
-      <c r="AGF69" s="62"/>
-      <c r="AGG69" s="62"/>
-      <c r="AGH69" s="62"/>
-      <c r="AGI69" s="62"/>
-      <c r="AGJ69" s="62"/>
-      <c r="AGK69" s="62"/>
-      <c r="AGL69" s="62"/>
-      <c r="AGM69" s="62"/>
-      <c r="AGN69" s="62"/>
-      <c r="AGO69" s="62"/>
-      <c r="AGP69" s="62"/>
-      <c r="AGQ69" s="62"/>
-      <c r="AGR69" s="62"/>
-      <c r="AGS69" s="62"/>
-      <c r="AGT69" s="62"/>
-      <c r="AGU69" s="62"/>
-      <c r="AGV69" s="62"/>
-      <c r="AGW69" s="62"/>
-      <c r="AGX69" s="62"/>
-      <c r="AGY69" s="62"/>
-      <c r="AGZ69" s="62"/>
-      <c r="AHA69" s="62"/>
-      <c r="AHB69" s="62"/>
-      <c r="AHC69" s="62"/>
-      <c r="AHD69" s="62"/>
-      <c r="AHE69" s="62"/>
-      <c r="AHF69" s="62"/>
-      <c r="AHG69" s="62"/>
-      <c r="AHH69" s="62"/>
-      <c r="AHI69" s="62"/>
-      <c r="AHJ69" s="62"/>
-      <c r="AHK69" s="62"/>
-      <c r="AHL69" s="62"/>
-      <c r="AHM69" s="62"/>
-      <c r="AHN69" s="62"/>
-      <c r="AHO69" s="62"/>
-      <c r="AHP69" s="62"/>
-      <c r="AHQ69" s="62"/>
-      <c r="AHR69" s="62"/>
-      <c r="AHS69" s="62"/>
-      <c r="AHT69" s="62"/>
-      <c r="AHU69" s="62"/>
-      <c r="AHV69" s="62"/>
-      <c r="AHW69" s="62"/>
-      <c r="AHX69" s="62"/>
-      <c r="AHY69" s="62"/>
-      <c r="AHZ69" s="62"/>
-      <c r="AIA69" s="62"/>
-      <c r="AIB69" s="62"/>
-      <c r="AIC69" s="62"/>
-      <c r="AID69" s="62"/>
-      <c r="AIE69" s="62"/>
-      <c r="AIF69" s="62"/>
-      <c r="AIG69" s="62"/>
-      <c r="AIH69" s="62"/>
-      <c r="AII69" s="62"/>
-      <c r="AIJ69" s="62"/>
-      <c r="AIK69" s="62"/>
-      <c r="AIL69" s="62"/>
-      <c r="AIM69" s="62"/>
-      <c r="AIN69" s="62"/>
-      <c r="AIO69" s="62"/>
-      <c r="AIP69" s="62"/>
-      <c r="AIQ69" s="62"/>
-      <c r="AIR69" s="62"/>
-      <c r="AIS69" s="62"/>
-      <c r="AIT69" s="62"/>
-      <c r="AIU69" s="62"/>
-      <c r="AIV69" s="62"/>
-      <c r="AIW69" s="62"/>
-      <c r="AIX69" s="62"/>
-      <c r="AIY69" s="62"/>
-      <c r="AIZ69" s="62"/>
-      <c r="AJA69" s="62"/>
-      <c r="AJB69" s="62"/>
-      <c r="AJC69" s="62"/>
-      <c r="AJD69" s="62"/>
-      <c r="AJE69" s="62"/>
-      <c r="AJF69" s="62"/>
-      <c r="AJG69" s="62"/>
-      <c r="AJH69" s="62"/>
-      <c r="AJI69" s="62"/>
-      <c r="AJJ69" s="62"/>
-      <c r="AJK69" s="62"/>
-      <c r="AJL69" s="62"/>
-      <c r="AJM69" s="62"/>
-      <c r="AJN69" s="62"/>
-      <c r="AJO69" s="62"/>
-      <c r="AJP69" s="62"/>
-      <c r="AJQ69" s="62"/>
-      <c r="AJR69" s="62"/>
-      <c r="AJS69" s="62"/>
-      <c r="AJT69" s="62"/>
-      <c r="AJU69" s="62"/>
-      <c r="AJV69" s="62"/>
-      <c r="AJW69" s="62"/>
-      <c r="AJX69" s="62"/>
-      <c r="AJY69" s="62"/>
-      <c r="AJZ69" s="62"/>
-      <c r="AKA69" s="62"/>
-      <c r="AKB69" s="62"/>
-      <c r="AKC69" s="62"/>
-      <c r="AKD69" s="62"/>
-      <c r="AKE69" s="62"/>
-      <c r="AKF69" s="62"/>
-      <c r="AKG69" s="62"/>
-      <c r="AKH69" s="62"/>
-      <c r="AKI69" s="62"/>
-      <c r="AKJ69" s="62"/>
-      <c r="AKK69" s="62"/>
-      <c r="AKL69" s="62"/>
-      <c r="AKM69" s="62"/>
-      <c r="AKN69" s="62"/>
-      <c r="AKO69" s="62"/>
-      <c r="AKP69" s="62"/>
-      <c r="AKQ69" s="62"/>
-      <c r="AKR69" s="62"/>
-      <c r="AKS69" s="62"/>
-      <c r="AKT69" s="62"/>
-      <c r="AKU69" s="62"/>
-      <c r="AKV69" s="62"/>
-      <c r="AKW69" s="62"/>
-      <c r="AKX69" s="62"/>
-      <c r="AKY69" s="62"/>
-      <c r="AKZ69" s="62"/>
-      <c r="ALA69" s="62"/>
-      <c r="ALB69" s="62"/>
-      <c r="ALC69" s="62"/>
-      <c r="ALD69" s="62"/>
-      <c r="ALE69" s="62"/>
-      <c r="ALF69" s="62"/>
-      <c r="ALG69" s="62"/>
-      <c r="ALH69" s="62"/>
-      <c r="ALI69" s="62"/>
-      <c r="ALJ69" s="62"/>
-      <c r="ALK69" s="62"/>
-      <c r="ALL69" s="62"/>
-      <c r="ALM69" s="62"/>
-      <c r="ALN69" s="62"/>
-      <c r="ALO69" s="62"/>
-      <c r="ALP69" s="62"/>
-      <c r="ALQ69" s="62"/>
-      <c r="ALR69" s="62"/>
-      <c r="ALS69" s="62"/>
-      <c r="ALT69" s="62"/>
-      <c r="ALU69" s="62"/>
-      <c r="ALV69" s="62"/>
-      <c r="ALW69" s="62"/>
-      <c r="ALX69" s="62"/>
-      <c r="ALY69" s="62"/>
-      <c r="ALZ69" s="62"/>
-      <c r="AMA69" s="62"/>
-      <c r="AMB69" s="62"/>
-      <c r="AMC69" s="62"/>
-      <c r="AMD69" s="62"/>
-      <c r="AME69" s="62"/>
-      <c r="AMF69" s="62"/>
-      <c r="AMG69" s="62"/>
-      <c r="AMH69" s="62"/>
-      <c r="AMI69" s="62"/>
-      <c r="AMJ69" s="62"/>
-      <c r="AMK69" s="62"/>
-      <c r="AML69" s="62"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="63"/>
+      <c r="L69" s="63"/>
+      <c r="M69" s="63"/>
+      <c r="N69" s="63"/>
+      <c r="O69" s="63"/>
+      <c r="P69" s="63"/>
+      <c r="Q69" s="63"/>
+      <c r="R69" s="63"/>
+      <c r="S69" s="63"/>
+      <c r="T69" s="63"/>
+      <c r="U69" s="63"/>
+      <c r="V69" s="70"/>
+      <c r="W69" s="70"/>
+      <c r="X69" s="63"/>
+      <c r="Y69" s="63"/>
+      <c r="Z69" s="63"/>
+      <c r="AA69" s="63"/>
+      <c r="AB69" s="63"/>
+      <c r="AC69" s="63"/>
+      <c r="AD69" s="63"/>
+      <c r="AE69" s="63"/>
+      <c r="AF69" s="63"/>
+      <c r="AG69" s="63"/>
+      <c r="AH69" s="63"/>
+      <c r="AI69" s="63"/>
+      <c r="AJ69" s="63"/>
+      <c r="AK69" s="63"/>
+      <c r="AL69" s="63"/>
+      <c r="AM69" s="63"/>
+      <c r="AN69" s="63"/>
+      <c r="AO69" s="63"/>
+      <c r="AP69" s="63"/>
+      <c r="AQ69" s="63"/>
+      <c r="AR69" s="63"/>
+      <c r="AS69" s="63"/>
+      <c r="AT69" s="63"/>
+      <c r="AU69" s="63"/>
+      <c r="AV69" s="63"/>
+      <c r="AW69" s="63"/>
+      <c r="AX69" s="63"/>
+      <c r="AY69" s="63"/>
+      <c r="AZ69" s="63"/>
+      <c r="BA69" s="63"/>
+      <c r="BB69" s="63"/>
+      <c r="BC69" s="63"/>
+      <c r="BD69" s="63"/>
+      <c r="BE69" s="63"/>
+      <c r="BF69" s="63"/>
+      <c r="BG69" s="63"/>
+      <c r="BH69" s="63"/>
+      <c r="BI69" s="63"/>
+      <c r="BJ69" s="63"/>
+      <c r="BK69" s="63"/>
+      <c r="BL69" s="63"/>
+      <c r="BM69" s="63"/>
+      <c r="BN69" s="63"/>
+      <c r="BO69" s="63"/>
+      <c r="BP69" s="63"/>
+      <c r="BQ69" s="63"/>
+      <c r="BR69" s="63"/>
+      <c r="BS69" s="63"/>
+      <c r="BT69" s="63"/>
+      <c r="BU69" s="63"/>
+      <c r="BV69" s="63"/>
+      <c r="BW69" s="63"/>
+      <c r="BX69" s="63"/>
+      <c r="BY69" s="63"/>
+      <c r="BZ69" s="63"/>
+      <c r="CA69" s="63"/>
+      <c r="CB69" s="63"/>
+      <c r="CC69" s="63"/>
+      <c r="CD69" s="63"/>
+      <c r="CE69" s="63"/>
+      <c r="CF69" s="63"/>
+      <c r="CG69" s="63"/>
+      <c r="CH69" s="63"/>
+      <c r="CI69" s="63"/>
+      <c r="CJ69" s="63"/>
+      <c r="CK69" s="63"/>
+      <c r="CL69" s="63"/>
+      <c r="CM69" s="63"/>
+      <c r="CN69" s="63"/>
+      <c r="CO69" s="63"/>
+      <c r="CP69" s="63"/>
+      <c r="CQ69" s="63"/>
+      <c r="CR69" s="63"/>
+      <c r="CS69" s="63"/>
+      <c r="CT69" s="63"/>
+      <c r="CU69" s="63"/>
+      <c r="CV69" s="63"/>
+      <c r="CW69" s="63"/>
+      <c r="CX69" s="63"/>
+      <c r="CY69" s="63"/>
+      <c r="CZ69" s="63"/>
+      <c r="DA69" s="63"/>
+      <c r="DB69" s="63"/>
+      <c r="DC69" s="63"/>
+      <c r="DD69" s="63"/>
+      <c r="DE69" s="63"/>
+      <c r="DF69" s="63"/>
+      <c r="DG69" s="63"/>
+      <c r="DH69" s="63"/>
+      <c r="DI69" s="63"/>
+      <c r="DJ69" s="63"/>
+      <c r="DK69" s="63"/>
+      <c r="DL69" s="63"/>
+      <c r="DM69" s="63"/>
+      <c r="DN69" s="63"/>
+      <c r="DO69" s="63"/>
+      <c r="DP69" s="63"/>
+      <c r="DQ69" s="63"/>
+      <c r="DR69" s="63"/>
+      <c r="DS69" s="63"/>
+      <c r="DT69" s="63"/>
+      <c r="DU69" s="63"/>
+      <c r="DV69" s="63"/>
+      <c r="DW69" s="63"/>
+      <c r="DX69" s="63"/>
+      <c r="DY69" s="63"/>
+      <c r="DZ69" s="63"/>
+      <c r="EA69" s="63"/>
+      <c r="EB69" s="63"/>
+      <c r="EC69" s="63"/>
+      <c r="ED69" s="63"/>
+      <c r="EE69" s="63"/>
+      <c r="EF69" s="63"/>
+      <c r="EG69" s="63"/>
+      <c r="EH69" s="63"/>
+      <c r="EI69" s="63"/>
+      <c r="EJ69" s="63"/>
+      <c r="EK69" s="63"/>
+      <c r="EL69" s="63"/>
+      <c r="EM69" s="63"/>
+      <c r="EN69" s="63"/>
+      <c r="EO69" s="63"/>
+      <c r="EP69" s="63"/>
+      <c r="EQ69" s="63"/>
+      <c r="ER69" s="63"/>
+      <c r="ES69" s="63"/>
+      <c r="ET69" s="63"/>
+      <c r="EU69" s="63"/>
+      <c r="EV69" s="63"/>
+      <c r="EW69" s="63"/>
+      <c r="EX69" s="63"/>
+      <c r="EY69" s="63"/>
+      <c r="EZ69" s="63"/>
+      <c r="FA69" s="63"/>
+      <c r="FB69" s="63"/>
+      <c r="FC69" s="63"/>
+      <c r="FD69" s="63"/>
+      <c r="FE69" s="63"/>
+      <c r="FF69" s="63"/>
+      <c r="FG69" s="63"/>
+      <c r="FH69" s="63"/>
+      <c r="FI69" s="63"/>
+      <c r="FJ69" s="63"/>
+      <c r="FK69" s="63"/>
+      <c r="FL69" s="63"/>
+      <c r="FM69" s="63"/>
+      <c r="FN69" s="63"/>
+      <c r="FO69" s="63"/>
+      <c r="FP69" s="63"/>
+      <c r="FQ69" s="63"/>
+      <c r="FR69" s="63"/>
+      <c r="FS69" s="63"/>
+      <c r="FT69" s="63"/>
+      <c r="FU69" s="63"/>
+      <c r="FV69" s="63"/>
+      <c r="FW69" s="63"/>
+      <c r="FX69" s="63"/>
+      <c r="FY69" s="63"/>
+      <c r="FZ69" s="63"/>
+      <c r="GA69" s="63"/>
+      <c r="GB69" s="63"/>
+      <c r="GC69" s="63"/>
+      <c r="GD69" s="63"/>
+      <c r="GE69" s="63"/>
+      <c r="GF69" s="63"/>
+      <c r="GG69" s="63"/>
+      <c r="GH69" s="63"/>
+      <c r="GI69" s="63"/>
+      <c r="GJ69" s="63"/>
+      <c r="GK69" s="63"/>
+      <c r="GL69" s="63"/>
+      <c r="GM69" s="63"/>
+      <c r="GN69" s="63"/>
+      <c r="GO69" s="63"/>
+      <c r="GP69" s="63"/>
+      <c r="GQ69" s="63"/>
+      <c r="GR69" s="63"/>
+      <c r="GS69" s="63"/>
+      <c r="GT69" s="63"/>
+      <c r="GU69" s="63"/>
+      <c r="GV69" s="63"/>
+      <c r="GW69" s="63"/>
+      <c r="GX69" s="63"/>
+      <c r="GY69" s="63"/>
+      <c r="GZ69" s="63"/>
+      <c r="HA69" s="63"/>
+      <c r="HB69" s="63"/>
+      <c r="HC69" s="63"/>
+      <c r="HD69" s="63"/>
+      <c r="HE69" s="63"/>
+      <c r="HF69" s="63"/>
+      <c r="HG69" s="63"/>
+      <c r="HH69" s="63"/>
+      <c r="HI69" s="63"/>
+      <c r="HJ69" s="63"/>
+      <c r="HK69" s="63"/>
+      <c r="HL69" s="63"/>
+      <c r="HM69" s="63"/>
+      <c r="HN69" s="63"/>
+      <c r="HO69" s="63"/>
+      <c r="HP69" s="63"/>
+      <c r="HQ69" s="63"/>
+      <c r="HR69" s="63"/>
+      <c r="HS69" s="63"/>
+      <c r="HT69" s="63"/>
+      <c r="HU69" s="63"/>
+      <c r="HV69" s="63"/>
+      <c r="HW69" s="63"/>
+      <c r="HX69" s="63"/>
+      <c r="HY69" s="63"/>
+      <c r="HZ69" s="63"/>
+      <c r="IA69" s="63"/>
+      <c r="IB69" s="63"/>
+      <c r="IC69" s="63"/>
+      <c r="ID69" s="63"/>
+      <c r="IE69" s="63"/>
+      <c r="IF69" s="63"/>
+      <c r="IG69" s="63"/>
+      <c r="IH69" s="63"/>
+      <c r="II69" s="63"/>
+      <c r="IJ69" s="63"/>
+      <c r="IK69" s="63"/>
+      <c r="IL69" s="63"/>
+      <c r="IM69" s="63"/>
+      <c r="IN69" s="63"/>
+      <c r="IO69" s="63"/>
+      <c r="IP69" s="63"/>
+      <c r="IQ69" s="63"/>
+      <c r="IR69" s="63"/>
+      <c r="IS69" s="63"/>
+      <c r="IT69" s="63"/>
+      <c r="IU69" s="63"/>
+      <c r="IV69" s="63"/>
+      <c r="IW69" s="63"/>
+      <c r="IX69" s="63"/>
+      <c r="IY69" s="63"/>
+      <c r="IZ69" s="63"/>
+      <c r="JA69" s="63"/>
+      <c r="JB69" s="63"/>
+      <c r="JC69" s="63"/>
+      <c r="JD69" s="63"/>
+      <c r="JE69" s="63"/>
+      <c r="JF69" s="63"/>
+      <c r="JG69" s="63"/>
+      <c r="JH69" s="63"/>
+      <c r="JI69" s="63"/>
+      <c r="JJ69" s="63"/>
+      <c r="JK69" s="63"/>
+      <c r="JL69" s="63"/>
+      <c r="JM69" s="63"/>
+      <c r="JN69" s="63"/>
+      <c r="JO69" s="63"/>
+      <c r="JP69" s="63"/>
+      <c r="JQ69" s="63"/>
+      <c r="JR69" s="63"/>
+      <c r="JS69" s="63"/>
+      <c r="JT69" s="63"/>
+      <c r="JU69" s="63"/>
+      <c r="JV69" s="63"/>
+      <c r="JW69" s="63"/>
+      <c r="JX69" s="63"/>
+      <c r="JY69" s="63"/>
+      <c r="JZ69" s="63"/>
+      <c r="KA69" s="63"/>
+      <c r="KB69" s="63"/>
+      <c r="KC69" s="63"/>
+      <c r="KD69" s="63"/>
+      <c r="KE69" s="63"/>
+      <c r="KF69" s="63"/>
+      <c r="KG69" s="63"/>
+      <c r="KH69" s="63"/>
+      <c r="KI69" s="63"/>
+      <c r="KJ69" s="63"/>
+      <c r="KK69" s="63"/>
+      <c r="KL69" s="63"/>
+      <c r="KM69" s="63"/>
+      <c r="KN69" s="63"/>
+      <c r="KO69" s="63"/>
+      <c r="KP69" s="63"/>
+      <c r="KQ69" s="63"/>
+      <c r="KR69" s="63"/>
+      <c r="KS69" s="63"/>
+      <c r="KT69" s="63"/>
+      <c r="KU69" s="63"/>
+      <c r="KV69" s="63"/>
+      <c r="KW69" s="63"/>
+      <c r="KX69" s="63"/>
+      <c r="KY69" s="63"/>
+      <c r="KZ69" s="63"/>
+      <c r="LA69" s="63"/>
+      <c r="LB69" s="63"/>
+      <c r="LC69" s="63"/>
+      <c r="LD69" s="63"/>
+      <c r="LE69" s="63"/>
+      <c r="LF69" s="63"/>
+      <c r="LG69" s="63"/>
+      <c r="LH69" s="63"/>
+      <c r="LI69" s="63"/>
+      <c r="LJ69" s="63"/>
+      <c r="LK69" s="63"/>
+      <c r="LL69" s="63"/>
+      <c r="LM69" s="63"/>
+      <c r="LN69" s="63"/>
+      <c r="LO69" s="63"/>
+      <c r="LP69" s="63"/>
+      <c r="LQ69" s="63"/>
+      <c r="LR69" s="63"/>
+      <c r="LS69" s="63"/>
+      <c r="LT69" s="63"/>
+      <c r="LU69" s="63"/>
+      <c r="LV69" s="63"/>
+      <c r="LW69" s="63"/>
+      <c r="LX69" s="63"/>
+      <c r="LY69" s="63"/>
+      <c r="LZ69" s="63"/>
+      <c r="MA69" s="63"/>
+      <c r="MB69" s="63"/>
+      <c r="MC69" s="63"/>
+      <c r="MD69" s="63"/>
+      <c r="ME69" s="63"/>
+      <c r="MF69" s="63"/>
+      <c r="MG69" s="63"/>
+      <c r="MH69" s="63"/>
+      <c r="MI69" s="63"/>
+      <c r="MJ69" s="63"/>
+      <c r="MK69" s="63"/>
+      <c r="ML69" s="63"/>
+      <c r="MM69" s="63"/>
+      <c r="MN69" s="63"/>
+      <c r="MO69" s="63"/>
+      <c r="MP69" s="63"/>
+      <c r="MQ69" s="63"/>
+      <c r="MR69" s="63"/>
+      <c r="MS69" s="63"/>
+      <c r="MT69" s="63"/>
+      <c r="MU69" s="63"/>
+      <c r="MV69" s="63"/>
+      <c r="MW69" s="63"/>
+      <c r="MX69" s="63"/>
+      <c r="MY69" s="63"/>
+      <c r="MZ69" s="63"/>
+      <c r="NA69" s="63"/>
+      <c r="NB69" s="63"/>
+      <c r="NC69" s="63"/>
+      <c r="ND69" s="63"/>
+      <c r="NE69" s="63"/>
+      <c r="NF69" s="63"/>
+      <c r="NG69" s="63"/>
+      <c r="NH69" s="63"/>
+      <c r="NI69" s="63"/>
+      <c r="NJ69" s="63"/>
+      <c r="NK69" s="63"/>
+      <c r="NL69" s="63"/>
+      <c r="NM69" s="63"/>
+      <c r="NN69" s="63"/>
+      <c r="NO69" s="63"/>
+      <c r="NP69" s="63"/>
+      <c r="NQ69" s="63"/>
+      <c r="NR69" s="63"/>
+      <c r="NS69" s="63"/>
+      <c r="NT69" s="63"/>
+      <c r="NU69" s="63"/>
+      <c r="NV69" s="63"/>
+      <c r="NW69" s="63"/>
+      <c r="NX69" s="63"/>
+      <c r="NY69" s="63"/>
+      <c r="NZ69" s="63"/>
+      <c r="OA69" s="63"/>
+      <c r="OB69" s="63"/>
+      <c r="OC69" s="63"/>
+      <c r="OD69" s="63"/>
+      <c r="OE69" s="63"/>
+      <c r="OF69" s="63"/>
+      <c r="OG69" s="63"/>
+      <c r="OH69" s="63"/>
+      <c r="OI69" s="63"/>
+      <c r="OJ69" s="63"/>
+      <c r="OK69" s="63"/>
+      <c r="OL69" s="63"/>
+      <c r="OM69" s="63"/>
+      <c r="ON69" s="63"/>
+      <c r="OO69" s="63"/>
+      <c r="OP69" s="63"/>
+      <c r="OQ69" s="63"/>
+      <c r="OR69" s="63"/>
+      <c r="OS69" s="63"/>
+      <c r="OT69" s="63"/>
+      <c r="OU69" s="63"/>
+      <c r="OV69" s="63"/>
+      <c r="OW69" s="63"/>
+      <c r="OX69" s="63"/>
+      <c r="OY69" s="63"/>
+      <c r="OZ69" s="63"/>
+      <c r="PA69" s="63"/>
+      <c r="PB69" s="63"/>
+      <c r="PC69" s="63"/>
+      <c r="PD69" s="63"/>
+      <c r="PE69" s="63"/>
+      <c r="PF69" s="63"/>
+      <c r="PG69" s="63"/>
+      <c r="PH69" s="63"/>
+      <c r="PI69" s="63"/>
+      <c r="PJ69" s="63"/>
+      <c r="PK69" s="63"/>
+      <c r="PL69" s="63"/>
+      <c r="PM69" s="63"/>
+      <c r="PN69" s="63"/>
+      <c r="PO69" s="63"/>
+      <c r="PP69" s="63"/>
+      <c r="PQ69" s="63"/>
+      <c r="PR69" s="63"/>
+      <c r="PS69" s="63"/>
+      <c r="PT69" s="63"/>
+      <c r="PU69" s="63"/>
+      <c r="PV69" s="63"/>
+      <c r="PW69" s="63"/>
+      <c r="PX69" s="63"/>
+      <c r="PY69" s="63"/>
+      <c r="PZ69" s="63"/>
+      <c r="QA69" s="63"/>
+      <c r="QB69" s="63"/>
+      <c r="QC69" s="63"/>
+      <c r="QD69" s="63"/>
+      <c r="QE69" s="63"/>
+      <c r="QF69" s="63"/>
+      <c r="QG69" s="63"/>
+      <c r="QH69" s="63"/>
+      <c r="QI69" s="63"/>
+      <c r="QJ69" s="63"/>
+      <c r="QK69" s="63"/>
+      <c r="QL69" s="63"/>
+      <c r="QM69" s="63"/>
+      <c r="QN69" s="63"/>
+      <c r="QO69" s="63"/>
+      <c r="QP69" s="63"/>
+      <c r="QQ69" s="63"/>
+      <c r="QR69" s="63"/>
+      <c r="QS69" s="63"/>
+      <c r="QT69" s="63"/>
+      <c r="QU69" s="63"/>
+      <c r="QV69" s="63"/>
+      <c r="QW69" s="63"/>
+      <c r="QX69" s="63"/>
+      <c r="QY69" s="63"/>
+      <c r="QZ69" s="63"/>
+      <c r="RA69" s="63"/>
+      <c r="RB69" s="63"/>
+      <c r="RC69" s="63"/>
+      <c r="RD69" s="63"/>
+      <c r="RE69" s="63"/>
+      <c r="RF69" s="63"/>
+      <c r="RG69" s="63"/>
+      <c r="RH69" s="63"/>
+      <c r="RI69" s="63"/>
+      <c r="RJ69" s="63"/>
+      <c r="RK69" s="63"/>
+      <c r="RL69" s="63"/>
+      <c r="RM69" s="63"/>
+      <c r="RN69" s="63"/>
+      <c r="RO69" s="63"/>
+      <c r="RP69" s="63"/>
+      <c r="RQ69" s="63"/>
+      <c r="RR69" s="63"/>
+      <c r="RS69" s="63"/>
+      <c r="RT69" s="63"/>
+      <c r="RU69" s="63"/>
+      <c r="RV69" s="63"/>
+      <c r="RW69" s="63"/>
+      <c r="RX69" s="63"/>
+      <c r="RY69" s="63"/>
+      <c r="RZ69" s="63"/>
+      <c r="SA69" s="63"/>
+      <c r="SB69" s="63"/>
+      <c r="SC69" s="63"/>
+      <c r="SD69" s="63"/>
+      <c r="SE69" s="63"/>
+      <c r="SF69" s="63"/>
+      <c r="SG69" s="63"/>
+      <c r="SH69" s="63"/>
+      <c r="SI69" s="63"/>
+      <c r="SJ69" s="63"/>
+      <c r="SK69" s="63"/>
+      <c r="SL69" s="63"/>
+      <c r="SM69" s="63"/>
+      <c r="SN69" s="63"/>
+      <c r="SO69" s="63"/>
+      <c r="SP69" s="63"/>
+      <c r="SQ69" s="63"/>
+      <c r="SR69" s="63"/>
+      <c r="SS69" s="63"/>
+      <c r="ST69" s="63"/>
+      <c r="SU69" s="63"/>
+      <c r="SV69" s="63"/>
+      <c r="SW69" s="63"/>
+      <c r="SX69" s="63"/>
+      <c r="SY69" s="63"/>
+      <c r="SZ69" s="63"/>
+      <c r="TA69" s="63"/>
+      <c r="TB69" s="63"/>
+      <c r="TC69" s="63"/>
+      <c r="TD69" s="63"/>
+      <c r="TE69" s="63"/>
+      <c r="TF69" s="63"/>
+      <c r="TG69" s="63"/>
+      <c r="TH69" s="63"/>
+      <c r="TI69" s="63"/>
+      <c r="TJ69" s="63"/>
+      <c r="TK69" s="63"/>
+      <c r="TL69" s="63"/>
+      <c r="TM69" s="63"/>
+      <c r="TN69" s="63"/>
+      <c r="TO69" s="63"/>
+      <c r="TP69" s="63"/>
+      <c r="TQ69" s="63"/>
+      <c r="TR69" s="63"/>
+      <c r="TS69" s="63"/>
+      <c r="TT69" s="63"/>
+      <c r="TU69" s="63"/>
+      <c r="TV69" s="63"/>
+      <c r="TW69" s="63"/>
+      <c r="TX69" s="63"/>
+      <c r="TY69" s="63"/>
+      <c r="TZ69" s="63"/>
+      <c r="UA69" s="63"/>
+      <c r="UB69" s="63"/>
+      <c r="UC69" s="63"/>
+      <c r="UD69" s="63"/>
+      <c r="UE69" s="63"/>
+      <c r="UF69" s="63"/>
+      <c r="UG69" s="63"/>
+      <c r="UH69" s="63"/>
+      <c r="UI69" s="63"/>
+      <c r="UJ69" s="63"/>
+      <c r="UK69" s="63"/>
+      <c r="UL69" s="63"/>
+      <c r="UM69" s="63"/>
+      <c r="UN69" s="63"/>
+      <c r="UO69" s="63"/>
+      <c r="UP69" s="63"/>
+      <c r="UQ69" s="63"/>
+      <c r="UR69" s="63"/>
+      <c r="US69" s="63"/>
+      <c r="UT69" s="63"/>
+      <c r="UU69" s="63"/>
+      <c r="UV69" s="63"/>
+      <c r="UW69" s="63"/>
+      <c r="UX69" s="63"/>
+      <c r="UY69" s="63"/>
+      <c r="UZ69" s="63"/>
+      <c r="VA69" s="63"/>
+      <c r="VB69" s="63"/>
+      <c r="VC69" s="63"/>
+      <c r="VD69" s="63"/>
+      <c r="VE69" s="63"/>
+      <c r="VF69" s="63"/>
+      <c r="VG69" s="63"/>
+      <c r="VH69" s="63"/>
+      <c r="VI69" s="63"/>
+      <c r="VJ69" s="63"/>
+      <c r="VK69" s="63"/>
+      <c r="VL69" s="63"/>
+      <c r="VM69" s="63"/>
+      <c r="VN69" s="63"/>
+      <c r="VO69" s="63"/>
+      <c r="VP69" s="63"/>
+      <c r="VQ69" s="63"/>
+      <c r="VR69" s="63"/>
+      <c r="VS69" s="63"/>
+      <c r="VT69" s="63"/>
+      <c r="VU69" s="63"/>
+      <c r="VV69" s="63"/>
+      <c r="VW69" s="63"/>
+      <c r="VX69" s="63"/>
+      <c r="VY69" s="63"/>
+      <c r="VZ69" s="63"/>
+      <c r="WA69" s="63"/>
+      <c r="WB69" s="63"/>
+      <c r="WC69" s="63"/>
+      <c r="WD69" s="63"/>
+      <c r="WE69" s="63"/>
+      <c r="WF69" s="63"/>
+      <c r="WG69" s="63"/>
+      <c r="WH69" s="63"/>
+      <c r="WI69" s="63"/>
+      <c r="WJ69" s="63"/>
+      <c r="WK69" s="63"/>
+      <c r="WL69" s="63"/>
+      <c r="WM69" s="63"/>
+      <c r="WN69" s="63"/>
+      <c r="WO69" s="63"/>
+      <c r="WP69" s="63"/>
+      <c r="WQ69" s="63"/>
+      <c r="WR69" s="63"/>
+      <c r="WS69" s="63"/>
+      <c r="WT69" s="63"/>
+      <c r="WU69" s="63"/>
+      <c r="WV69" s="63"/>
+      <c r="WW69" s="63"/>
+      <c r="WX69" s="63"/>
+      <c r="WY69" s="63"/>
+      <c r="WZ69" s="63"/>
+      <c r="XA69" s="63"/>
+      <c r="XB69" s="63"/>
+      <c r="XC69" s="63"/>
+      <c r="XD69" s="63"/>
+      <c r="XE69" s="63"/>
+      <c r="XF69" s="63"/>
+      <c r="XG69" s="63"/>
+      <c r="XH69" s="63"/>
+      <c r="XI69" s="63"/>
+      <c r="XJ69" s="63"/>
+      <c r="XK69" s="63"/>
+      <c r="XL69" s="63"/>
+      <c r="XM69" s="63"/>
+      <c r="XN69" s="63"/>
+      <c r="XO69" s="63"/>
+      <c r="XP69" s="63"/>
+      <c r="XQ69" s="63"/>
+      <c r="XR69" s="63"/>
+      <c r="XS69" s="63"/>
+      <c r="XT69" s="63"/>
+      <c r="XU69" s="63"/>
+      <c r="XV69" s="63"/>
+      <c r="XW69" s="63"/>
+      <c r="XX69" s="63"/>
+      <c r="XY69" s="63"/>
+      <c r="XZ69" s="63"/>
+      <c r="YA69" s="63"/>
+      <c r="YB69" s="63"/>
+      <c r="YC69" s="63"/>
+      <c r="YD69" s="63"/>
+      <c r="YE69" s="63"/>
+      <c r="YF69" s="63"/>
+      <c r="YG69" s="63"/>
+      <c r="YH69" s="63"/>
+      <c r="YI69" s="63"/>
+      <c r="YJ69" s="63"/>
+      <c r="YK69" s="63"/>
+      <c r="YL69" s="63"/>
+      <c r="YM69" s="63"/>
+      <c r="YN69" s="63"/>
+      <c r="YO69" s="63"/>
+      <c r="YP69" s="63"/>
+      <c r="YQ69" s="63"/>
+      <c r="YR69" s="63"/>
+      <c r="YS69" s="63"/>
+      <c r="YT69" s="63"/>
+      <c r="YU69" s="63"/>
+      <c r="YV69" s="63"/>
+      <c r="YW69" s="63"/>
+      <c r="YX69" s="63"/>
+      <c r="YY69" s="63"/>
+      <c r="YZ69" s="63"/>
+      <c r="ZA69" s="63"/>
+      <c r="ZB69" s="63"/>
+      <c r="ZC69" s="63"/>
+      <c r="ZD69" s="63"/>
+      <c r="ZE69" s="63"/>
+      <c r="ZF69" s="63"/>
+      <c r="ZG69" s="63"/>
+      <c r="ZH69" s="63"/>
+      <c r="ZI69" s="63"/>
+      <c r="ZJ69" s="63"/>
+      <c r="ZK69" s="63"/>
+      <c r="ZL69" s="63"/>
+      <c r="ZM69" s="63"/>
+      <c r="ZN69" s="63"/>
+      <c r="ZO69" s="63"/>
+      <c r="ZP69" s="63"/>
+      <c r="ZQ69" s="63"/>
+      <c r="ZR69" s="63"/>
+      <c r="ZS69" s="63"/>
+      <c r="ZT69" s="63"/>
+      <c r="ZU69" s="63"/>
+      <c r="ZV69" s="63"/>
+      <c r="ZW69" s="63"/>
+      <c r="ZX69" s="63"/>
+      <c r="ZY69" s="63"/>
+      <c r="ZZ69" s="63"/>
+      <c r="AAA69" s="63"/>
+      <c r="AAB69" s="63"/>
+      <c r="AAC69" s="63"/>
+      <c r="AAD69" s="63"/>
+      <c r="AAE69" s="63"/>
+      <c r="AAF69" s="63"/>
+      <c r="AAG69" s="63"/>
+      <c r="AAH69" s="63"/>
+      <c r="AAI69" s="63"/>
+      <c r="AAJ69" s="63"/>
+      <c r="AAK69" s="63"/>
+      <c r="AAL69" s="63"/>
+      <c r="AAM69" s="63"/>
+      <c r="AAN69" s="63"/>
+      <c r="AAO69" s="63"/>
+      <c r="AAP69" s="63"/>
+      <c r="AAQ69" s="63"/>
+      <c r="AAR69" s="63"/>
+      <c r="AAS69" s="63"/>
+      <c r="AAT69" s="63"/>
+      <c r="AAU69" s="63"/>
+      <c r="AAV69" s="63"/>
+      <c r="AAW69" s="63"/>
+      <c r="AAX69" s="63"/>
+      <c r="AAY69" s="63"/>
+      <c r="AAZ69" s="63"/>
+      <c r="ABA69" s="63"/>
+      <c r="ABB69" s="63"/>
+      <c r="ABC69" s="63"/>
+      <c r="ABD69" s="63"/>
+      <c r="ABE69" s="63"/>
+      <c r="ABF69" s="63"/>
+      <c r="ABG69" s="63"/>
+      <c r="ABH69" s="63"/>
+      <c r="ABI69" s="63"/>
+      <c r="ABJ69" s="63"/>
+      <c r="ABK69" s="63"/>
+      <c r="ABL69" s="63"/>
+      <c r="ABM69" s="63"/>
+      <c r="ABN69" s="63"/>
+      <c r="ABO69" s="63"/>
+      <c r="ABP69" s="63"/>
+      <c r="ABQ69" s="63"/>
+      <c r="ABR69" s="63"/>
+      <c r="ABS69" s="63"/>
+      <c r="ABT69" s="63"/>
+      <c r="ABU69" s="63"/>
+      <c r="ABV69" s="63"/>
+      <c r="ABW69" s="63"/>
+      <c r="ABX69" s="63"/>
+      <c r="ABY69" s="63"/>
+      <c r="ABZ69" s="63"/>
+      <c r="ACA69" s="63"/>
+      <c r="ACB69" s="63"/>
+      <c r="ACC69" s="63"/>
+      <c r="ACD69" s="63"/>
+      <c r="ACE69" s="63"/>
+      <c r="ACF69" s="63"/>
+      <c r="ACG69" s="63"/>
+      <c r="ACH69" s="63"/>
+      <c r="ACI69" s="63"/>
+      <c r="ACJ69" s="63"/>
+      <c r="ACK69" s="63"/>
+      <c r="ACL69" s="63"/>
+      <c r="ACM69" s="63"/>
+      <c r="ACN69" s="63"/>
+      <c r="ACO69" s="63"/>
+      <c r="ACP69" s="63"/>
+      <c r="ACQ69" s="63"/>
+      <c r="ACR69" s="63"/>
+      <c r="ACS69" s="63"/>
+      <c r="ACT69" s="63"/>
+      <c r="ACU69" s="63"/>
+      <c r="ACV69" s="63"/>
+      <c r="ACW69" s="63"/>
+      <c r="ACX69" s="63"/>
+      <c r="ACY69" s="63"/>
+      <c r="ACZ69" s="63"/>
+      <c r="ADA69" s="63"/>
+      <c r="ADB69" s="63"/>
+      <c r="ADC69" s="63"/>
+      <c r="ADD69" s="63"/>
+      <c r="ADE69" s="63"/>
+      <c r="ADF69" s="63"/>
+      <c r="ADG69" s="63"/>
+      <c r="ADH69" s="63"/>
+      <c r="ADI69" s="63"/>
+      <c r="ADJ69" s="63"/>
+      <c r="ADK69" s="63"/>
+      <c r="ADL69" s="63"/>
+      <c r="ADM69" s="63"/>
+      <c r="ADN69" s="63"/>
+      <c r="ADO69" s="63"/>
+      <c r="ADP69" s="63"/>
+      <c r="ADQ69" s="63"/>
+      <c r="ADR69" s="63"/>
+      <c r="ADS69" s="63"/>
+      <c r="ADT69" s="63"/>
+      <c r="ADU69" s="63"/>
+      <c r="ADV69" s="63"/>
+      <c r="ADW69" s="63"/>
+      <c r="ADX69" s="63"/>
+      <c r="ADY69" s="63"/>
+      <c r="ADZ69" s="63"/>
+      <c r="AEA69" s="63"/>
+      <c r="AEB69" s="63"/>
+      <c r="AEC69" s="63"/>
+      <c r="AED69" s="63"/>
+      <c r="AEE69" s="63"/>
+      <c r="AEF69" s="63"/>
+      <c r="AEG69" s="63"/>
+      <c r="AEH69" s="63"/>
+      <c r="AEI69" s="63"/>
+      <c r="AEJ69" s="63"/>
+      <c r="AEK69" s="63"/>
+      <c r="AEL69" s="63"/>
+      <c r="AEM69" s="63"/>
+      <c r="AEN69" s="63"/>
+      <c r="AEO69" s="63"/>
+      <c r="AEP69" s="63"/>
+      <c r="AEQ69" s="63"/>
+      <c r="AER69" s="63"/>
+      <c r="AES69" s="63"/>
+      <c r="AET69" s="63"/>
+      <c r="AEU69" s="63"/>
+      <c r="AEV69" s="63"/>
+      <c r="AEW69" s="63"/>
+      <c r="AEX69" s="63"/>
+      <c r="AEY69" s="63"/>
+      <c r="AEZ69" s="63"/>
+      <c r="AFA69" s="63"/>
+      <c r="AFB69" s="63"/>
+      <c r="AFC69" s="63"/>
+      <c r="AFD69" s="63"/>
+      <c r="AFE69" s="63"/>
+      <c r="AFF69" s="63"/>
+      <c r="AFG69" s="63"/>
+      <c r="AFH69" s="63"/>
+      <c r="AFI69" s="63"/>
+      <c r="AFJ69" s="63"/>
+      <c r="AFK69" s="63"/>
+      <c r="AFL69" s="63"/>
+      <c r="AFM69" s="63"/>
+      <c r="AFN69" s="63"/>
+      <c r="AFO69" s="63"/>
+      <c r="AFP69" s="63"/>
+      <c r="AFQ69" s="63"/>
+      <c r="AFR69" s="63"/>
+      <c r="AFS69" s="63"/>
+      <c r="AFT69" s="63"/>
+      <c r="AFU69" s="63"/>
+      <c r="AFV69" s="63"/>
+      <c r="AFW69" s="63"/>
+      <c r="AFX69" s="63"/>
+      <c r="AFY69" s="63"/>
+      <c r="AFZ69" s="63"/>
+      <c r="AGA69" s="63"/>
+      <c r="AGB69" s="63"/>
+      <c r="AGC69" s="63"/>
+      <c r="AGD69" s="63"/>
+      <c r="AGE69" s="63"/>
+      <c r="AGF69" s="63"/>
+      <c r="AGG69" s="63"/>
+      <c r="AGH69" s="63"/>
+      <c r="AGI69" s="63"/>
+      <c r="AGJ69" s="63"/>
+      <c r="AGK69" s="63"/>
+      <c r="AGL69" s="63"/>
+      <c r="AGM69" s="63"/>
+      <c r="AGN69" s="63"/>
+      <c r="AGO69" s="63"/>
+      <c r="AGP69" s="63"/>
+      <c r="AGQ69" s="63"/>
+      <c r="AGR69" s="63"/>
+      <c r="AGS69" s="63"/>
+      <c r="AGT69" s="63"/>
+      <c r="AGU69" s="63"/>
+      <c r="AGV69" s="63"/>
+      <c r="AGW69" s="63"/>
+      <c r="AGX69" s="63"/>
+      <c r="AGY69" s="63"/>
+      <c r="AGZ69" s="63"/>
+      <c r="AHA69" s="63"/>
+      <c r="AHB69" s="63"/>
+      <c r="AHC69" s="63"/>
+      <c r="AHD69" s="63"/>
+      <c r="AHE69" s="63"/>
+      <c r="AHF69" s="63"/>
+      <c r="AHG69" s="63"/>
+      <c r="AHH69" s="63"/>
+      <c r="AHI69" s="63"/>
+      <c r="AHJ69" s="63"/>
+      <c r="AHK69" s="63"/>
+      <c r="AHL69" s="63"/>
+      <c r="AHM69" s="63"/>
+      <c r="AHN69" s="63"/>
+      <c r="AHO69" s="63"/>
+      <c r="AHP69" s="63"/>
+      <c r="AHQ69" s="63"/>
+      <c r="AHR69" s="63"/>
+      <c r="AHS69" s="63"/>
+      <c r="AHT69" s="63"/>
+      <c r="AHU69" s="63"/>
+      <c r="AHV69" s="63"/>
+      <c r="AHW69" s="63"/>
+      <c r="AHX69" s="63"/>
+      <c r="AHY69" s="63"/>
+      <c r="AHZ69" s="63"/>
+      <c r="AIA69" s="63"/>
+      <c r="AIB69" s="63"/>
+      <c r="AIC69" s="63"/>
+      <c r="AID69" s="63"/>
+      <c r="AIE69" s="63"/>
+      <c r="AIF69" s="63"/>
+      <c r="AIG69" s="63"/>
+      <c r="AIH69" s="63"/>
+      <c r="AII69" s="63"/>
+      <c r="AIJ69" s="63"/>
+      <c r="AIK69" s="63"/>
+      <c r="AIL69" s="63"/>
+      <c r="AIM69" s="63"/>
+      <c r="AIN69" s="63"/>
+      <c r="AIO69" s="63"/>
+      <c r="AIP69" s="63"/>
+      <c r="AIQ69" s="63"/>
+      <c r="AIR69" s="63"/>
+      <c r="AIS69" s="63"/>
+      <c r="AIT69" s="63"/>
+      <c r="AIU69" s="63"/>
+      <c r="AIV69" s="63"/>
+      <c r="AIW69" s="63"/>
+      <c r="AIX69" s="63"/>
+      <c r="AIY69" s="63"/>
+      <c r="AIZ69" s="63"/>
+      <c r="AJA69" s="63"/>
+      <c r="AJB69" s="63"/>
+      <c r="AJC69" s="63"/>
+      <c r="AJD69" s="63"/>
+      <c r="AJE69" s="63"/>
+      <c r="AJF69" s="63"/>
+      <c r="AJG69" s="63"/>
+      <c r="AJH69" s="63"/>
+      <c r="AJI69" s="63"/>
+      <c r="AJJ69" s="63"/>
+      <c r="AJK69" s="63"/>
+      <c r="AJL69" s="63"/>
+      <c r="AJM69" s="63"/>
+      <c r="AJN69" s="63"/>
+      <c r="AJO69" s="63"/>
+      <c r="AJP69" s="63"/>
+      <c r="AJQ69" s="63"/>
+      <c r="AJR69" s="63"/>
+      <c r="AJS69" s="63"/>
+      <c r="AJT69" s="63"/>
+      <c r="AJU69" s="63"/>
+      <c r="AJV69" s="63"/>
+      <c r="AJW69" s="63"/>
+      <c r="AJX69" s="63"/>
+      <c r="AJY69" s="63"/>
+      <c r="AJZ69" s="63"/>
+      <c r="AKA69" s="63"/>
+      <c r="AKB69" s="63"/>
+      <c r="AKC69" s="63"/>
+      <c r="AKD69" s="63"/>
+      <c r="AKE69" s="63"/>
+      <c r="AKF69" s="63"/>
+      <c r="AKG69" s="63"/>
+      <c r="AKH69" s="63"/>
+      <c r="AKI69" s="63"/>
+      <c r="AKJ69" s="63"/>
+      <c r="AKK69" s="63"/>
+      <c r="AKL69" s="63"/>
+      <c r="AKM69" s="63"/>
+      <c r="AKN69" s="63"/>
+      <c r="AKO69" s="63"/>
+      <c r="AKP69" s="63"/>
+      <c r="AKQ69" s="63"/>
+      <c r="AKR69" s="63"/>
+      <c r="AKS69" s="63"/>
+      <c r="AKT69" s="63"/>
+      <c r="AKU69" s="63"/>
+      <c r="AKV69" s="63"/>
+      <c r="AKW69" s="63"/>
+      <c r="AKX69" s="63"/>
+      <c r="AKY69" s="63"/>
+      <c r="AKZ69" s="63"/>
+      <c r="ALA69" s="63"/>
+      <c r="ALB69" s="63"/>
+      <c r="ALC69" s="63"/>
+      <c r="ALD69" s="63"/>
+      <c r="ALE69" s="63"/>
+      <c r="ALF69" s="63"/>
+      <c r="ALG69" s="63"/>
+      <c r="ALH69" s="63"/>
+      <c r="ALI69" s="63"/>
+      <c r="ALJ69" s="63"/>
+      <c r="ALK69" s="63"/>
+      <c r="ALL69" s="63"/>
+      <c r="ALM69" s="63"/>
+      <c r="ALN69" s="63"/>
+      <c r="ALO69" s="63"/>
+      <c r="ALP69" s="63"/>
+      <c r="ALQ69" s="63"/>
+      <c r="ALR69" s="63"/>
+      <c r="ALS69" s="63"/>
+      <c r="ALT69" s="63"/>
+      <c r="ALU69" s="63"/>
+      <c r="ALV69" s="63"/>
+      <c r="ALW69" s="63"/>
+      <c r="ALX69" s="63"/>
+      <c r="ALY69" s="63"/>
+      <c r="ALZ69" s="63"/>
+      <c r="AMA69" s="63"/>
+      <c r="AMB69" s="63"/>
+      <c r="AMC69" s="63"/>
+      <c r="AMD69" s="63"/>
+      <c r="AME69" s="63"/>
+      <c r="AMF69" s="63"/>
+      <c r="AMG69" s="63"/>
+      <c r="AMH69" s="63"/>
+      <c r="AMI69" s="63"/>
+      <c r="AMJ69" s="63"/>
+      <c r="AMK69" s="63"/>
+      <c r="AML69" s="63"/>
     </row>
     <row r="70" ht="12.75">
       <c r="A70" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="65" t="s">
-        <v>397</v>
-      </c>
-      <c r="E70" s="72" t="s">
+      <c r="C70" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="F70" s="72" t="s">
+      <c r="E70" s="73" t="s">
         <v>399</v>
       </c>
+      <c r="F70" s="73" t="s">
+        <v>400</v>
+      </c>
       <c r="L70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M70" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N70" t="s">
-        <v>161</v>
-      </c>
-      <c r="X70" s="64"/>
+        <v>162</v>
+      </c>
+      <c r="X70" s="65"/>
     </row>
     <row r="71" ht="12.75">
       <c r="A71" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="65" t="s">
-        <v>402</v>
-      </c>
-      <c r="E71" s="72" t="s">
+      <c r="C71" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="F71" s="72" t="s">
+      <c r="E71" s="73" t="s">
         <v>404</v>
       </c>
+      <c r="F71" s="73" t="s">
+        <v>405</v>
+      </c>
       <c r="L71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N71" t="s">
-        <v>159</v>
-      </c>
-      <c r="X71" s="64"/>
+        <v>160</v>
+      </c>
+      <c r="X71" s="65"/>
     </row>
     <row r="72" ht="12.75">
-      <c r="E72" s="38"/>
+      <c r="E72" s="39"/>
     </row>
     <row r="73" ht="12.75"/>
     <row r="74" ht="12.75">
       <c r="B74" s="12"/>
-      <c r="E74" s="38"/>
+      <c r="E74" s="39"/>
     </row>
     <row r="75" ht="12.75">
       <c r="B75" s="12"/>
@@ -8312,121 +8320,121 @@
     </row>
     <row r="78" ht="12.75">
       <c r="B78" s="12"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="41"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="42"/>
       <c r="V78" s="12"/>
       <c r="W78" s="12"/>
     </row>
     <row r="79" ht="12.75">
       <c r="B79" s="12"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="41"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="42"/>
       <c r="V79" s="12"/>
       <c r="W79" s="12"/>
     </row>
     <row r="80" ht="12.75">
       <c r="B80" s="12"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="41"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="42"/>
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
     </row>
     <row r="81" ht="12.75">
       <c r="B81" s="12"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="41"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="42"/>
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
     </row>
     <row r="82" ht="12.75">
       <c r="B82" s="12"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="41"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="42"/>
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
     </row>
     <row r="83" ht="12.75">
       <c r="B83" s="12"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="41"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="42"/>
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
     </row>
     <row r="84" ht="12.75">
       <c r="B84" s="12"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="41"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="42"/>
       <c r="V84" s="12"/>
       <c r="W84" s="12"/>
     </row>
     <row r="85" ht="12.75">
       <c r="B85" s="12"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="40"/>
-      <c r="K85" s="41"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="42"/>
       <c r="V85" s="12"/>
       <c r="W85" s="12"/>
     </row>
     <row r="86" ht="12.75">
       <c r="B86" s="12"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="41"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="42"/>
       <c r="V86" s="12"/>
       <c r="W86" s="12"/>
     </row>
     <row r="87" ht="12.75">
       <c r="B87" s="12"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="41"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="42"/>
       <c r="V87" s="12"/>
       <c r="W87" s="12"/>
     </row>
@@ -8547,139 +8555,139 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="74" t="str">
+      <c r="B1" s="75" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="C1" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
     </row>
     <row r="2">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
     </row>
     <row r="3" ht="89.25">
-      <c r="A3" s="77" t="s">
-        <v>405</v>
-      </c>
-      <c r="B3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>406</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="78" t="s">
         <v>407</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="C3" s="79" t="s">
         <v>408</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="D3" s="78" t="s">
         <v>409</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="E3" s="78" t="s">
         <v>410</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="F3" s="78" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>411</v>
-      </c>
-      <c r="D4" s="60" t="s">
+      <c r="C4" s="61" t="s">
         <v>412</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="D4" s="61" t="s">
         <v>413</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="E4" s="61" t="s">
         <v>414</v>
       </c>
-      <c r="G4" s="60" t="s">
-        <v>411</v>
-      </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="F4" s="61" t="s">
+        <v>415</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
     </row>
     <row r="5" ht="409.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" ht="178.5">
       <c r="A6" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" ht="266.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" ht="114.75">
       <c r="A8" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" ht="114.75">
       <c r="A9" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D9" s="12"/>
     </row>
@@ -8707,67 +8715,67 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="81" t="str">
+      <c r="B1" s="82" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="C1" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>421</v>
-      </c>
-      <c r="C2" s="83" t="s">
+      <c r="B2" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="C2" s="84" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="84" t="s">
-        <v>423</v>
-      </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
+      <c r="C4" s="85" t="s">
+        <v>424</v>
+      </c>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8794,62 +8802,62 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="74" t="str">
+      <c r="B1" s="75" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
+      <c r="C1" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
     </row>
     <row r="3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
     </row>
     <row r="4" ht="63.75">
-      <c r="A4" s="77" t="s">
-        <v>424</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>425</v>
       </c>
-      <c r="C4" s="78" t="s">
-        <v>407</v>
-      </c>
-      <c r="D4" s="77" t="s">
+      <c r="B4" s="78" t="s">
         <v>426</v>
       </c>
-      <c r="E4" s="76"/>
+      <c r="C4" s="79" t="s">
+        <v>408</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="77"/>
     </row>
     <row r="5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>411</v>
-      </c>
-      <c r="D5" s="60" t="s">
+      <c r="C5" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="D5" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="79"/>
+      <c r="E5" s="80"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8875,406 +8883,406 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="86" t="s">
-        <v>427</v>
-      </c>
-      <c r="B1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>428</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="B1" s="87" t="s">
         <v>429</v>
       </c>
+      <c r="C1" s="87" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="64" t="s">
-        <v>430</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>431</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="B2" s="65" t="s">
         <v>432</v>
       </c>
+      <c r="C2" s="65" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="C3" s="64" t="s">
+      <c r="A3" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>434</v>
       </c>
+      <c r="C3" s="65" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="64" t="s">
-        <v>435</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>436</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>437</v>
       </c>
+      <c r="C4" s="65" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="64" t="s">
-        <v>438</v>
-      </c>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>439</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="B5" s="65" t="s">
         <v>440</v>
       </c>
+      <c r="C5" s="65" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>441</v>
-      </c>
-      <c r="C6" s="64" t="s">
+      <c r="A6" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="65" t="s">
         <v>442</v>
       </c>
+      <c r="C6" s="65" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="64" t="s">
-        <v>443</v>
-      </c>
-      <c r="B7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>444</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="B7" s="65" t="s">
         <v>445</v>
       </c>
+      <c r="C7" s="65" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="64" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>446</v>
-      </c>
-      <c r="C8" s="64" t="s">
+      <c r="A8" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="65" t="s">
         <v>447</v>
       </c>
+      <c r="C8" s="65" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="64" t="s">
-        <v>448</v>
-      </c>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>449</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="B9" s="65" t="s">
         <v>450</v>
       </c>
+      <c r="C9" s="65" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="64" t="s">
-        <v>451</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>452</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="B10" s="65" t="s">
         <v>453</v>
       </c>
+      <c r="C10" s="65" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="64" t="s">
-        <v>395</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>454</v>
-      </c>
-      <c r="C11" s="64" t="s">
+      <c r="A11" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11" s="65" t="s">
         <v>455</v>
       </c>
+      <c r="C11" s="65" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="64" t="s">
-        <v>322</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>456</v>
-      </c>
-      <c r="C12" s="64" t="s">
+      <c r="A12" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" s="65" t="s">
         <v>457</v>
       </c>
+      <c r="C12" s="65" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="64" t="s">
-        <v>458</v>
-      </c>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="65" t="s">
         <v>459</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="B13" s="65" t="s">
         <v>460</v>
       </c>
+      <c r="C13" s="65" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="B14" s="64" t="s">
+      <c r="A14" s="65" t="s">
         <v>462</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="B14" s="65" t="s">
         <v>463</v>
       </c>
+      <c r="C14" s="65" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64" t="s">
-        <v>464</v>
-      </c>
-      <c r="C15" s="64" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65" t="s">
         <v>465</v>
       </c>
+      <c r="C15" s="65" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64" t="s">
-        <v>466</v>
-      </c>
-      <c r="C16" s="64" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65" t="s">
         <v>467</v>
       </c>
+      <c r="C16" s="65" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64" t="s">
-        <v>468</v>
-      </c>
-      <c r="C17" s="64" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65" t="s">
         <v>469</v>
       </c>
+      <c r="C17" s="65" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64" t="s">
-        <v>470</v>
-      </c>
-      <c r="C18" s="64" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65" t="s">
         <v>471</v>
       </c>
+      <c r="C18" s="65" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64" t="s">
-        <v>472</v>
-      </c>
-      <c r="C19" s="64" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65" t="s">
         <v>473</v>
       </c>
+      <c r="C19" s="65" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64" t="s">
-        <v>474</v>
-      </c>
-      <c r="C20" s="64" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65" t="s">
         <v>475</v>
       </c>
+      <c r="C20" s="65" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64" t="s">
-        <v>476</v>
-      </c>
-      <c r="C21" s="64" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65" t="s">
         <v>477</v>
       </c>
+      <c r="C21" s="65" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64" t="s">
-        <v>478</v>
-      </c>
-      <c r="C22" s="64" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65" t="s">
         <v>479</v>
       </c>
+      <c r="C22" s="65" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64" t="s">
-        <v>480</v>
-      </c>
-      <c r="C23" s="64" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65" t="s">
         <v>481</v>
       </c>
+      <c r="C23" s="65" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64" t="s">
-        <v>482</v>
-      </c>
-      <c r="C24" s="64" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65" t="s">
         <v>483</v>
       </c>
+      <c r="C24" s="65" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64" t="s">
-        <v>484</v>
-      </c>
-      <c r="C25" s="64" t="s">
+      <c r="A25" s="65"/>
+      <c r="B25" s="65" t="s">
         <v>485</v>
       </c>
+      <c r="C25" s="65" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64" t="s">
-        <v>486</v>
-      </c>
-      <c r="C26" s="64" t="s">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65" t="s">
         <v>487</v>
       </c>
+      <c r="C26" s="65" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64" t="s">
-        <v>488</v>
-      </c>
-      <c r="C27" s="64"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65" t="s">
+        <v>489</v>
+      </c>
+      <c r="C27" s="65"/>
     </row>
     <row r="28">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64" t="s">
-        <v>489</v>
-      </c>
-      <c r="C28" s="64"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65" t="s">
+        <v>490</v>
+      </c>
+      <c r="C28" s="65"/>
     </row>
     <row r="29">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64" t="s">
-        <v>490</v>
-      </c>
-      <c r="C29" s="64"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65" t="s">
+        <v>491</v>
+      </c>
+      <c r="C29" s="65"/>
     </row>
     <row r="30">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64" t="s">
-        <v>491</v>
-      </c>
-      <c r="C30" s="64"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65" t="s">
+        <v>492</v>
+      </c>
+      <c r="C30" s="65"/>
     </row>
     <row r="31">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64" t="s">
-        <v>492</v>
-      </c>
-      <c r="C31" s="64"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="C31" s="65"/>
     </row>
     <row r="32">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64" t="s">
-        <v>493</v>
-      </c>
-      <c r="C32" s="64"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65" t="s">
+        <v>494</v>
+      </c>
+      <c r="C32" s="65"/>
     </row>
     <row r="33">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64" t="s">
-        <v>494</v>
-      </c>
-      <c r="C33" s="64"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65" t="s">
+        <v>495</v>
+      </c>
+      <c r="C33" s="65"/>
     </row>
     <row r="34">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="C34" s="64"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65" t="s">
+        <v>496</v>
+      </c>
+      <c r="C34" s="65"/>
     </row>
     <row r="35">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64" t="s">
-        <v>496</v>
-      </c>
-      <c r="C35" s="64"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="65" t="s">
+        <v>497</v>
+      </c>
+      <c r="C35" s="65"/>
     </row>
     <row r="36">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="C36" s="64"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65" t="s">
+        <v>498</v>
+      </c>
+      <c r="C36" s="65"/>
     </row>
     <row r="37">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64" t="s">
-        <v>498</v>
-      </c>
-      <c r="C37" s="64"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="65" t="s">
+        <v>499</v>
+      </c>
+      <c r="C37" s="65"/>
     </row>
     <row r="38">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64" t="s">
-        <v>499</v>
-      </c>
-      <c r="C38" s="64"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65" t="s">
+        <v>500</v>
+      </c>
+      <c r="C38" s="65"/>
     </row>
     <row r="39">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64" t="s">
-        <v>500</v>
-      </c>
-      <c r="C39" s="64"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65" t="s">
+        <v>501</v>
+      </c>
+      <c r="C39" s="65"/>
     </row>
     <row r="40">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64" t="s">
-        <v>501</v>
-      </c>
-      <c r="C40" s="64"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="C40" s="65"/>
     </row>
     <row r="41">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64" t="s">
-        <v>502</v>
-      </c>
-      <c r="C41" s="64"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65" t="s">
+        <v>503</v>
+      </c>
+      <c r="C41" s="65"/>
     </row>
     <row r="42">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64" t="s">
-        <v>503</v>
-      </c>
-      <c r="C42" s="64"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65" t="s">
+        <v>504</v>
+      </c>
+      <c r="C42" s="65"/>
     </row>
     <row r="43">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64" t="s">
-        <v>504</v>
-      </c>
-      <c r="C43" s="64"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65" t="s">
+        <v>505</v>
+      </c>
+      <c r="C43" s="65"/>
     </row>
     <row r="44">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64" t="s">
-        <v>505</v>
-      </c>
-      <c r="C44" s="64"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65" t="s">
+        <v>506</v>
+      </c>
+      <c r="C44" s="65"/>
     </row>
     <row r="45">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64" t="s">
-        <v>506</v>
-      </c>
-      <c r="C45" s="64"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="65" t="s">
+        <v>507</v>
+      </c>
+      <c r="C45" s="65"/>
     </row>
     <row r="46">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64" t="s">
-        <v>507</v>
-      </c>
-      <c r="C46" s="64"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65" t="s">
+        <v>508</v>
+      </c>
+      <c r="C46" s="65"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/demos/demo-SpOTy/sparnatural-config.xlsx
+++ b/demos/demo-SpOTy/sparnatural-config.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId1"/>
@@ -887,9 +887,6 @@
     <t>core:ListProperty</t>
   </si>
   <si>
-    <t>this:search_language</t>
-  </si>
-  <si>
     <t>this:Sentence_transcription</t>
   </si>
   <si>
@@ -1393,6 +1390,9 @@
  BIND(bound(?child) AS ?hasChildren)
 }
 ORDER BY UCASE(?label)</t>
+  </si>
+  <si>
+    <t>this:search_language</t>
   </si>
   <si>
     <t xml:space="preserve">PREFIX spoty: &lt;https://aslan.universite-lyon.fr/spoty/ns/&gt;
@@ -2551,7 +2551,7 @@
     </xf>
     <xf fontId="13" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2657,9 +2657,6 @@
     <xf fontId="0" fillId="53" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="53" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="54" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2761,9 +2758,6 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="36" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0"/>
-    <xf fontId="0" fillId="54" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="58" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -4256,7 +4250,7 @@
         <v>108</v>
       </c>
       <c r="I21" s="12"/>
-      <c r="O21" s="35" t="s">
+      <c r="O21" s="34" t="s">
         <v>131</v>
       </c>
       <c r="Q21" t="s">
@@ -4266,302 +4260,302 @@
     <row r="22" ht="12.75">
       <c r="I22" s="12"/>
     </row>
-    <row r="23" s="36" customFormat="1" ht="13.5">
-      <c r="A23" s="36" t="s">
+    <row r="23" s="35" customFormat="1" ht="13.5">
+      <c r="A23" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37" t="s">
+      <c r="G23" s="35"/>
+      <c r="H23" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="35">
         <v>90</v>
       </c>
-      <c r="J23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="O23" s="36" t="s">
+      <c r="J23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="O23" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AMA23" s="36"/>
-      <c r="AMB23" s="36"/>
-      <c r="AMC23" s="36"/>
-      <c r="AMD23" s="36"/>
-      <c r="AME23" s="36"/>
-    </row>
-    <row r="24" s="36" customFormat="1" ht="13.5">
-      <c r="A24" s="36" t="s">
+      <c r="AMA23" s="35"/>
+      <c r="AMB23" s="35"/>
+      <c r="AMC23" s="35"/>
+      <c r="AMD23" s="35"/>
+      <c r="AME23" s="35"/>
+    </row>
+    <row r="24" s="35" customFormat="1" ht="13.5">
+      <c r="A24" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37" t="s">
+      <c r="G24" s="35"/>
+      <c r="H24" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="35">
         <v>90</v>
       </c>
-      <c r="J24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="O24" s="36" t="s">
+      <c r="J24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="O24" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="AMA24" s="36"/>
-      <c r="AMB24" s="36"/>
-      <c r="AMC24" s="36"/>
-      <c r="AMD24" s="36"/>
-      <c r="AME24" s="36"/>
-    </row>
-    <row r="25" s="36" customFormat="1" ht="13.5">
-      <c r="A25" s="36" t="s">
+      <c r="AMA24" s="35"/>
+      <c r="AMB24" s="35"/>
+      <c r="AMC24" s="35"/>
+      <c r="AMD24" s="35"/>
+      <c r="AME24" s="35"/>
+    </row>
+    <row r="25" s="35" customFormat="1" ht="13.5">
+      <c r="A25" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37" t="s">
+      <c r="G25" s="35"/>
+      <c r="H25" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="35">
         <v>90</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="O25" s="36" t="s">
+      <c r="J25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="O25" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="AMA25" s="36"/>
-      <c r="AMB25" s="36"/>
-      <c r="AMC25" s="36"/>
-      <c r="AMD25" s="36"/>
-      <c r="AME25" s="36"/>
-    </row>
-    <row r="26" s="36" customFormat="1" ht="12.75">
-      <c r="A26" s="36" t="s">
+      <c r="AMA25" s="35"/>
+      <c r="AMB25" s="35"/>
+      <c r="AMC25" s="35"/>
+      <c r="AMD25" s="35"/>
+      <c r="AME25" s="35"/>
+    </row>
+    <row r="26" s="35" customFormat="1" ht="12.75">
+      <c r="A26" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36" t="s">
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37" t="s">
+      <c r="G26" s="35"/>
+      <c r="H26" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="35">
         <v>91</v>
       </c>
-      <c r="J26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="O26" s="36" t="s">
+      <c r="J26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="O26" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="AMA26" s="36"/>
-      <c r="AMB26" s="36"/>
-      <c r="AMC26" s="36"/>
-      <c r="AMD26" s="36"/>
-      <c r="AME26" s="36"/>
-    </row>
-    <row r="27" s="36" customFormat="1" ht="12.5">
-      <c r="A27" s="36" t="s">
+      <c r="AMA26" s="35"/>
+      <c r="AMB26" s="35"/>
+      <c r="AMC26" s="35"/>
+      <c r="AMD26" s="35"/>
+      <c r="AME26" s="35"/>
+    </row>
+    <row r="27" s="35" customFormat="1" ht="12.5">
+      <c r="A27" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37" t="s">
+      <c r="G27" s="35"/>
+      <c r="H27" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="35">
         <v>91</v>
       </c>
-      <c r="J27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="O27" s="36" t="s">
+      <c r="J27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="O27" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="AMA27" s="36"/>
-      <c r="AMB27" s="36"/>
-      <c r="AMC27" s="36"/>
-      <c r="AMD27" s="36"/>
-      <c r="AME27" s="36"/>
-    </row>
-    <row r="28" s="36" customFormat="1" ht="12.5">
-      <c r="A28" s="36" t="s">
+      <c r="AMA27" s="35"/>
+      <c r="AMB27" s="35"/>
+      <c r="AMC27" s="35"/>
+      <c r="AMD27" s="35"/>
+      <c r="AME27" s="35"/>
+    </row>
+    <row r="28" s="35" customFormat="1" ht="12.5">
+      <c r="A28" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37" t="s">
+      <c r="G28" s="35"/>
+      <c r="H28" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="35">
         <v>91</v>
       </c>
-      <c r="J28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="O28" s="36" t="s">
+      <c r="J28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="O28" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="AMA28" s="36"/>
-      <c r="AMB28" s="36"/>
-      <c r="AMC28" s="36"/>
-      <c r="AMD28" s="36"/>
-      <c r="AME28" s="36"/>
-    </row>
-    <row r="29" s="36" customFormat="1" ht="12.75">
-      <c r="A29" s="36" t="s">
+      <c r="AMA28" s="35"/>
+      <c r="AMB28" s="35"/>
+      <c r="AMC28" s="35"/>
+      <c r="AMD28" s="35"/>
+      <c r="AME28" s="35"/>
+    </row>
+    <row r="29" s="35" customFormat="1" ht="12.75">
+      <c r="A29" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37" t="s">
+      <c r="G29" s="35"/>
+      <c r="H29" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="37">
         <v>92</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="O29" s="36" t="s">
+      <c r="J29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="O29" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="AMA29" s="36"/>
-      <c r="AMB29" s="36"/>
-      <c r="AMC29" s="36"/>
-      <c r="AMD29" s="36"/>
-      <c r="AME29" s="36"/>
-    </row>
-    <row r="30" s="36" customFormat="1" ht="12.75">
-      <c r="A30" s="36" t="s">
+      <c r="AMA29" s="35"/>
+      <c r="AMB29" s="35"/>
+      <c r="AMC29" s="35"/>
+      <c r="AMD29" s="35"/>
+      <c r="AME29" s="35"/>
+    </row>
+    <row r="30" s="35" customFormat="1" ht="12.75">
+      <c r="A30" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37" t="s">
+      <c r="G30" s="35"/>
+      <c r="H30" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="37">
         <v>93</v>
       </c>
-      <c r="J30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="O30" s="36" t="s">
+      <c r="J30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="O30" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="AMA30" s="36"/>
-      <c r="AMB30" s="36"/>
-      <c r="AMC30" s="36"/>
-      <c r="AMD30" s="36"/>
-      <c r="AME30" s="36"/>
-    </row>
-    <row r="31" s="36" customFormat="1" ht="12.5">
-      <c r="A31" s="36" t="s">
+      <c r="AMA30" s="35"/>
+      <c r="AMB30" s="35"/>
+      <c r="AMC30" s="35"/>
+      <c r="AMD30" s="35"/>
+      <c r="AME30" s="35"/>
+    </row>
+    <row r="31" s="35" customFormat="1" ht="12.5">
+      <c r="A31" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37" t="s">
+      <c r="G31" s="35"/>
+      <c r="H31" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="35">
         <v>90</v>
       </c>
-      <c r="J31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="O31" s="36" t="s">
+      <c r="J31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="O31" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="AMA31" s="36"/>
-      <c r="AMB31" s="36"/>
-      <c r="AMC31" s="36"/>
-      <c r="AMD31" s="36"/>
-      <c r="AME31" s="36"/>
+      <c r="AMA31" s="35"/>
+      <c r="AMB31" s="35"/>
+      <c r="AMC31" s="35"/>
+      <c r="AMD31" s="35"/>
+      <c r="AME31" s="35"/>
     </row>
     <row r="32" ht="12.75">
       <c r="A32" s="3" t="s">
@@ -4573,16 +4567,16 @@
       <c r="C32" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="36" t="s">
         <v>135</v>
       </c>
       <c r="I32" s="12">
         <v>95</v>
       </c>
-      <c r="O32" s="36" t="s">
+      <c r="O32" s="35" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4596,16 +4590,16 @@
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="36" t="s">
         <v>135</v>
       </c>
       <c r="I33" s="12">
         <v>95</v>
       </c>
-      <c r="O33" s="36" t="s">
+      <c r="O33" s="35" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4640,7 +4634,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A21" zoomScale="95" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A1" zoomScale="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
@@ -4651,11 +4645,11 @@
     <col customWidth="1" min="2" max="2" style="12" width="17.00390625"/>
     <col customWidth="1" min="3" max="3" style="0" width="74.57421875"/>
     <col customWidth="1" min="4" max="4" style="0" width="9.57421875"/>
-    <col customWidth="1" min="5" max="6" style="39" width="24.8515625"/>
+    <col customWidth="1" min="5" max="6" style="38" width="24.8515625"/>
     <col customWidth="1" min="7" max="8" style="12" width="32.00390625"/>
-    <col customWidth="1" min="9" max="9" style="40" width="32.00390625"/>
-    <col customWidth="1" min="10" max="10" style="41" width="28.8515625"/>
-    <col customWidth="1" min="11" max="11" style="42" width="28.8515625"/>
+    <col customWidth="1" min="9" max="9" style="39" width="32.00390625"/>
+    <col customWidth="1" min="10" max="10" style="40" width="28.8515625"/>
+    <col customWidth="1" min="11" max="11" style="41" width="28.8515625"/>
     <col customWidth="1" min="12" max="12" style="0" width="17.28125"/>
     <col customWidth="1" min="13" max="13" style="0" width="20.00390625"/>
     <col customWidth="1" min="14" max="14" style="0" width="22.28125"/>
@@ -4669,30 +4663,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="44" t="str">
+      <c r="B1" s="43" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>164</v>
       </c>
       <c r="D1" s="16"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="40"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="48"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
       <c r="R1" s="12"/>
       <c r="U1" s="12"/>
     </row>
@@ -4701,16 +4695,16 @@
       <c r="A3" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="50"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="23"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
@@ -4731,9 +4725,9 @@
       <c r="AML3" s="21"/>
     </row>
     <row r="4" ht="12.5">
-      <c r="E4" s="53"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="12"/>
-      <c r="J4" s="54"/>
+      <c r="J4" s="53"/>
       <c r="S4" s="12"/>
     </row>
     <row r="5" s="26" customFormat="1" ht="153">
@@ -4749,7 +4743,7 @@
       <c r="D5" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>170</v>
       </c>
       <c r="F5" s="27" t="s">
@@ -4764,10 +4758,10 @@
       <c r="I5" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="55" t="s">
         <v>176</v>
       </c>
       <c r="L5" s="26" t="s">
@@ -4838,50 +4832,50 @@
       </c>
       <c r="AH5" s="27"/>
     </row>
-    <row r="6" s="57" customFormat="1" ht="25.5">
-      <c r="A6" s="57" t="s">
+    <row r="6" s="56" customFormat="1" ht="25.5">
+      <c r="A6" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>201</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="57"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
     </row>
     <row r="7" ht="25.5">
       <c r="A7" s="30" t="s">
@@ -4905,16 +4899,16 @@
       <c r="G7" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="60" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="61" t="s">
         <v>214</v>
       </c>
       <c r="L7" s="31" t="s">
@@ -4953,70 +4947,70 @@
       <c r="W7" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="X7" s="61" t="s">
+      <c r="X7" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="Y7" s="61" t="s">
+      <c r="Y7" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="Z7" s="61" t="s">
+      <c r="Z7" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="AA7" s="61" t="s">
+      <c r="AA7" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="AB7" s="61" t="s">
+      <c r="AB7" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="AC7" s="61" t="s">
+      <c r="AC7" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="AD7" s="61" t="s">
+      <c r="AD7" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="AE7" s="61" t="s">
+      <c r="AE7" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="AF7" s="61" t="s">
+      <c r="AF7" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="AG7" s="61" t="s">
+      <c r="AG7" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="AH7" s="61" t="s">
+      <c r="AH7" s="60" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" s="63" customFormat="1" ht="12.75">
-      <c r="A8" s="63" t="s">
+    <row r="8" s="62" customFormat="1" ht="12.75">
+      <c r="A8" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="AMH8" s="63"/>
-      <c r="AMI8" s="63"/>
-      <c r="AMJ8" s="63"/>
-      <c r="AMK8" s="63"/>
-      <c r="AML8" s="63"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="AMH8" s="62"/>
+      <c r="AMI8" s="62"/>
+      <c r="AMJ8" s="62"/>
+      <c r="AMK8" s="62"/>
+      <c r="AML8" s="62"/>
     </row>
     <row r="9" ht="12.75">
       <c r="A9" t="s">
@@ -5028,19 +5022,19 @@
       <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="63" t="s">
         <v>235</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41">
+      <c r="I9" s="39"/>
+      <c r="J9" s="40">
         <v>1</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="41">
         <v>1</v>
       </c>
       <c r="L9" t="s">
@@ -5048,7 +5042,7 @@
       </c>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
-      <c r="X9" s="65"/>
+      <c r="X9" s="64"/>
       <c r="AA9" t="s">
         <v>132</v>
       </c>
@@ -5060,14 +5054,14 @@
       <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="65" t="s">
         <v>237</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>239</v>
       </c>
       <c r="G10" s="3"/>
@@ -5087,8 +5081,8 @@
       <c r="T10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="67" t="s">
+      <c r="X10" s="64"/>
+      <c r="Y10" s="66" t="s">
         <v>241</v>
       </c>
       <c r="AA10" t="s">
@@ -5107,14 +5101,14 @@
       <c r="B11" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="65" t="s">
         <v>243</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="35" t="s">
         <v>245</v>
       </c>
       <c r="G11" s="3"/>
@@ -5134,7 +5128,7 @@
       <c r="T11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="65"/>
+      <c r="X11" s="64"/>
       <c r="AA11" t="s">
         <v>132</v>
       </c>
@@ -5151,14 +5145,14 @@
       <c r="B12" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="65" t="s">
         <v>247</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="35" t="s">
         <v>249</v>
       </c>
       <c r="G12" s="3"/>
@@ -5181,7 +5175,7 @@
       <c r="T12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="65"/>
+      <c r="X12" s="64"/>
       <c r="AA12" t="s">
         <v>132</v>
       </c>
@@ -5198,14 +5192,14 @@
       <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="65" t="s">
         <v>252</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="35" t="s">
         <v>254</v>
       </c>
       <c r="G13" s="3"/>
@@ -5228,7 +5222,7 @@
       <c r="T13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="65"/>
+      <c r="X13" s="64"/>
       <c r="AA13" t="s">
         <v>132</v>
       </c>
@@ -5245,14 +5239,14 @@
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="65" t="s">
         <v>256</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="35" t="s">
         <v>258</v>
       </c>
       <c r="G14" s="3"/>
@@ -5275,7 +5269,7 @@
       <c r="T14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="65"/>
+      <c r="X14" s="64"/>
       <c r="AA14" t="s">
         <v>132</v>
       </c>
@@ -5292,14 +5286,14 @@
       <c r="B15" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="65" t="s">
         <v>261</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="35" t="s">
         <v>263</v>
       </c>
       <c r="G15" s="3"/>
@@ -5319,7 +5313,7 @@
       <c r="T15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="65"/>
+      <c r="X15" s="64"/>
       <c r="AA15" t="s">
         <v>132</v>
       </c>
@@ -5336,7 +5330,7 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="67" t="s">
         <v>265</v>
       </c>
       <c r="E16" t="s">
@@ -5347,8 +5341,8 @@
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
       <c r="L16" t="s">
         <v>108</v>
       </c>
@@ -5357,7 +5351,7 @@
       </c>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
-      <c r="X16" s="65" t="s">
+      <c r="X16" s="64" t="s">
         <v>268</v>
       </c>
       <c r="AB16" t="b">
@@ -5382,8 +5376,8 @@
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
       <c r="L17" t="s">
         <v>108</v>
       </c>
@@ -5392,25 +5386,22 @@
       </c>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="65" t="s">
+      <c r="X17" s="64" t="s">
         <v>273</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>274</v>
       </c>
       <c r="AB17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="13.5">
-      <c r="A18" s="36" t="s">
-        <v>275</v>
+      <c r="A18" s="35" t="s">
+        <v>274</v>
       </c>
       <c r="B18" t="s">
         <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E18" t="s">
         <v>266</v>
@@ -5418,7 +5409,7 @@
       <c r="F18" t="s">
         <v>267</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="41">
         <v>1</v>
       </c>
       <c r="L18" t="s">
@@ -5430,22 +5421,22 @@
       <c r="N18" t="s">
         <v>133</v>
       </c>
-      <c r="X18" s="65" t="s">
-        <v>277</v>
+      <c r="X18" s="64" t="s">
+        <v>276</v>
       </c>
       <c r="AB18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="13.5">
-      <c r="A19" s="36" t="s">
-        <v>278</v>
+      <c r="A19" s="35" t="s">
+        <v>277</v>
       </c>
       <c r="B19" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="69" t="s">
-        <v>279</v>
+      <c r="C19" s="67" t="s">
+        <v>278</v>
       </c>
       <c r="E19" t="s">
         <v>266</v>
@@ -5453,7 +5444,7 @@
       <c r="F19" t="s">
         <v>267</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="41">
         <v>1</v>
       </c>
       <c r="L19" t="s">
@@ -5465,28 +5456,28 @@
       <c r="N19" t="s">
         <v>141</v>
       </c>
-      <c r="X19" s="65" t="s">
-        <v>277</v>
+      <c r="X19" s="64" t="s">
+        <v>276</v>
       </c>
       <c r="AB19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" ht="13.5">
-      <c r="A20" s="36" t="s">
-        <v>280</v>
+      <c r="A20" s="35" t="s">
+        <v>279</v>
       </c>
       <c r="B20" t="s">
         <v>103</v>
       </c>
       <c r="C20" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" t="s">
         <v>281</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>282</v>
-      </c>
-      <c r="F20" t="s">
-        <v>283</v>
       </c>
       <c r="L20" t="s">
         <v>108</v>
@@ -5494,7 +5485,7 @@
       <c r="N20" t="s">
         <v>110</v>
       </c>
-      <c r="X20" s="65" t="s">
+      <c r="X20" s="64" t="s">
         <v>268</v>
       </c>
       <c r="AB20" t="b">
@@ -5503,44 +5494,44 @@
     </row>
     <row r="21" ht="12.75">
       <c r="B21" s="12"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="22" s="63" customFormat="1" ht="12.75">
-      <c r="A22" s="63" t="s">
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" s="62" customFormat="1" ht="12.75">
+      <c r="A22" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="AMH22" s="63"/>
-      <c r="AMI22" s="63"/>
-      <c r="AMJ22" s="63"/>
-      <c r="AMK22" s="63"/>
-      <c r="AML22" s="63"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="AMH22" s="62"/>
+      <c r="AMI22" s="62"/>
+      <c r="AMJ22" s="62"/>
+      <c r="AMK22" s="62"/>
+      <c r="AML22" s="62"/>
     </row>
     <row r="23" ht="12.75">
       <c r="A23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B23" t="s">
         <v>110</v>
@@ -5548,19 +5539,19 @@
       <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="63" t="s">
         <v>235</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41">
+      <c r="I23" s="39"/>
+      <c r="J23" s="40">
         <v>1</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="41">
         <v>1</v>
       </c>
       <c r="L23" t="s">
@@ -5572,20 +5563,20 @@
     </row>
     <row r="24" s="0" customFormat="1" ht="12.75">
       <c r="A24" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B24" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="36" t="s">
+      <c r="F24" s="35" t="s">
         <v>287</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>288</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -5607,7 +5598,7 @@
       <c r="T24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="65"/>
+      <c r="X24" s="64"/>
       <c r="AA24" t="s">
         <v>132</v>
       </c>
@@ -5619,7 +5610,7 @@
     </row>
     <row r="25" s="0" customFormat="1" ht="12.75">
       <c r="A25" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s">
         <v>110</v>
@@ -5628,10 +5619,10 @@
         <v>261</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="35" t="s">
         <v>263</v>
       </c>
       <c r="G25" s="3"/>
@@ -5648,7 +5639,7 @@
       <c r="T25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="65"/>
+      <c r="X25" s="64"/>
       <c r="AA25" t="s">
         <v>132</v>
       </c>
@@ -5660,24 +5651,24 @@
     </row>
     <row r="26" ht="13.5">
       <c r="A26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B26" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="69" t="s">
-        <v>291</v>
+      <c r="C26" s="67" t="s">
+        <v>290</v>
       </c>
       <c r="E26" t="s">
         <v>271</v>
       </c>
       <c r="F26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
       <c r="L26" t="s">
         <v>108</v>
       </c>
@@ -5686,19 +5677,19 @@
       </c>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
-      <c r="X26" s="65" t="s">
+      <c r="X26" s="64" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="27" ht="13.5">
       <c r="A27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
         <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E27" t="s">
         <v>266</v>
@@ -5708,9 +5699,9 @@
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="42"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
       <c r="L27" t="s">
         <v>135</v>
       </c>
@@ -5722,37 +5713,37 @@
       </c>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
-      <c r="X27" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y27" s="67" t="s">
+      <c r="X27" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y27" s="66" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="28" ht="13.5">
       <c r="A28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
         <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
+        <v>296</v>
+      </c>
+      <c r="F28" t="s">
         <v>297</v>
-      </c>
-      <c r="F28" t="s">
-        <v>298</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="42">
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="41">
         <v>1</v>
       </c>
       <c r="L28" t="s">
@@ -5763,7 +5754,7 @@
       </c>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
-      <c r="X28" s="65" t="s">
+      <c r="X28" s="64" t="s">
         <v>268</v>
       </c>
       <c r="AB28" t="b">
@@ -5772,27 +5763,27 @@
     </row>
     <row r="29" ht="13.5">
       <c r="A29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="69" t="s">
-        <v>300</v>
+      <c r="C29" s="67" t="s">
+        <v>299</v>
       </c>
       <c r="D29" s="3">
         <v>4</v>
       </c>
       <c r="E29" t="s">
+        <v>300</v>
+      </c>
+      <c r="F29" t="s">
         <v>301</v>
-      </c>
-      <c r="F29" t="s">
-        <v>302</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
       <c r="L29" t="s">
         <v>108</v>
       </c>
@@ -5801,7 +5792,7 @@
       </c>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
-      <c r="X29" s="65" t="s">
+      <c r="X29" s="64" t="s">
         <v>268</v>
       </c>
       <c r="AB29" t="b">
@@ -5810,27 +5801,27 @@
     </row>
     <row r="30" ht="13.5">
       <c r="A30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="69" t="s">
-        <v>304</v>
+      <c r="C30" s="67" t="s">
+        <v>303</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" t="s">
+        <v>304</v>
+      </c>
+      <c r="F30" t="s">
         <v>305</v>
-      </c>
-      <c r="F30" t="s">
-        <v>306</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
       <c r="L30" t="s">
         <v>108</v>
       </c>
@@ -5839,7 +5830,7 @@
       </c>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
-      <c r="X30" s="65" t="s">
+      <c r="X30" s="64" t="s">
         <v>268</v>
       </c>
       <c r="AB30" t="b">
@@ -5848,22 +5839,22 @@
     </row>
     <row r="31" ht="13.5">
       <c r="A31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="69" t="s">
-        <v>308</v>
+      <c r="C31" s="67" t="s">
+        <v>307</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
       </c>
       <c r="E31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F31" t="s">
         <v>309</v>
-      </c>
-      <c r="F31" t="s">
-        <v>310</v>
       </c>
       <c r="L31" t="s">
         <v>108</v>
@@ -5871,7 +5862,7 @@
       <c r="N31" t="s">
         <v>110</v>
       </c>
-      <c r="X31" s="65" t="s">
+      <c r="X31" s="64" t="s">
         <v>268</v>
       </c>
       <c r="AB31" t="b">
@@ -5880,24 +5871,24 @@
     </row>
     <row r="32" ht="13.5">
       <c r="A32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B32" t="s">
         <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
       </c>
       <c r="E32" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32" t="s">
         <v>313</v>
       </c>
-      <c r="F32" t="s">
-        <v>314</v>
-      </c>
-      <c r="K32" s="42">
+      <c r="K32" s="41">
         <v>1</v>
       </c>
       <c r="L32" t="s">
@@ -5906,7 +5897,7 @@
       <c r="N32" t="s">
         <v>110</v>
       </c>
-      <c r="X32" s="65" t="s">
+      <c r="X32" s="64" t="s">
         <v>268</v>
       </c>
       <c r="AB32" t="b">
@@ -5915,22 +5906,22 @@
     </row>
     <row r="33" ht="13.5">
       <c r="A33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="69" t="s">
-        <v>316</v>
+      <c r="C33" s="67" t="s">
+        <v>315</v>
       </c>
       <c r="D33" s="3">
         <v>5</v>
       </c>
       <c r="E33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F33" t="s">
         <v>317</v>
-      </c>
-      <c r="F33" t="s">
-        <v>318</v>
       </c>
       <c r="L33" t="s">
         <v>108</v>
@@ -5938,7 +5929,7 @@
       <c r="N33" t="s">
         <v>110</v>
       </c>
-      <c r="X33" s="65" t="s">
+      <c r="X33" s="64" t="s">
         <v>268</v>
       </c>
       <c r="AB33" t="b">
@@ -5947,19 +5938,19 @@
     </row>
     <row r="34" ht="13.5">
       <c r="A34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s">
         <v>110</v>
       </c>
       <c r="C34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E34" t="s">
         <v>320</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>321</v>
-      </c>
-      <c r="F34" t="s">
-        <v>322</v>
       </c>
       <c r="L34" t="s">
         <v>108</v>
@@ -5967,28 +5958,28 @@
       <c r="N34" t="s">
         <v>114</v>
       </c>
-      <c r="X34" s="65" t="s">
-        <v>323</v>
+      <c r="X34" s="64" t="s">
+        <v>322</v>
       </c>
       <c r="AB34" t="b">
         <v>1</v>
       </c>
       <c r="AD34" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE34" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="AE34" s="12" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="35" ht="13.5">
       <c r="A35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="69" t="s">
-        <v>327</v>
+      <c r="C35" s="67" t="s">
+        <v>326</v>
       </c>
       <c r="E35" t="s">
         <v>266</v>
@@ -6002,34 +5993,34 @@
       <c r="N35" t="s">
         <v>114</v>
       </c>
-      <c r="X35" s="65" t="s">
-        <v>323</v>
+      <c r="X35" s="64" t="s">
+        <v>322</v>
       </c>
       <c r="AB35" t="b">
         <v>1</v>
       </c>
       <c r="AD35" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE35" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="AE35" s="12" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="36" ht="13.5">
       <c r="A36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s">
         <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E36" t="s">
+        <v>320</v>
+      </c>
+      <c r="F36" t="s">
         <v>321</v>
-      </c>
-      <c r="F36" t="s">
-        <v>322</v>
       </c>
       <c r="L36" t="s">
         <v>108</v>
@@ -6037,7 +6028,7 @@
       <c r="N36" t="s">
         <v>119</v>
       </c>
-      <c r="X36" s="65" t="s">
+      <c r="X36" s="64" t="s">
         <v>273</v>
       </c>
       <c r="AB36" t="b">
@@ -6046,13 +6037,13 @@
     </row>
     <row r="37" ht="13.5">
       <c r="A37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="69" t="s">
-        <v>331</v>
+      <c r="C37" s="67" t="s">
+        <v>330</v>
       </c>
       <c r="E37" t="s">
         <v>266</v>
@@ -6066,25 +6057,25 @@
       <c r="N37" t="s">
         <v>119</v>
       </c>
-      <c r="X37" s="65" t="s">
+      <c r="X37" s="64" t="s">
         <v>273</v>
       </c>
       <c r="Z37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AB37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="38" ht="13.5">
-      <c r="A38" s="36" t="s">
-        <v>333</v>
+      <c r="A38" s="35" t="s">
+        <v>332</v>
       </c>
       <c r="B38" t="s">
         <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E38" t="s">
         <v>266</v>
@@ -6092,7 +6083,7 @@
       <c r="F38" t="s">
         <v>267</v>
       </c>
-      <c r="K38" s="42">
+      <c r="K38" s="41">
         <v>1</v>
       </c>
       <c r="L38" t="s">
@@ -6104,30 +6095,30 @@
       <c r="N38" t="s">
         <v>137</v>
       </c>
-      <c r="X38" s="65" t="s">
-        <v>277</v>
+      <c r="X38" s="64" t="s">
+        <v>276</v>
       </c>
       <c r="AB38" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39" ht="13.5">
-      <c r="A39" s="36" t="s">
-        <v>335</v>
+      <c r="A39" s="35" t="s">
+        <v>334</v>
       </c>
       <c r="B39" t="s">
         <v>110</v>
       </c>
       <c r="C39" t="s">
+        <v>335</v>
+      </c>
+      <c r="E39" t="s">
         <v>336</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>337</v>
       </c>
-      <c r="F39" t="s">
-        <v>338</v>
-      </c>
-      <c r="J39" s="41"/>
+      <c r="J39" s="40"/>
       <c r="L39" t="s">
         <v>135</v>
       </c>
@@ -6137,8 +6128,8 @@
       <c r="N39" t="s">
         <v>147</v>
       </c>
-      <c r="X39" s="65" t="s">
-        <v>277</v>
+      <c r="X39" s="64" t="s">
+        <v>276</v>
       </c>
       <c r="AB39" t="b">
         <v>1</v>
@@ -6146,58 +6137,58 @@
     </row>
     <row r="40" ht="12.75">
       <c r="B40" s="12"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-    </row>
-    <row r="41" s="63" customFormat="1" ht="12.75">
-      <c r="A41" s="63" t="s">
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+    </row>
+    <row r="41" s="62" customFormat="1" ht="12.75">
+      <c r="A41" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63"/>
-      <c r="V41" s="63"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="63"/>
-      <c r="AB41" s="63"/>
-      <c r="AMH41" s="63"/>
-      <c r="AMI41" s="63"/>
-      <c r="AMJ41" s="63"/>
-      <c r="AMK41" s="63"/>
-      <c r="AML41" s="63"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="62"/>
+      <c r="X41" s="62"/>
+      <c r="AB41" s="62"/>
+      <c r="AMH41" s="62"/>
+      <c r="AMI41" s="62"/>
+      <c r="AMJ41" s="62"/>
+      <c r="AMK41" s="62"/>
+      <c r="AML41" s="62"/>
     </row>
     <row r="42" s="0" customFormat="1" ht="12.75">
       <c r="A42" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s">
         <v>114</v>
       </c>
       <c r="C42" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="36" t="s">
+      <c r="F42" s="35" t="s">
         <v>341</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>342</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -6216,7 +6207,7 @@
       <c r="T42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="65"/>
+      <c r="X42" s="64"/>
       <c r="AA42" t="s">
         <v>132</v>
       </c>
@@ -6228,20 +6219,20 @@
     </row>
     <row r="43" s="0" customFormat="1" ht="12.75">
       <c r="A43" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s">
         <v>114</v>
       </c>
       <c r="C43" t="s">
+        <v>343</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="36" t="s">
+      <c r="F43" s="35" t="s">
         <v>345</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>346</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -6260,7 +6251,7 @@
       <c r="T43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-      <c r="X43" s="65"/>
+      <c r="X43" s="64"/>
       <c r="AA43" t="s">
         <v>132</v>
       </c>
@@ -6272,20 +6263,20 @@
     </row>
     <row r="44" s="0" customFormat="1" ht="12.75">
       <c r="A44" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" t="s">
         <v>114</v>
       </c>
       <c r="C44" t="s">
+        <v>347</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="36" t="s">
+      <c r="F44" s="35" t="s">
         <v>349</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>350</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -6307,7 +6298,7 @@
       <c r="T44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-      <c r="X44" s="65"/>
+      <c r="X44" s="64"/>
       <c r="AA44" t="s">
         <v>132</v>
       </c>
@@ -6319,20 +6310,20 @@
     </row>
     <row r="45" s="0" customFormat="1" ht="12.75">
       <c r="A45" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s">
         <v>114</v>
       </c>
       <c r="C45" t="s">
+        <v>351</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="36" t="s">
+      <c r="F45" s="35" t="s">
         <v>353</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>354</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -6354,8 +6345,8 @@
       <c r="T45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-      <c r="X45" s="65"/>
-      <c r="Y45" s="67" t="s">
+      <c r="X45" s="64"/>
+      <c r="Y45" s="66" t="s">
         <v>241</v>
       </c>
       <c r="AA45" t="s">
@@ -6369,20 +6360,20 @@
     </row>
     <row r="46" s="0" customFormat="1" ht="12.75">
       <c r="A46" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s">
         <v>114</v>
       </c>
       <c r="C46" t="s">
+        <v>355</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="36" t="s">
+      <c r="F46" s="35" t="s">
         <v>357</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>358</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -6404,7 +6395,7 @@
       <c r="T46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-      <c r="X46" s="65"/>
+      <c r="X46" s="64"/>
       <c r="AA46" t="s">
         <v>132</v>
       </c>
@@ -6416,24 +6407,24 @@
     </row>
     <row r="47" ht="13.5">
       <c r="A47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="67" t="s">
+        <v>347</v>
+      </c>
+      <c r="E47" t="s">
         <v>348</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>349</v>
-      </c>
-      <c r="F47" t="s">
-        <v>350</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="40"/>
       <c r="L47" t="s">
         <v>108</v>
       </c>
@@ -6442,8 +6433,8 @@
       </c>
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
-      <c r="X47" s="65" t="s">
-        <v>277</v>
+      <c r="X47" s="64" t="s">
+        <v>276</v>
       </c>
       <c r="AB47" t="b">
         <v>1</v>
@@ -6451,65 +6442,65 @@
     </row>
     <row r="48" ht="12.75">
       <c r="B48" s="12"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="42"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="41"/>
       <c r="V48" s="12"/>
       <c r="W48" s="12"/>
     </row>
-    <row r="49" s="63" customFormat="1" ht="12.75">
-      <c r="A49" s="63" t="s">
+    <row r="49" s="62" customFormat="1" ht="12.75">
+      <c r="A49" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="63"/>
-      <c r="T49" s="63"/>
-      <c r="V49" s="63"/>
-      <c r="W49" s="63"/>
-      <c r="X49" s="63"/>
-      <c r="AB49" s="63"/>
-      <c r="AMH49" s="63"/>
-      <c r="AMI49" s="63"/>
-      <c r="AMJ49" s="63"/>
-      <c r="AMK49" s="63"/>
-      <c r="AML49" s="63"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="62"/>
+      <c r="X49" s="62"/>
+      <c r="AB49" s="62"/>
+      <c r="AMH49" s="62"/>
+      <c r="AMI49" s="62"/>
+      <c r="AMJ49" s="62"/>
+      <c r="AMK49" s="62"/>
+      <c r="AML49" s="62"/>
     </row>
     <row r="50" s="0" customFormat="1" ht="12.75">
       <c r="A50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B50" t="s">
         <v>119</v>
       </c>
       <c r="C50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="36" t="s">
+      <c r="F50" s="35" t="s">
         <v>341</v>
-      </c>
-      <c r="F50" s="36" t="s">
-        <v>342</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -6529,7 +6520,7 @@
       <c r="T50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-      <c r="X50" s="65"/>
+      <c r="X50" s="64"/>
       <c r="AA50" t="s">
         <v>132</v>
       </c>
@@ -6541,20 +6532,20 @@
     </row>
     <row r="51" s="0" customFormat="1" ht="12.75">
       <c r="A51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s">
         <v>119</v>
       </c>
       <c r="C51" t="s">
+        <v>343</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="36" t="s">
+      <c r="F51" s="35" t="s">
         <v>345</v>
-      </c>
-      <c r="F51" s="36" t="s">
-        <v>346</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -6575,7 +6566,7 @@
       <c r="T51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-      <c r="X51" s="65"/>
+      <c r="X51" s="64"/>
       <c r="AA51" t="s">
         <v>132</v>
       </c>
@@ -6587,20 +6578,20 @@
     </row>
     <row r="52" s="0" customFormat="1" ht="12.75">
       <c r="A52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s">
         <v>119</v>
       </c>
       <c r="C52" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="36" t="s">
+      <c r="F52" s="35" t="s">
         <v>349</v>
-      </c>
-      <c r="F52" s="36" t="s">
-        <v>350</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -6621,7 +6612,7 @@
       <c r="T52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-      <c r="X52" s="65"/>
+      <c r="X52" s="64"/>
       <c r="AA52" t="s">
         <v>132</v>
       </c>
@@ -6633,20 +6624,20 @@
     </row>
     <row r="53" s="0" customFormat="1" ht="12.75">
       <c r="A53" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B53" t="s">
         <v>119</v>
       </c>
       <c r="C53" t="s">
+        <v>351</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="36" t="s">
+      <c r="F53" s="35" t="s">
         <v>353</v>
-      </c>
-      <c r="F53" s="36" t="s">
-        <v>354</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -6667,8 +6658,8 @@
       <c r="T53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-      <c r="X53" s="65"/>
-      <c r="Y53" s="67" t="s">
+      <c r="X53" s="64"/>
+      <c r="Y53" s="66" t="s">
         <v>241</v>
       </c>
       <c r="AA53" t="s">
@@ -6682,20 +6673,20 @@
     </row>
     <row r="54" s="0" customFormat="1" ht="12.75">
       <c r="A54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B54" t="s">
         <v>119</v>
       </c>
       <c r="C54" t="s">
+        <v>355</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="36" t="s">
+      <c r="F54" s="35" t="s">
         <v>357</v>
-      </c>
-      <c r="F54" s="36" t="s">
-        <v>358</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -6716,7 +6707,7 @@
       <c r="T54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-      <c r="X54" s="65"/>
+      <c r="X54" s="64"/>
       <c r="AA54" t="s">
         <v>132</v>
       </c>
@@ -6728,25 +6719,25 @@
     </row>
     <row r="55" ht="13.5">
       <c r="A55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B55" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="69" t="s">
+      <c r="C55" s="67" t="s">
+        <v>347</v>
+      </c>
+      <c r="E55" t="s">
         <v>348</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>349</v>
-      </c>
-      <c r="F55" t="s">
-        <v>350</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="42"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="41"/>
       <c r="L55" t="s">
         <v>108</v>
       </c>
@@ -6755,8 +6746,8 @@
       </c>
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
-      <c r="X55" s="65" t="s">
-        <v>277</v>
+      <c r="X55" s="64" t="s">
+        <v>276</v>
       </c>
       <c r="AB55" t="b">
         <v>1</v>
@@ -6764,51 +6755,51 @@
     </row>
     <row r="56" ht="12.75">
       <c r="B56" s="12"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="42"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="41"/>
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
     </row>
-    <row r="57" s="63" customFormat="1" ht="12.75">
-      <c r="A57" s="63" t="s">
+    <row r="57" s="62" customFormat="1" ht="12.75">
+      <c r="A57" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="63"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="63"/>
-      <c r="S57" s="63"/>
-      <c r="T57" s="63"/>
-      <c r="V57" s="63"/>
-      <c r="W57" s="63"/>
-      <c r="X57" s="63"/>
-      <c r="AMH57" s="63"/>
-      <c r="AMI57" s="63"/>
-      <c r="AMJ57" s="63"/>
-      <c r="AMK57" s="63"/>
-      <c r="AML57" s="63"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="62"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="62"/>
+      <c r="V57" s="62"/>
+      <c r="W57" s="62"/>
+      <c r="X57" s="62"/>
+      <c r="AMH57" s="62"/>
+      <c r="AMI57" s="62"/>
+      <c r="AMJ57" s="62"/>
+      <c r="AMK57" s="62"/>
+      <c r="AML57" s="62"/>
     </row>
     <row r="58" ht="12.75">
       <c r="A58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B58" t="s">
         <v>123</v>
@@ -6816,19 +6807,19 @@
       <c r="C58" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="F58" s="64" t="s">
+      <c r="F58" s="63" t="s">
         <v>235</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="41">
+      <c r="I58" s="39"/>
+      <c r="J58" s="40">
         <v>1</v>
       </c>
-      <c r="K58" s="42">
+      <c r="K58" s="41">
         <v>1</v>
       </c>
       <c r="L58" t="s">
@@ -6840,20 +6831,20 @@
     </row>
     <row r="59" s="0" customFormat="1" ht="12.75">
       <c r="A59" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B59" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="66" t="s">
+      <c r="C59" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="36" t="s">
+      <c r="F59" s="35" t="s">
         <v>353</v>
-      </c>
-      <c r="F59" s="36" t="s">
-        <v>354</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -6872,8 +6863,8 @@
       <c r="T59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-      <c r="X59" s="65"/>
-      <c r="Y59" s="67" t="s">
+      <c r="X59" s="64"/>
+      <c r="Y59" s="66" t="s">
         <v>241</v>
       </c>
       <c r="AA59" t="s">
@@ -6887,20 +6878,20 @@
     </row>
     <row r="60" s="0" customFormat="1" ht="12.75">
       <c r="A60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B60" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="36" t="s">
+      <c r="F60" s="35" t="s">
         <v>370</v>
-      </c>
-      <c r="F60" s="36" t="s">
-        <v>371</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -6919,7 +6910,9 @@
       <c r="T60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-      <c r="X60" s="65"/>
+      <c r="X60" s="64" t="s">
+        <v>268</v>
+      </c>
       <c r="AMH60" s="3"/>
       <c r="AMI60" s="3"/>
       <c r="AMJ60" s="3"/>
@@ -6928,20 +6921,20 @@
     </row>
     <row r="61" s="0" customFormat="1" ht="12.75">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B61" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="66" t="s">
+      <c r="C61" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="36" t="s">
+      <c r="F61" s="35" t="s">
         <v>374</v>
-      </c>
-      <c r="F61" s="36" t="s">
-        <v>375</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -6963,7 +6956,7 @@
       <c r="T61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-      <c r="X61" s="65"/>
+      <c r="X61" s="64"/>
       <c r="AA61" t="s">
         <v>132</v>
       </c>
@@ -6975,20 +6968,20 @@
     </row>
     <row r="62" s="0" customFormat="1" ht="12.75">
       <c r="A62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="66" t="s">
+      <c r="C62" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="36" t="s">
+      <c r="F62" s="35" t="s">
         <v>378</v>
-      </c>
-      <c r="F62" s="36" t="s">
-        <v>379</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -7010,7 +7003,7 @@
       <c r="T62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-      <c r="X62" s="65"/>
+      <c r="X62" s="64"/>
       <c r="AA62" t="s">
         <v>132</v>
       </c>
@@ -7022,20 +7015,20 @@
     </row>
     <row r="63" s="0" customFormat="1" ht="12.75">
       <c r="A63" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B63" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="36" t="s">
+      <c r="F63" s="35" t="s">
         <v>382</v>
-      </c>
-      <c r="F63" s="36" t="s">
-        <v>383</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -7057,7 +7050,7 @@
       <c r="T63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-      <c r="X63" s="65"/>
+      <c r="X63" s="64"/>
       <c r="AA63" t="s">
         <v>132</v>
       </c>
@@ -7068,26 +7061,26 @@
       <c r="AML63" s="3"/>
     </row>
     <row r="64" ht="13.5">
-      <c r="A64" s="36" t="s">
-        <v>384</v>
+      <c r="A64" s="35" t="s">
+        <v>383</v>
       </c>
       <c r="B64" t="s">
         <v>123</v>
       </c>
       <c r="C64" t="s">
+        <v>384</v>
+      </c>
+      <c r="E64" t="s">
         <v>385</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>386</v>
-      </c>
-      <c r="F64" t="s">
-        <v>387</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="42">
+      <c r="I64" s="39"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="41">
         <v>1</v>
       </c>
       <c r="L64" t="s">
@@ -7101,22 +7094,22 @@
       </c>
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
-      <c r="X64" s="65" t="s">
+      <c r="X64" s="64" t="s">
         <v>273</v>
       </c>
       <c r="Z64" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="65" ht="13.5">
+      <c r="A65" s="35" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="65" ht="13.5">
-      <c r="A65" s="36" t="s">
-        <v>389</v>
       </c>
       <c r="B65" t="s">
         <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E65" t="s">
         <v>266</v>
@@ -7126,9 +7119,9 @@
       </c>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="42">
+      <c r="I65" s="39"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="41">
         <v>1</v>
       </c>
       <c r="L65" t="s">
@@ -7142,22 +7135,22 @@
       </c>
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
-      <c r="X65" s="65" t="s">
+      <c r="X65" s="64" t="s">
         <v>273</v>
       </c>
       <c r="Z65" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="66" ht="13.5">
-      <c r="A66" s="36" t="s">
-        <v>391</v>
+      <c r="A66" s="35" t="s">
+        <v>390</v>
       </c>
       <c r="B66" t="s">
         <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E66" t="s">
         <v>266</v>
@@ -7165,7 +7158,7 @@
       <c r="F66" t="s">
         <v>267</v>
       </c>
-      <c r="K66" s="42">
+      <c r="K66" s="41">
         <v>1</v>
       </c>
       <c r="L66" t="s">
@@ -7177,30 +7170,30 @@
       <c r="N66" t="s">
         <v>156</v>
       </c>
-      <c r="X66" s="65" t="s">
+      <c r="X66" s="64" t="s">
         <v>273</v>
       </c>
       <c r="Z66" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67" ht="13.5">
-      <c r="A67" s="36" t="s">
-        <v>393</v>
+      <c r="A67" s="35" t="s">
+        <v>392</v>
       </c>
       <c r="B67" t="s">
         <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E67" t="s">
         <v>267</v>
       </c>
       <c r="F67" t="s">
-        <v>395</v>
-      </c>
-      <c r="J67" s="41">
+        <v>394</v>
+      </c>
+      <c r="J67" s="40">
         <v>1</v>
       </c>
       <c r="L67" t="s">
@@ -7212,1102 +7205,1102 @@
       <c r="N67" t="s">
         <v>158</v>
       </c>
-      <c r="X67" s="65" t="s">
-        <v>396</v>
+      <c r="X67" s="64" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="68" ht="12.75"/>
     <row r="69" ht="12.75">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="B69" s="70"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="70"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="63"/>
-      <c r="O69" s="63"/>
-      <c r="P69" s="63"/>
-      <c r="Q69" s="63"/>
-      <c r="R69" s="63"/>
-      <c r="S69" s="63"/>
-      <c r="T69" s="63"/>
-      <c r="U69" s="63"/>
-      <c r="V69" s="70"/>
-      <c r="W69" s="70"/>
-      <c r="X69" s="63"/>
-      <c r="Y69" s="63"/>
-      <c r="Z69" s="63"/>
-      <c r="AA69" s="63"/>
-      <c r="AB69" s="63"/>
-      <c r="AC69" s="63"/>
-      <c r="AD69" s="63"/>
-      <c r="AE69" s="63"/>
-      <c r="AF69" s="63"/>
-      <c r="AG69" s="63"/>
-      <c r="AH69" s="63"/>
-      <c r="AI69" s="63"/>
-      <c r="AJ69" s="63"/>
-      <c r="AK69" s="63"/>
-      <c r="AL69" s="63"/>
-      <c r="AM69" s="63"/>
-      <c r="AN69" s="63"/>
-      <c r="AO69" s="63"/>
-      <c r="AP69" s="63"/>
-      <c r="AQ69" s="63"/>
-      <c r="AR69" s="63"/>
-      <c r="AS69" s="63"/>
-      <c r="AT69" s="63"/>
-      <c r="AU69" s="63"/>
-      <c r="AV69" s="63"/>
-      <c r="AW69" s="63"/>
-      <c r="AX69" s="63"/>
-      <c r="AY69" s="63"/>
-      <c r="AZ69" s="63"/>
-      <c r="BA69" s="63"/>
-      <c r="BB69" s="63"/>
-      <c r="BC69" s="63"/>
-      <c r="BD69" s="63"/>
-      <c r="BE69" s="63"/>
-      <c r="BF69" s="63"/>
-      <c r="BG69" s="63"/>
-      <c r="BH69" s="63"/>
-      <c r="BI69" s="63"/>
-      <c r="BJ69" s="63"/>
-      <c r="BK69" s="63"/>
-      <c r="BL69" s="63"/>
-      <c r="BM69" s="63"/>
-      <c r="BN69" s="63"/>
-      <c r="BO69" s="63"/>
-      <c r="BP69" s="63"/>
-      <c r="BQ69" s="63"/>
-      <c r="BR69" s="63"/>
-      <c r="BS69" s="63"/>
-      <c r="BT69" s="63"/>
-      <c r="BU69" s="63"/>
-      <c r="BV69" s="63"/>
-      <c r="BW69" s="63"/>
-      <c r="BX69" s="63"/>
-      <c r="BY69" s="63"/>
-      <c r="BZ69" s="63"/>
-      <c r="CA69" s="63"/>
-      <c r="CB69" s="63"/>
-      <c r="CC69" s="63"/>
-      <c r="CD69" s="63"/>
-      <c r="CE69" s="63"/>
-      <c r="CF69" s="63"/>
-      <c r="CG69" s="63"/>
-      <c r="CH69" s="63"/>
-      <c r="CI69" s="63"/>
-      <c r="CJ69" s="63"/>
-      <c r="CK69" s="63"/>
-      <c r="CL69" s="63"/>
-      <c r="CM69" s="63"/>
-      <c r="CN69" s="63"/>
-      <c r="CO69" s="63"/>
-      <c r="CP69" s="63"/>
-      <c r="CQ69" s="63"/>
-      <c r="CR69" s="63"/>
-      <c r="CS69" s="63"/>
-      <c r="CT69" s="63"/>
-      <c r="CU69" s="63"/>
-      <c r="CV69" s="63"/>
-      <c r="CW69" s="63"/>
-      <c r="CX69" s="63"/>
-      <c r="CY69" s="63"/>
-      <c r="CZ69" s="63"/>
-      <c r="DA69" s="63"/>
-      <c r="DB69" s="63"/>
-      <c r="DC69" s="63"/>
-      <c r="DD69" s="63"/>
-      <c r="DE69" s="63"/>
-      <c r="DF69" s="63"/>
-      <c r="DG69" s="63"/>
-      <c r="DH69" s="63"/>
-      <c r="DI69" s="63"/>
-      <c r="DJ69" s="63"/>
-      <c r="DK69" s="63"/>
-      <c r="DL69" s="63"/>
-      <c r="DM69" s="63"/>
-      <c r="DN69" s="63"/>
-      <c r="DO69" s="63"/>
-      <c r="DP69" s="63"/>
-      <c r="DQ69" s="63"/>
-      <c r="DR69" s="63"/>
-      <c r="DS69" s="63"/>
-      <c r="DT69" s="63"/>
-      <c r="DU69" s="63"/>
-      <c r="DV69" s="63"/>
-      <c r="DW69" s="63"/>
-      <c r="DX69" s="63"/>
-      <c r="DY69" s="63"/>
-      <c r="DZ69" s="63"/>
-      <c r="EA69" s="63"/>
-      <c r="EB69" s="63"/>
-      <c r="EC69" s="63"/>
-      <c r="ED69" s="63"/>
-      <c r="EE69" s="63"/>
-      <c r="EF69" s="63"/>
-      <c r="EG69" s="63"/>
-      <c r="EH69" s="63"/>
-      <c r="EI69" s="63"/>
-      <c r="EJ69" s="63"/>
-      <c r="EK69" s="63"/>
-      <c r="EL69" s="63"/>
-      <c r="EM69" s="63"/>
-      <c r="EN69" s="63"/>
-      <c r="EO69" s="63"/>
-      <c r="EP69" s="63"/>
-      <c r="EQ69" s="63"/>
-      <c r="ER69" s="63"/>
-      <c r="ES69" s="63"/>
-      <c r="ET69" s="63"/>
-      <c r="EU69" s="63"/>
-      <c r="EV69" s="63"/>
-      <c r="EW69" s="63"/>
-      <c r="EX69" s="63"/>
-      <c r="EY69" s="63"/>
-      <c r="EZ69" s="63"/>
-      <c r="FA69" s="63"/>
-      <c r="FB69" s="63"/>
-      <c r="FC69" s="63"/>
-      <c r="FD69" s="63"/>
-      <c r="FE69" s="63"/>
-      <c r="FF69" s="63"/>
-      <c r="FG69" s="63"/>
-      <c r="FH69" s="63"/>
-      <c r="FI69" s="63"/>
-      <c r="FJ69" s="63"/>
-      <c r="FK69" s="63"/>
-      <c r="FL69" s="63"/>
-      <c r="FM69" s="63"/>
-      <c r="FN69" s="63"/>
-      <c r="FO69" s="63"/>
-      <c r="FP69" s="63"/>
-      <c r="FQ69" s="63"/>
-      <c r="FR69" s="63"/>
-      <c r="FS69" s="63"/>
-      <c r="FT69" s="63"/>
-      <c r="FU69" s="63"/>
-      <c r="FV69" s="63"/>
-      <c r="FW69" s="63"/>
-      <c r="FX69" s="63"/>
-      <c r="FY69" s="63"/>
-      <c r="FZ69" s="63"/>
-      <c r="GA69" s="63"/>
-      <c r="GB69" s="63"/>
-      <c r="GC69" s="63"/>
-      <c r="GD69" s="63"/>
-      <c r="GE69" s="63"/>
-      <c r="GF69" s="63"/>
-      <c r="GG69" s="63"/>
-      <c r="GH69" s="63"/>
-      <c r="GI69" s="63"/>
-      <c r="GJ69" s="63"/>
-      <c r="GK69" s="63"/>
-      <c r="GL69" s="63"/>
-      <c r="GM69" s="63"/>
-      <c r="GN69" s="63"/>
-      <c r="GO69" s="63"/>
-      <c r="GP69" s="63"/>
-      <c r="GQ69" s="63"/>
-      <c r="GR69" s="63"/>
-      <c r="GS69" s="63"/>
-      <c r="GT69" s="63"/>
-      <c r="GU69" s="63"/>
-      <c r="GV69" s="63"/>
-      <c r="GW69" s="63"/>
-      <c r="GX69" s="63"/>
-      <c r="GY69" s="63"/>
-      <c r="GZ69" s="63"/>
-      <c r="HA69" s="63"/>
-      <c r="HB69" s="63"/>
-      <c r="HC69" s="63"/>
-      <c r="HD69" s="63"/>
-      <c r="HE69" s="63"/>
-      <c r="HF69" s="63"/>
-      <c r="HG69" s="63"/>
-      <c r="HH69" s="63"/>
-      <c r="HI69" s="63"/>
-      <c r="HJ69" s="63"/>
-      <c r="HK69" s="63"/>
-      <c r="HL69" s="63"/>
-      <c r="HM69" s="63"/>
-      <c r="HN69" s="63"/>
-      <c r="HO69" s="63"/>
-      <c r="HP69" s="63"/>
-      <c r="HQ69" s="63"/>
-      <c r="HR69" s="63"/>
-      <c r="HS69" s="63"/>
-      <c r="HT69" s="63"/>
-      <c r="HU69" s="63"/>
-      <c r="HV69" s="63"/>
-      <c r="HW69" s="63"/>
-      <c r="HX69" s="63"/>
-      <c r="HY69" s="63"/>
-      <c r="HZ69" s="63"/>
-      <c r="IA69" s="63"/>
-      <c r="IB69" s="63"/>
-      <c r="IC69" s="63"/>
-      <c r="ID69" s="63"/>
-      <c r="IE69" s="63"/>
-      <c r="IF69" s="63"/>
-      <c r="IG69" s="63"/>
-      <c r="IH69" s="63"/>
-      <c r="II69" s="63"/>
-      <c r="IJ69" s="63"/>
-      <c r="IK69" s="63"/>
-      <c r="IL69" s="63"/>
-      <c r="IM69" s="63"/>
-      <c r="IN69" s="63"/>
-      <c r="IO69" s="63"/>
-      <c r="IP69" s="63"/>
-      <c r="IQ69" s="63"/>
-      <c r="IR69" s="63"/>
-      <c r="IS69" s="63"/>
-      <c r="IT69" s="63"/>
-      <c r="IU69" s="63"/>
-      <c r="IV69" s="63"/>
-      <c r="IW69" s="63"/>
-      <c r="IX69" s="63"/>
-      <c r="IY69" s="63"/>
-      <c r="IZ69" s="63"/>
-      <c r="JA69" s="63"/>
-      <c r="JB69" s="63"/>
-      <c r="JC69" s="63"/>
-      <c r="JD69" s="63"/>
-      <c r="JE69" s="63"/>
-      <c r="JF69" s="63"/>
-      <c r="JG69" s="63"/>
-      <c r="JH69" s="63"/>
-      <c r="JI69" s="63"/>
-      <c r="JJ69" s="63"/>
-      <c r="JK69" s="63"/>
-      <c r="JL69" s="63"/>
-      <c r="JM69" s="63"/>
-      <c r="JN69" s="63"/>
-      <c r="JO69" s="63"/>
-      <c r="JP69" s="63"/>
-      <c r="JQ69" s="63"/>
-      <c r="JR69" s="63"/>
-      <c r="JS69" s="63"/>
-      <c r="JT69" s="63"/>
-      <c r="JU69" s="63"/>
-      <c r="JV69" s="63"/>
-      <c r="JW69" s="63"/>
-      <c r="JX69" s="63"/>
-      <c r="JY69" s="63"/>
-      <c r="JZ69" s="63"/>
-      <c r="KA69" s="63"/>
-      <c r="KB69" s="63"/>
-      <c r="KC69" s="63"/>
-      <c r="KD69" s="63"/>
-      <c r="KE69" s="63"/>
-      <c r="KF69" s="63"/>
-      <c r="KG69" s="63"/>
-      <c r="KH69" s="63"/>
-      <c r="KI69" s="63"/>
-      <c r="KJ69" s="63"/>
-      <c r="KK69" s="63"/>
-      <c r="KL69" s="63"/>
-      <c r="KM69" s="63"/>
-      <c r="KN69" s="63"/>
-      <c r="KO69" s="63"/>
-      <c r="KP69" s="63"/>
-      <c r="KQ69" s="63"/>
-      <c r="KR69" s="63"/>
-      <c r="KS69" s="63"/>
-      <c r="KT69" s="63"/>
-      <c r="KU69" s="63"/>
-      <c r="KV69" s="63"/>
-      <c r="KW69" s="63"/>
-      <c r="KX69" s="63"/>
-      <c r="KY69" s="63"/>
-      <c r="KZ69" s="63"/>
-      <c r="LA69" s="63"/>
-      <c r="LB69" s="63"/>
-      <c r="LC69" s="63"/>
-      <c r="LD69" s="63"/>
-      <c r="LE69" s="63"/>
-      <c r="LF69" s="63"/>
-      <c r="LG69" s="63"/>
-      <c r="LH69" s="63"/>
-      <c r="LI69" s="63"/>
-      <c r="LJ69" s="63"/>
-      <c r="LK69" s="63"/>
-      <c r="LL69" s="63"/>
-      <c r="LM69" s="63"/>
-      <c r="LN69" s="63"/>
-      <c r="LO69" s="63"/>
-      <c r="LP69" s="63"/>
-      <c r="LQ69" s="63"/>
-      <c r="LR69" s="63"/>
-      <c r="LS69" s="63"/>
-      <c r="LT69" s="63"/>
-      <c r="LU69" s="63"/>
-      <c r="LV69" s="63"/>
-      <c r="LW69" s="63"/>
-      <c r="LX69" s="63"/>
-      <c r="LY69" s="63"/>
-      <c r="LZ69" s="63"/>
-      <c r="MA69" s="63"/>
-      <c r="MB69" s="63"/>
-      <c r="MC69" s="63"/>
-      <c r="MD69" s="63"/>
-      <c r="ME69" s="63"/>
-      <c r="MF69" s="63"/>
-      <c r="MG69" s="63"/>
-      <c r="MH69" s="63"/>
-      <c r="MI69" s="63"/>
-      <c r="MJ69" s="63"/>
-      <c r="MK69" s="63"/>
-      <c r="ML69" s="63"/>
-      <c r="MM69" s="63"/>
-      <c r="MN69" s="63"/>
-      <c r="MO69" s="63"/>
-      <c r="MP69" s="63"/>
-      <c r="MQ69" s="63"/>
-      <c r="MR69" s="63"/>
-      <c r="MS69" s="63"/>
-      <c r="MT69" s="63"/>
-      <c r="MU69" s="63"/>
-      <c r="MV69" s="63"/>
-      <c r="MW69" s="63"/>
-      <c r="MX69" s="63"/>
-      <c r="MY69" s="63"/>
-      <c r="MZ69" s="63"/>
-      <c r="NA69" s="63"/>
-      <c r="NB69" s="63"/>
-      <c r="NC69" s="63"/>
-      <c r="ND69" s="63"/>
-      <c r="NE69" s="63"/>
-      <c r="NF69" s="63"/>
-      <c r="NG69" s="63"/>
-      <c r="NH69" s="63"/>
-      <c r="NI69" s="63"/>
-      <c r="NJ69" s="63"/>
-      <c r="NK69" s="63"/>
-      <c r="NL69" s="63"/>
-      <c r="NM69" s="63"/>
-      <c r="NN69" s="63"/>
-      <c r="NO69" s="63"/>
-      <c r="NP69" s="63"/>
-      <c r="NQ69" s="63"/>
-      <c r="NR69" s="63"/>
-      <c r="NS69" s="63"/>
-      <c r="NT69" s="63"/>
-      <c r="NU69" s="63"/>
-      <c r="NV69" s="63"/>
-      <c r="NW69" s="63"/>
-      <c r="NX69" s="63"/>
-      <c r="NY69" s="63"/>
-      <c r="NZ69" s="63"/>
-      <c r="OA69" s="63"/>
-      <c r="OB69" s="63"/>
-      <c r="OC69" s="63"/>
-      <c r="OD69" s="63"/>
-      <c r="OE69" s="63"/>
-      <c r="OF69" s="63"/>
-      <c r="OG69" s="63"/>
-      <c r="OH69" s="63"/>
-      <c r="OI69" s="63"/>
-      <c r="OJ69" s="63"/>
-      <c r="OK69" s="63"/>
-      <c r="OL69" s="63"/>
-      <c r="OM69" s="63"/>
-      <c r="ON69" s="63"/>
-      <c r="OO69" s="63"/>
-      <c r="OP69" s="63"/>
-      <c r="OQ69" s="63"/>
-      <c r="OR69" s="63"/>
-      <c r="OS69" s="63"/>
-      <c r="OT69" s="63"/>
-      <c r="OU69" s="63"/>
-      <c r="OV69" s="63"/>
-      <c r="OW69" s="63"/>
-      <c r="OX69" s="63"/>
-      <c r="OY69" s="63"/>
-      <c r="OZ69" s="63"/>
-      <c r="PA69" s="63"/>
-      <c r="PB69" s="63"/>
-      <c r="PC69" s="63"/>
-      <c r="PD69" s="63"/>
-      <c r="PE69" s="63"/>
-      <c r="PF69" s="63"/>
-      <c r="PG69" s="63"/>
-      <c r="PH69" s="63"/>
-      <c r="PI69" s="63"/>
-      <c r="PJ69" s="63"/>
-      <c r="PK69" s="63"/>
-      <c r="PL69" s="63"/>
-      <c r="PM69" s="63"/>
-      <c r="PN69" s="63"/>
-      <c r="PO69" s="63"/>
-      <c r="PP69" s="63"/>
-      <c r="PQ69" s="63"/>
-      <c r="PR69" s="63"/>
-      <c r="PS69" s="63"/>
-      <c r="PT69" s="63"/>
-      <c r="PU69" s="63"/>
-      <c r="PV69" s="63"/>
-      <c r="PW69" s="63"/>
-      <c r="PX69" s="63"/>
-      <c r="PY69" s="63"/>
-      <c r="PZ69" s="63"/>
-      <c r="QA69" s="63"/>
-      <c r="QB69" s="63"/>
-      <c r="QC69" s="63"/>
-      <c r="QD69" s="63"/>
-      <c r="QE69" s="63"/>
-      <c r="QF69" s="63"/>
-      <c r="QG69" s="63"/>
-      <c r="QH69" s="63"/>
-      <c r="QI69" s="63"/>
-      <c r="QJ69" s="63"/>
-      <c r="QK69" s="63"/>
-      <c r="QL69" s="63"/>
-      <c r="QM69" s="63"/>
-      <c r="QN69" s="63"/>
-      <c r="QO69" s="63"/>
-      <c r="QP69" s="63"/>
-      <c r="QQ69" s="63"/>
-      <c r="QR69" s="63"/>
-      <c r="QS69" s="63"/>
-      <c r="QT69" s="63"/>
-      <c r="QU69" s="63"/>
-      <c r="QV69" s="63"/>
-      <c r="QW69" s="63"/>
-      <c r="QX69" s="63"/>
-      <c r="QY69" s="63"/>
-      <c r="QZ69" s="63"/>
-      <c r="RA69" s="63"/>
-      <c r="RB69" s="63"/>
-      <c r="RC69" s="63"/>
-      <c r="RD69" s="63"/>
-      <c r="RE69" s="63"/>
-      <c r="RF69" s="63"/>
-      <c r="RG69" s="63"/>
-      <c r="RH69" s="63"/>
-      <c r="RI69" s="63"/>
-      <c r="RJ69" s="63"/>
-      <c r="RK69" s="63"/>
-      <c r="RL69" s="63"/>
-      <c r="RM69" s="63"/>
-      <c r="RN69" s="63"/>
-      <c r="RO69" s="63"/>
-      <c r="RP69" s="63"/>
-      <c r="RQ69" s="63"/>
-      <c r="RR69" s="63"/>
-      <c r="RS69" s="63"/>
-      <c r="RT69" s="63"/>
-      <c r="RU69" s="63"/>
-      <c r="RV69" s="63"/>
-      <c r="RW69" s="63"/>
-      <c r="RX69" s="63"/>
-      <c r="RY69" s="63"/>
-      <c r="RZ69" s="63"/>
-      <c r="SA69" s="63"/>
-      <c r="SB69" s="63"/>
-      <c r="SC69" s="63"/>
-      <c r="SD69" s="63"/>
-      <c r="SE69" s="63"/>
-      <c r="SF69" s="63"/>
-      <c r="SG69" s="63"/>
-      <c r="SH69" s="63"/>
-      <c r="SI69" s="63"/>
-      <c r="SJ69" s="63"/>
-      <c r="SK69" s="63"/>
-      <c r="SL69" s="63"/>
-      <c r="SM69" s="63"/>
-      <c r="SN69" s="63"/>
-      <c r="SO69" s="63"/>
-      <c r="SP69" s="63"/>
-      <c r="SQ69" s="63"/>
-      <c r="SR69" s="63"/>
-      <c r="SS69" s="63"/>
-      <c r="ST69" s="63"/>
-      <c r="SU69" s="63"/>
-      <c r="SV69" s="63"/>
-      <c r="SW69" s="63"/>
-      <c r="SX69" s="63"/>
-      <c r="SY69" s="63"/>
-      <c r="SZ69" s="63"/>
-      <c r="TA69" s="63"/>
-      <c r="TB69" s="63"/>
-      <c r="TC69" s="63"/>
-      <c r="TD69" s="63"/>
-      <c r="TE69" s="63"/>
-      <c r="TF69" s="63"/>
-      <c r="TG69" s="63"/>
-      <c r="TH69" s="63"/>
-      <c r="TI69" s="63"/>
-      <c r="TJ69" s="63"/>
-      <c r="TK69" s="63"/>
-      <c r="TL69" s="63"/>
-      <c r="TM69" s="63"/>
-      <c r="TN69" s="63"/>
-      <c r="TO69" s="63"/>
-      <c r="TP69" s="63"/>
-      <c r="TQ69" s="63"/>
-      <c r="TR69" s="63"/>
-      <c r="TS69" s="63"/>
-      <c r="TT69" s="63"/>
-      <c r="TU69" s="63"/>
-      <c r="TV69" s="63"/>
-      <c r="TW69" s="63"/>
-      <c r="TX69" s="63"/>
-      <c r="TY69" s="63"/>
-      <c r="TZ69" s="63"/>
-      <c r="UA69" s="63"/>
-      <c r="UB69" s="63"/>
-      <c r="UC69" s="63"/>
-      <c r="UD69" s="63"/>
-      <c r="UE69" s="63"/>
-      <c r="UF69" s="63"/>
-      <c r="UG69" s="63"/>
-      <c r="UH69" s="63"/>
-      <c r="UI69" s="63"/>
-      <c r="UJ69" s="63"/>
-      <c r="UK69" s="63"/>
-      <c r="UL69" s="63"/>
-      <c r="UM69" s="63"/>
-      <c r="UN69" s="63"/>
-      <c r="UO69" s="63"/>
-      <c r="UP69" s="63"/>
-      <c r="UQ69" s="63"/>
-      <c r="UR69" s="63"/>
-      <c r="US69" s="63"/>
-      <c r="UT69" s="63"/>
-      <c r="UU69" s="63"/>
-      <c r="UV69" s="63"/>
-      <c r="UW69" s="63"/>
-      <c r="UX69" s="63"/>
-      <c r="UY69" s="63"/>
-      <c r="UZ69" s="63"/>
-      <c r="VA69" s="63"/>
-      <c r="VB69" s="63"/>
-      <c r="VC69" s="63"/>
-      <c r="VD69" s="63"/>
-      <c r="VE69" s="63"/>
-      <c r="VF69" s="63"/>
-      <c r="VG69" s="63"/>
-      <c r="VH69" s="63"/>
-      <c r="VI69" s="63"/>
-      <c r="VJ69" s="63"/>
-      <c r="VK69" s="63"/>
-      <c r="VL69" s="63"/>
-      <c r="VM69" s="63"/>
-      <c r="VN69" s="63"/>
-      <c r="VO69" s="63"/>
-      <c r="VP69" s="63"/>
-      <c r="VQ69" s="63"/>
-      <c r="VR69" s="63"/>
-      <c r="VS69" s="63"/>
-      <c r="VT69" s="63"/>
-      <c r="VU69" s="63"/>
-      <c r="VV69" s="63"/>
-      <c r="VW69" s="63"/>
-      <c r="VX69" s="63"/>
-      <c r="VY69" s="63"/>
-      <c r="VZ69" s="63"/>
-      <c r="WA69" s="63"/>
-      <c r="WB69" s="63"/>
-      <c r="WC69" s="63"/>
-      <c r="WD69" s="63"/>
-      <c r="WE69" s="63"/>
-      <c r="WF69" s="63"/>
-      <c r="WG69" s="63"/>
-      <c r="WH69" s="63"/>
-      <c r="WI69" s="63"/>
-      <c r="WJ69" s="63"/>
-      <c r="WK69" s="63"/>
-      <c r="WL69" s="63"/>
-      <c r="WM69" s="63"/>
-      <c r="WN69" s="63"/>
-      <c r="WO69" s="63"/>
-      <c r="WP69" s="63"/>
-      <c r="WQ69" s="63"/>
-      <c r="WR69" s="63"/>
-      <c r="WS69" s="63"/>
-      <c r="WT69" s="63"/>
-      <c r="WU69" s="63"/>
-      <c r="WV69" s="63"/>
-      <c r="WW69" s="63"/>
-      <c r="WX69" s="63"/>
-      <c r="WY69" s="63"/>
-      <c r="WZ69" s="63"/>
-      <c r="XA69" s="63"/>
-      <c r="XB69" s="63"/>
-      <c r="XC69" s="63"/>
-      <c r="XD69" s="63"/>
-      <c r="XE69" s="63"/>
-      <c r="XF69" s="63"/>
-      <c r="XG69" s="63"/>
-      <c r="XH69" s="63"/>
-      <c r="XI69" s="63"/>
-      <c r="XJ69" s="63"/>
-      <c r="XK69" s="63"/>
-      <c r="XL69" s="63"/>
-      <c r="XM69" s="63"/>
-      <c r="XN69" s="63"/>
-      <c r="XO69" s="63"/>
-      <c r="XP69" s="63"/>
-      <c r="XQ69" s="63"/>
-      <c r="XR69" s="63"/>
-      <c r="XS69" s="63"/>
-      <c r="XT69" s="63"/>
-      <c r="XU69" s="63"/>
-      <c r="XV69" s="63"/>
-      <c r="XW69" s="63"/>
-      <c r="XX69" s="63"/>
-      <c r="XY69" s="63"/>
-      <c r="XZ69" s="63"/>
-      <c r="YA69" s="63"/>
-      <c r="YB69" s="63"/>
-      <c r="YC69" s="63"/>
-      <c r="YD69" s="63"/>
-      <c r="YE69" s="63"/>
-      <c r="YF69" s="63"/>
-      <c r="YG69" s="63"/>
-      <c r="YH69" s="63"/>
-      <c r="YI69" s="63"/>
-      <c r="YJ69" s="63"/>
-      <c r="YK69" s="63"/>
-      <c r="YL69" s="63"/>
-      <c r="YM69" s="63"/>
-      <c r="YN69" s="63"/>
-      <c r="YO69" s="63"/>
-      <c r="YP69" s="63"/>
-      <c r="YQ69" s="63"/>
-      <c r="YR69" s="63"/>
-      <c r="YS69" s="63"/>
-      <c r="YT69" s="63"/>
-      <c r="YU69" s="63"/>
-      <c r="YV69" s="63"/>
-      <c r="YW69" s="63"/>
-      <c r="YX69" s="63"/>
-      <c r="YY69" s="63"/>
-      <c r="YZ69" s="63"/>
-      <c r="ZA69" s="63"/>
-      <c r="ZB69" s="63"/>
-      <c r="ZC69" s="63"/>
-      <c r="ZD69" s="63"/>
-      <c r="ZE69" s="63"/>
-      <c r="ZF69" s="63"/>
-      <c r="ZG69" s="63"/>
-      <c r="ZH69" s="63"/>
-      <c r="ZI69" s="63"/>
-      <c r="ZJ69" s="63"/>
-      <c r="ZK69" s="63"/>
-      <c r="ZL69" s="63"/>
-      <c r="ZM69" s="63"/>
-      <c r="ZN69" s="63"/>
-      <c r="ZO69" s="63"/>
-      <c r="ZP69" s="63"/>
-      <c r="ZQ69" s="63"/>
-      <c r="ZR69" s="63"/>
-      <c r="ZS69" s="63"/>
-      <c r="ZT69" s="63"/>
-      <c r="ZU69" s="63"/>
-      <c r="ZV69" s="63"/>
-      <c r="ZW69" s="63"/>
-      <c r="ZX69" s="63"/>
-      <c r="ZY69" s="63"/>
-      <c r="ZZ69" s="63"/>
-      <c r="AAA69" s="63"/>
-      <c r="AAB69" s="63"/>
-      <c r="AAC69" s="63"/>
-      <c r="AAD69" s="63"/>
-      <c r="AAE69" s="63"/>
-      <c r="AAF69" s="63"/>
-      <c r="AAG69" s="63"/>
-      <c r="AAH69" s="63"/>
-      <c r="AAI69" s="63"/>
-      <c r="AAJ69" s="63"/>
-      <c r="AAK69" s="63"/>
-      <c r="AAL69" s="63"/>
-      <c r="AAM69" s="63"/>
-      <c r="AAN69" s="63"/>
-      <c r="AAO69" s="63"/>
-      <c r="AAP69" s="63"/>
-      <c r="AAQ69" s="63"/>
-      <c r="AAR69" s="63"/>
-      <c r="AAS69" s="63"/>
-      <c r="AAT69" s="63"/>
-      <c r="AAU69" s="63"/>
-      <c r="AAV69" s="63"/>
-      <c r="AAW69" s="63"/>
-      <c r="AAX69" s="63"/>
-      <c r="AAY69" s="63"/>
-      <c r="AAZ69" s="63"/>
-      <c r="ABA69" s="63"/>
-      <c r="ABB69" s="63"/>
-      <c r="ABC69" s="63"/>
-      <c r="ABD69" s="63"/>
-      <c r="ABE69" s="63"/>
-      <c r="ABF69" s="63"/>
-      <c r="ABG69" s="63"/>
-      <c r="ABH69" s="63"/>
-      <c r="ABI69" s="63"/>
-      <c r="ABJ69" s="63"/>
-      <c r="ABK69" s="63"/>
-      <c r="ABL69" s="63"/>
-      <c r="ABM69" s="63"/>
-      <c r="ABN69" s="63"/>
-      <c r="ABO69" s="63"/>
-      <c r="ABP69" s="63"/>
-      <c r="ABQ69" s="63"/>
-      <c r="ABR69" s="63"/>
-      <c r="ABS69" s="63"/>
-      <c r="ABT69" s="63"/>
-      <c r="ABU69" s="63"/>
-      <c r="ABV69" s="63"/>
-      <c r="ABW69" s="63"/>
-      <c r="ABX69" s="63"/>
-      <c r="ABY69" s="63"/>
-      <c r="ABZ69" s="63"/>
-      <c r="ACA69" s="63"/>
-      <c r="ACB69" s="63"/>
-      <c r="ACC69" s="63"/>
-      <c r="ACD69" s="63"/>
-      <c r="ACE69" s="63"/>
-      <c r="ACF69" s="63"/>
-      <c r="ACG69" s="63"/>
-      <c r="ACH69" s="63"/>
-      <c r="ACI69" s="63"/>
-      <c r="ACJ69" s="63"/>
-      <c r="ACK69" s="63"/>
-      <c r="ACL69" s="63"/>
-      <c r="ACM69" s="63"/>
-      <c r="ACN69" s="63"/>
-      <c r="ACO69" s="63"/>
-      <c r="ACP69" s="63"/>
-      <c r="ACQ69" s="63"/>
-      <c r="ACR69" s="63"/>
-      <c r="ACS69" s="63"/>
-      <c r="ACT69" s="63"/>
-      <c r="ACU69" s="63"/>
-      <c r="ACV69" s="63"/>
-      <c r="ACW69" s="63"/>
-      <c r="ACX69" s="63"/>
-      <c r="ACY69" s="63"/>
-      <c r="ACZ69" s="63"/>
-      <c r="ADA69" s="63"/>
-      <c r="ADB69" s="63"/>
-      <c r="ADC69" s="63"/>
-      <c r="ADD69" s="63"/>
-      <c r="ADE69" s="63"/>
-      <c r="ADF69" s="63"/>
-      <c r="ADG69" s="63"/>
-      <c r="ADH69" s="63"/>
-      <c r="ADI69" s="63"/>
-      <c r="ADJ69" s="63"/>
-      <c r="ADK69" s="63"/>
-      <c r="ADL69" s="63"/>
-      <c r="ADM69" s="63"/>
-      <c r="ADN69" s="63"/>
-      <c r="ADO69" s="63"/>
-      <c r="ADP69" s="63"/>
-      <c r="ADQ69" s="63"/>
-      <c r="ADR69" s="63"/>
-      <c r="ADS69" s="63"/>
-      <c r="ADT69" s="63"/>
-      <c r="ADU69" s="63"/>
-      <c r="ADV69" s="63"/>
-      <c r="ADW69" s="63"/>
-      <c r="ADX69" s="63"/>
-      <c r="ADY69" s="63"/>
-      <c r="ADZ69" s="63"/>
-      <c r="AEA69" s="63"/>
-      <c r="AEB69" s="63"/>
-      <c r="AEC69" s="63"/>
-      <c r="AED69" s="63"/>
-      <c r="AEE69" s="63"/>
-      <c r="AEF69" s="63"/>
-      <c r="AEG69" s="63"/>
-      <c r="AEH69" s="63"/>
-      <c r="AEI69" s="63"/>
-      <c r="AEJ69" s="63"/>
-      <c r="AEK69" s="63"/>
-      <c r="AEL69" s="63"/>
-      <c r="AEM69" s="63"/>
-      <c r="AEN69" s="63"/>
-      <c r="AEO69" s="63"/>
-      <c r="AEP69" s="63"/>
-      <c r="AEQ69" s="63"/>
-      <c r="AER69" s="63"/>
-      <c r="AES69" s="63"/>
-      <c r="AET69" s="63"/>
-      <c r="AEU69" s="63"/>
-      <c r="AEV69" s="63"/>
-      <c r="AEW69" s="63"/>
-      <c r="AEX69" s="63"/>
-      <c r="AEY69" s="63"/>
-      <c r="AEZ69" s="63"/>
-      <c r="AFA69" s="63"/>
-      <c r="AFB69" s="63"/>
-      <c r="AFC69" s="63"/>
-      <c r="AFD69" s="63"/>
-      <c r="AFE69" s="63"/>
-      <c r="AFF69" s="63"/>
-      <c r="AFG69" s="63"/>
-      <c r="AFH69" s="63"/>
-      <c r="AFI69" s="63"/>
-      <c r="AFJ69" s="63"/>
-      <c r="AFK69" s="63"/>
-      <c r="AFL69" s="63"/>
-      <c r="AFM69" s="63"/>
-      <c r="AFN69" s="63"/>
-      <c r="AFO69" s="63"/>
-      <c r="AFP69" s="63"/>
-      <c r="AFQ69" s="63"/>
-      <c r="AFR69" s="63"/>
-      <c r="AFS69" s="63"/>
-      <c r="AFT69" s="63"/>
-      <c r="AFU69" s="63"/>
-      <c r="AFV69" s="63"/>
-      <c r="AFW69" s="63"/>
-      <c r="AFX69" s="63"/>
-      <c r="AFY69" s="63"/>
-      <c r="AFZ69" s="63"/>
-      <c r="AGA69" s="63"/>
-      <c r="AGB69" s="63"/>
-      <c r="AGC69" s="63"/>
-      <c r="AGD69" s="63"/>
-      <c r="AGE69" s="63"/>
-      <c r="AGF69" s="63"/>
-      <c r="AGG69" s="63"/>
-      <c r="AGH69" s="63"/>
-      <c r="AGI69" s="63"/>
-      <c r="AGJ69" s="63"/>
-      <c r="AGK69" s="63"/>
-      <c r="AGL69" s="63"/>
-      <c r="AGM69" s="63"/>
-      <c r="AGN69" s="63"/>
-      <c r="AGO69" s="63"/>
-      <c r="AGP69" s="63"/>
-      <c r="AGQ69" s="63"/>
-      <c r="AGR69" s="63"/>
-      <c r="AGS69" s="63"/>
-      <c r="AGT69" s="63"/>
-      <c r="AGU69" s="63"/>
-      <c r="AGV69" s="63"/>
-      <c r="AGW69" s="63"/>
-      <c r="AGX69" s="63"/>
-      <c r="AGY69" s="63"/>
-      <c r="AGZ69" s="63"/>
-      <c r="AHA69" s="63"/>
-      <c r="AHB69" s="63"/>
-      <c r="AHC69" s="63"/>
-      <c r="AHD69" s="63"/>
-      <c r="AHE69" s="63"/>
-      <c r="AHF69" s="63"/>
-      <c r="AHG69" s="63"/>
-      <c r="AHH69" s="63"/>
-      <c r="AHI69" s="63"/>
-      <c r="AHJ69" s="63"/>
-      <c r="AHK69" s="63"/>
-      <c r="AHL69" s="63"/>
-      <c r="AHM69" s="63"/>
-      <c r="AHN69" s="63"/>
-      <c r="AHO69" s="63"/>
-      <c r="AHP69" s="63"/>
-      <c r="AHQ69" s="63"/>
-      <c r="AHR69" s="63"/>
-      <c r="AHS69" s="63"/>
-      <c r="AHT69" s="63"/>
-      <c r="AHU69" s="63"/>
-      <c r="AHV69" s="63"/>
-      <c r="AHW69" s="63"/>
-      <c r="AHX69" s="63"/>
-      <c r="AHY69" s="63"/>
-      <c r="AHZ69" s="63"/>
-      <c r="AIA69" s="63"/>
-      <c r="AIB69" s="63"/>
-      <c r="AIC69" s="63"/>
-      <c r="AID69" s="63"/>
-      <c r="AIE69" s="63"/>
-      <c r="AIF69" s="63"/>
-      <c r="AIG69" s="63"/>
-      <c r="AIH69" s="63"/>
-      <c r="AII69" s="63"/>
-      <c r="AIJ69" s="63"/>
-      <c r="AIK69" s="63"/>
-      <c r="AIL69" s="63"/>
-      <c r="AIM69" s="63"/>
-      <c r="AIN69" s="63"/>
-      <c r="AIO69" s="63"/>
-      <c r="AIP69" s="63"/>
-      <c r="AIQ69" s="63"/>
-      <c r="AIR69" s="63"/>
-      <c r="AIS69" s="63"/>
-      <c r="AIT69" s="63"/>
-      <c r="AIU69" s="63"/>
-      <c r="AIV69" s="63"/>
-      <c r="AIW69" s="63"/>
-      <c r="AIX69" s="63"/>
-      <c r="AIY69" s="63"/>
-      <c r="AIZ69" s="63"/>
-      <c r="AJA69" s="63"/>
-      <c r="AJB69" s="63"/>
-      <c r="AJC69" s="63"/>
-      <c r="AJD69" s="63"/>
-      <c r="AJE69" s="63"/>
-      <c r="AJF69" s="63"/>
-      <c r="AJG69" s="63"/>
-      <c r="AJH69" s="63"/>
-      <c r="AJI69" s="63"/>
-      <c r="AJJ69" s="63"/>
-      <c r="AJK69" s="63"/>
-      <c r="AJL69" s="63"/>
-      <c r="AJM69" s="63"/>
-      <c r="AJN69" s="63"/>
-      <c r="AJO69" s="63"/>
-      <c r="AJP69" s="63"/>
-      <c r="AJQ69" s="63"/>
-      <c r="AJR69" s="63"/>
-      <c r="AJS69" s="63"/>
-      <c r="AJT69" s="63"/>
-      <c r="AJU69" s="63"/>
-      <c r="AJV69" s="63"/>
-      <c r="AJW69" s="63"/>
-      <c r="AJX69" s="63"/>
-      <c r="AJY69" s="63"/>
-      <c r="AJZ69" s="63"/>
-      <c r="AKA69" s="63"/>
-      <c r="AKB69" s="63"/>
-      <c r="AKC69" s="63"/>
-      <c r="AKD69" s="63"/>
-      <c r="AKE69" s="63"/>
-      <c r="AKF69" s="63"/>
-      <c r="AKG69" s="63"/>
-      <c r="AKH69" s="63"/>
-      <c r="AKI69" s="63"/>
-      <c r="AKJ69" s="63"/>
-      <c r="AKK69" s="63"/>
-      <c r="AKL69" s="63"/>
-      <c r="AKM69" s="63"/>
-      <c r="AKN69" s="63"/>
-      <c r="AKO69" s="63"/>
-      <c r="AKP69" s="63"/>
-      <c r="AKQ69" s="63"/>
-      <c r="AKR69" s="63"/>
-      <c r="AKS69" s="63"/>
-      <c r="AKT69" s="63"/>
-      <c r="AKU69" s="63"/>
-      <c r="AKV69" s="63"/>
-      <c r="AKW69" s="63"/>
-      <c r="AKX69" s="63"/>
-      <c r="AKY69" s="63"/>
-      <c r="AKZ69" s="63"/>
-      <c r="ALA69" s="63"/>
-      <c r="ALB69" s="63"/>
-      <c r="ALC69" s="63"/>
-      <c r="ALD69" s="63"/>
-      <c r="ALE69" s="63"/>
-      <c r="ALF69" s="63"/>
-      <c r="ALG69" s="63"/>
-      <c r="ALH69" s="63"/>
-      <c r="ALI69" s="63"/>
-      <c r="ALJ69" s="63"/>
-      <c r="ALK69" s="63"/>
-      <c r="ALL69" s="63"/>
-      <c r="ALM69" s="63"/>
-      <c r="ALN69" s="63"/>
-      <c r="ALO69" s="63"/>
-      <c r="ALP69" s="63"/>
-      <c r="ALQ69" s="63"/>
-      <c r="ALR69" s="63"/>
-      <c r="ALS69" s="63"/>
-      <c r="ALT69" s="63"/>
-      <c r="ALU69" s="63"/>
-      <c r="ALV69" s="63"/>
-      <c r="ALW69" s="63"/>
-      <c r="ALX69" s="63"/>
-      <c r="ALY69" s="63"/>
-      <c r="ALZ69" s="63"/>
-      <c r="AMA69" s="63"/>
-      <c r="AMB69" s="63"/>
-      <c r="AMC69" s="63"/>
-      <c r="AMD69" s="63"/>
-      <c r="AME69" s="63"/>
-      <c r="AMF69" s="63"/>
-      <c r="AMG69" s="63"/>
-      <c r="AMH69" s="63"/>
-      <c r="AMI69" s="63"/>
-      <c r="AMJ69" s="63"/>
-      <c r="AMK69" s="63"/>
-      <c r="AML69" s="63"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="62"/>
+      <c r="L69" s="62"/>
+      <c r="M69" s="62"/>
+      <c r="N69" s="62"/>
+      <c r="O69" s="62"/>
+      <c r="P69" s="62"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="62"/>
+      <c r="S69" s="62"/>
+      <c r="T69" s="62"/>
+      <c r="U69" s="62"/>
+      <c r="V69" s="68"/>
+      <c r="W69" s="68"/>
+      <c r="X69" s="62"/>
+      <c r="Y69" s="62"/>
+      <c r="Z69" s="62"/>
+      <c r="AA69" s="62"/>
+      <c r="AB69" s="62"/>
+      <c r="AC69" s="62"/>
+      <c r="AD69" s="62"/>
+      <c r="AE69" s="62"/>
+      <c r="AF69" s="62"/>
+      <c r="AG69" s="62"/>
+      <c r="AH69" s="62"/>
+      <c r="AI69" s="62"/>
+      <c r="AJ69" s="62"/>
+      <c r="AK69" s="62"/>
+      <c r="AL69" s="62"/>
+      <c r="AM69" s="62"/>
+      <c r="AN69" s="62"/>
+      <c r="AO69" s="62"/>
+      <c r="AP69" s="62"/>
+      <c r="AQ69" s="62"/>
+      <c r="AR69" s="62"/>
+      <c r="AS69" s="62"/>
+      <c r="AT69" s="62"/>
+      <c r="AU69" s="62"/>
+      <c r="AV69" s="62"/>
+      <c r="AW69" s="62"/>
+      <c r="AX69" s="62"/>
+      <c r="AY69" s="62"/>
+      <c r="AZ69" s="62"/>
+      <c r="BA69" s="62"/>
+      <c r="BB69" s="62"/>
+      <c r="BC69" s="62"/>
+      <c r="BD69" s="62"/>
+      <c r="BE69" s="62"/>
+      <c r="BF69" s="62"/>
+      <c r="BG69" s="62"/>
+      <c r="BH69" s="62"/>
+      <c r="BI69" s="62"/>
+      <c r="BJ69" s="62"/>
+      <c r="BK69" s="62"/>
+      <c r="BL69" s="62"/>
+      <c r="BM69" s="62"/>
+      <c r="BN69" s="62"/>
+      <c r="BO69" s="62"/>
+      <c r="BP69" s="62"/>
+      <c r="BQ69" s="62"/>
+      <c r="BR69" s="62"/>
+      <c r="BS69" s="62"/>
+      <c r="BT69" s="62"/>
+      <c r="BU69" s="62"/>
+      <c r="BV69" s="62"/>
+      <c r="BW69" s="62"/>
+      <c r="BX69" s="62"/>
+      <c r="BY69" s="62"/>
+      <c r="BZ69" s="62"/>
+      <c r="CA69" s="62"/>
+      <c r="CB69" s="62"/>
+      <c r="CC69" s="62"/>
+      <c r="CD69" s="62"/>
+      <c r="CE69" s="62"/>
+      <c r="CF69" s="62"/>
+      <c r="CG69" s="62"/>
+      <c r="CH69" s="62"/>
+      <c r="CI69" s="62"/>
+      <c r="CJ69" s="62"/>
+      <c r="CK69" s="62"/>
+      <c r="CL69" s="62"/>
+      <c r="CM69" s="62"/>
+      <c r="CN69" s="62"/>
+      <c r="CO69" s="62"/>
+      <c r="CP69" s="62"/>
+      <c r="CQ69" s="62"/>
+      <c r="CR69" s="62"/>
+      <c r="CS69" s="62"/>
+      <c r="CT69" s="62"/>
+      <c r="CU69" s="62"/>
+      <c r="CV69" s="62"/>
+      <c r="CW69" s="62"/>
+      <c r="CX69" s="62"/>
+      <c r="CY69" s="62"/>
+      <c r="CZ69" s="62"/>
+      <c r="DA69" s="62"/>
+      <c r="DB69" s="62"/>
+      <c r="DC69" s="62"/>
+      <c r="DD69" s="62"/>
+      <c r="DE69" s="62"/>
+      <c r="DF69" s="62"/>
+      <c r="DG69" s="62"/>
+      <c r="DH69" s="62"/>
+      <c r="DI69" s="62"/>
+      <c r="DJ69" s="62"/>
+      <c r="DK69" s="62"/>
+      <c r="DL69" s="62"/>
+      <c r="DM69" s="62"/>
+      <c r="DN69" s="62"/>
+      <c r="DO69" s="62"/>
+      <c r="DP69" s="62"/>
+      <c r="DQ69" s="62"/>
+      <c r="DR69" s="62"/>
+      <c r="DS69" s="62"/>
+      <c r="DT69" s="62"/>
+      <c r="DU69" s="62"/>
+      <c r="DV69" s="62"/>
+      <c r="DW69" s="62"/>
+      <c r="DX69" s="62"/>
+      <c r="DY69" s="62"/>
+      <c r="DZ69" s="62"/>
+      <c r="EA69" s="62"/>
+      <c r="EB69" s="62"/>
+      <c r="EC69" s="62"/>
+      <c r="ED69" s="62"/>
+      <c r="EE69" s="62"/>
+      <c r="EF69" s="62"/>
+      <c r="EG69" s="62"/>
+      <c r="EH69" s="62"/>
+      <c r="EI69" s="62"/>
+      <c r="EJ69" s="62"/>
+      <c r="EK69" s="62"/>
+      <c r="EL69" s="62"/>
+      <c r="EM69" s="62"/>
+      <c r="EN69" s="62"/>
+      <c r="EO69" s="62"/>
+      <c r="EP69" s="62"/>
+      <c r="EQ69" s="62"/>
+      <c r="ER69" s="62"/>
+      <c r="ES69" s="62"/>
+      <c r="ET69" s="62"/>
+      <c r="EU69" s="62"/>
+      <c r="EV69" s="62"/>
+      <c r="EW69" s="62"/>
+      <c r="EX69" s="62"/>
+      <c r="EY69" s="62"/>
+      <c r="EZ69" s="62"/>
+      <c r="FA69" s="62"/>
+      <c r="FB69" s="62"/>
+      <c r="FC69" s="62"/>
+      <c r="FD69" s="62"/>
+      <c r="FE69" s="62"/>
+      <c r="FF69" s="62"/>
+      <c r="FG69" s="62"/>
+      <c r="FH69" s="62"/>
+      <c r="FI69" s="62"/>
+      <c r="FJ69" s="62"/>
+      <c r="FK69" s="62"/>
+      <c r="FL69" s="62"/>
+      <c r="FM69" s="62"/>
+      <c r="FN69" s="62"/>
+      <c r="FO69" s="62"/>
+      <c r="FP69" s="62"/>
+      <c r="FQ69" s="62"/>
+      <c r="FR69" s="62"/>
+      <c r="FS69" s="62"/>
+      <c r="FT69" s="62"/>
+      <c r="FU69" s="62"/>
+      <c r="FV69" s="62"/>
+      <c r="FW69" s="62"/>
+      <c r="FX69" s="62"/>
+      <c r="FY69" s="62"/>
+      <c r="FZ69" s="62"/>
+      <c r="GA69" s="62"/>
+      <c r="GB69" s="62"/>
+      <c r="GC69" s="62"/>
+      <c r="GD69" s="62"/>
+      <c r="GE69" s="62"/>
+      <c r="GF69" s="62"/>
+      <c r="GG69" s="62"/>
+      <c r="GH69" s="62"/>
+      <c r="GI69" s="62"/>
+      <c r="GJ69" s="62"/>
+      <c r="GK69" s="62"/>
+      <c r="GL69" s="62"/>
+      <c r="GM69" s="62"/>
+      <c r="GN69" s="62"/>
+      <c r="GO69" s="62"/>
+      <c r="GP69" s="62"/>
+      <c r="GQ69" s="62"/>
+      <c r="GR69" s="62"/>
+      <c r="GS69" s="62"/>
+      <c r="GT69" s="62"/>
+      <c r="GU69" s="62"/>
+      <c r="GV69" s="62"/>
+      <c r="GW69" s="62"/>
+      <c r="GX69" s="62"/>
+      <c r="GY69" s="62"/>
+      <c r="GZ69" s="62"/>
+      <c r="HA69" s="62"/>
+      <c r="HB69" s="62"/>
+      <c r="HC69" s="62"/>
+      <c r="HD69" s="62"/>
+      <c r="HE69" s="62"/>
+      <c r="HF69" s="62"/>
+      <c r="HG69" s="62"/>
+      <c r="HH69" s="62"/>
+      <c r="HI69" s="62"/>
+      <c r="HJ69" s="62"/>
+      <c r="HK69" s="62"/>
+      <c r="HL69" s="62"/>
+      <c r="HM69" s="62"/>
+      <c r="HN69" s="62"/>
+      <c r="HO69" s="62"/>
+      <c r="HP69" s="62"/>
+      <c r="HQ69" s="62"/>
+      <c r="HR69" s="62"/>
+      <c r="HS69" s="62"/>
+      <c r="HT69" s="62"/>
+      <c r="HU69" s="62"/>
+      <c r="HV69" s="62"/>
+      <c r="HW69" s="62"/>
+      <c r="HX69" s="62"/>
+      <c r="HY69" s="62"/>
+      <c r="HZ69" s="62"/>
+      <c r="IA69" s="62"/>
+      <c r="IB69" s="62"/>
+      <c r="IC69" s="62"/>
+      <c r="ID69" s="62"/>
+      <c r="IE69" s="62"/>
+      <c r="IF69" s="62"/>
+      <c r="IG69" s="62"/>
+      <c r="IH69" s="62"/>
+      <c r="II69" s="62"/>
+      <c r="IJ69" s="62"/>
+      <c r="IK69" s="62"/>
+      <c r="IL69" s="62"/>
+      <c r="IM69" s="62"/>
+      <c r="IN69" s="62"/>
+      <c r="IO69" s="62"/>
+      <c r="IP69" s="62"/>
+      <c r="IQ69" s="62"/>
+      <c r="IR69" s="62"/>
+      <c r="IS69" s="62"/>
+      <c r="IT69" s="62"/>
+      <c r="IU69" s="62"/>
+      <c r="IV69" s="62"/>
+      <c r="IW69" s="62"/>
+      <c r="IX69" s="62"/>
+      <c r="IY69" s="62"/>
+      <c r="IZ69" s="62"/>
+      <c r="JA69" s="62"/>
+      <c r="JB69" s="62"/>
+      <c r="JC69" s="62"/>
+      <c r="JD69" s="62"/>
+      <c r="JE69" s="62"/>
+      <c r="JF69" s="62"/>
+      <c r="JG69" s="62"/>
+      <c r="JH69" s="62"/>
+      <c r="JI69" s="62"/>
+      <c r="JJ69" s="62"/>
+      <c r="JK69" s="62"/>
+      <c r="JL69" s="62"/>
+      <c r="JM69" s="62"/>
+      <c r="JN69" s="62"/>
+      <c r="JO69" s="62"/>
+      <c r="JP69" s="62"/>
+      <c r="JQ69" s="62"/>
+      <c r="JR69" s="62"/>
+      <c r="JS69" s="62"/>
+      <c r="JT69" s="62"/>
+      <c r="JU69" s="62"/>
+      <c r="JV69" s="62"/>
+      <c r="JW69" s="62"/>
+      <c r="JX69" s="62"/>
+      <c r="JY69" s="62"/>
+      <c r="JZ69" s="62"/>
+      <c r="KA69" s="62"/>
+      <c r="KB69" s="62"/>
+      <c r="KC69" s="62"/>
+      <c r="KD69" s="62"/>
+      <c r="KE69" s="62"/>
+      <c r="KF69" s="62"/>
+      <c r="KG69" s="62"/>
+      <c r="KH69" s="62"/>
+      <c r="KI69" s="62"/>
+      <c r="KJ69" s="62"/>
+      <c r="KK69" s="62"/>
+      <c r="KL69" s="62"/>
+      <c r="KM69" s="62"/>
+      <c r="KN69" s="62"/>
+      <c r="KO69" s="62"/>
+      <c r="KP69" s="62"/>
+      <c r="KQ69" s="62"/>
+      <c r="KR69" s="62"/>
+      <c r="KS69" s="62"/>
+      <c r="KT69" s="62"/>
+      <c r="KU69" s="62"/>
+      <c r="KV69" s="62"/>
+      <c r="KW69" s="62"/>
+      <c r="KX69" s="62"/>
+      <c r="KY69" s="62"/>
+      <c r="KZ69" s="62"/>
+      <c r="LA69" s="62"/>
+      <c r="LB69" s="62"/>
+      <c r="LC69" s="62"/>
+      <c r="LD69" s="62"/>
+      <c r="LE69" s="62"/>
+      <c r="LF69" s="62"/>
+      <c r="LG69" s="62"/>
+      <c r="LH69" s="62"/>
+      <c r="LI69" s="62"/>
+      <c r="LJ69" s="62"/>
+      <c r="LK69" s="62"/>
+      <c r="LL69" s="62"/>
+      <c r="LM69" s="62"/>
+      <c r="LN69" s="62"/>
+      <c r="LO69" s="62"/>
+      <c r="LP69" s="62"/>
+      <c r="LQ69" s="62"/>
+      <c r="LR69" s="62"/>
+      <c r="LS69" s="62"/>
+      <c r="LT69" s="62"/>
+      <c r="LU69" s="62"/>
+      <c r="LV69" s="62"/>
+      <c r="LW69" s="62"/>
+      <c r="LX69" s="62"/>
+      <c r="LY69" s="62"/>
+      <c r="LZ69" s="62"/>
+      <c r="MA69" s="62"/>
+      <c r="MB69" s="62"/>
+      <c r="MC69" s="62"/>
+      <c r="MD69" s="62"/>
+      <c r="ME69" s="62"/>
+      <c r="MF69" s="62"/>
+      <c r="MG69" s="62"/>
+      <c r="MH69" s="62"/>
+      <c r="MI69" s="62"/>
+      <c r="MJ69" s="62"/>
+      <c r="MK69" s="62"/>
+      <c r="ML69" s="62"/>
+      <c r="MM69" s="62"/>
+      <c r="MN69" s="62"/>
+      <c r="MO69" s="62"/>
+      <c r="MP69" s="62"/>
+      <c r="MQ69" s="62"/>
+      <c r="MR69" s="62"/>
+      <c r="MS69" s="62"/>
+      <c r="MT69" s="62"/>
+      <c r="MU69" s="62"/>
+      <c r="MV69" s="62"/>
+      <c r="MW69" s="62"/>
+      <c r="MX69" s="62"/>
+      <c r="MY69" s="62"/>
+      <c r="MZ69" s="62"/>
+      <c r="NA69" s="62"/>
+      <c r="NB69" s="62"/>
+      <c r="NC69" s="62"/>
+      <c r="ND69" s="62"/>
+      <c r="NE69" s="62"/>
+      <c r="NF69" s="62"/>
+      <c r="NG69" s="62"/>
+      <c r="NH69" s="62"/>
+      <c r="NI69" s="62"/>
+      <c r="NJ69" s="62"/>
+      <c r="NK69" s="62"/>
+      <c r="NL69" s="62"/>
+      <c r="NM69" s="62"/>
+      <c r="NN69" s="62"/>
+      <c r="NO69" s="62"/>
+      <c r="NP69" s="62"/>
+      <c r="NQ69" s="62"/>
+      <c r="NR69" s="62"/>
+      <c r="NS69" s="62"/>
+      <c r="NT69" s="62"/>
+      <c r="NU69" s="62"/>
+      <c r="NV69" s="62"/>
+      <c r="NW69" s="62"/>
+      <c r="NX69" s="62"/>
+      <c r="NY69" s="62"/>
+      <c r="NZ69" s="62"/>
+      <c r="OA69" s="62"/>
+      <c r="OB69" s="62"/>
+      <c r="OC69" s="62"/>
+      <c r="OD69" s="62"/>
+      <c r="OE69" s="62"/>
+      <c r="OF69" s="62"/>
+      <c r="OG69" s="62"/>
+      <c r="OH69" s="62"/>
+      <c r="OI69" s="62"/>
+      <c r="OJ69" s="62"/>
+      <c r="OK69" s="62"/>
+      <c r="OL69" s="62"/>
+      <c r="OM69" s="62"/>
+      <c r="ON69" s="62"/>
+      <c r="OO69" s="62"/>
+      <c r="OP69" s="62"/>
+      <c r="OQ69" s="62"/>
+      <c r="OR69" s="62"/>
+      <c r="OS69" s="62"/>
+      <c r="OT69" s="62"/>
+      <c r="OU69" s="62"/>
+      <c r="OV69" s="62"/>
+      <c r="OW69" s="62"/>
+      <c r="OX69" s="62"/>
+      <c r="OY69" s="62"/>
+      <c r="OZ69" s="62"/>
+      <c r="PA69" s="62"/>
+      <c r="PB69" s="62"/>
+      <c r="PC69" s="62"/>
+      <c r="PD69" s="62"/>
+      <c r="PE69" s="62"/>
+      <c r="PF69" s="62"/>
+      <c r="PG69" s="62"/>
+      <c r="PH69" s="62"/>
+      <c r="PI69" s="62"/>
+      <c r="PJ69" s="62"/>
+      <c r="PK69" s="62"/>
+      <c r="PL69" s="62"/>
+      <c r="PM69" s="62"/>
+      <c r="PN69" s="62"/>
+      <c r="PO69" s="62"/>
+      <c r="PP69" s="62"/>
+      <c r="PQ69" s="62"/>
+      <c r="PR69" s="62"/>
+      <c r="PS69" s="62"/>
+      <c r="PT69" s="62"/>
+      <c r="PU69" s="62"/>
+      <c r="PV69" s="62"/>
+      <c r="PW69" s="62"/>
+      <c r="PX69" s="62"/>
+      <c r="PY69" s="62"/>
+      <c r="PZ69" s="62"/>
+      <c r="QA69" s="62"/>
+      <c r="QB69" s="62"/>
+      <c r="QC69" s="62"/>
+      <c r="QD69" s="62"/>
+      <c r="QE69" s="62"/>
+      <c r="QF69" s="62"/>
+      <c r="QG69" s="62"/>
+      <c r="QH69" s="62"/>
+      <c r="QI69" s="62"/>
+      <c r="QJ69" s="62"/>
+      <c r="QK69" s="62"/>
+      <c r="QL69" s="62"/>
+      <c r="QM69" s="62"/>
+      <c r="QN69" s="62"/>
+      <c r="QO69" s="62"/>
+      <c r="QP69" s="62"/>
+      <c r="QQ69" s="62"/>
+      <c r="QR69" s="62"/>
+      <c r="QS69" s="62"/>
+      <c r="QT69" s="62"/>
+      <c r="QU69" s="62"/>
+      <c r="QV69" s="62"/>
+      <c r="QW69" s="62"/>
+      <c r="QX69" s="62"/>
+      <c r="QY69" s="62"/>
+      <c r="QZ69" s="62"/>
+      <c r="RA69" s="62"/>
+      <c r="RB69" s="62"/>
+      <c r="RC69" s="62"/>
+      <c r="RD69" s="62"/>
+      <c r="RE69" s="62"/>
+      <c r="RF69" s="62"/>
+      <c r="RG69" s="62"/>
+      <c r="RH69" s="62"/>
+      <c r="RI69" s="62"/>
+      <c r="RJ69" s="62"/>
+      <c r="RK69" s="62"/>
+      <c r="RL69" s="62"/>
+      <c r="RM69" s="62"/>
+      <c r="RN69" s="62"/>
+      <c r="RO69" s="62"/>
+      <c r="RP69" s="62"/>
+      <c r="RQ69" s="62"/>
+      <c r="RR69" s="62"/>
+      <c r="RS69" s="62"/>
+      <c r="RT69" s="62"/>
+      <c r="RU69" s="62"/>
+      <c r="RV69" s="62"/>
+      <c r="RW69" s="62"/>
+      <c r="RX69" s="62"/>
+      <c r="RY69" s="62"/>
+      <c r="RZ69" s="62"/>
+      <c r="SA69" s="62"/>
+      <c r="SB69" s="62"/>
+      <c r="SC69" s="62"/>
+      <c r="SD69" s="62"/>
+      <c r="SE69" s="62"/>
+      <c r="SF69" s="62"/>
+      <c r="SG69" s="62"/>
+      <c r="SH69" s="62"/>
+      <c r="SI69" s="62"/>
+      <c r="SJ69" s="62"/>
+      <c r="SK69" s="62"/>
+      <c r="SL69" s="62"/>
+      <c r="SM69" s="62"/>
+      <c r="SN69" s="62"/>
+      <c r="SO69" s="62"/>
+      <c r="SP69" s="62"/>
+      <c r="SQ69" s="62"/>
+      <c r="SR69" s="62"/>
+      <c r="SS69" s="62"/>
+      <c r="ST69" s="62"/>
+      <c r="SU69" s="62"/>
+      <c r="SV69" s="62"/>
+      <c r="SW69" s="62"/>
+      <c r="SX69" s="62"/>
+      <c r="SY69" s="62"/>
+      <c r="SZ69" s="62"/>
+      <c r="TA69" s="62"/>
+      <c r="TB69" s="62"/>
+      <c r="TC69" s="62"/>
+      <c r="TD69" s="62"/>
+      <c r="TE69" s="62"/>
+      <c r="TF69" s="62"/>
+      <c r="TG69" s="62"/>
+      <c r="TH69" s="62"/>
+      <c r="TI69" s="62"/>
+      <c r="TJ69" s="62"/>
+      <c r="TK69" s="62"/>
+      <c r="TL69" s="62"/>
+      <c r="TM69" s="62"/>
+      <c r="TN69" s="62"/>
+      <c r="TO69" s="62"/>
+      <c r="TP69" s="62"/>
+      <c r="TQ69" s="62"/>
+      <c r="TR69" s="62"/>
+      <c r="TS69" s="62"/>
+      <c r="TT69" s="62"/>
+      <c r="TU69" s="62"/>
+      <c r="TV69" s="62"/>
+      <c r="TW69" s="62"/>
+      <c r="TX69" s="62"/>
+      <c r="TY69" s="62"/>
+      <c r="TZ69" s="62"/>
+      <c r="UA69" s="62"/>
+      <c r="UB69" s="62"/>
+      <c r="UC69" s="62"/>
+      <c r="UD69" s="62"/>
+      <c r="UE69" s="62"/>
+      <c r="UF69" s="62"/>
+      <c r="UG69" s="62"/>
+      <c r="UH69" s="62"/>
+      <c r="UI69" s="62"/>
+      <c r="UJ69" s="62"/>
+      <c r="UK69" s="62"/>
+      <c r="UL69" s="62"/>
+      <c r="UM69" s="62"/>
+      <c r="UN69" s="62"/>
+      <c r="UO69" s="62"/>
+      <c r="UP69" s="62"/>
+      <c r="UQ69" s="62"/>
+      <c r="UR69" s="62"/>
+      <c r="US69" s="62"/>
+      <c r="UT69" s="62"/>
+      <c r="UU69" s="62"/>
+      <c r="UV69" s="62"/>
+      <c r="UW69" s="62"/>
+      <c r="UX69" s="62"/>
+      <c r="UY69" s="62"/>
+      <c r="UZ69" s="62"/>
+      <c r="VA69" s="62"/>
+      <c r="VB69" s="62"/>
+      <c r="VC69" s="62"/>
+      <c r="VD69" s="62"/>
+      <c r="VE69" s="62"/>
+      <c r="VF69" s="62"/>
+      <c r="VG69" s="62"/>
+      <c r="VH69" s="62"/>
+      <c r="VI69" s="62"/>
+      <c r="VJ69" s="62"/>
+      <c r="VK69" s="62"/>
+      <c r="VL69" s="62"/>
+      <c r="VM69" s="62"/>
+      <c r="VN69" s="62"/>
+      <c r="VO69" s="62"/>
+      <c r="VP69" s="62"/>
+      <c r="VQ69" s="62"/>
+      <c r="VR69" s="62"/>
+      <c r="VS69" s="62"/>
+      <c r="VT69" s="62"/>
+      <c r="VU69" s="62"/>
+      <c r="VV69" s="62"/>
+      <c r="VW69" s="62"/>
+      <c r="VX69" s="62"/>
+      <c r="VY69" s="62"/>
+      <c r="VZ69" s="62"/>
+      <c r="WA69" s="62"/>
+      <c r="WB69" s="62"/>
+      <c r="WC69" s="62"/>
+      <c r="WD69" s="62"/>
+      <c r="WE69" s="62"/>
+      <c r="WF69" s="62"/>
+      <c r="WG69" s="62"/>
+      <c r="WH69" s="62"/>
+      <c r="WI69" s="62"/>
+      <c r="WJ69" s="62"/>
+      <c r="WK69" s="62"/>
+      <c r="WL69" s="62"/>
+      <c r="WM69" s="62"/>
+      <c r="WN69" s="62"/>
+      <c r="WO69" s="62"/>
+      <c r="WP69" s="62"/>
+      <c r="WQ69" s="62"/>
+      <c r="WR69" s="62"/>
+      <c r="WS69" s="62"/>
+      <c r="WT69" s="62"/>
+      <c r="WU69" s="62"/>
+      <c r="WV69" s="62"/>
+      <c r="WW69" s="62"/>
+      <c r="WX69" s="62"/>
+      <c r="WY69" s="62"/>
+      <c r="WZ69" s="62"/>
+      <c r="XA69" s="62"/>
+      <c r="XB69" s="62"/>
+      <c r="XC69" s="62"/>
+      <c r="XD69" s="62"/>
+      <c r="XE69" s="62"/>
+      <c r="XF69" s="62"/>
+      <c r="XG69" s="62"/>
+      <c r="XH69" s="62"/>
+      <c r="XI69" s="62"/>
+      <c r="XJ69" s="62"/>
+      <c r="XK69" s="62"/>
+      <c r="XL69" s="62"/>
+      <c r="XM69" s="62"/>
+      <c r="XN69" s="62"/>
+      <c r="XO69" s="62"/>
+      <c r="XP69" s="62"/>
+      <c r="XQ69" s="62"/>
+      <c r="XR69" s="62"/>
+      <c r="XS69" s="62"/>
+      <c r="XT69" s="62"/>
+      <c r="XU69" s="62"/>
+      <c r="XV69" s="62"/>
+      <c r="XW69" s="62"/>
+      <c r="XX69" s="62"/>
+      <c r="XY69" s="62"/>
+      <c r="XZ69" s="62"/>
+      <c r="YA69" s="62"/>
+      <c r="YB69" s="62"/>
+      <c r="YC69" s="62"/>
+      <c r="YD69" s="62"/>
+      <c r="YE69" s="62"/>
+      <c r="YF69" s="62"/>
+      <c r="YG69" s="62"/>
+      <c r="YH69" s="62"/>
+      <c r="YI69" s="62"/>
+      <c r="YJ69" s="62"/>
+      <c r="YK69" s="62"/>
+      <c r="YL69" s="62"/>
+      <c r="YM69" s="62"/>
+      <c r="YN69" s="62"/>
+      <c r="YO69" s="62"/>
+      <c r="YP69" s="62"/>
+      <c r="YQ69" s="62"/>
+      <c r="YR69" s="62"/>
+      <c r="YS69" s="62"/>
+      <c r="YT69" s="62"/>
+      <c r="YU69" s="62"/>
+      <c r="YV69" s="62"/>
+      <c r="YW69" s="62"/>
+      <c r="YX69" s="62"/>
+      <c r="YY69" s="62"/>
+      <c r="YZ69" s="62"/>
+      <c r="ZA69" s="62"/>
+      <c r="ZB69" s="62"/>
+      <c r="ZC69" s="62"/>
+      <c r="ZD69" s="62"/>
+      <c r="ZE69" s="62"/>
+      <c r="ZF69" s="62"/>
+      <c r="ZG69" s="62"/>
+      <c r="ZH69" s="62"/>
+      <c r="ZI69" s="62"/>
+      <c r="ZJ69" s="62"/>
+      <c r="ZK69" s="62"/>
+      <c r="ZL69" s="62"/>
+      <c r="ZM69" s="62"/>
+      <c r="ZN69" s="62"/>
+      <c r="ZO69" s="62"/>
+      <c r="ZP69" s="62"/>
+      <c r="ZQ69" s="62"/>
+      <c r="ZR69" s="62"/>
+      <c r="ZS69" s="62"/>
+      <c r="ZT69" s="62"/>
+      <c r="ZU69" s="62"/>
+      <c r="ZV69" s="62"/>
+      <c r="ZW69" s="62"/>
+      <c r="ZX69" s="62"/>
+      <c r="ZY69" s="62"/>
+      <c r="ZZ69" s="62"/>
+      <c r="AAA69" s="62"/>
+      <c r="AAB69" s="62"/>
+      <c r="AAC69" s="62"/>
+      <c r="AAD69" s="62"/>
+      <c r="AAE69" s="62"/>
+      <c r="AAF69" s="62"/>
+      <c r="AAG69" s="62"/>
+      <c r="AAH69" s="62"/>
+      <c r="AAI69" s="62"/>
+      <c r="AAJ69" s="62"/>
+      <c r="AAK69" s="62"/>
+      <c r="AAL69" s="62"/>
+      <c r="AAM69" s="62"/>
+      <c r="AAN69" s="62"/>
+      <c r="AAO69" s="62"/>
+      <c r="AAP69" s="62"/>
+      <c r="AAQ69" s="62"/>
+      <c r="AAR69" s="62"/>
+      <c r="AAS69" s="62"/>
+      <c r="AAT69" s="62"/>
+      <c r="AAU69" s="62"/>
+      <c r="AAV69" s="62"/>
+      <c r="AAW69" s="62"/>
+      <c r="AAX69" s="62"/>
+      <c r="AAY69" s="62"/>
+      <c r="AAZ69" s="62"/>
+      <c r="ABA69" s="62"/>
+      <c r="ABB69" s="62"/>
+      <c r="ABC69" s="62"/>
+      <c r="ABD69" s="62"/>
+      <c r="ABE69" s="62"/>
+      <c r="ABF69" s="62"/>
+      <c r="ABG69" s="62"/>
+      <c r="ABH69" s="62"/>
+      <c r="ABI69" s="62"/>
+      <c r="ABJ69" s="62"/>
+      <c r="ABK69" s="62"/>
+      <c r="ABL69" s="62"/>
+      <c r="ABM69" s="62"/>
+      <c r="ABN69" s="62"/>
+      <c r="ABO69" s="62"/>
+      <c r="ABP69" s="62"/>
+      <c r="ABQ69" s="62"/>
+      <c r="ABR69" s="62"/>
+      <c r="ABS69" s="62"/>
+      <c r="ABT69" s="62"/>
+      <c r="ABU69" s="62"/>
+      <c r="ABV69" s="62"/>
+      <c r="ABW69" s="62"/>
+      <c r="ABX69" s="62"/>
+      <c r="ABY69" s="62"/>
+      <c r="ABZ69" s="62"/>
+      <c r="ACA69" s="62"/>
+      <c r="ACB69" s="62"/>
+      <c r="ACC69" s="62"/>
+      <c r="ACD69" s="62"/>
+      <c r="ACE69" s="62"/>
+      <c r="ACF69" s="62"/>
+      <c r="ACG69" s="62"/>
+      <c r="ACH69" s="62"/>
+      <c r="ACI69" s="62"/>
+      <c r="ACJ69" s="62"/>
+      <c r="ACK69" s="62"/>
+      <c r="ACL69" s="62"/>
+      <c r="ACM69" s="62"/>
+      <c r="ACN69" s="62"/>
+      <c r="ACO69" s="62"/>
+      <c r="ACP69" s="62"/>
+      <c r="ACQ69" s="62"/>
+      <c r="ACR69" s="62"/>
+      <c r="ACS69" s="62"/>
+      <c r="ACT69" s="62"/>
+      <c r="ACU69" s="62"/>
+      <c r="ACV69" s="62"/>
+      <c r="ACW69" s="62"/>
+      <c r="ACX69" s="62"/>
+      <c r="ACY69" s="62"/>
+      <c r="ACZ69" s="62"/>
+      <c r="ADA69" s="62"/>
+      <c r="ADB69" s="62"/>
+      <c r="ADC69" s="62"/>
+      <c r="ADD69" s="62"/>
+      <c r="ADE69" s="62"/>
+      <c r="ADF69" s="62"/>
+      <c r="ADG69" s="62"/>
+      <c r="ADH69" s="62"/>
+      <c r="ADI69" s="62"/>
+      <c r="ADJ69" s="62"/>
+      <c r="ADK69" s="62"/>
+      <c r="ADL69" s="62"/>
+      <c r="ADM69" s="62"/>
+      <c r="ADN69" s="62"/>
+      <c r="ADO69" s="62"/>
+      <c r="ADP69" s="62"/>
+      <c r="ADQ69" s="62"/>
+      <c r="ADR69" s="62"/>
+      <c r="ADS69" s="62"/>
+      <c r="ADT69" s="62"/>
+      <c r="ADU69" s="62"/>
+      <c r="ADV69" s="62"/>
+      <c r="ADW69" s="62"/>
+      <c r="ADX69" s="62"/>
+      <c r="ADY69" s="62"/>
+      <c r="ADZ69" s="62"/>
+      <c r="AEA69" s="62"/>
+      <c r="AEB69" s="62"/>
+      <c r="AEC69" s="62"/>
+      <c r="AED69" s="62"/>
+      <c r="AEE69" s="62"/>
+      <c r="AEF69" s="62"/>
+      <c r="AEG69" s="62"/>
+      <c r="AEH69" s="62"/>
+      <c r="AEI69" s="62"/>
+      <c r="AEJ69" s="62"/>
+      <c r="AEK69" s="62"/>
+      <c r="AEL69" s="62"/>
+      <c r="AEM69" s="62"/>
+      <c r="AEN69" s="62"/>
+      <c r="AEO69" s="62"/>
+      <c r="AEP69" s="62"/>
+      <c r="AEQ69" s="62"/>
+      <c r="AER69" s="62"/>
+      <c r="AES69" s="62"/>
+      <c r="AET69" s="62"/>
+      <c r="AEU69" s="62"/>
+      <c r="AEV69" s="62"/>
+      <c r="AEW69" s="62"/>
+      <c r="AEX69" s="62"/>
+      <c r="AEY69" s="62"/>
+      <c r="AEZ69" s="62"/>
+      <c r="AFA69" s="62"/>
+      <c r="AFB69" s="62"/>
+      <c r="AFC69" s="62"/>
+      <c r="AFD69" s="62"/>
+      <c r="AFE69" s="62"/>
+      <c r="AFF69" s="62"/>
+      <c r="AFG69" s="62"/>
+      <c r="AFH69" s="62"/>
+      <c r="AFI69" s="62"/>
+      <c r="AFJ69" s="62"/>
+      <c r="AFK69" s="62"/>
+      <c r="AFL69" s="62"/>
+      <c r="AFM69" s="62"/>
+      <c r="AFN69" s="62"/>
+      <c r="AFO69" s="62"/>
+      <c r="AFP69" s="62"/>
+      <c r="AFQ69" s="62"/>
+      <c r="AFR69" s="62"/>
+      <c r="AFS69" s="62"/>
+      <c r="AFT69" s="62"/>
+      <c r="AFU69" s="62"/>
+      <c r="AFV69" s="62"/>
+      <c r="AFW69" s="62"/>
+      <c r="AFX69" s="62"/>
+      <c r="AFY69" s="62"/>
+      <c r="AFZ69" s="62"/>
+      <c r="AGA69" s="62"/>
+      <c r="AGB69" s="62"/>
+      <c r="AGC69" s="62"/>
+      <c r="AGD69" s="62"/>
+      <c r="AGE69" s="62"/>
+      <c r="AGF69" s="62"/>
+      <c r="AGG69" s="62"/>
+      <c r="AGH69" s="62"/>
+      <c r="AGI69" s="62"/>
+      <c r="AGJ69" s="62"/>
+      <c r="AGK69" s="62"/>
+      <c r="AGL69" s="62"/>
+      <c r="AGM69" s="62"/>
+      <c r="AGN69" s="62"/>
+      <c r="AGO69" s="62"/>
+      <c r="AGP69" s="62"/>
+      <c r="AGQ69" s="62"/>
+      <c r="AGR69" s="62"/>
+      <c r="AGS69" s="62"/>
+      <c r="AGT69" s="62"/>
+      <c r="AGU69" s="62"/>
+      <c r="AGV69" s="62"/>
+      <c r="AGW69" s="62"/>
+      <c r="AGX69" s="62"/>
+      <c r="AGY69" s="62"/>
+      <c r="AGZ69" s="62"/>
+      <c r="AHA69" s="62"/>
+      <c r="AHB69" s="62"/>
+      <c r="AHC69" s="62"/>
+      <c r="AHD69" s="62"/>
+      <c r="AHE69" s="62"/>
+      <c r="AHF69" s="62"/>
+      <c r="AHG69" s="62"/>
+      <c r="AHH69" s="62"/>
+      <c r="AHI69" s="62"/>
+      <c r="AHJ69" s="62"/>
+      <c r="AHK69" s="62"/>
+      <c r="AHL69" s="62"/>
+      <c r="AHM69" s="62"/>
+      <c r="AHN69" s="62"/>
+      <c r="AHO69" s="62"/>
+      <c r="AHP69" s="62"/>
+      <c r="AHQ69" s="62"/>
+      <c r="AHR69" s="62"/>
+      <c r="AHS69" s="62"/>
+      <c r="AHT69" s="62"/>
+      <c r="AHU69" s="62"/>
+      <c r="AHV69" s="62"/>
+      <c r="AHW69" s="62"/>
+      <c r="AHX69" s="62"/>
+      <c r="AHY69" s="62"/>
+      <c r="AHZ69" s="62"/>
+      <c r="AIA69" s="62"/>
+      <c r="AIB69" s="62"/>
+      <c r="AIC69" s="62"/>
+      <c r="AID69" s="62"/>
+      <c r="AIE69" s="62"/>
+      <c r="AIF69" s="62"/>
+      <c r="AIG69" s="62"/>
+      <c r="AIH69" s="62"/>
+      <c r="AII69" s="62"/>
+      <c r="AIJ69" s="62"/>
+      <c r="AIK69" s="62"/>
+      <c r="AIL69" s="62"/>
+      <c r="AIM69" s="62"/>
+      <c r="AIN69" s="62"/>
+      <c r="AIO69" s="62"/>
+      <c r="AIP69" s="62"/>
+      <c r="AIQ69" s="62"/>
+      <c r="AIR69" s="62"/>
+      <c r="AIS69" s="62"/>
+      <c r="AIT69" s="62"/>
+      <c r="AIU69" s="62"/>
+      <c r="AIV69" s="62"/>
+      <c r="AIW69" s="62"/>
+      <c r="AIX69" s="62"/>
+      <c r="AIY69" s="62"/>
+      <c r="AIZ69" s="62"/>
+      <c r="AJA69" s="62"/>
+      <c r="AJB69" s="62"/>
+      <c r="AJC69" s="62"/>
+      <c r="AJD69" s="62"/>
+      <c r="AJE69" s="62"/>
+      <c r="AJF69" s="62"/>
+      <c r="AJG69" s="62"/>
+      <c r="AJH69" s="62"/>
+      <c r="AJI69" s="62"/>
+      <c r="AJJ69" s="62"/>
+      <c r="AJK69" s="62"/>
+      <c r="AJL69" s="62"/>
+      <c r="AJM69" s="62"/>
+      <c r="AJN69" s="62"/>
+      <c r="AJO69" s="62"/>
+      <c r="AJP69" s="62"/>
+      <c r="AJQ69" s="62"/>
+      <c r="AJR69" s="62"/>
+      <c r="AJS69" s="62"/>
+      <c r="AJT69" s="62"/>
+      <c r="AJU69" s="62"/>
+      <c r="AJV69" s="62"/>
+      <c r="AJW69" s="62"/>
+      <c r="AJX69" s="62"/>
+      <c r="AJY69" s="62"/>
+      <c r="AJZ69" s="62"/>
+      <c r="AKA69" s="62"/>
+      <c r="AKB69" s="62"/>
+      <c r="AKC69" s="62"/>
+      <c r="AKD69" s="62"/>
+      <c r="AKE69" s="62"/>
+      <c r="AKF69" s="62"/>
+      <c r="AKG69" s="62"/>
+      <c r="AKH69" s="62"/>
+      <c r="AKI69" s="62"/>
+      <c r="AKJ69" s="62"/>
+      <c r="AKK69" s="62"/>
+      <c r="AKL69" s="62"/>
+      <c r="AKM69" s="62"/>
+      <c r="AKN69" s="62"/>
+      <c r="AKO69" s="62"/>
+      <c r="AKP69" s="62"/>
+      <c r="AKQ69" s="62"/>
+      <c r="AKR69" s="62"/>
+      <c r="AKS69" s="62"/>
+      <c r="AKT69" s="62"/>
+      <c r="AKU69" s="62"/>
+      <c r="AKV69" s="62"/>
+      <c r="AKW69" s="62"/>
+      <c r="AKX69" s="62"/>
+      <c r="AKY69" s="62"/>
+      <c r="AKZ69" s="62"/>
+      <c r="ALA69" s="62"/>
+      <c r="ALB69" s="62"/>
+      <c r="ALC69" s="62"/>
+      <c r="ALD69" s="62"/>
+      <c r="ALE69" s="62"/>
+      <c r="ALF69" s="62"/>
+      <c r="ALG69" s="62"/>
+      <c r="ALH69" s="62"/>
+      <c r="ALI69" s="62"/>
+      <c r="ALJ69" s="62"/>
+      <c r="ALK69" s="62"/>
+      <c r="ALL69" s="62"/>
+      <c r="ALM69" s="62"/>
+      <c r="ALN69" s="62"/>
+      <c r="ALO69" s="62"/>
+      <c r="ALP69" s="62"/>
+      <c r="ALQ69" s="62"/>
+      <c r="ALR69" s="62"/>
+      <c r="ALS69" s="62"/>
+      <c r="ALT69" s="62"/>
+      <c r="ALU69" s="62"/>
+      <c r="ALV69" s="62"/>
+      <c r="ALW69" s="62"/>
+      <c r="ALX69" s="62"/>
+      <c r="ALY69" s="62"/>
+      <c r="ALZ69" s="62"/>
+      <c r="AMA69" s="62"/>
+      <c r="AMB69" s="62"/>
+      <c r="AMC69" s="62"/>
+      <c r="AMD69" s="62"/>
+      <c r="AME69" s="62"/>
+      <c r="AMF69" s="62"/>
+      <c r="AMG69" s="62"/>
+      <c r="AMH69" s="62"/>
+      <c r="AMI69" s="62"/>
+      <c r="AMJ69" s="62"/>
+      <c r="AMK69" s="62"/>
+      <c r="AML69" s="62"/>
     </row>
     <row r="70" ht="12.75">
       <c r="A70" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="66" t="s">
+      <c r="C70" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="E70" s="71" t="s">
         <v>398</v>
       </c>
-      <c r="E70" s="73" t="s">
+      <c r="F70" s="71" t="s">
         <v>399</v>
-      </c>
-      <c r="F70" s="73" t="s">
-        <v>400</v>
       </c>
       <c r="L70" t="s">
         <v>135</v>
       </c>
       <c r="M70" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N70" t="s">
         <v>162</v>
       </c>
-      <c r="X70" s="65"/>
+      <c r="X70" s="64"/>
     </row>
     <row r="71" ht="12.75">
       <c r="A71" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="66" t="s">
+      <c r="C71" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="E71" s="71" t="s">
         <v>403</v>
       </c>
-      <c r="E71" s="73" t="s">
+      <c r="F71" s="71" t="s">
         <v>404</v>
-      </c>
-      <c r="F71" s="73" t="s">
-        <v>405</v>
       </c>
       <c r="L71" t="s">
         <v>135</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N71" t="s">
         <v>160</v>
       </c>
-      <c r="X71" s="65"/>
+      <c r="X71" s="64"/>
     </row>
     <row r="72" ht="12.75">
-      <c r="E72" s="39"/>
+      <c r="E72" s="38"/>
     </row>
     <row r="73" ht="12.75"/>
     <row r="74" ht="12.75">
       <c r="B74" s="12"/>
-      <c r="E74" s="39"/>
+      <c r="E74" s="38"/>
     </row>
     <row r="75" ht="12.75">
       <c r="B75" s="12"/>
@@ -8320,121 +8313,121 @@
     </row>
     <row r="78" ht="12.75">
       <c r="B78" s="12"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="42"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="41"/>
       <c r="V78" s="12"/>
       <c r="W78" s="12"/>
     </row>
     <row r="79" ht="12.75">
       <c r="B79" s="12"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="41"/>
-      <c r="K79" s="42"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="41"/>
       <c r="V79" s="12"/>
       <c r="W79" s="12"/>
     </row>
     <row r="80" ht="12.75">
       <c r="B80" s="12"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="41"/>
-      <c r="K80" s="42"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="41"/>
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
     </row>
     <row r="81" ht="12.75">
       <c r="B81" s="12"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="41"/>
-      <c r="K81" s="42"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="41"/>
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
     </row>
     <row r="82" ht="12.75">
       <c r="B82" s="12"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="42"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="41"/>
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
     </row>
     <row r="83" ht="12.75">
       <c r="B83" s="12"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="41"/>
-      <c r="K83" s="42"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="41"/>
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
     </row>
     <row r="84" ht="12.75">
       <c r="B84" s="12"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="41"/>
-      <c r="K84" s="42"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="41"/>
       <c r="V84" s="12"/>
       <c r="W84" s="12"/>
     </row>
     <row r="85" ht="12.75">
       <c r="B85" s="12"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="41"/>
-      <c r="K85" s="42"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="41"/>
       <c r="V85" s="12"/>
       <c r="W85" s="12"/>
     </row>
     <row r="86" ht="12.75">
       <c r="B86" s="12"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
-      <c r="K86" s="42"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="41"/>
       <c r="V86" s="12"/>
       <c r="W86" s="12"/>
     </row>
     <row r="87" ht="12.75">
       <c r="B87" s="12"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="41"/>
-      <c r="K87" s="42"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="41"/>
       <c r="V87" s="12"/>
       <c r="W87" s="12"/>
     </row>
@@ -8444,9 +8437,7 @@
     <row r="91" ht="12.75"/>
     <row r="92" ht="12.75"/>
     <row r="93" ht="12.75"/>
-    <row r="101" ht="12.75">
-      <c r="A101"/>
-    </row>
+    <row r="101" ht="12.75"/>
   </sheetData>
   <dataValidations count="25" disablePrompts="0">
     <dataValidation sqref="X9 X10 X11 X12 X13 X14 X15 X16 X17 X18 X19 X20" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
@@ -8555,124 +8546,124 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="75" t="str">
+      <c r="B1" s="73" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
     </row>
     <row r="3" ht="89.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="76" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>406</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="D3" s="76" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="E3" s="76" t="s">
         <v>409</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="F3" s="76" t="s">
         <v>410</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="61" t="s">
+      <c r="D4" s="60" t="s">
         <v>412</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="E4" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="F4" s="60" t="s">
         <v>414</v>
       </c>
-      <c r="F4" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>412</v>
-      </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
+      <c r="G4" s="60" t="s">
+        <v>411</v>
+      </c>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" ht="409.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>416</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>417</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" ht="178.5">
       <c r="A6" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" ht="266.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" ht="114.75">
       <c r="A8" s="12" t="s">
-        <v>274</v>
+        <v>419</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>420</v>
@@ -8681,10 +8672,10 @@
     </row>
     <row r="9" ht="114.75">
       <c r="A9" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>421</v>
@@ -8715,67 +8706,67 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="82" t="str">
+      <c r="B1" s="80" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="82" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="83" t="s">
         <v>424</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8802,62 +8793,62 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="75" t="str">
+      <c r="B1" s="73" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="2">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" ht="63.75">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>425</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="76" t="s">
         <v>426</v>
       </c>
-      <c r="C4" s="79" t="s">
-        <v>408</v>
-      </c>
-      <c r="D4" s="78" t="s">
+      <c r="C4" s="77" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" s="76" t="s">
         <v>427</v>
       </c>
-      <c r="E4" s="77"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="61" t="s">
-        <v>412</v>
-      </c>
-      <c r="D5" s="61" t="s">
+      <c r="C5" s="60" t="s">
+        <v>411</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="80"/>
+      <c r="E5" s="78"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8883,406 +8874,406 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="85" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="85" t="s">
         <v>429</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="85" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>436</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="64" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="64" t="s">
         <v>440</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="64" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="B6" s="65" t="s">
+      <c r="A6" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="64" t="s">
         <v>442</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="64" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="64" t="s">
         <v>444</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="64" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="64" t="s">
         <v>449</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="64" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="64" t="s">
         <v>453</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="64" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="65" t="s">
-        <v>396</v>
-      </c>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" s="64" t="s">
         <v>455</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="64" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="B12" s="65" t="s">
+      <c r="A12" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" s="64" t="s">
         <v>457</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="64" t="s">
         <v>459</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="64" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="64" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="64" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64" t="s">
         <v>467</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="64" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64" t="s">
         <v>469</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="64" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="64" t="s">
         <v>471</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="64" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="64" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="64" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="64" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64" t="s">
         <v>479</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="64" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65" t="s">
+      <c r="A23" s="64"/>
+      <c r="B23" s="64" t="s">
         <v>481</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="64" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="64" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="64"/>
+      <c r="B25" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="64" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="64"/>
+      <c r="B26" s="64" t="s">
         <v>487</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="64" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64" t="s">
         <v>489</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="64"/>
     </row>
     <row r="28">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65" t="s">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64" t="s">
         <v>490</v>
       </c>
-      <c r="C28" s="65"/>
+      <c r="C28" s="64"/>
     </row>
     <row r="29">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="64" t="s">
         <v>491</v>
       </c>
-      <c r="C29" s="65"/>
+      <c r="C29" s="64"/>
     </row>
     <row r="30">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65" t="s">
+      <c r="A30" s="64"/>
+      <c r="B30" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="C30" s="65"/>
+      <c r="C30" s="64"/>
     </row>
     <row r="31">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="64" t="s">
         <v>493</v>
       </c>
-      <c r="C31" s="65"/>
+      <c r="C31" s="64"/>
     </row>
     <row r="32">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65" t="s">
+      <c r="A32" s="64"/>
+      <c r="B32" s="64" t="s">
         <v>494</v>
       </c>
-      <c r="C32" s="65"/>
+      <c r="C32" s="64"/>
     </row>
     <row r="33">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65" t="s">
+      <c r="A33" s="64"/>
+      <c r="B33" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="C33" s="65"/>
+      <c r="C33" s="64"/>
     </row>
     <row r="34">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65" t="s">
+      <c r="A34" s="64"/>
+      <c r="B34" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="C34" s="65"/>
+      <c r="C34" s="64"/>
     </row>
     <row r="35">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65" t="s">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64" t="s">
         <v>497</v>
       </c>
-      <c r="C35" s="65"/>
+      <c r="C35" s="64"/>
     </row>
     <row r="36">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65" t="s">
+      <c r="A36" s="64"/>
+      <c r="B36" s="64" t="s">
         <v>498</v>
       </c>
-      <c r="C36" s="65"/>
+      <c r="C36" s="64"/>
     </row>
     <row r="37">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="C37" s="65"/>
+      <c r="C37" s="64"/>
     </row>
     <row r="38">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65" t="s">
+      <c r="A38" s="64"/>
+      <c r="B38" s="64" t="s">
         <v>500</v>
       </c>
-      <c r="C38" s="65"/>
+      <c r="C38" s="64"/>
     </row>
     <row r="39">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="64" t="s">
         <v>501</v>
       </c>
-      <c r="C39" s="65"/>
+      <c r="C39" s="64"/>
     </row>
     <row r="40">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="64" t="s">
         <v>502</v>
       </c>
-      <c r="C40" s="65"/>
+      <c r="C40" s="64"/>
     </row>
     <row r="41">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="C41" s="65"/>
+      <c r="C41" s="64"/>
     </row>
     <row r="42">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65" t="s">
+      <c r="A42" s="64"/>
+      <c r="B42" s="64" t="s">
         <v>504</v>
       </c>
-      <c r="C42" s="65"/>
+      <c r="C42" s="64"/>
     </row>
     <row r="43">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65" t="s">
+      <c r="A43" s="64"/>
+      <c r="B43" s="64" t="s">
         <v>505</v>
       </c>
-      <c r="C43" s="65"/>
+      <c r="C43" s="64"/>
     </row>
     <row r="44">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65" t="s">
+      <c r="A44" s="64"/>
+      <c r="B44" s="64" t="s">
         <v>506</v>
       </c>
-      <c r="C44" s="65"/>
+      <c r="C44" s="64"/>
     </row>
     <row r="45">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65" t="s">
+      <c r="A45" s="64"/>
+      <c r="B45" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="C45" s="65"/>
+      <c r="C45" s="64"/>
     </row>
     <row r="46">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65" t="s">
+      <c r="A46" s="64"/>
+      <c r="B46" s="64" t="s">
         <v>508</v>
       </c>
-      <c r="C46" s="65"/>
+      <c r="C46" s="64"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/demos/demo-SpOTy/sparnatural-config.xlsx
+++ b/demos/demo-SpOTy/sparnatural-config.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId1"/>
@@ -151,7 +151,7 @@
     <t>spoty</t>
   </si>
   <si>
-    <t>https://aslan.universite-lyon.fr/spoty/ns/</t>
+    <t>https://w3id.org/SpOTy/ontology#</t>
   </si>
   <si>
     <t>core</t>
@@ -3774,7 +3774,7 @@
     <hyperlink r:id="rId17" ref="C18"/>
     <hyperlink r:id="rId18" ref="C19"/>
     <hyperlink r:id="rId19" ref="C20"/>
-    <hyperlink r:id="rId20" ref="C21"/>
+    <hyperlink r:id="rId20" ref="C21" tooltip=""/>
     <hyperlink r:id="rId21" ref="C22"/>
     <hyperlink r:id="rId22" ref="C23"/>
     <hyperlink r:id="rId23" ref="C24"/>

--- a/demos/demo-SpOTy/sparnatural-config.xlsx
+++ b/demos/demo-SpOTy/sparnatural-config.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="0">#REF!</definedName>
   </definedNames>
   <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
@@ -1359,7 +1362,7 @@
   </si>
   <si>
     <t xml:space="preserve">PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
-PREFIX spoty: &lt;https://aslan.universite-lyon.fr/spoty/ns/&gt;
+PREFIX spoty: &lt;https://w3id.org/SpOTy/ontology#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
 SELECT DISTINCT ?uri (concat(?code, " ", ?lbl) as ?label)
 WHERE {
@@ -1368,13 +1371,12 @@
     spoty:code ?code .
  FILTER(isIRI(?uri))
  FILTER(lang(?lbl) = $lang)
- BIND(bound(?child) AS ?hasChildren)
 }
 ORDER BY UCASE(?label)</t>
   </si>
   <si>
     <t xml:space="preserve">PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
-PREFIX spoty: &lt;https://aslan.universite-lyon.fr/spoty/ns/&gt;
+PREFIX spoty: &lt;https://w3id.org/SpOTy/ontology#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
 SELECT DISTINCT ?uri (concat(?code, " ", ?lbl) as ?label) ?hasChildren
 WHERE {
@@ -1395,7 +1397,7 @@
     <t>this:search_language</t>
   </si>
   <si>
-    <t xml:space="preserve">PREFIX spoty: &lt;https://aslan.universite-lyon.fr/spoty/ns/&gt;
+    <t xml:space="preserve">PREFIX spoty: &lt;https://w3id.org/SpOTy/ontology#&gt;
     PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
     PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
     SELECT DISTINCT ?uri ?label {
@@ -2551,7 +2553,7 @@
     </xf>
     <xf fontId="13" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2795,6 +2797,10 @@
     </xf>
     <xf fontId="32" fillId="51" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="32" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right"/>
@@ -3774,7 +3780,7 @@
     <hyperlink r:id="rId17" ref="C18"/>
     <hyperlink r:id="rId18" ref="C19"/>
     <hyperlink r:id="rId19" ref="C20"/>
-    <hyperlink r:id="rId20" ref="C21" tooltip=""/>
+    <hyperlink r:id="rId20" ref="C21"/>
     <hyperlink r:id="rId21" ref="C22"/>
     <hyperlink r:id="rId22" ref="C23"/>
     <hyperlink r:id="rId23" ref="C24"/>
@@ -8641,7 +8647,7 @@
       <c r="B6" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="79" t="s">
         <v>417</v>
       </c>
       <c r="D6" s="12"/>
@@ -8653,7 +8659,7 @@
       <c r="B7" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="79" t="s">
         <v>418</v>
       </c>
       <c r="D7" s="12"/>
@@ -8665,7 +8671,7 @@
       <c r="B8" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="79" t="s">
         <v>420</v>
       </c>
       <c r="D8" s="12"/>
@@ -8677,7 +8683,7 @@
       <c r="B9" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="79" t="s">
         <v>421</v>
       </c>
       <c r="D9" s="12"/>
@@ -8706,31 +8712,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="80" t="str">
+      <c r="B1" s="81" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="82" t="s">
         <v>164</v>
       </c>
       <c r="D1" s="46"/>
-      <c r="E1" s="81"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
       <c r="I1" s="46"/>
     </row>
     <row r="2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="83" t="s">
         <v>423</v>
       </c>
       <c r="D2" s="46"/>
@@ -8752,21 +8758,21 @@
       <c r="I3" s="46"/>
     </row>
     <row r="4">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="84" t="s">
         <v>424</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8874,13 +8880,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="86" t="s">
         <v>429</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="86" t="s">
         <v>430</v>
       </c>
     </row>

--- a/demos/demo-SpOTy/sparnatural-config.xlsx
+++ b/demos/demo-SpOTy/sparnatural-config.xlsx
@@ -1342,7 +1342,7 @@
   </si>
   <si>
     <t xml:space="preserve">PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
-PREFIX spoty: &lt;https://aslan.universite-lyon.fr/spoty/ns/&gt;
+PREFIX spoty: &lt;https://w3id.org/SpOTy/ontology#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
 SELECT DISTINCT ?uri (concat(?code, " ", ?lbl) as ?label) ?hasChildren
 WHERE {
@@ -8538,7 +8538,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8635,7 +8635,7 @@
       <c r="B5" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="79" t="s">
         <v>416</v>
       </c>
       <c r="D5" s="12"/>

--- a/demos/demo-SpOTy/sparnatural-config.xlsx
+++ b/demos/demo-SpOTy/sparnatural-config.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
   <si>
     <t>PREFIX</t>
   </si>
@@ -464,13 +464,22 @@
     <t>TRUE</t>
   </si>
   <si>
+    <t>this:MorphoSyntaxCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morpho-syntactic category code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code catégorie morpho-syntaxique</t>
+  </si>
+  <si>
+    <t>sh:Literal</t>
+  </si>
+  <si>
     <t>this:Transcription</t>
   </si>
   <si>
     <t>Transcription</t>
-  </si>
-  <si>
-    <t>sh:Literal</t>
   </si>
   <si>
     <t xml:space="preserve">fa-regular fa-comment-pen</t>
@@ -1052,10 +1061,13 @@
     <t>this:Token_morphoSyntax</t>
   </si>
   <si>
-    <t>spoty:morphoSyntax</t>
-  </si>
-  <si>
-    <t>this:Token_tokenMorphosynytax</t>
+    <t xml:space="preserve">(spoty:morphoSyntax spoty:code)</t>
+  </si>
+  <si>
+    <t>core:StringEqualsProperty</t>
+  </si>
+  <si>
+    <t>this:Token_tokenMorphoSyntax</t>
   </si>
   <si>
     <t xml:space="preserve">(spoty:morphoSyntax [sh:zeroOrMorePath skos:broader])</t>
@@ -1251,9 +1263,6 @@
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>core:StringEqualsProperty</t>
   </si>
   <si>
     <t>this:Center_longitude</t>
@@ -2553,7 +2562,7 @@
     </xf>
     <xf fontId="13" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2659,6 +2668,15 @@
     <xf fontId="0" fillId="53" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="53" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="54" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2797,10 +2815,6 @@
     </xf>
     <xf fontId="32" fillId="51" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="32" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right"/>
@@ -4264,349 +4278,381 @@
       </c>
     </row>
     <row r="22" ht="12.75">
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" s="35" customFormat="1" ht="13.5">
-      <c r="A23" s="35" t="s">
+      <c r="A22" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B22" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35" t="s">
+      <c r="C22" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="35">
+      <c r="G22"/>
+      <c r="H22" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="12">
         <v>90</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="O23" s="35" t="s">
+      <c r="J22" s="12"/>
+      <c r="K22"/>
+      <c r="L22" s="12"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" s="36"/>
+    </row>
+    <row r="23" ht="12.75">
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" s="38" customFormat="1" ht="13.5">
+      <c r="A24" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="AMA23" s="35"/>
-      <c r="AMB23" s="35"/>
-      <c r="AMC23" s="35"/>
-      <c r="AMD23" s="35"/>
-      <c r="AME23" s="35"/>
-    </row>
-    <row r="24" s="35" customFormat="1" ht="13.5">
-      <c r="A24" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="35" t="s">
+      <c r="I24" s="38">
+        <v>90</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="O24" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35" t="s">
+      <c r="AMA24" s="38"/>
+      <c r="AMB24" s="38"/>
+      <c r="AMC24" s="38"/>
+      <c r="AMD24" s="38"/>
+      <c r="AME24" s="38"/>
+    </row>
+    <row r="25" s="38" customFormat="1" ht="13.5">
+      <c r="A25" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" s="35">
+      <c r="G25" s="38"/>
+      <c r="H25" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="38">
         <v>90</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="O24" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AMA24" s="35"/>
-      <c r="AMB24" s="35"/>
-      <c r="AMC24" s="35"/>
-      <c r="AMD24" s="35"/>
-      <c r="AME24" s="35"/>
-    </row>
-    <row r="25" s="35" customFormat="1" ht="13.5">
-      <c r="A25" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="35" t="s">
+      <c r="J25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="O25" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35" t="s">
+      <c r="AMA25" s="38"/>
+      <c r="AMB25" s="38"/>
+      <c r="AMC25" s="38"/>
+      <c r="AMD25" s="38"/>
+      <c r="AME25" s="38"/>
+    </row>
+    <row r="26" s="38" customFormat="1" ht="13.5">
+      <c r="A26" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" s="35">
+      <c r="G26" s="38"/>
+      <c r="H26" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="38">
         <v>90</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="O25" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AMA25" s="35"/>
-      <c r="AMB25" s="35"/>
-      <c r="AMC25" s="35"/>
-      <c r="AMD25" s="35"/>
-      <c r="AME25" s="35"/>
-    </row>
-    <row r="26" s="35" customFormat="1" ht="12.75">
-      <c r="A26" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35" t="s">
+      <c r="J26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="O26" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="AMA26" s="38"/>
+      <c r="AMB26" s="38"/>
+      <c r="AMC26" s="38"/>
+      <c r="AMD26" s="38"/>
+      <c r="AME26" s="38"/>
+    </row>
+    <row r="27" s="38" customFormat="1" ht="12.75">
+      <c r="A27" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I26" s="35">
+      <c r="G27" s="38"/>
+      <c r="H27" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="38">
         <v>91</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="O26" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="AMA26" s="35"/>
-      <c r="AMB26" s="35"/>
-      <c r="AMC26" s="35"/>
-      <c r="AMD26" s="35"/>
-      <c r="AME26" s="35"/>
-    </row>
-    <row r="27" s="35" customFormat="1" ht="12.5">
-      <c r="A27" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="35" t="s">
+      <c r="J27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="O27" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35" t="s">
+      <c r="AMA27" s="38"/>
+      <c r="AMB27" s="38"/>
+      <c r="AMC27" s="38"/>
+      <c r="AMD27" s="38"/>
+      <c r="AME27" s="38"/>
+    </row>
+    <row r="28" s="38" customFormat="1" ht="12.5">
+      <c r="A28" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I27" s="35">
+      <c r="G28" s="38"/>
+      <c r="H28" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="38">
         <v>91</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="O27" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="AMA27" s="35"/>
-      <c r="AMB27" s="35"/>
-      <c r="AMC27" s="35"/>
-      <c r="AMD27" s="35"/>
-      <c r="AME27" s="35"/>
-    </row>
-    <row r="28" s="35" customFormat="1" ht="12.5">
-      <c r="A28" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35" t="s">
+      <c r="J28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="O28" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="AMA28" s="38"/>
+      <c r="AMB28" s="38"/>
+      <c r="AMC28" s="38"/>
+      <c r="AMD28" s="38"/>
+      <c r="AME28" s="38"/>
+    </row>
+    <row r="29" s="38" customFormat="1" ht="12.5">
+      <c r="A29" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I28" s="35">
+      <c r="G29" s="38"/>
+      <c r="H29" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="38">
         <v>91</v>
       </c>
-      <c r="J28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="O28" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="AMA28" s="35"/>
-      <c r="AMB28" s="35"/>
-      <c r="AMC28" s="35"/>
-      <c r="AMD28" s="35"/>
-      <c r="AME28" s="35"/>
-    </row>
-    <row r="29" s="35" customFormat="1" ht="12.75">
-      <c r="A29" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35" t="s">
+      <c r="J29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="O29" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="AMA29" s="38"/>
+      <c r="AMB29" s="38"/>
+      <c r="AMC29" s="38"/>
+      <c r="AMD29" s="38"/>
+      <c r="AME29" s="38"/>
+    </row>
+    <row r="30" s="38" customFormat="1" ht="12.75">
+      <c r="A30" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29" s="37">
+      <c r="G30" s="38"/>
+      <c r="H30" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="40">
         <v>92</v>
       </c>
-      <c r="J29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="O29" s="35" t="s">
+      <c r="J30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="O30" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="AMA29" s="35"/>
-      <c r="AMB29" s="35"/>
-      <c r="AMC29" s="35"/>
-      <c r="AMD29" s="35"/>
-      <c r="AME29" s="35"/>
-    </row>
-    <row r="30" s="35" customFormat="1" ht="12.75">
-      <c r="A30" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35" t="s">
+      <c r="AMA30" s="38"/>
+      <c r="AMB30" s="38"/>
+      <c r="AMC30" s="38"/>
+      <c r="AMD30" s="38"/>
+      <c r="AME30" s="38"/>
+    </row>
+    <row r="31" s="38" customFormat="1" ht="12.75">
+      <c r="A31" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="37">
+      <c r="G31" s="38"/>
+      <c r="H31" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" s="40">
         <v>93</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="O30" s="35" t="s">
+      <c r="J31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="O31" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="AMA30" s="35"/>
-      <c r="AMB30" s="35"/>
-      <c r="AMC30" s="35"/>
-      <c r="AMD30" s="35"/>
-      <c r="AME30" s="35"/>
-    </row>
-    <row r="31" s="35" customFormat="1" ht="12.5">
-      <c r="A31" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35" t="s">
+      <c r="AMA31" s="38"/>
+      <c r="AMB31" s="38"/>
+      <c r="AMC31" s="38"/>
+      <c r="AMD31" s="38"/>
+      <c r="AME31" s="38"/>
+    </row>
+    <row r="32" s="38" customFormat="1" ht="12.5">
+      <c r="A32" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I31" s="35">
+      <c r="G32" s="38"/>
+      <c r="H32" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" s="38">
         <v>90</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="O31" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AMA31" s="35"/>
-      <c r="AMB31" s="35"/>
-      <c r="AMC31" s="35"/>
-      <c r="AMD31" s="35"/>
-      <c r="AME31" s="35"/>
-    </row>
-    <row r="32" ht="12.75">
-      <c r="A32" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I32" s="12">
-        <v>95</v>
-      </c>
-      <c r="O32" s="35" t="s">
-        <v>153</v>
-      </c>
+      <c r="J32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="O32" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="AMA32" s="38"/>
+      <c r="AMB32" s="38"/>
+      <c r="AMC32" s="38"/>
+      <c r="AMD32" s="38"/>
+      <c r="AME32" s="38"/>
     </row>
     <row r="33" ht="12.75">
       <c r="A33" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="36" t="s">
-        <v>135</v>
+      <c r="H33" s="39" t="s">
+        <v>136</v>
       </c>
       <c r="I33" s="12">
         <v>95</v>
       </c>
-      <c r="O33" s="35" t="s">
-        <v>153</v>
+      <c r="O33" s="38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75">
+      <c r="A34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" s="12">
+        <v>95</v>
+      </c>
+      <c r="O34" s="38" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4640,7 +4686,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A1" zoomScale="95" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A5" zoomScale="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
@@ -4651,11 +4697,11 @@
     <col customWidth="1" min="2" max="2" style="12" width="17.00390625"/>
     <col customWidth="1" min="3" max="3" style="0" width="74.57421875"/>
     <col customWidth="1" min="4" max="4" style="0" width="9.57421875"/>
-    <col customWidth="1" min="5" max="6" style="38" width="24.8515625"/>
+    <col customWidth="1" min="5" max="6" style="41" width="24.8515625"/>
     <col customWidth="1" min="7" max="8" style="12" width="32.00390625"/>
-    <col customWidth="1" min="9" max="9" style="39" width="32.00390625"/>
-    <col customWidth="1" min="10" max="10" style="40" width="28.8515625"/>
-    <col customWidth="1" min="11" max="11" style="41" width="28.8515625"/>
+    <col customWidth="1" min="9" max="9" style="42" width="32.00390625"/>
+    <col customWidth="1" min="10" max="10" style="43" width="28.8515625"/>
+    <col customWidth="1" min="11" max="11" style="44" width="28.8515625"/>
     <col customWidth="1" min="12" max="12" style="0" width="17.28125"/>
     <col customWidth="1" min="13" max="13" style="0" width="20.00390625"/>
     <col customWidth="1" min="14" max="14" style="0" width="22.28125"/>
@@ -4669,48 +4715,48 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="46" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>164</v>
+      <c r="C1" s="39" t="s">
+        <v>167</v>
       </c>
       <c r="D1" s="16"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="39"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="47"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50"/>
       <c r="R1" s="12"/>
       <c r="U1" s="12"/>
     </row>
     <row r="2" ht="12.75"/>
     <row r="3" s="21" customFormat="1" ht="12.800000000000001">
       <c r="A3" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="48"/>
+        <v>168</v>
+      </c>
+      <c r="B3" s="51"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="49"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="23"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
@@ -4731,296 +4777,296 @@
       <c r="AML3" s="21"/>
     </row>
     <row r="4" ht="12.5">
-      <c r="E4" s="52"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="12"/>
-      <c r="J4" s="53"/>
+      <c r="J4" s="56"/>
       <c r="S4" s="12"/>
     </row>
     <row r="5" s="26" customFormat="1" ht="153">
       <c r="A5" s="26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>173</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>179</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="26" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="R5" s="26" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S5" s="26" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="V5" s="26" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="W5" s="26" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X5" s="27" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y5" s="27" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Z5" s="27" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AA5" s="27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AB5" s="27" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AC5" s="27" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AD5" s="27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AE5" s="27" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF5" s="27" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AG5" s="27" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AH5" s="27"/>
     </row>
-    <row r="6" s="56" customFormat="1" ht="25.5">
-      <c r="A6" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>201</v>
+    <row r="6" s="59" customFormat="1" ht="25.5">
+      <c r="A6" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>204</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="I6" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="56"/>
+      <c r="E6" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
     </row>
     <row r="7" ht="25.5">
       <c r="A7" s="30" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="63" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="J7" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>217</v>
       </c>
       <c r="L7" s="31" t="s">
         <v>93</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="R7" s="31" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="S7" s="30" t="s">
         <v>96</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="V7" s="31" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="W7" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="X7" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="Y7" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z7" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA7" s="60" t="s">
+      <c r="X7" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y7" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z7" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA7" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="AB7" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC7" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD7" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE7" s="60" t="s">
+      <c r="AB7" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="AF7" s="60" t="s">
+      <c r="AC7" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="AG7" s="60" t="s">
+      <c r="AD7" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="AH7" s="60" t="s">
+      <c r="AE7" s="63" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="8" s="62" customFormat="1" ht="12.75">
-      <c r="A8" s="62" t="s">
+      <c r="AF7" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG7" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH7" s="63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" s="65" customFormat="1" ht="12.75">
+      <c r="A8" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="AMH8" s="62"/>
-      <c r="AMI8" s="62"/>
-      <c r="AMJ8" s="62"/>
-      <c r="AMK8" s="62"/>
-      <c r="AML8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="AMH8" s="65"/>
+      <c r="AMI8" s="65"/>
+      <c r="AMJ8" s="65"/>
+      <c r="AMK8" s="65"/>
+      <c r="AML8" s="65"/>
     </row>
     <row r="9" ht="12.75">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
         <v>103</v>
@@ -5028,19 +5074,19 @@
       <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>235</v>
+      <c r="E9" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>238</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40">
+      <c r="I9" s="42"/>
+      <c r="J9" s="43">
         <v>1</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="44">
         <v>1</v>
       </c>
       <c r="L9" t="s">
@@ -5048,37 +5094,37 @@
       </c>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
-      <c r="X9" s="64"/>
+      <c r="X9" s="67"/>
       <c r="AA9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="10" s="0" customFormat="1" ht="13.5">
       <c r="A10" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="65" t="s">
-        <v>237</v>
+      <c r="C10" s="68" t="s">
+        <v>240</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>239</v>
+      <c r="E10" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>242</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -5087,9 +5133,9 @@
       <c r="T10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="66" t="s">
-        <v>241</v>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="69" t="s">
+        <v>244</v>
       </c>
       <c r="AA10" t="s">
         <v>132</v>
@@ -5102,30 +5148,30 @@
     </row>
     <row r="11" s="0" customFormat="1" ht="12.75">
       <c r="A11" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="65" t="s">
-        <v>243</v>
+      <c r="C11" s="68" t="s">
+        <v>246</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>245</v>
+      <c r="E11" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>248</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -5134,7 +5180,7 @@
       <c r="T11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="64"/>
+      <c r="X11" s="67"/>
       <c r="AA11" t="s">
         <v>132</v>
       </c>
@@ -5146,20 +5192,20 @@
     </row>
     <row r="12" s="0" customFormat="1" ht="12.75">
       <c r="A12" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B12" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="65" t="s">
-        <v>247</v>
+      <c r="C12" s="68" t="s">
+        <v>250</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>249</v>
+      <c r="E12" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>252</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -5169,10 +5215,10 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M12" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -5181,7 +5227,7 @@
       <c r="T12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="64"/>
+      <c r="X12" s="67"/>
       <c r="AA12" t="s">
         <v>132</v>
       </c>
@@ -5193,20 +5239,20 @@
     </row>
     <row r="13" s="0" customFormat="1" ht="12.75">
       <c r="A13" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="65" t="s">
-        <v>252</v>
+      <c r="C13" s="68" t="s">
+        <v>255</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>254</v>
+      <c r="E13" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>257</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -5216,10 +5262,10 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -5228,7 +5274,7 @@
       <c r="T13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="64"/>
+      <c r="X13" s="67"/>
       <c r="AA13" t="s">
         <v>132</v>
       </c>
@@ -5240,20 +5286,20 @@
     </row>
     <row r="14" s="0" customFormat="1" ht="12.75">
       <c r="A14" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="65" t="s">
-        <v>256</v>
+      <c r="C14" s="68" t="s">
+        <v>259</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>258</v>
+      <c r="E14" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>261</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -5263,10 +5309,10 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -5275,7 +5321,7 @@
       <c r="T14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="64"/>
+      <c r="X14" s="67"/>
       <c r="AA14" t="s">
         <v>132</v>
       </c>
@@ -5287,20 +5333,20 @@
     </row>
     <row r="15" s="0" customFormat="1" ht="12.75">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="65" t="s">
-        <v>261</v>
+      <c r="C15" s="68" t="s">
+        <v>264</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>263</v>
+      <c r="E15" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>266</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -5319,7 +5365,7 @@
       <c r="T15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="64"/>
+      <c r="X15" s="67"/>
       <c r="AA15" t="s">
         <v>132</v>
       </c>
@@ -5331,24 +5377,24 @@
     </row>
     <row r="16" ht="13.5">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="67" t="s">
-        <v>265</v>
+      <c r="C16" s="70" t="s">
+        <v>268</v>
       </c>
       <c r="E16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F16" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
       <c r="L16" t="s">
         <v>108</v>
       </c>
@@ -5357,8 +5403,8 @@
       </c>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
-      <c r="X16" s="64" t="s">
-        <v>268</v>
+      <c r="X16" s="67" t="s">
+        <v>271</v>
       </c>
       <c r="AB16" t="b">
         <v>1</v>
@@ -5366,24 +5412,24 @@
     </row>
     <row r="17" ht="13.5">
       <c r="A17" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B17" t="s">
         <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E17" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F17" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
       <c r="L17" t="s">
         <v>108</v>
       </c>
@@ -5392,98 +5438,98 @@
       </c>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="64" t="s">
-        <v>273</v>
+      <c r="X17" s="67" t="s">
+        <v>276</v>
       </c>
       <c r="AB17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="13.5">
-      <c r="A18" s="35" t="s">
-        <v>274</v>
+      <c r="A18" s="38" t="s">
+        <v>277</v>
       </c>
       <c r="B18" t="s">
         <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E18" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K18" s="41">
+        <v>270</v>
+      </c>
+      <c r="K18" s="44">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M18" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N18" t="s">
-        <v>133</v>
-      </c>
-      <c r="X18" s="64" t="s">
-        <v>276</v>
+        <v>137</v>
+      </c>
+      <c r="X18" s="67" t="s">
+        <v>279</v>
       </c>
       <c r="AB18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="13.5">
-      <c r="A19" s="35" t="s">
-        <v>277</v>
+      <c r="A19" s="38" t="s">
+        <v>280</v>
       </c>
       <c r="B19" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="67" t="s">
-        <v>278</v>
+      <c r="C19" s="70" t="s">
+        <v>281</v>
       </c>
       <c r="E19" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F19" t="s">
-        <v>267</v>
-      </c>
-      <c r="K19" s="41">
+        <v>270</v>
+      </c>
+      <c r="K19" s="44">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N19" t="s">
-        <v>141</v>
-      </c>
-      <c r="X19" s="64" t="s">
-        <v>276</v>
+        <v>144</v>
+      </c>
+      <c r="X19" s="67" t="s">
+        <v>279</v>
       </c>
       <c r="AB19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" ht="13.5">
-      <c r="A20" s="35" t="s">
-        <v>279</v>
+      <c r="A20" s="38" t="s">
+        <v>282</v>
       </c>
       <c r="B20" t="s">
         <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L20" t="s">
         <v>108</v>
@@ -5491,8 +5537,8 @@
       <c r="N20" t="s">
         <v>110</v>
       </c>
-      <c r="X20" s="64" t="s">
-        <v>268</v>
+      <c r="X20" s="67" t="s">
+        <v>271</v>
       </c>
       <c r="AB20" t="b">
         <v>1</v>
@@ -5500,44 +5546,44 @@
     </row>
     <row r="21" ht="12.75">
       <c r="B21" s="12"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-    </row>
-    <row r="22" s="62" customFormat="1" ht="12.75">
-      <c r="A22" s="62" t="s">
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+    </row>
+    <row r="22" s="65" customFormat="1" ht="12.75">
+      <c r="A22" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="AMH22" s="62"/>
-      <c r="AMI22" s="62"/>
-      <c r="AMJ22" s="62"/>
-      <c r="AMK22" s="62"/>
-      <c r="AML22" s="62"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="AMH22" s="65"/>
+      <c r="AMI22" s="65"/>
+      <c r="AMJ22" s="65"/>
+      <c r="AMK22" s="65"/>
+      <c r="AML22" s="65"/>
     </row>
     <row r="23" ht="12.75">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B23" t="s">
         <v>110</v>
@@ -5545,19 +5591,19 @@
       <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="F23" s="63" t="s">
-        <v>235</v>
+      <c r="E23" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>238</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40">
+      <c r="I23" s="42"/>
+      <c r="J23" s="43">
         <v>1</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="44">
         <v>1</v>
       </c>
       <c r="L23" t="s">
@@ -5569,20 +5615,20 @@
     </row>
     <row r="24" s="0" customFormat="1" ht="12.75">
       <c r="A24" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B24" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="65" t="s">
-        <v>285</v>
+      <c r="C24" s="68" t="s">
+        <v>288</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>287</v>
+      <c r="E24" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>290</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -5592,10 +5638,10 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M24" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -5604,7 +5650,7 @@
       <c r="T24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="64"/>
+      <c r="X24" s="67"/>
       <c r="AA24" t="s">
         <v>132</v>
       </c>
@@ -5616,20 +5662,20 @@
     </row>
     <row r="25" s="0" customFormat="1" ht="12.75">
       <c r="A25" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B25" t="s">
         <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>263</v>
+      <c r="E25" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>266</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -5645,7 +5691,7 @@
       <c r="T25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="64"/>
+      <c r="X25" s="67"/>
       <c r="AA25" t="s">
         <v>132</v>
       </c>
@@ -5657,24 +5703,24 @@
     </row>
     <row r="26" ht="13.5">
       <c r="A26" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="67" t="s">
-        <v>290</v>
+      <c r="C26" s="70" t="s">
+        <v>293</v>
       </c>
       <c r="E26" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F26" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
       <c r="L26" t="s">
         <v>108</v>
       </c>
@@ -5683,73 +5729,73 @@
       </c>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
-      <c r="X26" s="64" t="s">
-        <v>273</v>
+      <c r="X26" s="67" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="27" ht="13.5">
       <c r="A27" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s">
         <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E27" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F27" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
       <c r="L27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M27" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
-      <c r="X27" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y27" s="66" t="s">
-        <v>241</v>
+      <c r="X27" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y27" s="69" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="28" ht="13.5">
       <c r="A28" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s">
         <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F28" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="41">
+      <c r="I28" s="42"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44">
         <v>1</v>
       </c>
       <c r="L28" t="s">
@@ -5760,8 +5806,8 @@
       </c>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
-      <c r="X28" s="64" t="s">
-        <v>268</v>
+      <c r="X28" s="67" t="s">
+        <v>271</v>
       </c>
       <c r="AB28" t="b">
         <v>1</v>
@@ -5769,27 +5815,27 @@
     </row>
     <row r="29" ht="13.5">
       <c r="A29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="67" t="s">
-        <v>299</v>
+      <c r="C29" s="70" t="s">
+        <v>302</v>
       </c>
       <c r="D29" s="3">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F29" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="43"/>
       <c r="L29" t="s">
         <v>108</v>
       </c>
@@ -5798,8 +5844,8 @@
       </c>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
-      <c r="X29" s="64" t="s">
-        <v>268</v>
+      <c r="X29" s="67" t="s">
+        <v>271</v>
       </c>
       <c r="AB29" t="b">
         <v>1</v>
@@ -5807,27 +5853,27 @@
     </row>
     <row r="30" ht="13.5">
       <c r="A30" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="67" t="s">
-        <v>303</v>
+      <c r="C30" s="70" t="s">
+        <v>306</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F30" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
       <c r="L30" t="s">
         <v>108</v>
       </c>
@@ -5836,8 +5882,8 @@
       </c>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
-      <c r="X30" s="64" t="s">
-        <v>268</v>
+      <c r="X30" s="67" t="s">
+        <v>271</v>
       </c>
       <c r="AB30" t="b">
         <v>1</v>
@@ -5845,22 +5891,22 @@
     </row>
     <row r="31" ht="13.5">
       <c r="A31" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="67" t="s">
-        <v>307</v>
+      <c r="C31" s="70" t="s">
+        <v>310</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F31" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s">
         <v>108</v>
@@ -5868,8 +5914,8 @@
       <c r="N31" t="s">
         <v>110</v>
       </c>
-      <c r="X31" s="64" t="s">
-        <v>268</v>
+      <c r="X31" s="67" t="s">
+        <v>271</v>
       </c>
       <c r="AB31" t="b">
         <v>1</v>
@@ -5877,24 +5923,24 @@
     </row>
     <row r="32" ht="13.5">
       <c r="A32" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s">
         <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F32" t="s">
-        <v>313</v>
-      </c>
-      <c r="K32" s="41">
+        <v>316</v>
+      </c>
+      <c r="K32" s="44">
         <v>1</v>
       </c>
       <c r="L32" t="s">
@@ -5903,8 +5949,8 @@
       <c r="N32" t="s">
         <v>110</v>
       </c>
-      <c r="X32" s="64" t="s">
-        <v>268</v>
+      <c r="X32" s="67" t="s">
+        <v>271</v>
       </c>
       <c r="AB32" t="b">
         <v>1</v>
@@ -5912,22 +5958,22 @@
     </row>
     <row r="33" ht="13.5">
       <c r="A33" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="67" t="s">
-        <v>315</v>
+      <c r="C33" s="70" t="s">
+        <v>318</v>
       </c>
       <c r="D33" s="3">
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F33" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L33" t="s">
         <v>108</v>
@@ -5935,8 +5981,8 @@
       <c r="N33" t="s">
         <v>110</v>
       </c>
-      <c r="X33" s="64" t="s">
-        <v>268</v>
+      <c r="X33" s="67" t="s">
+        <v>271</v>
       </c>
       <c r="AB33" t="b">
         <v>1</v>
@@ -5944,19 +5990,19 @@
     </row>
     <row r="34" ht="13.5">
       <c r="A34" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s">
         <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E34" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F34" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s">
         <v>108</v>
@@ -5964,34 +6010,34 @@
       <c r="N34" t="s">
         <v>114</v>
       </c>
-      <c r="X34" s="64" t="s">
-        <v>322</v>
+      <c r="X34" s="67" t="s">
+        <v>325</v>
       </c>
       <c r="AB34" t="b">
         <v>1</v>
       </c>
       <c r="AD34" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AE34" s="12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" ht="13.5">
       <c r="A35" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="67" t="s">
-        <v>326</v>
+      <c r="C35" s="70" t="s">
+        <v>329</v>
       </c>
       <c r="E35" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F35" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s">
         <v>108</v>
@@ -5999,43 +6045,43 @@
       <c r="N35" t="s">
         <v>114</v>
       </c>
-      <c r="X35" s="64" t="s">
-        <v>322</v>
+      <c r="X35" s="67" t="s">
+        <v>325</v>
       </c>
       <c r="AB35" t="b">
         <v>1</v>
       </c>
       <c r="AD35" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AE35" s="12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" ht="13.5">
       <c r="A36" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s">
         <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E36" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F36" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="N36" t="s">
-        <v>119</v>
-      </c>
-      <c r="X36" s="64" t="s">
-        <v>273</v>
+        <v>133</v>
+      </c>
+      <c r="X36" s="67" t="s">
+        <v>332</v>
       </c>
       <c r="AB36" t="b">
         <v>1</v>
@@ -6043,19 +6089,19 @@
     </row>
     <row r="37" ht="13.5">
       <c r="A37" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="67" t="s">
-        <v>330</v>
+      <c r="C37" s="70" t="s">
+        <v>334</v>
       </c>
       <c r="E37" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L37" t="s">
         <v>108</v>
@@ -6063,79 +6109,79 @@
       <c r="N37" t="s">
         <v>119</v>
       </c>
-      <c r="X37" s="64" t="s">
-        <v>273</v>
+      <c r="X37" s="67" t="s">
+        <v>276</v>
       </c>
       <c r="Z37" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AB37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="38" ht="13.5">
-      <c r="A38" s="35" t="s">
-        <v>332</v>
+      <c r="A38" s="38" t="s">
+        <v>336</v>
       </c>
       <c r="B38" t="s">
         <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E38" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
-      </c>
-      <c r="K38" s="41">
+        <v>270</v>
+      </c>
+      <c r="K38" s="44">
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M38" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N38" t="s">
-        <v>137</v>
-      </c>
-      <c r="X38" s="64" t="s">
-        <v>276</v>
+        <v>140</v>
+      </c>
+      <c r="X38" s="67" t="s">
+        <v>279</v>
       </c>
       <c r="AB38" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39" ht="13.5">
-      <c r="A39" s="35" t="s">
-        <v>334</v>
+      <c r="A39" s="38" t="s">
+        <v>338</v>
       </c>
       <c r="B39" t="s">
         <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E39" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F39" t="s">
-        <v>337</v>
-      </c>
-      <c r="J39" s="40"/>
+        <v>341</v>
+      </c>
+      <c r="J39" s="43"/>
       <c r="L39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M39" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N39" t="s">
-        <v>147</v>
-      </c>
-      <c r="X39" s="64" t="s">
-        <v>276</v>
+        <v>150</v>
+      </c>
+      <c r="X39" s="67" t="s">
+        <v>279</v>
       </c>
       <c r="AB39" t="b">
         <v>1</v>
@@ -6143,58 +6189,58 @@
     </row>
     <row r="40" ht="12.75">
       <c r="B40" s="12"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-    </row>
-    <row r="41" s="62" customFormat="1" ht="12.75">
-      <c r="A41" s="62" t="s">
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+    </row>
+    <row r="41" s="65" customFormat="1" ht="12.75">
+      <c r="A41" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="62"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="AB41" s="62"/>
-      <c r="AMH41" s="62"/>
-      <c r="AMI41" s="62"/>
-      <c r="AMJ41" s="62"/>
-      <c r="AMK41" s="62"/>
-      <c r="AML41" s="62"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65"/>
+      <c r="AB41" s="65"/>
+      <c r="AMH41" s="65"/>
+      <c r="AMI41" s="65"/>
+      <c r="AMJ41" s="65"/>
+      <c r="AMK41" s="65"/>
+      <c r="AML41" s="65"/>
     </row>
     <row r="42" s="0" customFormat="1" ht="12.75">
       <c r="A42" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s">
         <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>341</v>
+      <c r="E42" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>345</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -6213,7 +6259,7 @@
       <c r="T42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="64"/>
+      <c r="X42" s="67"/>
       <c r="AA42" t="s">
         <v>132</v>
       </c>
@@ -6225,20 +6271,20 @@
     </row>
     <row r="43" s="0" customFormat="1" ht="12.75">
       <c r="A43" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s">
         <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>345</v>
+      <c r="E43" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>349</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -6257,7 +6303,7 @@
       <c r="T43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-      <c r="X43" s="64"/>
+      <c r="X43" s="67"/>
       <c r="AA43" t="s">
         <v>132</v>
       </c>
@@ -6269,20 +6315,20 @@
     </row>
     <row r="44" s="0" customFormat="1" ht="12.75">
       <c r="A44" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s">
         <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>349</v>
+      <c r="E44" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>353</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -6292,10 +6338,10 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M44" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
@@ -6304,7 +6350,7 @@
       <c r="T44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-      <c r="X44" s="64"/>
+      <c r="X44" s="67"/>
       <c r="AA44" t="s">
         <v>132</v>
       </c>
@@ -6316,20 +6362,20 @@
     </row>
     <row r="45" s="0" customFormat="1" ht="12.75">
       <c r="A45" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s">
         <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>353</v>
+      <c r="E45" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>357</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -6339,10 +6385,10 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M45" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
@@ -6351,9 +6397,9 @@
       <c r="T45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-      <c r="X45" s="64"/>
-      <c r="Y45" s="66" t="s">
-        <v>241</v>
+      <c r="X45" s="67"/>
+      <c r="Y45" s="69" t="s">
+        <v>244</v>
       </c>
       <c r="AA45" t="s">
         <v>132</v>
@@ -6366,20 +6412,20 @@
     </row>
     <row r="46" s="0" customFormat="1" ht="12.75">
       <c r="A46" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B46" t="s">
         <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>357</v>
+      <c r="E46" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>361</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -6389,10 +6435,10 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M46" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -6401,7 +6447,7 @@
       <c r="T46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-      <c r="X46" s="64"/>
+      <c r="X46" s="67"/>
       <c r="AA46" t="s">
         <v>132</v>
       </c>
@@ -6413,34 +6459,34 @@
     </row>
     <row r="47" ht="13.5">
       <c r="A47" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="67" t="s">
-        <v>347</v>
+      <c r="C47" s="70" t="s">
+        <v>351</v>
       </c>
       <c r="E47" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F47" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
       <c r="L47" t="s">
         <v>108</v>
       </c>
       <c r="N47" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
-      <c r="X47" s="64" t="s">
-        <v>276</v>
+      <c r="X47" s="67" t="s">
+        <v>279</v>
       </c>
       <c r="AB47" t="b">
         <v>1</v>
@@ -6448,65 +6494,65 @@
     </row>
     <row r="48" ht="12.75">
       <c r="B48" s="12"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="41"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="44"/>
       <c r="V48" s="12"/>
       <c r="W48" s="12"/>
     </row>
-    <row r="49" s="62" customFormat="1" ht="12.75">
-      <c r="A49" s="62" t="s">
+    <row r="49" s="65" customFormat="1" ht="12.75">
+      <c r="A49" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="62"/>
-      <c r="T49" s="62"/>
-      <c r="V49" s="62"/>
-      <c r="W49" s="62"/>
-      <c r="X49" s="62"/>
-      <c r="AB49" s="62"/>
-      <c r="AMH49" s="62"/>
-      <c r="AMI49" s="62"/>
-      <c r="AMJ49" s="62"/>
-      <c r="AMK49" s="62"/>
-      <c r="AML49" s="62"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
+      <c r="T49" s="65"/>
+      <c r="V49" s="65"/>
+      <c r="W49" s="65"/>
+      <c r="X49" s="65"/>
+      <c r="AB49" s="65"/>
+      <c r="AMH49" s="65"/>
+      <c r="AMI49" s="65"/>
+      <c r="AMJ49" s="65"/>
+      <c r="AMK49" s="65"/>
+      <c r="AML49" s="65"/>
     </row>
     <row r="50" s="0" customFormat="1" ht="12.75">
       <c r="A50" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s">
         <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D50" s="3"/>
-      <c r="E50" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>341</v>
+      <c r="E50" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>345</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -6526,7 +6572,7 @@
       <c r="T50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-      <c r="X50" s="64"/>
+      <c r="X50" s="67"/>
       <c r="AA50" t="s">
         <v>132</v>
       </c>
@@ -6538,20 +6584,20 @@
     </row>
     <row r="51" s="0" customFormat="1" ht="12.75">
       <c r="A51" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s">
         <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>345</v>
+      <c r="E51" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>349</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -6572,7 +6618,7 @@
       <c r="T51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-      <c r="X51" s="64"/>
+      <c r="X51" s="67"/>
       <c r="AA51" t="s">
         <v>132</v>
       </c>
@@ -6584,20 +6630,20 @@
     </row>
     <row r="52" s="0" customFormat="1" ht="12.75">
       <c r="A52" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s">
         <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>349</v>
+      <c r="E52" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>353</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -6605,10 +6651,10 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M52" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -6618,7 +6664,7 @@
       <c r="T52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-      <c r="X52" s="64"/>
+      <c r="X52" s="67"/>
       <c r="AA52" t="s">
         <v>132</v>
       </c>
@@ -6630,20 +6676,20 @@
     </row>
     <row r="53" s="0" customFormat="1" ht="12.75">
       <c r="A53" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s">
         <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="F53" s="35" t="s">
-        <v>353</v>
+      <c r="E53" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>357</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -6651,10 +6697,10 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M53" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
@@ -6664,9 +6710,9 @@
       <c r="T53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-      <c r="X53" s="64"/>
-      <c r="Y53" s="66" t="s">
-        <v>241</v>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="69" t="s">
+        <v>244</v>
       </c>
       <c r="AA53" t="s">
         <v>132</v>
@@ -6679,20 +6725,20 @@
     </row>
     <row r="54" s="0" customFormat="1" ht="12.75">
       <c r="A54" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B54" t="s">
         <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D54" s="3"/>
-      <c r="E54" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>357</v>
+      <c r="E54" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>361</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -6700,10 +6746,10 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M54" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
@@ -6713,7 +6759,7 @@
       <c r="T54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-      <c r="X54" s="64"/>
+      <c r="X54" s="67"/>
       <c r="AA54" t="s">
         <v>132</v>
       </c>
@@ -6725,35 +6771,35 @@
     </row>
     <row r="55" ht="13.5">
       <c r="A55" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="67" t="s">
-        <v>347</v>
+      <c r="C55" s="70" t="s">
+        <v>351</v>
       </c>
       <c r="E55" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F55" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="41"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="44"/>
       <c r="L55" t="s">
         <v>108</v>
       </c>
       <c r="N55" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
-      <c r="X55" s="64" t="s">
-        <v>276</v>
+      <c r="X55" s="67" t="s">
+        <v>279</v>
       </c>
       <c r="AB55" t="b">
         <v>1</v>
@@ -6761,51 +6807,51 @@
     </row>
     <row r="56" ht="12.75">
       <c r="B56" s="12"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="41"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="44"/>
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
     </row>
-    <row r="57" s="62" customFormat="1" ht="12.75">
-      <c r="A57" s="62" t="s">
+    <row r="57" s="65" customFormat="1" ht="12.75">
+      <c r="A57" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="62"/>
-      <c r="Q57" s="62"/>
-      <c r="R57" s="62"/>
-      <c r="S57" s="62"/>
-      <c r="T57" s="62"/>
-      <c r="V57" s="62"/>
-      <c r="W57" s="62"/>
-      <c r="X57" s="62"/>
-      <c r="AMH57" s="62"/>
-      <c r="AMI57" s="62"/>
-      <c r="AMJ57" s="62"/>
-      <c r="AMK57" s="62"/>
-      <c r="AML57" s="62"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="V57" s="65"/>
+      <c r="W57" s="65"/>
+      <c r="X57" s="65"/>
+      <c r="AMH57" s="65"/>
+      <c r="AMI57" s="65"/>
+      <c r="AMJ57" s="65"/>
+      <c r="AMK57" s="65"/>
+      <c r="AML57" s="65"/>
     </row>
     <row r="58" ht="12.75">
       <c r="A58" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B58" t="s">
         <v>123</v>
@@ -6813,19 +6859,19 @@
       <c r="C58" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="F58" s="63" t="s">
-        <v>235</v>
+      <c r="E58" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="F58" s="66" t="s">
+        <v>238</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="40">
+      <c r="I58" s="42"/>
+      <c r="J58" s="43">
         <v>1</v>
       </c>
-      <c r="K58" s="41">
+      <c r="K58" s="44">
         <v>1</v>
       </c>
       <c r="L58" t="s">
@@ -6837,30 +6883,30 @@
     </row>
     <row r="59" s="0" customFormat="1" ht="12.75">
       <c r="A59" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B59" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="65" t="s">
-        <v>351</v>
+      <c r="C59" s="68" t="s">
+        <v>355</v>
       </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>353</v>
+      <c r="E59" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>357</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="L59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M59" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
@@ -6869,9 +6915,9 @@
       <c r="T59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-      <c r="X59" s="64"/>
-      <c r="Y59" s="66" t="s">
-        <v>241</v>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="69" t="s">
+        <v>244</v>
       </c>
       <c r="AA59" t="s">
         <v>132</v>
@@ -6884,20 +6930,20 @@
     </row>
     <row r="60" s="0" customFormat="1" ht="12.75">
       <c r="A60" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B60" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="65" t="s">
-        <v>368</v>
+      <c r="C60" s="68" t="s">
+        <v>372</v>
       </c>
       <c r="D60" s="3"/>
-      <c r="E60" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="F60" s="35" t="s">
-        <v>370</v>
+      <c r="E60" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>374</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -6916,8 +6962,8 @@
       <c r="T60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-      <c r="X60" s="64" t="s">
-        <v>268</v>
+      <c r="X60" s="67" t="s">
+        <v>271</v>
       </c>
       <c r="AMH60" s="3"/>
       <c r="AMI60" s="3"/>
@@ -6927,20 +6973,20 @@
     </row>
     <row r="61" s="0" customFormat="1" ht="12.75">
       <c r="A61" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B61" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="65" t="s">
-        <v>372</v>
+      <c r="C61" s="68" t="s">
+        <v>376</v>
       </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="F61" s="35" t="s">
-        <v>374</v>
+      <c r="E61" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>378</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -6950,10 +6996,10 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M61" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
@@ -6962,7 +7008,7 @@
       <c r="T61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-      <c r="X61" s="64"/>
+      <c r="X61" s="67"/>
       <c r="AA61" t="s">
         <v>132</v>
       </c>
@@ -6974,20 +7020,20 @@
     </row>
     <row r="62" s="0" customFormat="1" ht="12.75">
       <c r="A62" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="65" t="s">
-        <v>376</v>
+      <c r="C62" s="68" t="s">
+        <v>380</v>
       </c>
       <c r="D62" s="3"/>
-      <c r="E62" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>378</v>
+      <c r="E62" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>382</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -6997,10 +7043,10 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
@@ -7009,7 +7055,7 @@
       <c r="T62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-      <c r="X62" s="64"/>
+      <c r="X62" s="67"/>
       <c r="AA62" t="s">
         <v>132</v>
       </c>
@@ -7021,20 +7067,20 @@
     </row>
     <row r="63" s="0" customFormat="1" ht="12.75">
       <c r="A63" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B63" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="65" t="s">
-        <v>380</v>
+      <c r="C63" s="68" t="s">
+        <v>384</v>
       </c>
       <c r="D63" s="3"/>
-      <c r="E63" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>382</v>
+      <c r="E63" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>386</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -7044,10 +7090,10 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M63" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
@@ -7056,7 +7102,7 @@
       <c r="T63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-      <c r="X63" s="64"/>
+      <c r="X63" s="67"/>
       <c r="AA63" t="s">
         <v>132</v>
       </c>
@@ -7067,1246 +7113,1246 @@
       <c r="AML63" s="3"/>
     </row>
     <row r="64" ht="13.5">
-      <c r="A64" s="35" t="s">
-        <v>383</v>
+      <c r="A64" s="38" t="s">
+        <v>387</v>
       </c>
       <c r="B64" t="s">
         <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E64" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F64" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="41">
+      <c r="I64" s="42"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="44">
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M64" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N64" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
-      <c r="X64" s="64" t="s">
-        <v>273</v>
+      <c r="X64" s="67" t="s">
+        <v>276</v>
       </c>
       <c r="Z64" s="12" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" ht="13.5">
-      <c r="A65" s="35" t="s">
-        <v>388</v>
+      <c r="A65" s="38" t="s">
+        <v>392</v>
       </c>
       <c r="B65" t="s">
         <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E65" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F65" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="41">
+      <c r="I65" s="42"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="44">
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M65" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N65" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
-      <c r="X65" s="64" t="s">
-        <v>273</v>
+      <c r="X65" s="67" t="s">
+        <v>276</v>
       </c>
       <c r="Z65" s="12" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="66" ht="13.5">
-      <c r="A66" s="35" t="s">
-        <v>390</v>
+      <c r="A66" s="38" t="s">
+        <v>394</v>
       </c>
       <c r="B66" t="s">
         <v>123</v>
       </c>
       <c r="C66" t="s">
+        <v>395</v>
+      </c>
+      <c r="E66" t="s">
+        <v>269</v>
+      </c>
+      <c r="F66" t="s">
+        <v>270</v>
+      </c>
+      <c r="K66" s="44">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>136</v>
+      </c>
+      <c r="M66" t="s">
+        <v>243</v>
+      </c>
+      <c r="N66" t="s">
+        <v>159</v>
+      </c>
+      <c r="X66" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z66" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="E66" t="s">
-        <v>266</v>
-      </c>
-      <c r="F66" t="s">
-        <v>267</v>
-      </c>
-      <c r="K66" s="41">
-        <v>1</v>
-      </c>
-      <c r="L66" t="s">
-        <v>135</v>
-      </c>
-      <c r="M66" t="s">
-        <v>240</v>
-      </c>
-      <c r="N66" t="s">
-        <v>156</v>
-      </c>
-      <c r="X66" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z66" s="12" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="67" ht="13.5">
-      <c r="A67" s="35" t="s">
-        <v>392</v>
+      <c r="A67" s="38" t="s">
+        <v>396</v>
       </c>
       <c r="B67" t="s">
         <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E67" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F67" t="s">
-        <v>394</v>
-      </c>
-      <c r="J67" s="40">
+        <v>398</v>
+      </c>
+      <c r="J67" s="43">
         <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M67" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N67" t="s">
-        <v>158</v>
-      </c>
-      <c r="X67" s="64" t="s">
-        <v>395</v>
+        <v>161</v>
+      </c>
+      <c r="X67" s="67" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="68" ht="12.75"/>
     <row r="69" ht="12.75">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="B69" s="68"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="70"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="62"/>
-      <c r="M69" s="62"/>
-      <c r="N69" s="62"/>
-      <c r="O69" s="62"/>
-      <c r="P69" s="62"/>
-      <c r="Q69" s="62"/>
-      <c r="R69" s="62"/>
-      <c r="S69" s="62"/>
-      <c r="T69" s="62"/>
-      <c r="U69" s="62"/>
-      <c r="V69" s="68"/>
-      <c r="W69" s="68"/>
-      <c r="X69" s="62"/>
-      <c r="Y69" s="62"/>
-      <c r="Z69" s="62"/>
-      <c r="AA69" s="62"/>
-      <c r="AB69" s="62"/>
-      <c r="AC69" s="62"/>
-      <c r="AD69" s="62"/>
-      <c r="AE69" s="62"/>
-      <c r="AF69" s="62"/>
-      <c r="AG69" s="62"/>
-      <c r="AH69" s="62"/>
-      <c r="AI69" s="62"/>
-      <c r="AJ69" s="62"/>
-      <c r="AK69" s="62"/>
-      <c r="AL69" s="62"/>
-      <c r="AM69" s="62"/>
-      <c r="AN69" s="62"/>
-      <c r="AO69" s="62"/>
-      <c r="AP69" s="62"/>
-      <c r="AQ69" s="62"/>
-      <c r="AR69" s="62"/>
-      <c r="AS69" s="62"/>
-      <c r="AT69" s="62"/>
-      <c r="AU69" s="62"/>
-      <c r="AV69" s="62"/>
-      <c r="AW69" s="62"/>
-      <c r="AX69" s="62"/>
-      <c r="AY69" s="62"/>
-      <c r="AZ69" s="62"/>
-      <c r="BA69" s="62"/>
-      <c r="BB69" s="62"/>
-      <c r="BC69" s="62"/>
-      <c r="BD69" s="62"/>
-      <c r="BE69" s="62"/>
-      <c r="BF69" s="62"/>
-      <c r="BG69" s="62"/>
-      <c r="BH69" s="62"/>
-      <c r="BI69" s="62"/>
-      <c r="BJ69" s="62"/>
-      <c r="BK69" s="62"/>
-      <c r="BL69" s="62"/>
-      <c r="BM69" s="62"/>
-      <c r="BN69" s="62"/>
-      <c r="BO69" s="62"/>
-      <c r="BP69" s="62"/>
-      <c r="BQ69" s="62"/>
-      <c r="BR69" s="62"/>
-      <c r="BS69" s="62"/>
-      <c r="BT69" s="62"/>
-      <c r="BU69" s="62"/>
-      <c r="BV69" s="62"/>
-      <c r="BW69" s="62"/>
-      <c r="BX69" s="62"/>
-      <c r="BY69" s="62"/>
-      <c r="BZ69" s="62"/>
-      <c r="CA69" s="62"/>
-      <c r="CB69" s="62"/>
-      <c r="CC69" s="62"/>
-      <c r="CD69" s="62"/>
-      <c r="CE69" s="62"/>
-      <c r="CF69" s="62"/>
-      <c r="CG69" s="62"/>
-      <c r="CH69" s="62"/>
-      <c r="CI69" s="62"/>
-      <c r="CJ69" s="62"/>
-      <c r="CK69" s="62"/>
-      <c r="CL69" s="62"/>
-      <c r="CM69" s="62"/>
-      <c r="CN69" s="62"/>
-      <c r="CO69" s="62"/>
-      <c r="CP69" s="62"/>
-      <c r="CQ69" s="62"/>
-      <c r="CR69" s="62"/>
-      <c r="CS69" s="62"/>
-      <c r="CT69" s="62"/>
-      <c r="CU69" s="62"/>
-      <c r="CV69" s="62"/>
-      <c r="CW69" s="62"/>
-      <c r="CX69" s="62"/>
-      <c r="CY69" s="62"/>
-      <c r="CZ69" s="62"/>
-      <c r="DA69" s="62"/>
-      <c r="DB69" s="62"/>
-      <c r="DC69" s="62"/>
-      <c r="DD69" s="62"/>
-      <c r="DE69" s="62"/>
-      <c r="DF69" s="62"/>
-      <c r="DG69" s="62"/>
-      <c r="DH69" s="62"/>
-      <c r="DI69" s="62"/>
-      <c r="DJ69" s="62"/>
-      <c r="DK69" s="62"/>
-      <c r="DL69" s="62"/>
-      <c r="DM69" s="62"/>
-      <c r="DN69" s="62"/>
-      <c r="DO69" s="62"/>
-      <c r="DP69" s="62"/>
-      <c r="DQ69" s="62"/>
-      <c r="DR69" s="62"/>
-      <c r="DS69" s="62"/>
-      <c r="DT69" s="62"/>
-      <c r="DU69" s="62"/>
-      <c r="DV69" s="62"/>
-      <c r="DW69" s="62"/>
-      <c r="DX69" s="62"/>
-      <c r="DY69" s="62"/>
-      <c r="DZ69" s="62"/>
-      <c r="EA69" s="62"/>
-      <c r="EB69" s="62"/>
-      <c r="EC69" s="62"/>
-      <c r="ED69" s="62"/>
-      <c r="EE69" s="62"/>
-      <c r="EF69" s="62"/>
-      <c r="EG69" s="62"/>
-      <c r="EH69" s="62"/>
-      <c r="EI69" s="62"/>
-      <c r="EJ69" s="62"/>
-      <c r="EK69" s="62"/>
-      <c r="EL69" s="62"/>
-      <c r="EM69" s="62"/>
-      <c r="EN69" s="62"/>
-      <c r="EO69" s="62"/>
-      <c r="EP69" s="62"/>
-      <c r="EQ69" s="62"/>
-      <c r="ER69" s="62"/>
-      <c r="ES69" s="62"/>
-      <c r="ET69" s="62"/>
-      <c r="EU69" s="62"/>
-      <c r="EV69" s="62"/>
-      <c r="EW69" s="62"/>
-      <c r="EX69" s="62"/>
-      <c r="EY69" s="62"/>
-      <c r="EZ69" s="62"/>
-      <c r="FA69" s="62"/>
-      <c r="FB69" s="62"/>
-      <c r="FC69" s="62"/>
-      <c r="FD69" s="62"/>
-      <c r="FE69" s="62"/>
-      <c r="FF69" s="62"/>
-      <c r="FG69" s="62"/>
-      <c r="FH69" s="62"/>
-      <c r="FI69" s="62"/>
-      <c r="FJ69" s="62"/>
-      <c r="FK69" s="62"/>
-      <c r="FL69" s="62"/>
-      <c r="FM69" s="62"/>
-      <c r="FN69" s="62"/>
-      <c r="FO69" s="62"/>
-      <c r="FP69" s="62"/>
-      <c r="FQ69" s="62"/>
-      <c r="FR69" s="62"/>
-      <c r="FS69" s="62"/>
-      <c r="FT69" s="62"/>
-      <c r="FU69" s="62"/>
-      <c r="FV69" s="62"/>
-      <c r="FW69" s="62"/>
-      <c r="FX69" s="62"/>
-      <c r="FY69" s="62"/>
-      <c r="FZ69" s="62"/>
-      <c r="GA69" s="62"/>
-      <c r="GB69" s="62"/>
-      <c r="GC69" s="62"/>
-      <c r="GD69" s="62"/>
-      <c r="GE69" s="62"/>
-      <c r="GF69" s="62"/>
-      <c r="GG69" s="62"/>
-      <c r="GH69" s="62"/>
-      <c r="GI69" s="62"/>
-      <c r="GJ69" s="62"/>
-      <c r="GK69" s="62"/>
-      <c r="GL69" s="62"/>
-      <c r="GM69" s="62"/>
-      <c r="GN69" s="62"/>
-      <c r="GO69" s="62"/>
-      <c r="GP69" s="62"/>
-      <c r="GQ69" s="62"/>
-      <c r="GR69" s="62"/>
-      <c r="GS69" s="62"/>
-      <c r="GT69" s="62"/>
-      <c r="GU69" s="62"/>
-      <c r="GV69" s="62"/>
-      <c r="GW69" s="62"/>
-      <c r="GX69" s="62"/>
-      <c r="GY69" s="62"/>
-      <c r="GZ69" s="62"/>
-      <c r="HA69" s="62"/>
-      <c r="HB69" s="62"/>
-      <c r="HC69" s="62"/>
-      <c r="HD69" s="62"/>
-      <c r="HE69" s="62"/>
-      <c r="HF69" s="62"/>
-      <c r="HG69" s="62"/>
-      <c r="HH69" s="62"/>
-      <c r="HI69" s="62"/>
-      <c r="HJ69" s="62"/>
-      <c r="HK69" s="62"/>
-      <c r="HL69" s="62"/>
-      <c r="HM69" s="62"/>
-      <c r="HN69" s="62"/>
-      <c r="HO69" s="62"/>
-      <c r="HP69" s="62"/>
-      <c r="HQ69" s="62"/>
-      <c r="HR69" s="62"/>
-      <c r="HS69" s="62"/>
-      <c r="HT69" s="62"/>
-      <c r="HU69" s="62"/>
-      <c r="HV69" s="62"/>
-      <c r="HW69" s="62"/>
-      <c r="HX69" s="62"/>
-      <c r="HY69" s="62"/>
-      <c r="HZ69" s="62"/>
-      <c r="IA69" s="62"/>
-      <c r="IB69" s="62"/>
-      <c r="IC69" s="62"/>
-      <c r="ID69" s="62"/>
-      <c r="IE69" s="62"/>
-      <c r="IF69" s="62"/>
-      <c r="IG69" s="62"/>
-      <c r="IH69" s="62"/>
-      <c r="II69" s="62"/>
-      <c r="IJ69" s="62"/>
-      <c r="IK69" s="62"/>
-      <c r="IL69" s="62"/>
-      <c r="IM69" s="62"/>
-      <c r="IN69" s="62"/>
-      <c r="IO69" s="62"/>
-      <c r="IP69" s="62"/>
-      <c r="IQ69" s="62"/>
-      <c r="IR69" s="62"/>
-      <c r="IS69" s="62"/>
-      <c r="IT69" s="62"/>
-      <c r="IU69" s="62"/>
-      <c r="IV69" s="62"/>
-      <c r="IW69" s="62"/>
-      <c r="IX69" s="62"/>
-      <c r="IY69" s="62"/>
-      <c r="IZ69" s="62"/>
-      <c r="JA69" s="62"/>
-      <c r="JB69" s="62"/>
-      <c r="JC69" s="62"/>
-      <c r="JD69" s="62"/>
-      <c r="JE69" s="62"/>
-      <c r="JF69" s="62"/>
-      <c r="JG69" s="62"/>
-      <c r="JH69" s="62"/>
-      <c r="JI69" s="62"/>
-      <c r="JJ69" s="62"/>
-      <c r="JK69" s="62"/>
-      <c r="JL69" s="62"/>
-      <c r="JM69" s="62"/>
-      <c r="JN69" s="62"/>
-      <c r="JO69" s="62"/>
-      <c r="JP69" s="62"/>
-      <c r="JQ69" s="62"/>
-      <c r="JR69" s="62"/>
-      <c r="JS69" s="62"/>
-      <c r="JT69" s="62"/>
-      <c r="JU69" s="62"/>
-      <c r="JV69" s="62"/>
-      <c r="JW69" s="62"/>
-      <c r="JX69" s="62"/>
-      <c r="JY69" s="62"/>
-      <c r="JZ69" s="62"/>
-      <c r="KA69" s="62"/>
-      <c r="KB69" s="62"/>
-      <c r="KC69" s="62"/>
-      <c r="KD69" s="62"/>
-      <c r="KE69" s="62"/>
-      <c r="KF69" s="62"/>
-      <c r="KG69" s="62"/>
-      <c r="KH69" s="62"/>
-      <c r="KI69" s="62"/>
-      <c r="KJ69" s="62"/>
-      <c r="KK69" s="62"/>
-      <c r="KL69" s="62"/>
-      <c r="KM69" s="62"/>
-      <c r="KN69" s="62"/>
-      <c r="KO69" s="62"/>
-      <c r="KP69" s="62"/>
-      <c r="KQ69" s="62"/>
-      <c r="KR69" s="62"/>
-      <c r="KS69" s="62"/>
-      <c r="KT69" s="62"/>
-      <c r="KU69" s="62"/>
-      <c r="KV69" s="62"/>
-      <c r="KW69" s="62"/>
-      <c r="KX69" s="62"/>
-      <c r="KY69" s="62"/>
-      <c r="KZ69" s="62"/>
-      <c r="LA69" s="62"/>
-      <c r="LB69" s="62"/>
-      <c r="LC69" s="62"/>
-      <c r="LD69" s="62"/>
-      <c r="LE69" s="62"/>
-      <c r="LF69" s="62"/>
-      <c r="LG69" s="62"/>
-      <c r="LH69" s="62"/>
-      <c r="LI69" s="62"/>
-      <c r="LJ69" s="62"/>
-      <c r="LK69" s="62"/>
-      <c r="LL69" s="62"/>
-      <c r="LM69" s="62"/>
-      <c r="LN69" s="62"/>
-      <c r="LO69" s="62"/>
-      <c r="LP69" s="62"/>
-      <c r="LQ69" s="62"/>
-      <c r="LR69" s="62"/>
-      <c r="LS69" s="62"/>
-      <c r="LT69" s="62"/>
-      <c r="LU69" s="62"/>
-      <c r="LV69" s="62"/>
-      <c r="LW69" s="62"/>
-      <c r="LX69" s="62"/>
-      <c r="LY69" s="62"/>
-      <c r="LZ69" s="62"/>
-      <c r="MA69" s="62"/>
-      <c r="MB69" s="62"/>
-      <c r="MC69" s="62"/>
-      <c r="MD69" s="62"/>
-      <c r="ME69" s="62"/>
-      <c r="MF69" s="62"/>
-      <c r="MG69" s="62"/>
-      <c r="MH69" s="62"/>
-      <c r="MI69" s="62"/>
-      <c r="MJ69" s="62"/>
-      <c r="MK69" s="62"/>
-      <c r="ML69" s="62"/>
-      <c r="MM69" s="62"/>
-      <c r="MN69" s="62"/>
-      <c r="MO69" s="62"/>
-      <c r="MP69" s="62"/>
-      <c r="MQ69" s="62"/>
-      <c r="MR69" s="62"/>
-      <c r="MS69" s="62"/>
-      <c r="MT69" s="62"/>
-      <c r="MU69" s="62"/>
-      <c r="MV69" s="62"/>
-      <c r="MW69" s="62"/>
-      <c r="MX69" s="62"/>
-      <c r="MY69" s="62"/>
-      <c r="MZ69" s="62"/>
-      <c r="NA69" s="62"/>
-      <c r="NB69" s="62"/>
-      <c r="NC69" s="62"/>
-      <c r="ND69" s="62"/>
-      <c r="NE69" s="62"/>
-      <c r="NF69" s="62"/>
-      <c r="NG69" s="62"/>
-      <c r="NH69" s="62"/>
-      <c r="NI69" s="62"/>
-      <c r="NJ69" s="62"/>
-      <c r="NK69" s="62"/>
-      <c r="NL69" s="62"/>
-      <c r="NM69" s="62"/>
-      <c r="NN69" s="62"/>
-      <c r="NO69" s="62"/>
-      <c r="NP69" s="62"/>
-      <c r="NQ69" s="62"/>
-      <c r="NR69" s="62"/>
-      <c r="NS69" s="62"/>
-      <c r="NT69" s="62"/>
-      <c r="NU69" s="62"/>
-      <c r="NV69" s="62"/>
-      <c r="NW69" s="62"/>
-      <c r="NX69" s="62"/>
-      <c r="NY69" s="62"/>
-      <c r="NZ69" s="62"/>
-      <c r="OA69" s="62"/>
-      <c r="OB69" s="62"/>
-      <c r="OC69" s="62"/>
-      <c r="OD69" s="62"/>
-      <c r="OE69" s="62"/>
-      <c r="OF69" s="62"/>
-      <c r="OG69" s="62"/>
-      <c r="OH69" s="62"/>
-      <c r="OI69" s="62"/>
-      <c r="OJ69" s="62"/>
-      <c r="OK69" s="62"/>
-      <c r="OL69" s="62"/>
-      <c r="OM69" s="62"/>
-      <c r="ON69" s="62"/>
-      <c r="OO69" s="62"/>
-      <c r="OP69" s="62"/>
-      <c r="OQ69" s="62"/>
-      <c r="OR69" s="62"/>
-      <c r="OS69" s="62"/>
-      <c r="OT69" s="62"/>
-      <c r="OU69" s="62"/>
-      <c r="OV69" s="62"/>
-      <c r="OW69" s="62"/>
-      <c r="OX69" s="62"/>
-      <c r="OY69" s="62"/>
-      <c r="OZ69" s="62"/>
-      <c r="PA69" s="62"/>
-      <c r="PB69" s="62"/>
-      <c r="PC69" s="62"/>
-      <c r="PD69" s="62"/>
-      <c r="PE69" s="62"/>
-      <c r="PF69" s="62"/>
-      <c r="PG69" s="62"/>
-      <c r="PH69" s="62"/>
-      <c r="PI69" s="62"/>
-      <c r="PJ69" s="62"/>
-      <c r="PK69" s="62"/>
-      <c r="PL69" s="62"/>
-      <c r="PM69" s="62"/>
-      <c r="PN69" s="62"/>
-      <c r="PO69" s="62"/>
-      <c r="PP69" s="62"/>
-      <c r="PQ69" s="62"/>
-      <c r="PR69" s="62"/>
-      <c r="PS69" s="62"/>
-      <c r="PT69" s="62"/>
-      <c r="PU69" s="62"/>
-      <c r="PV69" s="62"/>
-      <c r="PW69" s="62"/>
-      <c r="PX69" s="62"/>
-      <c r="PY69" s="62"/>
-      <c r="PZ69" s="62"/>
-      <c r="QA69" s="62"/>
-      <c r="QB69" s="62"/>
-      <c r="QC69" s="62"/>
-      <c r="QD69" s="62"/>
-      <c r="QE69" s="62"/>
-      <c r="QF69" s="62"/>
-      <c r="QG69" s="62"/>
-      <c r="QH69" s="62"/>
-      <c r="QI69" s="62"/>
-      <c r="QJ69" s="62"/>
-      <c r="QK69" s="62"/>
-      <c r="QL69" s="62"/>
-      <c r="QM69" s="62"/>
-      <c r="QN69" s="62"/>
-      <c r="QO69" s="62"/>
-      <c r="QP69" s="62"/>
-      <c r="QQ69" s="62"/>
-      <c r="QR69" s="62"/>
-      <c r="QS69" s="62"/>
-      <c r="QT69" s="62"/>
-      <c r="QU69" s="62"/>
-      <c r="QV69" s="62"/>
-      <c r="QW69" s="62"/>
-      <c r="QX69" s="62"/>
-      <c r="QY69" s="62"/>
-      <c r="QZ69" s="62"/>
-      <c r="RA69" s="62"/>
-      <c r="RB69" s="62"/>
-      <c r="RC69" s="62"/>
-      <c r="RD69" s="62"/>
-      <c r="RE69" s="62"/>
-      <c r="RF69" s="62"/>
-      <c r="RG69" s="62"/>
-      <c r="RH69" s="62"/>
-      <c r="RI69" s="62"/>
-      <c r="RJ69" s="62"/>
-      <c r="RK69" s="62"/>
-      <c r="RL69" s="62"/>
-      <c r="RM69" s="62"/>
-      <c r="RN69" s="62"/>
-      <c r="RO69" s="62"/>
-      <c r="RP69" s="62"/>
-      <c r="RQ69" s="62"/>
-      <c r="RR69" s="62"/>
-      <c r="RS69" s="62"/>
-      <c r="RT69" s="62"/>
-      <c r="RU69" s="62"/>
-      <c r="RV69" s="62"/>
-      <c r="RW69" s="62"/>
-      <c r="RX69" s="62"/>
-      <c r="RY69" s="62"/>
-      <c r="RZ69" s="62"/>
-      <c r="SA69" s="62"/>
-      <c r="SB69" s="62"/>
-      <c r="SC69" s="62"/>
-      <c r="SD69" s="62"/>
-      <c r="SE69" s="62"/>
-      <c r="SF69" s="62"/>
-      <c r="SG69" s="62"/>
-      <c r="SH69" s="62"/>
-      <c r="SI69" s="62"/>
-      <c r="SJ69" s="62"/>
-      <c r="SK69" s="62"/>
-      <c r="SL69" s="62"/>
-      <c r="SM69" s="62"/>
-      <c r="SN69" s="62"/>
-      <c r="SO69" s="62"/>
-      <c r="SP69" s="62"/>
-      <c r="SQ69" s="62"/>
-      <c r="SR69" s="62"/>
-      <c r="SS69" s="62"/>
-      <c r="ST69" s="62"/>
-      <c r="SU69" s="62"/>
-      <c r="SV69" s="62"/>
-      <c r="SW69" s="62"/>
-      <c r="SX69" s="62"/>
-      <c r="SY69" s="62"/>
-      <c r="SZ69" s="62"/>
-      <c r="TA69" s="62"/>
-      <c r="TB69" s="62"/>
-      <c r="TC69" s="62"/>
-      <c r="TD69" s="62"/>
-      <c r="TE69" s="62"/>
-      <c r="TF69" s="62"/>
-      <c r="TG69" s="62"/>
-      <c r="TH69" s="62"/>
-      <c r="TI69" s="62"/>
-      <c r="TJ69" s="62"/>
-      <c r="TK69" s="62"/>
-      <c r="TL69" s="62"/>
-      <c r="TM69" s="62"/>
-      <c r="TN69" s="62"/>
-      <c r="TO69" s="62"/>
-      <c r="TP69" s="62"/>
-      <c r="TQ69" s="62"/>
-      <c r="TR69" s="62"/>
-      <c r="TS69" s="62"/>
-      <c r="TT69" s="62"/>
-      <c r="TU69" s="62"/>
-      <c r="TV69" s="62"/>
-      <c r="TW69" s="62"/>
-      <c r="TX69" s="62"/>
-      <c r="TY69" s="62"/>
-      <c r="TZ69" s="62"/>
-      <c r="UA69" s="62"/>
-      <c r="UB69" s="62"/>
-      <c r="UC69" s="62"/>
-      <c r="UD69" s="62"/>
-      <c r="UE69" s="62"/>
-      <c r="UF69" s="62"/>
-      <c r="UG69" s="62"/>
-      <c r="UH69" s="62"/>
-      <c r="UI69" s="62"/>
-      <c r="UJ69" s="62"/>
-      <c r="UK69" s="62"/>
-      <c r="UL69" s="62"/>
-      <c r="UM69" s="62"/>
-      <c r="UN69" s="62"/>
-      <c r="UO69" s="62"/>
-      <c r="UP69" s="62"/>
-      <c r="UQ69" s="62"/>
-      <c r="UR69" s="62"/>
-      <c r="US69" s="62"/>
-      <c r="UT69" s="62"/>
-      <c r="UU69" s="62"/>
-      <c r="UV69" s="62"/>
-      <c r="UW69" s="62"/>
-      <c r="UX69" s="62"/>
-      <c r="UY69" s="62"/>
-      <c r="UZ69" s="62"/>
-      <c r="VA69" s="62"/>
-      <c r="VB69" s="62"/>
-      <c r="VC69" s="62"/>
-      <c r="VD69" s="62"/>
-      <c r="VE69" s="62"/>
-      <c r="VF69" s="62"/>
-      <c r="VG69" s="62"/>
-      <c r="VH69" s="62"/>
-      <c r="VI69" s="62"/>
-      <c r="VJ69" s="62"/>
-      <c r="VK69" s="62"/>
-      <c r="VL69" s="62"/>
-      <c r="VM69" s="62"/>
-      <c r="VN69" s="62"/>
-      <c r="VO69" s="62"/>
-      <c r="VP69" s="62"/>
-      <c r="VQ69" s="62"/>
-      <c r="VR69" s="62"/>
-      <c r="VS69" s="62"/>
-      <c r="VT69" s="62"/>
-      <c r="VU69" s="62"/>
-      <c r="VV69" s="62"/>
-      <c r="VW69" s="62"/>
-      <c r="VX69" s="62"/>
-      <c r="VY69" s="62"/>
-      <c r="VZ69" s="62"/>
-      <c r="WA69" s="62"/>
-      <c r="WB69" s="62"/>
-      <c r="WC69" s="62"/>
-      <c r="WD69" s="62"/>
-      <c r="WE69" s="62"/>
-      <c r="WF69" s="62"/>
-      <c r="WG69" s="62"/>
-      <c r="WH69" s="62"/>
-      <c r="WI69" s="62"/>
-      <c r="WJ69" s="62"/>
-      <c r="WK69" s="62"/>
-      <c r="WL69" s="62"/>
-      <c r="WM69" s="62"/>
-      <c r="WN69" s="62"/>
-      <c r="WO69" s="62"/>
-      <c r="WP69" s="62"/>
-      <c r="WQ69" s="62"/>
-      <c r="WR69" s="62"/>
-      <c r="WS69" s="62"/>
-      <c r="WT69" s="62"/>
-      <c r="WU69" s="62"/>
-      <c r="WV69" s="62"/>
-      <c r="WW69" s="62"/>
-      <c r="WX69" s="62"/>
-      <c r="WY69" s="62"/>
-      <c r="WZ69" s="62"/>
-      <c r="XA69" s="62"/>
-      <c r="XB69" s="62"/>
-      <c r="XC69" s="62"/>
-      <c r="XD69" s="62"/>
-      <c r="XE69" s="62"/>
-      <c r="XF69" s="62"/>
-      <c r="XG69" s="62"/>
-      <c r="XH69" s="62"/>
-      <c r="XI69" s="62"/>
-      <c r="XJ69" s="62"/>
-      <c r="XK69" s="62"/>
-      <c r="XL69" s="62"/>
-      <c r="XM69" s="62"/>
-      <c r="XN69" s="62"/>
-      <c r="XO69" s="62"/>
-      <c r="XP69" s="62"/>
-      <c r="XQ69" s="62"/>
-      <c r="XR69" s="62"/>
-      <c r="XS69" s="62"/>
-      <c r="XT69" s="62"/>
-      <c r="XU69" s="62"/>
-      <c r="XV69" s="62"/>
-      <c r="XW69" s="62"/>
-      <c r="XX69" s="62"/>
-      <c r="XY69" s="62"/>
-      <c r="XZ69" s="62"/>
-      <c r="YA69" s="62"/>
-      <c r="YB69" s="62"/>
-      <c r="YC69" s="62"/>
-      <c r="YD69" s="62"/>
-      <c r="YE69" s="62"/>
-      <c r="YF69" s="62"/>
-      <c r="YG69" s="62"/>
-      <c r="YH69" s="62"/>
-      <c r="YI69" s="62"/>
-      <c r="YJ69" s="62"/>
-      <c r="YK69" s="62"/>
-      <c r="YL69" s="62"/>
-      <c r="YM69" s="62"/>
-      <c r="YN69" s="62"/>
-      <c r="YO69" s="62"/>
-      <c r="YP69" s="62"/>
-      <c r="YQ69" s="62"/>
-      <c r="YR69" s="62"/>
-      <c r="YS69" s="62"/>
-      <c r="YT69" s="62"/>
-      <c r="YU69" s="62"/>
-      <c r="YV69" s="62"/>
-      <c r="YW69" s="62"/>
-      <c r="YX69" s="62"/>
-      <c r="YY69" s="62"/>
-      <c r="YZ69" s="62"/>
-      <c r="ZA69" s="62"/>
-      <c r="ZB69" s="62"/>
-      <c r="ZC69" s="62"/>
-      <c r="ZD69" s="62"/>
-      <c r="ZE69" s="62"/>
-      <c r="ZF69" s="62"/>
-      <c r="ZG69" s="62"/>
-      <c r="ZH69" s="62"/>
-      <c r="ZI69" s="62"/>
-      <c r="ZJ69" s="62"/>
-      <c r="ZK69" s="62"/>
-      <c r="ZL69" s="62"/>
-      <c r="ZM69" s="62"/>
-      <c r="ZN69" s="62"/>
-      <c r="ZO69" s="62"/>
-      <c r="ZP69" s="62"/>
-      <c r="ZQ69" s="62"/>
-      <c r="ZR69" s="62"/>
-      <c r="ZS69" s="62"/>
-      <c r="ZT69" s="62"/>
-      <c r="ZU69" s="62"/>
-      <c r="ZV69" s="62"/>
-      <c r="ZW69" s="62"/>
-      <c r="ZX69" s="62"/>
-      <c r="ZY69" s="62"/>
-      <c r="ZZ69" s="62"/>
-      <c r="AAA69" s="62"/>
-      <c r="AAB69" s="62"/>
-      <c r="AAC69" s="62"/>
-      <c r="AAD69" s="62"/>
-      <c r="AAE69" s="62"/>
-      <c r="AAF69" s="62"/>
-      <c r="AAG69" s="62"/>
-      <c r="AAH69" s="62"/>
-      <c r="AAI69" s="62"/>
-      <c r="AAJ69" s="62"/>
-      <c r="AAK69" s="62"/>
-      <c r="AAL69" s="62"/>
-      <c r="AAM69" s="62"/>
-      <c r="AAN69" s="62"/>
-      <c r="AAO69" s="62"/>
-      <c r="AAP69" s="62"/>
-      <c r="AAQ69" s="62"/>
-      <c r="AAR69" s="62"/>
-      <c r="AAS69" s="62"/>
-      <c r="AAT69" s="62"/>
-      <c r="AAU69" s="62"/>
-      <c r="AAV69" s="62"/>
-      <c r="AAW69" s="62"/>
-      <c r="AAX69" s="62"/>
-      <c r="AAY69" s="62"/>
-      <c r="AAZ69" s="62"/>
-      <c r="ABA69" s="62"/>
-      <c r="ABB69" s="62"/>
-      <c r="ABC69" s="62"/>
-      <c r="ABD69" s="62"/>
-      <c r="ABE69" s="62"/>
-      <c r="ABF69" s="62"/>
-      <c r="ABG69" s="62"/>
-      <c r="ABH69" s="62"/>
-      <c r="ABI69" s="62"/>
-      <c r="ABJ69" s="62"/>
-      <c r="ABK69" s="62"/>
-      <c r="ABL69" s="62"/>
-      <c r="ABM69" s="62"/>
-      <c r="ABN69" s="62"/>
-      <c r="ABO69" s="62"/>
-      <c r="ABP69" s="62"/>
-      <c r="ABQ69" s="62"/>
-      <c r="ABR69" s="62"/>
-      <c r="ABS69" s="62"/>
-      <c r="ABT69" s="62"/>
-      <c r="ABU69" s="62"/>
-      <c r="ABV69" s="62"/>
-      <c r="ABW69" s="62"/>
-      <c r="ABX69" s="62"/>
-      <c r="ABY69" s="62"/>
-      <c r="ABZ69" s="62"/>
-      <c r="ACA69" s="62"/>
-      <c r="ACB69" s="62"/>
-      <c r="ACC69" s="62"/>
-      <c r="ACD69" s="62"/>
-      <c r="ACE69" s="62"/>
-      <c r="ACF69" s="62"/>
-      <c r="ACG69" s="62"/>
-      <c r="ACH69" s="62"/>
-      <c r="ACI69" s="62"/>
-      <c r="ACJ69" s="62"/>
-      <c r="ACK69" s="62"/>
-      <c r="ACL69" s="62"/>
-      <c r="ACM69" s="62"/>
-      <c r="ACN69" s="62"/>
-      <c r="ACO69" s="62"/>
-      <c r="ACP69" s="62"/>
-      <c r="ACQ69" s="62"/>
-      <c r="ACR69" s="62"/>
-      <c r="ACS69" s="62"/>
-      <c r="ACT69" s="62"/>
-      <c r="ACU69" s="62"/>
-      <c r="ACV69" s="62"/>
-      <c r="ACW69" s="62"/>
-      <c r="ACX69" s="62"/>
-      <c r="ACY69" s="62"/>
-      <c r="ACZ69" s="62"/>
-      <c r="ADA69" s="62"/>
-      <c r="ADB69" s="62"/>
-      <c r="ADC69" s="62"/>
-      <c r="ADD69" s="62"/>
-      <c r="ADE69" s="62"/>
-      <c r="ADF69" s="62"/>
-      <c r="ADG69" s="62"/>
-      <c r="ADH69" s="62"/>
-      <c r="ADI69" s="62"/>
-      <c r="ADJ69" s="62"/>
-      <c r="ADK69" s="62"/>
-      <c r="ADL69" s="62"/>
-      <c r="ADM69" s="62"/>
-      <c r="ADN69" s="62"/>
-      <c r="ADO69" s="62"/>
-      <c r="ADP69" s="62"/>
-      <c r="ADQ69" s="62"/>
-      <c r="ADR69" s="62"/>
-      <c r="ADS69" s="62"/>
-      <c r="ADT69" s="62"/>
-      <c r="ADU69" s="62"/>
-      <c r="ADV69" s="62"/>
-      <c r="ADW69" s="62"/>
-      <c r="ADX69" s="62"/>
-      <c r="ADY69" s="62"/>
-      <c r="ADZ69" s="62"/>
-      <c r="AEA69" s="62"/>
-      <c r="AEB69" s="62"/>
-      <c r="AEC69" s="62"/>
-      <c r="AED69" s="62"/>
-      <c r="AEE69" s="62"/>
-      <c r="AEF69" s="62"/>
-      <c r="AEG69" s="62"/>
-      <c r="AEH69" s="62"/>
-      <c r="AEI69" s="62"/>
-      <c r="AEJ69" s="62"/>
-      <c r="AEK69" s="62"/>
-      <c r="AEL69" s="62"/>
-      <c r="AEM69" s="62"/>
-      <c r="AEN69" s="62"/>
-      <c r="AEO69" s="62"/>
-      <c r="AEP69" s="62"/>
-      <c r="AEQ69" s="62"/>
-      <c r="AER69" s="62"/>
-      <c r="AES69" s="62"/>
-      <c r="AET69" s="62"/>
-      <c r="AEU69" s="62"/>
-      <c r="AEV69" s="62"/>
-      <c r="AEW69" s="62"/>
-      <c r="AEX69" s="62"/>
-      <c r="AEY69" s="62"/>
-      <c r="AEZ69" s="62"/>
-      <c r="AFA69" s="62"/>
-      <c r="AFB69" s="62"/>
-      <c r="AFC69" s="62"/>
-      <c r="AFD69" s="62"/>
-      <c r="AFE69" s="62"/>
-      <c r="AFF69" s="62"/>
-      <c r="AFG69" s="62"/>
-      <c r="AFH69" s="62"/>
-      <c r="AFI69" s="62"/>
-      <c r="AFJ69" s="62"/>
-      <c r="AFK69" s="62"/>
-      <c r="AFL69" s="62"/>
-      <c r="AFM69" s="62"/>
-      <c r="AFN69" s="62"/>
-      <c r="AFO69" s="62"/>
-      <c r="AFP69" s="62"/>
-      <c r="AFQ69" s="62"/>
-      <c r="AFR69" s="62"/>
-      <c r="AFS69" s="62"/>
-      <c r="AFT69" s="62"/>
-      <c r="AFU69" s="62"/>
-      <c r="AFV69" s="62"/>
-      <c r="AFW69" s="62"/>
-      <c r="AFX69" s="62"/>
-      <c r="AFY69" s="62"/>
-      <c r="AFZ69" s="62"/>
-      <c r="AGA69" s="62"/>
-      <c r="AGB69" s="62"/>
-      <c r="AGC69" s="62"/>
-      <c r="AGD69" s="62"/>
-      <c r="AGE69" s="62"/>
-      <c r="AGF69" s="62"/>
-      <c r="AGG69" s="62"/>
-      <c r="AGH69" s="62"/>
-      <c r="AGI69" s="62"/>
-      <c r="AGJ69" s="62"/>
-      <c r="AGK69" s="62"/>
-      <c r="AGL69" s="62"/>
-      <c r="AGM69" s="62"/>
-      <c r="AGN69" s="62"/>
-      <c r="AGO69" s="62"/>
-      <c r="AGP69" s="62"/>
-      <c r="AGQ69" s="62"/>
-      <c r="AGR69" s="62"/>
-      <c r="AGS69" s="62"/>
-      <c r="AGT69" s="62"/>
-      <c r="AGU69" s="62"/>
-      <c r="AGV69" s="62"/>
-      <c r="AGW69" s="62"/>
-      <c r="AGX69" s="62"/>
-      <c r="AGY69" s="62"/>
-      <c r="AGZ69" s="62"/>
-      <c r="AHA69" s="62"/>
-      <c r="AHB69" s="62"/>
-      <c r="AHC69" s="62"/>
-      <c r="AHD69" s="62"/>
-      <c r="AHE69" s="62"/>
-      <c r="AHF69" s="62"/>
-      <c r="AHG69" s="62"/>
-      <c r="AHH69" s="62"/>
-      <c r="AHI69" s="62"/>
-      <c r="AHJ69" s="62"/>
-      <c r="AHK69" s="62"/>
-      <c r="AHL69" s="62"/>
-      <c r="AHM69" s="62"/>
-      <c r="AHN69" s="62"/>
-      <c r="AHO69" s="62"/>
-      <c r="AHP69" s="62"/>
-      <c r="AHQ69" s="62"/>
-      <c r="AHR69" s="62"/>
-      <c r="AHS69" s="62"/>
-      <c r="AHT69" s="62"/>
-      <c r="AHU69" s="62"/>
-      <c r="AHV69" s="62"/>
-      <c r="AHW69" s="62"/>
-      <c r="AHX69" s="62"/>
-      <c r="AHY69" s="62"/>
-      <c r="AHZ69" s="62"/>
-      <c r="AIA69" s="62"/>
-      <c r="AIB69" s="62"/>
-      <c r="AIC69" s="62"/>
-      <c r="AID69" s="62"/>
-      <c r="AIE69" s="62"/>
-      <c r="AIF69" s="62"/>
-      <c r="AIG69" s="62"/>
-      <c r="AIH69" s="62"/>
-      <c r="AII69" s="62"/>
-      <c r="AIJ69" s="62"/>
-      <c r="AIK69" s="62"/>
-      <c r="AIL69" s="62"/>
-      <c r="AIM69" s="62"/>
-      <c r="AIN69" s="62"/>
-      <c r="AIO69" s="62"/>
-      <c r="AIP69" s="62"/>
-      <c r="AIQ69" s="62"/>
-      <c r="AIR69" s="62"/>
-      <c r="AIS69" s="62"/>
-      <c r="AIT69" s="62"/>
-      <c r="AIU69" s="62"/>
-      <c r="AIV69" s="62"/>
-      <c r="AIW69" s="62"/>
-      <c r="AIX69" s="62"/>
-      <c r="AIY69" s="62"/>
-      <c r="AIZ69" s="62"/>
-      <c r="AJA69" s="62"/>
-      <c r="AJB69" s="62"/>
-      <c r="AJC69" s="62"/>
-      <c r="AJD69" s="62"/>
-      <c r="AJE69" s="62"/>
-      <c r="AJF69" s="62"/>
-      <c r="AJG69" s="62"/>
-      <c r="AJH69" s="62"/>
-      <c r="AJI69" s="62"/>
-      <c r="AJJ69" s="62"/>
-      <c r="AJK69" s="62"/>
-      <c r="AJL69" s="62"/>
-      <c r="AJM69" s="62"/>
-      <c r="AJN69" s="62"/>
-      <c r="AJO69" s="62"/>
-      <c r="AJP69" s="62"/>
-      <c r="AJQ69" s="62"/>
-      <c r="AJR69" s="62"/>
-      <c r="AJS69" s="62"/>
-      <c r="AJT69" s="62"/>
-      <c r="AJU69" s="62"/>
-      <c r="AJV69" s="62"/>
-      <c r="AJW69" s="62"/>
-      <c r="AJX69" s="62"/>
-      <c r="AJY69" s="62"/>
-      <c r="AJZ69" s="62"/>
-      <c r="AKA69" s="62"/>
-      <c r="AKB69" s="62"/>
-      <c r="AKC69" s="62"/>
-      <c r="AKD69" s="62"/>
-      <c r="AKE69" s="62"/>
-      <c r="AKF69" s="62"/>
-      <c r="AKG69" s="62"/>
-      <c r="AKH69" s="62"/>
-      <c r="AKI69" s="62"/>
-      <c r="AKJ69" s="62"/>
-      <c r="AKK69" s="62"/>
-      <c r="AKL69" s="62"/>
-      <c r="AKM69" s="62"/>
-      <c r="AKN69" s="62"/>
-      <c r="AKO69" s="62"/>
-      <c r="AKP69" s="62"/>
-      <c r="AKQ69" s="62"/>
-      <c r="AKR69" s="62"/>
-      <c r="AKS69" s="62"/>
-      <c r="AKT69" s="62"/>
-      <c r="AKU69" s="62"/>
-      <c r="AKV69" s="62"/>
-      <c r="AKW69" s="62"/>
-      <c r="AKX69" s="62"/>
-      <c r="AKY69" s="62"/>
-      <c r="AKZ69" s="62"/>
-      <c r="ALA69" s="62"/>
-      <c r="ALB69" s="62"/>
-      <c r="ALC69" s="62"/>
-      <c r="ALD69" s="62"/>
-      <c r="ALE69" s="62"/>
-      <c r="ALF69" s="62"/>
-      <c r="ALG69" s="62"/>
-      <c r="ALH69" s="62"/>
-      <c r="ALI69" s="62"/>
-      <c r="ALJ69" s="62"/>
-      <c r="ALK69" s="62"/>
-      <c r="ALL69" s="62"/>
-      <c r="ALM69" s="62"/>
-      <c r="ALN69" s="62"/>
-      <c r="ALO69" s="62"/>
-      <c r="ALP69" s="62"/>
-      <c r="ALQ69" s="62"/>
-      <c r="ALR69" s="62"/>
-      <c r="ALS69" s="62"/>
-      <c r="ALT69" s="62"/>
-      <c r="ALU69" s="62"/>
-      <c r="ALV69" s="62"/>
-      <c r="ALW69" s="62"/>
-      <c r="ALX69" s="62"/>
-      <c r="ALY69" s="62"/>
-      <c r="ALZ69" s="62"/>
-      <c r="AMA69" s="62"/>
-      <c r="AMB69" s="62"/>
-      <c r="AMC69" s="62"/>
-      <c r="AMD69" s="62"/>
-      <c r="AME69" s="62"/>
-      <c r="AMF69" s="62"/>
-      <c r="AMG69" s="62"/>
-      <c r="AMH69" s="62"/>
-      <c r="AMI69" s="62"/>
-      <c r="AMJ69" s="62"/>
-      <c r="AMK69" s="62"/>
-      <c r="AML69" s="62"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="65"/>
+      <c r="N69" s="65"/>
+      <c r="O69" s="65"/>
+      <c r="P69" s="65"/>
+      <c r="Q69" s="65"/>
+      <c r="R69" s="65"/>
+      <c r="S69" s="65"/>
+      <c r="T69" s="65"/>
+      <c r="U69" s="65"/>
+      <c r="V69" s="71"/>
+      <c r="W69" s="71"/>
+      <c r="X69" s="65"/>
+      <c r="Y69" s="65"/>
+      <c r="Z69" s="65"/>
+      <c r="AA69" s="65"/>
+      <c r="AB69" s="65"/>
+      <c r="AC69" s="65"/>
+      <c r="AD69" s="65"/>
+      <c r="AE69" s="65"/>
+      <c r="AF69" s="65"/>
+      <c r="AG69" s="65"/>
+      <c r="AH69" s="65"/>
+      <c r="AI69" s="65"/>
+      <c r="AJ69" s="65"/>
+      <c r="AK69" s="65"/>
+      <c r="AL69" s="65"/>
+      <c r="AM69" s="65"/>
+      <c r="AN69" s="65"/>
+      <c r="AO69" s="65"/>
+      <c r="AP69" s="65"/>
+      <c r="AQ69" s="65"/>
+      <c r="AR69" s="65"/>
+      <c r="AS69" s="65"/>
+      <c r="AT69" s="65"/>
+      <c r="AU69" s="65"/>
+      <c r="AV69" s="65"/>
+      <c r="AW69" s="65"/>
+      <c r="AX69" s="65"/>
+      <c r="AY69" s="65"/>
+      <c r="AZ69" s="65"/>
+      <c r="BA69" s="65"/>
+      <c r="BB69" s="65"/>
+      <c r="BC69" s="65"/>
+      <c r="BD69" s="65"/>
+      <c r="BE69" s="65"/>
+      <c r="BF69" s="65"/>
+      <c r="BG69" s="65"/>
+      <c r="BH69" s="65"/>
+      <c r="BI69" s="65"/>
+      <c r="BJ69" s="65"/>
+      <c r="BK69" s="65"/>
+      <c r="BL69" s="65"/>
+      <c r="BM69" s="65"/>
+      <c r="BN69" s="65"/>
+      <c r="BO69" s="65"/>
+      <c r="BP69" s="65"/>
+      <c r="BQ69" s="65"/>
+      <c r="BR69" s="65"/>
+      <c r="BS69" s="65"/>
+      <c r="BT69" s="65"/>
+      <c r="BU69" s="65"/>
+      <c r="BV69" s="65"/>
+      <c r="BW69" s="65"/>
+      <c r="BX69" s="65"/>
+      <c r="BY69" s="65"/>
+      <c r="BZ69" s="65"/>
+      <c r="CA69" s="65"/>
+      <c r="CB69" s="65"/>
+      <c r="CC69" s="65"/>
+      <c r="CD69" s="65"/>
+      <c r="CE69" s="65"/>
+      <c r="CF69" s="65"/>
+      <c r="CG69" s="65"/>
+      <c r="CH69" s="65"/>
+      <c r="CI69" s="65"/>
+      <c r="CJ69" s="65"/>
+      <c r="CK69" s="65"/>
+      <c r="CL69" s="65"/>
+      <c r="CM69" s="65"/>
+      <c r="CN69" s="65"/>
+      <c r="CO69" s="65"/>
+      <c r="CP69" s="65"/>
+      <c r="CQ69" s="65"/>
+      <c r="CR69" s="65"/>
+      <c r="CS69" s="65"/>
+      <c r="CT69" s="65"/>
+      <c r="CU69" s="65"/>
+      <c r="CV69" s="65"/>
+      <c r="CW69" s="65"/>
+      <c r="CX69" s="65"/>
+      <c r="CY69" s="65"/>
+      <c r="CZ69" s="65"/>
+      <c r="DA69" s="65"/>
+      <c r="DB69" s="65"/>
+      <c r="DC69" s="65"/>
+      <c r="DD69" s="65"/>
+      <c r="DE69" s="65"/>
+      <c r="DF69" s="65"/>
+      <c r="DG69" s="65"/>
+      <c r="DH69" s="65"/>
+      <c r="DI69" s="65"/>
+      <c r="DJ69" s="65"/>
+      <c r="DK69" s="65"/>
+      <c r="DL69" s="65"/>
+      <c r="DM69" s="65"/>
+      <c r="DN69" s="65"/>
+      <c r="DO69" s="65"/>
+      <c r="DP69" s="65"/>
+      <c r="DQ69" s="65"/>
+      <c r="DR69" s="65"/>
+      <c r="DS69" s="65"/>
+      <c r="DT69" s="65"/>
+      <c r="DU69" s="65"/>
+      <c r="DV69" s="65"/>
+      <c r="DW69" s="65"/>
+      <c r="DX69" s="65"/>
+      <c r="DY69" s="65"/>
+      <c r="DZ69" s="65"/>
+      <c r="EA69" s="65"/>
+      <c r="EB69" s="65"/>
+      <c r="EC69" s="65"/>
+      <c r="ED69" s="65"/>
+      <c r="EE69" s="65"/>
+      <c r="EF69" s="65"/>
+      <c r="EG69" s="65"/>
+      <c r="EH69" s="65"/>
+      <c r="EI69" s="65"/>
+      <c r="EJ69" s="65"/>
+      <c r="EK69" s="65"/>
+      <c r="EL69" s="65"/>
+      <c r="EM69" s="65"/>
+      <c r="EN69" s="65"/>
+      <c r="EO69" s="65"/>
+      <c r="EP69" s="65"/>
+      <c r="EQ69" s="65"/>
+      <c r="ER69" s="65"/>
+      <c r="ES69" s="65"/>
+      <c r="ET69" s="65"/>
+      <c r="EU69" s="65"/>
+      <c r="EV69" s="65"/>
+      <c r="EW69" s="65"/>
+      <c r="EX69" s="65"/>
+      <c r="EY69" s="65"/>
+      <c r="EZ69" s="65"/>
+      <c r="FA69" s="65"/>
+      <c r="FB69" s="65"/>
+      <c r="FC69" s="65"/>
+      <c r="FD69" s="65"/>
+      <c r="FE69" s="65"/>
+      <c r="FF69" s="65"/>
+      <c r="FG69" s="65"/>
+      <c r="FH69" s="65"/>
+      <c r="FI69" s="65"/>
+      <c r="FJ69" s="65"/>
+      <c r="FK69" s="65"/>
+      <c r="FL69" s="65"/>
+      <c r="FM69" s="65"/>
+      <c r="FN69" s="65"/>
+      <c r="FO69" s="65"/>
+      <c r="FP69" s="65"/>
+      <c r="FQ69" s="65"/>
+      <c r="FR69" s="65"/>
+      <c r="FS69" s="65"/>
+      <c r="FT69" s="65"/>
+      <c r="FU69" s="65"/>
+      <c r="FV69" s="65"/>
+      <c r="FW69" s="65"/>
+      <c r="FX69" s="65"/>
+      <c r="FY69" s="65"/>
+      <c r="FZ69" s="65"/>
+      <c r="GA69" s="65"/>
+      <c r="GB69" s="65"/>
+      <c r="GC69" s="65"/>
+      <c r="GD69" s="65"/>
+      <c r="GE69" s="65"/>
+      <c r="GF69" s="65"/>
+      <c r="GG69" s="65"/>
+      <c r="GH69" s="65"/>
+      <c r="GI69" s="65"/>
+      <c r="GJ69" s="65"/>
+      <c r="GK69" s="65"/>
+      <c r="GL69" s="65"/>
+      <c r="GM69" s="65"/>
+      <c r="GN69" s="65"/>
+      <c r="GO69" s="65"/>
+      <c r="GP69" s="65"/>
+      <c r="GQ69" s="65"/>
+      <c r="GR69" s="65"/>
+      <c r="GS69" s="65"/>
+      <c r="GT69" s="65"/>
+      <c r="GU69" s="65"/>
+      <c r="GV69" s="65"/>
+      <c r="GW69" s="65"/>
+      <c r="GX69" s="65"/>
+      <c r="GY69" s="65"/>
+      <c r="GZ69" s="65"/>
+      <c r="HA69" s="65"/>
+      <c r="HB69" s="65"/>
+      <c r="HC69" s="65"/>
+      <c r="HD69" s="65"/>
+      <c r="HE69" s="65"/>
+      <c r="HF69" s="65"/>
+      <c r="HG69" s="65"/>
+      <c r="HH69" s="65"/>
+      <c r="HI69" s="65"/>
+      <c r="HJ69" s="65"/>
+      <c r="HK69" s="65"/>
+      <c r="HL69" s="65"/>
+      <c r="HM69" s="65"/>
+      <c r="HN69" s="65"/>
+      <c r="HO69" s="65"/>
+      <c r="HP69" s="65"/>
+      <c r="HQ69" s="65"/>
+      <c r="HR69" s="65"/>
+      <c r="HS69" s="65"/>
+      <c r="HT69" s="65"/>
+      <c r="HU69" s="65"/>
+      <c r="HV69" s="65"/>
+      <c r="HW69" s="65"/>
+      <c r="HX69" s="65"/>
+      <c r="HY69" s="65"/>
+      <c r="HZ69" s="65"/>
+      <c r="IA69" s="65"/>
+      <c r="IB69" s="65"/>
+      <c r="IC69" s="65"/>
+      <c r="ID69" s="65"/>
+      <c r="IE69" s="65"/>
+      <c r="IF69" s="65"/>
+      <c r="IG69" s="65"/>
+      <c r="IH69" s="65"/>
+      <c r="II69" s="65"/>
+      <c r="IJ69" s="65"/>
+      <c r="IK69" s="65"/>
+      <c r="IL69" s="65"/>
+      <c r="IM69" s="65"/>
+      <c r="IN69" s="65"/>
+      <c r="IO69" s="65"/>
+      <c r="IP69" s="65"/>
+      <c r="IQ69" s="65"/>
+      <c r="IR69" s="65"/>
+      <c r="IS69" s="65"/>
+      <c r="IT69" s="65"/>
+      <c r="IU69" s="65"/>
+      <c r="IV69" s="65"/>
+      <c r="IW69" s="65"/>
+      <c r="IX69" s="65"/>
+      <c r="IY69" s="65"/>
+      <c r="IZ69" s="65"/>
+      <c r="JA69" s="65"/>
+      <c r="JB69" s="65"/>
+      <c r="JC69" s="65"/>
+      <c r="JD69" s="65"/>
+      <c r="JE69" s="65"/>
+      <c r="JF69" s="65"/>
+      <c r="JG69" s="65"/>
+      <c r="JH69" s="65"/>
+      <c r="JI69" s="65"/>
+      <c r="JJ69" s="65"/>
+      <c r="JK69" s="65"/>
+      <c r="JL69" s="65"/>
+      <c r="JM69" s="65"/>
+      <c r="JN69" s="65"/>
+      <c r="JO69" s="65"/>
+      <c r="JP69" s="65"/>
+      <c r="JQ69" s="65"/>
+      <c r="JR69" s="65"/>
+      <c r="JS69" s="65"/>
+      <c r="JT69" s="65"/>
+      <c r="JU69" s="65"/>
+      <c r="JV69" s="65"/>
+      <c r="JW69" s="65"/>
+      <c r="JX69" s="65"/>
+      <c r="JY69" s="65"/>
+      <c r="JZ69" s="65"/>
+      <c r="KA69" s="65"/>
+      <c r="KB69" s="65"/>
+      <c r="KC69" s="65"/>
+      <c r="KD69" s="65"/>
+      <c r="KE69" s="65"/>
+      <c r="KF69" s="65"/>
+      <c r="KG69" s="65"/>
+      <c r="KH69" s="65"/>
+      <c r="KI69" s="65"/>
+      <c r="KJ69" s="65"/>
+      <c r="KK69" s="65"/>
+      <c r="KL69" s="65"/>
+      <c r="KM69" s="65"/>
+      <c r="KN69" s="65"/>
+      <c r="KO69" s="65"/>
+      <c r="KP69" s="65"/>
+      <c r="KQ69" s="65"/>
+      <c r="KR69" s="65"/>
+      <c r="KS69" s="65"/>
+      <c r="KT69" s="65"/>
+      <c r="KU69" s="65"/>
+      <c r="KV69" s="65"/>
+      <c r="KW69" s="65"/>
+      <c r="KX69" s="65"/>
+      <c r="KY69" s="65"/>
+      <c r="KZ69" s="65"/>
+      <c r="LA69" s="65"/>
+      <c r="LB69" s="65"/>
+      <c r="LC69" s="65"/>
+      <c r="LD69" s="65"/>
+      <c r="LE69" s="65"/>
+      <c r="LF69" s="65"/>
+      <c r="LG69" s="65"/>
+      <c r="LH69" s="65"/>
+      <c r="LI69" s="65"/>
+      <c r="LJ69" s="65"/>
+      <c r="LK69" s="65"/>
+      <c r="LL69" s="65"/>
+      <c r="LM69" s="65"/>
+      <c r="LN69" s="65"/>
+      <c r="LO69" s="65"/>
+      <c r="LP69" s="65"/>
+      <c r="LQ69" s="65"/>
+      <c r="LR69" s="65"/>
+      <c r="LS69" s="65"/>
+      <c r="LT69" s="65"/>
+      <c r="LU69" s="65"/>
+      <c r="LV69" s="65"/>
+      <c r="LW69" s="65"/>
+      <c r="LX69" s="65"/>
+      <c r="LY69" s="65"/>
+      <c r="LZ69" s="65"/>
+      <c r="MA69" s="65"/>
+      <c r="MB69" s="65"/>
+      <c r="MC69" s="65"/>
+      <c r="MD69" s="65"/>
+      <c r="ME69" s="65"/>
+      <c r="MF69" s="65"/>
+      <c r="MG69" s="65"/>
+      <c r="MH69" s="65"/>
+      <c r="MI69" s="65"/>
+      <c r="MJ69" s="65"/>
+      <c r="MK69" s="65"/>
+      <c r="ML69" s="65"/>
+      <c r="MM69" s="65"/>
+      <c r="MN69" s="65"/>
+      <c r="MO69" s="65"/>
+      <c r="MP69" s="65"/>
+      <c r="MQ69" s="65"/>
+      <c r="MR69" s="65"/>
+      <c r="MS69" s="65"/>
+      <c r="MT69" s="65"/>
+      <c r="MU69" s="65"/>
+      <c r="MV69" s="65"/>
+      <c r="MW69" s="65"/>
+      <c r="MX69" s="65"/>
+      <c r="MY69" s="65"/>
+      <c r="MZ69" s="65"/>
+      <c r="NA69" s="65"/>
+      <c r="NB69" s="65"/>
+      <c r="NC69" s="65"/>
+      <c r="ND69" s="65"/>
+      <c r="NE69" s="65"/>
+      <c r="NF69" s="65"/>
+      <c r="NG69" s="65"/>
+      <c r="NH69" s="65"/>
+      <c r="NI69" s="65"/>
+      <c r="NJ69" s="65"/>
+      <c r="NK69" s="65"/>
+      <c r="NL69" s="65"/>
+      <c r="NM69" s="65"/>
+      <c r="NN69" s="65"/>
+      <c r="NO69" s="65"/>
+      <c r="NP69" s="65"/>
+      <c r="NQ69" s="65"/>
+      <c r="NR69" s="65"/>
+      <c r="NS69" s="65"/>
+      <c r="NT69" s="65"/>
+      <c r="NU69" s="65"/>
+      <c r="NV69" s="65"/>
+      <c r="NW69" s="65"/>
+      <c r="NX69" s="65"/>
+      <c r="NY69" s="65"/>
+      <c r="NZ69" s="65"/>
+      <c r="OA69" s="65"/>
+      <c r="OB69" s="65"/>
+      <c r="OC69" s="65"/>
+      <c r="OD69" s="65"/>
+      <c r="OE69" s="65"/>
+      <c r="OF69" s="65"/>
+      <c r="OG69" s="65"/>
+      <c r="OH69" s="65"/>
+      <c r="OI69" s="65"/>
+      <c r="OJ69" s="65"/>
+      <c r="OK69" s="65"/>
+      <c r="OL69" s="65"/>
+      <c r="OM69" s="65"/>
+      <c r="ON69" s="65"/>
+      <c r="OO69" s="65"/>
+      <c r="OP69" s="65"/>
+      <c r="OQ69" s="65"/>
+      <c r="OR69" s="65"/>
+      <c r="OS69" s="65"/>
+      <c r="OT69" s="65"/>
+      <c r="OU69" s="65"/>
+      <c r="OV69" s="65"/>
+      <c r="OW69" s="65"/>
+      <c r="OX69" s="65"/>
+      <c r="OY69" s="65"/>
+      <c r="OZ69" s="65"/>
+      <c r="PA69" s="65"/>
+      <c r="PB69" s="65"/>
+      <c r="PC69" s="65"/>
+      <c r="PD69" s="65"/>
+      <c r="PE69" s="65"/>
+      <c r="PF69" s="65"/>
+      <c r="PG69" s="65"/>
+      <c r="PH69" s="65"/>
+      <c r="PI69" s="65"/>
+      <c r="PJ69" s="65"/>
+      <c r="PK69" s="65"/>
+      <c r="PL69" s="65"/>
+      <c r="PM69" s="65"/>
+      <c r="PN69" s="65"/>
+      <c r="PO69" s="65"/>
+      <c r="PP69" s="65"/>
+      <c r="PQ69" s="65"/>
+      <c r="PR69" s="65"/>
+      <c r="PS69" s="65"/>
+      <c r="PT69" s="65"/>
+      <c r="PU69" s="65"/>
+      <c r="PV69" s="65"/>
+      <c r="PW69" s="65"/>
+      <c r="PX69" s="65"/>
+      <c r="PY69" s="65"/>
+      <c r="PZ69" s="65"/>
+      <c r="QA69" s="65"/>
+      <c r="QB69" s="65"/>
+      <c r="QC69" s="65"/>
+      <c r="QD69" s="65"/>
+      <c r="QE69" s="65"/>
+      <c r="QF69" s="65"/>
+      <c r="QG69" s="65"/>
+      <c r="QH69" s="65"/>
+      <c r="QI69" s="65"/>
+      <c r="QJ69" s="65"/>
+      <c r="QK69" s="65"/>
+      <c r="QL69" s="65"/>
+      <c r="QM69" s="65"/>
+      <c r="QN69" s="65"/>
+      <c r="QO69" s="65"/>
+      <c r="QP69" s="65"/>
+      <c r="QQ69" s="65"/>
+      <c r="QR69" s="65"/>
+      <c r="QS69" s="65"/>
+      <c r="QT69" s="65"/>
+      <c r="QU69" s="65"/>
+      <c r="QV69" s="65"/>
+      <c r="QW69" s="65"/>
+      <c r="QX69" s="65"/>
+      <c r="QY69" s="65"/>
+      <c r="QZ69" s="65"/>
+      <c r="RA69" s="65"/>
+      <c r="RB69" s="65"/>
+      <c r="RC69" s="65"/>
+      <c r="RD69" s="65"/>
+      <c r="RE69" s="65"/>
+      <c r="RF69" s="65"/>
+      <c r="RG69" s="65"/>
+      <c r="RH69" s="65"/>
+      <c r="RI69" s="65"/>
+      <c r="RJ69" s="65"/>
+      <c r="RK69" s="65"/>
+      <c r="RL69" s="65"/>
+      <c r="RM69" s="65"/>
+      <c r="RN69" s="65"/>
+      <c r="RO69" s="65"/>
+      <c r="RP69" s="65"/>
+      <c r="RQ69" s="65"/>
+      <c r="RR69" s="65"/>
+      <c r="RS69" s="65"/>
+      <c r="RT69" s="65"/>
+      <c r="RU69" s="65"/>
+      <c r="RV69" s="65"/>
+      <c r="RW69" s="65"/>
+      <c r="RX69" s="65"/>
+      <c r="RY69" s="65"/>
+      <c r="RZ69" s="65"/>
+      <c r="SA69" s="65"/>
+      <c r="SB69" s="65"/>
+      <c r="SC69" s="65"/>
+      <c r="SD69" s="65"/>
+      <c r="SE69" s="65"/>
+      <c r="SF69" s="65"/>
+      <c r="SG69" s="65"/>
+      <c r="SH69" s="65"/>
+      <c r="SI69" s="65"/>
+      <c r="SJ69" s="65"/>
+      <c r="SK69" s="65"/>
+      <c r="SL69" s="65"/>
+      <c r="SM69" s="65"/>
+      <c r="SN69" s="65"/>
+      <c r="SO69" s="65"/>
+      <c r="SP69" s="65"/>
+      <c r="SQ69" s="65"/>
+      <c r="SR69" s="65"/>
+      <c r="SS69" s="65"/>
+      <c r="ST69" s="65"/>
+      <c r="SU69" s="65"/>
+      <c r="SV69" s="65"/>
+      <c r="SW69" s="65"/>
+      <c r="SX69" s="65"/>
+      <c r="SY69" s="65"/>
+      <c r="SZ69" s="65"/>
+      <c r="TA69" s="65"/>
+      <c r="TB69" s="65"/>
+      <c r="TC69" s="65"/>
+      <c r="TD69" s="65"/>
+      <c r="TE69" s="65"/>
+      <c r="TF69" s="65"/>
+      <c r="TG69" s="65"/>
+      <c r="TH69" s="65"/>
+      <c r="TI69" s="65"/>
+      <c r="TJ69" s="65"/>
+      <c r="TK69" s="65"/>
+      <c r="TL69" s="65"/>
+      <c r="TM69" s="65"/>
+      <c r="TN69" s="65"/>
+      <c r="TO69" s="65"/>
+      <c r="TP69" s="65"/>
+      <c r="TQ69" s="65"/>
+      <c r="TR69" s="65"/>
+      <c r="TS69" s="65"/>
+      <c r="TT69" s="65"/>
+      <c r="TU69" s="65"/>
+      <c r="TV69" s="65"/>
+      <c r="TW69" s="65"/>
+      <c r="TX69" s="65"/>
+      <c r="TY69" s="65"/>
+      <c r="TZ69" s="65"/>
+      <c r="UA69" s="65"/>
+      <c r="UB69" s="65"/>
+      <c r="UC69" s="65"/>
+      <c r="UD69" s="65"/>
+      <c r="UE69" s="65"/>
+      <c r="UF69" s="65"/>
+      <c r="UG69" s="65"/>
+      <c r="UH69" s="65"/>
+      <c r="UI69" s="65"/>
+      <c r="UJ69" s="65"/>
+      <c r="UK69" s="65"/>
+      <c r="UL69" s="65"/>
+      <c r="UM69" s="65"/>
+      <c r="UN69" s="65"/>
+      <c r="UO69" s="65"/>
+      <c r="UP69" s="65"/>
+      <c r="UQ69" s="65"/>
+      <c r="UR69" s="65"/>
+      <c r="US69" s="65"/>
+      <c r="UT69" s="65"/>
+      <c r="UU69" s="65"/>
+      <c r="UV69" s="65"/>
+      <c r="UW69" s="65"/>
+      <c r="UX69" s="65"/>
+      <c r="UY69" s="65"/>
+      <c r="UZ69" s="65"/>
+      <c r="VA69" s="65"/>
+      <c r="VB69" s="65"/>
+      <c r="VC69" s="65"/>
+      <c r="VD69" s="65"/>
+      <c r="VE69" s="65"/>
+      <c r="VF69" s="65"/>
+      <c r="VG69" s="65"/>
+      <c r="VH69" s="65"/>
+      <c r="VI69" s="65"/>
+      <c r="VJ69" s="65"/>
+      <c r="VK69" s="65"/>
+      <c r="VL69" s="65"/>
+      <c r="VM69" s="65"/>
+      <c r="VN69" s="65"/>
+      <c r="VO69" s="65"/>
+      <c r="VP69" s="65"/>
+      <c r="VQ69" s="65"/>
+      <c r="VR69" s="65"/>
+      <c r="VS69" s="65"/>
+      <c r="VT69" s="65"/>
+      <c r="VU69" s="65"/>
+      <c r="VV69" s="65"/>
+      <c r="VW69" s="65"/>
+      <c r="VX69" s="65"/>
+      <c r="VY69" s="65"/>
+      <c r="VZ69" s="65"/>
+      <c r="WA69" s="65"/>
+      <c r="WB69" s="65"/>
+      <c r="WC69" s="65"/>
+      <c r="WD69" s="65"/>
+      <c r="WE69" s="65"/>
+      <c r="WF69" s="65"/>
+      <c r="WG69" s="65"/>
+      <c r="WH69" s="65"/>
+      <c r="WI69" s="65"/>
+      <c r="WJ69" s="65"/>
+      <c r="WK69" s="65"/>
+      <c r="WL69" s="65"/>
+      <c r="WM69" s="65"/>
+      <c r="WN69" s="65"/>
+      <c r="WO69" s="65"/>
+      <c r="WP69" s="65"/>
+      <c r="WQ69" s="65"/>
+      <c r="WR69" s="65"/>
+      <c r="WS69" s="65"/>
+      <c r="WT69" s="65"/>
+      <c r="WU69" s="65"/>
+      <c r="WV69" s="65"/>
+      <c r="WW69" s="65"/>
+      <c r="WX69" s="65"/>
+      <c r="WY69" s="65"/>
+      <c r="WZ69" s="65"/>
+      <c r="XA69" s="65"/>
+      <c r="XB69" s="65"/>
+      <c r="XC69" s="65"/>
+      <c r="XD69" s="65"/>
+      <c r="XE69" s="65"/>
+      <c r="XF69" s="65"/>
+      <c r="XG69" s="65"/>
+      <c r="XH69" s="65"/>
+      <c r="XI69" s="65"/>
+      <c r="XJ69" s="65"/>
+      <c r="XK69" s="65"/>
+      <c r="XL69" s="65"/>
+      <c r="XM69" s="65"/>
+      <c r="XN69" s="65"/>
+      <c r="XO69" s="65"/>
+      <c r="XP69" s="65"/>
+      <c r="XQ69" s="65"/>
+      <c r="XR69" s="65"/>
+      <c r="XS69" s="65"/>
+      <c r="XT69" s="65"/>
+      <c r="XU69" s="65"/>
+      <c r="XV69" s="65"/>
+      <c r="XW69" s="65"/>
+      <c r="XX69" s="65"/>
+      <c r="XY69" s="65"/>
+      <c r="XZ69" s="65"/>
+      <c r="YA69" s="65"/>
+      <c r="YB69" s="65"/>
+      <c r="YC69" s="65"/>
+      <c r="YD69" s="65"/>
+      <c r="YE69" s="65"/>
+      <c r="YF69" s="65"/>
+      <c r="YG69" s="65"/>
+      <c r="YH69" s="65"/>
+      <c r="YI69" s="65"/>
+      <c r="YJ69" s="65"/>
+      <c r="YK69" s="65"/>
+      <c r="YL69" s="65"/>
+      <c r="YM69" s="65"/>
+      <c r="YN69" s="65"/>
+      <c r="YO69" s="65"/>
+      <c r="YP69" s="65"/>
+      <c r="YQ69" s="65"/>
+      <c r="YR69" s="65"/>
+      <c r="YS69" s="65"/>
+      <c r="YT69" s="65"/>
+      <c r="YU69" s="65"/>
+      <c r="YV69" s="65"/>
+      <c r="YW69" s="65"/>
+      <c r="YX69" s="65"/>
+      <c r="YY69" s="65"/>
+      <c r="YZ69" s="65"/>
+      <c r="ZA69" s="65"/>
+      <c r="ZB69" s="65"/>
+      <c r="ZC69" s="65"/>
+      <c r="ZD69" s="65"/>
+      <c r="ZE69" s="65"/>
+      <c r="ZF69" s="65"/>
+      <c r="ZG69" s="65"/>
+      <c r="ZH69" s="65"/>
+      <c r="ZI69" s="65"/>
+      <c r="ZJ69" s="65"/>
+      <c r="ZK69" s="65"/>
+      <c r="ZL69" s="65"/>
+      <c r="ZM69" s="65"/>
+      <c r="ZN69" s="65"/>
+      <c r="ZO69" s="65"/>
+      <c r="ZP69" s="65"/>
+      <c r="ZQ69" s="65"/>
+      <c r="ZR69" s="65"/>
+      <c r="ZS69" s="65"/>
+      <c r="ZT69" s="65"/>
+      <c r="ZU69" s="65"/>
+      <c r="ZV69" s="65"/>
+      <c r="ZW69" s="65"/>
+      <c r="ZX69" s="65"/>
+      <c r="ZY69" s="65"/>
+      <c r="ZZ69" s="65"/>
+      <c r="AAA69" s="65"/>
+      <c r="AAB69" s="65"/>
+      <c r="AAC69" s="65"/>
+      <c r="AAD69" s="65"/>
+      <c r="AAE69" s="65"/>
+      <c r="AAF69" s="65"/>
+      <c r="AAG69" s="65"/>
+      <c r="AAH69" s="65"/>
+      <c r="AAI69" s="65"/>
+      <c r="AAJ69" s="65"/>
+      <c r="AAK69" s="65"/>
+      <c r="AAL69" s="65"/>
+      <c r="AAM69" s="65"/>
+      <c r="AAN69" s="65"/>
+      <c r="AAO69" s="65"/>
+      <c r="AAP69" s="65"/>
+      <c r="AAQ69" s="65"/>
+      <c r="AAR69" s="65"/>
+      <c r="AAS69" s="65"/>
+      <c r="AAT69" s="65"/>
+      <c r="AAU69" s="65"/>
+      <c r="AAV69" s="65"/>
+      <c r="AAW69" s="65"/>
+      <c r="AAX69" s="65"/>
+      <c r="AAY69" s="65"/>
+      <c r="AAZ69" s="65"/>
+      <c r="ABA69" s="65"/>
+      <c r="ABB69" s="65"/>
+      <c r="ABC69" s="65"/>
+      <c r="ABD69" s="65"/>
+      <c r="ABE69" s="65"/>
+      <c r="ABF69" s="65"/>
+      <c r="ABG69" s="65"/>
+      <c r="ABH69" s="65"/>
+      <c r="ABI69" s="65"/>
+      <c r="ABJ69" s="65"/>
+      <c r="ABK69" s="65"/>
+      <c r="ABL69" s="65"/>
+      <c r="ABM69" s="65"/>
+      <c r="ABN69" s="65"/>
+      <c r="ABO69" s="65"/>
+      <c r="ABP69" s="65"/>
+      <c r="ABQ69" s="65"/>
+      <c r="ABR69" s="65"/>
+      <c r="ABS69" s="65"/>
+      <c r="ABT69" s="65"/>
+      <c r="ABU69" s="65"/>
+      <c r="ABV69" s="65"/>
+      <c r="ABW69" s="65"/>
+      <c r="ABX69" s="65"/>
+      <c r="ABY69" s="65"/>
+      <c r="ABZ69" s="65"/>
+      <c r="ACA69" s="65"/>
+      <c r="ACB69" s="65"/>
+      <c r="ACC69" s="65"/>
+      <c r="ACD69" s="65"/>
+      <c r="ACE69" s="65"/>
+      <c r="ACF69" s="65"/>
+      <c r="ACG69" s="65"/>
+      <c r="ACH69" s="65"/>
+      <c r="ACI69" s="65"/>
+      <c r="ACJ69" s="65"/>
+      <c r="ACK69" s="65"/>
+      <c r="ACL69" s="65"/>
+      <c r="ACM69" s="65"/>
+      <c r="ACN69" s="65"/>
+      <c r="ACO69" s="65"/>
+      <c r="ACP69" s="65"/>
+      <c r="ACQ69" s="65"/>
+      <c r="ACR69" s="65"/>
+      <c r="ACS69" s="65"/>
+      <c r="ACT69" s="65"/>
+      <c r="ACU69" s="65"/>
+      <c r="ACV69" s="65"/>
+      <c r="ACW69" s="65"/>
+      <c r="ACX69" s="65"/>
+      <c r="ACY69" s="65"/>
+      <c r="ACZ69" s="65"/>
+      <c r="ADA69" s="65"/>
+      <c r="ADB69" s="65"/>
+      <c r="ADC69" s="65"/>
+      <c r="ADD69" s="65"/>
+      <c r="ADE69" s="65"/>
+      <c r="ADF69" s="65"/>
+      <c r="ADG69" s="65"/>
+      <c r="ADH69" s="65"/>
+      <c r="ADI69" s="65"/>
+      <c r="ADJ69" s="65"/>
+      <c r="ADK69" s="65"/>
+      <c r="ADL69" s="65"/>
+      <c r="ADM69" s="65"/>
+      <c r="ADN69" s="65"/>
+      <c r="ADO69" s="65"/>
+      <c r="ADP69" s="65"/>
+      <c r="ADQ69" s="65"/>
+      <c r="ADR69" s="65"/>
+      <c r="ADS69" s="65"/>
+      <c r="ADT69" s="65"/>
+      <c r="ADU69" s="65"/>
+      <c r="ADV69" s="65"/>
+      <c r="ADW69" s="65"/>
+      <c r="ADX69" s="65"/>
+      <c r="ADY69" s="65"/>
+      <c r="ADZ69" s="65"/>
+      <c r="AEA69" s="65"/>
+      <c r="AEB69" s="65"/>
+      <c r="AEC69" s="65"/>
+      <c r="AED69" s="65"/>
+      <c r="AEE69" s="65"/>
+      <c r="AEF69" s="65"/>
+      <c r="AEG69" s="65"/>
+      <c r="AEH69" s="65"/>
+      <c r="AEI69" s="65"/>
+      <c r="AEJ69" s="65"/>
+      <c r="AEK69" s="65"/>
+      <c r="AEL69" s="65"/>
+      <c r="AEM69" s="65"/>
+      <c r="AEN69" s="65"/>
+      <c r="AEO69" s="65"/>
+      <c r="AEP69" s="65"/>
+      <c r="AEQ69" s="65"/>
+      <c r="AER69" s="65"/>
+      <c r="AES69" s="65"/>
+      <c r="AET69" s="65"/>
+      <c r="AEU69" s="65"/>
+      <c r="AEV69" s="65"/>
+      <c r="AEW69" s="65"/>
+      <c r="AEX69" s="65"/>
+      <c r="AEY69" s="65"/>
+      <c r="AEZ69" s="65"/>
+      <c r="AFA69" s="65"/>
+      <c r="AFB69" s="65"/>
+      <c r="AFC69" s="65"/>
+      <c r="AFD69" s="65"/>
+      <c r="AFE69" s="65"/>
+      <c r="AFF69" s="65"/>
+      <c r="AFG69" s="65"/>
+      <c r="AFH69" s="65"/>
+      <c r="AFI69" s="65"/>
+      <c r="AFJ69" s="65"/>
+      <c r="AFK69" s="65"/>
+      <c r="AFL69" s="65"/>
+      <c r="AFM69" s="65"/>
+      <c r="AFN69" s="65"/>
+      <c r="AFO69" s="65"/>
+      <c r="AFP69" s="65"/>
+      <c r="AFQ69" s="65"/>
+      <c r="AFR69" s="65"/>
+      <c r="AFS69" s="65"/>
+      <c r="AFT69" s="65"/>
+      <c r="AFU69" s="65"/>
+      <c r="AFV69" s="65"/>
+      <c r="AFW69" s="65"/>
+      <c r="AFX69" s="65"/>
+      <c r="AFY69" s="65"/>
+      <c r="AFZ69" s="65"/>
+      <c r="AGA69" s="65"/>
+      <c r="AGB69" s="65"/>
+      <c r="AGC69" s="65"/>
+      <c r="AGD69" s="65"/>
+      <c r="AGE69" s="65"/>
+      <c r="AGF69" s="65"/>
+      <c r="AGG69" s="65"/>
+      <c r="AGH69" s="65"/>
+      <c r="AGI69" s="65"/>
+      <c r="AGJ69" s="65"/>
+      <c r="AGK69" s="65"/>
+      <c r="AGL69" s="65"/>
+      <c r="AGM69" s="65"/>
+      <c r="AGN69" s="65"/>
+      <c r="AGO69" s="65"/>
+      <c r="AGP69" s="65"/>
+      <c r="AGQ69" s="65"/>
+      <c r="AGR69" s="65"/>
+      <c r="AGS69" s="65"/>
+      <c r="AGT69" s="65"/>
+      <c r="AGU69" s="65"/>
+      <c r="AGV69" s="65"/>
+      <c r="AGW69" s="65"/>
+      <c r="AGX69" s="65"/>
+      <c r="AGY69" s="65"/>
+      <c r="AGZ69" s="65"/>
+      <c r="AHA69" s="65"/>
+      <c r="AHB69" s="65"/>
+      <c r="AHC69" s="65"/>
+      <c r="AHD69" s="65"/>
+      <c r="AHE69" s="65"/>
+      <c r="AHF69" s="65"/>
+      <c r="AHG69" s="65"/>
+      <c r="AHH69" s="65"/>
+      <c r="AHI69" s="65"/>
+      <c r="AHJ69" s="65"/>
+      <c r="AHK69" s="65"/>
+      <c r="AHL69" s="65"/>
+      <c r="AHM69" s="65"/>
+      <c r="AHN69" s="65"/>
+      <c r="AHO69" s="65"/>
+      <c r="AHP69" s="65"/>
+      <c r="AHQ69" s="65"/>
+      <c r="AHR69" s="65"/>
+      <c r="AHS69" s="65"/>
+      <c r="AHT69" s="65"/>
+      <c r="AHU69" s="65"/>
+      <c r="AHV69" s="65"/>
+      <c r="AHW69" s="65"/>
+      <c r="AHX69" s="65"/>
+      <c r="AHY69" s="65"/>
+      <c r="AHZ69" s="65"/>
+      <c r="AIA69" s="65"/>
+      <c r="AIB69" s="65"/>
+      <c r="AIC69" s="65"/>
+      <c r="AID69" s="65"/>
+      <c r="AIE69" s="65"/>
+      <c r="AIF69" s="65"/>
+      <c r="AIG69" s="65"/>
+      <c r="AIH69" s="65"/>
+      <c r="AII69" s="65"/>
+      <c r="AIJ69" s="65"/>
+      <c r="AIK69" s="65"/>
+      <c r="AIL69" s="65"/>
+      <c r="AIM69" s="65"/>
+      <c r="AIN69" s="65"/>
+      <c r="AIO69" s="65"/>
+      <c r="AIP69" s="65"/>
+      <c r="AIQ69" s="65"/>
+      <c r="AIR69" s="65"/>
+      <c r="AIS69" s="65"/>
+      <c r="AIT69" s="65"/>
+      <c r="AIU69" s="65"/>
+      <c r="AIV69" s="65"/>
+      <c r="AIW69" s="65"/>
+      <c r="AIX69" s="65"/>
+      <c r="AIY69" s="65"/>
+      <c r="AIZ69" s="65"/>
+      <c r="AJA69" s="65"/>
+      <c r="AJB69" s="65"/>
+      <c r="AJC69" s="65"/>
+      <c r="AJD69" s="65"/>
+      <c r="AJE69" s="65"/>
+      <c r="AJF69" s="65"/>
+      <c r="AJG69" s="65"/>
+      <c r="AJH69" s="65"/>
+      <c r="AJI69" s="65"/>
+      <c r="AJJ69" s="65"/>
+      <c r="AJK69" s="65"/>
+      <c r="AJL69" s="65"/>
+      <c r="AJM69" s="65"/>
+      <c r="AJN69" s="65"/>
+      <c r="AJO69" s="65"/>
+      <c r="AJP69" s="65"/>
+      <c r="AJQ69" s="65"/>
+      <c r="AJR69" s="65"/>
+      <c r="AJS69" s="65"/>
+      <c r="AJT69" s="65"/>
+      <c r="AJU69" s="65"/>
+      <c r="AJV69" s="65"/>
+      <c r="AJW69" s="65"/>
+      <c r="AJX69" s="65"/>
+      <c r="AJY69" s="65"/>
+      <c r="AJZ69" s="65"/>
+      <c r="AKA69" s="65"/>
+      <c r="AKB69" s="65"/>
+      <c r="AKC69" s="65"/>
+      <c r="AKD69" s="65"/>
+      <c r="AKE69" s="65"/>
+      <c r="AKF69" s="65"/>
+      <c r="AKG69" s="65"/>
+      <c r="AKH69" s="65"/>
+      <c r="AKI69" s="65"/>
+      <c r="AKJ69" s="65"/>
+      <c r="AKK69" s="65"/>
+      <c r="AKL69" s="65"/>
+      <c r="AKM69" s="65"/>
+      <c r="AKN69" s="65"/>
+      <c r="AKO69" s="65"/>
+      <c r="AKP69" s="65"/>
+      <c r="AKQ69" s="65"/>
+      <c r="AKR69" s="65"/>
+      <c r="AKS69" s="65"/>
+      <c r="AKT69" s="65"/>
+      <c r="AKU69" s="65"/>
+      <c r="AKV69" s="65"/>
+      <c r="AKW69" s="65"/>
+      <c r="AKX69" s="65"/>
+      <c r="AKY69" s="65"/>
+      <c r="AKZ69" s="65"/>
+      <c r="ALA69" s="65"/>
+      <c r="ALB69" s="65"/>
+      <c r="ALC69" s="65"/>
+      <c r="ALD69" s="65"/>
+      <c r="ALE69" s="65"/>
+      <c r="ALF69" s="65"/>
+      <c r="ALG69" s="65"/>
+      <c r="ALH69" s="65"/>
+      <c r="ALI69" s="65"/>
+      <c r="ALJ69" s="65"/>
+      <c r="ALK69" s="65"/>
+      <c r="ALL69" s="65"/>
+      <c r="ALM69" s="65"/>
+      <c r="ALN69" s="65"/>
+      <c r="ALO69" s="65"/>
+      <c r="ALP69" s="65"/>
+      <c r="ALQ69" s="65"/>
+      <c r="ALR69" s="65"/>
+      <c r="ALS69" s="65"/>
+      <c r="ALT69" s="65"/>
+      <c r="ALU69" s="65"/>
+      <c r="ALV69" s="65"/>
+      <c r="ALW69" s="65"/>
+      <c r="ALX69" s="65"/>
+      <c r="ALY69" s="65"/>
+      <c r="ALZ69" s="65"/>
+      <c r="AMA69" s="65"/>
+      <c r="AMB69" s="65"/>
+      <c r="AMC69" s="65"/>
+      <c r="AMD69" s="65"/>
+      <c r="AME69" s="65"/>
+      <c r="AMF69" s="65"/>
+      <c r="AMG69" s="65"/>
+      <c r="AMH69" s="65"/>
+      <c r="AMI69" s="65"/>
+      <c r="AMJ69" s="65"/>
+      <c r="AMK69" s="65"/>
+      <c r="AML69" s="65"/>
     </row>
     <row r="70" ht="12.75">
       <c r="A70" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="65" t="s">
-        <v>397</v>
-      </c>
-      <c r="E70" s="71" t="s">
-        <v>398</v>
-      </c>
-      <c r="F70" s="71" t="s">
-        <v>399</v>
+      <c r="C70" s="68" t="s">
+        <v>400</v>
+      </c>
+      <c r="E70" s="74" t="s">
+        <v>401</v>
+      </c>
+      <c r="F70" s="74" t="s">
+        <v>402</v>
       </c>
       <c r="L70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M70" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="N70" t="s">
-        <v>162</v>
-      </c>
-      <c r="X70" s="64"/>
+        <v>165</v>
+      </c>
+      <c r="X70" s="67"/>
     </row>
     <row r="71" ht="12.75">
       <c r="A71" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="65" t="s">
-        <v>402</v>
-      </c>
-      <c r="E71" s="71" t="s">
+      <c r="C71" s="68" t="s">
+        <v>405</v>
+      </c>
+      <c r="E71" s="74" t="s">
+        <v>406</v>
+      </c>
+      <c r="F71" s="74" t="s">
+        <v>407</v>
+      </c>
+      <c r="L71" t="s">
+        <v>136</v>
+      </c>
+      <c r="M71" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F71" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="L71" t="s">
-        <v>135</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>400</v>
-      </c>
       <c r="N71" t="s">
-        <v>160</v>
-      </c>
-      <c r="X71" s="64"/>
+        <v>163</v>
+      </c>
+      <c r="X71" s="67"/>
     </row>
     <row r="72" ht="12.75">
-      <c r="E72" s="38"/>
+      <c r="E72" s="41"/>
     </row>
     <row r="73" ht="12.75"/>
     <row r="74" ht="12.75">
       <c r="B74" s="12"/>
-      <c r="E74" s="38"/>
+      <c r="E74" s="41"/>
     </row>
     <row r="75" ht="12.75">
       <c r="B75" s="12"/>
@@ -8319,121 +8365,121 @@
     </row>
     <row r="78" ht="12.75">
       <c r="B78" s="12"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="41"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="44"/>
       <c r="V78" s="12"/>
       <c r="W78" s="12"/>
     </row>
     <row r="79" ht="12.75">
       <c r="B79" s="12"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="41"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="44"/>
       <c r="V79" s="12"/>
       <c r="W79" s="12"/>
     </row>
     <row r="80" ht="12.75">
       <c r="B80" s="12"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="41"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="44"/>
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
     </row>
     <row r="81" ht="12.75">
       <c r="B81" s="12"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="41"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="44"/>
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
     </row>
     <row r="82" ht="12.75">
       <c r="B82" s="12"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="41"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="44"/>
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
     </row>
     <row r="83" ht="12.75">
       <c r="B83" s="12"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="41"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="44"/>
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
     </row>
     <row r="84" ht="12.75">
       <c r="B84" s="12"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="41"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="44"/>
       <c r="V84" s="12"/>
       <c r="W84" s="12"/>
     </row>
     <row r="85" ht="12.75">
       <c r="B85" s="12"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="40"/>
-      <c r="K85" s="41"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="44"/>
       <c r="V85" s="12"/>
       <c r="W85" s="12"/>
     </row>
     <row r="86" ht="12.75">
       <c r="B86" s="12"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="41"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="44"/>
       <c r="V86" s="12"/>
       <c r="W86" s="12"/>
     </row>
     <row r="87" ht="12.75">
       <c r="B87" s="12"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="41"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="44"/>
       <c r="V87" s="12"/>
       <c r="W87" s="12"/>
     </row>
@@ -8552,139 +8598,139 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="73" t="str">
+      <c r="B1" s="76" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="C1" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="78"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="3" ht="89.25">
-      <c r="A3" s="76" t="s">
-        <v>405</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>406</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>407</v>
-      </c>
-      <c r="D3" s="76" t="s">
+      <c r="A3" s="79" t="s">
         <v>408</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>409</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="C3" s="80" t="s">
         <v>410</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="D3" s="79" t="s">
+        <v>411</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>412</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>413</v>
+      </c>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>411</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>412</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>413</v>
-      </c>
-      <c r="F4" s="60" t="s">
+      <c r="C4" s="63" t="s">
         <v>414</v>
       </c>
-      <c r="G4" s="60" t="s">
-        <v>411</v>
-      </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="D4" s="63" t="s">
+        <v>415</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>417</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" ht="409.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>416</v>
+        <v>418</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>419</v>
       </c>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" ht="178.5">
+    <row r="6" ht="165.75">
       <c r="A6" s="12" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>420</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" ht="266.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="C7" s="79" t="s">
         <v>418</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>421</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" ht="114.75">
       <c r="A8" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>420</v>
+        <v>418</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" ht="114.75">
       <c r="A9" s="12" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>421</v>
+        <v>418</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>424</v>
       </c>
       <c r="D9" s="12"/>
     </row>
@@ -8712,67 +8758,67 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="81" t="str">
+      <c r="B1" s="83" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="C1" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>422</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>423</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="84" t="s">
-        <v>424</v>
-      </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
+      <c r="C4" s="86" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8799,62 +8845,62 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="73" t="str">
+      <c r="B1" s="76" t="str">
         <f>Entities!B1</f>
         <v>https://w3id.org/SpOTy/shapes-ldo</v>
       </c>
-      <c r="C1" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="75"/>
+      <c r="C1" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" ht="63.75">
-      <c r="A4" s="76" t="s">
-        <v>425</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>426</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>407</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>427</v>
-      </c>
-      <c r="E4" s="75"/>
+      <c r="A4" s="79" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>430</v>
+      </c>
+      <c r="E4" s="78"/>
     </row>
     <row r="5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>411</v>
-      </c>
-      <c r="D5" s="60" t="s">
+      <c r="C5" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="D5" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="78"/>
+      <c r="E5" s="81"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8880,406 +8926,406 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="86" t="s">
-        <v>428</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>429</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>430</v>
+      <c r="A1" s="88" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="64" t="s">
-        <v>431</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>432</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>433</v>
+      <c r="A2" s="67" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>434</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>435</v>
+      <c r="A3" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="64" t="s">
-        <v>436</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>437</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>438</v>
+      <c r="A4" s="67" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>440</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="64" t="s">
-        <v>439</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>440</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>441</v>
+      <c r="A5" s="67" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>442</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>443</v>
+      <c r="A6" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="64" t="s">
-        <v>444</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>445</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>446</v>
+      <c r="A7" s="67" t="s">
+        <v>447</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>447</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>448</v>
+      <c r="A8" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="64" t="s">
-        <v>449</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>450</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>451</v>
+      <c r="A9" s="67" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>453</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>454</v>
+      <c r="A10" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>456</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="64" t="s">
-        <v>395</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>455</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>456</v>
+      <c r="A11" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>458</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="64" t="s">
-        <v>322</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>457</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>458</v>
+      <c r="A12" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>460</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>461</v>
+      <c r="A13" s="67" t="s">
+        <v>462</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="64" t="s">
-        <v>462</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>463</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>464</v>
+      <c r="A14" s="67" t="s">
+        <v>465</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>466</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64" t="s">
-        <v>465</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>466</v>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67" t="s">
+        <v>468</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64" t="s">
-        <v>467</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>468</v>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67" t="s">
+        <v>470</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64" t="s">
-        <v>469</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>470</v>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67" t="s">
+        <v>472</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64" t="s">
-        <v>471</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>472</v>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64" t="s">
-        <v>473</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>474</v>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67" t="s">
+        <v>476</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64" t="s">
-        <v>475</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>476</v>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67" t="s">
+        <v>478</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64" t="s">
-        <v>477</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>478</v>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67" t="s">
+        <v>480</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64" t="s">
-        <v>479</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>480</v>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64" t="s">
-        <v>481</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>482</v>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67" t="s">
+        <v>484</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64" t="s">
-        <v>483</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>484</v>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67" t="s">
+        <v>486</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64" t="s">
-        <v>485</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>486</v>
+      <c r="A25" s="67"/>
+      <c r="B25" s="67" t="s">
+        <v>488</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64" t="s">
-        <v>487</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>488</v>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67" t="s">
+        <v>490</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64" t="s">
-        <v>489</v>
-      </c>
-      <c r="C27" s="64"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="67" t="s">
+        <v>492</v>
+      </c>
+      <c r="C27" s="67"/>
     </row>
     <row r="28">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64" t="s">
-        <v>490</v>
-      </c>
-      <c r="C28" s="64"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="C28" s="67"/>
     </row>
     <row r="29">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64" t="s">
-        <v>491</v>
-      </c>
-      <c r="C29" s="64"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="67" t="s">
+        <v>494</v>
+      </c>
+      <c r="C29" s="67"/>
     </row>
     <row r="30">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64" t="s">
-        <v>492</v>
-      </c>
-      <c r="C30" s="64"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="67" t="s">
+        <v>495</v>
+      </c>
+      <c r="C30" s="67"/>
     </row>
     <row r="31">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64" t="s">
-        <v>493</v>
-      </c>
-      <c r="C31" s="64"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="67" t="s">
+        <v>496</v>
+      </c>
+      <c r="C31" s="67"/>
     </row>
     <row r="32">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64" t="s">
-        <v>494</v>
-      </c>
-      <c r="C32" s="64"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="C32" s="67"/>
     </row>
     <row r="33">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="C33" s="64"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="67" t="s">
+        <v>498</v>
+      </c>
+      <c r="C33" s="67"/>
     </row>
     <row r="34">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64" t="s">
-        <v>496</v>
-      </c>
-      <c r="C34" s="64"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="67" t="s">
+        <v>499</v>
+      </c>
+      <c r="C34" s="67"/>
     </row>
     <row r="35">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="C35" s="64"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="67" t="s">
+        <v>500</v>
+      </c>
+      <c r="C35" s="67"/>
     </row>
     <row r="36">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64" t="s">
-        <v>498</v>
-      </c>
-      <c r="C36" s="64"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="C36" s="67"/>
     </row>
     <row r="37">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64" t="s">
-        <v>499</v>
-      </c>
-      <c r="C37" s="64"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="67" t="s">
+        <v>502</v>
+      </c>
+      <c r="C37" s="67"/>
     </row>
     <row r="38">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64" t="s">
-        <v>500</v>
-      </c>
-      <c r="C38" s="64"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="C38" s="67"/>
     </row>
     <row r="39">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64" t="s">
-        <v>501</v>
-      </c>
-      <c r="C39" s="64"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="67" t="s">
+        <v>504</v>
+      </c>
+      <c r="C39" s="67"/>
     </row>
     <row r="40">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64" t="s">
-        <v>502</v>
-      </c>
-      <c r="C40" s="64"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="67" t="s">
+        <v>505</v>
+      </c>
+      <c r="C40" s="67"/>
     </row>
     <row r="41">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64" t="s">
-        <v>503</v>
-      </c>
-      <c r="C41" s="64"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="67" t="s">
+        <v>506</v>
+      </c>
+      <c r="C41" s="67"/>
     </row>
     <row r="42">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64" t="s">
-        <v>504</v>
-      </c>
-      <c r="C42" s="64"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="C42" s="67"/>
     </row>
     <row r="43">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64" t="s">
-        <v>505</v>
-      </c>
-      <c r="C43" s="64"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="67" t="s">
+        <v>508</v>
+      </c>
+      <c r="C43" s="67"/>
     </row>
     <row r="44">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64" t="s">
-        <v>506</v>
-      </c>
-      <c r="C44" s="64"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="67" t="s">
+        <v>509</v>
+      </c>
+      <c r="C44" s="67"/>
     </row>
     <row r="45">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64" t="s">
-        <v>507</v>
-      </c>
-      <c r="C45" s="64"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="C45" s="67"/>
     </row>
     <row r="46">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64" t="s">
-        <v>508</v>
-      </c>
-      <c r="C46" s="64"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C46" s="67"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
